--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="46">
   <si>
     <t>Suzuka</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Nick**</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>Travis</t>
@@ -415,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -452,23 +455,29 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -1040,8 +1049,12 @@
       <c r="C3" s="8">
         <v>2.0</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="F3" s="11">
         <f>IFERROR((VLOOKUP(C3,Sheet2!$A:$B,2,0))+IF(E3="y",1,0),0)</f>
         <v>18</v>
@@ -1074,9 +1087,9 @@
         <f>IFERROR((VLOOKUP(S3,Sheet2!$A:$B,2,0))+IF(U3="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="12"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="14"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="10"/>
       <c r="Z3" s="11">
         <f>IFERROR((VLOOKUP(W3,Sheet2!$D:$E,2,0))+IF(Y3="y",1,0),0)</f>
         <v>0</v>
@@ -1150,46 +1163,50 @@
         <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="15">
         <v>16.0</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="16">
+        <v>10.0</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="F4" s="18">
         <f>IFERROR((VLOOKUP(C4,Sheet2!$A:$B,2,0))+IF(E4="y",1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G4" s="19"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="18">
         <f>IFERROR((VLOOKUP(G4,Sheet2!$A:$B,2,0))+IF(I4="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="K4" s="19"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="18">
         <f>IFERROR((VLOOKUP(K4,Sheet2!$A:$B,2,0))+IF(M4="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="O4" s="19"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="17"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
       <c r="R4" s="18">
         <f>IFERROR((VLOOKUP(O4,Sheet2!$A:$B,2,0))+IF(Q4="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="S4" s="19"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="17"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="21"/>
       <c r="V4" s="18">
         <f>IFERROR((VLOOKUP(S4,Sheet2!$A:$B,2,0))+IF(U4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="19"/>
+      <c r="W4" s="15"/>
       <c r="X4" s="16"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="18">
@@ -1197,64 +1214,64 @@
         <v>0</v>
       </c>
       <c r="AA4" s="19"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="17"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="21"/>
       <c r="AD4" s="18">
         <f>IFERROR((VLOOKUP(AA4,Sheet2!$A:$B,2,0))+IF(AC4="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="19"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="17"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="21"/>
       <c r="AH4" s="18">
         <f>IFERROR((VLOOKUP(AE4,Sheet2!$A:$B,2,0))+IF(AG4="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="19"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="17"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="21"/>
       <c r="AL4" s="18">
         <f>IFERROR((VLOOKUP(AI4,Sheet2!$A:$B,2,0))+IF(AK4="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AM4" s="19"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="17"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="21"/>
       <c r="AP4" s="18">
         <f>IFERROR((VLOOKUP(AM4,Sheet2!$A:$B,2,0))+IF(AO4="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AQ4" s="19"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="17"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="21"/>
       <c r="AT4" s="18">
         <f>IFERROR((VLOOKUP(AQ4,Sheet2!$A:$B,2,0))+IF(AS4="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AU4" s="19"/>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="17"/>
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="21"/>
       <c r="AX4" s="18">
         <f>IFERROR((VLOOKUP(AU4,Sheet2!$D:$E,2,0))+IF(AW4="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AY4" s="19"/>
-      <c r="AZ4" s="16"/>
-      <c r="BA4" s="17"/>
+      <c r="AZ4" s="20"/>
+      <c r="BA4" s="21"/>
       <c r="BB4" s="18">
         <f>IFERROR((VLOOKUP(AY4,Sheet2!$A:$B,2,0))+IF(BA4="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BC4" s="19"/>
-      <c r="BD4" s="16"/>
-      <c r="BE4" s="17"/>
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="21"/>
       <c r="BF4" s="18">
         <f>IFERROR((VLOOKUP(BC4,Sheet2!$D:$E,2,0))+IF(BE4="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BG4" s="19"/>
-      <c r="BH4" s="16"/>
-      <c r="BI4" s="17"/>
+      <c r="BH4" s="20"/>
+      <c r="BI4" s="21"/>
       <c r="BJ4" s="18">
         <f>IFERROR((VLOOKUP(BG4,Sheet2!$A:$B,2,0))+IF(BI4="y",1,0),0)</f>
         <v>0</v>
@@ -1262,49 +1279,53 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="15">
         <v>11.0</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="F5" s="18">
         <f>IFERROR((VLOOKUP(C5,Sheet2!$A:$B,2,0))+IF(E5="y",1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G5" s="19"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="18">
         <f>IFERROR((VLOOKUP(G5,Sheet2!$A:$B,2,0))+IF(I5="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="19"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="18">
         <f>IFERROR((VLOOKUP(K5,Sheet2!$A:$B,2,0))+IF(M5="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="O5" s="19"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="21"/>
       <c r="R5" s="18">
         <f>IFERROR((VLOOKUP(O5,Sheet2!$A:$B,2,0))+IF(Q5="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="S5" s="19"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="17"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="21"/>
       <c r="V5" s="18">
         <f>IFERROR((VLOOKUP(S5,Sheet2!$A:$B,2,0))+IF(U5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="19"/>
+      <c r="W5" s="15"/>
       <c r="X5" s="16"/>
       <c r="Y5" s="17"/>
       <c r="Z5" s="18">
@@ -1312,64 +1333,64 @@
         <v>0</v>
       </c>
       <c r="AA5" s="19"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="17"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="21"/>
       <c r="AD5" s="18">
         <f>IFERROR((VLOOKUP(AA5,Sheet2!$A:$B,2,0))+IF(AC5="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AE5" s="19"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="17"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="21"/>
       <c r="AH5" s="18">
         <f>IFERROR((VLOOKUP(AE5,Sheet2!$A:$B,2,0))+IF(AG5="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AI5" s="19"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="17"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="21"/>
       <c r="AL5" s="18">
         <f>IFERROR((VLOOKUP(AI5,Sheet2!$A:$B,2,0))+IF(AK5="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AM5" s="19"/>
-      <c r="AN5" s="16"/>
-      <c r="AO5" s="17"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="21"/>
       <c r="AP5" s="18">
         <f>IFERROR((VLOOKUP(AM5,Sheet2!$A:$B,2,0))+IF(AO5="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AQ5" s="19"/>
-      <c r="AR5" s="16"/>
-      <c r="AS5" s="17"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="21"/>
       <c r="AT5" s="18">
         <f>IFERROR((VLOOKUP(AQ5,Sheet2!$A:$B,2,0))+IF(AS5="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AU5" s="19"/>
-      <c r="AV5" s="16"/>
-      <c r="AW5" s="17"/>
+      <c r="AV5" s="20"/>
+      <c r="AW5" s="21"/>
       <c r="AX5" s="18">
         <f>IFERROR((VLOOKUP(AU5,Sheet2!$D:$E,2,0))+IF(AW5="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AY5" s="19"/>
-      <c r="AZ5" s="16"/>
-      <c r="BA5" s="17"/>
+      <c r="AZ5" s="20"/>
+      <c r="BA5" s="21"/>
       <c r="BB5" s="18">
         <f>IFERROR((VLOOKUP(AY5,Sheet2!$A:$B,2,0))+IF(BA5="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BC5" s="19"/>
-      <c r="BD5" s="16"/>
-      <c r="BE5" s="17"/>
+      <c r="BD5" s="20"/>
+      <c r="BE5" s="21"/>
       <c r="BF5" s="18">
         <f>IFERROR((VLOOKUP(BC5,Sheet2!$D:$E,2,0))+IF(BE5="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BG5" s="19"/>
-      <c r="BH5" s="16"/>
-      <c r="BI5" s="17"/>
+      <c r="BH5" s="20"/>
+      <c r="BI5" s="21"/>
       <c r="BJ5" s="18">
         <f>IFERROR((VLOOKUP(BG5,Sheet2!$A:$B,2,0))+IF(BI5="y",1,0),0)</f>
         <v>0</v>
@@ -1377,49 +1398,53 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="15">
         <v>5.0</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="16">
+        <v>16.0</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="F6" s="18">
         <f>IFERROR((VLOOKUP(C6,Sheet2!$A:$B,2,0))+IF(E6="y",1,0),0)</f>
         <v>10</v>
       </c>
       <c r="G6" s="19"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="18">
         <f>IFERROR((VLOOKUP(G6,Sheet2!$A:$B,2,0))+IF(I6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="K6" s="19"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="18">
         <f>IFERROR((VLOOKUP(K6,Sheet2!$A:$B,2,0))+IF(M6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="O6" s="19"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
       <c r="R6" s="18">
         <f>IFERROR((VLOOKUP(O6,Sheet2!$A:$B,2,0))+IF(Q6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="S6" s="19"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="17"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="21"/>
       <c r="V6" s="18">
         <f>IFERROR((VLOOKUP(S6,Sheet2!$A:$B,2,0))+IF(U6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="19"/>
+      <c r="W6" s="15"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="17"/>
       <c r="Z6" s="18">
@@ -1427,64 +1452,64 @@
         <v>0</v>
       </c>
       <c r="AA6" s="19"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="17"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="21"/>
       <c r="AD6" s="18">
         <f>IFERROR((VLOOKUP(AA6,Sheet2!$A:$B,2,0))+IF(AC6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AE6" s="19"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="17"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="21"/>
       <c r="AH6" s="18">
         <f>IFERROR((VLOOKUP(AE6,Sheet2!$A:$B,2,0))+IF(AG6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AI6" s="19"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="17"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="21"/>
       <c r="AL6" s="18">
         <f>IFERROR((VLOOKUP(AI6,Sheet2!$A:$B,2,0))+IF(AK6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AM6" s="19"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="17"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="21"/>
       <c r="AP6" s="18">
         <f>IFERROR((VLOOKUP(AM6,Sheet2!$A:$B,2,0))+IF(AO6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AQ6" s="19"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="17"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="21"/>
       <c r="AT6" s="18">
         <f>IFERROR((VLOOKUP(AQ6,Sheet2!$A:$B,2,0))+IF(AS6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AU6" s="19"/>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="17"/>
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="21"/>
       <c r="AX6" s="18">
         <f>IFERROR((VLOOKUP(AU6,Sheet2!$D:$E,2,0))+IF(AW6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AY6" s="19"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="17"/>
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="21"/>
       <c r="BB6" s="18">
         <f>IFERROR((VLOOKUP(AY6,Sheet2!$A:$B,2,0))+IF(BA6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BC6" s="19"/>
-      <c r="BD6" s="16"/>
-      <c r="BE6" s="17"/>
+      <c r="BD6" s="20"/>
+      <c r="BE6" s="21"/>
       <c r="BF6" s="18">
         <f>IFERROR((VLOOKUP(BC6,Sheet2!$D:$E,2,0))+IF(BE6="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BG6" s="19"/>
-      <c r="BH6" s="16"/>
-      <c r="BI6" s="17"/>
+      <c r="BH6" s="20"/>
+      <c r="BI6" s="21"/>
       <c r="BJ6" s="18">
         <f>IFERROR((VLOOKUP(BG6,Sheet2!$A:$B,2,0))+IF(BI6="y",1,0),0)</f>
         <v>0</v>
@@ -1492,49 +1517,53 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="15">
         <v>7.0</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="D7" s="16">
+        <v>7.0</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="F7" s="18">
         <f>IFERROR((VLOOKUP(C7,Sheet2!$A:$B,2,0))+IF(E7="y",1,0),0)</f>
         <v>6</v>
       </c>
       <c r="G7" s="19"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
       <c r="J7" s="18">
         <f>IFERROR((VLOOKUP(G7,Sheet2!$A:$B,2,0))+IF(I7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="K7" s="19"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="18">
         <f>IFERROR((VLOOKUP(K7,Sheet2!$A:$B,2,0))+IF(M7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="O7" s="19"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
       <c r="R7" s="18">
         <f>IFERROR((VLOOKUP(O7,Sheet2!$A:$B,2,0))+IF(Q7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="S7" s="19"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="17"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="21"/>
       <c r="V7" s="18">
         <f>IFERROR((VLOOKUP(S7,Sheet2!$A:$B,2,0))+IF(U7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="19"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="16"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="18">
@@ -1542,64 +1571,64 @@
         <v>0</v>
       </c>
       <c r="AA7" s="19"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="17"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="21"/>
       <c r="AD7" s="18">
         <f>IFERROR((VLOOKUP(AA7,Sheet2!$A:$B,2,0))+IF(AC7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AE7" s="19"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="17"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="21"/>
       <c r="AH7" s="18">
         <f>IFERROR((VLOOKUP(AE7,Sheet2!$A:$B,2,0))+IF(AG7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AI7" s="19"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="17"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="21"/>
       <c r="AL7" s="18">
         <f>IFERROR((VLOOKUP(AI7,Sheet2!$A:$B,2,0))+IF(AK7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AM7" s="19"/>
-      <c r="AN7" s="16"/>
-      <c r="AO7" s="17"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="21"/>
       <c r="AP7" s="18">
         <f>IFERROR((VLOOKUP(AM7,Sheet2!$A:$B,2,0))+IF(AO7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AQ7" s="19"/>
-      <c r="AR7" s="16"/>
-      <c r="AS7" s="17"/>
+      <c r="AR7" s="20"/>
+      <c r="AS7" s="21"/>
       <c r="AT7" s="18">
         <f>IFERROR((VLOOKUP(AQ7,Sheet2!$A:$B,2,0))+IF(AS7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AU7" s="19"/>
-      <c r="AV7" s="16"/>
-      <c r="AW7" s="17"/>
+      <c r="AV7" s="20"/>
+      <c r="AW7" s="21"/>
       <c r="AX7" s="18">
         <f>IFERROR((VLOOKUP(AU7,Sheet2!$D:$E,2,0))+IF(AW7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AY7" s="19"/>
-      <c r="AZ7" s="16"/>
-      <c r="BA7" s="17"/>
+      <c r="AZ7" s="20"/>
+      <c r="BA7" s="21"/>
       <c r="BB7" s="18">
         <f>IFERROR((VLOOKUP(AY7,Sheet2!$A:$B,2,0))+IF(BA7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BC7" s="19"/>
-      <c r="BD7" s="16"/>
-      <c r="BE7" s="17"/>
+      <c r="BD7" s="20"/>
+      <c r="BE7" s="21"/>
       <c r="BF7" s="18">
         <f>IFERROR((VLOOKUP(BC7,Sheet2!$D:$E,2,0))+IF(BE7="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BG7" s="19"/>
-      <c r="BH7" s="16"/>
-      <c r="BI7" s="17"/>
+      <c r="BH7" s="20"/>
+      <c r="BI7" s="21"/>
       <c r="BJ7" s="18">
         <f>IFERROR((VLOOKUP(BG7,Sheet2!$A:$B,2,0))+IF(BI7="y",1,0),0)</f>
         <v>0</v>
@@ -1607,49 +1636,53 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="15">
         <v>4.0</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="D8" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="F8" s="18">
         <f>IFERROR((VLOOKUP(C8,Sheet2!$A:$B,2,0))+IF(E8="y",1,0),0)</f>
         <v>12</v>
       </c>
       <c r="G8" s="19"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="18">
         <f>IFERROR((VLOOKUP(G8,Sheet2!$A:$B,2,0))+IF(I8="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="K8" s="19"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="18">
         <f>IFERROR((VLOOKUP(K8,Sheet2!$A:$B,2,0))+IF(M8="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="O8" s="19"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
       <c r="R8" s="18">
         <f>IFERROR((VLOOKUP(O8,Sheet2!$A:$B,2,0))+IF(Q8="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="S8" s="19"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
       <c r="V8" s="18">
         <f>IFERROR((VLOOKUP(S8,Sheet2!$A:$B,2,0))+IF(U8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W8" s="19"/>
+      <c r="W8" s="15"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="17"/>
       <c r="Z8" s="18">
@@ -1657,64 +1690,64 @@
         <v>0</v>
       </c>
       <c r="AA8" s="19"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="17"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="21"/>
       <c r="AD8" s="18">
         <f>IFERROR((VLOOKUP(AA8,Sheet2!$A:$B,2,0))+IF(AC8="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AE8" s="19"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="17"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="21"/>
       <c r="AH8" s="18">
         <f>IFERROR((VLOOKUP(AE8,Sheet2!$A:$B,2,0))+IF(AG8="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="19"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="17"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="21"/>
       <c r="AL8" s="18">
         <f>IFERROR((VLOOKUP(AI8,Sheet2!$A:$B,2,0))+IF(AK8="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AM8" s="19"/>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="17"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="21"/>
       <c r="AP8" s="18">
         <f>IFERROR((VLOOKUP(AM8,Sheet2!$A:$B,2,0))+IF(AO8="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="19"/>
-      <c r="AR8" s="16"/>
-      <c r="AS8" s="17"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="21"/>
       <c r="AT8" s="18">
         <f>IFERROR((VLOOKUP(AQ8,Sheet2!$A:$B,2,0))+IF(AS8="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AU8" s="19"/>
-      <c r="AV8" s="16"/>
-      <c r="AW8" s="17"/>
+      <c r="AV8" s="20"/>
+      <c r="AW8" s="21"/>
       <c r="AX8" s="18">
         <f>IFERROR((VLOOKUP(AU8,Sheet2!$D:$E,2,0))+IF(AW8="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AY8" s="19"/>
-      <c r="AZ8" s="16"/>
-      <c r="BA8" s="17"/>
+      <c r="AZ8" s="20"/>
+      <c r="BA8" s="21"/>
       <c r="BB8" s="18">
         <f>IFERROR((VLOOKUP(AY8,Sheet2!$A:$B,2,0))+IF(BA8="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BC8" s="19"/>
-      <c r="BD8" s="16"/>
-      <c r="BE8" s="17"/>
+      <c r="BD8" s="20"/>
+      <c r="BE8" s="21"/>
       <c r="BF8" s="18">
         <f>IFERROR((VLOOKUP(BC8,Sheet2!$D:$E,2,0))+IF(BE8="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BG8" s="19"/>
-      <c r="BH8" s="16"/>
-      <c r="BI8" s="17"/>
+      <c r="BH8" s="20"/>
+      <c r="BI8" s="21"/>
       <c r="BJ8" s="18">
         <f>IFERROR((VLOOKUP(BG8,Sheet2!$A:$B,2,0))+IF(BI8="y",1,0),0)</f>
         <v>0</v>
@@ -1722,49 +1755,53 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="15">
         <v>8.0</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+      <c r="D9" s="16">
+        <v>13.0</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="F9" s="18">
         <f>IFERROR((VLOOKUP(C9,Sheet2!$A:$B,2,0))+IF(E9="y",1,0),0)</f>
         <v>4</v>
       </c>
       <c r="G9" s="19"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="18">
         <f>IFERROR((VLOOKUP(G9,Sheet2!$A:$B,2,0))+IF(I9="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="K9" s="19"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
       <c r="N9" s="18">
         <f>IFERROR((VLOOKUP(K9,Sheet2!$A:$B,2,0))+IF(M9="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="O9" s="19"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="21"/>
       <c r="R9" s="18">
         <f>IFERROR((VLOOKUP(O9,Sheet2!$A:$B,2,0))+IF(Q9="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="S9" s="19"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="17"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="21"/>
       <c r="V9" s="18">
         <f>IFERROR((VLOOKUP(S9,Sheet2!$A:$B,2,0))+IF(U9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W9" s="19"/>
+      <c r="W9" s="15"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="17"/>
       <c r="Z9" s="18">
@@ -1772,64 +1809,64 @@
         <v>0</v>
       </c>
       <c r="AA9" s="19"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="17"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="21"/>
       <c r="AD9" s="18">
         <f>IFERROR((VLOOKUP(AA9,Sheet2!$A:$B,2,0))+IF(AC9="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AE9" s="19"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="17"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="21"/>
       <c r="AH9" s="18">
         <f>IFERROR((VLOOKUP(AE9,Sheet2!$A:$B,2,0))+IF(AG9="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AI9" s="19"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="17"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="21"/>
       <c r="AL9" s="18">
         <f>IFERROR((VLOOKUP(AI9,Sheet2!$A:$B,2,0))+IF(AK9="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AM9" s="19"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="17"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="21"/>
       <c r="AP9" s="18">
         <f>IFERROR((VLOOKUP(AM9,Sheet2!$A:$B,2,0))+IF(AO9="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AQ9" s="19"/>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="17"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="21"/>
       <c r="AT9" s="18">
         <f>IFERROR((VLOOKUP(AQ9,Sheet2!$A:$B,2,0))+IF(AS9="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AU9" s="19"/>
-      <c r="AV9" s="16"/>
-      <c r="AW9" s="17"/>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="21"/>
       <c r="AX9" s="18">
         <f>IFERROR((VLOOKUP(AU9,Sheet2!$D:$E,2,0))+IF(AW9="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AY9" s="19"/>
-      <c r="AZ9" s="16"/>
-      <c r="BA9" s="17"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="21"/>
       <c r="BB9" s="18">
         <f>IFERROR((VLOOKUP(AY9,Sheet2!$A:$B,2,0))+IF(BA9="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BC9" s="19"/>
-      <c r="BD9" s="16"/>
-      <c r="BE9" s="17"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="21"/>
       <c r="BF9" s="18">
         <f>IFERROR((VLOOKUP(BC9,Sheet2!$D:$E,2,0))+IF(BE9="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BG9" s="19"/>
-      <c r="BH9" s="16"/>
-      <c r="BI9" s="17"/>
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="21"/>
       <c r="BJ9" s="18">
         <f>IFERROR((VLOOKUP(BG9,Sheet2!$A:$B,2,0))+IF(BI9="y",1,0),0)</f>
         <v>0</v>
@@ -1837,51 +1874,53 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="15">
         <v>1.0</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21" t="s">
-        <v>33</v>
+      <c r="D10" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="F10" s="18">
         <f>IFERROR((VLOOKUP(C10,Sheet2!$A:$B,2,0))+IF(E10="y",1,0),0)</f>
         <v>26</v>
       </c>
       <c r="G10" s="19"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="18">
         <f>IFERROR((VLOOKUP(G10,Sheet2!$A:$B,2,0))+IF(I10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="K10" s="19"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
       <c r="N10" s="18">
         <f>IFERROR((VLOOKUP(K10,Sheet2!$A:$B,2,0))+IF(M10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="O10" s="19"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="21"/>
       <c r="R10" s="18">
         <f>IFERROR((VLOOKUP(O10,Sheet2!$A:$B,2,0))+IF(Q10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="S10" s="19"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="17"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="21"/>
       <c r="V10" s="18">
         <f>IFERROR((VLOOKUP(S10,Sheet2!$A:$B,2,0))+IF(U10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="19"/>
+      <c r="W10" s="15"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="17"/>
       <c r="Z10" s="18">
@@ -1889,64 +1928,64 @@
         <v>0</v>
       </c>
       <c r="AA10" s="19"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="17"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="21"/>
       <c r="AD10" s="18">
         <f>IFERROR((VLOOKUP(AA10,Sheet2!$A:$B,2,0))+IF(AC10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AE10" s="19"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="17"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="21"/>
       <c r="AH10" s="18">
         <f>IFERROR((VLOOKUP(AE10,Sheet2!$A:$B,2,0))+IF(AG10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AI10" s="19"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="17"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="21"/>
       <c r="AL10" s="18">
         <f>IFERROR((VLOOKUP(AI10,Sheet2!$A:$B,2,0))+IF(AK10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AM10" s="19"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="17"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="21"/>
       <c r="AP10" s="18">
         <f>IFERROR((VLOOKUP(AM10,Sheet2!$A:$B,2,0))+IF(AO10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AQ10" s="19"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="17"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="21"/>
       <c r="AT10" s="18">
         <f>IFERROR((VLOOKUP(AQ10,Sheet2!$A:$B,2,0))+IF(AS10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AU10" s="19"/>
-      <c r="AV10" s="16"/>
-      <c r="AW10" s="17"/>
+      <c r="AV10" s="20"/>
+      <c r="AW10" s="21"/>
       <c r="AX10" s="18">
         <f>IFERROR((VLOOKUP(AU10,Sheet2!$D:$E,2,0))+IF(AW10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AY10" s="19"/>
-      <c r="AZ10" s="16"/>
-      <c r="BA10" s="17"/>
+      <c r="AZ10" s="20"/>
+      <c r="BA10" s="21"/>
       <c r="BB10" s="18">
         <f>IFERROR((VLOOKUP(AY10,Sheet2!$A:$B,2,0))+IF(BA10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BC10" s="19"/>
-      <c r="BD10" s="16"/>
-      <c r="BE10" s="17"/>
+      <c r="BD10" s="20"/>
+      <c r="BE10" s="21"/>
       <c r="BF10" s="18">
         <f>IFERROR((VLOOKUP(BC10,Sheet2!$D:$E,2,0))+IF(BE10="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BG10" s="19"/>
-      <c r="BH10" s="16"/>
-      <c r="BI10" s="17"/>
+      <c r="BH10" s="20"/>
+      <c r="BI10" s="21"/>
       <c r="BJ10" s="18">
         <f>IFERROR((VLOOKUP(BG10,Sheet2!$A:$B,2,0))+IF(BI10="y",1,0),0)</f>
         <v>0</v>
@@ -1954,49 +1993,53 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="15">
         <v>14.0</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="16">
+        <v>19.0</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" s="18">
         <f>IFERROR((VLOOKUP(C11,Sheet2!$A:$B,2,0))+IF(E11="y",1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G11" s="19"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="18">
         <f>IFERROR((VLOOKUP(G11,Sheet2!$A:$B,2,0))+IF(I11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="K11" s="19"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
       <c r="N11" s="18">
         <f>IFERROR((VLOOKUP(K11,Sheet2!$A:$B,2,0))+IF(M11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="O11" s="19"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
       <c r="R11" s="18">
         <f>IFERROR((VLOOKUP(O11,Sheet2!$A:$B,2,0))+IF(Q11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="S11" s="19"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="17"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="21"/>
       <c r="V11" s="18">
         <f>IFERROR((VLOOKUP(S11,Sheet2!$A:$B,2,0))+IF(U11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W11" s="19"/>
+      <c r="W11" s="15"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="17"/>
       <c r="Z11" s="18">
@@ -2004,64 +2047,64 @@
         <v>0</v>
       </c>
       <c r="AA11" s="19"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="17"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="21"/>
       <c r="AD11" s="18">
         <f>IFERROR((VLOOKUP(AA11,Sheet2!$A:$B,2,0))+IF(AC11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AE11" s="19"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="17"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="21"/>
       <c r="AH11" s="18">
         <f>IFERROR((VLOOKUP(AE11,Sheet2!$A:$B,2,0))+IF(AG11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AI11" s="19"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="17"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="21"/>
       <c r="AL11" s="18">
         <f>IFERROR((VLOOKUP(AI11,Sheet2!$A:$B,2,0))+IF(AK11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AM11" s="19"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="17"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="21"/>
       <c r="AP11" s="18">
         <f>IFERROR((VLOOKUP(AM11,Sheet2!$A:$B,2,0))+IF(AO11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AQ11" s="19"/>
-      <c r="AR11" s="16"/>
-      <c r="AS11" s="17"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="21"/>
       <c r="AT11" s="18">
         <f>IFERROR((VLOOKUP(AQ11,Sheet2!$A:$B,2,0))+IF(AS11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AU11" s="19"/>
-      <c r="AV11" s="16"/>
-      <c r="AW11" s="17"/>
+      <c r="AV11" s="20"/>
+      <c r="AW11" s="21"/>
       <c r="AX11" s="18">
         <f>IFERROR((VLOOKUP(AU11,Sheet2!$D:$E,2,0))+IF(AW11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AY11" s="19"/>
-      <c r="AZ11" s="16"/>
-      <c r="BA11" s="17"/>
+      <c r="AZ11" s="20"/>
+      <c r="BA11" s="21"/>
       <c r="BB11" s="18">
         <f>IFERROR((VLOOKUP(AY11,Sheet2!$A:$B,2,0))+IF(BA11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BC11" s="19"/>
-      <c r="BD11" s="16"/>
-      <c r="BE11" s="17"/>
+      <c r="BD11" s="20"/>
+      <c r="BE11" s="21"/>
       <c r="BF11" s="18">
         <f>IFERROR((VLOOKUP(BC11,Sheet2!$D:$E,2,0))+IF(BE11="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BG11" s="19"/>
-      <c r="BH11" s="16"/>
-      <c r="BI11" s="17"/>
+      <c r="BH11" s="20"/>
+      <c r="BI11" s="21"/>
       <c r="BJ11" s="18">
         <f>IFERROR((VLOOKUP(BG11,Sheet2!$A:$B,2,0))+IF(BI11="y",1,0),0)</f>
         <v>0</v>
@@ -2069,49 +2112,53 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="15">
         <v>17.0</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="D12" s="16">
+        <v>8.0</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="F12" s="18">
         <f>IFERROR((VLOOKUP(C12,Sheet2!$A:$B,2,0))+IF(E12="y",1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G12" s="19"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="18">
         <f>IFERROR((VLOOKUP(G12,Sheet2!$A:$B,2,0))+IF(I12="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="K12" s="19"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
       <c r="N12" s="18">
         <f>IFERROR((VLOOKUP(K12,Sheet2!$A:$B,2,0))+IF(M12="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="O12" s="19"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
       <c r="R12" s="18">
         <f>IFERROR((VLOOKUP(O12,Sheet2!$A:$B,2,0))+IF(Q12="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="S12" s="19"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="17"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="21"/>
       <c r="V12" s="18">
         <f>IFERROR((VLOOKUP(S12,Sheet2!$A:$B,2,0))+IF(U12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W12" s="19"/>
+      <c r="W12" s="15"/>
       <c r="X12" s="16"/>
       <c r="Y12" s="17"/>
       <c r="Z12" s="18">
@@ -2119,64 +2166,64 @@
         <v>0</v>
       </c>
       <c r="AA12" s="19"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="17"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="21"/>
       <c r="AD12" s="18">
         <f>IFERROR((VLOOKUP(AA12,Sheet2!$A:$B,2,0))+IF(AC12="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AE12" s="19"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="17"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="21"/>
       <c r="AH12" s="18">
         <f>IFERROR((VLOOKUP(AE12,Sheet2!$A:$B,2,0))+IF(AG12="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AI12" s="19"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="17"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="21"/>
       <c r="AL12" s="18">
         <f>IFERROR((VLOOKUP(AI12,Sheet2!$A:$B,2,0))+IF(AK12="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AM12" s="19"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="17"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="21"/>
       <c r="AP12" s="18">
         <f>IFERROR((VLOOKUP(AM12,Sheet2!$A:$B,2,0))+IF(AO12="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AQ12" s="19"/>
-      <c r="AR12" s="16"/>
-      <c r="AS12" s="17"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="21"/>
       <c r="AT12" s="18">
         <f>IFERROR((VLOOKUP(AQ12,Sheet2!$A:$B,2,0))+IF(AS12="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AU12" s="19"/>
-      <c r="AV12" s="16"/>
-      <c r="AW12" s="17"/>
+      <c r="AV12" s="20"/>
+      <c r="AW12" s="21"/>
       <c r="AX12" s="18">
         <f>IFERROR((VLOOKUP(AU12,Sheet2!$D:$E,2,0))+IF(AW12="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AY12" s="19"/>
-      <c r="AZ12" s="16"/>
-      <c r="BA12" s="17"/>
+      <c r="AZ12" s="20"/>
+      <c r="BA12" s="21"/>
       <c r="BB12" s="18">
         <f>IFERROR((VLOOKUP(AY12,Sheet2!$A:$B,2,0))+IF(BA12="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BC12" s="19"/>
-      <c r="BD12" s="16"/>
-      <c r="BE12" s="17"/>
+      <c r="BD12" s="20"/>
+      <c r="BE12" s="21"/>
       <c r="BF12" s="18">
         <f>IFERROR((VLOOKUP(BC12,Sheet2!$D:$E,2,0))+IF(BE12="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BG12" s="19"/>
-      <c r="BH12" s="16"/>
-      <c r="BI12" s="17"/>
+      <c r="BH12" s="20"/>
+      <c r="BI12" s="21"/>
       <c r="BJ12" s="18">
         <f>IFERROR((VLOOKUP(BG12,Sheet2!$A:$B,2,0))+IF(BI12="y",1,0),0)</f>
         <v>0</v>
@@ -2184,49 +2231,53 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="15">
         <v>18.0</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
+      <c r="D13" s="16">
+        <v>20.0</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="F13" s="18">
         <f>IFERROR((VLOOKUP(C13,Sheet2!$A:$B,2,0))+IF(E13="y",1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G13" s="19"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="18">
         <f>IFERROR((VLOOKUP(G13,Sheet2!$A:$B,2,0))+IF(I13="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="K13" s="19"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="18">
         <f>IFERROR((VLOOKUP(K13,Sheet2!$A:$B,2,0))+IF(M13="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="O13" s="19"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="17"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21"/>
       <c r="R13" s="18">
         <f>IFERROR((VLOOKUP(O13,Sheet2!$A:$B,2,0))+IF(Q13="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="S13" s="19"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="17"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="21"/>
       <c r="V13" s="18">
         <f>IFERROR((VLOOKUP(S13,Sheet2!$A:$B,2,0))+IF(U13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="19"/>
+      <c r="W13" s="15"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="17"/>
       <c r="Z13" s="18">
@@ -2234,64 +2285,64 @@
         <v>0</v>
       </c>
       <c r="AA13" s="19"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="17"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="21"/>
       <c r="AD13" s="18">
         <f>IFERROR((VLOOKUP(AA13,Sheet2!$A:$B,2,0))+IF(AC13="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AE13" s="19"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="17"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="21"/>
       <c r="AH13" s="18">
         <f>IFERROR((VLOOKUP(AE13,Sheet2!$A:$B,2,0))+IF(AG13="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AI13" s="19"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="17"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="21"/>
       <c r="AL13" s="18">
         <f>IFERROR((VLOOKUP(AI13,Sheet2!$A:$B,2,0))+IF(AK13="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AM13" s="19"/>
-      <c r="AN13" s="16"/>
-      <c r="AO13" s="17"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="21"/>
       <c r="AP13" s="18">
         <f>IFERROR((VLOOKUP(AM13,Sheet2!$A:$B,2,0))+IF(AO13="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AQ13" s="19"/>
-      <c r="AR13" s="16"/>
-      <c r="AS13" s="17"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="21"/>
       <c r="AT13" s="18">
         <f>IFERROR((VLOOKUP(AQ13,Sheet2!$A:$B,2,0))+IF(AS13="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AU13" s="19"/>
-      <c r="AV13" s="16"/>
-      <c r="AW13" s="17"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="21"/>
       <c r="AX13" s="18">
         <f>IFERROR((VLOOKUP(AU13,Sheet2!$D:$E,2,0))+IF(AW13="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AY13" s="19"/>
-      <c r="AZ13" s="16"/>
-      <c r="BA13" s="17"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="21"/>
       <c r="BB13" s="18">
         <f>IFERROR((VLOOKUP(AY13,Sheet2!$A:$B,2,0))+IF(BA13="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BC13" s="19"/>
-      <c r="BD13" s="16"/>
-      <c r="BE13" s="17"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="21"/>
       <c r="BF13" s="18">
         <f>IFERROR((VLOOKUP(BC13,Sheet2!$D:$E,2,0))+IF(BE13="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BG13" s="19"/>
-      <c r="BH13" s="16"/>
-      <c r="BI13" s="17"/>
+      <c r="BH13" s="20"/>
+      <c r="BI13" s="21"/>
       <c r="BJ13" s="18">
         <f>IFERROR((VLOOKUP(BG13,Sheet2!$A:$B,2,0))+IF(BI13="y",1,0),0)</f>
         <v>0</v>
@@ -2299,49 +2350,53 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="22">
         <v>3.0</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="23">
+        <v>18.0</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="F14" s="25">
         <f>IFERROR((VLOOKUP(C14,Sheet2!$A:$B,2,0))+IF(E14="y",1,0),0)</f>
         <v>15</v>
       </c>
       <c r="G14" s="26"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="25">
         <f>IFERROR((VLOOKUP(G14,Sheet2!$A:$B,2,0))+IF(I14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="K14" s="26"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="24"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
       <c r="N14" s="25">
         <f>IFERROR((VLOOKUP(K14,Sheet2!$A:$B,2,0))+IF(M14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="O14" s="26"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="24"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="28"/>
       <c r="R14" s="25">
         <f>IFERROR((VLOOKUP(O14,Sheet2!$A:$B,2,0))+IF(Q14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="S14" s="26"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="24"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="28"/>
       <c r="V14" s="25">
         <f>IFERROR((VLOOKUP(S14,Sheet2!$A:$B,2,0))+IF(U14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="26"/>
+      <c r="W14" s="22"/>
       <c r="X14" s="23"/>
       <c r="Y14" s="24"/>
       <c r="Z14" s="25">
@@ -2349,64 +2404,64 @@
         <v>0</v>
       </c>
       <c r="AA14" s="26"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="24"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="28"/>
       <c r="AD14" s="25">
         <f>IFERROR((VLOOKUP(AA14,Sheet2!$A:$B,2,0))+IF(AC14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AE14" s="26"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="24"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="28"/>
       <c r="AH14" s="25">
         <f>IFERROR((VLOOKUP(AE14,Sheet2!$A:$B,2,0))+IF(AG14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AI14" s="26"/>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="24"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="28"/>
       <c r="AL14" s="25">
         <f>IFERROR((VLOOKUP(AI14,Sheet2!$A:$B,2,0))+IF(AK14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AM14" s="26"/>
-      <c r="AN14" s="23"/>
-      <c r="AO14" s="24"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="28"/>
       <c r="AP14" s="25">
         <f>IFERROR((VLOOKUP(AM14,Sheet2!$A:$B,2,0))+IF(AO14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AQ14" s="26"/>
-      <c r="AR14" s="23"/>
-      <c r="AS14" s="24"/>
+      <c r="AR14" s="27"/>
+      <c r="AS14" s="28"/>
       <c r="AT14" s="25">
         <f>IFERROR((VLOOKUP(AQ14,Sheet2!$A:$B,2,0))+IF(AS14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AU14" s="26"/>
-      <c r="AV14" s="23"/>
-      <c r="AW14" s="24"/>
+      <c r="AV14" s="27"/>
+      <c r="AW14" s="28"/>
       <c r="AX14" s="25">
         <f>IFERROR((VLOOKUP(AU14,Sheet2!$D:$E,2,0))+IF(AW14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AY14" s="26"/>
-      <c r="AZ14" s="23"/>
-      <c r="BA14" s="24"/>
+      <c r="AZ14" s="27"/>
+      <c r="BA14" s="28"/>
       <c r="BB14" s="25">
         <f>IFERROR((VLOOKUP(AY14,Sheet2!$A:$B,2,0))+IF(BA14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BC14" s="26"/>
-      <c r="BD14" s="23"/>
-      <c r="BE14" s="24"/>
+      <c r="BD14" s="27"/>
+      <c r="BE14" s="28"/>
       <c r="BF14" s="25">
         <f>IFERROR((VLOOKUP(BC14,Sheet2!$D:$E,2,0))+IF(BE14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BG14" s="26"/>
-      <c r="BH14" s="23"/>
-      <c r="BI14" s="24"/>
+      <c r="BH14" s="27"/>
+      <c r="BI14" s="28"/>
       <c r="BJ14" s="25">
         <f>IFERROR((VLOOKUP(BG14,Sheet2!$A:$B,2,0))+IF(BI14="y",1,0),0)</f>
         <v>0</v>
@@ -2481,389 +2536,389 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="28"/>
+      <c r="A1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="30"/>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="29">
+      <c r="A3" s="31">
         <v>1.0</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="31">
         <v>25.0</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="31">
         <v>1.0</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="17">
         <v>8.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29">
+      <c r="A4" s="31">
         <v>2.0</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="31">
         <v>18.0</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="31">
         <v>2.0</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="17">
         <v>7.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="29">
+      <c r="A5" s="31">
         <v>3.0</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="31">
         <v>15.0</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="31">
         <v>3.0</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="17">
         <v>6.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29">
+      <c r="A6" s="31">
         <v>4.0</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="31">
         <v>12.0</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="31">
         <v>4.0</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="17">
         <v>5.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="29">
+      <c r="A7" s="31">
         <v>5.0</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="31">
         <v>10.0</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="31">
         <v>5.0</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="17">
         <v>4.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29">
+      <c r="A8" s="31">
         <v>6.0</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="31">
         <v>8.0</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="31">
         <v>6.0</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="17">
         <v>3.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="29">
+      <c r="A9" s="31">
         <v>7.0</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="31">
         <v>6.0</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="31">
         <v>7.0</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="17">
         <v>2.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29">
+      <c r="A10" s="31">
         <v>8.0</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="31">
         <v>4.0</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="31">
         <v>8.0</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="17">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="29">
+      <c r="A11" s="31">
         <v>9.0</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="31">
         <v>2.0</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="31">
         <v>9.0</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="29">
+      <c r="A12" s="31">
         <v>10.0</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="31">
         <v>1.0</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="31">
         <v>10.0</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="29">
+      <c r="A13" s="31">
         <v>11.0</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="31">
         <v>1.0</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="31">
         <v>11.0</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="29">
+      <c r="A14" s="31">
         <v>12.0</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="31">
         <v>1.0</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="31">
         <v>12.0</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="29">
+      <c r="A15" s="31">
         <v>13.0</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="31">
         <v>1.0</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="31">
         <v>13.0</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="29">
+      <c r="A16" s="31">
         <v>14.0</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="31">
         <v>1.0</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="31">
         <v>14.0</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="29">
+      <c r="A17" s="31">
         <v>15.0</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="31">
         <v>1.0</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="31">
         <v>15.0</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="29">
+      <c r="A18" s="31">
         <v>16.0</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="31">
         <v>1.0</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="31">
         <v>16.0</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="29">
+      <c r="A19" s="31">
         <v>17.0</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="31">
         <v>1.0</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="31">
         <v>17.0</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="29">
+      <c r="A20" s="31">
         <v>18.0</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="31">
         <v>1.0</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="31">
         <v>18.0</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="29">
+      <c r="A21" s="31">
         <v>19.0</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="31">
         <v>1.0</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="31">
         <v>19.0</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="29">
+      <c r="A22" s="31">
         <v>20.0</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="31">
         <v>1.0</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="31">
         <v>20.0</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="29">
+      <c r="A23" s="31">
         <v>21.0</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="31">
         <v>1.0</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="31">
         <v>21.0</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="29">
+      <c r="A24" s="31">
         <v>22.0</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="31">
         <v>1.0</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="31">
         <v>22.0</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="29">
+      <c r="A25" s="31">
         <v>23.0</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="31">
         <v>1.0</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="31">
         <v>23.0</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="29">
+      <c r="A26" s="31">
         <v>24.0</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="31">
         <v>1.0</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="31">
         <v>24.0</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="17">
         <v>0.5</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="29">
+      <c r="A27" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="31">
         <v>0.0</v>
       </c>
-      <c r="D27" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="21">
+      <c r="D27" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="17">
         <v>0.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="29">
+      <c r="A28" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="31">
         <v>0.0</v>
       </c>
-      <c r="D28" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="21">
+      <c r="D28" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="17">
         <v>0.0</v>
       </c>
     </row>
@@ -2887,444 +2942,504 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="str">
+      <c r="A1" s="32" t="str">
         <f>Sheet1!A2</f>
         <v>Team</v>
       </c>
-      <c r="B1" s="30" t="str">
+      <c r="B1" s="32" t="str">
         <f>Sheet1!B2</f>
         <v>Driver</v>
       </c>
-      <c r="C1" s="30" t="str">
+      <c r="C1" s="32" t="str">
         <f>CONCAT(Sheet1!$C$1,Sheet1!C2)</f>
         <v>SuzukaPlace</v>
       </c>
-      <c r="D1" s="30" t="str">
+      <c r="D1" s="32" t="str">
         <f>CONCAT(Sheet1!$C$1,Sheet1!D2)</f>
         <v>SuzukaQualifying</v>
       </c>
-      <c r="E1" s="30" t="str">
+      <c r="E1" s="32" t="str">
         <f>CONCAT(Sheet1!$C$1,Sheet1!E2)</f>
         <v>SuzukaFastestLap</v>
       </c>
-      <c r="F1" s="30" t="str">
+      <c r="F1" s="32" t="str">
         <f>CONCAT(Sheet1!$C$1,Sheet1!F2)</f>
         <v>SuzukaPoints</v>
       </c>
-      <c r="G1" s="30" t="str">
+      <c r="G1" s="32" t="str">
         <f>CONCAT(Sheet1!$G$1,Sheet1!G2)</f>
         <v>SilverstonePlace</v>
       </c>
-      <c r="H1" s="30" t="str">
+      <c r="H1" s="32" t="str">
         <f>CONCAT(Sheet1!$G$1,Sheet1!H2)</f>
         <v>SilverstoneQualifying</v>
       </c>
-      <c r="I1" s="30" t="str">
+      <c r="I1" s="32" t="str">
         <f>CONCAT(Sheet1!$G$1,Sheet1!I2)</f>
         <v>SilverstoneFastestLap</v>
       </c>
-      <c r="J1" s="30" t="str">
+      <c r="J1" s="32" t="str">
         <f>CONCAT(Sheet1!$G$1,Sheet1!J2)</f>
         <v>SilverstonePoints</v>
       </c>
-      <c r="K1" s="30" t="str">
+      <c r="K1" s="32" t="str">
         <f>CONCAT(Sheet1!$K$1,Sheet1!K2)</f>
         <v>AustraliaPlace</v>
       </c>
-      <c r="L1" s="30" t="str">
+      <c r="L1" s="32" t="str">
         <f>CONCAT(Sheet1!$K$1,Sheet1!L2)</f>
         <v>AustraliaQualifying</v>
       </c>
-      <c r="M1" s="30" t="str">
+      <c r="M1" s="32" t="str">
         <f>CONCAT(Sheet1!$K$1,Sheet1!M2)</f>
         <v>AustraliaFastestLap</v>
       </c>
-      <c r="N1" s="30" t="str">
+      <c r="N1" s="32" t="str">
         <f>CONCAT(Sheet1!$K$1,Sheet1!N2)</f>
         <v>AustraliaPoints</v>
       </c>
-      <c r="O1" s="30" t="str">
+      <c r="O1" s="32" t="str">
         <f>CONCAT(Sheet1!$O$1,Sheet1!O2)</f>
         <v>SpaPlace</v>
       </c>
-      <c r="P1" s="30" t="str">
+      <c r="P1" s="32" t="str">
         <f>CONCAT(Sheet1!$O$1,Sheet1!P2)</f>
         <v>SpaQualifying</v>
       </c>
-      <c r="Q1" s="30" t="str">
+      <c r="Q1" s="32" t="str">
         <f>CONCAT(Sheet1!$O$1,Sheet1!Q2)</f>
         <v>SpaFastestLap</v>
       </c>
-      <c r="R1" s="30" t="str">
+      <c r="R1" s="32" t="str">
         <f>CONCAT(Sheet1!$O$1,Sheet1!R2)</f>
         <v>SpaPoints</v>
       </c>
-      <c r="S1" s="30" t="str">
+      <c r="S1" s="32" t="str">
         <f>CONCAT(Sheet1!$S$1,Sheet1!S2)</f>
         <v>SpainPlace</v>
       </c>
-      <c r="T1" s="30" t="str">
+      <c r="T1" s="32" t="str">
         <f>CONCAT(Sheet1!$S$1,Sheet1!T2)</f>
         <v>SpainQualifying</v>
       </c>
-      <c r="U1" s="30" t="str">
+      <c r="U1" s="32" t="str">
         <f>CONCAT(Sheet1!$S$1,Sheet1!U2)</f>
         <v>SpainFastestLap</v>
       </c>
-      <c r="V1" s="30" t="str">
+      <c r="V1" s="32" t="str">
         <f>CONCAT(Sheet1!$S$1,Sheet1!V2)</f>
         <v>SpainPoints</v>
       </c>
-      <c r="W1" s="30" t="str">
+      <c r="W1" s="32" t="str">
         <f>CONCAT(Sheet1!$W$1,Sheet1!W2)</f>
         <v>ChinaSprintPlace</v>
       </c>
-      <c r="X1" s="30" t="str">
+      <c r="X1" s="32" t="str">
         <f>CONCAT(Sheet1!$W$1,Sheet1!X2)</f>
         <v>ChinaSprintQualifying</v>
       </c>
-      <c r="Y1" s="30" t="str">
+      <c r="Y1" s="32" t="str">
         <f>CONCAT(Sheet1!$W$1,Sheet1!Y2)</f>
         <v>ChinaSprintFastestLap</v>
       </c>
-      <c r="Z1" s="30" t="str">
+      <c r="Z1" s="32" t="str">
         <f>CONCAT(Sheet1!$W$1,Sheet1!Z2)</f>
         <v>ChinaSprintPoints</v>
       </c>
-      <c r="AA1" s="30" t="str">
+      <c r="AA1" s="32" t="str">
         <f>CONCAT(Sheet1!$AA$1,Sheet1!AA2)</f>
         <v>ChinaPlace</v>
       </c>
-      <c r="AB1" s="30" t="str">
+      <c r="AB1" s="32" t="str">
         <f>CONCAT(Sheet1!$AA$1,Sheet1!AB2)</f>
         <v>ChinaQualifying</v>
       </c>
-      <c r="AC1" s="30" t="str">
+      <c r="AC1" s="32" t="str">
         <f>CONCAT(Sheet1!$AA$1,Sheet1!AC2)</f>
         <v>ChinaFastestLap</v>
       </c>
-      <c r="AD1" s="30" t="str">
+      <c r="AD1" s="32" t="str">
         <f>CONCAT(Sheet1!$AA$1,Sheet1!AD2)</f>
         <v>ChinaPoints</v>
       </c>
-      <c r="AE1" s="30" t="str">
+      <c r="AE1" s="32" t="str">
         <f>CONCAT(Sheet1!$AE$1,Sheet1!AE2)</f>
         <v>BakuPlace</v>
       </c>
-      <c r="AF1" s="30" t="str">
+      <c r="AF1" s="32" t="str">
         <f>CONCAT(Sheet1!$AE$1,Sheet1!AF2)</f>
         <v>BakuQualifying</v>
       </c>
-      <c r="AG1" s="30" t="str">
+      <c r="AG1" s="32" t="str">
         <f>CONCAT(Sheet1!$AE$1,Sheet1!AG2)</f>
         <v>BakuFastestLap</v>
       </c>
-      <c r="AH1" s="30" t="str">
+      <c r="AH1" s="32" t="str">
         <f>CONCAT(Sheet1!$AE$1,Sheet1!AH2)</f>
         <v>BakuPoints</v>
       </c>
-      <c r="AI1" s="30" t="str">
+      <c r="AI1" s="32" t="str">
         <f>CONCAT(Sheet1!$AI$1,Sheet1!AI2)</f>
         <v>CanadaPlace</v>
       </c>
-      <c r="AJ1" s="30" t="str">
+      <c r="AJ1" s="32" t="str">
         <f>CONCAT(Sheet1!$AI$1,Sheet1!AJ2)</f>
         <v>CanadaQualifying</v>
       </c>
-      <c r="AK1" s="30" t="str">
+      <c r="AK1" s="32" t="str">
         <f>CONCAT(Sheet1!$AI$1,Sheet1!AK2)</f>
         <v>CanadaFastestLap</v>
       </c>
-      <c r="AL1" s="30" t="str">
+      <c r="AL1" s="32" t="str">
         <f>CONCAT(Sheet1!$AI$1,Sheet1!AL2)</f>
         <v>CanadaPoints</v>
       </c>
-      <c r="AM1" s="30" t="str">
+      <c r="AM1" s="32" t="str">
         <f>CONCAT(Sheet1!$AM$1,Sheet1!AM2)</f>
         <v>MonzaPlace</v>
       </c>
-      <c r="AN1" s="30" t="str">
+      <c r="AN1" s="32" t="str">
         <f>CONCAT(Sheet1!$AM$1,Sheet1!AN2)</f>
         <v>MonzaQualifying</v>
       </c>
-      <c r="AO1" s="30" t="str">
+      <c r="AO1" s="32" t="str">
         <f>CONCAT(Sheet1!$AM$1,Sheet1!AO2)</f>
         <v>MonzaFastestLap</v>
       </c>
-      <c r="AP1" s="30" t="str">
+      <c r="AP1" s="32" t="str">
         <f>CONCAT(Sheet1!$AM$1,Sheet1!AP2)</f>
         <v>MonzaPoints</v>
       </c>
-      <c r="AQ1" s="30" t="str">
+      <c r="AQ1" s="32" t="str">
         <f>CONCAT(Sheet1!$AQ$1,Sheet1!AQ2)</f>
         <v>Abu DhabiPlace</v>
       </c>
-      <c r="AR1" s="30" t="str">
+      <c r="AR1" s="32" t="str">
         <f>CONCAT(Sheet1!$AQ$1,Sheet1!AR2)</f>
         <v>Abu DhabiQualifying</v>
       </c>
-      <c r="AS1" s="30" t="str">
+      <c r="AS1" s="32" t="str">
         <f>CONCAT(Sheet1!$AQ$1,Sheet1!AS2)</f>
         <v>Abu DhabiFastestLap</v>
       </c>
-      <c r="AT1" s="30" t="str">
+      <c r="AT1" s="32" t="str">
         <f>CONCAT(Sheet1!$AQ$1,Sheet1!AT2)</f>
         <v>Abu DhabiPoints</v>
       </c>
-      <c r="AU1" s="30" t="str">
+      <c r="AU1" s="32" t="str">
         <f>CONCAT(Sheet1!$AU$1,Sheet1!AU2)</f>
         <v>AustriaSprintPlace</v>
       </c>
-      <c r="AV1" s="30" t="str">
+      <c r="AV1" s="32" t="str">
         <f>CONCAT(Sheet1!$AU$1,Sheet1!AV2)</f>
         <v>AustriaSprintQualifying</v>
       </c>
-      <c r="AW1" s="30" t="str">
+      <c r="AW1" s="32" t="str">
         <f>CONCAT(Sheet1!$AU$1,Sheet1!AW2)</f>
         <v>AustriaSprintFastestLap</v>
       </c>
-      <c r="AX1" s="30" t="str">
+      <c r="AX1" s="32" t="str">
         <f>CONCAT(Sheet1!$AU$1,Sheet1!AX2)</f>
         <v>AustriaSprintPoints</v>
       </c>
-      <c r="AY1" s="30" t="str">
+      <c r="AY1" s="32" t="str">
         <f>CONCAT(Sheet1!$AY$1,Sheet1!AY2)</f>
         <v>AustriaPlace</v>
       </c>
-      <c r="AZ1" s="30" t="str">
+      <c r="AZ1" s="32" t="str">
         <f>CONCAT(Sheet1!$AY$1,Sheet1!AZ2)</f>
         <v>AustriaQualifying</v>
       </c>
-      <c r="BA1" s="30" t="str">
+      <c r="BA1" s="32" t="str">
         <f>CONCAT(Sheet1!$AY$1,Sheet1!BA2)</f>
         <v>AustriaFastestLap</v>
       </c>
-      <c r="BB1" s="30" t="str">
+      <c r="BB1" s="32" t="str">
         <f>CONCAT(Sheet1!$AY$1,Sheet1!BB2)</f>
         <v>AustriaPoints</v>
       </c>
-      <c r="BC1" s="30" t="str">
+      <c r="BC1" s="32" t="str">
         <f>CONCAT(Sheet1!$BC$1,Sheet1!BC2)</f>
         <v>COTASprintPlace</v>
       </c>
-      <c r="BD1" s="30" t="str">
+      <c r="BD1" s="32" t="str">
         <f>CONCAT(Sheet1!$BC$1,Sheet1!BD2)</f>
         <v>COTASprintQualifying</v>
       </c>
-      <c r="BE1" s="30" t="str">
+      <c r="BE1" s="32" t="str">
         <f>CONCAT(Sheet1!$BC$1,Sheet1!BE2)</f>
         <v>COTASprintFastestLap</v>
       </c>
-      <c r="BF1" s="30" t="str">
+      <c r="BF1" s="32" t="str">
         <f>CONCAT(Sheet1!$BC$1,Sheet1!BF2)</f>
         <v>COTASprintPoints</v>
       </c>
-      <c r="BG1" s="30" t="str">
+      <c r="BG1" s="32" t="str">
         <f>CONCAT(Sheet1!$BG$1,Sheet1!BG2)</f>
         <v>COTAPlace</v>
       </c>
-      <c r="BH1" s="30" t="str">
+      <c r="BH1" s="32" t="str">
         <f>CONCAT(Sheet1!$BG$1,Sheet1!BH2)</f>
         <v>COTAQualifying</v>
       </c>
-      <c r="BI1" s="30" t="str">
+      <c r="BI1" s="32" t="str">
         <f>CONCAT(Sheet1!$BG$1,Sheet1!BI2)</f>
         <v>COTAFastestLap</v>
       </c>
-      <c r="BJ1" s="30" t="str">
+      <c r="BJ1" s="32" t="str">
         <f>CONCAT(Sheet1!$BG$1,Sheet1!BJ2)</f>
         <v>COTAPoints</v>
       </c>
       <c r="BK1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="30" t="str">
+      <c r="A2" s="32" t="str">
         <f>Sheet1!A3</f>
         <v>McLaren</v>
       </c>
-      <c r="B2" s="30" t="str">
+      <c r="B2" s="32" t="str">
         <f>Sheet1!B3</f>
         <v>Nick**</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="32">
         <f>Sheet1!C3</f>
         <v>2</v>
       </c>
-      <c r="E2" s="30" t="str">
+      <c r="D2" s="32">
+        <f>Sheet1!D3</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="32" t="str">
         <f>Sheet1!E3</f>
-        <v/>
-      </c>
-      <c r="F2" s="30">
+        <v>N</v>
+      </c>
+      <c r="F2" s="32">
         <f>Sheet1!F3</f>
         <v>18</v>
       </c>
-      <c r="G2" s="30" t="str">
+      <c r="G2" s="32" t="str">
         <f>Sheet1!G3</f>
         <v/>
       </c>
-      <c r="I2" s="30" t="str">
+      <c r="H2" s="32" t="str">
+        <f>Sheet1!H3</f>
+        <v/>
+      </c>
+      <c r="I2" s="32" t="str">
         <f>Sheet1!I3</f>
         <v/>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="32">
         <f>Sheet1!J3</f>
         <v>0</v>
       </c>
-      <c r="K2" s="30" t="str">
+      <c r="K2" s="32" t="str">
         <f>Sheet1!K3</f>
         <v/>
       </c>
-      <c r="M2" s="30" t="str">
+      <c r="L2" s="32" t="str">
+        <f>Sheet1!L3</f>
+        <v/>
+      </c>
+      <c r="M2" s="32" t="str">
         <f>Sheet1!M3</f>
         <v/>
       </c>
-      <c r="N2" s="30">
+      <c r="N2" s="32">
         <f>Sheet1!N3</f>
         <v>0</v>
       </c>
-      <c r="O2" s="30" t="str">
+      <c r="O2" s="32" t="str">
         <f>Sheet1!O3</f>
         <v/>
       </c>
-      <c r="Q2" s="30" t="str">
+      <c r="P2" s="32" t="str">
+        <f>Sheet1!P3</f>
+        <v/>
+      </c>
+      <c r="Q2" s="32" t="str">
         <f>Sheet1!Q3</f>
         <v/>
       </c>
-      <c r="R2" s="30">
+      <c r="R2" s="32">
         <f>Sheet1!R3</f>
         <v>0</v>
       </c>
-      <c r="S2" s="30" t="str">
+      <c r="S2" s="32" t="str">
         <f>Sheet1!S3</f>
         <v/>
       </c>
-      <c r="U2" s="30" t="str">
+      <c r="T2" s="32" t="str">
+        <f>Sheet1!T3</f>
+        <v/>
+      </c>
+      <c r="U2" s="32" t="str">
         <f>Sheet1!U3</f>
         <v/>
       </c>
-      <c r="V2" s="30">
+      <c r="V2" s="32">
         <f>Sheet1!V3</f>
         <v>0</v>
       </c>
-      <c r="W2" s="30" t="str">
+      <c r="W2" s="32" t="str">
         <f>Sheet1!W3</f>
         <v/>
       </c>
-      <c r="Y2" s="30" t="str">
+      <c r="X2" s="32" t="str">
+        <f>Sheet1!X3</f>
+        <v/>
+      </c>
+      <c r="Y2" s="32" t="str">
         <f>Sheet1!Y3</f>
         <v/>
       </c>
-      <c r="Z2" s="30">
+      <c r="Z2" s="32">
         <f>Sheet1!Z3</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="30" t="str">
+      <c r="AA2" s="32" t="str">
         <f>Sheet1!AA3</f>
         <v/>
       </c>
-      <c r="AC2" s="30" t="str">
+      <c r="AB2" s="32" t="str">
+        <f>Sheet1!AB3</f>
+        <v/>
+      </c>
+      <c r="AC2" s="32" t="str">
         <f>Sheet1!AC3</f>
         <v/>
       </c>
-      <c r="AD2" s="30">
+      <c r="AD2" s="32">
         <f>Sheet1!AD3</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="30" t="str">
+      <c r="AE2" s="32" t="str">
         <f>Sheet1!AE3</f>
         <v/>
       </c>
-      <c r="AG2" s="30" t="str">
+      <c r="AF2" s="32" t="str">
+        <f>Sheet1!AF3</f>
+        <v/>
+      </c>
+      <c r="AG2" s="32" t="str">
         <f>Sheet1!AG3</f>
         <v/>
       </c>
-      <c r="AH2" s="30">
+      <c r="AH2" s="32">
         <f>Sheet1!AH3</f>
         <v>0</v>
       </c>
-      <c r="AI2" s="30" t="str">
+      <c r="AI2" s="32" t="str">
         <f>Sheet1!AI3</f>
         <v/>
       </c>
-      <c r="AK2" s="30" t="str">
+      <c r="AJ2" s="32" t="str">
+        <f>Sheet1!AJ3</f>
+        <v/>
+      </c>
+      <c r="AK2" s="32" t="str">
         <f>Sheet1!AK3</f>
         <v/>
       </c>
-      <c r="AL2" s="30">
+      <c r="AL2" s="32">
         <f>Sheet1!AL3</f>
         <v>0</v>
       </c>
-      <c r="AM2" s="30" t="str">
+      <c r="AM2" s="32" t="str">
         <f>Sheet1!AM3</f>
         <v/>
       </c>
-      <c r="AO2" s="30" t="str">
+      <c r="AN2" s="32" t="str">
+        <f>Sheet1!AN3</f>
+        <v/>
+      </c>
+      <c r="AO2" s="32" t="str">
         <f>Sheet1!AO3</f>
         <v/>
       </c>
-      <c r="AP2" s="30">
+      <c r="AP2" s="32">
         <f>Sheet1!AP3</f>
         <v>0</v>
       </c>
-      <c r="AQ2" s="30" t="str">
+      <c r="AQ2" s="32" t="str">
         <f>Sheet1!AQ3</f>
         <v/>
       </c>
-      <c r="AS2" s="30" t="str">
+      <c r="AR2" s="32" t="str">
+        <f>Sheet1!AR3</f>
+        <v/>
+      </c>
+      <c r="AS2" s="32" t="str">
         <f>Sheet1!AS3</f>
         <v/>
       </c>
-      <c r="AT2" s="30">
+      <c r="AT2" s="32">
         <f>Sheet1!AT3</f>
         <v>0</v>
       </c>
-      <c r="AU2" s="30" t="str">
+      <c r="AU2" s="32" t="str">
         <f>Sheet1!AU3</f>
         <v/>
       </c>
-      <c r="AW2" s="30" t="str">
+      <c r="AV2" s="32" t="str">
+        <f>Sheet1!AV3</f>
+        <v/>
+      </c>
+      <c r="AW2" s="32" t="str">
         <f>Sheet1!AW3</f>
         <v/>
       </c>
-      <c r="AX2" s="30">
+      <c r="AX2" s="32">
         <f>Sheet1!AX3</f>
         <v>0</v>
       </c>
-      <c r="AY2" s="30" t="str">
+      <c r="AY2" s="32" t="str">
         <f>Sheet1!AY3</f>
         <v/>
       </c>
-      <c r="BA2" s="30" t="str">
+      <c r="AZ2" s="32" t="str">
+        <f>Sheet1!AZ3</f>
+        <v/>
+      </c>
+      <c r="BA2" s="32" t="str">
         <f>Sheet1!BA3</f>
         <v/>
       </c>
-      <c r="BB2" s="30">
+      <c r="BB2" s="32">
         <f>Sheet1!BB3</f>
         <v>0</v>
       </c>
-      <c r="BC2" s="30" t="str">
+      <c r="BC2" s="32" t="str">
         <f>Sheet1!BC3</f>
         <v/>
       </c>
-      <c r="BE2" s="30" t="str">
+      <c r="BD2" s="32" t="str">
+        <f>Sheet1!BD3</f>
+        <v/>
+      </c>
+      <c r="BE2" s="32" t="str">
         <f>Sheet1!BE3</f>
         <v/>
       </c>
-      <c r="BF2" s="30">
+      <c r="BF2" s="32">
         <f>Sheet1!BF3</f>
         <v>0</v>
       </c>
-      <c r="BG2" s="30" t="str">
+      <c r="BG2" s="32" t="str">
         <f>Sheet1!BG3</f>
         <v/>
       </c>
-      <c r="BI2" s="30" t="str">
+      <c r="BH2" s="32" t="str">
+        <f>Sheet1!BH3</f>
+        <v/>
+      </c>
+      <c r="BI2" s="32" t="str">
         <f>Sheet1!BI3</f>
         <v/>
       </c>
-      <c r="BJ2" s="30">
+      <c r="BJ2" s="32">
         <f>Sheet1!BJ3</f>
         <v>0</v>
       </c>
@@ -3333,191 +3448,251 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="30" t="str">
+      <c r="A3" s="32" t="str">
         <f>Sheet1!A4</f>
         <v>McLaren</v>
       </c>
-      <c r="B3" s="30" t="str">
+      <c r="B3" s="32" t="str">
         <f>Sheet1!B4</f>
         <v>Travis</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="32">
         <f>Sheet1!C4</f>
         <v>16</v>
       </c>
-      <c r="E3" s="30" t="str">
+      <c r="D3" s="32">
+        <f>Sheet1!D4</f>
+        <v>10</v>
+      </c>
+      <c r="E3" s="32" t="str">
         <f>Sheet1!E4</f>
-        <v/>
-      </c>
-      <c r="F3" s="30">
+        <v>N</v>
+      </c>
+      <c r="F3" s="32">
         <f>Sheet1!F4</f>
         <v>1</v>
       </c>
-      <c r="G3" s="30" t="str">
+      <c r="G3" s="32" t="str">
         <f>Sheet1!G4</f>
         <v/>
       </c>
-      <c r="I3" s="30" t="str">
+      <c r="H3" s="32" t="str">
+        <f>Sheet1!H4</f>
+        <v/>
+      </c>
+      <c r="I3" s="32" t="str">
         <f>Sheet1!I4</f>
         <v/>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="32">
         <f>Sheet1!J4</f>
         <v>0</v>
       </c>
-      <c r="K3" s="30" t="str">
+      <c r="K3" s="32" t="str">
         <f>Sheet1!K4</f>
         <v/>
       </c>
-      <c r="M3" s="30" t="str">
+      <c r="L3" s="32" t="str">
+        <f>Sheet1!L4</f>
+        <v/>
+      </c>
+      <c r="M3" s="32" t="str">
         <f>Sheet1!M4</f>
         <v/>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="32">
         <f>Sheet1!N4</f>
         <v>0</v>
       </c>
-      <c r="O3" s="30" t="str">
+      <c r="O3" s="32" t="str">
         <f>Sheet1!O4</f>
         <v/>
       </c>
-      <c r="Q3" s="30" t="str">
+      <c r="P3" s="32" t="str">
+        <f>Sheet1!P4</f>
+        <v/>
+      </c>
+      <c r="Q3" s="32" t="str">
         <f>Sheet1!Q4</f>
         <v/>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="32">
         <f>Sheet1!R4</f>
         <v>0</v>
       </c>
-      <c r="S3" s="30" t="str">
+      <c r="S3" s="32" t="str">
         <f>Sheet1!S4</f>
         <v/>
       </c>
-      <c r="U3" s="30" t="str">
+      <c r="T3" s="32" t="str">
+        <f>Sheet1!T4</f>
+        <v/>
+      </c>
+      <c r="U3" s="32" t="str">
         <f>Sheet1!U4</f>
         <v/>
       </c>
-      <c r="V3" s="30">
+      <c r="V3" s="32">
         <f>Sheet1!V4</f>
         <v>0</v>
       </c>
-      <c r="W3" s="30" t="str">
+      <c r="W3" s="32" t="str">
         <f>Sheet1!W4</f>
         <v/>
       </c>
-      <c r="Y3" s="30" t="str">
+      <c r="X3" s="32" t="str">
+        <f>Sheet1!X4</f>
+        <v/>
+      </c>
+      <c r="Y3" s="32" t="str">
         <f>Sheet1!Y4</f>
         <v/>
       </c>
-      <c r="Z3" s="30">
+      <c r="Z3" s="32">
         <f>Sheet1!Z4</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="30" t="str">
+      <c r="AA3" s="32" t="str">
         <f>Sheet1!AA4</f>
         <v/>
       </c>
-      <c r="AC3" s="30" t="str">
+      <c r="AB3" s="32" t="str">
+        <f>Sheet1!AB4</f>
+        <v/>
+      </c>
+      <c r="AC3" s="32" t="str">
         <f>Sheet1!AC4</f>
         <v/>
       </c>
-      <c r="AD3" s="30">
+      <c r="AD3" s="32">
         <f>Sheet1!AD4</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="30" t="str">
+      <c r="AE3" s="32" t="str">
         <f>Sheet1!AE4</f>
         <v/>
       </c>
-      <c r="AG3" s="30" t="str">
+      <c r="AF3" s="32" t="str">
+        <f>Sheet1!AF4</f>
+        <v/>
+      </c>
+      <c r="AG3" s="32" t="str">
         <f>Sheet1!AG4</f>
         <v/>
       </c>
-      <c r="AH3" s="30">
+      <c r="AH3" s="32">
         <f>Sheet1!AH4</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="30" t="str">
+      <c r="AI3" s="32" t="str">
         <f>Sheet1!AI4</f>
         <v/>
       </c>
-      <c r="AK3" s="30" t="str">
+      <c r="AJ3" s="32" t="str">
+        <f>Sheet1!AJ4</f>
+        <v/>
+      </c>
+      <c r="AK3" s="32" t="str">
         <f>Sheet1!AK4</f>
         <v/>
       </c>
-      <c r="AL3" s="30">
+      <c r="AL3" s="32">
         <f>Sheet1!AL4</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="30" t="str">
+      <c r="AM3" s="32" t="str">
         <f>Sheet1!AM4</f>
         <v/>
       </c>
-      <c r="AO3" s="30" t="str">
+      <c r="AN3" s="32" t="str">
+        <f>Sheet1!AN4</f>
+        <v/>
+      </c>
+      <c r="AO3" s="32" t="str">
         <f>Sheet1!AO4</f>
         <v/>
       </c>
-      <c r="AP3" s="30">
+      <c r="AP3" s="32">
         <f>Sheet1!AP4</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="30" t="str">
+      <c r="AQ3" s="32" t="str">
         <f>Sheet1!AQ4</f>
         <v/>
       </c>
-      <c r="AS3" s="30" t="str">
+      <c r="AR3" s="32" t="str">
+        <f>Sheet1!AR4</f>
+        <v/>
+      </c>
+      <c r="AS3" s="32" t="str">
         <f>Sheet1!AS4</f>
         <v/>
       </c>
-      <c r="AT3" s="30">
+      <c r="AT3" s="32">
         <f>Sheet1!AT4</f>
         <v>0</v>
       </c>
-      <c r="AU3" s="30" t="str">
+      <c r="AU3" s="32" t="str">
         <f>Sheet1!AU4</f>
         <v/>
       </c>
-      <c r="AW3" s="30" t="str">
+      <c r="AV3" s="32" t="str">
+        <f>Sheet1!AV4</f>
+        <v/>
+      </c>
+      <c r="AW3" s="32" t="str">
         <f>Sheet1!AW4</f>
         <v/>
       </c>
-      <c r="AX3" s="30">
+      <c r="AX3" s="32">
         <f>Sheet1!AX4</f>
         <v>0</v>
       </c>
-      <c r="AY3" s="30" t="str">
+      <c r="AY3" s="32" t="str">
         <f>Sheet1!AY4</f>
         <v/>
       </c>
-      <c r="BA3" s="30" t="str">
+      <c r="AZ3" s="32" t="str">
+        <f>Sheet1!AZ4</f>
+        <v/>
+      </c>
+      <c r="BA3" s="32" t="str">
         <f>Sheet1!BA4</f>
         <v/>
       </c>
-      <c r="BB3" s="30">
+      <c r="BB3" s="32">
         <f>Sheet1!BB4</f>
         <v>0</v>
       </c>
-      <c r="BC3" s="30" t="str">
+      <c r="BC3" s="32" t="str">
         <f>Sheet1!BC4</f>
         <v/>
       </c>
-      <c r="BE3" s="30" t="str">
+      <c r="BD3" s="32" t="str">
+        <f>Sheet1!BD4</f>
+        <v/>
+      </c>
+      <c r="BE3" s="32" t="str">
         <f>Sheet1!BE4</f>
         <v/>
       </c>
-      <c r="BF3" s="30">
+      <c r="BF3" s="32">
         <f>Sheet1!BF4</f>
         <v>0</v>
       </c>
-      <c r="BG3" s="30" t="str">
+      <c r="BG3" s="32" t="str">
         <f>Sheet1!BG4</f>
         <v/>
       </c>
-      <c r="BI3" s="30" t="str">
+      <c r="BH3" s="32" t="str">
+        <f>Sheet1!BH4</f>
+        <v/>
+      </c>
+      <c r="BI3" s="32" t="str">
         <f>Sheet1!BI4</f>
         <v/>
       </c>
-      <c r="BJ3" s="30">
+      <c r="BJ3" s="32">
         <f>Sheet1!BJ4</f>
         <v>0</v>
       </c>
@@ -3526,191 +3701,251 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="30" t="str">
+      <c r="A4" s="32" t="str">
         <f>Sheet1!A5</f>
         <v>VCARB</v>
       </c>
-      <c r="B4" s="30" t="str">
+      <c r="B4" s="32" t="str">
         <f>Sheet1!B5</f>
         <v>Patrick</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="32">
         <f>Sheet1!C5</f>
         <v>11</v>
       </c>
-      <c r="E4" s="30" t="str">
+      <c r="D4" s="32">
+        <f>Sheet1!D5</f>
+        <v>4</v>
+      </c>
+      <c r="E4" s="32" t="str">
         <f>Sheet1!E5</f>
-        <v/>
-      </c>
-      <c r="F4" s="30">
+        <v>N</v>
+      </c>
+      <c r="F4" s="32">
         <f>Sheet1!F5</f>
         <v>1</v>
       </c>
-      <c r="G4" s="30" t="str">
+      <c r="G4" s="32" t="str">
         <f>Sheet1!G5</f>
         <v/>
       </c>
-      <c r="I4" s="30" t="str">
+      <c r="H4" s="32" t="str">
+        <f>Sheet1!H5</f>
+        <v/>
+      </c>
+      <c r="I4" s="32" t="str">
         <f>Sheet1!I5</f>
         <v/>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="32">
         <f>Sheet1!J5</f>
         <v>0</v>
       </c>
-      <c r="K4" s="30" t="str">
+      <c r="K4" s="32" t="str">
         <f>Sheet1!K5</f>
         <v/>
       </c>
-      <c r="M4" s="30" t="str">
+      <c r="L4" s="32" t="str">
+        <f>Sheet1!L5</f>
+        <v/>
+      </c>
+      <c r="M4" s="32" t="str">
         <f>Sheet1!M5</f>
         <v/>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="32">
         <f>Sheet1!N5</f>
         <v>0</v>
       </c>
-      <c r="O4" s="30" t="str">
+      <c r="O4" s="32" t="str">
         <f>Sheet1!O5</f>
         <v/>
       </c>
-      <c r="Q4" s="30" t="str">
+      <c r="P4" s="32" t="str">
+        <f>Sheet1!P5</f>
+        <v/>
+      </c>
+      <c r="Q4" s="32" t="str">
         <f>Sheet1!Q5</f>
         <v/>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="32">
         <f>Sheet1!R5</f>
         <v>0</v>
       </c>
-      <c r="S4" s="30" t="str">
+      <c r="S4" s="32" t="str">
         <f>Sheet1!S5</f>
         <v/>
       </c>
-      <c r="U4" s="30" t="str">
+      <c r="T4" s="32" t="str">
+        <f>Sheet1!T5</f>
+        <v/>
+      </c>
+      <c r="U4" s="32" t="str">
         <f>Sheet1!U5</f>
         <v/>
       </c>
-      <c r="V4" s="30">
+      <c r="V4" s="32">
         <f>Sheet1!V5</f>
         <v>0</v>
       </c>
-      <c r="W4" s="30" t="str">
+      <c r="W4" s="32" t="str">
         <f>Sheet1!W5</f>
         <v/>
       </c>
-      <c r="Y4" s="30" t="str">
+      <c r="X4" s="32" t="str">
+        <f>Sheet1!X5</f>
+        <v/>
+      </c>
+      <c r="Y4" s="32" t="str">
         <f>Sheet1!Y5</f>
         <v/>
       </c>
-      <c r="Z4" s="30">
+      <c r="Z4" s="32">
         <f>Sheet1!Z5</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="30" t="str">
+      <c r="AA4" s="32" t="str">
         <f>Sheet1!AA5</f>
         <v/>
       </c>
-      <c r="AC4" s="30" t="str">
+      <c r="AB4" s="32" t="str">
+        <f>Sheet1!AB5</f>
+        <v/>
+      </c>
+      <c r="AC4" s="32" t="str">
         <f>Sheet1!AC5</f>
         <v/>
       </c>
-      <c r="AD4" s="30">
+      <c r="AD4" s="32">
         <f>Sheet1!AD5</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="30" t="str">
+      <c r="AE4" s="32" t="str">
         <f>Sheet1!AE5</f>
         <v/>
       </c>
-      <c r="AG4" s="30" t="str">
+      <c r="AF4" s="32" t="str">
+        <f>Sheet1!AF5</f>
+        <v/>
+      </c>
+      <c r="AG4" s="32" t="str">
         <f>Sheet1!AG5</f>
         <v/>
       </c>
-      <c r="AH4" s="30">
+      <c r="AH4" s="32">
         <f>Sheet1!AH5</f>
         <v>0</v>
       </c>
-      <c r="AI4" s="30" t="str">
+      <c r="AI4" s="32" t="str">
         <f>Sheet1!AI5</f>
         <v/>
       </c>
-      <c r="AK4" s="30" t="str">
+      <c r="AJ4" s="32" t="str">
+        <f>Sheet1!AJ5</f>
+        <v/>
+      </c>
+      <c r="AK4" s="32" t="str">
         <f>Sheet1!AK5</f>
         <v/>
       </c>
-      <c r="AL4" s="30">
+      <c r="AL4" s="32">
         <f>Sheet1!AL5</f>
         <v>0</v>
       </c>
-      <c r="AM4" s="30" t="str">
+      <c r="AM4" s="32" t="str">
         <f>Sheet1!AM5</f>
         <v/>
       </c>
-      <c r="AO4" s="30" t="str">
+      <c r="AN4" s="32" t="str">
+        <f>Sheet1!AN5</f>
+        <v/>
+      </c>
+      <c r="AO4" s="32" t="str">
         <f>Sheet1!AO5</f>
         <v/>
       </c>
-      <c r="AP4" s="30">
+      <c r="AP4" s="32">
         <f>Sheet1!AP5</f>
         <v>0</v>
       </c>
-      <c r="AQ4" s="30" t="str">
+      <c r="AQ4" s="32" t="str">
         <f>Sheet1!AQ5</f>
         <v/>
       </c>
-      <c r="AS4" s="30" t="str">
+      <c r="AR4" s="32" t="str">
+        <f>Sheet1!AR5</f>
+        <v/>
+      </c>
+      <c r="AS4" s="32" t="str">
         <f>Sheet1!AS5</f>
         <v/>
       </c>
-      <c r="AT4" s="30">
+      <c r="AT4" s="32">
         <f>Sheet1!AT5</f>
         <v>0</v>
       </c>
-      <c r="AU4" s="30" t="str">
+      <c r="AU4" s="32" t="str">
         <f>Sheet1!AU5</f>
         <v/>
       </c>
-      <c r="AW4" s="30" t="str">
+      <c r="AV4" s="32" t="str">
+        <f>Sheet1!AV5</f>
+        <v/>
+      </c>
+      <c r="AW4" s="32" t="str">
         <f>Sheet1!AW5</f>
         <v/>
       </c>
-      <c r="AX4" s="30">
+      <c r="AX4" s="32">
         <f>Sheet1!AX5</f>
         <v>0</v>
       </c>
-      <c r="AY4" s="30" t="str">
+      <c r="AY4" s="32" t="str">
         <f>Sheet1!AY5</f>
         <v/>
       </c>
-      <c r="BA4" s="30" t="str">
+      <c r="AZ4" s="32" t="str">
+        <f>Sheet1!AZ5</f>
+        <v/>
+      </c>
+      <c r="BA4" s="32" t="str">
         <f>Sheet1!BA5</f>
         <v/>
       </c>
-      <c r="BB4" s="30">
+      <c r="BB4" s="32">
         <f>Sheet1!BB5</f>
         <v>0</v>
       </c>
-      <c r="BC4" s="30" t="str">
+      <c r="BC4" s="32" t="str">
         <f>Sheet1!BC5</f>
         <v/>
       </c>
-      <c r="BE4" s="30" t="str">
+      <c r="BD4" s="32" t="str">
+        <f>Sheet1!BD5</f>
+        <v/>
+      </c>
+      <c r="BE4" s="32" t="str">
         <f>Sheet1!BE5</f>
         <v/>
       </c>
-      <c r="BF4" s="30">
+      <c r="BF4" s="32">
         <f>Sheet1!BF5</f>
         <v>0</v>
       </c>
-      <c r="BG4" s="30" t="str">
+      <c r="BG4" s="32" t="str">
         <f>Sheet1!BG5</f>
         <v/>
       </c>
-      <c r="BI4" s="30" t="str">
+      <c r="BH4" s="32" t="str">
+        <f>Sheet1!BH5</f>
+        <v/>
+      </c>
+      <c r="BI4" s="32" t="str">
         <f>Sheet1!BI5</f>
         <v/>
       </c>
-      <c r="BJ4" s="30">
+      <c r="BJ4" s="32">
         <f>Sheet1!BJ5</f>
         <v>0</v>
       </c>
@@ -3719,191 +3954,251 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="30" t="str">
+      <c r="A5" s="32" t="str">
         <f>Sheet1!A6</f>
         <v>VCARB</v>
       </c>
-      <c r="B5" s="30" t="str">
+      <c r="B5" s="32" t="str">
         <f>Sheet1!B6</f>
         <v>Brently</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="32">
         <f>Sheet1!C6</f>
         <v>5</v>
       </c>
-      <c r="E5" s="30" t="str">
+      <c r="D5" s="32">
+        <f>Sheet1!D6</f>
+        <v>16</v>
+      </c>
+      <c r="E5" s="32" t="str">
         <f>Sheet1!E6</f>
-        <v/>
-      </c>
-      <c r="F5" s="30">
+        <v>N</v>
+      </c>
+      <c r="F5" s="32">
         <f>Sheet1!F6</f>
         <v>10</v>
       </c>
-      <c r="G5" s="30" t="str">
+      <c r="G5" s="32" t="str">
         <f>Sheet1!G6</f>
         <v/>
       </c>
-      <c r="I5" s="30" t="str">
+      <c r="H5" s="32" t="str">
+        <f>Sheet1!H6</f>
+        <v/>
+      </c>
+      <c r="I5" s="32" t="str">
         <f>Sheet1!I6</f>
         <v/>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="32">
         <f>Sheet1!J6</f>
         <v>0</v>
       </c>
-      <c r="K5" s="30" t="str">
+      <c r="K5" s="32" t="str">
         <f>Sheet1!K6</f>
         <v/>
       </c>
-      <c r="M5" s="30" t="str">
+      <c r="L5" s="32" t="str">
+        <f>Sheet1!L6</f>
+        <v/>
+      </c>
+      <c r="M5" s="32" t="str">
         <f>Sheet1!M6</f>
         <v/>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="32">
         <f>Sheet1!N6</f>
         <v>0</v>
       </c>
-      <c r="O5" s="30" t="str">
+      <c r="O5" s="32" t="str">
         <f>Sheet1!O6</f>
         <v/>
       </c>
-      <c r="Q5" s="30" t="str">
+      <c r="P5" s="32" t="str">
+        <f>Sheet1!P6</f>
+        <v/>
+      </c>
+      <c r="Q5" s="32" t="str">
         <f>Sheet1!Q6</f>
         <v/>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="32">
         <f>Sheet1!R6</f>
         <v>0</v>
       </c>
-      <c r="S5" s="30" t="str">
+      <c r="S5" s="32" t="str">
         <f>Sheet1!S6</f>
         <v/>
       </c>
-      <c r="U5" s="30" t="str">
+      <c r="T5" s="32" t="str">
+        <f>Sheet1!T6</f>
+        <v/>
+      </c>
+      <c r="U5" s="32" t="str">
         <f>Sheet1!U6</f>
         <v/>
       </c>
-      <c r="V5" s="30">
+      <c r="V5" s="32">
         <f>Sheet1!V6</f>
         <v>0</v>
       </c>
-      <c r="W5" s="30" t="str">
+      <c r="W5" s="32" t="str">
         <f>Sheet1!W6</f>
         <v/>
       </c>
-      <c r="Y5" s="30" t="str">
+      <c r="X5" s="32" t="str">
+        <f>Sheet1!X6</f>
+        <v/>
+      </c>
+      <c r="Y5" s="32" t="str">
         <f>Sheet1!Y6</f>
         <v/>
       </c>
-      <c r="Z5" s="30">
+      <c r="Z5" s="32">
         <f>Sheet1!Z6</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="30" t="str">
+      <c r="AA5" s="32" t="str">
         <f>Sheet1!AA6</f>
         <v/>
       </c>
-      <c r="AC5" s="30" t="str">
+      <c r="AB5" s="32" t="str">
+        <f>Sheet1!AB6</f>
+        <v/>
+      </c>
+      <c r="AC5" s="32" t="str">
         <f>Sheet1!AC6</f>
         <v/>
       </c>
-      <c r="AD5" s="30">
+      <c r="AD5" s="32">
         <f>Sheet1!AD6</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="30" t="str">
+      <c r="AE5" s="32" t="str">
         <f>Sheet1!AE6</f>
         <v/>
       </c>
-      <c r="AG5" s="30" t="str">
+      <c r="AF5" s="32" t="str">
+        <f>Sheet1!AF6</f>
+        <v/>
+      </c>
+      <c r="AG5" s="32" t="str">
         <f>Sheet1!AG6</f>
         <v/>
       </c>
-      <c r="AH5" s="30">
+      <c r="AH5" s="32">
         <f>Sheet1!AH6</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="30" t="str">
+      <c r="AI5" s="32" t="str">
         <f>Sheet1!AI6</f>
         <v/>
       </c>
-      <c r="AK5" s="30" t="str">
+      <c r="AJ5" s="32" t="str">
+        <f>Sheet1!AJ6</f>
+        <v/>
+      </c>
+      <c r="AK5" s="32" t="str">
         <f>Sheet1!AK6</f>
         <v/>
       </c>
-      <c r="AL5" s="30">
+      <c r="AL5" s="32">
         <f>Sheet1!AL6</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="30" t="str">
+      <c r="AM5" s="32" t="str">
         <f>Sheet1!AM6</f>
         <v/>
       </c>
-      <c r="AO5" s="30" t="str">
+      <c r="AN5" s="32" t="str">
+        <f>Sheet1!AN6</f>
+        <v/>
+      </c>
+      <c r="AO5" s="32" t="str">
         <f>Sheet1!AO6</f>
         <v/>
       </c>
-      <c r="AP5" s="30">
+      <c r="AP5" s="32">
         <f>Sheet1!AP6</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="30" t="str">
+      <c r="AQ5" s="32" t="str">
         <f>Sheet1!AQ6</f>
         <v/>
       </c>
-      <c r="AS5" s="30" t="str">
+      <c r="AR5" s="32" t="str">
+        <f>Sheet1!AR6</f>
+        <v/>
+      </c>
+      <c r="AS5" s="32" t="str">
         <f>Sheet1!AS6</f>
         <v/>
       </c>
-      <c r="AT5" s="30">
+      <c r="AT5" s="32">
         <f>Sheet1!AT6</f>
         <v>0</v>
       </c>
-      <c r="AU5" s="30" t="str">
+      <c r="AU5" s="32" t="str">
         <f>Sheet1!AU6</f>
         <v/>
       </c>
-      <c r="AW5" s="30" t="str">
+      <c r="AV5" s="32" t="str">
+        <f>Sheet1!AV6</f>
+        <v/>
+      </c>
+      <c r="AW5" s="32" t="str">
         <f>Sheet1!AW6</f>
         <v/>
       </c>
-      <c r="AX5" s="30">
+      <c r="AX5" s="32">
         <f>Sheet1!AX6</f>
         <v>0</v>
       </c>
-      <c r="AY5" s="30" t="str">
+      <c r="AY5" s="32" t="str">
         <f>Sheet1!AY6</f>
         <v/>
       </c>
-      <c r="BA5" s="30" t="str">
+      <c r="AZ5" s="32" t="str">
+        <f>Sheet1!AZ6</f>
+        <v/>
+      </c>
+      <c r="BA5" s="32" t="str">
         <f>Sheet1!BA6</f>
         <v/>
       </c>
-      <c r="BB5" s="30">
+      <c r="BB5" s="32">
         <f>Sheet1!BB6</f>
         <v>0</v>
       </c>
-      <c r="BC5" s="30" t="str">
+      <c r="BC5" s="32" t="str">
         <f>Sheet1!BC6</f>
         <v/>
       </c>
-      <c r="BE5" s="30" t="str">
+      <c r="BD5" s="32" t="str">
+        <f>Sheet1!BD6</f>
+        <v/>
+      </c>
+      <c r="BE5" s="32" t="str">
         <f>Sheet1!BE6</f>
         <v/>
       </c>
-      <c r="BF5" s="30">
+      <c r="BF5" s="32">
         <f>Sheet1!BF6</f>
         <v>0</v>
       </c>
-      <c r="BG5" s="30" t="str">
+      <c r="BG5" s="32" t="str">
         <f>Sheet1!BG6</f>
         <v/>
       </c>
-      <c r="BI5" s="30" t="str">
+      <c r="BH5" s="32" t="str">
+        <f>Sheet1!BH6</f>
+        <v/>
+      </c>
+      <c r="BI5" s="32" t="str">
         <f>Sheet1!BI6</f>
         <v/>
       </c>
-      <c r="BJ5" s="30">
+      <c r="BJ5" s="32">
         <f>Sheet1!BJ6</f>
         <v>0</v>
       </c>
@@ -3912,191 +4207,251 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="30" t="str">
+      <c r="A6" s="32" t="str">
         <f>Sheet1!A7</f>
         <v>Ferrari</v>
       </c>
-      <c r="B6" s="30" t="str">
+      <c r="B6" s="32" t="str">
         <f>Sheet1!B7</f>
         <v>Erick</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="32">
         <f>Sheet1!C7</f>
         <v>7</v>
       </c>
-      <c r="E6" s="30" t="str">
+      <c r="D6" s="32">
+        <f>Sheet1!D7</f>
+        <v>7</v>
+      </c>
+      <c r="E6" s="32" t="str">
         <f>Sheet1!E7</f>
-        <v/>
-      </c>
-      <c r="F6" s="30">
+        <v>N</v>
+      </c>
+      <c r="F6" s="32">
         <f>Sheet1!F7</f>
         <v>6</v>
       </c>
-      <c r="G6" s="30" t="str">
+      <c r="G6" s="32" t="str">
         <f>Sheet1!G7</f>
         <v/>
       </c>
-      <c r="I6" s="30" t="str">
+      <c r="H6" s="32" t="str">
+        <f>Sheet1!H7</f>
+        <v/>
+      </c>
+      <c r="I6" s="32" t="str">
         <f>Sheet1!I7</f>
         <v/>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="32">
         <f>Sheet1!J7</f>
         <v>0</v>
       </c>
-      <c r="K6" s="30" t="str">
+      <c r="K6" s="32" t="str">
         <f>Sheet1!K7</f>
         <v/>
       </c>
-      <c r="M6" s="30" t="str">
+      <c r="L6" s="32" t="str">
+        <f>Sheet1!L7</f>
+        <v/>
+      </c>
+      <c r="M6" s="32" t="str">
         <f>Sheet1!M7</f>
         <v/>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="32">
         <f>Sheet1!N7</f>
         <v>0</v>
       </c>
-      <c r="O6" s="30" t="str">
+      <c r="O6" s="32" t="str">
         <f>Sheet1!O7</f>
         <v/>
       </c>
-      <c r="Q6" s="30" t="str">
+      <c r="P6" s="32" t="str">
+        <f>Sheet1!P7</f>
+        <v/>
+      </c>
+      <c r="Q6" s="32" t="str">
         <f>Sheet1!Q7</f>
         <v/>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="32">
         <f>Sheet1!R7</f>
         <v>0</v>
       </c>
-      <c r="S6" s="30" t="str">
+      <c r="S6" s="32" t="str">
         <f>Sheet1!S7</f>
         <v/>
       </c>
-      <c r="U6" s="30" t="str">
+      <c r="T6" s="32" t="str">
+        <f>Sheet1!T7</f>
+        <v/>
+      </c>
+      <c r="U6" s="32" t="str">
         <f>Sheet1!U7</f>
         <v/>
       </c>
-      <c r="V6" s="30">
+      <c r="V6" s="32">
         <f>Sheet1!V7</f>
         <v>0</v>
       </c>
-      <c r="W6" s="30" t="str">
+      <c r="W6" s="32" t="str">
         <f>Sheet1!W7</f>
         <v/>
       </c>
-      <c r="Y6" s="30" t="str">
+      <c r="X6" s="32" t="str">
+        <f>Sheet1!X7</f>
+        <v/>
+      </c>
+      <c r="Y6" s="32" t="str">
         <f>Sheet1!Y7</f>
         <v/>
       </c>
-      <c r="Z6" s="30">
+      <c r="Z6" s="32">
         <f>Sheet1!Z7</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="30" t="str">
+      <c r="AA6" s="32" t="str">
         <f>Sheet1!AA7</f>
         <v/>
       </c>
-      <c r="AC6" s="30" t="str">
+      <c r="AB6" s="32" t="str">
+        <f>Sheet1!AB7</f>
+        <v/>
+      </c>
+      <c r="AC6" s="32" t="str">
         <f>Sheet1!AC7</f>
         <v/>
       </c>
-      <c r="AD6" s="30">
+      <c r="AD6" s="32">
         <f>Sheet1!AD7</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="30" t="str">
+      <c r="AE6" s="32" t="str">
         <f>Sheet1!AE7</f>
         <v/>
       </c>
-      <c r="AG6" s="30" t="str">
+      <c r="AF6" s="32" t="str">
+        <f>Sheet1!AF7</f>
+        <v/>
+      </c>
+      <c r="AG6" s="32" t="str">
         <f>Sheet1!AG7</f>
         <v/>
       </c>
-      <c r="AH6" s="30">
+      <c r="AH6" s="32">
         <f>Sheet1!AH7</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="30" t="str">
+      <c r="AI6" s="32" t="str">
         <f>Sheet1!AI7</f>
         <v/>
       </c>
-      <c r="AK6" s="30" t="str">
+      <c r="AJ6" s="32" t="str">
+        <f>Sheet1!AJ7</f>
+        <v/>
+      </c>
+      <c r="AK6" s="32" t="str">
         <f>Sheet1!AK7</f>
         <v/>
       </c>
-      <c r="AL6" s="30">
+      <c r="AL6" s="32">
         <f>Sheet1!AL7</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="30" t="str">
+      <c r="AM6" s="32" t="str">
         <f>Sheet1!AM7</f>
         <v/>
       </c>
-      <c r="AO6" s="30" t="str">
+      <c r="AN6" s="32" t="str">
+        <f>Sheet1!AN7</f>
+        <v/>
+      </c>
+      <c r="AO6" s="32" t="str">
         <f>Sheet1!AO7</f>
         <v/>
       </c>
-      <c r="AP6" s="30">
+      <c r="AP6" s="32">
         <f>Sheet1!AP7</f>
         <v>0</v>
       </c>
-      <c r="AQ6" s="30" t="str">
+      <c r="AQ6" s="32" t="str">
         <f>Sheet1!AQ7</f>
         <v/>
       </c>
-      <c r="AS6" s="30" t="str">
+      <c r="AR6" s="32" t="str">
+        <f>Sheet1!AR7</f>
+        <v/>
+      </c>
+      <c r="AS6" s="32" t="str">
         <f>Sheet1!AS7</f>
         <v/>
       </c>
-      <c r="AT6" s="30">
+      <c r="AT6" s="32">
         <f>Sheet1!AT7</f>
         <v>0</v>
       </c>
-      <c r="AU6" s="30" t="str">
+      <c r="AU6" s="32" t="str">
         <f>Sheet1!AU7</f>
         <v/>
       </c>
-      <c r="AW6" s="30" t="str">
+      <c r="AV6" s="32" t="str">
+        <f>Sheet1!AV7</f>
+        <v/>
+      </c>
+      <c r="AW6" s="32" t="str">
         <f>Sheet1!AW7</f>
         <v/>
       </c>
-      <c r="AX6" s="30">
+      <c r="AX6" s="32">
         <f>Sheet1!AX7</f>
         <v>0</v>
       </c>
-      <c r="AY6" s="30" t="str">
+      <c r="AY6" s="32" t="str">
         <f>Sheet1!AY7</f>
         <v/>
       </c>
-      <c r="BA6" s="30" t="str">
+      <c r="AZ6" s="32" t="str">
+        <f>Sheet1!AZ7</f>
+        <v/>
+      </c>
+      <c r="BA6" s="32" t="str">
         <f>Sheet1!BA7</f>
         <v/>
       </c>
-      <c r="BB6" s="30">
+      <c r="BB6" s="32">
         <f>Sheet1!BB7</f>
         <v>0</v>
       </c>
-      <c r="BC6" s="30" t="str">
+      <c r="BC6" s="32" t="str">
         <f>Sheet1!BC7</f>
         <v/>
       </c>
-      <c r="BE6" s="30" t="str">
+      <c r="BD6" s="32" t="str">
+        <f>Sheet1!BD7</f>
+        <v/>
+      </c>
+      <c r="BE6" s="32" t="str">
         <f>Sheet1!BE7</f>
         <v/>
       </c>
-      <c r="BF6" s="30">
+      <c r="BF6" s="32">
         <f>Sheet1!BF7</f>
         <v>0</v>
       </c>
-      <c r="BG6" s="30" t="str">
+      <c r="BG6" s="32" t="str">
         <f>Sheet1!BG7</f>
         <v/>
       </c>
-      <c r="BI6" s="30" t="str">
+      <c r="BH6" s="32" t="str">
+        <f>Sheet1!BH7</f>
+        <v/>
+      </c>
+      <c r="BI6" s="32" t="str">
         <f>Sheet1!BI7</f>
         <v/>
       </c>
-      <c r="BJ6" s="30">
+      <c r="BJ6" s="32">
         <f>Sheet1!BJ7</f>
         <v>0</v>
       </c>
@@ -4105,191 +4460,251 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="30" t="str">
+      <c r="A7" s="32" t="str">
         <f>Sheet1!A8</f>
         <v>Ferrari</v>
       </c>
-      <c r="B7" s="30" t="str">
+      <c r="B7" s="32" t="str">
         <f>Sheet1!B8</f>
         <v>Zane</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="32">
         <f>Sheet1!C8</f>
         <v>4</v>
       </c>
-      <c r="E7" s="30" t="str">
+      <c r="D7" s="32">
+        <f>Sheet1!D8</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="32" t="str">
         <f>Sheet1!E8</f>
-        <v/>
-      </c>
-      <c r="F7" s="30">
+        <v>N</v>
+      </c>
+      <c r="F7" s="32">
         <f>Sheet1!F8</f>
         <v>12</v>
       </c>
-      <c r="G7" s="30" t="str">
+      <c r="G7" s="32" t="str">
         <f>Sheet1!G8</f>
         <v/>
       </c>
-      <c r="I7" s="30" t="str">
+      <c r="H7" s="32" t="str">
+        <f>Sheet1!H8</f>
+        <v/>
+      </c>
+      <c r="I7" s="32" t="str">
         <f>Sheet1!I8</f>
         <v/>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="32">
         <f>Sheet1!J8</f>
         <v>0</v>
       </c>
-      <c r="K7" s="30" t="str">
+      <c r="K7" s="32" t="str">
         <f>Sheet1!K8</f>
         <v/>
       </c>
-      <c r="M7" s="30" t="str">
+      <c r="L7" s="32" t="str">
+        <f>Sheet1!L8</f>
+        <v/>
+      </c>
+      <c r="M7" s="32" t="str">
         <f>Sheet1!M8</f>
         <v/>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="32">
         <f>Sheet1!N8</f>
         <v>0</v>
       </c>
-      <c r="O7" s="30" t="str">
+      <c r="O7" s="32" t="str">
         <f>Sheet1!O8</f>
         <v/>
       </c>
-      <c r="Q7" s="30" t="str">
+      <c r="P7" s="32" t="str">
+        <f>Sheet1!P8</f>
+        <v/>
+      </c>
+      <c r="Q7" s="32" t="str">
         <f>Sheet1!Q8</f>
         <v/>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="32">
         <f>Sheet1!R8</f>
         <v>0</v>
       </c>
-      <c r="S7" s="30" t="str">
+      <c r="S7" s="32" t="str">
         <f>Sheet1!S8</f>
         <v/>
       </c>
-      <c r="U7" s="30" t="str">
+      <c r="T7" s="32" t="str">
+        <f>Sheet1!T8</f>
+        <v/>
+      </c>
+      <c r="U7" s="32" t="str">
         <f>Sheet1!U8</f>
         <v/>
       </c>
-      <c r="V7" s="30">
+      <c r="V7" s="32">
         <f>Sheet1!V8</f>
         <v>0</v>
       </c>
-      <c r="W7" s="30" t="str">
+      <c r="W7" s="32" t="str">
         <f>Sheet1!W8</f>
         <v/>
       </c>
-      <c r="Y7" s="30" t="str">
+      <c r="X7" s="32" t="str">
+        <f>Sheet1!X8</f>
+        <v/>
+      </c>
+      <c r="Y7" s="32" t="str">
         <f>Sheet1!Y8</f>
         <v/>
       </c>
-      <c r="Z7" s="30">
+      <c r="Z7" s="32">
         <f>Sheet1!Z8</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="30" t="str">
+      <c r="AA7" s="32" t="str">
         <f>Sheet1!AA8</f>
         <v/>
       </c>
-      <c r="AC7" s="30" t="str">
+      <c r="AB7" s="32" t="str">
+        <f>Sheet1!AB8</f>
+        <v/>
+      </c>
+      <c r="AC7" s="32" t="str">
         <f>Sheet1!AC8</f>
         <v/>
       </c>
-      <c r="AD7" s="30">
+      <c r="AD7" s="32">
         <f>Sheet1!AD8</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="30" t="str">
+      <c r="AE7" s="32" t="str">
         <f>Sheet1!AE8</f>
         <v/>
       </c>
-      <c r="AG7" s="30" t="str">
+      <c r="AF7" s="32" t="str">
+        <f>Sheet1!AF8</f>
+        <v/>
+      </c>
+      <c r="AG7" s="32" t="str">
         <f>Sheet1!AG8</f>
         <v/>
       </c>
-      <c r="AH7" s="30">
+      <c r="AH7" s="32">
         <f>Sheet1!AH8</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="30" t="str">
+      <c r="AI7" s="32" t="str">
         <f>Sheet1!AI8</f>
         <v/>
       </c>
-      <c r="AK7" s="30" t="str">
+      <c r="AJ7" s="32" t="str">
+        <f>Sheet1!AJ8</f>
+        <v/>
+      </c>
+      <c r="AK7" s="32" t="str">
         <f>Sheet1!AK8</f>
         <v/>
       </c>
-      <c r="AL7" s="30">
+      <c r="AL7" s="32">
         <f>Sheet1!AL8</f>
         <v>0</v>
       </c>
-      <c r="AM7" s="30" t="str">
+      <c r="AM7" s="32" t="str">
         <f>Sheet1!AM8</f>
         <v/>
       </c>
-      <c r="AO7" s="30" t="str">
+      <c r="AN7" s="32" t="str">
+        <f>Sheet1!AN8</f>
+        <v/>
+      </c>
+      <c r="AO7" s="32" t="str">
         <f>Sheet1!AO8</f>
         <v/>
       </c>
-      <c r="AP7" s="30">
+      <c r="AP7" s="32">
         <f>Sheet1!AP8</f>
         <v>0</v>
       </c>
-      <c r="AQ7" s="30" t="str">
+      <c r="AQ7" s="32" t="str">
         <f>Sheet1!AQ8</f>
         <v/>
       </c>
-      <c r="AS7" s="30" t="str">
+      <c r="AR7" s="32" t="str">
+        <f>Sheet1!AR8</f>
+        <v/>
+      </c>
+      <c r="AS7" s="32" t="str">
         <f>Sheet1!AS8</f>
         <v/>
       </c>
-      <c r="AT7" s="30">
+      <c r="AT7" s="32">
         <f>Sheet1!AT8</f>
         <v>0</v>
       </c>
-      <c r="AU7" s="30" t="str">
+      <c r="AU7" s="32" t="str">
         <f>Sheet1!AU8</f>
         <v/>
       </c>
-      <c r="AW7" s="30" t="str">
+      <c r="AV7" s="32" t="str">
+        <f>Sheet1!AV8</f>
+        <v/>
+      </c>
+      <c r="AW7" s="32" t="str">
         <f>Sheet1!AW8</f>
         <v/>
       </c>
-      <c r="AX7" s="30">
+      <c r="AX7" s="32">
         <f>Sheet1!AX8</f>
         <v>0</v>
       </c>
-      <c r="AY7" s="30" t="str">
+      <c r="AY7" s="32" t="str">
         <f>Sheet1!AY8</f>
         <v/>
       </c>
-      <c r="BA7" s="30" t="str">
+      <c r="AZ7" s="32" t="str">
+        <f>Sheet1!AZ8</f>
+        <v/>
+      </c>
+      <c r="BA7" s="32" t="str">
         <f>Sheet1!BA8</f>
         <v/>
       </c>
-      <c r="BB7" s="30">
+      <c r="BB7" s="32">
         <f>Sheet1!BB8</f>
         <v>0</v>
       </c>
-      <c r="BC7" s="30" t="str">
+      <c r="BC7" s="32" t="str">
         <f>Sheet1!BC8</f>
         <v/>
       </c>
-      <c r="BE7" s="30" t="str">
+      <c r="BD7" s="32" t="str">
+        <f>Sheet1!BD8</f>
+        <v/>
+      </c>
+      <c r="BE7" s="32" t="str">
         <f>Sheet1!BE8</f>
         <v/>
       </c>
-      <c r="BF7" s="30">
+      <c r="BF7" s="32">
         <f>Sheet1!BF8</f>
         <v>0</v>
       </c>
-      <c r="BG7" s="30" t="str">
+      <c r="BG7" s="32" t="str">
         <f>Sheet1!BG8</f>
         <v/>
       </c>
-      <c r="BI7" s="30" t="str">
+      <c r="BH7" s="32" t="str">
+        <f>Sheet1!BH8</f>
+        <v/>
+      </c>
+      <c r="BI7" s="32" t="str">
         <f>Sheet1!BI8</f>
         <v/>
       </c>
-      <c r="BJ7" s="30">
+      <c r="BJ7" s="32">
         <f>Sheet1!BJ8</f>
         <v>0</v>
       </c>
@@ -4298,191 +4713,251 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="30" t="str">
+      <c r="A8" s="32" t="str">
         <f>Sheet1!A9</f>
         <v>Alpine</v>
       </c>
-      <c r="B8" s="30" t="str">
+      <c r="B8" s="32" t="str">
         <f>Sheet1!B9</f>
         <v>Eddie</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="32">
         <f>Sheet1!C9</f>
         <v>8</v>
       </c>
-      <c r="E8" s="30" t="str">
+      <c r="D8" s="32">
+        <f>Sheet1!D9</f>
+        <v>13</v>
+      </c>
+      <c r="E8" s="32" t="str">
         <f>Sheet1!E9</f>
-        <v/>
-      </c>
-      <c r="F8" s="30">
+        <v>N</v>
+      </c>
+      <c r="F8" s="32">
         <f>Sheet1!F9</f>
         <v>4</v>
       </c>
-      <c r="G8" s="30" t="str">
+      <c r="G8" s="32" t="str">
         <f>Sheet1!G9</f>
         <v/>
       </c>
-      <c r="I8" s="30" t="str">
+      <c r="H8" s="32" t="str">
+        <f>Sheet1!H9</f>
+        <v/>
+      </c>
+      <c r="I8" s="32" t="str">
         <f>Sheet1!I9</f>
         <v/>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="32">
         <f>Sheet1!J9</f>
         <v>0</v>
       </c>
-      <c r="K8" s="30" t="str">
+      <c r="K8" s="32" t="str">
         <f>Sheet1!K9</f>
         <v/>
       </c>
-      <c r="M8" s="30" t="str">
+      <c r="L8" s="32" t="str">
+        <f>Sheet1!L9</f>
+        <v/>
+      </c>
+      <c r="M8" s="32" t="str">
         <f>Sheet1!M9</f>
         <v/>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="32">
         <f>Sheet1!N9</f>
         <v>0</v>
       </c>
-      <c r="O8" s="30" t="str">
+      <c r="O8" s="32" t="str">
         <f>Sheet1!O9</f>
         <v/>
       </c>
-      <c r="Q8" s="30" t="str">
+      <c r="P8" s="32" t="str">
+        <f>Sheet1!P9</f>
+        <v/>
+      </c>
+      <c r="Q8" s="32" t="str">
         <f>Sheet1!Q9</f>
         <v/>
       </c>
-      <c r="R8" s="30">
+      <c r="R8" s="32">
         <f>Sheet1!R9</f>
         <v>0</v>
       </c>
-      <c r="S8" s="30" t="str">
+      <c r="S8" s="32" t="str">
         <f>Sheet1!S9</f>
         <v/>
       </c>
-      <c r="U8" s="30" t="str">
+      <c r="T8" s="32" t="str">
+        <f>Sheet1!T9</f>
+        <v/>
+      </c>
+      <c r="U8" s="32" t="str">
         <f>Sheet1!U9</f>
         <v/>
       </c>
-      <c r="V8" s="30">
+      <c r="V8" s="32">
         <f>Sheet1!V9</f>
         <v>0</v>
       </c>
-      <c r="W8" s="30" t="str">
+      <c r="W8" s="32" t="str">
         <f>Sheet1!W9</f>
         <v/>
       </c>
-      <c r="Y8" s="30" t="str">
+      <c r="X8" s="32" t="str">
+        <f>Sheet1!X9</f>
+        <v/>
+      </c>
+      <c r="Y8" s="32" t="str">
         <f>Sheet1!Y9</f>
         <v/>
       </c>
-      <c r="Z8" s="30">
+      <c r="Z8" s="32">
         <f>Sheet1!Z9</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="30" t="str">
+      <c r="AA8" s="32" t="str">
         <f>Sheet1!AA9</f>
         <v/>
       </c>
-      <c r="AC8" s="30" t="str">
+      <c r="AB8" s="32" t="str">
+        <f>Sheet1!AB9</f>
+        <v/>
+      </c>
+      <c r="AC8" s="32" t="str">
         <f>Sheet1!AC9</f>
         <v/>
       </c>
-      <c r="AD8" s="30">
+      <c r="AD8" s="32">
         <f>Sheet1!AD9</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="30" t="str">
+      <c r="AE8" s="32" t="str">
         <f>Sheet1!AE9</f>
         <v/>
       </c>
-      <c r="AG8" s="30" t="str">
+      <c r="AF8" s="32" t="str">
+        <f>Sheet1!AF9</f>
+        <v/>
+      </c>
+      <c r="AG8" s="32" t="str">
         <f>Sheet1!AG9</f>
         <v/>
       </c>
-      <c r="AH8" s="30">
+      <c r="AH8" s="32">
         <f>Sheet1!AH9</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="30" t="str">
+      <c r="AI8" s="32" t="str">
         <f>Sheet1!AI9</f>
         <v/>
       </c>
-      <c r="AK8" s="30" t="str">
+      <c r="AJ8" s="32" t="str">
+        <f>Sheet1!AJ9</f>
+        <v/>
+      </c>
+      <c r="AK8" s="32" t="str">
         <f>Sheet1!AK9</f>
         <v/>
       </c>
-      <c r="AL8" s="30">
+      <c r="AL8" s="32">
         <f>Sheet1!AL9</f>
         <v>0</v>
       </c>
-      <c r="AM8" s="30" t="str">
+      <c r="AM8" s="32" t="str">
         <f>Sheet1!AM9</f>
         <v/>
       </c>
-      <c r="AO8" s="30" t="str">
+      <c r="AN8" s="32" t="str">
+        <f>Sheet1!AN9</f>
+        <v/>
+      </c>
+      <c r="AO8" s="32" t="str">
         <f>Sheet1!AO9</f>
         <v/>
       </c>
-      <c r="AP8" s="30">
+      <c r="AP8" s="32">
         <f>Sheet1!AP9</f>
         <v>0</v>
       </c>
-      <c r="AQ8" s="30" t="str">
+      <c r="AQ8" s="32" t="str">
         <f>Sheet1!AQ9</f>
         <v/>
       </c>
-      <c r="AS8" s="30" t="str">
+      <c r="AR8" s="32" t="str">
+        <f>Sheet1!AR9</f>
+        <v/>
+      </c>
+      <c r="AS8" s="32" t="str">
         <f>Sheet1!AS9</f>
         <v/>
       </c>
-      <c r="AT8" s="30">
+      <c r="AT8" s="32">
         <f>Sheet1!AT9</f>
         <v>0</v>
       </c>
-      <c r="AU8" s="30" t="str">
+      <c r="AU8" s="32" t="str">
         <f>Sheet1!AU9</f>
         <v/>
       </c>
-      <c r="AW8" s="30" t="str">
+      <c r="AV8" s="32" t="str">
+        <f>Sheet1!AV9</f>
+        <v/>
+      </c>
+      <c r="AW8" s="32" t="str">
         <f>Sheet1!AW9</f>
         <v/>
       </c>
-      <c r="AX8" s="30">
+      <c r="AX8" s="32">
         <f>Sheet1!AX9</f>
         <v>0</v>
       </c>
-      <c r="AY8" s="30" t="str">
+      <c r="AY8" s="32" t="str">
         <f>Sheet1!AY9</f>
         <v/>
       </c>
-      <c r="BA8" s="30" t="str">
+      <c r="AZ8" s="32" t="str">
+        <f>Sheet1!AZ9</f>
+        <v/>
+      </c>
+      <c r="BA8" s="32" t="str">
         <f>Sheet1!BA9</f>
         <v/>
       </c>
-      <c r="BB8" s="30">
+      <c r="BB8" s="32">
         <f>Sheet1!BB9</f>
         <v>0</v>
       </c>
-      <c r="BC8" s="30" t="str">
+      <c r="BC8" s="32" t="str">
         <f>Sheet1!BC9</f>
         <v/>
       </c>
-      <c r="BE8" s="30" t="str">
+      <c r="BD8" s="32" t="str">
+        <f>Sheet1!BD9</f>
+        <v/>
+      </c>
+      <c r="BE8" s="32" t="str">
         <f>Sheet1!BE9</f>
         <v/>
       </c>
-      <c r="BF8" s="30">
+      <c r="BF8" s="32">
         <f>Sheet1!BF9</f>
         <v>0</v>
       </c>
-      <c r="BG8" s="30" t="str">
+      <c r="BG8" s="32" t="str">
         <f>Sheet1!BG9</f>
         <v/>
       </c>
-      <c r="BI8" s="30" t="str">
+      <c r="BH8" s="32" t="str">
+        <f>Sheet1!BH9</f>
+        <v/>
+      </c>
+      <c r="BI8" s="32" t="str">
         <f>Sheet1!BI9</f>
         <v/>
       </c>
-      <c r="BJ8" s="30">
+      <c r="BJ8" s="32">
         <f>Sheet1!BJ9</f>
         <v>0</v>
       </c>
@@ -4491,191 +4966,251 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="30" t="str">
+      <c r="A9" s="32" t="str">
         <f>Sheet1!A10</f>
         <v>Alpine</v>
       </c>
-      <c r="B9" s="30" t="str">
+      <c r="B9" s="32" t="str">
         <f>Sheet1!B10</f>
         <v>Joshua</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="32">
         <f>Sheet1!C10</f>
         <v>1</v>
       </c>
-      <c r="E9" s="30" t="str">
+      <c r="D9" s="32">
+        <f>Sheet1!D10</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="32" t="str">
         <f>Sheet1!E10</f>
         <v>Y</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="32">
         <f>Sheet1!F10</f>
         <v>26</v>
       </c>
-      <c r="G9" s="30" t="str">
+      <c r="G9" s="32" t="str">
         <f>Sheet1!G10</f>
         <v/>
       </c>
-      <c r="I9" s="30" t="str">
+      <c r="H9" s="32" t="str">
+        <f>Sheet1!H10</f>
+        <v/>
+      </c>
+      <c r="I9" s="32" t="str">
         <f>Sheet1!I10</f>
         <v/>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="32">
         <f>Sheet1!J10</f>
         <v>0</v>
       </c>
-      <c r="K9" s="30" t="str">
+      <c r="K9" s="32" t="str">
         <f>Sheet1!K10</f>
         <v/>
       </c>
-      <c r="M9" s="30" t="str">
+      <c r="L9" s="32" t="str">
+        <f>Sheet1!L10</f>
+        <v/>
+      </c>
+      <c r="M9" s="32" t="str">
         <f>Sheet1!M10</f>
         <v/>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="32">
         <f>Sheet1!N10</f>
         <v>0</v>
       </c>
-      <c r="O9" s="30" t="str">
+      <c r="O9" s="32" t="str">
         <f>Sheet1!O10</f>
         <v/>
       </c>
-      <c r="Q9" s="30" t="str">
+      <c r="P9" s="32" t="str">
+        <f>Sheet1!P10</f>
+        <v/>
+      </c>
+      <c r="Q9" s="32" t="str">
         <f>Sheet1!Q10</f>
         <v/>
       </c>
-      <c r="R9" s="30">
+      <c r="R9" s="32">
         <f>Sheet1!R10</f>
         <v>0</v>
       </c>
-      <c r="S9" s="30" t="str">
+      <c r="S9" s="32" t="str">
         <f>Sheet1!S10</f>
         <v/>
       </c>
-      <c r="U9" s="30" t="str">
+      <c r="T9" s="32" t="str">
+        <f>Sheet1!T10</f>
+        <v/>
+      </c>
+      <c r="U9" s="32" t="str">
         <f>Sheet1!U10</f>
         <v/>
       </c>
-      <c r="V9" s="30">
+      <c r="V9" s="32">
         <f>Sheet1!V10</f>
         <v>0</v>
       </c>
-      <c r="W9" s="30" t="str">
+      <c r="W9" s="32" t="str">
         <f>Sheet1!W10</f>
         <v/>
       </c>
-      <c r="Y9" s="30" t="str">
+      <c r="X9" s="32" t="str">
+        <f>Sheet1!X10</f>
+        <v/>
+      </c>
+      <c r="Y9" s="32" t="str">
         <f>Sheet1!Y10</f>
         <v/>
       </c>
-      <c r="Z9" s="30">
+      <c r="Z9" s="32">
         <f>Sheet1!Z10</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="30" t="str">
+      <c r="AA9" s="32" t="str">
         <f>Sheet1!AA10</f>
         <v/>
       </c>
-      <c r="AC9" s="30" t="str">
+      <c r="AB9" s="32" t="str">
+        <f>Sheet1!AB10</f>
+        <v/>
+      </c>
+      <c r="AC9" s="32" t="str">
         <f>Sheet1!AC10</f>
         <v/>
       </c>
-      <c r="AD9" s="30">
+      <c r="AD9" s="32">
         <f>Sheet1!AD10</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="30" t="str">
+      <c r="AE9" s="32" t="str">
         <f>Sheet1!AE10</f>
         <v/>
       </c>
-      <c r="AG9" s="30" t="str">
+      <c r="AF9" s="32" t="str">
+        <f>Sheet1!AF10</f>
+        <v/>
+      </c>
+      <c r="AG9" s="32" t="str">
         <f>Sheet1!AG10</f>
         <v/>
       </c>
-      <c r="AH9" s="30">
+      <c r="AH9" s="32">
         <f>Sheet1!AH10</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="30" t="str">
+      <c r="AI9" s="32" t="str">
         <f>Sheet1!AI10</f>
         <v/>
       </c>
-      <c r="AK9" s="30" t="str">
+      <c r="AJ9" s="32" t="str">
+        <f>Sheet1!AJ10</f>
+        <v/>
+      </c>
+      <c r="AK9" s="32" t="str">
         <f>Sheet1!AK10</f>
         <v/>
       </c>
-      <c r="AL9" s="30">
+      <c r="AL9" s="32">
         <f>Sheet1!AL10</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="30" t="str">
+      <c r="AM9" s="32" t="str">
         <f>Sheet1!AM10</f>
         <v/>
       </c>
-      <c r="AO9" s="30" t="str">
+      <c r="AN9" s="32" t="str">
+        <f>Sheet1!AN10</f>
+        <v/>
+      </c>
+      <c r="AO9" s="32" t="str">
         <f>Sheet1!AO10</f>
         <v/>
       </c>
-      <c r="AP9" s="30">
+      <c r="AP9" s="32">
         <f>Sheet1!AP10</f>
         <v>0</v>
       </c>
-      <c r="AQ9" s="30" t="str">
+      <c r="AQ9" s="32" t="str">
         <f>Sheet1!AQ10</f>
         <v/>
       </c>
-      <c r="AS9" s="30" t="str">
+      <c r="AR9" s="32" t="str">
+        <f>Sheet1!AR10</f>
+        <v/>
+      </c>
+      <c r="AS9" s="32" t="str">
         <f>Sheet1!AS10</f>
         <v/>
       </c>
-      <c r="AT9" s="30">
+      <c r="AT9" s="32">
         <f>Sheet1!AT10</f>
         <v>0</v>
       </c>
-      <c r="AU9" s="30" t="str">
+      <c r="AU9" s="32" t="str">
         <f>Sheet1!AU10</f>
         <v/>
       </c>
-      <c r="AW9" s="30" t="str">
+      <c r="AV9" s="32" t="str">
+        <f>Sheet1!AV10</f>
+        <v/>
+      </c>
+      <c r="AW9" s="32" t="str">
         <f>Sheet1!AW10</f>
         <v/>
       </c>
-      <c r="AX9" s="30">
+      <c r="AX9" s="32">
         <f>Sheet1!AX10</f>
         <v>0</v>
       </c>
-      <c r="AY9" s="30" t="str">
+      <c r="AY9" s="32" t="str">
         <f>Sheet1!AY10</f>
         <v/>
       </c>
-      <c r="BA9" s="30" t="str">
+      <c r="AZ9" s="32" t="str">
+        <f>Sheet1!AZ10</f>
+        <v/>
+      </c>
+      <c r="BA9" s="32" t="str">
         <f>Sheet1!BA10</f>
         <v/>
       </c>
-      <c r="BB9" s="30">
+      <c r="BB9" s="32">
         <f>Sheet1!BB10</f>
         <v>0</v>
       </c>
-      <c r="BC9" s="30" t="str">
+      <c r="BC9" s="32" t="str">
         <f>Sheet1!BC10</f>
         <v/>
       </c>
-      <c r="BE9" s="30" t="str">
+      <c r="BD9" s="32" t="str">
+        <f>Sheet1!BD10</f>
+        <v/>
+      </c>
+      <c r="BE9" s="32" t="str">
         <f>Sheet1!BE10</f>
         <v/>
       </c>
-      <c r="BF9" s="30">
+      <c r="BF9" s="32">
         <f>Sheet1!BF10</f>
         <v>0</v>
       </c>
-      <c r="BG9" s="30" t="str">
+      <c r="BG9" s="32" t="str">
         <f>Sheet1!BG10</f>
         <v/>
       </c>
-      <c r="BI9" s="30" t="str">
+      <c r="BH9" s="32" t="str">
+        <f>Sheet1!BH10</f>
+        <v/>
+      </c>
+      <c r="BI9" s="32" t="str">
         <f>Sheet1!BI10</f>
         <v/>
       </c>
-      <c r="BJ9" s="30">
+      <c r="BJ9" s="32">
         <f>Sheet1!BJ10</f>
         <v>0</v>
       </c>
@@ -4684,191 +5219,251 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="30" t="str">
+      <c r="A10" s="32" t="str">
         <f>Sheet1!A11</f>
         <v>Red Bull</v>
       </c>
-      <c r="B10" s="30" t="str">
+      <c r="B10" s="32" t="str">
         <f>Sheet1!B11</f>
         <v>Yeti</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="32">
         <f>Sheet1!C11</f>
         <v>14</v>
       </c>
-      <c r="E10" s="30" t="str">
+      <c r="D10" s="32">
+        <f>Sheet1!D11</f>
+        <v>19</v>
+      </c>
+      <c r="E10" s="32" t="str">
         <f>Sheet1!E11</f>
-        <v/>
-      </c>
-      <c r="F10" s="30">
+        <v>N</v>
+      </c>
+      <c r="F10" s="32">
         <f>Sheet1!F11</f>
         <v>1</v>
       </c>
-      <c r="G10" s="30" t="str">
+      <c r="G10" s="32" t="str">
         <f>Sheet1!G11</f>
         <v/>
       </c>
-      <c r="I10" s="30" t="str">
+      <c r="H10" s="32" t="str">
+        <f>Sheet1!H11</f>
+        <v/>
+      </c>
+      <c r="I10" s="32" t="str">
         <f>Sheet1!I11</f>
         <v/>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="32">
         <f>Sheet1!J11</f>
         <v>0</v>
       </c>
-      <c r="K10" s="30" t="str">
+      <c r="K10" s="32" t="str">
         <f>Sheet1!K11</f>
         <v/>
       </c>
-      <c r="M10" s="30" t="str">
+      <c r="L10" s="32" t="str">
+        <f>Sheet1!L11</f>
+        <v/>
+      </c>
+      <c r="M10" s="32" t="str">
         <f>Sheet1!M11</f>
         <v/>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="32">
         <f>Sheet1!N11</f>
         <v>0</v>
       </c>
-      <c r="O10" s="30" t="str">
+      <c r="O10" s="32" t="str">
         <f>Sheet1!O11</f>
         <v/>
       </c>
-      <c r="Q10" s="30" t="str">
+      <c r="P10" s="32" t="str">
+        <f>Sheet1!P11</f>
+        <v/>
+      </c>
+      <c r="Q10" s="32" t="str">
         <f>Sheet1!Q11</f>
         <v/>
       </c>
-      <c r="R10" s="30">
+      <c r="R10" s="32">
         <f>Sheet1!R11</f>
         <v>0</v>
       </c>
-      <c r="S10" s="30" t="str">
+      <c r="S10" s="32" t="str">
         <f>Sheet1!S11</f>
         <v/>
       </c>
-      <c r="U10" s="30" t="str">
+      <c r="T10" s="32" t="str">
+        <f>Sheet1!T11</f>
+        <v/>
+      </c>
+      <c r="U10" s="32" t="str">
         <f>Sheet1!U11</f>
         <v/>
       </c>
-      <c r="V10" s="30">
+      <c r="V10" s="32">
         <f>Sheet1!V11</f>
         <v>0</v>
       </c>
-      <c r="W10" s="30" t="str">
+      <c r="W10" s="32" t="str">
         <f>Sheet1!W11</f>
         <v/>
       </c>
-      <c r="Y10" s="30" t="str">
+      <c r="X10" s="32" t="str">
+        <f>Sheet1!X11</f>
+        <v/>
+      </c>
+      <c r="Y10" s="32" t="str">
         <f>Sheet1!Y11</f>
         <v/>
       </c>
-      <c r="Z10" s="30">
+      <c r="Z10" s="32">
         <f>Sheet1!Z11</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="30" t="str">
+      <c r="AA10" s="32" t="str">
         <f>Sheet1!AA11</f>
         <v/>
       </c>
-      <c r="AC10" s="30" t="str">
+      <c r="AB10" s="32" t="str">
+        <f>Sheet1!AB11</f>
+        <v/>
+      </c>
+      <c r="AC10" s="32" t="str">
         <f>Sheet1!AC11</f>
         <v/>
       </c>
-      <c r="AD10" s="30">
+      <c r="AD10" s="32">
         <f>Sheet1!AD11</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="30" t="str">
+      <c r="AE10" s="32" t="str">
         <f>Sheet1!AE11</f>
         <v/>
       </c>
-      <c r="AG10" s="30" t="str">
+      <c r="AF10" s="32" t="str">
+        <f>Sheet1!AF11</f>
+        <v/>
+      </c>
+      <c r="AG10" s="32" t="str">
         <f>Sheet1!AG11</f>
         <v/>
       </c>
-      <c r="AH10" s="30">
+      <c r="AH10" s="32">
         <f>Sheet1!AH11</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="30" t="str">
+      <c r="AI10" s="32" t="str">
         <f>Sheet1!AI11</f>
         <v/>
       </c>
-      <c r="AK10" s="30" t="str">
+      <c r="AJ10" s="32" t="str">
+        <f>Sheet1!AJ11</f>
+        <v/>
+      </c>
+      <c r="AK10" s="32" t="str">
         <f>Sheet1!AK11</f>
         <v/>
       </c>
-      <c r="AL10" s="30">
+      <c r="AL10" s="32">
         <f>Sheet1!AL11</f>
         <v>0</v>
       </c>
-      <c r="AM10" s="30" t="str">
+      <c r="AM10" s="32" t="str">
         <f>Sheet1!AM11</f>
         <v/>
       </c>
-      <c r="AO10" s="30" t="str">
+      <c r="AN10" s="32" t="str">
+        <f>Sheet1!AN11</f>
+        <v/>
+      </c>
+      <c r="AO10" s="32" t="str">
         <f>Sheet1!AO11</f>
         <v/>
       </c>
-      <c r="AP10" s="30">
+      <c r="AP10" s="32">
         <f>Sheet1!AP11</f>
         <v>0</v>
       </c>
-      <c r="AQ10" s="30" t="str">
+      <c r="AQ10" s="32" t="str">
         <f>Sheet1!AQ11</f>
         <v/>
       </c>
-      <c r="AS10" s="30" t="str">
+      <c r="AR10" s="32" t="str">
+        <f>Sheet1!AR11</f>
+        <v/>
+      </c>
+      <c r="AS10" s="32" t="str">
         <f>Sheet1!AS11</f>
         <v/>
       </c>
-      <c r="AT10" s="30">
+      <c r="AT10" s="32">
         <f>Sheet1!AT11</f>
         <v>0</v>
       </c>
-      <c r="AU10" s="30" t="str">
+      <c r="AU10" s="32" t="str">
         <f>Sheet1!AU11</f>
         <v/>
       </c>
-      <c r="AW10" s="30" t="str">
+      <c r="AV10" s="32" t="str">
+        <f>Sheet1!AV11</f>
+        <v/>
+      </c>
+      <c r="AW10" s="32" t="str">
         <f>Sheet1!AW11</f>
         <v/>
       </c>
-      <c r="AX10" s="30">
+      <c r="AX10" s="32">
         <f>Sheet1!AX11</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="30" t="str">
+      <c r="AY10" s="32" t="str">
         <f>Sheet1!AY11</f>
         <v/>
       </c>
-      <c r="BA10" s="30" t="str">
+      <c r="AZ10" s="32" t="str">
+        <f>Sheet1!AZ11</f>
+        <v/>
+      </c>
+      <c r="BA10" s="32" t="str">
         <f>Sheet1!BA11</f>
         <v/>
       </c>
-      <c r="BB10" s="30">
+      <c r="BB10" s="32">
         <f>Sheet1!BB11</f>
         <v>0</v>
       </c>
-      <c r="BC10" s="30" t="str">
+      <c r="BC10" s="32" t="str">
         <f>Sheet1!BC11</f>
         <v/>
       </c>
-      <c r="BE10" s="30" t="str">
+      <c r="BD10" s="32" t="str">
+        <f>Sheet1!BD11</f>
+        <v/>
+      </c>
+      <c r="BE10" s="32" t="str">
         <f>Sheet1!BE11</f>
         <v/>
       </c>
-      <c r="BF10" s="30">
+      <c r="BF10" s="32">
         <f>Sheet1!BF11</f>
         <v>0</v>
       </c>
-      <c r="BG10" s="30" t="str">
+      <c r="BG10" s="32" t="str">
         <f>Sheet1!BG11</f>
         <v/>
       </c>
-      <c r="BI10" s="30" t="str">
+      <c r="BH10" s="32" t="str">
+        <f>Sheet1!BH11</f>
+        <v/>
+      </c>
+      <c r="BI10" s="32" t="str">
         <f>Sheet1!BI11</f>
         <v/>
       </c>
-      <c r="BJ10" s="30">
+      <c r="BJ10" s="32">
         <f>Sheet1!BJ11</f>
         <v>0</v>
       </c>
@@ -4877,191 +5472,251 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="30" t="str">
+      <c r="A11" s="32" t="str">
         <f>Sheet1!A12</f>
         <v>Red Bull</v>
       </c>
-      <c r="B11" s="30" t="str">
+      <c r="B11" s="32" t="str">
         <f>Sheet1!B12</f>
         <v>Boz</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="32">
         <f>Sheet1!C12</f>
         <v>17</v>
       </c>
-      <c r="E11" s="30" t="str">
+      <c r="D11" s="32">
+        <f>Sheet1!D12</f>
+        <v>8</v>
+      </c>
+      <c r="E11" s="32" t="str">
         <f>Sheet1!E12</f>
-        <v/>
-      </c>
-      <c r="F11" s="30">
+        <v>N</v>
+      </c>
+      <c r="F11" s="32">
         <f>Sheet1!F12</f>
         <v>1</v>
       </c>
-      <c r="G11" s="30" t="str">
+      <c r="G11" s="32" t="str">
         <f>Sheet1!G12</f>
         <v/>
       </c>
-      <c r="I11" s="30" t="str">
+      <c r="H11" s="32" t="str">
+        <f>Sheet1!H12</f>
+        <v/>
+      </c>
+      <c r="I11" s="32" t="str">
         <f>Sheet1!I12</f>
         <v/>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="32">
         <f>Sheet1!J12</f>
         <v>0</v>
       </c>
-      <c r="K11" s="30" t="str">
+      <c r="K11" s="32" t="str">
         <f>Sheet1!K12</f>
         <v/>
       </c>
-      <c r="M11" s="30" t="str">
+      <c r="L11" s="32" t="str">
+        <f>Sheet1!L12</f>
+        <v/>
+      </c>
+      <c r="M11" s="32" t="str">
         <f>Sheet1!M12</f>
         <v/>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="32">
         <f>Sheet1!N12</f>
         <v>0</v>
       </c>
-      <c r="O11" s="30" t="str">
+      <c r="O11" s="32" t="str">
         <f>Sheet1!O12</f>
         <v/>
       </c>
-      <c r="Q11" s="30" t="str">
+      <c r="P11" s="32" t="str">
+        <f>Sheet1!P12</f>
+        <v/>
+      </c>
+      <c r="Q11" s="32" t="str">
         <f>Sheet1!Q12</f>
         <v/>
       </c>
-      <c r="R11" s="30">
+      <c r="R11" s="32">
         <f>Sheet1!R12</f>
         <v>0</v>
       </c>
-      <c r="S11" s="30" t="str">
+      <c r="S11" s="32" t="str">
         <f>Sheet1!S12</f>
         <v/>
       </c>
-      <c r="U11" s="30" t="str">
+      <c r="T11" s="32" t="str">
+        <f>Sheet1!T12</f>
+        <v/>
+      </c>
+      <c r="U11" s="32" t="str">
         <f>Sheet1!U12</f>
         <v/>
       </c>
-      <c r="V11" s="30">
+      <c r="V11" s="32">
         <f>Sheet1!V12</f>
         <v>0</v>
       </c>
-      <c r="W11" s="30" t="str">
+      <c r="W11" s="32" t="str">
         <f>Sheet1!W12</f>
         <v/>
       </c>
-      <c r="Y11" s="30" t="str">
+      <c r="X11" s="32" t="str">
+        <f>Sheet1!X12</f>
+        <v/>
+      </c>
+      <c r="Y11" s="32" t="str">
         <f>Sheet1!Y12</f>
         <v/>
       </c>
-      <c r="Z11" s="30">
+      <c r="Z11" s="32">
         <f>Sheet1!Z12</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="30" t="str">
+      <c r="AA11" s="32" t="str">
         <f>Sheet1!AA12</f>
         <v/>
       </c>
-      <c r="AC11" s="30" t="str">
+      <c r="AB11" s="32" t="str">
+        <f>Sheet1!AB12</f>
+        <v/>
+      </c>
+      <c r="AC11" s="32" t="str">
         <f>Sheet1!AC12</f>
         <v/>
       </c>
-      <c r="AD11" s="30">
+      <c r="AD11" s="32">
         <f>Sheet1!AD12</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="30" t="str">
+      <c r="AE11" s="32" t="str">
         <f>Sheet1!AE12</f>
         <v/>
       </c>
-      <c r="AG11" s="30" t="str">
+      <c r="AF11" s="32" t="str">
+        <f>Sheet1!AF12</f>
+        <v/>
+      </c>
+      <c r="AG11" s="32" t="str">
         <f>Sheet1!AG12</f>
         <v/>
       </c>
-      <c r="AH11" s="30">
+      <c r="AH11" s="32">
         <f>Sheet1!AH12</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="30" t="str">
+      <c r="AI11" s="32" t="str">
         <f>Sheet1!AI12</f>
         <v/>
       </c>
-      <c r="AK11" s="30" t="str">
+      <c r="AJ11" s="32" t="str">
+        <f>Sheet1!AJ12</f>
+        <v/>
+      </c>
+      <c r="AK11" s="32" t="str">
         <f>Sheet1!AK12</f>
         <v/>
       </c>
-      <c r="AL11" s="30">
+      <c r="AL11" s="32">
         <f>Sheet1!AL12</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="30" t="str">
+      <c r="AM11" s="32" t="str">
         <f>Sheet1!AM12</f>
         <v/>
       </c>
-      <c r="AO11" s="30" t="str">
+      <c r="AN11" s="32" t="str">
+        <f>Sheet1!AN12</f>
+        <v/>
+      </c>
+      <c r="AO11" s="32" t="str">
         <f>Sheet1!AO12</f>
         <v/>
       </c>
-      <c r="AP11" s="30">
+      <c r="AP11" s="32">
         <f>Sheet1!AP12</f>
         <v>0</v>
       </c>
-      <c r="AQ11" s="30" t="str">
+      <c r="AQ11" s="32" t="str">
         <f>Sheet1!AQ12</f>
         <v/>
       </c>
-      <c r="AS11" s="30" t="str">
+      <c r="AR11" s="32" t="str">
+        <f>Sheet1!AR12</f>
+        <v/>
+      </c>
+      <c r="AS11" s="32" t="str">
         <f>Sheet1!AS12</f>
         <v/>
       </c>
-      <c r="AT11" s="30">
+      <c r="AT11" s="32">
         <f>Sheet1!AT12</f>
         <v>0</v>
       </c>
-      <c r="AU11" s="30" t="str">
+      <c r="AU11" s="32" t="str">
         <f>Sheet1!AU12</f>
         <v/>
       </c>
-      <c r="AW11" s="30" t="str">
+      <c r="AV11" s="32" t="str">
+        <f>Sheet1!AV12</f>
+        <v/>
+      </c>
+      <c r="AW11" s="32" t="str">
         <f>Sheet1!AW12</f>
         <v/>
       </c>
-      <c r="AX11" s="30">
+      <c r="AX11" s="32">
         <f>Sheet1!AX12</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="30" t="str">
+      <c r="AY11" s="32" t="str">
         <f>Sheet1!AY12</f>
         <v/>
       </c>
-      <c r="BA11" s="30" t="str">
+      <c r="AZ11" s="32" t="str">
+        <f>Sheet1!AZ12</f>
+        <v/>
+      </c>
+      <c r="BA11" s="32" t="str">
         <f>Sheet1!BA12</f>
         <v/>
       </c>
-      <c r="BB11" s="30">
+      <c r="BB11" s="32">
         <f>Sheet1!BB12</f>
         <v>0</v>
       </c>
-      <c r="BC11" s="30" t="str">
+      <c r="BC11" s="32" t="str">
         <f>Sheet1!BC12</f>
         <v/>
       </c>
-      <c r="BE11" s="30" t="str">
+      <c r="BD11" s="32" t="str">
+        <f>Sheet1!BD12</f>
+        <v/>
+      </c>
+      <c r="BE11" s="32" t="str">
         <f>Sheet1!BE12</f>
         <v/>
       </c>
-      <c r="BF11" s="30">
+      <c r="BF11" s="32">
         <f>Sheet1!BF12</f>
         <v>0</v>
       </c>
-      <c r="BG11" s="30" t="str">
+      <c r="BG11" s="32" t="str">
         <f>Sheet1!BG12</f>
         <v/>
       </c>
-      <c r="BI11" s="30" t="str">
+      <c r="BH11" s="32" t="str">
+        <f>Sheet1!BH12</f>
+        <v/>
+      </c>
+      <c r="BI11" s="32" t="str">
         <f>Sheet1!BI12</f>
         <v/>
       </c>
-      <c r="BJ11" s="30">
+      <c r="BJ11" s="32">
         <f>Sheet1!BJ12</f>
         <v>0</v>
       </c>
@@ -5070,191 +5725,251 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="30" t="str">
+      <c r="A12" s="32" t="str">
         <f>Sheet1!A13</f>
         <v>Aston Martin</v>
       </c>
-      <c r="B12" s="30" t="str">
+      <c r="B12" s="32" t="str">
         <f>Sheet1!B13</f>
         <v>Gary</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="32">
         <f>Sheet1!C13</f>
         <v>18</v>
       </c>
-      <c r="E12" s="30" t="str">
+      <c r="D12" s="32">
+        <f>Sheet1!D13</f>
+        <v>20</v>
+      </c>
+      <c r="E12" s="32" t="str">
         <f>Sheet1!E13</f>
-        <v/>
-      </c>
-      <c r="F12" s="30">
+        <v>N</v>
+      </c>
+      <c r="F12" s="32">
         <f>Sheet1!F13</f>
         <v>1</v>
       </c>
-      <c r="G12" s="30" t="str">
+      <c r="G12" s="32" t="str">
         <f>Sheet1!G13</f>
         <v/>
       </c>
-      <c r="I12" s="30" t="str">
+      <c r="H12" s="32" t="str">
+        <f>Sheet1!H13</f>
+        <v/>
+      </c>
+      <c r="I12" s="32" t="str">
         <f>Sheet1!I13</f>
         <v/>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="32">
         <f>Sheet1!J13</f>
         <v>0</v>
       </c>
-      <c r="K12" s="30" t="str">
+      <c r="K12" s="32" t="str">
         <f>Sheet1!K13</f>
         <v/>
       </c>
-      <c r="M12" s="30" t="str">
+      <c r="L12" s="32" t="str">
+        <f>Sheet1!L13</f>
+        <v/>
+      </c>
+      <c r="M12" s="32" t="str">
         <f>Sheet1!M13</f>
         <v/>
       </c>
-      <c r="N12" s="30">
+      <c r="N12" s="32">
         <f>Sheet1!N13</f>
         <v>0</v>
       </c>
-      <c r="O12" s="30" t="str">
+      <c r="O12" s="32" t="str">
         <f>Sheet1!O13</f>
         <v/>
       </c>
-      <c r="Q12" s="30" t="str">
+      <c r="P12" s="32" t="str">
+        <f>Sheet1!P13</f>
+        <v/>
+      </c>
+      <c r="Q12" s="32" t="str">
         <f>Sheet1!Q13</f>
         <v/>
       </c>
-      <c r="R12" s="30">
+      <c r="R12" s="32">
         <f>Sheet1!R13</f>
         <v>0</v>
       </c>
-      <c r="S12" s="30" t="str">
+      <c r="S12" s="32" t="str">
         <f>Sheet1!S13</f>
         <v/>
       </c>
-      <c r="U12" s="30" t="str">
+      <c r="T12" s="32" t="str">
+        <f>Sheet1!T13</f>
+        <v/>
+      </c>
+      <c r="U12" s="32" t="str">
         <f>Sheet1!U13</f>
         <v/>
       </c>
-      <c r="V12" s="30">
+      <c r="V12" s="32">
         <f>Sheet1!V13</f>
         <v>0</v>
       </c>
-      <c r="W12" s="30" t="str">
+      <c r="W12" s="32" t="str">
         <f>Sheet1!W13</f>
         <v/>
       </c>
-      <c r="Y12" s="30" t="str">
+      <c r="X12" s="32" t="str">
+        <f>Sheet1!X13</f>
+        <v/>
+      </c>
+      <c r="Y12" s="32" t="str">
         <f>Sheet1!Y13</f>
         <v/>
       </c>
-      <c r="Z12" s="30">
+      <c r="Z12" s="32">
         <f>Sheet1!Z13</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="30" t="str">
+      <c r="AA12" s="32" t="str">
         <f>Sheet1!AA13</f>
         <v/>
       </c>
-      <c r="AC12" s="30" t="str">
+      <c r="AB12" s="32" t="str">
+        <f>Sheet1!AB13</f>
+        <v/>
+      </c>
+      <c r="AC12" s="32" t="str">
         <f>Sheet1!AC13</f>
         <v/>
       </c>
-      <c r="AD12" s="30">
+      <c r="AD12" s="32">
         <f>Sheet1!AD13</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="30" t="str">
+      <c r="AE12" s="32" t="str">
         <f>Sheet1!AE13</f>
         <v/>
       </c>
-      <c r="AG12" s="30" t="str">
+      <c r="AF12" s="32" t="str">
+        <f>Sheet1!AF13</f>
+        <v/>
+      </c>
+      <c r="AG12" s="32" t="str">
         <f>Sheet1!AG13</f>
         <v/>
       </c>
-      <c r="AH12" s="30">
+      <c r="AH12" s="32">
         <f>Sheet1!AH13</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="30" t="str">
+      <c r="AI12" s="32" t="str">
         <f>Sheet1!AI13</f>
         <v/>
       </c>
-      <c r="AK12" s="30" t="str">
+      <c r="AJ12" s="32" t="str">
+        <f>Sheet1!AJ13</f>
+        <v/>
+      </c>
+      <c r="AK12" s="32" t="str">
         <f>Sheet1!AK13</f>
         <v/>
       </c>
-      <c r="AL12" s="30">
+      <c r="AL12" s="32">
         <f>Sheet1!AL13</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="30" t="str">
+      <c r="AM12" s="32" t="str">
         <f>Sheet1!AM13</f>
         <v/>
       </c>
-      <c r="AO12" s="30" t="str">
+      <c r="AN12" s="32" t="str">
+        <f>Sheet1!AN13</f>
+        <v/>
+      </c>
+      <c r="AO12" s="32" t="str">
         <f>Sheet1!AO13</f>
         <v/>
       </c>
-      <c r="AP12" s="30">
+      <c r="AP12" s="32">
         <f>Sheet1!AP13</f>
         <v>0</v>
       </c>
-      <c r="AQ12" s="30" t="str">
+      <c r="AQ12" s="32" t="str">
         <f>Sheet1!AQ13</f>
         <v/>
       </c>
-      <c r="AS12" s="30" t="str">
+      <c r="AR12" s="32" t="str">
+        <f>Sheet1!AR13</f>
+        <v/>
+      </c>
+      <c r="AS12" s="32" t="str">
         <f>Sheet1!AS13</f>
         <v/>
       </c>
-      <c r="AT12" s="30">
+      <c r="AT12" s="32">
         <f>Sheet1!AT13</f>
         <v>0</v>
       </c>
-      <c r="AU12" s="30" t="str">
+      <c r="AU12" s="32" t="str">
         <f>Sheet1!AU13</f>
         <v/>
       </c>
-      <c r="AW12" s="30" t="str">
+      <c r="AV12" s="32" t="str">
+        <f>Sheet1!AV13</f>
+        <v/>
+      </c>
+      <c r="AW12" s="32" t="str">
         <f>Sheet1!AW13</f>
         <v/>
       </c>
-      <c r="AX12" s="30">
+      <c r="AX12" s="32">
         <f>Sheet1!AX13</f>
         <v>0</v>
       </c>
-      <c r="AY12" s="30" t="str">
+      <c r="AY12" s="32" t="str">
         <f>Sheet1!AY13</f>
         <v/>
       </c>
-      <c r="BA12" s="30" t="str">
+      <c r="AZ12" s="32" t="str">
+        <f>Sheet1!AZ13</f>
+        <v/>
+      </c>
+      <c r="BA12" s="32" t="str">
         <f>Sheet1!BA13</f>
         <v/>
       </c>
-      <c r="BB12" s="30">
+      <c r="BB12" s="32">
         <f>Sheet1!BB13</f>
         <v>0</v>
       </c>
-      <c r="BC12" s="30" t="str">
+      <c r="BC12" s="32" t="str">
         <f>Sheet1!BC13</f>
         <v/>
       </c>
-      <c r="BE12" s="30" t="str">
+      <c r="BD12" s="32" t="str">
+        <f>Sheet1!BD13</f>
+        <v/>
+      </c>
+      <c r="BE12" s="32" t="str">
         <f>Sheet1!BE13</f>
         <v/>
       </c>
-      <c r="BF12" s="30">
+      <c r="BF12" s="32">
         <f>Sheet1!BF13</f>
         <v>0</v>
       </c>
-      <c r="BG12" s="30" t="str">
+      <c r="BG12" s="32" t="str">
         <f>Sheet1!BG13</f>
         <v/>
       </c>
-      <c r="BI12" s="30" t="str">
+      <c r="BH12" s="32" t="str">
+        <f>Sheet1!BH13</f>
+        <v/>
+      </c>
+      <c r="BI12" s="32" t="str">
         <f>Sheet1!BI13</f>
         <v/>
       </c>
-      <c r="BJ12" s="30">
+      <c r="BJ12" s="32">
         <f>Sheet1!BJ13</f>
         <v>0</v>
       </c>
@@ -5263,191 +5978,251 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="30" t="str">
+      <c r="A13" s="32" t="str">
         <f>Sheet1!A14</f>
         <v>Aston Martin</v>
       </c>
-      <c r="B13" s="30" t="str">
+      <c r="B13" s="32" t="str">
         <f>Sheet1!B14</f>
         <v>Del</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="32">
         <f>Sheet1!C14</f>
         <v>3</v>
       </c>
-      <c r="E13" s="30" t="str">
+      <c r="D13" s="32">
+        <f>Sheet1!D14</f>
+        <v>18</v>
+      </c>
+      <c r="E13" s="32" t="str">
         <f>Sheet1!E14</f>
-        <v/>
-      </c>
-      <c r="F13" s="30">
+        <v>N</v>
+      </c>
+      <c r="F13" s="32">
         <f>Sheet1!F14</f>
         <v>15</v>
       </c>
-      <c r="G13" s="30" t="str">
+      <c r="G13" s="32" t="str">
         <f>Sheet1!G14</f>
         <v/>
       </c>
-      <c r="I13" s="30" t="str">
+      <c r="H13" s="32" t="str">
+        <f>Sheet1!H14</f>
+        <v/>
+      </c>
+      <c r="I13" s="32" t="str">
         <f>Sheet1!I14</f>
         <v/>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="32">
         <f>Sheet1!J14</f>
         <v>0</v>
       </c>
-      <c r="K13" s="30" t="str">
+      <c r="K13" s="32" t="str">
         <f>Sheet1!K14</f>
         <v/>
       </c>
-      <c r="M13" s="30" t="str">
+      <c r="L13" s="32" t="str">
+        <f>Sheet1!L14</f>
+        <v/>
+      </c>
+      <c r="M13" s="32" t="str">
         <f>Sheet1!M14</f>
         <v/>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="32">
         <f>Sheet1!N14</f>
         <v>0</v>
       </c>
-      <c r="O13" s="30" t="str">
+      <c r="O13" s="32" t="str">
         <f>Sheet1!O14</f>
         <v/>
       </c>
-      <c r="Q13" s="30" t="str">
+      <c r="P13" s="32" t="str">
+        <f>Sheet1!P14</f>
+        <v/>
+      </c>
+      <c r="Q13" s="32" t="str">
         <f>Sheet1!Q14</f>
         <v/>
       </c>
-      <c r="R13" s="30">
+      <c r="R13" s="32">
         <f>Sheet1!R14</f>
         <v>0</v>
       </c>
-      <c r="S13" s="30" t="str">
+      <c r="S13" s="32" t="str">
         <f>Sheet1!S14</f>
         <v/>
       </c>
-      <c r="U13" s="30" t="str">
+      <c r="T13" s="32" t="str">
+        <f>Sheet1!T14</f>
+        <v/>
+      </c>
+      <c r="U13" s="32" t="str">
         <f>Sheet1!U14</f>
         <v/>
       </c>
-      <c r="V13" s="30">
+      <c r="V13" s="32">
         <f>Sheet1!V14</f>
         <v>0</v>
       </c>
-      <c r="W13" s="30" t="str">
+      <c r="W13" s="32" t="str">
         <f>Sheet1!W14</f>
         <v/>
       </c>
-      <c r="Y13" s="30" t="str">
+      <c r="X13" s="32" t="str">
+        <f>Sheet1!X14</f>
+        <v/>
+      </c>
+      <c r="Y13" s="32" t="str">
         <f>Sheet1!Y14</f>
         <v/>
       </c>
-      <c r="Z13" s="30">
+      <c r="Z13" s="32">
         <f>Sheet1!Z14</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="30" t="str">
+      <c r="AA13" s="32" t="str">
         <f>Sheet1!AA14</f>
         <v/>
       </c>
-      <c r="AC13" s="30" t="str">
+      <c r="AB13" s="32" t="str">
+        <f>Sheet1!AB14</f>
+        <v/>
+      </c>
+      <c r="AC13" s="32" t="str">
         <f>Sheet1!AC14</f>
         <v/>
       </c>
-      <c r="AD13" s="30">
+      <c r="AD13" s="32">
         <f>Sheet1!AD14</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="30" t="str">
+      <c r="AE13" s="32" t="str">
         <f>Sheet1!AE14</f>
         <v/>
       </c>
-      <c r="AG13" s="30" t="str">
+      <c r="AF13" s="32" t="str">
+        <f>Sheet1!AF14</f>
+        <v/>
+      </c>
+      <c r="AG13" s="32" t="str">
         <f>Sheet1!AG14</f>
         <v/>
       </c>
-      <c r="AH13" s="30">
+      <c r="AH13" s="32">
         <f>Sheet1!AH14</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="30" t="str">
+      <c r="AI13" s="32" t="str">
         <f>Sheet1!AI14</f>
         <v/>
       </c>
-      <c r="AK13" s="30" t="str">
+      <c r="AJ13" s="32" t="str">
+        <f>Sheet1!AJ14</f>
+        <v/>
+      </c>
+      <c r="AK13" s="32" t="str">
         <f>Sheet1!AK14</f>
         <v/>
       </c>
-      <c r="AL13" s="30">
+      <c r="AL13" s="32">
         <f>Sheet1!AL14</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="30" t="str">
+      <c r="AM13" s="32" t="str">
         <f>Sheet1!AM14</f>
         <v/>
       </c>
-      <c r="AO13" s="30" t="str">
+      <c r="AN13" s="32" t="str">
+        <f>Sheet1!AN14</f>
+        <v/>
+      </c>
+      <c r="AO13" s="32" t="str">
         <f>Sheet1!AO14</f>
         <v/>
       </c>
-      <c r="AP13" s="30">
+      <c r="AP13" s="32">
         <f>Sheet1!AP14</f>
         <v>0</v>
       </c>
-      <c r="AQ13" s="30" t="str">
+      <c r="AQ13" s="32" t="str">
         <f>Sheet1!AQ14</f>
         <v/>
       </c>
-      <c r="AS13" s="30" t="str">
+      <c r="AR13" s="32" t="str">
+        <f>Sheet1!AR14</f>
+        <v/>
+      </c>
+      <c r="AS13" s="32" t="str">
         <f>Sheet1!AS14</f>
         <v/>
       </c>
-      <c r="AT13" s="30">
+      <c r="AT13" s="32">
         <f>Sheet1!AT14</f>
         <v>0</v>
       </c>
-      <c r="AU13" s="30" t="str">
+      <c r="AU13" s="32" t="str">
         <f>Sheet1!AU14</f>
         <v/>
       </c>
-      <c r="AW13" s="30" t="str">
+      <c r="AV13" s="32" t="str">
+        <f>Sheet1!AV14</f>
+        <v/>
+      </c>
+      <c r="AW13" s="32" t="str">
         <f>Sheet1!AW14</f>
         <v/>
       </c>
-      <c r="AX13" s="30">
+      <c r="AX13" s="32">
         <f>Sheet1!AX14</f>
         <v>0</v>
       </c>
-      <c r="AY13" s="30" t="str">
+      <c r="AY13" s="32" t="str">
         <f>Sheet1!AY14</f>
         <v/>
       </c>
-      <c r="BA13" s="30" t="str">
+      <c r="AZ13" s="32" t="str">
+        <f>Sheet1!AZ14</f>
+        <v/>
+      </c>
+      <c r="BA13" s="32" t="str">
         <f>Sheet1!BA14</f>
         <v/>
       </c>
-      <c r="BB13" s="30">
+      <c r="BB13" s="32">
         <f>Sheet1!BB14</f>
         <v>0</v>
       </c>
-      <c r="BC13" s="30" t="str">
+      <c r="BC13" s="32" t="str">
         <f>Sheet1!BC14</f>
         <v/>
       </c>
-      <c r="BE13" s="30" t="str">
+      <c r="BD13" s="32" t="str">
+        <f>Sheet1!BD14</f>
+        <v/>
+      </c>
+      <c r="BE13" s="32" t="str">
         <f>Sheet1!BE14</f>
         <v/>
       </c>
-      <c r="BF13" s="30">
+      <c r="BF13" s="32">
         <f>Sheet1!BF14</f>
         <v>0</v>
       </c>
-      <c r="BG13" s="30" t="str">
+      <c r="BG13" s="32" t="str">
         <f>Sheet1!BG14</f>
         <v/>
       </c>
-      <c r="BI13" s="30" t="str">
+      <c r="BH13" s="32" t="str">
+        <f>Sheet1!BH14</f>
+        <v/>
+      </c>
+      <c r="BI13" s="32" t="str">
         <f>Sheet1!BI14</f>
         <v/>
       </c>
-      <c r="BJ13" s="30">
+      <c r="BJ13" s="32">
         <f>Sheet1!BJ14</f>
         <v>0</v>
       </c>
@@ -5456,531 +6231,531 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="30" t="str">
+      <c r="A14" s="32" t="str">
         <f>Sheet1!A15</f>
         <v/>
       </c>
-      <c r="B14" s="30" t="str">
+      <c r="B14" s="32" t="str">
         <f>Sheet1!B15</f>
         <v/>
       </c>
-      <c r="C14" s="30" t="str">
+      <c r="C14" s="32" t="str">
         <f>Sheet1!C15</f>
         <v/>
       </c>
-      <c r="E14" s="30" t="str">
+      <c r="E14" s="32" t="str">
         <f>Sheet1!E15</f>
         <v/>
       </c>
-      <c r="F14" s="30" t="str">
+      <c r="F14" s="32" t="str">
         <f>Sheet1!F15</f>
         <v/>
       </c>
-      <c r="G14" s="30" t="str">
+      <c r="G14" s="32" t="str">
         <f>Sheet1!G15</f>
         <v/>
       </c>
-      <c r="I14" s="30" t="str">
+      <c r="I14" s="32" t="str">
         <f>Sheet1!I15</f>
         <v/>
       </c>
-      <c r="J14" s="30" t="str">
+      <c r="J14" s="32" t="str">
         <f>Sheet1!J15</f>
         <v/>
       </c>
-      <c r="K14" s="30" t="str">
+      <c r="K14" s="32" t="str">
         <f>Sheet1!K15</f>
         <v/>
       </c>
-      <c r="M14" s="30" t="str">
+      <c r="M14" s="32" t="str">
         <f>Sheet1!M15</f>
         <v/>
       </c>
-      <c r="N14" s="30" t="str">
+      <c r="N14" s="32" t="str">
         <f>Sheet1!N15</f>
         <v/>
       </c>
-      <c r="O14" s="30" t="str">
+      <c r="O14" s="32" t="str">
         <f>Sheet1!O15</f>
         <v/>
       </c>
-      <c r="Q14" s="30" t="str">
+      <c r="Q14" s="32" t="str">
         <f>Sheet1!Q15</f>
         <v/>
       </c>
-      <c r="R14" s="30" t="str">
+      <c r="R14" s="32" t="str">
         <f>Sheet1!R15</f>
         <v/>
       </c>
-      <c r="S14" s="30" t="str">
+      <c r="S14" s="32" t="str">
         <f>Sheet1!S15</f>
         <v/>
       </c>
-      <c r="U14" s="30" t="str">
+      <c r="U14" s="32" t="str">
         <f>Sheet1!U15</f>
         <v/>
       </c>
-      <c r="V14" s="30" t="str">
+      <c r="V14" s="32" t="str">
         <f>Sheet1!V15</f>
         <v/>
       </c>
-      <c r="W14" s="30" t="str">
+      <c r="W14" s="32" t="str">
         <f>Sheet1!AA15</f>
         <v/>
       </c>
-      <c r="Y14" s="30" t="str">
+      <c r="Y14" s="32" t="str">
         <f>Sheet1!AC15</f>
         <v/>
       </c>
-      <c r="Z14" s="30" t="str">
+      <c r="Z14" s="32" t="str">
         <f>Sheet1!AD15</f>
         <v/>
       </c>
-      <c r="AA14" s="30" t="str">
+      <c r="AA14" s="32" t="str">
         <f>Sheet1!AE15</f>
         <v/>
       </c>
-      <c r="AC14" s="30" t="str">
+      <c r="AC14" s="32" t="str">
         <f>Sheet1!AG15</f>
         <v/>
       </c>
-      <c r="AD14" s="30" t="str">
+      <c r="AD14" s="32" t="str">
         <f>Sheet1!AH15</f>
         <v/>
       </c>
-      <c r="AE14" s="30" t="str">
+      <c r="AE14" s="32" t="str">
         <f>Sheet1!AI15</f>
         <v/>
       </c>
-      <c r="AG14" s="30" t="str">
+      <c r="AG14" s="32" t="str">
         <f>Sheet1!AK15</f>
         <v/>
       </c>
-      <c r="AH14" s="30" t="str">
+      <c r="AH14" s="32" t="str">
         <f>Sheet1!AL15</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="30" t="str">
+      <c r="A15" s="32" t="str">
         <f>Sheet1!A16</f>
         <v/>
       </c>
-      <c r="B15" s="30" t="str">
+      <c r="B15" s="32" t="str">
         <f>Sheet1!B16</f>
         <v/>
       </c>
-      <c r="C15" s="30" t="str">
+      <c r="C15" s="32" t="str">
         <f>Sheet1!C16</f>
         <v/>
       </c>
-      <c r="E15" s="30" t="str">
+      <c r="E15" s="32" t="str">
         <f>Sheet1!E16</f>
         <v/>
       </c>
-      <c r="F15" s="30" t="str">
+      <c r="F15" s="32" t="str">
         <f>Sheet1!F16</f>
         <v/>
       </c>
-      <c r="G15" s="30" t="str">
+      <c r="G15" s="32" t="str">
         <f>Sheet1!G16</f>
         <v/>
       </c>
-      <c r="I15" s="30" t="str">
+      <c r="I15" s="32" t="str">
         <f>Sheet1!I16</f>
         <v/>
       </c>
-      <c r="J15" s="30" t="str">
+      <c r="J15" s="32" t="str">
         <f>Sheet1!J16</f>
         <v/>
       </c>
-      <c r="K15" s="30" t="str">
+      <c r="K15" s="32" t="str">
         <f>Sheet1!K16</f>
         <v/>
       </c>
-      <c r="M15" s="30" t="str">
+      <c r="M15" s="32" t="str">
         <f>Sheet1!M16</f>
         <v/>
       </c>
-      <c r="N15" s="30" t="str">
+      <c r="N15" s="32" t="str">
         <f>Sheet1!N16</f>
         <v/>
       </c>
-      <c r="O15" s="30" t="str">
+      <c r="O15" s="32" t="str">
         <f>Sheet1!O16</f>
         <v/>
       </c>
-      <c r="Q15" s="30" t="str">
+      <c r="Q15" s="32" t="str">
         <f>Sheet1!Q16</f>
         <v/>
       </c>
-      <c r="R15" s="30" t="str">
+      <c r="R15" s="32" t="str">
         <f>Sheet1!R16</f>
         <v/>
       </c>
-      <c r="S15" s="30" t="str">
+      <c r="S15" s="32" t="str">
         <f>Sheet1!S16</f>
         <v/>
       </c>
-      <c r="U15" s="30" t="str">
+      <c r="U15" s="32" t="str">
         <f>Sheet1!U16</f>
         <v/>
       </c>
-      <c r="V15" s="30" t="str">
+      <c r="V15" s="32" t="str">
         <f>Sheet1!V16</f>
         <v/>
       </c>
-      <c r="W15" s="30" t="str">
+      <c r="W15" s="32" t="str">
         <f>Sheet1!AA16</f>
         <v/>
       </c>
-      <c r="Y15" s="30" t="str">
+      <c r="Y15" s="32" t="str">
         <f>Sheet1!AC16</f>
         <v/>
       </c>
-      <c r="Z15" s="30" t="str">
+      <c r="Z15" s="32" t="str">
         <f>Sheet1!AD16</f>
         <v/>
       </c>
-      <c r="AA15" s="30" t="str">
+      <c r="AA15" s="32" t="str">
         <f>Sheet1!AE16</f>
         <v/>
       </c>
-      <c r="AC15" s="30" t="str">
+      <c r="AC15" s="32" t="str">
         <f>Sheet1!AG16</f>
         <v/>
       </c>
-      <c r="AD15" s="30" t="str">
+      <c r="AD15" s="32" t="str">
         <f>Sheet1!AH16</f>
         <v/>
       </c>
-      <c r="AE15" s="30" t="str">
+      <c r="AE15" s="32" t="str">
         <f>Sheet1!AI16</f>
         <v/>
       </c>
-      <c r="AG15" s="30" t="str">
+      <c r="AG15" s="32" t="str">
         <f>Sheet1!AK16</f>
         <v/>
       </c>
-      <c r="AH15" s="30" t="str">
+      <c r="AH15" s="32" t="str">
         <f>Sheet1!AL16</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="30" t="str">
+      <c r="A16" s="32" t="str">
         <f>Sheet1!A17</f>
         <v/>
       </c>
-      <c r="B16" s="30" t="str">
+      <c r="B16" s="32" t="str">
         <f>Sheet1!B17</f>
         <v/>
       </c>
-      <c r="C16" s="30" t="str">
+      <c r="C16" s="32" t="str">
         <f>Sheet1!C17</f>
         <v/>
       </c>
-      <c r="E16" s="30" t="str">
+      <c r="E16" s="32" t="str">
         <f>Sheet1!E17</f>
         <v/>
       </c>
-      <c r="F16" s="30" t="str">
+      <c r="F16" s="32" t="str">
         <f>Sheet1!F17</f>
         <v/>
       </c>
-      <c r="G16" s="30" t="str">
+      <c r="G16" s="32" t="str">
         <f>Sheet1!G17</f>
         <v/>
       </c>
-      <c r="I16" s="30" t="str">
+      <c r="I16" s="32" t="str">
         <f>Sheet1!I17</f>
         <v/>
       </c>
-      <c r="J16" s="30" t="str">
+      <c r="J16" s="32" t="str">
         <f>Sheet1!J17</f>
         <v/>
       </c>
-      <c r="K16" s="30" t="str">
+      <c r="K16" s="32" t="str">
         <f>Sheet1!K17</f>
         <v/>
       </c>
-      <c r="M16" s="30" t="str">
+      <c r="M16" s="32" t="str">
         <f>Sheet1!M17</f>
         <v/>
       </c>
-      <c r="N16" s="30" t="str">
+      <c r="N16" s="32" t="str">
         <f>Sheet1!N17</f>
         <v/>
       </c>
-      <c r="O16" s="30" t="str">
+      <c r="O16" s="32" t="str">
         <f>Sheet1!O17</f>
         <v/>
       </c>
-      <c r="Q16" s="30" t="str">
+      <c r="Q16" s="32" t="str">
         <f>Sheet1!Q17</f>
         <v/>
       </c>
-      <c r="R16" s="30" t="str">
+      <c r="R16" s="32" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="S16" s="30" t="str">
+      <c r="S16" s="32" t="str">
         <f>Sheet1!S17</f>
         <v/>
       </c>
-      <c r="U16" s="30" t="str">
+      <c r="U16" s="32" t="str">
         <f>Sheet1!U17</f>
         <v/>
       </c>
-      <c r="V16" s="30" t="str">
+      <c r="V16" s="32" t="str">
         <f>Sheet1!V17</f>
         <v/>
       </c>
-      <c r="W16" s="30" t="str">
+      <c r="W16" s="32" t="str">
         <f>Sheet1!AA17</f>
         <v/>
       </c>
-      <c r="Y16" s="30" t="str">
+      <c r="Y16" s="32" t="str">
         <f>Sheet1!AC17</f>
         <v/>
       </c>
-      <c r="Z16" s="30" t="str">
+      <c r="Z16" s="32" t="str">
         <f>Sheet1!AD17</f>
         <v/>
       </c>
-      <c r="AA16" s="30" t="str">
+      <c r="AA16" s="32" t="str">
         <f>Sheet1!AE17</f>
         <v/>
       </c>
-      <c r="AC16" s="30" t="str">
+      <c r="AC16" s="32" t="str">
         <f>Sheet1!AG17</f>
         <v/>
       </c>
-      <c r="AD16" s="30" t="str">
+      <c r="AD16" s="32" t="str">
         <f>Sheet1!AH17</f>
         <v/>
       </c>
-      <c r="AE16" s="30" t="str">
+      <c r="AE16" s="32" t="str">
         <f>Sheet1!AI17</f>
         <v/>
       </c>
-      <c r="AG16" s="30" t="str">
+      <c r="AG16" s="32" t="str">
         <f>Sheet1!AK17</f>
         <v/>
       </c>
-      <c r="AH16" s="30" t="str">
+      <c r="AH16" s="32" t="str">
         <f>Sheet1!AL17</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="30" t="str">
+      <c r="A17" s="32" t="str">
         <f>Sheet1!A18</f>
         <v/>
       </c>
-      <c r="B17" s="30" t="str">
+      <c r="B17" s="32" t="str">
         <f>Sheet1!B18</f>
         <v/>
       </c>
-      <c r="C17" s="30" t="str">
+      <c r="C17" s="32" t="str">
         <f>Sheet1!C18</f>
         <v/>
       </c>
-      <c r="E17" s="30" t="str">
+      <c r="E17" s="32" t="str">
         <f>Sheet1!E18</f>
         <v/>
       </c>
-      <c r="F17" s="30" t="str">
+      <c r="F17" s="32" t="str">
         <f>Sheet1!F18</f>
         <v/>
       </c>
-      <c r="G17" s="30" t="str">
+      <c r="G17" s="32" t="str">
         <f>Sheet1!G18</f>
         <v/>
       </c>
-      <c r="I17" s="30" t="str">
+      <c r="I17" s="32" t="str">
         <f>Sheet1!I18</f>
         <v/>
       </c>
-      <c r="J17" s="30" t="str">
+      <c r="J17" s="32" t="str">
         <f>Sheet1!J18</f>
         <v/>
       </c>
-      <c r="K17" s="30" t="str">
+      <c r="K17" s="32" t="str">
         <f>Sheet1!K18</f>
         <v/>
       </c>
-      <c r="M17" s="30" t="str">
+      <c r="M17" s="32" t="str">
         <f>Sheet1!M18</f>
         <v/>
       </c>
-      <c r="N17" s="30" t="str">
+      <c r="N17" s="32" t="str">
         <f>Sheet1!N18</f>
         <v/>
       </c>
-      <c r="O17" s="30" t="str">
+      <c r="O17" s="32" t="str">
         <f>Sheet1!O18</f>
         <v/>
       </c>
-      <c r="Q17" s="30" t="str">
+      <c r="Q17" s="32" t="str">
         <f>Sheet1!Q18</f>
         <v/>
       </c>
-      <c r="R17" s="30" t="str">
+      <c r="R17" s="32" t="str">
         <f>Sheet1!R18</f>
         <v/>
       </c>
-      <c r="S17" s="30" t="str">
+      <c r="S17" s="32" t="str">
         <f>Sheet1!S18</f>
         <v/>
       </c>
-      <c r="U17" s="30" t="str">
+      <c r="U17" s="32" t="str">
         <f>Sheet1!U18</f>
         <v/>
       </c>
-      <c r="V17" s="30" t="str">
+      <c r="V17" s="32" t="str">
         <f>Sheet1!V18</f>
         <v/>
       </c>
-      <c r="W17" s="30" t="str">
+      <c r="W17" s="32" t="str">
         <f>Sheet1!AA18</f>
         <v/>
       </c>
-      <c r="Y17" s="30" t="str">
+      <c r="Y17" s="32" t="str">
         <f>Sheet1!AC18</f>
         <v/>
       </c>
-      <c r="Z17" s="30" t="str">
+      <c r="Z17" s="32" t="str">
         <f>Sheet1!AD18</f>
         <v/>
       </c>
-      <c r="AA17" s="30" t="str">
+      <c r="AA17" s="32" t="str">
         <f>Sheet1!AE18</f>
         <v/>
       </c>
-      <c r="AC17" s="30" t="str">
+      <c r="AC17" s="32" t="str">
         <f>Sheet1!AG18</f>
         <v/>
       </c>
-      <c r="AD17" s="30" t="str">
+      <c r="AD17" s="32" t="str">
         <f>Sheet1!AH18</f>
         <v/>
       </c>
-      <c r="AE17" s="30" t="str">
+      <c r="AE17" s="32" t="str">
         <f>Sheet1!AI18</f>
         <v/>
       </c>
-      <c r="AG17" s="30" t="str">
+      <c r="AG17" s="32" t="str">
         <f>Sheet1!AK18</f>
         <v/>
       </c>
-      <c r="AH17" s="30" t="str">
+      <c r="AH17" s="32" t="str">
         <f>Sheet1!AL18</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="30" t="str">
+      <c r="A18" s="32" t="str">
         <f>Sheet1!A19</f>
         <v/>
       </c>
-      <c r="B18" s="30" t="str">
+      <c r="B18" s="32" t="str">
         <f>Sheet1!B19</f>
         <v/>
       </c>
-      <c r="C18" s="30" t="str">
+      <c r="C18" s="32" t="str">
         <f>Sheet1!C19</f>
         <v/>
       </c>
-      <c r="E18" s="30" t="str">
+      <c r="E18" s="32" t="str">
         <f>Sheet1!E19</f>
         <v/>
       </c>
-      <c r="F18" s="30" t="str">
+      <c r="F18" s="32" t="str">
         <f>Sheet1!F19</f>
         <v/>
       </c>
-      <c r="G18" s="30" t="str">
+      <c r="G18" s="32" t="str">
         <f>Sheet1!G19</f>
         <v/>
       </c>
-      <c r="I18" s="30" t="str">
+      <c r="I18" s="32" t="str">
         <f>Sheet1!I19</f>
         <v/>
       </c>
-      <c r="J18" s="30" t="str">
+      <c r="J18" s="32" t="str">
         <f>Sheet1!J19</f>
         <v/>
       </c>
-      <c r="K18" s="30" t="str">
+      <c r="K18" s="32" t="str">
         <f>Sheet1!K19</f>
         <v/>
       </c>
-      <c r="M18" s="30" t="str">
+      <c r="M18" s="32" t="str">
         <f>Sheet1!M19</f>
         <v/>
       </c>
-      <c r="N18" s="30" t="str">
+      <c r="N18" s="32" t="str">
         <f>Sheet1!N19</f>
         <v/>
       </c>
-      <c r="O18" s="30" t="str">
+      <c r="O18" s="32" t="str">
         <f>Sheet1!O19</f>
         <v/>
       </c>
-      <c r="Q18" s="30" t="str">
+      <c r="Q18" s="32" t="str">
         <f>Sheet1!Q19</f>
         <v/>
       </c>
-      <c r="R18" s="30" t="str">
+      <c r="R18" s="32" t="str">
         <f>Sheet1!R19</f>
         <v/>
       </c>
-      <c r="S18" s="30" t="str">
+      <c r="S18" s="32" t="str">
         <f>Sheet1!S19</f>
         <v/>
       </c>
-      <c r="U18" s="30" t="str">
+      <c r="U18" s="32" t="str">
         <f>Sheet1!U19</f>
         <v/>
       </c>
-      <c r="V18" s="30" t="str">
+      <c r="V18" s="32" t="str">
         <f>Sheet1!V19</f>
         <v/>
       </c>
-      <c r="W18" s="30" t="str">
+      <c r="W18" s="32" t="str">
         <f>Sheet1!AA19</f>
         <v/>
       </c>
-      <c r="Y18" s="30" t="str">
+      <c r="Y18" s="32" t="str">
         <f>Sheet1!AC19</f>
         <v/>
       </c>
-      <c r="Z18" s="30" t="str">
+      <c r="Z18" s="32" t="str">
         <f>Sheet1!AD19</f>
         <v/>
       </c>
-      <c r="AA18" s="30" t="str">
+      <c r="AA18" s="32" t="str">
         <f>Sheet1!AE19</f>
         <v/>
       </c>
-      <c r="AC18" s="30" t="str">
+      <c r="AC18" s="32" t="str">
         <f>Sheet1!AG19</f>
         <v/>
       </c>
-      <c r="AD18" s="30" t="str">
+      <c r="AD18" s="32" t="str">
         <f>Sheet1!AH19</f>
         <v/>
       </c>
-      <c r="AE18" s="30" t="str">
+      <c r="AE18" s="32" t="str">
         <f>Sheet1!AI19</f>
         <v/>
       </c>
-      <c r="AG18" s="30" t="str">
+      <c r="AG18" s="32" t="str">
         <f>Sheet1!AK19</f>
         <v/>
       </c>
-      <c r="AH18" s="30" t="str">
+      <c r="AH18" s="32" t="str">
         <f>Sheet1!AL19</f>
         <v/>
       </c>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="46">
   <si>
     <t>Suzuka</t>
   </si>
@@ -1059,12 +1059,18 @@
         <f>IFERROR((VLOOKUP(C3,Sheet2!$A:$B,2,0))+IF(E3="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
+      <c r="G3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="J3" s="11">
         <f>IFERROR((VLOOKUP(G3,Sheet2!$A:$B,2,0))+IF(I3="y",1,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="13"/>
@@ -1178,12 +1184,18 @@
         <f>IFERROR((VLOOKUP(C4,Sheet2!$A:$B,2,0))+IF(E4="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
+      <c r="G4" s="15">
+        <v>9.0</v>
+      </c>
+      <c r="H4" s="16">
+        <v>10.0</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="J4" s="18">
         <f>IFERROR((VLOOKUP(G4,Sheet2!$A:$B,2,0))+IF(I4="y",1,0),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -1297,12 +1309,18 @@
         <f>IFERROR((VLOOKUP(C5,Sheet2!$A:$B,2,0))+IF(E5="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
+      <c r="G5" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>8.0</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="J5" s="18">
         <f>IFERROR((VLOOKUP(G5,Sheet2!$A:$B,2,0))+IF(I5="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="20"/>
@@ -1416,12 +1434,18 @@
         <f>IFERROR((VLOOKUP(C6,Sheet2!$A:$B,2,0))+IF(E6="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
+      <c r="G6" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="J6" s="18">
         <f>IFERROR((VLOOKUP(G6,Sheet2!$A:$B,2,0))+IF(I6="y",1,0),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="20"/>
@@ -1535,12 +1559,18 @@
         <f>IFERROR((VLOOKUP(C7,Sheet2!$A:$B,2,0))+IF(E7="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
+      <c r="G7" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="J7" s="18">
         <f>IFERROR((VLOOKUP(G7,Sheet2!$A:$B,2,0))+IF(I7="y",1,0),0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="20"/>
@@ -1654,12 +1684,18 @@
         <f>IFERROR((VLOOKUP(C8,Sheet2!$A:$B,2,0))+IF(E8="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
+      <c r="G8" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="J8" s="18">
         <f>IFERROR((VLOOKUP(G8,Sheet2!$A:$B,2,0))+IF(I8="y",1,0),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="20"/>
@@ -1773,12 +1809,18 @@
         <f>IFERROR((VLOOKUP(C9,Sheet2!$A:$B,2,0))+IF(E9="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
+      <c r="G9" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>9.0</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="J9" s="18">
         <f>IFERROR((VLOOKUP(G9,Sheet2!$A:$B,2,0))+IF(I9="y",1,0),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="20"/>
@@ -1892,12 +1934,18 @@
         <f>IFERROR((VLOOKUP(C10,Sheet2!$A:$B,2,0))+IF(E10="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
+      <c r="G10" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="J10" s="18">
         <f>IFERROR((VLOOKUP(G10,Sheet2!$A:$B,2,0))+IF(I10="y",1,0),0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="20"/>
@@ -2011,12 +2059,18 @@
         <f>IFERROR((VLOOKUP(C11,Sheet2!$A:$B,2,0))+IF(E11="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
+      <c r="G11" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="J11" s="18">
         <f>IFERROR((VLOOKUP(G11,Sheet2!$A:$B,2,0))+IF(I11="y",1,0),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="20"/>
@@ -2130,12 +2184,18 @@
         <f>IFERROR((VLOOKUP(C12,Sheet2!$A:$B,2,0))+IF(E12="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
+      <c r="G12" s="15">
+        <v>11.0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>7.0</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="J12" s="18">
         <f>IFERROR((VLOOKUP(G12,Sheet2!$A:$B,2,0))+IF(I12="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="20"/>
@@ -2249,12 +2309,18 @@
         <f>IFERROR((VLOOKUP(C13,Sheet2!$A:$B,2,0))+IF(E13="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
+      <c r="G13" s="15">
+        <v>19.0</v>
+      </c>
+      <c r="H13" s="16">
+        <v>19.0</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="J13" s="18">
         <f>IFERROR((VLOOKUP(G13,Sheet2!$A:$B,2,0))+IF(I13="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="20"/>
@@ -2368,9 +2434,15 @@
         <f>IFERROR((VLOOKUP(C14,Sheet2!$A:$B,2,0))+IF(E14="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
+      <c r="G14" s="22">
+        <v>100.0</v>
+      </c>
+      <c r="H14" s="23">
+        <v>100.0</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="J14" s="25">
         <f>IFERROR((VLOOKUP(G14,Sheet2!$A:$B,2,0))+IF(I14="y",1,0),0)</f>
         <v>0</v>
@@ -2895,31 +2967,43 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="31" t="s">
-        <v>43</v>
+      <c r="A27" s="31">
+        <v>50.0</v>
       </c>
       <c r="B27" s="31">
         <v>0.0</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="C27" s="4" t="s">
         <v>43</v>
+      </c>
+      <c r="D27" s="31">
+        <v>50.0</v>
       </c>
       <c r="E27" s="17">
         <v>0.0</v>
       </c>
+      <c r="F27" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="31" t="s">
-        <v>44</v>
+      <c r="A28" s="31">
+        <v>100.0</v>
       </c>
       <c r="B28" s="31">
         <v>0.0</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="C28" s="4" t="s">
         <v>44</v>
+      </c>
+      <c r="D28" s="31">
+        <v>100.0</v>
       </c>
       <c r="E28" s="17">
         <v>0.0</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3219,21 +3303,21 @@
         <f>Sheet1!F3</f>
         <v>18</v>
       </c>
-      <c r="G2" s="32" t="str">
+      <c r="G2" s="32">
         <f>Sheet1!G3</f>
-        <v/>
-      </c>
-      <c r="H2" s="32" t="str">
+        <v>2</v>
+      </c>
+      <c r="H2" s="32">
         <f>Sheet1!H3</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I2" s="32" t="str">
         <f>Sheet1!I3</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J2" s="32">
         <f>Sheet1!J3</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K2" s="32" t="str">
         <f>Sheet1!K3</f>
@@ -3472,21 +3556,21 @@
         <f>Sheet1!F4</f>
         <v>1</v>
       </c>
-      <c r="G3" s="32" t="str">
+      <c r="G3" s="32">
         <f>Sheet1!G4</f>
-        <v/>
-      </c>
-      <c r="H3" s="32" t="str">
+        <v>9</v>
+      </c>
+      <c r="H3" s="32">
         <f>Sheet1!H4</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="I3" s="32" t="str">
         <f>Sheet1!I4</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J3" s="32">
         <f>Sheet1!J4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="32" t="str">
         <f>Sheet1!K4</f>
@@ -3725,21 +3809,21 @@
         <f>Sheet1!F5</f>
         <v>1</v>
       </c>
-      <c r="G4" s="32" t="str">
+      <c r="G4" s="32">
         <f>Sheet1!G5</f>
-        <v/>
-      </c>
-      <c r="H4" s="32" t="str">
+        <v>4</v>
+      </c>
+      <c r="H4" s="32">
         <f>Sheet1!H5</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I4" s="32" t="str">
         <f>Sheet1!I5</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J4" s="32">
         <f>Sheet1!J5</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K4" s="32" t="str">
         <f>Sheet1!K5</f>
@@ -3978,21 +4062,21 @@
         <f>Sheet1!F6</f>
         <v>10</v>
       </c>
-      <c r="G5" s="32" t="str">
+      <c r="G5" s="32">
         <f>Sheet1!G6</f>
-        <v/>
-      </c>
-      <c r="H5" s="32" t="str">
+        <v>8</v>
+      </c>
+      <c r="H5" s="32">
         <f>Sheet1!H6</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I5" s="32" t="str">
         <f>Sheet1!I6</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J5" s="32">
         <f>Sheet1!J6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5" s="32" t="str">
         <f>Sheet1!K6</f>
@@ -4231,21 +4315,21 @@
         <f>Sheet1!F7</f>
         <v>6</v>
       </c>
-      <c r="G6" s="32" t="str">
+      <c r="G6" s="32">
         <f>Sheet1!G7</f>
-        <v/>
-      </c>
-      <c r="H6" s="32" t="str">
+        <v>3</v>
+      </c>
+      <c r="H6" s="32">
         <f>Sheet1!H7</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I6" s="32" t="str">
         <f>Sheet1!I7</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J6" s="32">
         <f>Sheet1!J7</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K6" s="32" t="str">
         <f>Sheet1!K7</f>
@@ -4484,21 +4568,21 @@
         <f>Sheet1!F8</f>
         <v>12</v>
       </c>
-      <c r="G7" s="32" t="str">
+      <c r="G7" s="32">
         <f>Sheet1!G8</f>
-        <v/>
-      </c>
-      <c r="H7" s="32" t="str">
+        <v>5</v>
+      </c>
+      <c r="H7" s="32">
         <f>Sheet1!H8</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I7" s="32" t="str">
         <f>Sheet1!I8</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J7" s="32">
         <f>Sheet1!J8</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K7" s="32" t="str">
         <f>Sheet1!K8</f>
@@ -4737,21 +4821,21 @@
         <f>Sheet1!F9</f>
         <v>4</v>
       </c>
-      <c r="G8" s="32" t="str">
+      <c r="G8" s="32">
         <f>Sheet1!G9</f>
-        <v/>
-      </c>
-      <c r="H8" s="32" t="str">
+        <v>7</v>
+      </c>
+      <c r="H8" s="32">
         <f>Sheet1!H9</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="I8" s="32" t="str">
         <f>Sheet1!I9</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J8" s="32">
         <f>Sheet1!J9</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K8" s="32" t="str">
         <f>Sheet1!K9</f>
@@ -4990,21 +5074,21 @@
         <f>Sheet1!F10</f>
         <v>26</v>
       </c>
-      <c r="G9" s="32" t="str">
+      <c r="G9" s="32">
         <f>Sheet1!G10</f>
-        <v/>
-      </c>
-      <c r="H9" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="H9" s="32">
         <f>Sheet1!H10</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I9" s="32" t="str">
         <f>Sheet1!I10</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="J9" s="32">
         <f>Sheet1!J10</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K9" s="32" t="str">
         <f>Sheet1!K10</f>
@@ -5243,21 +5327,21 @@
         <f>Sheet1!F11</f>
         <v>1</v>
       </c>
-      <c r="G10" s="32" t="str">
+      <c r="G10" s="32">
         <f>Sheet1!G11</f>
-        <v/>
-      </c>
-      <c r="H10" s="32" t="str">
+        <v>6</v>
+      </c>
+      <c r="H10" s="32">
         <f>Sheet1!H11</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I10" s="32" t="str">
         <f>Sheet1!I11</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J10" s="32">
         <f>Sheet1!J11</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K10" s="32" t="str">
         <f>Sheet1!K11</f>
@@ -5496,21 +5580,21 @@
         <f>Sheet1!F12</f>
         <v>1</v>
       </c>
-      <c r="G11" s="32" t="str">
+      <c r="G11" s="32">
         <f>Sheet1!G12</f>
-        <v/>
-      </c>
-      <c r="H11" s="32" t="str">
+        <v>11</v>
+      </c>
+      <c r="H11" s="32">
         <f>Sheet1!H12</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I11" s="32" t="str">
         <f>Sheet1!I12</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J11" s="32">
         <f>Sheet1!J12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="32" t="str">
         <f>Sheet1!K12</f>
@@ -5749,21 +5833,21 @@
         <f>Sheet1!F13</f>
         <v>1</v>
       </c>
-      <c r="G12" s="32" t="str">
+      <c r="G12" s="32">
         <f>Sheet1!G13</f>
-        <v/>
-      </c>
-      <c r="H12" s="32" t="str">
+        <v>19</v>
+      </c>
+      <c r="H12" s="32">
         <f>Sheet1!H13</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="I12" s="32" t="str">
         <f>Sheet1!I13</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J12" s="32">
         <f>Sheet1!J13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="32" t="str">
         <f>Sheet1!K13</f>
@@ -6002,17 +6086,17 @@
         <f>Sheet1!F14</f>
         <v>15</v>
       </c>
-      <c r="G13" s="32" t="str">
+      <c r="G13" s="32">
         <f>Sheet1!G14</f>
-        <v/>
-      </c>
-      <c r="H13" s="32" t="str">
+        <v>100</v>
+      </c>
+      <c r="H13" s="32">
         <f>Sheet1!H14</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="I13" s="32" t="str">
         <f>Sheet1!I14</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J13" s="32">
         <f>Sheet1!J14</f>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -2435,10 +2435,10 @@
         <v>15</v>
       </c>
       <c r="G14" s="22">
-        <v>100.0</v>
+        <v>22.0</v>
       </c>
       <c r="H14" s="23">
-        <v>100.0</v>
+        <v>22.0</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>23</v>
@@ -2915,13 +2915,19 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="31">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D23" s="31">
         <v>21.0</v>
       </c>
       <c r="E23" s="17">
-        <v>0.5</v>
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24">
@@ -2929,13 +2935,19 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="31">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D24" s="31">
         <v>22.0</v>
       </c>
       <c r="E24" s="17">
-        <v>0.5</v>
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -2943,13 +2955,13 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="31">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" s="31">
         <v>23.0</v>
       </c>
       <c r="E25" s="17">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -2957,53 +2969,33 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="31">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="31">
         <v>24.0</v>
       </c>
       <c r="E26" s="17">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="31">
-        <v>50.0</v>
-      </c>
+      <c r="A27" s="31"/>
       <c r="B27" s="31">
         <v>0.0</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="31">
-        <v>50.0</v>
-      </c>
+      <c r="D27" s="31"/>
       <c r="E27" s="17">
         <v>0.0</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="28">
-      <c r="A28" s="31">
-        <v>100.0</v>
-      </c>
+      <c r="A28" s="31"/>
       <c r="B28" s="31">
         <v>0.0</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="31">
-        <v>100.0</v>
-      </c>
+      <c r="D28" s="31"/>
       <c r="E28" s="17">
         <v>0.0</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -6088,11 +6080,11 @@
       </c>
       <c r="G13" s="32">
         <f>Sheet1!G14</f>
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H13" s="32">
         <f>Sheet1!H14</f>
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I13" s="32" t="str">
         <f>Sheet1!I14</f>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
   <si>
     <t>Suzuka</t>
   </si>
@@ -1072,12 +1072,18 @@
         <f>IFERROR((VLOOKUP(G3,Sheet2!$A:$B,2,0))+IF(I3="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
+      <c r="K3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="N3" s="11">
         <f>IFERROR((VLOOKUP(K3,Sheet2!$A:$B,2,0))+IF(M3="y",1,0),0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O3" s="12"/>
       <c r="P3" s="13"/>
@@ -1197,12 +1203,18 @@
         <f>IFERROR((VLOOKUP(G4,Sheet2!$A:$B,2,0))+IF(I4="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="21"/>
+      <c r="K4" s="15">
+        <v>12.0</v>
+      </c>
+      <c r="L4" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="N4" s="18">
         <f>IFERROR((VLOOKUP(K4,Sheet2!$A:$B,2,0))+IF(M4="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="19"/>
       <c r="P4" s="20"/>
@@ -1322,12 +1334,18 @@
         <f>IFERROR((VLOOKUP(G5,Sheet2!$A:$B,2,0))+IF(I5="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
+      <c r="K5" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="L5" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="N5" s="18">
         <f>IFERROR((VLOOKUP(K5,Sheet2!$A:$B,2,0))+IF(M5="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="20"/>
@@ -1447,12 +1465,18 @@
         <f>IFERROR((VLOOKUP(G6,Sheet2!$A:$B,2,0))+IF(I6="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
+      <c r="K6" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="L6" s="16">
+        <v>8.0</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="N6" s="18">
         <f>IFERROR((VLOOKUP(K6,Sheet2!$A:$B,2,0))+IF(M6="y",1,0),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O6" s="19"/>
       <c r="P6" s="20"/>
@@ -1572,12 +1596,18 @@
         <f>IFERROR((VLOOKUP(G7,Sheet2!$A:$B,2,0))+IF(I7="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
+      <c r="K7" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="L7" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="N7" s="18">
         <f>IFERROR((VLOOKUP(K7,Sheet2!$A:$B,2,0))+IF(M7="y",1,0),0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O7" s="19"/>
       <c r="P7" s="20"/>
@@ -1697,12 +1727,18 @@
         <f>IFERROR((VLOOKUP(G8,Sheet2!$A:$B,2,0))+IF(I8="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="21"/>
+      <c r="K8" s="15">
+        <v>15.0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="N8" s="18">
         <f>IFERROR((VLOOKUP(K8,Sheet2!$A:$B,2,0))+IF(M8="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="19"/>
       <c r="P8" s="20"/>
@@ -1822,12 +1858,18 @@
         <f>IFERROR((VLOOKUP(G9,Sheet2!$A:$B,2,0))+IF(I9="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
+      <c r="K9" s="15">
+        <v>13.0</v>
+      </c>
+      <c r="L9" s="16">
+        <v>15.0</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="N9" s="18">
         <f>IFERROR((VLOOKUP(K9,Sheet2!$A:$B,2,0))+IF(M9="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="20"/>
@@ -1947,12 +1989,18 @@
         <f>IFERROR((VLOOKUP(G10,Sheet2!$A:$B,2,0))+IF(I10="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
+      <c r="K10" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="N10" s="18">
         <f>IFERROR((VLOOKUP(K10,Sheet2!$A:$B,2,0))+IF(M10="y",1,0),0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="20"/>
@@ -2072,9 +2120,15 @@
         <f>IFERROR((VLOOKUP(G11,Sheet2!$A:$B,2,0))+IF(I11="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
+      <c r="K11" s="15">
+        <v>21.0</v>
+      </c>
+      <c r="L11" s="16">
+        <v>20.0</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="N11" s="18">
         <f>IFERROR((VLOOKUP(K11,Sheet2!$A:$B,2,0))+IF(M11="y",1,0),0)</f>
         <v>0</v>
@@ -2197,9 +2251,15 @@
         <f>IFERROR((VLOOKUP(G12,Sheet2!$A:$B,2,0))+IF(I12="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
+      <c r="K12" s="15">
+        <v>21.0</v>
+      </c>
+      <c r="L12" s="16">
+        <v>19.0</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="N12" s="18">
         <f>IFERROR((VLOOKUP(K12,Sheet2!$A:$B,2,0))+IF(M12="y",1,0),0)</f>
         <v>0</v>
@@ -2322,9 +2382,15 @@
         <f>IFERROR((VLOOKUP(G13,Sheet2!$A:$B,2,0))+IF(I13="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
+      <c r="K13" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="L13" s="16">
+        <v>22.0</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="N13" s="18">
         <f>IFERROR((VLOOKUP(K13,Sheet2!$A:$B,2,0))+IF(M13="y",1,0),0)</f>
         <v>0</v>
@@ -2447,12 +2513,18 @@
         <f>IFERROR((VLOOKUP(G14,Sheet2!$A:$B,2,0))+IF(I14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="28"/>
+      <c r="K14" s="22">
+        <v>11.0</v>
+      </c>
+      <c r="L14" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="N14" s="25">
         <f>IFERROR((VLOOKUP(K14,Sheet2!$A:$B,2,0))+IF(M14="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="26"/>
       <c r="P14" s="27"/>
@@ -3016,6 +3088,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="10" max="10" width="13.88"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="32" t="str">
@@ -3311,21 +3386,21 @@
         <f>Sheet1!J3</f>
         <v>18</v>
       </c>
-      <c r="K2" s="32" t="str">
+      <c r="K2" s="32">
         <f>Sheet1!K3</f>
-        <v/>
-      </c>
-      <c r="L2" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="L2" s="32">
         <f>Sheet1!L3</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M2" s="32" t="str">
         <f>Sheet1!M3</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N2" s="32">
         <f>Sheet1!N3</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O2" s="32" t="str">
         <f>Sheet1!O3</f>
@@ -3564,21 +3639,21 @@
         <f>Sheet1!J4</f>
         <v>2</v>
       </c>
-      <c r="K3" s="32" t="str">
+      <c r="K3" s="32">
         <f>Sheet1!K4</f>
-        <v/>
-      </c>
-      <c r="L3" s="32" t="str">
+        <v>12</v>
+      </c>
+      <c r="L3" s="32">
         <f>Sheet1!L4</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="M3" s="32" t="str">
         <f>Sheet1!M4</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N3" s="32">
         <f>Sheet1!N4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="32" t="str">
         <f>Sheet1!O4</f>
@@ -3817,21 +3892,21 @@
         <f>Sheet1!J5</f>
         <v>12</v>
       </c>
-      <c r="K4" s="32" t="str">
+      <c r="K4" s="32">
         <f>Sheet1!K5</f>
-        <v/>
-      </c>
-      <c r="L4" s="32" t="str">
+        <v>4</v>
+      </c>
+      <c r="L4" s="32">
         <f>Sheet1!L5</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M4" s="32" t="str">
         <f>Sheet1!M5</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N4" s="32">
         <f>Sheet1!N5</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O4" s="32" t="str">
         <f>Sheet1!O5</f>
@@ -4070,21 +4145,21 @@
         <f>Sheet1!J6</f>
         <v>4</v>
       </c>
-      <c r="K5" s="32" t="str">
+      <c r="K5" s="32">
         <f>Sheet1!K6</f>
-        <v/>
-      </c>
-      <c r="L5" s="32" t="str">
+        <v>5</v>
+      </c>
+      <c r="L5" s="32">
         <f>Sheet1!L6</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="M5" s="32" t="str">
         <f>Sheet1!M6</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N5" s="32">
         <f>Sheet1!N6</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O5" s="32" t="str">
         <f>Sheet1!O6</f>
@@ -4323,21 +4398,21 @@
         <f>Sheet1!J7</f>
         <v>15</v>
       </c>
-      <c r="K6" s="32" t="str">
+      <c r="K6" s="32">
         <f>Sheet1!K7</f>
-        <v/>
-      </c>
-      <c r="L6" s="32" t="str">
+        <v>3</v>
+      </c>
+      <c r="L6" s="32">
         <f>Sheet1!L7</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="M6" s="32" t="str">
         <f>Sheet1!M7</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N6" s="32">
         <f>Sheet1!N7</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O6" s="32" t="str">
         <f>Sheet1!O7</f>
@@ -4576,21 +4651,21 @@
         <f>Sheet1!J8</f>
         <v>10</v>
       </c>
-      <c r="K7" s="32" t="str">
+      <c r="K7" s="32">
         <f>Sheet1!K8</f>
-        <v/>
-      </c>
-      <c r="L7" s="32" t="str">
+        <v>15</v>
+      </c>
+      <c r="L7" s="32">
         <f>Sheet1!L8</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="M7" s="32" t="str">
         <f>Sheet1!M8</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N7" s="32">
         <f>Sheet1!N8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="32" t="str">
         <f>Sheet1!O8</f>
@@ -4829,21 +4904,21 @@
         <f>Sheet1!J9</f>
         <v>6</v>
       </c>
-      <c r="K8" s="32" t="str">
+      <c r="K8" s="32">
         <f>Sheet1!K9</f>
-        <v/>
-      </c>
-      <c r="L8" s="32" t="str">
+        <v>13</v>
+      </c>
+      <c r="L8" s="32">
         <f>Sheet1!L9</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="M8" s="32" t="str">
         <f>Sheet1!M9</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N8" s="32">
         <f>Sheet1!N9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="32" t="str">
         <f>Sheet1!O9</f>
@@ -5082,21 +5157,21 @@
         <f>Sheet1!J10</f>
         <v>26</v>
       </c>
-      <c r="K9" s="32" t="str">
+      <c r="K9" s="32">
         <f>Sheet1!K10</f>
-        <v/>
-      </c>
-      <c r="L9" s="32" t="str">
+        <v>2</v>
+      </c>
+      <c r="L9" s="32">
         <f>Sheet1!L10</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M9" s="32" t="str">
         <f>Sheet1!M10</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="N9" s="32">
         <f>Sheet1!N10</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O9" s="32" t="str">
         <f>Sheet1!O10</f>
@@ -5335,17 +5410,17 @@
         <f>Sheet1!J11</f>
         <v>8</v>
       </c>
-      <c r="K10" s="32" t="str">
+      <c r="K10" s="32">
         <f>Sheet1!K11</f>
-        <v/>
-      </c>
-      <c r="L10" s="32" t="str">
+        <v>21</v>
+      </c>
+      <c r="L10" s="32">
         <f>Sheet1!L11</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="M10" s="32" t="str">
         <f>Sheet1!M11</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N10" s="32">
         <f>Sheet1!N11</f>
@@ -5588,17 +5663,17 @@
         <f>Sheet1!J12</f>
         <v>1</v>
       </c>
-      <c r="K11" s="32" t="str">
+      <c r="K11" s="32">
         <f>Sheet1!K12</f>
-        <v/>
-      </c>
-      <c r="L11" s="32" t="str">
+        <v>21</v>
+      </c>
+      <c r="L11" s="32">
         <f>Sheet1!L12</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="M11" s="32" t="str">
         <f>Sheet1!M12</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N11" s="32">
         <f>Sheet1!N12</f>
@@ -5841,17 +5916,17 @@
         <f>Sheet1!J13</f>
         <v>1</v>
       </c>
-      <c r="K12" s="32" t="str">
+      <c r="K12" s="32">
         <f>Sheet1!K13</f>
-        <v/>
-      </c>
-      <c r="L12" s="32" t="str">
+        <v>22</v>
+      </c>
+      <c r="L12" s="32">
         <f>Sheet1!L13</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="M12" s="32" t="str">
         <f>Sheet1!M13</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N12" s="32">
         <f>Sheet1!N13</f>
@@ -6094,21 +6169,21 @@
         <f>Sheet1!J14</f>
         <v>0</v>
       </c>
-      <c r="K13" s="32" t="str">
+      <c r="K13" s="32">
         <f>Sheet1!K14</f>
-        <v/>
-      </c>
-      <c r="L13" s="32" t="str">
+        <v>11</v>
+      </c>
+      <c r="L13" s="32">
         <f>Sheet1!L14</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="M13" s="32" t="str">
         <f>Sheet1!M14</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N13" s="32">
         <f>Sheet1!N14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="32" t="str">
         <f>Sheet1!O14</f>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="47">
   <si>
     <t>Suzuka</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
   <si>
     <t>Travis</t>
@@ -1087,7 +1090,9 @@
       </c>
       <c r="O3" s="12"/>
       <c r="P3" s="13"/>
-      <c r="Q3" s="14"/>
+      <c r="Q3" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="R3" s="11">
         <f>IFERROR((VLOOKUP(O3,Sheet2!$A:$B,2,0))+IF(Q3="y",1,0),0)</f>
         <v>0</v>
@@ -1175,7 +1180,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="15">
         <v>16.0</v>
@@ -1201,7 +1206,7 @@
       </c>
       <c r="J4" s="18">
         <f>IFERROR((VLOOKUP(G4,Sheet2!$A:$B,2,0))+IF(I4="y",1,0),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" s="15">
         <v>12.0</v>
@@ -1303,10 +1308,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="15">
         <v>11.0</v>
@@ -1434,10 +1439,10 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="15">
         <v>5.0</v>
@@ -1565,10 +1570,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="15">
         <v>7.0</v>
@@ -1696,10 +1701,10 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="15">
         <v>4.0</v>
@@ -1827,10 +1832,10 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="15">
         <v>8.0</v>
@@ -1958,10 +1963,10 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="15">
         <v>1.0</v>
@@ -1970,7 +1975,7 @@
         <v>1.0</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="18">
         <f>IFERROR((VLOOKUP(C10,Sheet2!$A:$B,2,0))+IF(E10="y",1,0),0)</f>
@@ -1983,7 +1988,7 @@
         <v>2.0</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J10" s="18">
         <f>IFERROR((VLOOKUP(G10,Sheet2!$A:$B,2,0))+IF(I10="y",1,0),0)</f>
@@ -1996,7 +2001,7 @@
         <v>1.0</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N10" s="18">
         <f>IFERROR((VLOOKUP(K10,Sheet2!$A:$B,2,0))+IF(M10="y",1,0),0)</f>
@@ -2089,10 +2094,10 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="15">
         <v>14.0</v>
@@ -2220,10 +2225,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="15">
         <v>17.0</v>
@@ -2351,10 +2356,10 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="15">
         <v>18.0</v>
@@ -2482,10 +2487,10 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="22">
         <v>3.0</v>
@@ -2681,11 +2686,11 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="30"/>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -2819,7 +2824,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="31">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D11" s="31">
         <v>9.0</v>
@@ -2833,7 +2838,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="31">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D12" s="31">
         <v>10.0</v>
@@ -2990,7 +2995,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D23" s="31">
         <v>21.0</v>
@@ -2999,7 +3004,7 @@
         <v>0.0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -3010,7 +3015,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="31">
         <v>22.0</v>
@@ -3019,7 +3024,7 @@
         <v>0.0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -3342,7 +3347,7 @@
         <v>COTAPoints</v>
       </c>
       <c r="BK1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -3412,7 +3417,7 @@
       </c>
       <c r="Q2" s="32" t="str">
         <f>Sheet1!Q3</f>
-        <v/>
+        <v>Z</v>
       </c>
       <c r="R2" s="32">
         <f>Sheet1!R3</f>
@@ -3637,7 +3642,7 @@
       </c>
       <c r="J3" s="32">
         <f>Sheet1!J4</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="32">
         <f>Sheet1!K4</f>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
   <si>
     <t>Suzuka</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Z</t>
   </si>
   <si>
     <t>Travis</t>
@@ -421,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -454,7 +451,6 @@
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1090,16 +1086,14 @@
       </c>
       <c r="O3" s="12"/>
       <c r="P3" s="13"/>
-      <c r="Q3" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q3" s="10"/>
       <c r="R3" s="11">
         <f>IFERROR((VLOOKUP(O3,Sheet2!$A:$B,2,0))+IF(Q3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="13"/>
-      <c r="U3" s="14"/>
+      <c r="U3" s="10"/>
       <c r="V3" s="11">
         <f>IFERROR((VLOOKUP(S3,Sheet2!$A:$B,2,0))+IF(U3="y",1,0),0)</f>
         <v>0</v>
@@ -1113,56 +1107,56 @@
       </c>
       <c r="AA3" s="12"/>
       <c r="AB3" s="13"/>
-      <c r="AC3" s="14"/>
+      <c r="AC3" s="10"/>
       <c r="AD3" s="11">
         <f>IFERROR((VLOOKUP(AA3,Sheet2!$A:$B,2,0))+IF(AC3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AE3" s="12"/>
       <c r="AF3" s="13"/>
-      <c r="AG3" s="14"/>
+      <c r="AG3" s="10"/>
       <c r="AH3" s="11">
         <f>IFERROR((VLOOKUP(AE3,Sheet2!$A:$B,2,0))+IF(AG3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="13"/>
-      <c r="AK3" s="14"/>
+      <c r="AK3" s="10"/>
       <c r="AL3" s="11">
         <f>IFERROR((VLOOKUP(AI3,Sheet2!$A:$B,2,0))+IF(AK3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AM3" s="12"/>
       <c r="AN3" s="13"/>
-      <c r="AO3" s="14"/>
+      <c r="AO3" s="10"/>
       <c r="AP3" s="11">
         <f>IFERROR((VLOOKUP(AM3,Sheet2!$A:$B,2,0))+IF(AO3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AQ3" s="12"/>
       <c r="AR3" s="13"/>
-      <c r="AS3" s="14"/>
+      <c r="AS3" s="10"/>
       <c r="AT3" s="11">
         <f>IFERROR((VLOOKUP(AQ3,Sheet2!$A:$B,2,0))+IF(AS3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AU3" s="8"/>
       <c r="AV3" s="13"/>
-      <c r="AW3" s="14"/>
+      <c r="AW3" s="10"/>
       <c r="AX3" s="11">
         <f>IFERROR((VLOOKUP(AU3,Sheet2!$D:$E,2,0))+IF(AW3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AY3" s="8"/>
       <c r="AZ3" s="13"/>
-      <c r="BA3" s="14"/>
+      <c r="BA3" s="10"/>
       <c r="BB3" s="11">
         <f>IFERROR((VLOOKUP(AY3,Sheet2!$A:$B,2,0))+IF(BA3="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BC3" s="12"/>
       <c r="BD3" s="13"/>
-      <c r="BE3" s="14"/>
+      <c r="BE3" s="10"/>
       <c r="BF3" s="11">
         <f>IFERROR((VLOOKUP(BC3,Sheet2!$D:$E,2,0))+IF(BE3="y",1,0),0)</f>
         <v>0</v>
@@ -1180,1438 +1174,1438 @@
         <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="15">
+        <v>24</v>
+      </c>
+      <c r="C4" s="14">
         <v>16.0</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>10.0</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <f>IFERROR((VLOOKUP(C4,Sheet2!$A:$B,2,0))+IF(E4="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>9.0</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>10.0</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <f>IFERROR((VLOOKUP(G4,Sheet2!$A:$B,2,0))+IF(I4="y",1,0),0)</f>
         <v>3</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <v>12.0</v>
       </c>
-      <c r="L4" s="16">
-        <v>6.0</v>
-      </c>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="17">
         <f>IFERROR((VLOOKUP(K4,Sheet2!$A:$B,2,0))+IF(M4="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="18">
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="17">
         <f>IFERROR((VLOOKUP(O4,Sheet2!$A:$B,2,0))+IF(Q4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="18">
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="17">
         <f>IFERROR((VLOOKUP(S4,Sheet2!$A:$B,2,0))+IF(U4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="18">
+      <c r="W4" s="14"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="17">
         <f>IFERROR((VLOOKUP(W4,Sheet2!$D:$E,2,0))+IF(Y4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="18">
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="17">
         <f>IFERROR((VLOOKUP(AA4,Sheet2!$A:$B,2,0))+IF(AC4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="18">
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="17">
         <f>IFERROR((VLOOKUP(AE4,Sheet2!$A:$B,2,0))+IF(AG4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="18">
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="17">
         <f>IFERROR((VLOOKUP(AI4,Sheet2!$A:$B,2,0))+IF(AK4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="21"/>
-      <c r="AP4" s="18">
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="17">
         <f>IFERROR((VLOOKUP(AM4,Sheet2!$A:$B,2,0))+IF(AO4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="20"/>
-      <c r="AS4" s="21"/>
-      <c r="AT4" s="18">
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="17">
         <f>IFERROR((VLOOKUP(AQ4,Sheet2!$A:$B,2,0))+IF(AS4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AU4" s="19"/>
-      <c r="AV4" s="20"/>
-      <c r="AW4" s="21"/>
-      <c r="AX4" s="18">
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="17">
         <f>IFERROR((VLOOKUP(AU4,Sheet2!$D:$E,2,0))+IF(AW4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="20"/>
-      <c r="BA4" s="21"/>
-      <c r="BB4" s="18">
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="20"/>
+      <c r="BB4" s="17">
         <f>IFERROR((VLOOKUP(AY4,Sheet2!$A:$B,2,0))+IF(BA4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC4" s="19"/>
-      <c r="BD4" s="20"/>
-      <c r="BE4" s="21"/>
-      <c r="BF4" s="18">
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="19"/>
+      <c r="BE4" s="20"/>
+      <c r="BF4" s="17">
         <f>IFERROR((VLOOKUP(BC4,Sheet2!$D:$E,2,0))+IF(BE4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BG4" s="19"/>
-      <c r="BH4" s="20"/>
-      <c r="BI4" s="21"/>
-      <c r="BJ4" s="18">
+      <c r="BG4" s="18"/>
+      <c r="BH4" s="19"/>
+      <c r="BI4" s="20"/>
+      <c r="BJ4" s="17">
         <f>IFERROR((VLOOKUP(BG4,Sheet2!$A:$B,2,0))+IF(BI4="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>11.0</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>4.0</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <f>IFERROR((VLOOKUP(C5,Sheet2!$A:$B,2,0))+IF(E5="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>4.0</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>8.0</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <f>IFERROR((VLOOKUP(G5,Sheet2!$A:$B,2,0))+IF(I5="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>4.0</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <v>4.0</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="17">
         <f>IFERROR((VLOOKUP(K5,Sheet2!$A:$B,2,0))+IF(M5="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="18">
+      <c r="O5" s="18"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="17">
         <f>IFERROR((VLOOKUP(O5,Sheet2!$A:$B,2,0))+IF(Q5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="18">
+      <c r="S5" s="18"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="17">
         <f>IFERROR((VLOOKUP(S5,Sheet2!$A:$B,2,0))+IF(U5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="18">
+      <c r="W5" s="14"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="17">
         <f>IFERROR((VLOOKUP(W5,Sheet2!$D:$E,2,0))+IF(Y5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="18">
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="17">
         <f>IFERROR((VLOOKUP(AA5,Sheet2!$A:$B,2,0))+IF(AC5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="18">
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="17">
         <f>IFERROR((VLOOKUP(AE5,Sheet2!$A:$B,2,0))+IF(AG5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="18">
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="17">
         <f>IFERROR((VLOOKUP(AI5,Sheet2!$A:$B,2,0))+IF(AK5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="18">
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="17">
         <f>IFERROR((VLOOKUP(AM5,Sheet2!$A:$B,2,0))+IF(AO5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="18">
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="17">
         <f>IFERROR((VLOOKUP(AQ5,Sheet2!$A:$B,2,0))+IF(AS5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="20"/>
-      <c r="AW5" s="21"/>
-      <c r="AX5" s="18">
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="17">
         <f>IFERROR((VLOOKUP(AU5,Sheet2!$D:$E,2,0))+IF(AW5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="20"/>
-      <c r="BA5" s="21"/>
-      <c r="BB5" s="18">
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="19"/>
+      <c r="BA5" s="20"/>
+      <c r="BB5" s="17">
         <f>IFERROR((VLOOKUP(AY5,Sheet2!$A:$B,2,0))+IF(BA5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC5" s="19"/>
-      <c r="BD5" s="20"/>
-      <c r="BE5" s="21"/>
-      <c r="BF5" s="18">
+      <c r="BC5" s="18"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="20"/>
+      <c r="BF5" s="17">
         <f>IFERROR((VLOOKUP(BC5,Sheet2!$D:$E,2,0))+IF(BE5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BG5" s="19"/>
-      <c r="BH5" s="20"/>
-      <c r="BI5" s="21"/>
-      <c r="BJ5" s="18">
+      <c r="BG5" s="18"/>
+      <c r="BH5" s="19"/>
+      <c r="BI5" s="20"/>
+      <c r="BJ5" s="17">
         <f>IFERROR((VLOOKUP(BG5,Sheet2!$A:$B,2,0))+IF(BI5="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="15">
+        <v>27</v>
+      </c>
+      <c r="C6" s="14">
         <v>5.0</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>16.0</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <f>IFERROR((VLOOKUP(C6,Sheet2!$A:$B,2,0))+IF(E6="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>8.0</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>6.0</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="17">
         <f>IFERROR((VLOOKUP(G6,Sheet2!$A:$B,2,0))+IF(I6="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>5.0</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <v>8.0</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="17">
         <f>IFERROR((VLOOKUP(K6,Sheet2!$A:$B,2,0))+IF(M6="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="18">
+      <c r="O6" s="18"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="17">
         <f>IFERROR((VLOOKUP(O6,Sheet2!$A:$B,2,0))+IF(Q6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="19"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="18">
+      <c r="S6" s="18"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="17">
         <f>IFERROR((VLOOKUP(S6,Sheet2!$A:$B,2,0))+IF(U6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="15"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="18">
+      <c r="W6" s="14"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="17">
         <f>IFERROR((VLOOKUP(W6,Sheet2!$D:$E,2,0))+IF(Y6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="18">
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="17">
         <f>IFERROR((VLOOKUP(AA6,Sheet2!$A:$B,2,0))+IF(AC6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="18">
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="17">
         <f>IFERROR((VLOOKUP(AE6,Sheet2!$A:$B,2,0))+IF(AG6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="18">
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="17">
         <f>IFERROR((VLOOKUP(AI6,Sheet2!$A:$B,2,0))+IF(AK6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="20"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="18">
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="17">
         <f>IFERROR((VLOOKUP(AM6,Sheet2!$A:$B,2,0))+IF(AO6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="20"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="18">
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="17">
         <f>IFERROR((VLOOKUP(AQ6,Sheet2!$A:$B,2,0))+IF(AS6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AU6" s="19"/>
-      <c r="AV6" s="20"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="18">
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="17">
         <f>IFERROR((VLOOKUP(AU6,Sheet2!$D:$E,2,0))+IF(AW6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="20"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="18">
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="19"/>
+      <c r="BA6" s="20"/>
+      <c r="BB6" s="17">
         <f>IFERROR((VLOOKUP(AY6,Sheet2!$A:$B,2,0))+IF(BA6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="20"/>
-      <c r="BE6" s="21"/>
-      <c r="BF6" s="18">
+      <c r="BC6" s="18"/>
+      <c r="BD6" s="19"/>
+      <c r="BE6" s="20"/>
+      <c r="BF6" s="17">
         <f>IFERROR((VLOOKUP(BC6,Sheet2!$D:$E,2,0))+IF(BE6="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BG6" s="19"/>
-      <c r="BH6" s="20"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="18">
+      <c r="BG6" s="18"/>
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="20"/>
+      <c r="BJ6" s="17">
         <f>IFERROR((VLOOKUP(BG6,Sheet2!$A:$B,2,0))+IF(BI6="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>7.0</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>7.0</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <f>IFERROR((VLOOKUP(C7,Sheet2!$A:$B,2,0))+IF(E7="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>3.0</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>4.0</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <f>IFERROR((VLOOKUP(G7,Sheet2!$A:$B,2,0))+IF(I7="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <v>3.0</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <v>5.0</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="17">
         <f>IFERROR((VLOOKUP(K7,Sheet2!$A:$B,2,0))+IF(M7="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="18">
+      <c r="O7" s="18"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="17">
         <f>IFERROR((VLOOKUP(O7,Sheet2!$A:$B,2,0))+IF(Q7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="18">
+      <c r="S7" s="18"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="17">
         <f>IFERROR((VLOOKUP(S7,Sheet2!$A:$B,2,0))+IF(U7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="15"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="18">
+      <c r="W7" s="14"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="17">
         <f>IFERROR((VLOOKUP(W7,Sheet2!$D:$E,2,0))+IF(Y7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="18">
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="17">
         <f>IFERROR((VLOOKUP(AA7,Sheet2!$A:$B,2,0))+IF(AC7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="18">
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="17">
         <f>IFERROR((VLOOKUP(AE7,Sheet2!$A:$B,2,0))+IF(AG7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="18">
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="17">
         <f>IFERROR((VLOOKUP(AI7,Sheet2!$A:$B,2,0))+IF(AK7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="18">
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="20"/>
+      <c r="AP7" s="17">
         <f>IFERROR((VLOOKUP(AM7,Sheet2!$A:$B,2,0))+IF(AO7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="18">
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="17">
         <f>IFERROR((VLOOKUP(AQ7,Sheet2!$A:$B,2,0))+IF(AS7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AU7" s="19"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="18">
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="20"/>
+      <c r="AX7" s="17">
         <f>IFERROR((VLOOKUP(AU7,Sheet2!$D:$E,2,0))+IF(AW7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AY7" s="19"/>
-      <c r="AZ7" s="20"/>
-      <c r="BA7" s="21"/>
-      <c r="BB7" s="18">
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+      <c r="BA7" s="20"/>
+      <c r="BB7" s="17">
         <f>IFERROR((VLOOKUP(AY7,Sheet2!$A:$B,2,0))+IF(BA7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC7" s="19"/>
-      <c r="BD7" s="20"/>
-      <c r="BE7" s="21"/>
-      <c r="BF7" s="18">
+      <c r="BC7" s="18"/>
+      <c r="BD7" s="19"/>
+      <c r="BE7" s="20"/>
+      <c r="BF7" s="17">
         <f>IFERROR((VLOOKUP(BC7,Sheet2!$D:$E,2,0))+IF(BE7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BG7" s="19"/>
-      <c r="BH7" s="20"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="18">
+      <c r="BG7" s="18"/>
+      <c r="BH7" s="19"/>
+      <c r="BI7" s="20"/>
+      <c r="BJ7" s="17">
         <f>IFERROR((VLOOKUP(BG7,Sheet2!$A:$B,2,0))+IF(BI7="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="15">
+        <v>30</v>
+      </c>
+      <c r="C8" s="14">
         <v>4.0</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>3.0</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <f>IFERROR((VLOOKUP(C8,Sheet2!$A:$B,2,0))+IF(E8="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>5.0</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>3.0</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <f>IFERROR((VLOOKUP(G8,Sheet2!$A:$B,2,0))+IF(I8="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <v>15.0</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <v>6.0</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="17">
         <f>IFERROR((VLOOKUP(K8,Sheet2!$A:$B,2,0))+IF(M8="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="18">
+      <c r="O8" s="18"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="17">
         <f>IFERROR((VLOOKUP(O8,Sheet2!$A:$B,2,0))+IF(Q8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="19"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="18">
+      <c r="S8" s="18"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="17">
         <f>IFERROR((VLOOKUP(S8,Sheet2!$A:$B,2,0))+IF(U8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W8" s="15"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="18">
+      <c r="W8" s="14"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="17">
         <f>IFERROR((VLOOKUP(W8,Sheet2!$D:$E,2,0))+IF(Y8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="18">
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="17">
         <f>IFERROR((VLOOKUP(AA8,Sheet2!$A:$B,2,0))+IF(AC8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="18">
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="17">
         <f>IFERROR((VLOOKUP(AE8,Sheet2!$A:$B,2,0))+IF(AG8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="18">
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="17">
         <f>IFERROR((VLOOKUP(AI8,Sheet2!$A:$B,2,0))+IF(AK8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="18">
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="17">
         <f>IFERROR((VLOOKUP(AM8,Sheet2!$A:$B,2,0))+IF(AO8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="18">
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="17">
         <f>IFERROR((VLOOKUP(AQ8,Sheet2!$A:$B,2,0))+IF(AS8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AU8" s="19"/>
-      <c r="AV8" s="20"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="18">
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="20"/>
+      <c r="AX8" s="17">
         <f>IFERROR((VLOOKUP(AU8,Sheet2!$D:$E,2,0))+IF(AW8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AY8" s="19"/>
-      <c r="AZ8" s="20"/>
-      <c r="BA8" s="21"/>
-      <c r="BB8" s="18">
+      <c r="AY8" s="18"/>
+      <c r="AZ8" s="19"/>
+      <c r="BA8" s="20"/>
+      <c r="BB8" s="17">
         <f>IFERROR((VLOOKUP(AY8,Sheet2!$A:$B,2,0))+IF(BA8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC8" s="19"/>
-      <c r="BD8" s="20"/>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="18">
+      <c r="BC8" s="18"/>
+      <c r="BD8" s="19"/>
+      <c r="BE8" s="20"/>
+      <c r="BF8" s="17">
         <f>IFERROR((VLOOKUP(BC8,Sheet2!$D:$E,2,0))+IF(BE8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BG8" s="19"/>
-      <c r="BH8" s="20"/>
-      <c r="BI8" s="21"/>
-      <c r="BJ8" s="18">
+      <c r="BG8" s="18"/>
+      <c r="BH8" s="19"/>
+      <c r="BI8" s="20"/>
+      <c r="BJ8" s="17">
         <f>IFERROR((VLOOKUP(BG8,Sheet2!$A:$B,2,0))+IF(BI8="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>8.0</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>13.0</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <f>IFERROR((VLOOKUP(C9,Sheet2!$A:$B,2,0))+IF(E9="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>7.0</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>9.0</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="17">
         <f>IFERROR((VLOOKUP(G9,Sheet2!$A:$B,2,0))+IF(I9="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <v>13.0</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <v>15.0</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="17">
         <f>IFERROR((VLOOKUP(K9,Sheet2!$A:$B,2,0))+IF(M9="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="18">
+      <c r="O9" s="18"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="17">
         <f>IFERROR((VLOOKUP(O9,Sheet2!$A:$B,2,0))+IF(Q9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="18">
+      <c r="S9" s="18"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="17">
         <f>IFERROR((VLOOKUP(S9,Sheet2!$A:$B,2,0))+IF(U9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="18">
+      <c r="W9" s="14"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="17">
         <f>IFERROR((VLOOKUP(W9,Sheet2!$D:$E,2,0))+IF(Y9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="18">
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="17">
         <f>IFERROR((VLOOKUP(AA9,Sheet2!$A:$B,2,0))+IF(AC9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="18">
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="17">
         <f>IFERROR((VLOOKUP(AE9,Sheet2!$A:$B,2,0))+IF(AG9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="18">
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="17">
         <f>IFERROR((VLOOKUP(AI9,Sheet2!$A:$B,2,0))+IF(AK9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="18">
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="17">
         <f>IFERROR((VLOOKUP(AM9,Sheet2!$A:$B,2,0))+IF(AO9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="18">
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="17">
         <f>IFERROR((VLOOKUP(AQ9,Sheet2!$A:$B,2,0))+IF(AS9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="18">
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="20"/>
+      <c r="AX9" s="17">
         <f>IFERROR((VLOOKUP(AU9,Sheet2!$D:$E,2,0))+IF(AW9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="18">
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="20"/>
+      <c r="BB9" s="17">
         <f>IFERROR((VLOOKUP(AY9,Sheet2!$A:$B,2,0))+IF(BA9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="18">
+      <c r="BC9" s="18"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="20"/>
+      <c r="BF9" s="17">
         <f>IFERROR((VLOOKUP(BC9,Sheet2!$D:$E,2,0))+IF(BE9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="20"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="18">
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="17">
         <f>IFERROR((VLOOKUP(BG9,Sheet2!$A:$B,2,0))+IF(BI9="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <f>IFERROR((VLOOKUP(C10,Sheet2!$A:$B,2,0))+IF(E10="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <v>1.0</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>2.0</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="18">
+      <c r="I10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="17">
         <f>IFERROR((VLOOKUP(G10,Sheet2!$A:$B,2,0))+IF(I10="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="14">
         <v>2.0</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>1.0</v>
       </c>
-      <c r="M10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="18">
+      <c r="M10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="17">
         <f>IFERROR((VLOOKUP(K10,Sheet2!$A:$B,2,0))+IF(M10="y",1,0),0)</f>
         <v>19</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="18">
+      <c r="O10" s="18"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="17">
         <f>IFERROR((VLOOKUP(O10,Sheet2!$A:$B,2,0))+IF(Q10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="19"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="18">
+      <c r="S10" s="18"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="17">
         <f>IFERROR((VLOOKUP(S10,Sheet2!$A:$B,2,0))+IF(U10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="15"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="18">
+      <c r="W10" s="14"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="17">
         <f>IFERROR((VLOOKUP(W10,Sheet2!$D:$E,2,0))+IF(Y10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="18">
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="17">
         <f>IFERROR((VLOOKUP(AA10,Sheet2!$A:$B,2,0))+IF(AC10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="18">
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="17">
         <f>IFERROR((VLOOKUP(AE10,Sheet2!$A:$B,2,0))+IF(AG10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="18">
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="17">
         <f>IFERROR((VLOOKUP(AI10,Sheet2!$A:$B,2,0))+IF(AK10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="21"/>
-      <c r="AP10" s="18">
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="17">
         <f>IFERROR((VLOOKUP(AM10,Sheet2!$A:$B,2,0))+IF(AO10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ10" s="19"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="21"/>
-      <c r="AT10" s="18">
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="17">
         <f>IFERROR((VLOOKUP(AQ10,Sheet2!$A:$B,2,0))+IF(AS10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AU10" s="19"/>
-      <c r="AV10" s="20"/>
-      <c r="AW10" s="21"/>
-      <c r="AX10" s="18">
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="20"/>
+      <c r="AX10" s="17">
         <f>IFERROR((VLOOKUP(AU10,Sheet2!$D:$E,2,0))+IF(AW10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="20"/>
-      <c r="BA10" s="21"/>
-      <c r="BB10" s="18">
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="19"/>
+      <c r="BA10" s="20"/>
+      <c r="BB10" s="17">
         <f>IFERROR((VLOOKUP(AY10,Sheet2!$A:$B,2,0))+IF(BA10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC10" s="19"/>
-      <c r="BD10" s="20"/>
-      <c r="BE10" s="21"/>
-      <c r="BF10" s="18">
+      <c r="BC10" s="18"/>
+      <c r="BD10" s="19"/>
+      <c r="BE10" s="20"/>
+      <c r="BF10" s="17">
         <f>IFERROR((VLOOKUP(BC10,Sheet2!$D:$E,2,0))+IF(BE10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BG10" s="19"/>
-      <c r="BH10" s="20"/>
-      <c r="BI10" s="21"/>
-      <c r="BJ10" s="18">
+      <c r="BG10" s="18"/>
+      <c r="BH10" s="19"/>
+      <c r="BI10" s="20"/>
+      <c r="BJ10" s="17">
         <f>IFERROR((VLOOKUP(BG10,Sheet2!$A:$B,2,0))+IF(BI10="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>14.0</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>19.0</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <f>IFERROR((VLOOKUP(C11,Sheet2!$A:$B,2,0))+IF(E11="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <v>6.0</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>5.0</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="17">
         <f>IFERROR((VLOOKUP(G11,Sheet2!$A:$B,2,0))+IF(I11="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <v>21.0</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>20.0</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="17">
         <f>IFERROR((VLOOKUP(K11,Sheet2!$A:$B,2,0))+IF(M11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="18">
+      <c r="O11" s="18"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="17">
         <f>IFERROR((VLOOKUP(O11,Sheet2!$A:$B,2,0))+IF(Q11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="S11" s="19"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="18">
+      <c r="S11" s="18"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="17">
         <f>IFERROR((VLOOKUP(S11,Sheet2!$A:$B,2,0))+IF(U11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W11" s="15"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="18">
+      <c r="W11" s="14"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="17">
         <f>IFERROR((VLOOKUP(W11,Sheet2!$D:$E,2,0))+IF(Y11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="18">
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="17">
         <f>IFERROR((VLOOKUP(AA11,Sheet2!$A:$B,2,0))+IF(AC11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="18">
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="17">
         <f>IFERROR((VLOOKUP(AE11,Sheet2!$A:$B,2,0))+IF(AG11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="18">
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="17">
         <f>IFERROR((VLOOKUP(AI11,Sheet2!$A:$B,2,0))+IF(AK11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="18">
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="17">
         <f>IFERROR((VLOOKUP(AM11,Sheet2!$A:$B,2,0))+IF(AO11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ11" s="19"/>
-      <c r="AR11" s="20"/>
-      <c r="AS11" s="21"/>
-      <c r="AT11" s="18">
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="17">
         <f>IFERROR((VLOOKUP(AQ11,Sheet2!$A:$B,2,0))+IF(AS11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AU11" s="19"/>
-      <c r="AV11" s="20"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="18">
+      <c r="AU11" s="18"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="20"/>
+      <c r="AX11" s="17">
         <f>IFERROR((VLOOKUP(AU11,Sheet2!$D:$E,2,0))+IF(AW11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="19"/>
-      <c r="AZ11" s="20"/>
-      <c r="BA11" s="21"/>
-      <c r="BB11" s="18">
+      <c r="AY11" s="18"/>
+      <c r="AZ11" s="19"/>
+      <c r="BA11" s="20"/>
+      <c r="BB11" s="17">
         <f>IFERROR((VLOOKUP(AY11,Sheet2!$A:$B,2,0))+IF(BA11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC11" s="19"/>
-      <c r="BD11" s="20"/>
-      <c r="BE11" s="21"/>
-      <c r="BF11" s="18">
+      <c r="BC11" s="18"/>
+      <c r="BD11" s="19"/>
+      <c r="BE11" s="20"/>
+      <c r="BF11" s="17">
         <f>IFERROR((VLOOKUP(BC11,Sheet2!$D:$E,2,0))+IF(BE11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BG11" s="19"/>
-      <c r="BH11" s="20"/>
-      <c r="BI11" s="21"/>
-      <c r="BJ11" s="18">
+      <c r="BG11" s="18"/>
+      <c r="BH11" s="19"/>
+      <c r="BI11" s="20"/>
+      <c r="BJ11" s="17">
         <f>IFERROR((VLOOKUP(BG11,Sheet2!$A:$B,2,0))+IF(BI11="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="15">
+        <v>37</v>
+      </c>
+      <c r="C12" s="14">
         <v>17.0</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>8.0</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <f>IFERROR((VLOOKUP(C12,Sheet2!$A:$B,2,0))+IF(E12="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <v>11.0</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>7.0</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="17">
         <f>IFERROR((VLOOKUP(G12,Sheet2!$A:$B,2,0))+IF(I12="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="14">
         <v>21.0</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <v>19.0</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="17">
         <f>IFERROR((VLOOKUP(K12,Sheet2!$A:$B,2,0))+IF(M12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="19"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="18">
+      <c r="O12" s="18"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="17">
         <f>IFERROR((VLOOKUP(O12,Sheet2!$A:$B,2,0))+IF(Q12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="19"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="18">
+      <c r="S12" s="18"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="17">
         <f>IFERROR((VLOOKUP(S12,Sheet2!$A:$B,2,0))+IF(U12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W12" s="15"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="18">
+      <c r="W12" s="14"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="17">
         <f>IFERROR((VLOOKUP(W12,Sheet2!$D:$E,2,0))+IF(Y12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="18">
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="17">
         <f>IFERROR((VLOOKUP(AA12,Sheet2!$A:$B,2,0))+IF(AC12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="18">
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="17">
         <f>IFERROR((VLOOKUP(AE12,Sheet2!$A:$B,2,0))+IF(AG12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="18">
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="17">
         <f>IFERROR((VLOOKUP(AI12,Sheet2!$A:$B,2,0))+IF(AK12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="18">
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="17">
         <f>IFERROR((VLOOKUP(AM12,Sheet2!$A:$B,2,0))+IF(AO12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="21"/>
-      <c r="AT12" s="18">
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="17">
         <f>IFERROR((VLOOKUP(AQ12,Sheet2!$A:$B,2,0))+IF(AS12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AU12" s="19"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="21"/>
-      <c r="AX12" s="18">
+      <c r="AU12" s="18"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="17">
         <f>IFERROR((VLOOKUP(AU12,Sheet2!$D:$E,2,0))+IF(AW12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="20"/>
-      <c r="BA12" s="21"/>
-      <c r="BB12" s="18">
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="20"/>
+      <c r="BB12" s="17">
         <f>IFERROR((VLOOKUP(AY12,Sheet2!$A:$B,2,0))+IF(BA12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="20"/>
-      <c r="BE12" s="21"/>
-      <c r="BF12" s="18">
+      <c r="BC12" s="18"/>
+      <c r="BD12" s="19"/>
+      <c r="BE12" s="20"/>
+      <c r="BF12" s="17">
         <f>IFERROR((VLOOKUP(BC12,Sheet2!$D:$E,2,0))+IF(BE12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BG12" s="19"/>
-      <c r="BH12" s="20"/>
-      <c r="BI12" s="21"/>
-      <c r="BJ12" s="18">
+      <c r="BG12" s="18"/>
+      <c r="BH12" s="19"/>
+      <c r="BI12" s="20"/>
+      <c r="BJ12" s="17">
         <f>IFERROR((VLOOKUP(BG12,Sheet2!$A:$B,2,0))+IF(BI12="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>18.0</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>20.0</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <f>IFERROR((VLOOKUP(C13,Sheet2!$A:$B,2,0))+IF(E13="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>19.0</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <v>19.0</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="17">
         <f>IFERROR((VLOOKUP(G13,Sheet2!$A:$B,2,0))+IF(I13="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="14">
         <v>22.0</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <v>22.0</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="17">
         <f>IFERROR((VLOOKUP(K13,Sheet2!$A:$B,2,0))+IF(M13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="19"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="18">
+      <c r="O13" s="18"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="17">
         <f>IFERROR((VLOOKUP(O13,Sheet2!$A:$B,2,0))+IF(Q13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="19"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="18">
+      <c r="S13" s="18"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="17">
         <f>IFERROR((VLOOKUP(S13,Sheet2!$A:$B,2,0))+IF(U13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="15"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="18">
+      <c r="W13" s="14"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="17">
         <f>IFERROR((VLOOKUP(W13,Sheet2!$D:$E,2,0))+IF(Y13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="18">
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="17">
         <f>IFERROR((VLOOKUP(AA13,Sheet2!$A:$B,2,0))+IF(AC13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="18">
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="17">
         <f>IFERROR((VLOOKUP(AE13,Sheet2!$A:$B,2,0))+IF(AG13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="18">
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="17">
         <f>IFERROR((VLOOKUP(AI13,Sheet2!$A:$B,2,0))+IF(AK13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="21"/>
-      <c r="AP13" s="18">
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="17">
         <f>IFERROR((VLOOKUP(AM13,Sheet2!$A:$B,2,0))+IF(AO13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ13" s="19"/>
-      <c r="AR13" s="20"/>
-      <c r="AS13" s="21"/>
-      <c r="AT13" s="18">
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="17">
         <f>IFERROR((VLOOKUP(AQ13,Sheet2!$A:$B,2,0))+IF(AS13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AU13" s="19"/>
-      <c r="AV13" s="20"/>
-      <c r="AW13" s="21"/>
-      <c r="AX13" s="18">
+      <c r="AU13" s="18"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="17">
         <f>IFERROR((VLOOKUP(AU13,Sheet2!$D:$E,2,0))+IF(AW13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AY13" s="19"/>
-      <c r="AZ13" s="20"/>
-      <c r="BA13" s="21"/>
-      <c r="BB13" s="18">
+      <c r="AY13" s="18"/>
+      <c r="AZ13" s="19"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="17">
         <f>IFERROR((VLOOKUP(AY13,Sheet2!$A:$B,2,0))+IF(BA13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC13" s="19"/>
-      <c r="BD13" s="20"/>
-      <c r="BE13" s="21"/>
-      <c r="BF13" s="18">
+      <c r="BC13" s="18"/>
+      <c r="BD13" s="19"/>
+      <c r="BE13" s="20"/>
+      <c r="BF13" s="17">
         <f>IFERROR((VLOOKUP(BC13,Sheet2!$D:$E,2,0))+IF(BE13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BG13" s="19"/>
-      <c r="BH13" s="20"/>
-      <c r="BI13" s="21"/>
-      <c r="BJ13" s="18">
+      <c r="BG13" s="18"/>
+      <c r="BH13" s="19"/>
+      <c r="BI13" s="20"/>
+      <c r="BJ13" s="17">
         <f>IFERROR((VLOOKUP(BG13,Sheet2!$A:$B,2,0))+IF(BI13="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="22">
+        <v>40</v>
+      </c>
+      <c r="C14" s="21">
         <v>3.0</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>18.0</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <f>IFERROR((VLOOKUP(C14,Sheet2!$A:$B,2,0))+IF(E14="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <v>22.0</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>22.0</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="24">
         <f>IFERROR((VLOOKUP(G14,Sheet2!$A:$B,2,0))+IF(I14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="21">
         <v>11.0</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="22">
         <v>3.0</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="24">
         <f>IFERROR((VLOOKUP(K14,Sheet2!$A:$B,2,0))+IF(M14="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="25">
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="24">
         <f>IFERROR((VLOOKUP(O14,Sheet2!$A:$B,2,0))+IF(Q14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="26"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="25">
+      <c r="S14" s="25"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="24">
         <f>IFERROR((VLOOKUP(S14,Sheet2!$A:$B,2,0))+IF(U14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="22"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="25">
+      <c r="W14" s="21"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="24">
         <f>IFERROR((VLOOKUP(W14,Sheet2!$D:$E,2,0))+IF(Y14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="25">
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="24">
         <f>IFERROR((VLOOKUP(AA14,Sheet2!$A:$B,2,0))+IF(AC14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="25">
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="24">
         <f>IFERROR((VLOOKUP(AE14,Sheet2!$A:$B,2,0))+IF(AG14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="25">
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="24">
         <f>IFERROR((VLOOKUP(AI14,Sheet2!$A:$B,2,0))+IF(AK14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="26"/>
-      <c r="AN14" s="27"/>
-      <c r="AO14" s="28"/>
-      <c r="AP14" s="25">
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="24">
         <f>IFERROR((VLOOKUP(AM14,Sheet2!$A:$B,2,0))+IF(AO14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ14" s="26"/>
-      <c r="AR14" s="27"/>
-      <c r="AS14" s="28"/>
-      <c r="AT14" s="25">
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="26"/>
+      <c r="AS14" s="27"/>
+      <c r="AT14" s="24">
         <f>IFERROR((VLOOKUP(AQ14,Sheet2!$A:$B,2,0))+IF(AS14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AU14" s="26"/>
-      <c r="AV14" s="27"/>
-      <c r="AW14" s="28"/>
-      <c r="AX14" s="25">
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="26"/>
+      <c r="AW14" s="27"/>
+      <c r="AX14" s="24">
         <f>IFERROR((VLOOKUP(AU14,Sheet2!$D:$E,2,0))+IF(AW14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="26"/>
-      <c r="AZ14" s="27"/>
-      <c r="BA14" s="28"/>
-      <c r="BB14" s="25">
+      <c r="AY14" s="25"/>
+      <c r="AZ14" s="26"/>
+      <c r="BA14" s="27"/>
+      <c r="BB14" s="24">
         <f>IFERROR((VLOOKUP(AY14,Sheet2!$A:$B,2,0))+IF(BA14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC14" s="26"/>
-      <c r="BD14" s="27"/>
-      <c r="BE14" s="28"/>
-      <c r="BF14" s="25">
+      <c r="BC14" s="25"/>
+      <c r="BD14" s="26"/>
+      <c r="BE14" s="27"/>
+      <c r="BF14" s="24">
         <f>IFERROR((VLOOKUP(BC14,Sheet2!$D:$E,2,0))+IF(BE14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BG14" s="26"/>
-      <c r="BH14" s="27"/>
-      <c r="BI14" s="28"/>
-      <c r="BJ14" s="25">
+      <c r="BG14" s="25"/>
+      <c r="BH14" s="26"/>
+      <c r="BI14" s="27"/>
+      <c r="BJ14" s="24">
         <f>IFERROR((VLOOKUP(BG14,Sheet2!$A:$B,2,0))+IF(BI14="y",1,0),0)</f>
         <v>0</v>
       </c>
@@ -2685,393 +2679,393 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="30">
+        <v>25.0</v>
+      </c>
+      <c r="D3" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="30">
+        <v>18.0</v>
+      </c>
+      <c r="D4" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="30">
+        <v>15.0</v>
+      </c>
+      <c r="D5" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="30">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="30">
+        <v>12.0</v>
+      </c>
+      <c r="D6" s="30">
+        <v>4.0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="30">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="D7" s="30">
+        <v>5.0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="30">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="30">
+        <v>8.0</v>
+      </c>
+      <c r="D8" s="30">
+        <v>6.0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="30">
+        <v>6.0</v>
+      </c>
+      <c r="D9" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="30">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="30">
+        <v>4.0</v>
+      </c>
+      <c r="D10" s="30">
+        <v>8.0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="30">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="D11" s="30">
+        <v>9.0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="30">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="30">
+        <v>11.0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="30">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="30">
+        <v>12.0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="30">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="30">
+        <v>13.0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="30">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="D16" s="30">
+        <v>14.0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="30">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="D17" s="30">
+        <v>15.0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="30">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="30">
+        <v>16.0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="30">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="D19" s="30">
+        <v>17.0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="30">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="30">
+        <v>18.0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="30">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="30">
+        <v>19.0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="30">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="D22" s="30">
+        <v>20.0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="30">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="31">
-        <v>25.0</v>
-      </c>
-      <c r="D3" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="17">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="31">
-        <v>18.0</v>
-      </c>
-      <c r="D4" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="31">
-        <v>15.0</v>
-      </c>
-      <c r="D5" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="E5" s="17">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="31">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="31">
-        <v>12.0</v>
-      </c>
-      <c r="D6" s="31">
-        <v>4.0</v>
-      </c>
-      <c r="E6" s="17">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="31">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="31">
-        <v>10.0</v>
-      </c>
-      <c r="D7" s="31">
-        <v>5.0</v>
-      </c>
-      <c r="E7" s="17">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="31">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="31">
-        <v>8.0</v>
-      </c>
-      <c r="D8" s="31">
-        <v>6.0</v>
-      </c>
-      <c r="E8" s="17">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="31">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="31">
-        <v>6.0</v>
-      </c>
-      <c r="D9" s="31">
-        <v>7.0</v>
-      </c>
-      <c r="E9" s="17">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="31">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="31">
-        <v>4.0</v>
-      </c>
-      <c r="D10" s="31">
-        <v>8.0</v>
-      </c>
-      <c r="E10" s="17">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="31">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="D11" s="31">
-        <v>9.0</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="31">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="31">
-        <v>10.0</v>
-      </c>
-      <c r="E12" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="31">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="31">
-        <v>11.0</v>
-      </c>
-      <c r="E13" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="31">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="31">
-        <v>12.0</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="31">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="31">
-        <v>13.0</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="31">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="31">
-        <v>14.0</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="31">
-        <v>15.0</v>
-      </c>
-      <c r="B17" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="31">
-        <v>15.0</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="31">
-        <v>16.0</v>
-      </c>
-      <c r="B18" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="31">
-        <v>16.0</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="31">
-        <v>17.0</v>
-      </c>
-      <c r="B19" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="31">
-        <v>17.0</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="31">
-        <v>18.0</v>
-      </c>
-      <c r="B20" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="31">
-        <v>18.0</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="31">
-        <v>19.0</v>
-      </c>
-      <c r="B21" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="31">
-        <v>19.0</v>
-      </c>
-      <c r="E21" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="31">
-        <v>20.0</v>
-      </c>
-      <c r="B22" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="31">
-        <v>20.0</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="31">
+      <c r="D23" s="30">
         <v>21.0</v>
       </c>
-      <c r="B23" s="31">
+      <c r="E23" s="16">
         <v>0.0</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="F23" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="31">
-        <v>21.0</v>
-      </c>
-      <c r="E23" s="17">
+      <c r="D24" s="30">
+        <v>22.0</v>
+      </c>
+      <c r="E24" s="16">
         <v>0.0</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="31">
-        <v>22.0</v>
-      </c>
-      <c r="B24" s="31">
+    <row r="25">
+      <c r="A25" s="30">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="30">
         <v>0.0</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="31">
-        <v>22.0</v>
-      </c>
-      <c r="E24" s="17">
+      <c r="D25" s="30">
+        <v>23.0</v>
+      </c>
+      <c r="E25" s="16">
         <v>0.0</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="31">
-        <v>23.0</v>
-      </c>
-      <c r="B25" s="31">
+    </row>
+    <row r="26">
+      <c r="A26" s="30">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="30">
         <v>0.0</v>
       </c>
-      <c r="D25" s="31">
-        <v>23.0</v>
-      </c>
-      <c r="E25" s="17">
+      <c r="D26" s="30">
+        <v>24.0</v>
+      </c>
+      <c r="E26" s="16">
         <v>0.0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="31">
-        <v>24.0</v>
-      </c>
-      <c r="B26" s="31">
+    <row r="27">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30">
         <v>0.0</v>
       </c>
-      <c r="D26" s="31">
-        <v>24.0</v>
-      </c>
-      <c r="E26" s="17">
+      <c r="D27" s="30"/>
+      <c r="E27" s="16">
         <v>0.0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31">
+    <row r="28">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30">
         <v>0.0</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="17">
+      <c r="D28" s="30"/>
+      <c r="E28" s="16">
         <v>0.0</v>
       </c>
     </row>
@@ -3098,504 +3092,504 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="str">
+      <c r="A1" s="31" t="str">
         <f>Sheet1!A2</f>
         <v>Team</v>
       </c>
-      <c r="B1" s="32" t="str">
+      <c r="B1" s="31" t="str">
         <f>Sheet1!B2</f>
         <v>Driver</v>
       </c>
-      <c r="C1" s="32" t="str">
+      <c r="C1" s="31" t="str">
         <f>CONCAT(Sheet1!$C$1,Sheet1!C2)</f>
         <v>SuzukaPlace</v>
       </c>
-      <c r="D1" s="32" t="str">
+      <c r="D1" s="31" t="str">
         <f>CONCAT(Sheet1!$C$1,Sheet1!D2)</f>
         <v>SuzukaQualifying</v>
       </c>
-      <c r="E1" s="32" t="str">
+      <c r="E1" s="31" t="str">
         <f>CONCAT(Sheet1!$C$1,Sheet1!E2)</f>
         <v>SuzukaFastestLap</v>
       </c>
-      <c r="F1" s="32" t="str">
+      <c r="F1" s="31" t="str">
         <f>CONCAT(Sheet1!$C$1,Sheet1!F2)</f>
         <v>SuzukaPoints</v>
       </c>
-      <c r="G1" s="32" t="str">
+      <c r="G1" s="31" t="str">
         <f>CONCAT(Sheet1!$G$1,Sheet1!G2)</f>
         <v>SilverstonePlace</v>
       </c>
-      <c r="H1" s="32" t="str">
+      <c r="H1" s="31" t="str">
         <f>CONCAT(Sheet1!$G$1,Sheet1!H2)</f>
         <v>SilverstoneQualifying</v>
       </c>
-      <c r="I1" s="32" t="str">
+      <c r="I1" s="31" t="str">
         <f>CONCAT(Sheet1!$G$1,Sheet1!I2)</f>
         <v>SilverstoneFastestLap</v>
       </c>
-      <c r="J1" s="32" t="str">
+      <c r="J1" s="31" t="str">
         <f>CONCAT(Sheet1!$G$1,Sheet1!J2)</f>
         <v>SilverstonePoints</v>
       </c>
-      <c r="K1" s="32" t="str">
+      <c r="K1" s="31" t="str">
         <f>CONCAT(Sheet1!$K$1,Sheet1!K2)</f>
         <v>AustraliaPlace</v>
       </c>
-      <c r="L1" s="32" t="str">
+      <c r="L1" s="31" t="str">
         <f>CONCAT(Sheet1!$K$1,Sheet1!L2)</f>
         <v>AustraliaQualifying</v>
       </c>
-      <c r="M1" s="32" t="str">
+      <c r="M1" s="31" t="str">
         <f>CONCAT(Sheet1!$K$1,Sheet1!M2)</f>
         <v>AustraliaFastestLap</v>
       </c>
-      <c r="N1" s="32" t="str">
+      <c r="N1" s="31" t="str">
         <f>CONCAT(Sheet1!$K$1,Sheet1!N2)</f>
         <v>AustraliaPoints</v>
       </c>
-      <c r="O1" s="32" t="str">
+      <c r="O1" s="31" t="str">
         <f>CONCAT(Sheet1!$O$1,Sheet1!O2)</f>
         <v>SpaPlace</v>
       </c>
-      <c r="P1" s="32" t="str">
+      <c r="P1" s="31" t="str">
         <f>CONCAT(Sheet1!$O$1,Sheet1!P2)</f>
         <v>SpaQualifying</v>
       </c>
-      <c r="Q1" s="32" t="str">
+      <c r="Q1" s="31" t="str">
         <f>CONCAT(Sheet1!$O$1,Sheet1!Q2)</f>
         <v>SpaFastestLap</v>
       </c>
-      <c r="R1" s="32" t="str">
+      <c r="R1" s="31" t="str">
         <f>CONCAT(Sheet1!$O$1,Sheet1!R2)</f>
         <v>SpaPoints</v>
       </c>
-      <c r="S1" s="32" t="str">
+      <c r="S1" s="31" t="str">
         <f>CONCAT(Sheet1!$S$1,Sheet1!S2)</f>
         <v>SpainPlace</v>
       </c>
-      <c r="T1" s="32" t="str">
+      <c r="T1" s="31" t="str">
         <f>CONCAT(Sheet1!$S$1,Sheet1!T2)</f>
         <v>SpainQualifying</v>
       </c>
-      <c r="U1" s="32" t="str">
+      <c r="U1" s="31" t="str">
         <f>CONCAT(Sheet1!$S$1,Sheet1!U2)</f>
         <v>SpainFastestLap</v>
       </c>
-      <c r="V1" s="32" t="str">
+      <c r="V1" s="31" t="str">
         <f>CONCAT(Sheet1!$S$1,Sheet1!V2)</f>
         <v>SpainPoints</v>
       </c>
-      <c r="W1" s="32" t="str">
+      <c r="W1" s="31" t="str">
         <f>CONCAT(Sheet1!$W$1,Sheet1!W2)</f>
         <v>ChinaSprintPlace</v>
       </c>
-      <c r="X1" s="32" t="str">
+      <c r="X1" s="31" t="str">
         <f>CONCAT(Sheet1!$W$1,Sheet1!X2)</f>
         <v>ChinaSprintQualifying</v>
       </c>
-      <c r="Y1" s="32" t="str">
+      <c r="Y1" s="31" t="str">
         <f>CONCAT(Sheet1!$W$1,Sheet1!Y2)</f>
         <v>ChinaSprintFastestLap</v>
       </c>
-      <c r="Z1" s="32" t="str">
+      <c r="Z1" s="31" t="str">
         <f>CONCAT(Sheet1!$W$1,Sheet1!Z2)</f>
         <v>ChinaSprintPoints</v>
       </c>
-      <c r="AA1" s="32" t="str">
+      <c r="AA1" s="31" t="str">
         <f>CONCAT(Sheet1!$AA$1,Sheet1!AA2)</f>
         <v>ChinaPlace</v>
       </c>
-      <c r="AB1" s="32" t="str">
+      <c r="AB1" s="31" t="str">
         <f>CONCAT(Sheet1!$AA$1,Sheet1!AB2)</f>
         <v>ChinaQualifying</v>
       </c>
-      <c r="AC1" s="32" t="str">
+      <c r="AC1" s="31" t="str">
         <f>CONCAT(Sheet1!$AA$1,Sheet1!AC2)</f>
         <v>ChinaFastestLap</v>
       </c>
-      <c r="AD1" s="32" t="str">
+      <c r="AD1" s="31" t="str">
         <f>CONCAT(Sheet1!$AA$1,Sheet1!AD2)</f>
         <v>ChinaPoints</v>
       </c>
-      <c r="AE1" s="32" t="str">
+      <c r="AE1" s="31" t="str">
         <f>CONCAT(Sheet1!$AE$1,Sheet1!AE2)</f>
         <v>BakuPlace</v>
       </c>
-      <c r="AF1" s="32" t="str">
+      <c r="AF1" s="31" t="str">
         <f>CONCAT(Sheet1!$AE$1,Sheet1!AF2)</f>
         <v>BakuQualifying</v>
       </c>
-      <c r="AG1" s="32" t="str">
+      <c r="AG1" s="31" t="str">
         <f>CONCAT(Sheet1!$AE$1,Sheet1!AG2)</f>
         <v>BakuFastestLap</v>
       </c>
-      <c r="AH1" s="32" t="str">
+      <c r="AH1" s="31" t="str">
         <f>CONCAT(Sheet1!$AE$1,Sheet1!AH2)</f>
         <v>BakuPoints</v>
       </c>
-      <c r="AI1" s="32" t="str">
+      <c r="AI1" s="31" t="str">
         <f>CONCAT(Sheet1!$AI$1,Sheet1!AI2)</f>
         <v>CanadaPlace</v>
       </c>
-      <c r="AJ1" s="32" t="str">
+      <c r="AJ1" s="31" t="str">
         <f>CONCAT(Sheet1!$AI$1,Sheet1!AJ2)</f>
         <v>CanadaQualifying</v>
       </c>
-      <c r="AK1" s="32" t="str">
+      <c r="AK1" s="31" t="str">
         <f>CONCAT(Sheet1!$AI$1,Sheet1!AK2)</f>
         <v>CanadaFastestLap</v>
       </c>
-      <c r="AL1" s="32" t="str">
+      <c r="AL1" s="31" t="str">
         <f>CONCAT(Sheet1!$AI$1,Sheet1!AL2)</f>
         <v>CanadaPoints</v>
       </c>
-      <c r="AM1" s="32" t="str">
+      <c r="AM1" s="31" t="str">
         <f>CONCAT(Sheet1!$AM$1,Sheet1!AM2)</f>
         <v>MonzaPlace</v>
       </c>
-      <c r="AN1" s="32" t="str">
+      <c r="AN1" s="31" t="str">
         <f>CONCAT(Sheet1!$AM$1,Sheet1!AN2)</f>
         <v>MonzaQualifying</v>
       </c>
-      <c r="AO1" s="32" t="str">
+      <c r="AO1" s="31" t="str">
         <f>CONCAT(Sheet1!$AM$1,Sheet1!AO2)</f>
         <v>MonzaFastestLap</v>
       </c>
-      <c r="AP1" s="32" t="str">
+      <c r="AP1" s="31" t="str">
         <f>CONCAT(Sheet1!$AM$1,Sheet1!AP2)</f>
         <v>MonzaPoints</v>
       </c>
-      <c r="AQ1" s="32" t="str">
+      <c r="AQ1" s="31" t="str">
         <f>CONCAT(Sheet1!$AQ$1,Sheet1!AQ2)</f>
         <v>Abu DhabiPlace</v>
       </c>
-      <c r="AR1" s="32" t="str">
+      <c r="AR1" s="31" t="str">
         <f>CONCAT(Sheet1!$AQ$1,Sheet1!AR2)</f>
         <v>Abu DhabiQualifying</v>
       </c>
-      <c r="AS1" s="32" t="str">
+      <c r="AS1" s="31" t="str">
         <f>CONCAT(Sheet1!$AQ$1,Sheet1!AS2)</f>
         <v>Abu DhabiFastestLap</v>
       </c>
-      <c r="AT1" s="32" t="str">
+      <c r="AT1" s="31" t="str">
         <f>CONCAT(Sheet1!$AQ$1,Sheet1!AT2)</f>
         <v>Abu DhabiPoints</v>
       </c>
-      <c r="AU1" s="32" t="str">
+      <c r="AU1" s="31" t="str">
         <f>CONCAT(Sheet1!$AU$1,Sheet1!AU2)</f>
         <v>AustriaSprintPlace</v>
       </c>
-      <c r="AV1" s="32" t="str">
+      <c r="AV1" s="31" t="str">
         <f>CONCAT(Sheet1!$AU$1,Sheet1!AV2)</f>
         <v>AustriaSprintQualifying</v>
       </c>
-      <c r="AW1" s="32" t="str">
+      <c r="AW1" s="31" t="str">
         <f>CONCAT(Sheet1!$AU$1,Sheet1!AW2)</f>
         <v>AustriaSprintFastestLap</v>
       </c>
-      <c r="AX1" s="32" t="str">
+      <c r="AX1" s="31" t="str">
         <f>CONCAT(Sheet1!$AU$1,Sheet1!AX2)</f>
         <v>AustriaSprintPoints</v>
       </c>
-      <c r="AY1" s="32" t="str">
+      <c r="AY1" s="31" t="str">
         <f>CONCAT(Sheet1!$AY$1,Sheet1!AY2)</f>
         <v>AustriaPlace</v>
       </c>
-      <c r="AZ1" s="32" t="str">
+      <c r="AZ1" s="31" t="str">
         <f>CONCAT(Sheet1!$AY$1,Sheet1!AZ2)</f>
         <v>AustriaQualifying</v>
       </c>
-      <c r="BA1" s="32" t="str">
+      <c r="BA1" s="31" t="str">
         <f>CONCAT(Sheet1!$AY$1,Sheet1!BA2)</f>
         <v>AustriaFastestLap</v>
       </c>
-      <c r="BB1" s="32" t="str">
+      <c r="BB1" s="31" t="str">
         <f>CONCAT(Sheet1!$AY$1,Sheet1!BB2)</f>
         <v>AustriaPoints</v>
       </c>
-      <c r="BC1" s="32" t="str">
+      <c r="BC1" s="31" t="str">
         <f>CONCAT(Sheet1!$BC$1,Sheet1!BC2)</f>
         <v>COTASprintPlace</v>
       </c>
-      <c r="BD1" s="32" t="str">
+      <c r="BD1" s="31" t="str">
         <f>CONCAT(Sheet1!$BC$1,Sheet1!BD2)</f>
         <v>COTASprintQualifying</v>
       </c>
-      <c r="BE1" s="32" t="str">
+      <c r="BE1" s="31" t="str">
         <f>CONCAT(Sheet1!$BC$1,Sheet1!BE2)</f>
         <v>COTASprintFastestLap</v>
       </c>
-      <c r="BF1" s="32" t="str">
+      <c r="BF1" s="31" t="str">
         <f>CONCAT(Sheet1!$BC$1,Sheet1!BF2)</f>
         <v>COTASprintPoints</v>
       </c>
-      <c r="BG1" s="32" t="str">
+      <c r="BG1" s="31" t="str">
         <f>CONCAT(Sheet1!$BG$1,Sheet1!BG2)</f>
         <v>COTAPlace</v>
       </c>
-      <c r="BH1" s="32" t="str">
+      <c r="BH1" s="31" t="str">
         <f>CONCAT(Sheet1!$BG$1,Sheet1!BH2)</f>
         <v>COTAQualifying</v>
       </c>
-      <c r="BI1" s="32" t="str">
+      <c r="BI1" s="31" t="str">
         <f>CONCAT(Sheet1!$BG$1,Sheet1!BI2)</f>
         <v>COTAFastestLap</v>
       </c>
-      <c r="BJ1" s="32" t="str">
+      <c r="BJ1" s="31" t="str">
         <f>CONCAT(Sheet1!$BG$1,Sheet1!BJ2)</f>
         <v>COTAPoints</v>
       </c>
       <c r="BK1" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="32" t="str">
+      <c r="A2" s="31" t="str">
         <f>Sheet1!A3</f>
         <v>McLaren</v>
       </c>
-      <c r="B2" s="32" t="str">
+      <c r="B2" s="31" t="str">
         <f>Sheet1!B3</f>
         <v>Nick**</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="31">
         <f>Sheet1!C3</f>
         <v>2</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="31">
         <f>Sheet1!D3</f>
         <v>2</v>
       </c>
-      <c r="E2" s="32" t="str">
+      <c r="E2" s="31" t="str">
         <f>Sheet1!E3</f>
         <v>N</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="31">
         <f>Sheet1!F3</f>
         <v>18</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="31">
         <f>Sheet1!G3</f>
         <v>2</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="31">
         <f>Sheet1!H3</f>
         <v>1</v>
       </c>
-      <c r="I2" s="32" t="str">
+      <c r="I2" s="31" t="str">
         <f>Sheet1!I3</f>
         <v>N</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="31">
         <f>Sheet1!J3</f>
         <v>18</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="31">
         <f>Sheet1!K3</f>
         <v>1</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="31">
         <f>Sheet1!L3</f>
         <v>2</v>
       </c>
-      <c r="M2" s="32" t="str">
+      <c r="M2" s="31" t="str">
         <f>Sheet1!M3</f>
         <v>N</v>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="31">
         <f>Sheet1!N3</f>
         <v>25</v>
       </c>
-      <c r="O2" s="32" t="str">
+      <c r="O2" s="31" t="str">
         <f>Sheet1!O3</f>
         <v/>
       </c>
-      <c r="P2" s="32" t="str">
+      <c r="P2" s="31" t="str">
         <f>Sheet1!P3</f>
         <v/>
       </c>
-      <c r="Q2" s="32" t="str">
+      <c r="Q2" s="31" t="str">
         <f>Sheet1!Q3</f>
-        <v>Z</v>
-      </c>
-      <c r="R2" s="32">
+        <v/>
+      </c>
+      <c r="R2" s="31">
         <f>Sheet1!R3</f>
         <v>0</v>
       </c>
-      <c r="S2" s="32" t="str">
+      <c r="S2" s="31" t="str">
         <f>Sheet1!S3</f>
         <v/>
       </c>
-      <c r="T2" s="32" t="str">
+      <c r="T2" s="31" t="str">
         <f>Sheet1!T3</f>
         <v/>
       </c>
-      <c r="U2" s="32" t="str">
+      <c r="U2" s="31" t="str">
         <f>Sheet1!U3</f>
         <v/>
       </c>
-      <c r="V2" s="32">
+      <c r="V2" s="31">
         <f>Sheet1!V3</f>
         <v>0</v>
       </c>
-      <c r="W2" s="32" t="str">
+      <c r="W2" s="31" t="str">
         <f>Sheet1!W3</f>
         <v/>
       </c>
-      <c r="X2" s="32" t="str">
+      <c r="X2" s="31" t="str">
         <f>Sheet1!X3</f>
         <v/>
       </c>
-      <c r="Y2" s="32" t="str">
+      <c r="Y2" s="31" t="str">
         <f>Sheet1!Y3</f>
         <v/>
       </c>
-      <c r="Z2" s="32">
+      <c r="Z2" s="31">
         <f>Sheet1!Z3</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="32" t="str">
+      <c r="AA2" s="31" t="str">
         <f>Sheet1!AA3</f>
         <v/>
       </c>
-      <c r="AB2" s="32" t="str">
+      <c r="AB2" s="31" t="str">
         <f>Sheet1!AB3</f>
         <v/>
       </c>
-      <c r="AC2" s="32" t="str">
+      <c r="AC2" s="31" t="str">
         <f>Sheet1!AC3</f>
         <v/>
       </c>
-      <c r="AD2" s="32">
+      <c r="AD2" s="31">
         <f>Sheet1!AD3</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="32" t="str">
+      <c r="AE2" s="31" t="str">
         <f>Sheet1!AE3</f>
         <v/>
       </c>
-      <c r="AF2" s="32" t="str">
+      <c r="AF2" s="31" t="str">
         <f>Sheet1!AF3</f>
         <v/>
       </c>
-      <c r="AG2" s="32" t="str">
+      <c r="AG2" s="31" t="str">
         <f>Sheet1!AG3</f>
         <v/>
       </c>
-      <c r="AH2" s="32">
+      <c r="AH2" s="31">
         <f>Sheet1!AH3</f>
         <v>0</v>
       </c>
-      <c r="AI2" s="32" t="str">
+      <c r="AI2" s="31" t="str">
         <f>Sheet1!AI3</f>
         <v/>
       </c>
-      <c r="AJ2" s="32" t="str">
+      <c r="AJ2" s="31" t="str">
         <f>Sheet1!AJ3</f>
         <v/>
       </c>
-      <c r="AK2" s="32" t="str">
+      <c r="AK2" s="31" t="str">
         <f>Sheet1!AK3</f>
         <v/>
       </c>
-      <c r="AL2" s="32">
+      <c r="AL2" s="31">
         <f>Sheet1!AL3</f>
         <v>0</v>
       </c>
-      <c r="AM2" s="32" t="str">
+      <c r="AM2" s="31" t="str">
         <f>Sheet1!AM3</f>
         <v/>
       </c>
-      <c r="AN2" s="32" t="str">
+      <c r="AN2" s="31" t="str">
         <f>Sheet1!AN3</f>
         <v/>
       </c>
-      <c r="AO2" s="32" t="str">
+      <c r="AO2" s="31" t="str">
         <f>Sheet1!AO3</f>
         <v/>
       </c>
-      <c r="AP2" s="32">
+      <c r="AP2" s="31">
         <f>Sheet1!AP3</f>
         <v>0</v>
       </c>
-      <c r="AQ2" s="32" t="str">
+      <c r="AQ2" s="31" t="str">
         <f>Sheet1!AQ3</f>
         <v/>
       </c>
-      <c r="AR2" s="32" t="str">
+      <c r="AR2" s="31" t="str">
         <f>Sheet1!AR3</f>
         <v/>
       </c>
-      <c r="AS2" s="32" t="str">
+      <c r="AS2" s="31" t="str">
         <f>Sheet1!AS3</f>
         <v/>
       </c>
-      <c r="AT2" s="32">
+      <c r="AT2" s="31">
         <f>Sheet1!AT3</f>
         <v>0</v>
       </c>
-      <c r="AU2" s="32" t="str">
+      <c r="AU2" s="31" t="str">
         <f>Sheet1!AU3</f>
         <v/>
       </c>
-      <c r="AV2" s="32" t="str">
+      <c r="AV2" s="31" t="str">
         <f>Sheet1!AV3</f>
         <v/>
       </c>
-      <c r="AW2" s="32" t="str">
+      <c r="AW2" s="31" t="str">
         <f>Sheet1!AW3</f>
         <v/>
       </c>
-      <c r="AX2" s="32">
+      <c r="AX2" s="31">
         <f>Sheet1!AX3</f>
         <v>0</v>
       </c>
-      <c r="AY2" s="32" t="str">
+      <c r="AY2" s="31" t="str">
         <f>Sheet1!AY3</f>
         <v/>
       </c>
-      <c r="AZ2" s="32" t="str">
+      <c r="AZ2" s="31" t="str">
         <f>Sheet1!AZ3</f>
         <v/>
       </c>
-      <c r="BA2" s="32" t="str">
+      <c r="BA2" s="31" t="str">
         <f>Sheet1!BA3</f>
         <v/>
       </c>
-      <c r="BB2" s="32">
+      <c r="BB2" s="31">
         <f>Sheet1!BB3</f>
         <v>0</v>
       </c>
-      <c r="BC2" s="32" t="str">
+      <c r="BC2" s="31" t="str">
         <f>Sheet1!BC3</f>
         <v/>
       </c>
-      <c r="BD2" s="32" t="str">
+      <c r="BD2" s="31" t="str">
         <f>Sheet1!BD3</f>
         <v/>
       </c>
-      <c r="BE2" s="32" t="str">
+      <c r="BE2" s="31" t="str">
         <f>Sheet1!BE3</f>
         <v/>
       </c>
-      <c r="BF2" s="32">
+      <c r="BF2" s="31">
         <f>Sheet1!BF3</f>
         <v>0</v>
       </c>
-      <c r="BG2" s="32" t="str">
+      <c r="BG2" s="31" t="str">
         <f>Sheet1!BG3</f>
         <v/>
       </c>
-      <c r="BH2" s="32" t="str">
+      <c r="BH2" s="31" t="str">
         <f>Sheet1!BH3</f>
         <v/>
       </c>
-      <c r="BI2" s="32" t="str">
+      <c r="BI2" s="31" t="str">
         <f>Sheet1!BI3</f>
         <v/>
       </c>
-      <c r="BJ2" s="32">
+      <c r="BJ2" s="31">
         <f>Sheet1!BJ3</f>
         <v>0</v>
       </c>
@@ -3604,251 +3598,251 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="str">
+      <c r="A3" s="31" t="str">
         <f>Sheet1!A4</f>
         <v>McLaren</v>
       </c>
-      <c r="B3" s="32" t="str">
+      <c r="B3" s="31" t="str">
         <f>Sheet1!B4</f>
         <v>Travis</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <f>Sheet1!C4</f>
         <v>16</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <f>Sheet1!D4</f>
         <v>10</v>
       </c>
-      <c r="E3" s="32" t="str">
+      <c r="E3" s="31" t="str">
         <f>Sheet1!E4</f>
         <v>N</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <f>Sheet1!F4</f>
         <v>1</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="31">
         <f>Sheet1!G4</f>
         <v>9</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="31">
         <f>Sheet1!H4</f>
         <v>10</v>
       </c>
-      <c r="I3" s="32" t="str">
+      <c r="I3" s="31" t="str">
         <f>Sheet1!I4</f>
         <v>N</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="31">
         <f>Sheet1!J4</f>
         <v>3</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="31">
         <f>Sheet1!K4</f>
         <v>12</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="31">
         <f>Sheet1!L4</f>
-        <v>6</v>
-      </c>
-      <c r="M3" s="32" t="str">
+        <v>7</v>
+      </c>
+      <c r="M3" s="31" t="str">
         <f>Sheet1!M4</f>
         <v>N</v>
       </c>
-      <c r="N3" s="32">
+      <c r="N3" s="31">
         <f>Sheet1!N4</f>
         <v>1</v>
       </c>
-      <c r="O3" s="32" t="str">
+      <c r="O3" s="31" t="str">
         <f>Sheet1!O4</f>
         <v/>
       </c>
-      <c r="P3" s="32" t="str">
+      <c r="P3" s="31" t="str">
         <f>Sheet1!P4</f>
         <v/>
       </c>
-      <c r="Q3" s="32" t="str">
+      <c r="Q3" s="31" t="str">
         <f>Sheet1!Q4</f>
         <v/>
       </c>
-      <c r="R3" s="32">
+      <c r="R3" s="31">
         <f>Sheet1!R4</f>
         <v>0</v>
       </c>
-      <c r="S3" s="32" t="str">
+      <c r="S3" s="31" t="str">
         <f>Sheet1!S4</f>
         <v/>
       </c>
-      <c r="T3" s="32" t="str">
+      <c r="T3" s="31" t="str">
         <f>Sheet1!T4</f>
         <v/>
       </c>
-      <c r="U3" s="32" t="str">
+      <c r="U3" s="31" t="str">
         <f>Sheet1!U4</f>
         <v/>
       </c>
-      <c r="V3" s="32">
+      <c r="V3" s="31">
         <f>Sheet1!V4</f>
         <v>0</v>
       </c>
-      <c r="W3" s="32" t="str">
+      <c r="W3" s="31" t="str">
         <f>Sheet1!W4</f>
         <v/>
       </c>
-      <c r="X3" s="32" t="str">
+      <c r="X3" s="31" t="str">
         <f>Sheet1!X4</f>
         <v/>
       </c>
-      <c r="Y3" s="32" t="str">
+      <c r="Y3" s="31" t="str">
         <f>Sheet1!Y4</f>
         <v/>
       </c>
-      <c r="Z3" s="32">
+      <c r="Z3" s="31">
         <f>Sheet1!Z4</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="32" t="str">
+      <c r="AA3" s="31" t="str">
         <f>Sheet1!AA4</f>
         <v/>
       </c>
-      <c r="AB3" s="32" t="str">
+      <c r="AB3" s="31" t="str">
         <f>Sheet1!AB4</f>
         <v/>
       </c>
-      <c r="AC3" s="32" t="str">
+      <c r="AC3" s="31" t="str">
         <f>Sheet1!AC4</f>
         <v/>
       </c>
-      <c r="AD3" s="32">
+      <c r="AD3" s="31">
         <f>Sheet1!AD4</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="32" t="str">
+      <c r="AE3" s="31" t="str">
         <f>Sheet1!AE4</f>
         <v/>
       </c>
-      <c r="AF3" s="32" t="str">
+      <c r="AF3" s="31" t="str">
         <f>Sheet1!AF4</f>
         <v/>
       </c>
-      <c r="AG3" s="32" t="str">
+      <c r="AG3" s="31" t="str">
         <f>Sheet1!AG4</f>
         <v/>
       </c>
-      <c r="AH3" s="32">
+      <c r="AH3" s="31">
         <f>Sheet1!AH4</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="32" t="str">
+      <c r="AI3" s="31" t="str">
         <f>Sheet1!AI4</f>
         <v/>
       </c>
-      <c r="AJ3" s="32" t="str">
+      <c r="AJ3" s="31" t="str">
         <f>Sheet1!AJ4</f>
         <v/>
       </c>
-      <c r="AK3" s="32" t="str">
+      <c r="AK3" s="31" t="str">
         <f>Sheet1!AK4</f>
         <v/>
       </c>
-      <c r="AL3" s="32">
+      <c r="AL3" s="31">
         <f>Sheet1!AL4</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="32" t="str">
+      <c r="AM3" s="31" t="str">
         <f>Sheet1!AM4</f>
         <v/>
       </c>
-      <c r="AN3" s="32" t="str">
+      <c r="AN3" s="31" t="str">
         <f>Sheet1!AN4</f>
         <v/>
       </c>
-      <c r="AO3" s="32" t="str">
+      <c r="AO3" s="31" t="str">
         <f>Sheet1!AO4</f>
         <v/>
       </c>
-      <c r="AP3" s="32">
+      <c r="AP3" s="31">
         <f>Sheet1!AP4</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="32" t="str">
+      <c r="AQ3" s="31" t="str">
         <f>Sheet1!AQ4</f>
         <v/>
       </c>
-      <c r="AR3" s="32" t="str">
+      <c r="AR3" s="31" t="str">
         <f>Sheet1!AR4</f>
         <v/>
       </c>
-      <c r="AS3" s="32" t="str">
+      <c r="AS3" s="31" t="str">
         <f>Sheet1!AS4</f>
         <v/>
       </c>
-      <c r="AT3" s="32">
+      <c r="AT3" s="31">
         <f>Sheet1!AT4</f>
         <v>0</v>
       </c>
-      <c r="AU3" s="32" t="str">
+      <c r="AU3" s="31" t="str">
         <f>Sheet1!AU4</f>
         <v/>
       </c>
-      <c r="AV3" s="32" t="str">
+      <c r="AV3" s="31" t="str">
         <f>Sheet1!AV4</f>
         <v/>
       </c>
-      <c r="AW3" s="32" t="str">
+      <c r="AW3" s="31" t="str">
         <f>Sheet1!AW4</f>
         <v/>
       </c>
-      <c r="AX3" s="32">
+      <c r="AX3" s="31">
         <f>Sheet1!AX4</f>
         <v>0</v>
       </c>
-      <c r="AY3" s="32" t="str">
+      <c r="AY3" s="31" t="str">
         <f>Sheet1!AY4</f>
         <v/>
       </c>
-      <c r="AZ3" s="32" t="str">
+      <c r="AZ3" s="31" t="str">
         <f>Sheet1!AZ4</f>
         <v/>
       </c>
-      <c r="BA3" s="32" t="str">
+      <c r="BA3" s="31" t="str">
         <f>Sheet1!BA4</f>
         <v/>
       </c>
-      <c r="BB3" s="32">
+      <c r="BB3" s="31">
         <f>Sheet1!BB4</f>
         <v>0</v>
       </c>
-      <c r="BC3" s="32" t="str">
+      <c r="BC3" s="31" t="str">
         <f>Sheet1!BC4</f>
         <v/>
       </c>
-      <c r="BD3" s="32" t="str">
+      <c r="BD3" s="31" t="str">
         <f>Sheet1!BD4</f>
         <v/>
       </c>
-      <c r="BE3" s="32" t="str">
+      <c r="BE3" s="31" t="str">
         <f>Sheet1!BE4</f>
         <v/>
       </c>
-      <c r="BF3" s="32">
+      <c r="BF3" s="31">
         <f>Sheet1!BF4</f>
         <v>0</v>
       </c>
-      <c r="BG3" s="32" t="str">
+      <c r="BG3" s="31" t="str">
         <f>Sheet1!BG4</f>
         <v/>
       </c>
-      <c r="BH3" s="32" t="str">
+      <c r="BH3" s="31" t="str">
         <f>Sheet1!BH4</f>
         <v/>
       </c>
-      <c r="BI3" s="32" t="str">
+      <c r="BI3" s="31" t="str">
         <f>Sheet1!BI4</f>
         <v/>
       </c>
-      <c r="BJ3" s="32">
+      <c r="BJ3" s="31">
         <f>Sheet1!BJ4</f>
         <v>0</v>
       </c>
@@ -3857,251 +3851,251 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="32" t="str">
+      <c r="A4" s="31" t="str">
         <f>Sheet1!A5</f>
         <v>VCARB</v>
       </c>
-      <c r="B4" s="32" t="str">
+      <c r="B4" s="31" t="str">
         <f>Sheet1!B5</f>
         <v>Patrick</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="31">
         <f>Sheet1!C5</f>
         <v>11</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <f>Sheet1!D5</f>
         <v>4</v>
       </c>
-      <c r="E4" s="32" t="str">
+      <c r="E4" s="31" t="str">
         <f>Sheet1!E5</f>
         <v>N</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <f>Sheet1!F5</f>
         <v>1</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="31">
         <f>Sheet1!G5</f>
         <v>4</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="31">
         <f>Sheet1!H5</f>
         <v>8</v>
       </c>
-      <c r="I4" s="32" t="str">
+      <c r="I4" s="31" t="str">
         <f>Sheet1!I5</f>
         <v>N</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="31">
         <f>Sheet1!J5</f>
         <v>12</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="31">
         <f>Sheet1!K5</f>
         <v>4</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="31">
         <f>Sheet1!L5</f>
         <v>4</v>
       </c>
-      <c r="M4" s="32" t="str">
+      <c r="M4" s="31" t="str">
         <f>Sheet1!M5</f>
         <v>N</v>
       </c>
-      <c r="N4" s="32">
+      <c r="N4" s="31">
         <f>Sheet1!N5</f>
         <v>12</v>
       </c>
-      <c r="O4" s="32" t="str">
+      <c r="O4" s="31" t="str">
         <f>Sheet1!O5</f>
         <v/>
       </c>
-      <c r="P4" s="32" t="str">
+      <c r="P4" s="31" t="str">
         <f>Sheet1!P5</f>
         <v/>
       </c>
-      <c r="Q4" s="32" t="str">
+      <c r="Q4" s="31" t="str">
         <f>Sheet1!Q5</f>
         <v/>
       </c>
-      <c r="R4" s="32">
+      <c r="R4" s="31">
         <f>Sheet1!R5</f>
         <v>0</v>
       </c>
-      <c r="S4" s="32" t="str">
+      <c r="S4" s="31" t="str">
         <f>Sheet1!S5</f>
         <v/>
       </c>
-      <c r="T4" s="32" t="str">
+      <c r="T4" s="31" t="str">
         <f>Sheet1!T5</f>
         <v/>
       </c>
-      <c r="U4" s="32" t="str">
+      <c r="U4" s="31" t="str">
         <f>Sheet1!U5</f>
         <v/>
       </c>
-      <c r="V4" s="32">
+      <c r="V4" s="31">
         <f>Sheet1!V5</f>
         <v>0</v>
       </c>
-      <c r="W4" s="32" t="str">
+      <c r="W4" s="31" t="str">
         <f>Sheet1!W5</f>
         <v/>
       </c>
-      <c r="X4" s="32" t="str">
+      <c r="X4" s="31" t="str">
         <f>Sheet1!X5</f>
         <v/>
       </c>
-      <c r="Y4" s="32" t="str">
+      <c r="Y4" s="31" t="str">
         <f>Sheet1!Y5</f>
         <v/>
       </c>
-      <c r="Z4" s="32">
+      <c r="Z4" s="31">
         <f>Sheet1!Z5</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="32" t="str">
+      <c r="AA4" s="31" t="str">
         <f>Sheet1!AA5</f>
         <v/>
       </c>
-      <c r="AB4" s="32" t="str">
+      <c r="AB4" s="31" t="str">
         <f>Sheet1!AB5</f>
         <v/>
       </c>
-      <c r="AC4" s="32" t="str">
+      <c r="AC4" s="31" t="str">
         <f>Sheet1!AC5</f>
         <v/>
       </c>
-      <c r="AD4" s="32">
+      <c r="AD4" s="31">
         <f>Sheet1!AD5</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="32" t="str">
+      <c r="AE4" s="31" t="str">
         <f>Sheet1!AE5</f>
         <v/>
       </c>
-      <c r="AF4" s="32" t="str">
+      <c r="AF4" s="31" t="str">
         <f>Sheet1!AF5</f>
         <v/>
       </c>
-      <c r="AG4" s="32" t="str">
+      <c r="AG4" s="31" t="str">
         <f>Sheet1!AG5</f>
         <v/>
       </c>
-      <c r="AH4" s="32">
+      <c r="AH4" s="31">
         <f>Sheet1!AH5</f>
         <v>0</v>
       </c>
-      <c r="AI4" s="32" t="str">
+      <c r="AI4" s="31" t="str">
         <f>Sheet1!AI5</f>
         <v/>
       </c>
-      <c r="AJ4" s="32" t="str">
+      <c r="AJ4" s="31" t="str">
         <f>Sheet1!AJ5</f>
         <v/>
       </c>
-      <c r="AK4" s="32" t="str">
+      <c r="AK4" s="31" t="str">
         <f>Sheet1!AK5</f>
         <v/>
       </c>
-      <c r="AL4" s="32">
+      <c r="AL4" s="31">
         <f>Sheet1!AL5</f>
         <v>0</v>
       </c>
-      <c r="AM4" s="32" t="str">
+      <c r="AM4" s="31" t="str">
         <f>Sheet1!AM5</f>
         <v/>
       </c>
-      <c r="AN4" s="32" t="str">
+      <c r="AN4" s="31" t="str">
         <f>Sheet1!AN5</f>
         <v/>
       </c>
-      <c r="AO4" s="32" t="str">
+      <c r="AO4" s="31" t="str">
         <f>Sheet1!AO5</f>
         <v/>
       </c>
-      <c r="AP4" s="32">
+      <c r="AP4" s="31">
         <f>Sheet1!AP5</f>
         <v>0</v>
       </c>
-      <c r="AQ4" s="32" t="str">
+      <c r="AQ4" s="31" t="str">
         <f>Sheet1!AQ5</f>
         <v/>
       </c>
-      <c r="AR4" s="32" t="str">
+      <c r="AR4" s="31" t="str">
         <f>Sheet1!AR5</f>
         <v/>
       </c>
-      <c r="AS4" s="32" t="str">
+      <c r="AS4" s="31" t="str">
         <f>Sheet1!AS5</f>
         <v/>
       </c>
-      <c r="AT4" s="32">
+      <c r="AT4" s="31">
         <f>Sheet1!AT5</f>
         <v>0</v>
       </c>
-      <c r="AU4" s="32" t="str">
+      <c r="AU4" s="31" t="str">
         <f>Sheet1!AU5</f>
         <v/>
       </c>
-      <c r="AV4" s="32" t="str">
+      <c r="AV4" s="31" t="str">
         <f>Sheet1!AV5</f>
         <v/>
       </c>
-      <c r="AW4" s="32" t="str">
+      <c r="AW4" s="31" t="str">
         <f>Sheet1!AW5</f>
         <v/>
       </c>
-      <c r="AX4" s="32">
+      <c r="AX4" s="31">
         <f>Sheet1!AX5</f>
         <v>0</v>
       </c>
-      <c r="AY4" s="32" t="str">
+      <c r="AY4" s="31" t="str">
         <f>Sheet1!AY5</f>
         <v/>
       </c>
-      <c r="AZ4" s="32" t="str">
+      <c r="AZ4" s="31" t="str">
         <f>Sheet1!AZ5</f>
         <v/>
       </c>
-      <c r="BA4" s="32" t="str">
+      <c r="BA4" s="31" t="str">
         <f>Sheet1!BA5</f>
         <v/>
       </c>
-      <c r="BB4" s="32">
+      <c r="BB4" s="31">
         <f>Sheet1!BB5</f>
         <v>0</v>
       </c>
-      <c r="BC4" s="32" t="str">
+      <c r="BC4" s="31" t="str">
         <f>Sheet1!BC5</f>
         <v/>
       </c>
-      <c r="BD4" s="32" t="str">
+      <c r="BD4" s="31" t="str">
         <f>Sheet1!BD5</f>
         <v/>
       </c>
-      <c r="BE4" s="32" t="str">
+      <c r="BE4" s="31" t="str">
         <f>Sheet1!BE5</f>
         <v/>
       </c>
-      <c r="BF4" s="32">
+      <c r="BF4" s="31">
         <f>Sheet1!BF5</f>
         <v>0</v>
       </c>
-      <c r="BG4" s="32" t="str">
+      <c r="BG4" s="31" t="str">
         <f>Sheet1!BG5</f>
         <v/>
       </c>
-      <c r="BH4" s="32" t="str">
+      <c r="BH4" s="31" t="str">
         <f>Sheet1!BH5</f>
         <v/>
       </c>
-      <c r="BI4" s="32" t="str">
+      <c r="BI4" s="31" t="str">
         <f>Sheet1!BI5</f>
         <v/>
       </c>
-      <c r="BJ4" s="32">
+      <c r="BJ4" s="31">
         <f>Sheet1!BJ5</f>
         <v>0</v>
       </c>
@@ -4110,251 +4104,251 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="32" t="str">
+      <c r="A5" s="31" t="str">
         <f>Sheet1!A6</f>
         <v>VCARB</v>
       </c>
-      <c r="B5" s="32" t="str">
+      <c r="B5" s="31" t="str">
         <f>Sheet1!B6</f>
         <v>Brently</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <f>Sheet1!C6</f>
         <v>5</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <f>Sheet1!D6</f>
         <v>16</v>
       </c>
-      <c r="E5" s="32" t="str">
+      <c r="E5" s="31" t="str">
         <f>Sheet1!E6</f>
         <v>N</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <f>Sheet1!F6</f>
         <v>10</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <f>Sheet1!G6</f>
         <v>8</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="31">
         <f>Sheet1!H6</f>
         <v>6</v>
       </c>
-      <c r="I5" s="32" t="str">
+      <c r="I5" s="31" t="str">
         <f>Sheet1!I6</f>
         <v>N</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="31">
         <f>Sheet1!J6</f>
         <v>4</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="31">
         <f>Sheet1!K6</f>
         <v>5</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="31">
         <f>Sheet1!L6</f>
         <v>8</v>
       </c>
-      <c r="M5" s="32" t="str">
+      <c r="M5" s="31" t="str">
         <f>Sheet1!M6</f>
         <v>N</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="31">
         <f>Sheet1!N6</f>
         <v>10</v>
       </c>
-      <c r="O5" s="32" t="str">
+      <c r="O5" s="31" t="str">
         <f>Sheet1!O6</f>
         <v/>
       </c>
-      <c r="P5" s="32" t="str">
+      <c r="P5" s="31" t="str">
         <f>Sheet1!P6</f>
         <v/>
       </c>
-      <c r="Q5" s="32" t="str">
+      <c r="Q5" s="31" t="str">
         <f>Sheet1!Q6</f>
         <v/>
       </c>
-      <c r="R5" s="32">
+      <c r="R5" s="31">
         <f>Sheet1!R6</f>
         <v>0</v>
       </c>
-      <c r="S5" s="32" t="str">
+      <c r="S5" s="31" t="str">
         <f>Sheet1!S6</f>
         <v/>
       </c>
-      <c r="T5" s="32" t="str">
+      <c r="T5" s="31" t="str">
         <f>Sheet1!T6</f>
         <v/>
       </c>
-      <c r="U5" s="32" t="str">
+      <c r="U5" s="31" t="str">
         <f>Sheet1!U6</f>
         <v/>
       </c>
-      <c r="V5" s="32">
+      <c r="V5" s="31">
         <f>Sheet1!V6</f>
         <v>0</v>
       </c>
-      <c r="W5" s="32" t="str">
+      <c r="W5" s="31" t="str">
         <f>Sheet1!W6</f>
         <v/>
       </c>
-      <c r="X5" s="32" t="str">
+      <c r="X5" s="31" t="str">
         <f>Sheet1!X6</f>
         <v/>
       </c>
-      <c r="Y5" s="32" t="str">
+      <c r="Y5" s="31" t="str">
         <f>Sheet1!Y6</f>
         <v/>
       </c>
-      <c r="Z5" s="32">
+      <c r="Z5" s="31">
         <f>Sheet1!Z6</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="32" t="str">
+      <c r="AA5" s="31" t="str">
         <f>Sheet1!AA6</f>
         <v/>
       </c>
-      <c r="AB5" s="32" t="str">
+      <c r="AB5" s="31" t="str">
         <f>Sheet1!AB6</f>
         <v/>
       </c>
-      <c r="AC5" s="32" t="str">
+      <c r="AC5" s="31" t="str">
         <f>Sheet1!AC6</f>
         <v/>
       </c>
-      <c r="AD5" s="32">
+      <c r="AD5" s="31">
         <f>Sheet1!AD6</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="32" t="str">
+      <c r="AE5" s="31" t="str">
         <f>Sheet1!AE6</f>
         <v/>
       </c>
-      <c r="AF5" s="32" t="str">
+      <c r="AF5" s="31" t="str">
         <f>Sheet1!AF6</f>
         <v/>
       </c>
-      <c r="AG5" s="32" t="str">
+      <c r="AG5" s="31" t="str">
         <f>Sheet1!AG6</f>
         <v/>
       </c>
-      <c r="AH5" s="32">
+      <c r="AH5" s="31">
         <f>Sheet1!AH6</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="32" t="str">
+      <c r="AI5" s="31" t="str">
         <f>Sheet1!AI6</f>
         <v/>
       </c>
-      <c r="AJ5" s="32" t="str">
+      <c r="AJ5" s="31" t="str">
         <f>Sheet1!AJ6</f>
         <v/>
       </c>
-      <c r="AK5" s="32" t="str">
+      <c r="AK5" s="31" t="str">
         <f>Sheet1!AK6</f>
         <v/>
       </c>
-      <c r="AL5" s="32">
+      <c r="AL5" s="31">
         <f>Sheet1!AL6</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="32" t="str">
+      <c r="AM5" s="31" t="str">
         <f>Sheet1!AM6</f>
         <v/>
       </c>
-      <c r="AN5" s="32" t="str">
+      <c r="AN5" s="31" t="str">
         <f>Sheet1!AN6</f>
         <v/>
       </c>
-      <c r="AO5" s="32" t="str">
+      <c r="AO5" s="31" t="str">
         <f>Sheet1!AO6</f>
         <v/>
       </c>
-      <c r="AP5" s="32">
+      <c r="AP5" s="31">
         <f>Sheet1!AP6</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="32" t="str">
+      <c r="AQ5" s="31" t="str">
         <f>Sheet1!AQ6</f>
         <v/>
       </c>
-      <c r="AR5" s="32" t="str">
+      <c r="AR5" s="31" t="str">
         <f>Sheet1!AR6</f>
         <v/>
       </c>
-      <c r="AS5" s="32" t="str">
+      <c r="AS5" s="31" t="str">
         <f>Sheet1!AS6</f>
         <v/>
       </c>
-      <c r="AT5" s="32">
+      <c r="AT5" s="31">
         <f>Sheet1!AT6</f>
         <v>0</v>
       </c>
-      <c r="AU5" s="32" t="str">
+      <c r="AU5" s="31" t="str">
         <f>Sheet1!AU6</f>
         <v/>
       </c>
-      <c r="AV5" s="32" t="str">
+      <c r="AV5" s="31" t="str">
         <f>Sheet1!AV6</f>
         <v/>
       </c>
-      <c r="AW5" s="32" t="str">
+      <c r="AW5" s="31" t="str">
         <f>Sheet1!AW6</f>
         <v/>
       </c>
-      <c r="AX5" s="32">
+      <c r="AX5" s="31">
         <f>Sheet1!AX6</f>
         <v>0</v>
       </c>
-      <c r="AY5" s="32" t="str">
+      <c r="AY5" s="31" t="str">
         <f>Sheet1!AY6</f>
         <v/>
       </c>
-      <c r="AZ5" s="32" t="str">
+      <c r="AZ5" s="31" t="str">
         <f>Sheet1!AZ6</f>
         <v/>
       </c>
-      <c r="BA5" s="32" t="str">
+      <c r="BA5" s="31" t="str">
         <f>Sheet1!BA6</f>
         <v/>
       </c>
-      <c r="BB5" s="32">
+      <c r="BB5" s="31">
         <f>Sheet1!BB6</f>
         <v>0</v>
       </c>
-      <c r="BC5" s="32" t="str">
+      <c r="BC5" s="31" t="str">
         <f>Sheet1!BC6</f>
         <v/>
       </c>
-      <c r="BD5" s="32" t="str">
+      <c r="BD5" s="31" t="str">
         <f>Sheet1!BD6</f>
         <v/>
       </c>
-      <c r="BE5" s="32" t="str">
+      <c r="BE5" s="31" t="str">
         <f>Sheet1!BE6</f>
         <v/>
       </c>
-      <c r="BF5" s="32">
+      <c r="BF5" s="31">
         <f>Sheet1!BF6</f>
         <v>0</v>
       </c>
-      <c r="BG5" s="32" t="str">
+      <c r="BG5" s="31" t="str">
         <f>Sheet1!BG6</f>
         <v/>
       </c>
-      <c r="BH5" s="32" t="str">
+      <c r="BH5" s="31" t="str">
         <f>Sheet1!BH6</f>
         <v/>
       </c>
-      <c r="BI5" s="32" t="str">
+      <c r="BI5" s="31" t="str">
         <f>Sheet1!BI6</f>
         <v/>
       </c>
-      <c r="BJ5" s="32">
+      <c r="BJ5" s="31">
         <f>Sheet1!BJ6</f>
         <v>0</v>
       </c>
@@ -4363,251 +4357,251 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="32" t="str">
+      <c r="A6" s="31" t="str">
         <f>Sheet1!A7</f>
         <v>Ferrari</v>
       </c>
-      <c r="B6" s="32" t="str">
+      <c r="B6" s="31" t="str">
         <f>Sheet1!B7</f>
         <v>Erick</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <f>Sheet1!C7</f>
         <v>7</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <f>Sheet1!D7</f>
         <v>7</v>
       </c>
-      <c r="E6" s="32" t="str">
+      <c r="E6" s="31" t="str">
         <f>Sheet1!E7</f>
         <v>N</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
         <f>Sheet1!F7</f>
         <v>6</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="31">
         <f>Sheet1!G7</f>
         <v>3</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="31">
         <f>Sheet1!H7</f>
         <v>4</v>
       </c>
-      <c r="I6" s="32" t="str">
+      <c r="I6" s="31" t="str">
         <f>Sheet1!I7</f>
         <v>N</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="31">
         <f>Sheet1!J7</f>
         <v>15</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="31">
         <f>Sheet1!K7</f>
         <v>3</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="31">
         <f>Sheet1!L7</f>
         <v>5</v>
       </c>
-      <c r="M6" s="32" t="str">
+      <c r="M6" s="31" t="str">
         <f>Sheet1!M7</f>
         <v>N</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="31">
         <f>Sheet1!N7</f>
         <v>15</v>
       </c>
-      <c r="O6" s="32" t="str">
+      <c r="O6" s="31" t="str">
         <f>Sheet1!O7</f>
         <v/>
       </c>
-      <c r="P6" s="32" t="str">
+      <c r="P6" s="31" t="str">
         <f>Sheet1!P7</f>
         <v/>
       </c>
-      <c r="Q6" s="32" t="str">
+      <c r="Q6" s="31" t="str">
         <f>Sheet1!Q7</f>
         <v/>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="31">
         <f>Sheet1!R7</f>
         <v>0</v>
       </c>
-      <c r="S6" s="32" t="str">
+      <c r="S6" s="31" t="str">
         <f>Sheet1!S7</f>
         <v/>
       </c>
-      <c r="T6" s="32" t="str">
+      <c r="T6" s="31" t="str">
         <f>Sheet1!T7</f>
         <v/>
       </c>
-      <c r="U6" s="32" t="str">
+      <c r="U6" s="31" t="str">
         <f>Sheet1!U7</f>
         <v/>
       </c>
-      <c r="V6" s="32">
+      <c r="V6" s="31">
         <f>Sheet1!V7</f>
         <v>0</v>
       </c>
-      <c r="W6" s="32" t="str">
+      <c r="W6" s="31" t="str">
         <f>Sheet1!W7</f>
         <v/>
       </c>
-      <c r="X6" s="32" t="str">
+      <c r="X6" s="31" t="str">
         <f>Sheet1!X7</f>
         <v/>
       </c>
-      <c r="Y6" s="32" t="str">
+      <c r="Y6" s="31" t="str">
         <f>Sheet1!Y7</f>
         <v/>
       </c>
-      <c r="Z6" s="32">
+      <c r="Z6" s="31">
         <f>Sheet1!Z7</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="32" t="str">
+      <c r="AA6" s="31" t="str">
         <f>Sheet1!AA7</f>
         <v/>
       </c>
-      <c r="AB6" s="32" t="str">
+      <c r="AB6" s="31" t="str">
         <f>Sheet1!AB7</f>
         <v/>
       </c>
-      <c r="AC6" s="32" t="str">
+      <c r="AC6" s="31" t="str">
         <f>Sheet1!AC7</f>
         <v/>
       </c>
-      <c r="AD6" s="32">
+      <c r="AD6" s="31">
         <f>Sheet1!AD7</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="32" t="str">
+      <c r="AE6" s="31" t="str">
         <f>Sheet1!AE7</f>
         <v/>
       </c>
-      <c r="AF6" s="32" t="str">
+      <c r="AF6" s="31" t="str">
         <f>Sheet1!AF7</f>
         <v/>
       </c>
-      <c r="AG6" s="32" t="str">
+      <c r="AG6" s="31" t="str">
         <f>Sheet1!AG7</f>
         <v/>
       </c>
-      <c r="AH6" s="32">
+      <c r="AH6" s="31">
         <f>Sheet1!AH7</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="32" t="str">
+      <c r="AI6" s="31" t="str">
         <f>Sheet1!AI7</f>
         <v/>
       </c>
-      <c r="AJ6" s="32" t="str">
+      <c r="AJ6" s="31" t="str">
         <f>Sheet1!AJ7</f>
         <v/>
       </c>
-      <c r="AK6" s="32" t="str">
+      <c r="AK6" s="31" t="str">
         <f>Sheet1!AK7</f>
         <v/>
       </c>
-      <c r="AL6" s="32">
+      <c r="AL6" s="31">
         <f>Sheet1!AL7</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="32" t="str">
+      <c r="AM6" s="31" t="str">
         <f>Sheet1!AM7</f>
         <v/>
       </c>
-      <c r="AN6" s="32" t="str">
+      <c r="AN6" s="31" t="str">
         <f>Sheet1!AN7</f>
         <v/>
       </c>
-      <c r="AO6" s="32" t="str">
+      <c r="AO6" s="31" t="str">
         <f>Sheet1!AO7</f>
         <v/>
       </c>
-      <c r="AP6" s="32">
+      <c r="AP6" s="31">
         <f>Sheet1!AP7</f>
         <v>0</v>
       </c>
-      <c r="AQ6" s="32" t="str">
+      <c r="AQ6" s="31" t="str">
         <f>Sheet1!AQ7</f>
         <v/>
       </c>
-      <c r="AR6" s="32" t="str">
+      <c r="AR6" s="31" t="str">
         <f>Sheet1!AR7</f>
         <v/>
       </c>
-      <c r="AS6" s="32" t="str">
+      <c r="AS6" s="31" t="str">
         <f>Sheet1!AS7</f>
         <v/>
       </c>
-      <c r="AT6" s="32">
+      <c r="AT6" s="31">
         <f>Sheet1!AT7</f>
         <v>0</v>
       </c>
-      <c r="AU6" s="32" t="str">
+      <c r="AU6" s="31" t="str">
         <f>Sheet1!AU7</f>
         <v/>
       </c>
-      <c r="AV6" s="32" t="str">
+      <c r="AV6" s="31" t="str">
         <f>Sheet1!AV7</f>
         <v/>
       </c>
-      <c r="AW6" s="32" t="str">
+      <c r="AW6" s="31" t="str">
         <f>Sheet1!AW7</f>
         <v/>
       </c>
-      <c r="AX6" s="32">
+      <c r="AX6" s="31">
         <f>Sheet1!AX7</f>
         <v>0</v>
       </c>
-      <c r="AY6" s="32" t="str">
+      <c r="AY6" s="31" t="str">
         <f>Sheet1!AY7</f>
         <v/>
       </c>
-      <c r="AZ6" s="32" t="str">
+      <c r="AZ6" s="31" t="str">
         <f>Sheet1!AZ7</f>
         <v/>
       </c>
-      <c r="BA6" s="32" t="str">
+      <c r="BA6" s="31" t="str">
         <f>Sheet1!BA7</f>
         <v/>
       </c>
-      <c r="BB6" s="32">
+      <c r="BB6" s="31">
         <f>Sheet1!BB7</f>
         <v>0</v>
       </c>
-      <c r="BC6" s="32" t="str">
+      <c r="BC6" s="31" t="str">
         <f>Sheet1!BC7</f>
         <v/>
       </c>
-      <c r="BD6" s="32" t="str">
+      <c r="BD6" s="31" t="str">
         <f>Sheet1!BD7</f>
         <v/>
       </c>
-      <c r="BE6" s="32" t="str">
+      <c r="BE6" s="31" t="str">
         <f>Sheet1!BE7</f>
         <v/>
       </c>
-      <c r="BF6" s="32">
+      <c r="BF6" s="31">
         <f>Sheet1!BF7</f>
         <v>0</v>
       </c>
-      <c r="BG6" s="32" t="str">
+      <c r="BG6" s="31" t="str">
         <f>Sheet1!BG7</f>
         <v/>
       </c>
-      <c r="BH6" s="32" t="str">
+      <c r="BH6" s="31" t="str">
         <f>Sheet1!BH7</f>
         <v/>
       </c>
-      <c r="BI6" s="32" t="str">
+      <c r="BI6" s="31" t="str">
         <f>Sheet1!BI7</f>
         <v/>
       </c>
-      <c r="BJ6" s="32">
+      <c r="BJ6" s="31">
         <f>Sheet1!BJ7</f>
         <v>0</v>
       </c>
@@ -4616,251 +4610,251 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="32" t="str">
+      <c r="A7" s="31" t="str">
         <f>Sheet1!A8</f>
         <v>Ferrari</v>
       </c>
-      <c r="B7" s="32" t="str">
+      <c r="B7" s="31" t="str">
         <f>Sheet1!B8</f>
         <v>Zane</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <f>Sheet1!C8</f>
         <v>4</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <f>Sheet1!D8</f>
         <v>3</v>
       </c>
-      <c r="E7" s="32" t="str">
+      <c r="E7" s="31" t="str">
         <f>Sheet1!E8</f>
         <v>N</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <f>Sheet1!F8</f>
         <v>12</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="31">
         <f>Sheet1!G8</f>
         <v>5</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="31">
         <f>Sheet1!H8</f>
         <v>3</v>
       </c>
-      <c r="I7" s="32" t="str">
+      <c r="I7" s="31" t="str">
         <f>Sheet1!I8</f>
         <v>N</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="31">
         <f>Sheet1!J8</f>
         <v>10</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="31">
         <f>Sheet1!K8</f>
         <v>15</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="31">
         <f>Sheet1!L8</f>
         <v>6</v>
       </c>
-      <c r="M7" s="32" t="str">
+      <c r="M7" s="31" t="str">
         <f>Sheet1!M8</f>
         <v>N</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="31">
         <f>Sheet1!N8</f>
         <v>1</v>
       </c>
-      <c r="O7" s="32" t="str">
+      <c r="O7" s="31" t="str">
         <f>Sheet1!O8</f>
         <v/>
       </c>
-      <c r="P7" s="32" t="str">
+      <c r="P7" s="31" t="str">
         <f>Sheet1!P8</f>
         <v/>
       </c>
-      <c r="Q7" s="32" t="str">
+      <c r="Q7" s="31" t="str">
         <f>Sheet1!Q8</f>
         <v/>
       </c>
-      <c r="R7" s="32">
+      <c r="R7" s="31">
         <f>Sheet1!R8</f>
         <v>0</v>
       </c>
-      <c r="S7" s="32" t="str">
+      <c r="S7" s="31" t="str">
         <f>Sheet1!S8</f>
         <v/>
       </c>
-      <c r="T7" s="32" t="str">
+      <c r="T7" s="31" t="str">
         <f>Sheet1!T8</f>
         <v/>
       </c>
-      <c r="U7" s="32" t="str">
+      <c r="U7" s="31" t="str">
         <f>Sheet1!U8</f>
         <v/>
       </c>
-      <c r="V7" s="32">
+      <c r="V7" s="31">
         <f>Sheet1!V8</f>
         <v>0</v>
       </c>
-      <c r="W7" s="32" t="str">
+      <c r="W7" s="31" t="str">
         <f>Sheet1!W8</f>
         <v/>
       </c>
-      <c r="X7" s="32" t="str">
+      <c r="X7" s="31" t="str">
         <f>Sheet1!X8</f>
         <v/>
       </c>
-      <c r="Y7" s="32" t="str">
+      <c r="Y7" s="31" t="str">
         <f>Sheet1!Y8</f>
         <v/>
       </c>
-      <c r="Z7" s="32">
+      <c r="Z7" s="31">
         <f>Sheet1!Z8</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="32" t="str">
+      <c r="AA7" s="31" t="str">
         <f>Sheet1!AA8</f>
         <v/>
       </c>
-      <c r="AB7" s="32" t="str">
+      <c r="AB7" s="31" t="str">
         <f>Sheet1!AB8</f>
         <v/>
       </c>
-      <c r="AC7" s="32" t="str">
+      <c r="AC7" s="31" t="str">
         <f>Sheet1!AC8</f>
         <v/>
       </c>
-      <c r="AD7" s="32">
+      <c r="AD7" s="31">
         <f>Sheet1!AD8</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="32" t="str">
+      <c r="AE7" s="31" t="str">
         <f>Sheet1!AE8</f>
         <v/>
       </c>
-      <c r="AF7" s="32" t="str">
+      <c r="AF7" s="31" t="str">
         <f>Sheet1!AF8</f>
         <v/>
       </c>
-      <c r="AG7" s="32" t="str">
+      <c r="AG7" s="31" t="str">
         <f>Sheet1!AG8</f>
         <v/>
       </c>
-      <c r="AH7" s="32">
+      <c r="AH7" s="31">
         <f>Sheet1!AH8</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="32" t="str">
+      <c r="AI7" s="31" t="str">
         <f>Sheet1!AI8</f>
         <v/>
       </c>
-      <c r="AJ7" s="32" t="str">
+      <c r="AJ7" s="31" t="str">
         <f>Sheet1!AJ8</f>
         <v/>
       </c>
-      <c r="AK7" s="32" t="str">
+      <c r="AK7" s="31" t="str">
         <f>Sheet1!AK8</f>
         <v/>
       </c>
-      <c r="AL7" s="32">
+      <c r="AL7" s="31">
         <f>Sheet1!AL8</f>
         <v>0</v>
       </c>
-      <c r="AM7" s="32" t="str">
+      <c r="AM7" s="31" t="str">
         <f>Sheet1!AM8</f>
         <v/>
       </c>
-      <c r="AN7" s="32" t="str">
+      <c r="AN7" s="31" t="str">
         <f>Sheet1!AN8</f>
         <v/>
       </c>
-      <c r="AO7" s="32" t="str">
+      <c r="AO7" s="31" t="str">
         <f>Sheet1!AO8</f>
         <v/>
       </c>
-      <c r="AP7" s="32">
+      <c r="AP7" s="31">
         <f>Sheet1!AP8</f>
         <v>0</v>
       </c>
-      <c r="AQ7" s="32" t="str">
+      <c r="AQ7" s="31" t="str">
         <f>Sheet1!AQ8</f>
         <v/>
       </c>
-      <c r="AR7" s="32" t="str">
+      <c r="AR7" s="31" t="str">
         <f>Sheet1!AR8</f>
         <v/>
       </c>
-      <c r="AS7" s="32" t="str">
+      <c r="AS7" s="31" t="str">
         <f>Sheet1!AS8</f>
         <v/>
       </c>
-      <c r="AT7" s="32">
+      <c r="AT7" s="31">
         <f>Sheet1!AT8</f>
         <v>0</v>
       </c>
-      <c r="AU7" s="32" t="str">
+      <c r="AU7" s="31" t="str">
         <f>Sheet1!AU8</f>
         <v/>
       </c>
-      <c r="AV7" s="32" t="str">
+      <c r="AV7" s="31" t="str">
         <f>Sheet1!AV8</f>
         <v/>
       </c>
-      <c r="AW7" s="32" t="str">
+      <c r="AW7" s="31" t="str">
         <f>Sheet1!AW8</f>
         <v/>
       </c>
-      <c r="AX7" s="32">
+      <c r="AX7" s="31">
         <f>Sheet1!AX8</f>
         <v>0</v>
       </c>
-      <c r="AY7" s="32" t="str">
+      <c r="AY7" s="31" t="str">
         <f>Sheet1!AY8</f>
         <v/>
       </c>
-      <c r="AZ7" s="32" t="str">
+      <c r="AZ7" s="31" t="str">
         <f>Sheet1!AZ8</f>
         <v/>
       </c>
-      <c r="BA7" s="32" t="str">
+      <c r="BA7" s="31" t="str">
         <f>Sheet1!BA8</f>
         <v/>
       </c>
-      <c r="BB7" s="32">
+      <c r="BB7" s="31">
         <f>Sheet1!BB8</f>
         <v>0</v>
       </c>
-      <c r="BC7" s="32" t="str">
+      <c r="BC7" s="31" t="str">
         <f>Sheet1!BC8</f>
         <v/>
       </c>
-      <c r="BD7" s="32" t="str">
+      <c r="BD7" s="31" t="str">
         <f>Sheet1!BD8</f>
         <v/>
       </c>
-      <c r="BE7" s="32" t="str">
+      <c r="BE7" s="31" t="str">
         <f>Sheet1!BE8</f>
         <v/>
       </c>
-      <c r="BF7" s="32">
+      <c r="BF7" s="31">
         <f>Sheet1!BF8</f>
         <v>0</v>
       </c>
-      <c r="BG7" s="32" t="str">
+      <c r="BG7" s="31" t="str">
         <f>Sheet1!BG8</f>
         <v/>
       </c>
-      <c r="BH7" s="32" t="str">
+      <c r="BH7" s="31" t="str">
         <f>Sheet1!BH8</f>
         <v/>
       </c>
-      <c r="BI7" s="32" t="str">
+      <c r="BI7" s="31" t="str">
         <f>Sheet1!BI8</f>
         <v/>
       </c>
-      <c r="BJ7" s="32">
+      <c r="BJ7" s="31">
         <f>Sheet1!BJ8</f>
         <v>0</v>
       </c>
@@ -4869,251 +4863,251 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="32" t="str">
+      <c r="A8" s="31" t="str">
         <f>Sheet1!A9</f>
         <v>Alpine</v>
       </c>
-      <c r="B8" s="32" t="str">
+      <c r="B8" s="31" t="str">
         <f>Sheet1!B9</f>
         <v>Eddie</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <f>Sheet1!C9</f>
         <v>8</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <f>Sheet1!D9</f>
         <v>13</v>
       </c>
-      <c r="E8" s="32" t="str">
+      <c r="E8" s="31" t="str">
         <f>Sheet1!E9</f>
         <v>N</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="31">
         <f>Sheet1!F9</f>
         <v>4</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="31">
         <f>Sheet1!G9</f>
         <v>7</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="31">
         <f>Sheet1!H9</f>
         <v>9</v>
       </c>
-      <c r="I8" s="32" t="str">
+      <c r="I8" s="31" t="str">
         <f>Sheet1!I9</f>
         <v>N</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="31">
         <f>Sheet1!J9</f>
         <v>6</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="31">
         <f>Sheet1!K9</f>
         <v>13</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="31">
         <f>Sheet1!L9</f>
         <v>15</v>
       </c>
-      <c r="M8" s="32" t="str">
+      <c r="M8" s="31" t="str">
         <f>Sheet1!M9</f>
         <v>N</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="31">
         <f>Sheet1!N9</f>
         <v>1</v>
       </c>
-      <c r="O8" s="32" t="str">
+      <c r="O8" s="31" t="str">
         <f>Sheet1!O9</f>
         <v/>
       </c>
-      <c r="P8" s="32" t="str">
+      <c r="P8" s="31" t="str">
         <f>Sheet1!P9</f>
         <v/>
       </c>
-      <c r="Q8" s="32" t="str">
+      <c r="Q8" s="31" t="str">
         <f>Sheet1!Q9</f>
         <v/>
       </c>
-      <c r="R8" s="32">
+      <c r="R8" s="31">
         <f>Sheet1!R9</f>
         <v>0</v>
       </c>
-      <c r="S8" s="32" t="str">
+      <c r="S8" s="31" t="str">
         <f>Sheet1!S9</f>
         <v/>
       </c>
-      <c r="T8" s="32" t="str">
+      <c r="T8" s="31" t="str">
         <f>Sheet1!T9</f>
         <v/>
       </c>
-      <c r="U8" s="32" t="str">
+      <c r="U8" s="31" t="str">
         <f>Sheet1!U9</f>
         <v/>
       </c>
-      <c r="V8" s="32">
+      <c r="V8" s="31">
         <f>Sheet1!V9</f>
         <v>0</v>
       </c>
-      <c r="W8" s="32" t="str">
+      <c r="W8" s="31" t="str">
         <f>Sheet1!W9</f>
         <v/>
       </c>
-      <c r="X8" s="32" t="str">
+      <c r="X8" s="31" t="str">
         <f>Sheet1!X9</f>
         <v/>
       </c>
-      <c r="Y8" s="32" t="str">
+      <c r="Y8" s="31" t="str">
         <f>Sheet1!Y9</f>
         <v/>
       </c>
-      <c r="Z8" s="32">
+      <c r="Z8" s="31">
         <f>Sheet1!Z9</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="32" t="str">
+      <c r="AA8" s="31" t="str">
         <f>Sheet1!AA9</f>
         <v/>
       </c>
-      <c r="AB8" s="32" t="str">
+      <c r="AB8" s="31" t="str">
         <f>Sheet1!AB9</f>
         <v/>
       </c>
-      <c r="AC8" s="32" t="str">
+      <c r="AC8" s="31" t="str">
         <f>Sheet1!AC9</f>
         <v/>
       </c>
-      <c r="AD8" s="32">
+      <c r="AD8" s="31">
         <f>Sheet1!AD9</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="32" t="str">
+      <c r="AE8" s="31" t="str">
         <f>Sheet1!AE9</f>
         <v/>
       </c>
-      <c r="AF8" s="32" t="str">
+      <c r="AF8" s="31" t="str">
         <f>Sheet1!AF9</f>
         <v/>
       </c>
-      <c r="AG8" s="32" t="str">
+      <c r="AG8" s="31" t="str">
         <f>Sheet1!AG9</f>
         <v/>
       </c>
-      <c r="AH8" s="32">
+      <c r="AH8" s="31">
         <f>Sheet1!AH9</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="32" t="str">
+      <c r="AI8" s="31" t="str">
         <f>Sheet1!AI9</f>
         <v/>
       </c>
-      <c r="AJ8" s="32" t="str">
+      <c r="AJ8" s="31" t="str">
         <f>Sheet1!AJ9</f>
         <v/>
       </c>
-      <c r="AK8" s="32" t="str">
+      <c r="AK8" s="31" t="str">
         <f>Sheet1!AK9</f>
         <v/>
       </c>
-      <c r="AL8" s="32">
+      <c r="AL8" s="31">
         <f>Sheet1!AL9</f>
         <v>0</v>
       </c>
-      <c r="AM8" s="32" t="str">
+      <c r="AM8" s="31" t="str">
         <f>Sheet1!AM9</f>
         <v/>
       </c>
-      <c r="AN8" s="32" t="str">
+      <c r="AN8" s="31" t="str">
         <f>Sheet1!AN9</f>
         <v/>
       </c>
-      <c r="AO8" s="32" t="str">
+      <c r="AO8" s="31" t="str">
         <f>Sheet1!AO9</f>
         <v/>
       </c>
-      <c r="AP8" s="32">
+      <c r="AP8" s="31">
         <f>Sheet1!AP9</f>
         <v>0</v>
       </c>
-      <c r="AQ8" s="32" t="str">
+      <c r="AQ8" s="31" t="str">
         <f>Sheet1!AQ9</f>
         <v/>
       </c>
-      <c r="AR8" s="32" t="str">
+      <c r="AR8" s="31" t="str">
         <f>Sheet1!AR9</f>
         <v/>
       </c>
-      <c r="AS8" s="32" t="str">
+      <c r="AS8" s="31" t="str">
         <f>Sheet1!AS9</f>
         <v/>
       </c>
-      <c r="AT8" s="32">
+      <c r="AT8" s="31">
         <f>Sheet1!AT9</f>
         <v>0</v>
       </c>
-      <c r="AU8" s="32" t="str">
+      <c r="AU8" s="31" t="str">
         <f>Sheet1!AU9</f>
         <v/>
       </c>
-      <c r="AV8" s="32" t="str">
+      <c r="AV8" s="31" t="str">
         <f>Sheet1!AV9</f>
         <v/>
       </c>
-      <c r="AW8" s="32" t="str">
+      <c r="AW8" s="31" t="str">
         <f>Sheet1!AW9</f>
         <v/>
       </c>
-      <c r="AX8" s="32">
+      <c r="AX8" s="31">
         <f>Sheet1!AX9</f>
         <v>0</v>
       </c>
-      <c r="AY8" s="32" t="str">
+      <c r="AY8" s="31" t="str">
         <f>Sheet1!AY9</f>
         <v/>
       </c>
-      <c r="AZ8" s="32" t="str">
+      <c r="AZ8" s="31" t="str">
         <f>Sheet1!AZ9</f>
         <v/>
       </c>
-      <c r="BA8" s="32" t="str">
+      <c r="BA8" s="31" t="str">
         <f>Sheet1!BA9</f>
         <v/>
       </c>
-      <c r="BB8" s="32">
+      <c r="BB8" s="31">
         <f>Sheet1!BB9</f>
         <v>0</v>
       </c>
-      <c r="BC8" s="32" t="str">
+      <c r="BC8" s="31" t="str">
         <f>Sheet1!BC9</f>
         <v/>
       </c>
-      <c r="BD8" s="32" t="str">
+      <c r="BD8" s="31" t="str">
         <f>Sheet1!BD9</f>
         <v/>
       </c>
-      <c r="BE8" s="32" t="str">
+      <c r="BE8" s="31" t="str">
         <f>Sheet1!BE9</f>
         <v/>
       </c>
-      <c r="BF8" s="32">
+      <c r="BF8" s="31">
         <f>Sheet1!BF9</f>
         <v>0</v>
       </c>
-      <c r="BG8" s="32" t="str">
+      <c r="BG8" s="31" t="str">
         <f>Sheet1!BG9</f>
         <v/>
       </c>
-      <c r="BH8" s="32" t="str">
+      <c r="BH8" s="31" t="str">
         <f>Sheet1!BH9</f>
         <v/>
       </c>
-      <c r="BI8" s="32" t="str">
+      <c r="BI8" s="31" t="str">
         <f>Sheet1!BI9</f>
         <v/>
       </c>
-      <c r="BJ8" s="32">
+      <c r="BJ8" s="31">
         <f>Sheet1!BJ9</f>
         <v>0</v>
       </c>
@@ -5122,251 +5116,251 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="32" t="str">
+      <c r="A9" s="31" t="str">
         <f>Sheet1!A10</f>
         <v>Alpine</v>
       </c>
-      <c r="B9" s="32" t="str">
+      <c r="B9" s="31" t="str">
         <f>Sheet1!B10</f>
         <v>Joshua</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <f>Sheet1!C10</f>
         <v>1</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <f>Sheet1!D10</f>
         <v>1</v>
       </c>
-      <c r="E9" s="32" t="str">
+      <c r="E9" s="31" t="str">
         <f>Sheet1!E10</f>
         <v>Y</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <f>Sheet1!F10</f>
         <v>26</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <f>Sheet1!G10</f>
         <v>1</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <f>Sheet1!H10</f>
         <v>2</v>
       </c>
-      <c r="I9" s="32" t="str">
+      <c r="I9" s="31" t="str">
         <f>Sheet1!I10</f>
         <v>Y</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="31">
         <f>Sheet1!J10</f>
         <v>26</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="31">
         <f>Sheet1!K10</f>
         <v>2</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="31">
         <f>Sheet1!L10</f>
         <v>1</v>
       </c>
-      <c r="M9" s="32" t="str">
+      <c r="M9" s="31" t="str">
         <f>Sheet1!M10</f>
         <v>Y</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="31">
         <f>Sheet1!N10</f>
         <v>19</v>
       </c>
-      <c r="O9" s="32" t="str">
+      <c r="O9" s="31" t="str">
         <f>Sheet1!O10</f>
         <v/>
       </c>
-      <c r="P9" s="32" t="str">
+      <c r="P9" s="31" t="str">
         <f>Sheet1!P10</f>
         <v/>
       </c>
-      <c r="Q9" s="32" t="str">
+      <c r="Q9" s="31" t="str">
         <f>Sheet1!Q10</f>
         <v/>
       </c>
-      <c r="R9" s="32">
+      <c r="R9" s="31">
         <f>Sheet1!R10</f>
         <v>0</v>
       </c>
-      <c r="S9" s="32" t="str">
+      <c r="S9" s="31" t="str">
         <f>Sheet1!S10</f>
         <v/>
       </c>
-      <c r="T9" s="32" t="str">
+      <c r="T9" s="31" t="str">
         <f>Sheet1!T10</f>
         <v/>
       </c>
-      <c r="U9" s="32" t="str">
+      <c r="U9" s="31" t="str">
         <f>Sheet1!U10</f>
         <v/>
       </c>
-      <c r="V9" s="32">
+      <c r="V9" s="31">
         <f>Sheet1!V10</f>
         <v>0</v>
       </c>
-      <c r="W9" s="32" t="str">
+      <c r="W9" s="31" t="str">
         <f>Sheet1!W10</f>
         <v/>
       </c>
-      <c r="X9" s="32" t="str">
+      <c r="X9" s="31" t="str">
         <f>Sheet1!X10</f>
         <v/>
       </c>
-      <c r="Y9" s="32" t="str">
+      <c r="Y9" s="31" t="str">
         <f>Sheet1!Y10</f>
         <v/>
       </c>
-      <c r="Z9" s="32">
+      <c r="Z9" s="31">
         <f>Sheet1!Z10</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="32" t="str">
+      <c r="AA9" s="31" t="str">
         <f>Sheet1!AA10</f>
         <v/>
       </c>
-      <c r="AB9" s="32" t="str">
+      <c r="AB9" s="31" t="str">
         <f>Sheet1!AB10</f>
         <v/>
       </c>
-      <c r="AC9" s="32" t="str">
+      <c r="AC9" s="31" t="str">
         <f>Sheet1!AC10</f>
         <v/>
       </c>
-      <c r="AD9" s="32">
+      <c r="AD9" s="31">
         <f>Sheet1!AD10</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="32" t="str">
+      <c r="AE9" s="31" t="str">
         <f>Sheet1!AE10</f>
         <v/>
       </c>
-      <c r="AF9" s="32" t="str">
+      <c r="AF9" s="31" t="str">
         <f>Sheet1!AF10</f>
         <v/>
       </c>
-      <c r="AG9" s="32" t="str">
+      <c r="AG9" s="31" t="str">
         <f>Sheet1!AG10</f>
         <v/>
       </c>
-      <c r="AH9" s="32">
+      <c r="AH9" s="31">
         <f>Sheet1!AH10</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="32" t="str">
+      <c r="AI9" s="31" t="str">
         <f>Sheet1!AI10</f>
         <v/>
       </c>
-      <c r="AJ9" s="32" t="str">
+      <c r="AJ9" s="31" t="str">
         <f>Sheet1!AJ10</f>
         <v/>
       </c>
-      <c r="AK9" s="32" t="str">
+      <c r="AK9" s="31" t="str">
         <f>Sheet1!AK10</f>
         <v/>
       </c>
-      <c r="AL9" s="32">
+      <c r="AL9" s="31">
         <f>Sheet1!AL10</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="32" t="str">
+      <c r="AM9" s="31" t="str">
         <f>Sheet1!AM10</f>
         <v/>
       </c>
-      <c r="AN9" s="32" t="str">
+      <c r="AN9" s="31" t="str">
         <f>Sheet1!AN10</f>
         <v/>
       </c>
-      <c r="AO9" s="32" t="str">
+      <c r="AO9" s="31" t="str">
         <f>Sheet1!AO10</f>
         <v/>
       </c>
-      <c r="AP9" s="32">
+      <c r="AP9" s="31">
         <f>Sheet1!AP10</f>
         <v>0</v>
       </c>
-      <c r="AQ9" s="32" t="str">
+      <c r="AQ9" s="31" t="str">
         <f>Sheet1!AQ10</f>
         <v/>
       </c>
-      <c r="AR9" s="32" t="str">
+      <c r="AR9" s="31" t="str">
         <f>Sheet1!AR10</f>
         <v/>
       </c>
-      <c r="AS9" s="32" t="str">
+      <c r="AS9" s="31" t="str">
         <f>Sheet1!AS10</f>
         <v/>
       </c>
-      <c r="AT9" s="32">
+      <c r="AT9" s="31">
         <f>Sheet1!AT10</f>
         <v>0</v>
       </c>
-      <c r="AU9" s="32" t="str">
+      <c r="AU9" s="31" t="str">
         <f>Sheet1!AU10</f>
         <v/>
       </c>
-      <c r="AV9" s="32" t="str">
+      <c r="AV9" s="31" t="str">
         <f>Sheet1!AV10</f>
         <v/>
       </c>
-      <c r="AW9" s="32" t="str">
+      <c r="AW9" s="31" t="str">
         <f>Sheet1!AW10</f>
         <v/>
       </c>
-      <c r="AX9" s="32">
+      <c r="AX9" s="31">
         <f>Sheet1!AX10</f>
         <v>0</v>
       </c>
-      <c r="AY9" s="32" t="str">
+      <c r="AY9" s="31" t="str">
         <f>Sheet1!AY10</f>
         <v/>
       </c>
-      <c r="AZ9" s="32" t="str">
+      <c r="AZ9" s="31" t="str">
         <f>Sheet1!AZ10</f>
         <v/>
       </c>
-      <c r="BA9" s="32" t="str">
+      <c r="BA9" s="31" t="str">
         <f>Sheet1!BA10</f>
         <v/>
       </c>
-      <c r="BB9" s="32">
+      <c r="BB9" s="31">
         <f>Sheet1!BB10</f>
         <v>0</v>
       </c>
-      <c r="BC9" s="32" t="str">
+      <c r="BC9" s="31" t="str">
         <f>Sheet1!BC10</f>
         <v/>
       </c>
-      <c r="BD9" s="32" t="str">
+      <c r="BD9" s="31" t="str">
         <f>Sheet1!BD10</f>
         <v/>
       </c>
-      <c r="BE9" s="32" t="str">
+      <c r="BE9" s="31" t="str">
         <f>Sheet1!BE10</f>
         <v/>
       </c>
-      <c r="BF9" s="32">
+      <c r="BF9" s="31">
         <f>Sheet1!BF10</f>
         <v>0</v>
       </c>
-      <c r="BG9" s="32" t="str">
+      <c r="BG9" s="31" t="str">
         <f>Sheet1!BG10</f>
         <v/>
       </c>
-      <c r="BH9" s="32" t="str">
+      <c r="BH9" s="31" t="str">
         <f>Sheet1!BH10</f>
         <v/>
       </c>
-      <c r="BI9" s="32" t="str">
+      <c r="BI9" s="31" t="str">
         <f>Sheet1!BI10</f>
         <v/>
       </c>
-      <c r="BJ9" s="32">
+      <c r="BJ9" s="31">
         <f>Sheet1!BJ10</f>
         <v>0</v>
       </c>
@@ -5375,251 +5369,251 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="32" t="str">
+      <c r="A10" s="31" t="str">
         <f>Sheet1!A11</f>
         <v>Red Bull</v>
       </c>
-      <c r="B10" s="32" t="str">
+      <c r="B10" s="31" t="str">
         <f>Sheet1!B11</f>
         <v>Yeti</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="31">
         <f>Sheet1!C11</f>
         <v>14</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <f>Sheet1!D11</f>
         <v>19</v>
       </c>
-      <c r="E10" s="32" t="str">
+      <c r="E10" s="31" t="str">
         <f>Sheet1!E11</f>
         <v>N</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <f>Sheet1!F11</f>
         <v>1</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="31">
         <f>Sheet1!G11</f>
         <v>6</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="31">
         <f>Sheet1!H11</f>
         <v>5</v>
       </c>
-      <c r="I10" s="32" t="str">
+      <c r="I10" s="31" t="str">
         <f>Sheet1!I11</f>
         <v>N</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="31">
         <f>Sheet1!J11</f>
         <v>8</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="31">
         <f>Sheet1!K11</f>
         <v>21</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="31">
         <f>Sheet1!L11</f>
         <v>20</v>
       </c>
-      <c r="M10" s="32" t="str">
+      <c r="M10" s="31" t="str">
         <f>Sheet1!M11</f>
         <v>N</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="31">
         <f>Sheet1!N11</f>
         <v>0</v>
       </c>
-      <c r="O10" s="32" t="str">
+      <c r="O10" s="31" t="str">
         <f>Sheet1!O11</f>
         <v/>
       </c>
-      <c r="P10" s="32" t="str">
+      <c r="P10" s="31" t="str">
         <f>Sheet1!P11</f>
         <v/>
       </c>
-      <c r="Q10" s="32" t="str">
+      <c r="Q10" s="31" t="str">
         <f>Sheet1!Q11</f>
         <v/>
       </c>
-      <c r="R10" s="32">
+      <c r="R10" s="31">
         <f>Sheet1!R11</f>
         <v>0</v>
       </c>
-      <c r="S10" s="32" t="str">
+      <c r="S10" s="31" t="str">
         <f>Sheet1!S11</f>
         <v/>
       </c>
-      <c r="T10" s="32" t="str">
+      <c r="T10" s="31" t="str">
         <f>Sheet1!T11</f>
         <v/>
       </c>
-      <c r="U10" s="32" t="str">
+      <c r="U10" s="31" t="str">
         <f>Sheet1!U11</f>
         <v/>
       </c>
-      <c r="V10" s="32">
+      <c r="V10" s="31">
         <f>Sheet1!V11</f>
         <v>0</v>
       </c>
-      <c r="W10" s="32" t="str">
+      <c r="W10" s="31" t="str">
         <f>Sheet1!W11</f>
         <v/>
       </c>
-      <c r="X10" s="32" t="str">
+      <c r="X10" s="31" t="str">
         <f>Sheet1!X11</f>
         <v/>
       </c>
-      <c r="Y10" s="32" t="str">
+      <c r="Y10" s="31" t="str">
         <f>Sheet1!Y11</f>
         <v/>
       </c>
-      <c r="Z10" s="32">
+      <c r="Z10" s="31">
         <f>Sheet1!Z11</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="32" t="str">
+      <c r="AA10" s="31" t="str">
         <f>Sheet1!AA11</f>
         <v/>
       </c>
-      <c r="AB10" s="32" t="str">
+      <c r="AB10" s="31" t="str">
         <f>Sheet1!AB11</f>
         <v/>
       </c>
-      <c r="AC10" s="32" t="str">
+      <c r="AC10" s="31" t="str">
         <f>Sheet1!AC11</f>
         <v/>
       </c>
-      <c r="AD10" s="32">
+      <c r="AD10" s="31">
         <f>Sheet1!AD11</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="32" t="str">
+      <c r="AE10" s="31" t="str">
         <f>Sheet1!AE11</f>
         <v/>
       </c>
-      <c r="AF10" s="32" t="str">
+      <c r="AF10" s="31" t="str">
         <f>Sheet1!AF11</f>
         <v/>
       </c>
-      <c r="AG10" s="32" t="str">
+      <c r="AG10" s="31" t="str">
         <f>Sheet1!AG11</f>
         <v/>
       </c>
-      <c r="AH10" s="32">
+      <c r="AH10" s="31">
         <f>Sheet1!AH11</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="32" t="str">
+      <c r="AI10" s="31" t="str">
         <f>Sheet1!AI11</f>
         <v/>
       </c>
-      <c r="AJ10" s="32" t="str">
+      <c r="AJ10" s="31" t="str">
         <f>Sheet1!AJ11</f>
         <v/>
       </c>
-      <c r="AK10" s="32" t="str">
+      <c r="AK10" s="31" t="str">
         <f>Sheet1!AK11</f>
         <v/>
       </c>
-      <c r="AL10" s="32">
+      <c r="AL10" s="31">
         <f>Sheet1!AL11</f>
         <v>0</v>
       </c>
-      <c r="AM10" s="32" t="str">
+      <c r="AM10" s="31" t="str">
         <f>Sheet1!AM11</f>
         <v/>
       </c>
-      <c r="AN10" s="32" t="str">
+      <c r="AN10" s="31" t="str">
         <f>Sheet1!AN11</f>
         <v/>
       </c>
-      <c r="AO10" s="32" t="str">
+      <c r="AO10" s="31" t="str">
         <f>Sheet1!AO11</f>
         <v/>
       </c>
-      <c r="AP10" s="32">
+      <c r="AP10" s="31">
         <f>Sheet1!AP11</f>
         <v>0</v>
       </c>
-      <c r="AQ10" s="32" t="str">
+      <c r="AQ10" s="31" t="str">
         <f>Sheet1!AQ11</f>
         <v/>
       </c>
-      <c r="AR10" s="32" t="str">
+      <c r="AR10" s="31" t="str">
         <f>Sheet1!AR11</f>
         <v/>
       </c>
-      <c r="AS10" s="32" t="str">
+      <c r="AS10" s="31" t="str">
         <f>Sheet1!AS11</f>
         <v/>
       </c>
-      <c r="AT10" s="32">
+      <c r="AT10" s="31">
         <f>Sheet1!AT11</f>
         <v>0</v>
       </c>
-      <c r="AU10" s="32" t="str">
+      <c r="AU10" s="31" t="str">
         <f>Sheet1!AU11</f>
         <v/>
       </c>
-      <c r="AV10" s="32" t="str">
+      <c r="AV10" s="31" t="str">
         <f>Sheet1!AV11</f>
         <v/>
       </c>
-      <c r="AW10" s="32" t="str">
+      <c r="AW10" s="31" t="str">
         <f>Sheet1!AW11</f>
         <v/>
       </c>
-      <c r="AX10" s="32">
+      <c r="AX10" s="31">
         <f>Sheet1!AX11</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="32" t="str">
+      <c r="AY10" s="31" t="str">
         <f>Sheet1!AY11</f>
         <v/>
       </c>
-      <c r="AZ10" s="32" t="str">
+      <c r="AZ10" s="31" t="str">
         <f>Sheet1!AZ11</f>
         <v/>
       </c>
-      <c r="BA10" s="32" t="str">
+      <c r="BA10" s="31" t="str">
         <f>Sheet1!BA11</f>
         <v/>
       </c>
-      <c r="BB10" s="32">
+      <c r="BB10" s="31">
         <f>Sheet1!BB11</f>
         <v>0</v>
       </c>
-      <c r="BC10" s="32" t="str">
+      <c r="BC10" s="31" t="str">
         <f>Sheet1!BC11</f>
         <v/>
       </c>
-      <c r="BD10" s="32" t="str">
+      <c r="BD10" s="31" t="str">
         <f>Sheet1!BD11</f>
         <v/>
       </c>
-      <c r="BE10" s="32" t="str">
+      <c r="BE10" s="31" t="str">
         <f>Sheet1!BE11</f>
         <v/>
       </c>
-      <c r="BF10" s="32">
+      <c r="BF10" s="31">
         <f>Sheet1!BF11</f>
         <v>0</v>
       </c>
-      <c r="BG10" s="32" t="str">
+      <c r="BG10" s="31" t="str">
         <f>Sheet1!BG11</f>
         <v/>
       </c>
-      <c r="BH10" s="32" t="str">
+      <c r="BH10" s="31" t="str">
         <f>Sheet1!BH11</f>
         <v/>
       </c>
-      <c r="BI10" s="32" t="str">
+      <c r="BI10" s="31" t="str">
         <f>Sheet1!BI11</f>
         <v/>
       </c>
-      <c r="BJ10" s="32">
+      <c r="BJ10" s="31">
         <f>Sheet1!BJ11</f>
         <v>0</v>
       </c>
@@ -5628,251 +5622,251 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="32" t="str">
+      <c r="A11" s="31" t="str">
         <f>Sheet1!A12</f>
         <v>Red Bull</v>
       </c>
-      <c r="B11" s="32" t="str">
+      <c r="B11" s="31" t="str">
         <f>Sheet1!B12</f>
         <v>Boz</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="31">
         <f>Sheet1!C12</f>
         <v>17</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <f>Sheet1!D12</f>
         <v>8</v>
       </c>
-      <c r="E11" s="32" t="str">
+      <c r="E11" s="31" t="str">
         <f>Sheet1!E12</f>
         <v>N</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="31">
         <f>Sheet1!F12</f>
         <v>1</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="31">
         <f>Sheet1!G12</f>
         <v>11</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="31">
         <f>Sheet1!H12</f>
         <v>7</v>
       </c>
-      <c r="I11" s="32" t="str">
+      <c r="I11" s="31" t="str">
         <f>Sheet1!I12</f>
         <v>N</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="31">
         <f>Sheet1!J12</f>
         <v>1</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="31">
         <f>Sheet1!K12</f>
         <v>21</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="31">
         <f>Sheet1!L12</f>
         <v>19</v>
       </c>
-      <c r="M11" s="32" t="str">
+      <c r="M11" s="31" t="str">
         <f>Sheet1!M12</f>
         <v>N</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="31">
         <f>Sheet1!N12</f>
         <v>0</v>
       </c>
-      <c r="O11" s="32" t="str">
+      <c r="O11" s="31" t="str">
         <f>Sheet1!O12</f>
         <v/>
       </c>
-      <c r="P11" s="32" t="str">
+      <c r="P11" s="31" t="str">
         <f>Sheet1!P12</f>
         <v/>
       </c>
-      <c r="Q11" s="32" t="str">
+      <c r="Q11" s="31" t="str">
         <f>Sheet1!Q12</f>
         <v/>
       </c>
-      <c r="R11" s="32">
+      <c r="R11" s="31">
         <f>Sheet1!R12</f>
         <v>0</v>
       </c>
-      <c r="S11" s="32" t="str">
+      <c r="S11" s="31" t="str">
         <f>Sheet1!S12</f>
         <v/>
       </c>
-      <c r="T11" s="32" t="str">
+      <c r="T11" s="31" t="str">
         <f>Sheet1!T12</f>
         <v/>
       </c>
-      <c r="U11" s="32" t="str">
+      <c r="U11" s="31" t="str">
         <f>Sheet1!U12</f>
         <v/>
       </c>
-      <c r="V11" s="32">
+      <c r="V11" s="31">
         <f>Sheet1!V12</f>
         <v>0</v>
       </c>
-      <c r="W11" s="32" t="str">
+      <c r="W11" s="31" t="str">
         <f>Sheet1!W12</f>
         <v/>
       </c>
-      <c r="X11" s="32" t="str">
+      <c r="X11" s="31" t="str">
         <f>Sheet1!X12</f>
         <v/>
       </c>
-      <c r="Y11" s="32" t="str">
+      <c r="Y11" s="31" t="str">
         <f>Sheet1!Y12</f>
         <v/>
       </c>
-      <c r="Z11" s="32">
+      <c r="Z11" s="31">
         <f>Sheet1!Z12</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="32" t="str">
+      <c r="AA11" s="31" t="str">
         <f>Sheet1!AA12</f>
         <v/>
       </c>
-      <c r="AB11" s="32" t="str">
+      <c r="AB11" s="31" t="str">
         <f>Sheet1!AB12</f>
         <v/>
       </c>
-      <c r="AC11" s="32" t="str">
+      <c r="AC11" s="31" t="str">
         <f>Sheet1!AC12</f>
         <v/>
       </c>
-      <c r="AD11" s="32">
+      <c r="AD11" s="31">
         <f>Sheet1!AD12</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="32" t="str">
+      <c r="AE11" s="31" t="str">
         <f>Sheet1!AE12</f>
         <v/>
       </c>
-      <c r="AF11" s="32" t="str">
+      <c r="AF11" s="31" t="str">
         <f>Sheet1!AF12</f>
         <v/>
       </c>
-      <c r="AG11" s="32" t="str">
+      <c r="AG11" s="31" t="str">
         <f>Sheet1!AG12</f>
         <v/>
       </c>
-      <c r="AH11" s="32">
+      <c r="AH11" s="31">
         <f>Sheet1!AH12</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="32" t="str">
+      <c r="AI11" s="31" t="str">
         <f>Sheet1!AI12</f>
         <v/>
       </c>
-      <c r="AJ11" s="32" t="str">
+      <c r="AJ11" s="31" t="str">
         <f>Sheet1!AJ12</f>
         <v/>
       </c>
-      <c r="AK11" s="32" t="str">
+      <c r="AK11" s="31" t="str">
         <f>Sheet1!AK12</f>
         <v/>
       </c>
-      <c r="AL11" s="32">
+      <c r="AL11" s="31">
         <f>Sheet1!AL12</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="32" t="str">
+      <c r="AM11" s="31" t="str">
         <f>Sheet1!AM12</f>
         <v/>
       </c>
-      <c r="AN11" s="32" t="str">
+      <c r="AN11" s="31" t="str">
         <f>Sheet1!AN12</f>
         <v/>
       </c>
-      <c r="AO11" s="32" t="str">
+      <c r="AO11" s="31" t="str">
         <f>Sheet1!AO12</f>
         <v/>
       </c>
-      <c r="AP11" s="32">
+      <c r="AP11" s="31">
         <f>Sheet1!AP12</f>
         <v>0</v>
       </c>
-      <c r="AQ11" s="32" t="str">
+      <c r="AQ11" s="31" t="str">
         <f>Sheet1!AQ12</f>
         <v/>
       </c>
-      <c r="AR11" s="32" t="str">
+      <c r="AR11" s="31" t="str">
         <f>Sheet1!AR12</f>
         <v/>
       </c>
-      <c r="AS11" s="32" t="str">
+      <c r="AS11" s="31" t="str">
         <f>Sheet1!AS12</f>
         <v/>
       </c>
-      <c r="AT11" s="32">
+      <c r="AT11" s="31">
         <f>Sheet1!AT12</f>
         <v>0</v>
       </c>
-      <c r="AU11" s="32" t="str">
+      <c r="AU11" s="31" t="str">
         <f>Sheet1!AU12</f>
         <v/>
       </c>
-      <c r="AV11" s="32" t="str">
+      <c r="AV11" s="31" t="str">
         <f>Sheet1!AV12</f>
         <v/>
       </c>
-      <c r="AW11" s="32" t="str">
+      <c r="AW11" s="31" t="str">
         <f>Sheet1!AW12</f>
         <v/>
       </c>
-      <c r="AX11" s="32">
+      <c r="AX11" s="31">
         <f>Sheet1!AX12</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="32" t="str">
+      <c r="AY11" s="31" t="str">
         <f>Sheet1!AY12</f>
         <v/>
       </c>
-      <c r="AZ11" s="32" t="str">
+      <c r="AZ11" s="31" t="str">
         <f>Sheet1!AZ12</f>
         <v/>
       </c>
-      <c r="BA11" s="32" t="str">
+      <c r="BA11" s="31" t="str">
         <f>Sheet1!BA12</f>
         <v/>
       </c>
-      <c r="BB11" s="32">
+      <c r="BB11" s="31">
         <f>Sheet1!BB12</f>
         <v>0</v>
       </c>
-      <c r="BC11" s="32" t="str">
+      <c r="BC11" s="31" t="str">
         <f>Sheet1!BC12</f>
         <v/>
       </c>
-      <c r="BD11" s="32" t="str">
+      <c r="BD11" s="31" t="str">
         <f>Sheet1!BD12</f>
         <v/>
       </c>
-      <c r="BE11" s="32" t="str">
+      <c r="BE11" s="31" t="str">
         <f>Sheet1!BE12</f>
         <v/>
       </c>
-      <c r="BF11" s="32">
+      <c r="BF11" s="31">
         <f>Sheet1!BF12</f>
         <v>0</v>
       </c>
-      <c r="BG11" s="32" t="str">
+      <c r="BG11" s="31" t="str">
         <f>Sheet1!BG12</f>
         <v/>
       </c>
-      <c r="BH11" s="32" t="str">
+      <c r="BH11" s="31" t="str">
         <f>Sheet1!BH12</f>
         <v/>
       </c>
-      <c r="BI11" s="32" t="str">
+      <c r="BI11" s="31" t="str">
         <f>Sheet1!BI12</f>
         <v/>
       </c>
-      <c r="BJ11" s="32">
+      <c r="BJ11" s="31">
         <f>Sheet1!BJ12</f>
         <v>0</v>
       </c>
@@ -5881,251 +5875,251 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="32" t="str">
+      <c r="A12" s="31" t="str">
         <f>Sheet1!A13</f>
         <v>Aston Martin</v>
       </c>
-      <c r="B12" s="32" t="str">
+      <c r="B12" s="31" t="str">
         <f>Sheet1!B13</f>
         <v>Gary</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <f>Sheet1!C13</f>
         <v>18</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <f>Sheet1!D13</f>
         <v>20</v>
       </c>
-      <c r="E12" s="32" t="str">
+      <c r="E12" s="31" t="str">
         <f>Sheet1!E13</f>
         <v>N</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <f>Sheet1!F13</f>
         <v>1</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="31">
         <f>Sheet1!G13</f>
         <v>19</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="31">
         <f>Sheet1!H13</f>
         <v>19</v>
       </c>
-      <c r="I12" s="32" t="str">
+      <c r="I12" s="31" t="str">
         <f>Sheet1!I13</f>
         <v>N</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="31">
         <f>Sheet1!J13</f>
         <v>1</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="31">
         <f>Sheet1!K13</f>
         <v>22</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="31">
         <f>Sheet1!L13</f>
         <v>22</v>
       </c>
-      <c r="M12" s="32" t="str">
+      <c r="M12" s="31" t="str">
         <f>Sheet1!M13</f>
         <v>N</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="31">
         <f>Sheet1!N13</f>
         <v>0</v>
       </c>
-      <c r="O12" s="32" t="str">
+      <c r="O12" s="31" t="str">
         <f>Sheet1!O13</f>
         <v/>
       </c>
-      <c r="P12" s="32" t="str">
+      <c r="P12" s="31" t="str">
         <f>Sheet1!P13</f>
         <v/>
       </c>
-      <c r="Q12" s="32" t="str">
+      <c r="Q12" s="31" t="str">
         <f>Sheet1!Q13</f>
         <v/>
       </c>
-      <c r="R12" s="32">
+      <c r="R12" s="31">
         <f>Sheet1!R13</f>
         <v>0</v>
       </c>
-      <c r="S12" s="32" t="str">
+      <c r="S12" s="31" t="str">
         <f>Sheet1!S13</f>
         <v/>
       </c>
-      <c r="T12" s="32" t="str">
+      <c r="T12" s="31" t="str">
         <f>Sheet1!T13</f>
         <v/>
       </c>
-      <c r="U12" s="32" t="str">
+      <c r="U12" s="31" t="str">
         <f>Sheet1!U13</f>
         <v/>
       </c>
-      <c r="V12" s="32">
+      <c r="V12" s="31">
         <f>Sheet1!V13</f>
         <v>0</v>
       </c>
-      <c r="W12" s="32" t="str">
+      <c r="W12" s="31" t="str">
         <f>Sheet1!W13</f>
         <v/>
       </c>
-      <c r="X12" s="32" t="str">
+      <c r="X12" s="31" t="str">
         <f>Sheet1!X13</f>
         <v/>
       </c>
-      <c r="Y12" s="32" t="str">
+      <c r="Y12" s="31" t="str">
         <f>Sheet1!Y13</f>
         <v/>
       </c>
-      <c r="Z12" s="32">
+      <c r="Z12" s="31">
         <f>Sheet1!Z13</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="32" t="str">
+      <c r="AA12" s="31" t="str">
         <f>Sheet1!AA13</f>
         <v/>
       </c>
-      <c r="AB12" s="32" t="str">
+      <c r="AB12" s="31" t="str">
         <f>Sheet1!AB13</f>
         <v/>
       </c>
-      <c r="AC12" s="32" t="str">
+      <c r="AC12" s="31" t="str">
         <f>Sheet1!AC13</f>
         <v/>
       </c>
-      <c r="AD12" s="32">
+      <c r="AD12" s="31">
         <f>Sheet1!AD13</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="32" t="str">
+      <c r="AE12" s="31" t="str">
         <f>Sheet1!AE13</f>
         <v/>
       </c>
-      <c r="AF12" s="32" t="str">
+      <c r="AF12" s="31" t="str">
         <f>Sheet1!AF13</f>
         <v/>
       </c>
-      <c r="AG12" s="32" t="str">
+      <c r="AG12" s="31" t="str">
         <f>Sheet1!AG13</f>
         <v/>
       </c>
-      <c r="AH12" s="32">
+      <c r="AH12" s="31">
         <f>Sheet1!AH13</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="32" t="str">
+      <c r="AI12" s="31" t="str">
         <f>Sheet1!AI13</f>
         <v/>
       </c>
-      <c r="AJ12" s="32" t="str">
+      <c r="AJ12" s="31" t="str">
         <f>Sheet1!AJ13</f>
         <v/>
       </c>
-      <c r="AK12" s="32" t="str">
+      <c r="AK12" s="31" t="str">
         <f>Sheet1!AK13</f>
         <v/>
       </c>
-      <c r="AL12" s="32">
+      <c r="AL12" s="31">
         <f>Sheet1!AL13</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="32" t="str">
+      <c r="AM12" s="31" t="str">
         <f>Sheet1!AM13</f>
         <v/>
       </c>
-      <c r="AN12" s="32" t="str">
+      <c r="AN12" s="31" t="str">
         <f>Sheet1!AN13</f>
         <v/>
       </c>
-      <c r="AO12" s="32" t="str">
+      <c r="AO12" s="31" t="str">
         <f>Sheet1!AO13</f>
         <v/>
       </c>
-      <c r="AP12" s="32">
+      <c r="AP12" s="31">
         <f>Sheet1!AP13</f>
         <v>0</v>
       </c>
-      <c r="AQ12" s="32" t="str">
+      <c r="AQ12" s="31" t="str">
         <f>Sheet1!AQ13</f>
         <v/>
       </c>
-      <c r="AR12" s="32" t="str">
+      <c r="AR12" s="31" t="str">
         <f>Sheet1!AR13</f>
         <v/>
       </c>
-      <c r="AS12" s="32" t="str">
+      <c r="AS12" s="31" t="str">
         <f>Sheet1!AS13</f>
         <v/>
       </c>
-      <c r="AT12" s="32">
+      <c r="AT12" s="31">
         <f>Sheet1!AT13</f>
         <v>0</v>
       </c>
-      <c r="AU12" s="32" t="str">
+      <c r="AU12" s="31" t="str">
         <f>Sheet1!AU13</f>
         <v/>
       </c>
-      <c r="AV12" s="32" t="str">
+      <c r="AV12" s="31" t="str">
         <f>Sheet1!AV13</f>
         <v/>
       </c>
-      <c r="AW12" s="32" t="str">
+      <c r="AW12" s="31" t="str">
         <f>Sheet1!AW13</f>
         <v/>
       </c>
-      <c r="AX12" s="32">
+      <c r="AX12" s="31">
         <f>Sheet1!AX13</f>
         <v>0</v>
       </c>
-      <c r="AY12" s="32" t="str">
+      <c r="AY12" s="31" t="str">
         <f>Sheet1!AY13</f>
         <v/>
       </c>
-      <c r="AZ12" s="32" t="str">
+      <c r="AZ12" s="31" t="str">
         <f>Sheet1!AZ13</f>
         <v/>
       </c>
-      <c r="BA12" s="32" t="str">
+      <c r="BA12" s="31" t="str">
         <f>Sheet1!BA13</f>
         <v/>
       </c>
-      <c r="BB12" s="32">
+      <c r="BB12" s="31">
         <f>Sheet1!BB13</f>
         <v>0</v>
       </c>
-      <c r="BC12" s="32" t="str">
+      <c r="BC12" s="31" t="str">
         <f>Sheet1!BC13</f>
         <v/>
       </c>
-      <c r="BD12" s="32" t="str">
+      <c r="BD12" s="31" t="str">
         <f>Sheet1!BD13</f>
         <v/>
       </c>
-      <c r="BE12" s="32" t="str">
+      <c r="BE12" s="31" t="str">
         <f>Sheet1!BE13</f>
         <v/>
       </c>
-      <c r="BF12" s="32">
+      <c r="BF12" s="31">
         <f>Sheet1!BF13</f>
         <v>0</v>
       </c>
-      <c r="BG12" s="32" t="str">
+      <c r="BG12" s="31" t="str">
         <f>Sheet1!BG13</f>
         <v/>
       </c>
-      <c r="BH12" s="32" t="str">
+      <c r="BH12" s="31" t="str">
         <f>Sheet1!BH13</f>
         <v/>
       </c>
-      <c r="BI12" s="32" t="str">
+      <c r="BI12" s="31" t="str">
         <f>Sheet1!BI13</f>
         <v/>
       </c>
-      <c r="BJ12" s="32">
+      <c r="BJ12" s="31">
         <f>Sheet1!BJ13</f>
         <v>0</v>
       </c>
@@ -6134,251 +6128,251 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="32" t="str">
+      <c r="A13" s="31" t="str">
         <f>Sheet1!A14</f>
         <v>Aston Martin</v>
       </c>
-      <c r="B13" s="32" t="str">
+      <c r="B13" s="31" t="str">
         <f>Sheet1!B14</f>
         <v>Del</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="31">
         <f>Sheet1!C14</f>
         <v>3</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="31">
         <f>Sheet1!D14</f>
         <v>18</v>
       </c>
-      <c r="E13" s="32" t="str">
+      <c r="E13" s="31" t="str">
         <f>Sheet1!E14</f>
         <v>N</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <f>Sheet1!F14</f>
         <v>15</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="31">
         <f>Sheet1!G14</f>
         <v>22</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="31">
         <f>Sheet1!H14</f>
         <v>22</v>
       </c>
-      <c r="I13" s="32" t="str">
+      <c r="I13" s="31" t="str">
         <f>Sheet1!I14</f>
         <v>N</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="31">
         <f>Sheet1!J14</f>
         <v>0</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="31">
         <f>Sheet1!K14</f>
         <v>11</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="31">
         <f>Sheet1!L14</f>
         <v>3</v>
       </c>
-      <c r="M13" s="32" t="str">
+      <c r="M13" s="31" t="str">
         <f>Sheet1!M14</f>
         <v>N</v>
       </c>
-      <c r="N13" s="32">
+      <c r="N13" s="31">
         <f>Sheet1!N14</f>
         <v>1</v>
       </c>
-      <c r="O13" s="32" t="str">
+      <c r="O13" s="31" t="str">
         <f>Sheet1!O14</f>
         <v/>
       </c>
-      <c r="P13" s="32" t="str">
+      <c r="P13" s="31" t="str">
         <f>Sheet1!P14</f>
         <v/>
       </c>
-      <c r="Q13" s="32" t="str">
+      <c r="Q13" s="31" t="str">
         <f>Sheet1!Q14</f>
         <v/>
       </c>
-      <c r="R13" s="32">
+      <c r="R13" s="31">
         <f>Sheet1!R14</f>
         <v>0</v>
       </c>
-      <c r="S13" s="32" t="str">
+      <c r="S13" s="31" t="str">
         <f>Sheet1!S14</f>
         <v/>
       </c>
-      <c r="T13" s="32" t="str">
+      <c r="T13" s="31" t="str">
         <f>Sheet1!T14</f>
         <v/>
       </c>
-      <c r="U13" s="32" t="str">
+      <c r="U13" s="31" t="str">
         <f>Sheet1!U14</f>
         <v/>
       </c>
-      <c r="V13" s="32">
+      <c r="V13" s="31">
         <f>Sheet1!V14</f>
         <v>0</v>
       </c>
-      <c r="W13" s="32" t="str">
+      <c r="W13" s="31" t="str">
         <f>Sheet1!W14</f>
         <v/>
       </c>
-      <c r="X13" s="32" t="str">
+      <c r="X13" s="31" t="str">
         <f>Sheet1!X14</f>
         <v/>
       </c>
-      <c r="Y13" s="32" t="str">
+      <c r="Y13" s="31" t="str">
         <f>Sheet1!Y14</f>
         <v/>
       </c>
-      <c r="Z13" s="32">
+      <c r="Z13" s="31">
         <f>Sheet1!Z14</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="32" t="str">
+      <c r="AA13" s="31" t="str">
         <f>Sheet1!AA14</f>
         <v/>
       </c>
-      <c r="AB13" s="32" t="str">
+      <c r="AB13" s="31" t="str">
         <f>Sheet1!AB14</f>
         <v/>
       </c>
-      <c r="AC13" s="32" t="str">
+      <c r="AC13" s="31" t="str">
         <f>Sheet1!AC14</f>
         <v/>
       </c>
-      <c r="AD13" s="32">
+      <c r="AD13" s="31">
         <f>Sheet1!AD14</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="32" t="str">
+      <c r="AE13" s="31" t="str">
         <f>Sheet1!AE14</f>
         <v/>
       </c>
-      <c r="AF13" s="32" t="str">
+      <c r="AF13" s="31" t="str">
         <f>Sheet1!AF14</f>
         <v/>
       </c>
-      <c r="AG13" s="32" t="str">
+      <c r="AG13" s="31" t="str">
         <f>Sheet1!AG14</f>
         <v/>
       </c>
-      <c r="AH13" s="32">
+      <c r="AH13" s="31">
         <f>Sheet1!AH14</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="32" t="str">
+      <c r="AI13" s="31" t="str">
         <f>Sheet1!AI14</f>
         <v/>
       </c>
-      <c r="AJ13" s="32" t="str">
+      <c r="AJ13" s="31" t="str">
         <f>Sheet1!AJ14</f>
         <v/>
       </c>
-      <c r="AK13" s="32" t="str">
+      <c r="AK13" s="31" t="str">
         <f>Sheet1!AK14</f>
         <v/>
       </c>
-      <c r="AL13" s="32">
+      <c r="AL13" s="31">
         <f>Sheet1!AL14</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="32" t="str">
+      <c r="AM13" s="31" t="str">
         <f>Sheet1!AM14</f>
         <v/>
       </c>
-      <c r="AN13" s="32" t="str">
+      <c r="AN13" s="31" t="str">
         <f>Sheet1!AN14</f>
         <v/>
       </c>
-      <c r="AO13" s="32" t="str">
+      <c r="AO13" s="31" t="str">
         <f>Sheet1!AO14</f>
         <v/>
       </c>
-      <c r="AP13" s="32">
+      <c r="AP13" s="31">
         <f>Sheet1!AP14</f>
         <v>0</v>
       </c>
-      <c r="AQ13" s="32" t="str">
+      <c r="AQ13" s="31" t="str">
         <f>Sheet1!AQ14</f>
         <v/>
       </c>
-      <c r="AR13" s="32" t="str">
+      <c r="AR13" s="31" t="str">
         <f>Sheet1!AR14</f>
         <v/>
       </c>
-      <c r="AS13" s="32" t="str">
+      <c r="AS13" s="31" t="str">
         <f>Sheet1!AS14</f>
         <v/>
       </c>
-      <c r="AT13" s="32">
+      <c r="AT13" s="31">
         <f>Sheet1!AT14</f>
         <v>0</v>
       </c>
-      <c r="AU13" s="32" t="str">
+      <c r="AU13" s="31" t="str">
         <f>Sheet1!AU14</f>
         <v/>
       </c>
-      <c r="AV13" s="32" t="str">
+      <c r="AV13" s="31" t="str">
         <f>Sheet1!AV14</f>
         <v/>
       </c>
-      <c r="AW13" s="32" t="str">
+      <c r="AW13" s="31" t="str">
         <f>Sheet1!AW14</f>
         <v/>
       </c>
-      <c r="AX13" s="32">
+      <c r="AX13" s="31">
         <f>Sheet1!AX14</f>
         <v>0</v>
       </c>
-      <c r="AY13" s="32" t="str">
+      <c r="AY13" s="31" t="str">
         <f>Sheet1!AY14</f>
         <v/>
       </c>
-      <c r="AZ13" s="32" t="str">
+      <c r="AZ13" s="31" t="str">
         <f>Sheet1!AZ14</f>
         <v/>
       </c>
-      <c r="BA13" s="32" t="str">
+      <c r="BA13" s="31" t="str">
         <f>Sheet1!BA14</f>
         <v/>
       </c>
-      <c r="BB13" s="32">
+      <c r="BB13" s="31">
         <f>Sheet1!BB14</f>
         <v>0</v>
       </c>
-      <c r="BC13" s="32" t="str">
+      <c r="BC13" s="31" t="str">
         <f>Sheet1!BC14</f>
         <v/>
       </c>
-      <c r="BD13" s="32" t="str">
+      <c r="BD13" s="31" t="str">
         <f>Sheet1!BD14</f>
         <v/>
       </c>
-      <c r="BE13" s="32" t="str">
+      <c r="BE13" s="31" t="str">
         <f>Sheet1!BE14</f>
         <v/>
       </c>
-      <c r="BF13" s="32">
+      <c r="BF13" s="31">
         <f>Sheet1!BF14</f>
         <v>0</v>
       </c>
-      <c r="BG13" s="32" t="str">
+      <c r="BG13" s="31" t="str">
         <f>Sheet1!BG14</f>
         <v/>
       </c>
-      <c r="BH13" s="32" t="str">
+      <c r="BH13" s="31" t="str">
         <f>Sheet1!BH14</f>
         <v/>
       </c>
-      <c r="BI13" s="32" t="str">
+      <c r="BI13" s="31" t="str">
         <f>Sheet1!BI14</f>
         <v/>
       </c>
-      <c r="BJ13" s="32">
+      <c r="BJ13" s="31">
         <f>Sheet1!BJ14</f>
         <v>0</v>
       </c>
@@ -6387,531 +6381,531 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="32" t="str">
+      <c r="A14" s="31" t="str">
         <f>Sheet1!A15</f>
         <v/>
       </c>
-      <c r="B14" s="32" t="str">
+      <c r="B14" s="31" t="str">
         <f>Sheet1!B15</f>
         <v/>
       </c>
-      <c r="C14" s="32" t="str">
+      <c r="C14" s="31" t="str">
         <f>Sheet1!C15</f>
         <v/>
       </c>
-      <c r="E14" s="32" t="str">
+      <c r="E14" s="31" t="str">
         <f>Sheet1!E15</f>
         <v/>
       </c>
-      <c r="F14" s="32" t="str">
+      <c r="F14" s="31" t="str">
         <f>Sheet1!F15</f>
         <v/>
       </c>
-      <c r="G14" s="32" t="str">
+      <c r="G14" s="31" t="str">
         <f>Sheet1!G15</f>
         <v/>
       </c>
-      <c r="I14" s="32" t="str">
+      <c r="I14" s="31" t="str">
         <f>Sheet1!I15</f>
         <v/>
       </c>
-      <c r="J14" s="32" t="str">
+      <c r="J14" s="31" t="str">
         <f>Sheet1!J15</f>
         <v/>
       </c>
-      <c r="K14" s="32" t="str">
+      <c r="K14" s="31" t="str">
         <f>Sheet1!K15</f>
         <v/>
       </c>
-      <c r="M14" s="32" t="str">
+      <c r="M14" s="31" t="str">
         <f>Sheet1!M15</f>
         <v/>
       </c>
-      <c r="N14" s="32" t="str">
+      <c r="N14" s="31" t="str">
         <f>Sheet1!N15</f>
         <v/>
       </c>
-      <c r="O14" s="32" t="str">
+      <c r="O14" s="31" t="str">
         <f>Sheet1!O15</f>
         <v/>
       </c>
-      <c r="Q14" s="32" t="str">
+      <c r="Q14" s="31" t="str">
         <f>Sheet1!Q15</f>
         <v/>
       </c>
-      <c r="R14" s="32" t="str">
+      <c r="R14" s="31" t="str">
         <f>Sheet1!R15</f>
         <v/>
       </c>
-      <c r="S14" s="32" t="str">
+      <c r="S14" s="31" t="str">
         <f>Sheet1!S15</f>
         <v/>
       </c>
-      <c r="U14" s="32" t="str">
+      <c r="U14" s="31" t="str">
         <f>Sheet1!U15</f>
         <v/>
       </c>
-      <c r="V14" s="32" t="str">
+      <c r="V14" s="31" t="str">
         <f>Sheet1!V15</f>
         <v/>
       </c>
-      <c r="W14" s="32" t="str">
+      <c r="W14" s="31" t="str">
         <f>Sheet1!AA15</f>
         <v/>
       </c>
-      <c r="Y14" s="32" t="str">
+      <c r="Y14" s="31" t="str">
         <f>Sheet1!AC15</f>
         <v/>
       </c>
-      <c r="Z14" s="32" t="str">
+      <c r="Z14" s="31" t="str">
         <f>Sheet1!AD15</f>
         <v/>
       </c>
-      <c r="AA14" s="32" t="str">
+      <c r="AA14" s="31" t="str">
         <f>Sheet1!AE15</f>
         <v/>
       </c>
-      <c r="AC14" s="32" t="str">
+      <c r="AC14" s="31" t="str">
         <f>Sheet1!AG15</f>
         <v/>
       </c>
-      <c r="AD14" s="32" t="str">
+      <c r="AD14" s="31" t="str">
         <f>Sheet1!AH15</f>
         <v/>
       </c>
-      <c r="AE14" s="32" t="str">
+      <c r="AE14" s="31" t="str">
         <f>Sheet1!AI15</f>
         <v/>
       </c>
-      <c r="AG14" s="32" t="str">
+      <c r="AG14" s="31" t="str">
         <f>Sheet1!AK15</f>
         <v/>
       </c>
-      <c r="AH14" s="32" t="str">
+      <c r="AH14" s="31" t="str">
         <f>Sheet1!AL15</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="32" t="str">
+      <c r="A15" s="31" t="str">
         <f>Sheet1!A16</f>
         <v/>
       </c>
-      <c r="B15" s="32" t="str">
+      <c r="B15" s="31" t="str">
         <f>Sheet1!B16</f>
         <v/>
       </c>
-      <c r="C15" s="32" t="str">
+      <c r="C15" s="31" t="str">
         <f>Sheet1!C16</f>
         <v/>
       </c>
-      <c r="E15" s="32" t="str">
+      <c r="E15" s="31" t="str">
         <f>Sheet1!E16</f>
         <v/>
       </c>
-      <c r="F15" s="32" t="str">
+      <c r="F15" s="31" t="str">
         <f>Sheet1!F16</f>
         <v/>
       </c>
-      <c r="G15" s="32" t="str">
+      <c r="G15" s="31" t="str">
         <f>Sheet1!G16</f>
         <v/>
       </c>
-      <c r="I15" s="32" t="str">
+      <c r="I15" s="31" t="str">
         <f>Sheet1!I16</f>
         <v/>
       </c>
-      <c r="J15" s="32" t="str">
+      <c r="J15" s="31" t="str">
         <f>Sheet1!J16</f>
         <v/>
       </c>
-      <c r="K15" s="32" t="str">
+      <c r="K15" s="31" t="str">
         <f>Sheet1!K16</f>
         <v/>
       </c>
-      <c r="M15" s="32" t="str">
+      <c r="M15" s="31" t="str">
         <f>Sheet1!M16</f>
         <v/>
       </c>
-      <c r="N15" s="32" t="str">
+      <c r="N15" s="31" t="str">
         <f>Sheet1!N16</f>
         <v/>
       </c>
-      <c r="O15" s="32" t="str">
+      <c r="O15" s="31" t="str">
         <f>Sheet1!O16</f>
         <v/>
       </c>
-      <c r="Q15" s="32" t="str">
+      <c r="Q15" s="31" t="str">
         <f>Sheet1!Q16</f>
         <v/>
       </c>
-      <c r="R15" s="32" t="str">
+      <c r="R15" s="31" t="str">
         <f>Sheet1!R16</f>
         <v/>
       </c>
-      <c r="S15" s="32" t="str">
+      <c r="S15" s="31" t="str">
         <f>Sheet1!S16</f>
         <v/>
       </c>
-      <c r="U15" s="32" t="str">
+      <c r="U15" s="31" t="str">
         <f>Sheet1!U16</f>
         <v/>
       </c>
-      <c r="V15" s="32" t="str">
+      <c r="V15" s="31" t="str">
         <f>Sheet1!V16</f>
         <v/>
       </c>
-      <c r="W15" s="32" t="str">
+      <c r="W15" s="31" t="str">
         <f>Sheet1!AA16</f>
         <v/>
       </c>
-      <c r="Y15" s="32" t="str">
+      <c r="Y15" s="31" t="str">
         <f>Sheet1!AC16</f>
         <v/>
       </c>
-      <c r="Z15" s="32" t="str">
+      <c r="Z15" s="31" t="str">
         <f>Sheet1!AD16</f>
         <v/>
       </c>
-      <c r="AA15" s="32" t="str">
+      <c r="AA15" s="31" t="str">
         <f>Sheet1!AE16</f>
         <v/>
       </c>
-      <c r="AC15" s="32" t="str">
+      <c r="AC15" s="31" t="str">
         <f>Sheet1!AG16</f>
         <v/>
       </c>
-      <c r="AD15" s="32" t="str">
+      <c r="AD15" s="31" t="str">
         <f>Sheet1!AH16</f>
         <v/>
       </c>
-      <c r="AE15" s="32" t="str">
+      <c r="AE15" s="31" t="str">
         <f>Sheet1!AI16</f>
         <v/>
       </c>
-      <c r="AG15" s="32" t="str">
+      <c r="AG15" s="31" t="str">
         <f>Sheet1!AK16</f>
         <v/>
       </c>
-      <c r="AH15" s="32" t="str">
+      <c r="AH15" s="31" t="str">
         <f>Sheet1!AL16</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="32" t="str">
+      <c r="A16" s="31" t="str">
         <f>Sheet1!A17</f>
         <v/>
       </c>
-      <c r="B16" s="32" t="str">
+      <c r="B16" s="31" t="str">
         <f>Sheet1!B17</f>
         <v/>
       </c>
-      <c r="C16" s="32" t="str">
+      <c r="C16" s="31" t="str">
         <f>Sheet1!C17</f>
         <v/>
       </c>
-      <c r="E16" s="32" t="str">
+      <c r="E16" s="31" t="str">
         <f>Sheet1!E17</f>
         <v/>
       </c>
-      <c r="F16" s="32" t="str">
+      <c r="F16" s="31" t="str">
         <f>Sheet1!F17</f>
         <v/>
       </c>
-      <c r="G16" s="32" t="str">
+      <c r="G16" s="31" t="str">
         <f>Sheet1!G17</f>
         <v/>
       </c>
-      <c r="I16" s="32" t="str">
+      <c r="I16" s="31" t="str">
         <f>Sheet1!I17</f>
         <v/>
       </c>
-      <c r="J16" s="32" t="str">
+      <c r="J16" s="31" t="str">
         <f>Sheet1!J17</f>
         <v/>
       </c>
-      <c r="K16" s="32" t="str">
+      <c r="K16" s="31" t="str">
         <f>Sheet1!K17</f>
         <v/>
       </c>
-      <c r="M16" s="32" t="str">
+      <c r="M16" s="31" t="str">
         <f>Sheet1!M17</f>
         <v/>
       </c>
-      <c r="N16" s="32" t="str">
+      <c r="N16" s="31" t="str">
         <f>Sheet1!N17</f>
         <v/>
       </c>
-      <c r="O16" s="32" t="str">
+      <c r="O16" s="31" t="str">
         <f>Sheet1!O17</f>
         <v/>
       </c>
-      <c r="Q16" s="32" t="str">
+      <c r="Q16" s="31" t="str">
         <f>Sheet1!Q17</f>
         <v/>
       </c>
-      <c r="R16" s="32" t="str">
+      <c r="R16" s="31" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="S16" s="32" t="str">
+      <c r="S16" s="31" t="str">
         <f>Sheet1!S17</f>
         <v/>
       </c>
-      <c r="U16" s="32" t="str">
+      <c r="U16" s="31" t="str">
         <f>Sheet1!U17</f>
         <v/>
       </c>
-      <c r="V16" s="32" t="str">
+      <c r="V16" s="31" t="str">
         <f>Sheet1!V17</f>
         <v/>
       </c>
-      <c r="W16" s="32" t="str">
+      <c r="W16" s="31" t="str">
         <f>Sheet1!AA17</f>
         <v/>
       </c>
-      <c r="Y16" s="32" t="str">
+      <c r="Y16" s="31" t="str">
         <f>Sheet1!AC17</f>
         <v/>
       </c>
-      <c r="Z16" s="32" t="str">
+      <c r="Z16" s="31" t="str">
         <f>Sheet1!AD17</f>
         <v/>
       </c>
-      <c r="AA16" s="32" t="str">
+      <c r="AA16" s="31" t="str">
         <f>Sheet1!AE17</f>
         <v/>
       </c>
-      <c r="AC16" s="32" t="str">
+      <c r="AC16" s="31" t="str">
         <f>Sheet1!AG17</f>
         <v/>
       </c>
-      <c r="AD16" s="32" t="str">
+      <c r="AD16" s="31" t="str">
         <f>Sheet1!AH17</f>
         <v/>
       </c>
-      <c r="AE16" s="32" t="str">
+      <c r="AE16" s="31" t="str">
         <f>Sheet1!AI17</f>
         <v/>
       </c>
-      <c r="AG16" s="32" t="str">
+      <c r="AG16" s="31" t="str">
         <f>Sheet1!AK17</f>
         <v/>
       </c>
-      <c r="AH16" s="32" t="str">
+      <c r="AH16" s="31" t="str">
         <f>Sheet1!AL17</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="32" t="str">
+      <c r="A17" s="31" t="str">
         <f>Sheet1!A18</f>
         <v/>
       </c>
-      <c r="B17" s="32" t="str">
+      <c r="B17" s="31" t="str">
         <f>Sheet1!B18</f>
         <v/>
       </c>
-      <c r="C17" s="32" t="str">
+      <c r="C17" s="31" t="str">
         <f>Sheet1!C18</f>
         <v/>
       </c>
-      <c r="E17" s="32" t="str">
+      <c r="E17" s="31" t="str">
         <f>Sheet1!E18</f>
         <v/>
       </c>
-      <c r="F17" s="32" t="str">
+      <c r="F17" s="31" t="str">
         <f>Sheet1!F18</f>
         <v/>
       </c>
-      <c r="G17" s="32" t="str">
+      <c r="G17" s="31" t="str">
         <f>Sheet1!G18</f>
         <v/>
       </c>
-      <c r="I17" s="32" t="str">
+      <c r="I17" s="31" t="str">
         <f>Sheet1!I18</f>
         <v/>
       </c>
-      <c r="J17" s="32" t="str">
+      <c r="J17" s="31" t="str">
         <f>Sheet1!J18</f>
         <v/>
       </c>
-      <c r="K17" s="32" t="str">
+      <c r="K17" s="31" t="str">
         <f>Sheet1!K18</f>
         <v/>
       </c>
-      <c r="M17" s="32" t="str">
+      <c r="M17" s="31" t="str">
         <f>Sheet1!M18</f>
         <v/>
       </c>
-      <c r="N17" s="32" t="str">
+      <c r="N17" s="31" t="str">
         <f>Sheet1!N18</f>
         <v/>
       </c>
-      <c r="O17" s="32" t="str">
+      <c r="O17" s="31" t="str">
         <f>Sheet1!O18</f>
         <v/>
       </c>
-      <c r="Q17" s="32" t="str">
+      <c r="Q17" s="31" t="str">
         <f>Sheet1!Q18</f>
         <v/>
       </c>
-      <c r="R17" s="32" t="str">
+      <c r="R17" s="31" t="str">
         <f>Sheet1!R18</f>
         <v/>
       </c>
-      <c r="S17" s="32" t="str">
+      <c r="S17" s="31" t="str">
         <f>Sheet1!S18</f>
         <v/>
       </c>
-      <c r="U17" s="32" t="str">
+      <c r="U17" s="31" t="str">
         <f>Sheet1!U18</f>
         <v/>
       </c>
-      <c r="V17" s="32" t="str">
+      <c r="V17" s="31" t="str">
         <f>Sheet1!V18</f>
         <v/>
       </c>
-      <c r="W17" s="32" t="str">
+      <c r="W17" s="31" t="str">
         <f>Sheet1!AA18</f>
         <v/>
       </c>
-      <c r="Y17" s="32" t="str">
+      <c r="Y17" s="31" t="str">
         <f>Sheet1!AC18</f>
         <v/>
       </c>
-      <c r="Z17" s="32" t="str">
+      <c r="Z17" s="31" t="str">
         <f>Sheet1!AD18</f>
         <v/>
       </c>
-      <c r="AA17" s="32" t="str">
+      <c r="AA17" s="31" t="str">
         <f>Sheet1!AE18</f>
         <v/>
       </c>
-      <c r="AC17" s="32" t="str">
+      <c r="AC17" s="31" t="str">
         <f>Sheet1!AG18</f>
         <v/>
       </c>
-      <c r="AD17" s="32" t="str">
+      <c r="AD17" s="31" t="str">
         <f>Sheet1!AH18</f>
         <v/>
       </c>
-      <c r="AE17" s="32" t="str">
+      <c r="AE17" s="31" t="str">
         <f>Sheet1!AI18</f>
         <v/>
       </c>
-      <c r="AG17" s="32" t="str">
+      <c r="AG17" s="31" t="str">
         <f>Sheet1!AK18</f>
         <v/>
       </c>
-      <c r="AH17" s="32" t="str">
+      <c r="AH17" s="31" t="str">
         <f>Sheet1!AL18</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="32" t="str">
+      <c r="A18" s="31" t="str">
         <f>Sheet1!A19</f>
         <v/>
       </c>
-      <c r="B18" s="32" t="str">
+      <c r="B18" s="31" t="str">
         <f>Sheet1!B19</f>
         <v/>
       </c>
-      <c r="C18" s="32" t="str">
+      <c r="C18" s="31" t="str">
         <f>Sheet1!C19</f>
         <v/>
       </c>
-      <c r="E18" s="32" t="str">
+      <c r="E18" s="31" t="str">
         <f>Sheet1!E19</f>
         <v/>
       </c>
-      <c r="F18" s="32" t="str">
+      <c r="F18" s="31" t="str">
         <f>Sheet1!F19</f>
         <v/>
       </c>
-      <c r="G18" s="32" t="str">
+      <c r="G18" s="31" t="str">
         <f>Sheet1!G19</f>
         <v/>
       </c>
-      <c r="I18" s="32" t="str">
+      <c r="I18" s="31" t="str">
         <f>Sheet1!I19</f>
         <v/>
       </c>
-      <c r="J18" s="32" t="str">
+      <c r="J18" s="31" t="str">
         <f>Sheet1!J19</f>
         <v/>
       </c>
-      <c r="K18" s="32" t="str">
+      <c r="K18" s="31" t="str">
         <f>Sheet1!K19</f>
         <v/>
       </c>
-      <c r="M18" s="32" t="str">
+      <c r="M18" s="31" t="str">
         <f>Sheet1!M19</f>
         <v/>
       </c>
-      <c r="N18" s="32" t="str">
+      <c r="N18" s="31" t="str">
         <f>Sheet1!N19</f>
         <v/>
       </c>
-      <c r="O18" s="32" t="str">
+      <c r="O18" s="31" t="str">
         <f>Sheet1!O19</f>
         <v/>
       </c>
-      <c r="Q18" s="32" t="str">
+      <c r="Q18" s="31" t="str">
         <f>Sheet1!Q19</f>
         <v/>
       </c>
-      <c r="R18" s="32" t="str">
+      <c r="R18" s="31" t="str">
         <f>Sheet1!R19</f>
         <v/>
       </c>
-      <c r="S18" s="32" t="str">
+      <c r="S18" s="31" t="str">
         <f>Sheet1!S19</f>
         <v/>
       </c>
-      <c r="U18" s="32" t="str">
+      <c r="U18" s="31" t="str">
         <f>Sheet1!U19</f>
         <v/>
       </c>
-      <c r="V18" s="32" t="str">
+      <c r="V18" s="31" t="str">
         <f>Sheet1!V19</f>
         <v/>
       </c>
-      <c r="W18" s="32" t="str">
+      <c r="W18" s="31" t="str">
         <f>Sheet1!AA19</f>
         <v/>
       </c>
-      <c r="Y18" s="32" t="str">
+      <c r="Y18" s="31" t="str">
         <f>Sheet1!AC19</f>
         <v/>
       </c>
-      <c r="Z18" s="32" t="str">
+      <c r="Z18" s="31" t="str">
         <f>Sheet1!AD19</f>
         <v/>
       </c>
-      <c r="AA18" s="32" t="str">
+      <c r="AA18" s="31" t="str">
         <f>Sheet1!AE19</f>
         <v/>
       </c>
-      <c r="AC18" s="32" t="str">
+      <c r="AC18" s="31" t="str">
         <f>Sheet1!AG19</f>
         <v/>
       </c>
-      <c r="AD18" s="32" t="str">
+      <c r="AD18" s="31" t="str">
         <f>Sheet1!AH19</f>
         <v/>
       </c>
-      <c r="AE18" s="32" t="str">
+      <c r="AE18" s="31" t="str">
         <f>Sheet1!AI19</f>
         <v/>
       </c>
-      <c r="AG18" s="32" t="str">
+      <c r="AG18" s="31" t="str">
         <f>Sheet1!AK19</f>
         <v/>
       </c>
-      <c r="AH18" s="32" t="str">
+      <c r="AH18" s="31" t="str">
         <f>Sheet1!AL19</f>
         <v/>
       </c>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="PythonReadyData" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Schedule" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="68">
   <si>
     <t>Suzuka</t>
   </si>
@@ -152,12 +153,78 @@
   <si>
     <t>Starting</t>
   </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pre-Season: Miami</t>
+  </si>
+  <si>
+    <t>11/13/2024</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>11/20/2024</t>
+  </si>
+  <si>
+    <t>12/4/2024</t>
+  </si>
+  <si>
+    <t>12/11/2024</t>
+  </si>
+  <si>
+    <t>1/1/2025</t>
+  </si>
+  <si>
+    <t>Tentative</t>
+  </si>
+  <si>
+    <t>1/2/2025</t>
+  </si>
+  <si>
+    <t>China &amp; Sprint</t>
+  </si>
+  <si>
+    <t>1/8/2025</t>
+  </si>
+  <si>
+    <t>1/15/2025</t>
+  </si>
+  <si>
+    <t>1/22/2025</t>
+  </si>
+  <si>
+    <t>1/23/2025</t>
+  </si>
+  <si>
+    <t>1/29/2025</t>
+  </si>
+  <si>
+    <t>Austria &amp; Sprint</t>
+  </si>
+  <si>
+    <t>2/5/2025</t>
+  </si>
+  <si>
+    <t>COTA &amp; Sprint</t>
+  </si>
+  <si>
+    <t>2/12/2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -173,6 +240,11 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF31333F"/>
+      <name val="&quot;Source Sans Pro&quot;"/>
     </font>
   </fonts>
   <fills count="5">
@@ -418,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -485,6 +557,12 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -502,6 +580,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -6913,4 +6995,177 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.5"/>
+    <col customWidth="1" min="2" max="2" width="25.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -184,16 +184,16 @@
     <t>1/1/2025</t>
   </si>
   <si>
-    <t>Tentative</t>
-  </si>
-  <si>
-    <t>1/2/2025</t>
+    <t>Upcoming</t>
   </si>
   <si>
     <t>China &amp; Sprint</t>
   </si>
   <si>
     <t>1/8/2025</t>
+  </si>
+  <si>
+    <t>Tentative</t>
   </si>
   <si>
     <t>1/15/2025</t>
@@ -7082,7 +7082,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>56</v>
@@ -7090,13 +7090,13 @@
     </row>
     <row r="8">
       <c r="A8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>59</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -7107,7 +7107,7 @@
         <v>60</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -7118,7 +7118,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -7129,7 +7129,7 @@
         <v>62</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
@@ -7140,7 +7140,7 @@
         <v>63</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
@@ -7151,7 +7151,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -7162,7 +7162,7 @@
         <v>67</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -82,7 +82,7 @@
     <t>McLaren</t>
   </si>
   <si>
-    <t>Nick**</t>
+    <t>Nick</t>
   </si>
   <si>
     <t>N</t>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="B2" s="31" t="str">
         <f>Sheet1!B3</f>
-        <v>Nick**</v>
+        <v>Nick</v>
       </c>
       <c r="C2" s="31">
         <f>Sheet1!C3</f>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="68">
   <si>
     <t>Suzuka</t>
   </si>
@@ -97,6 +97,9 @@
     <t>Patrick</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>Brently</t>
   </si>
   <si>
@@ -116,9 +119,6 @@
   </si>
   <si>
     <t>Joshua</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Red Bull</t>
@@ -1166,19 +1166,31 @@
         <f>IFERROR((VLOOKUP(K3,Sheet2!$A:$B,2,0))+IF(M3="y",1,0),0)</f>
         <v>25</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="10"/>
+      <c r="O3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="R3" s="11">
         <f>IFERROR((VLOOKUP(O3,Sheet2!$A:$B,2,0))+IF(Q3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="S3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="T3" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="V3" s="11">
         <f>IFERROR((VLOOKUP(S3,Sheet2!$A:$B,2,0))+IF(U3="y",1,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="W3" s="8"/>
       <c r="X3" s="9"/>
@@ -1297,19 +1309,31 @@
         <f>IFERROR((VLOOKUP(K4,Sheet2!$A:$B,2,0))+IF(M4="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="20"/>
+      <c r="O4" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="P4" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="R4" s="17">
         <f>IFERROR((VLOOKUP(O4,Sheet2!$A:$B,2,0))+IF(Q4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="20"/>
+      <c r="S4" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="T4" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="V4" s="17">
         <f>IFERROR((VLOOKUP(S4,Sheet2!$A:$B,2,0))+IF(U4="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="14"/>
       <c r="X4" s="15"/>
@@ -1428,19 +1452,31 @@
         <f>IFERROR((VLOOKUP(K5,Sheet2!$A:$B,2,0))+IF(M5="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="20"/>
+      <c r="O5" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="P5" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="R5" s="17">
         <f>IFERROR((VLOOKUP(O5,Sheet2!$A:$B,2,0))+IF(Q5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="18"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="S5" s="14">
+        <v>6.0</v>
+      </c>
+      <c r="T5" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="V5" s="17">
         <f>IFERROR((VLOOKUP(S5,Sheet2!$A:$B,2,0))+IF(U5="y",1,0),0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W5" s="14"/>
       <c r="X5" s="15"/>
@@ -1518,7 +1554,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="14">
         <v>5.0</v>
@@ -1559,19 +1595,31 @@
         <f>IFERROR((VLOOKUP(K6,Sheet2!$A:$B,2,0))+IF(M6="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="P6" s="15">
+        <v>9.0</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="R6" s="17">
         <f>IFERROR((VLOOKUP(O6,Sheet2!$A:$B,2,0))+IF(Q6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="20"/>
+        <v>12</v>
+      </c>
+      <c r="S6" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="T6" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="V6" s="17">
         <f>IFERROR((VLOOKUP(S6,Sheet2!$A:$B,2,0))+IF(U6="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W6" s="14"/>
       <c r="X6" s="15"/>
@@ -1646,10 +1694,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="14">
         <v>7.0</v>
@@ -1690,19 +1738,31 @@
         <f>IFERROR((VLOOKUP(K7,Sheet2!$A:$B,2,0))+IF(M7="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="20"/>
+      <c r="O7" s="14">
+        <v>6.0</v>
+      </c>
+      <c r="P7" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="R7" s="17">
         <f>IFERROR((VLOOKUP(O7,Sheet2!$A:$B,2,0))+IF(Q7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="20"/>
+        <v>8</v>
+      </c>
+      <c r="S7" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="T7" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="V7" s="17">
         <f>IFERROR((VLOOKUP(S7,Sheet2!$A:$B,2,0))+IF(U7="y",1,0),0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W7" s="14"/>
       <c r="X7" s="15"/>
@@ -1777,10 +1837,10 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="14">
         <v>4.0</v>
@@ -1821,16 +1881,28 @@
         <f>IFERROR((VLOOKUP(K8,Sheet2!$A:$B,2,0))+IF(M8="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
+      <c r="O8" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="P8" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="R8" s="17">
         <f>IFERROR((VLOOKUP(O8,Sheet2!$A:$B,2,0))+IF(Q8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="18"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="20"/>
+      <c r="S8" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="T8" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="V8" s="17">
         <f>IFERROR((VLOOKUP(S8,Sheet2!$A:$B,2,0))+IF(U8="y",1,0),0)</f>
         <v>0</v>
@@ -1908,10 +1980,10 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="14">
         <v>8.0</v>
@@ -1952,19 +2024,31 @@
         <f>IFERROR((VLOOKUP(K9,Sheet2!$A:$B,2,0))+IF(M9="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="20"/>
+      <c r="O9" s="14">
+        <v>7.0</v>
+      </c>
+      <c r="P9" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="R9" s="17">
         <f>IFERROR((VLOOKUP(O9,Sheet2!$A:$B,2,0))+IF(Q9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="S9" s="14">
+        <v>19.0</v>
+      </c>
+      <c r="T9" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="V9" s="17">
         <f>IFERROR((VLOOKUP(S9,Sheet2!$A:$B,2,0))+IF(U9="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="14"/>
       <c r="X9" s="15"/>
@@ -2039,10 +2123,10 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="14">
         <v>1.0</v>
@@ -2051,7 +2135,7 @@
         <v>1.0</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F10" s="17">
         <f>IFERROR((VLOOKUP(C10,Sheet2!$A:$B,2,0))+IF(E10="y",1,0),0)</f>
@@ -2064,7 +2148,7 @@
         <v>2.0</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J10" s="17">
         <f>IFERROR((VLOOKUP(G10,Sheet2!$A:$B,2,0))+IF(I10="y",1,0),0)</f>
@@ -2077,25 +2161,37 @@
         <v>1.0</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N10" s="17">
         <f>IFERROR((VLOOKUP(K10,Sheet2!$A:$B,2,0))+IF(M10="y",1,0),0)</f>
         <v>19</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="20"/>
+      <c r="O10" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="P10" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="R10" s="17">
         <f>IFERROR((VLOOKUP(O10,Sheet2!$A:$B,2,0))+IF(Q10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="18"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="S10" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="T10" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="V10" s="17">
         <f>IFERROR((VLOOKUP(S10,Sheet2!$A:$B,2,0))+IF(U10="y",1,0),0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W10" s="14"/>
       <c r="X10" s="15"/>
@@ -2214,19 +2310,31 @@
         <f>IFERROR((VLOOKUP(K11,Sheet2!$A:$B,2,0))+IF(M11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="18"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="20"/>
+      <c r="O11" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="P11" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="R11" s="17">
         <f>IFERROR((VLOOKUP(O11,Sheet2!$A:$B,2,0))+IF(Q11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="18"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="S11" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="T11" s="15">
+        <v>14.0</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="V11" s="17">
         <f>IFERROR((VLOOKUP(S11,Sheet2!$A:$B,2,0))+IF(U11="y",1,0),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W11" s="14"/>
       <c r="X11" s="15"/>
@@ -2345,16 +2453,28 @@
         <f>IFERROR((VLOOKUP(K12,Sheet2!$A:$B,2,0))+IF(M12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="20"/>
+      <c r="O12" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="P12" s="15">
+        <v>11.0</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="R12" s="17">
         <f>IFERROR((VLOOKUP(O12,Sheet2!$A:$B,2,0))+IF(Q12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="18"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="S12" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="T12" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="V12" s="17">
         <f>IFERROR((VLOOKUP(S12,Sheet2!$A:$B,2,0))+IF(U12="y",1,0),0)</f>
         <v>0</v>
@@ -2476,16 +2596,28 @@
         <f>IFERROR((VLOOKUP(K13,Sheet2!$A:$B,2,0))+IF(M13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="18"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
+      <c r="O13" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="P13" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="R13" s="17">
         <f>IFERROR((VLOOKUP(O13,Sheet2!$A:$B,2,0))+IF(Q13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="18"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="20"/>
+      <c r="S13" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="V13" s="17">
         <f>IFERROR((VLOOKUP(S13,Sheet2!$A:$B,2,0))+IF(U13="y",1,0),0)</f>
         <v>0</v>
@@ -2607,19 +2739,31 @@
         <f>IFERROR((VLOOKUP(K14,Sheet2!$A:$B,2,0))+IF(M14="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="O14" s="25"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="27"/>
+      <c r="O14" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="P14" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="Q14" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="R14" s="24">
         <f>IFERROR((VLOOKUP(O14,Sheet2!$A:$B,2,0))+IF(Q14="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="25"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="27"/>
+        <v>15</v>
+      </c>
+      <c r="S14" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="T14" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="U14" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="V14" s="24">
         <f>IFERROR((VLOOKUP(S14,Sheet2!$A:$B,2,0))+IF(U14="y",1,0),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="22"/>
@@ -3483,37 +3627,37 @@
         <f>Sheet1!N3</f>
         <v>25</v>
       </c>
-      <c r="O2" s="31" t="str">
+      <c r="O2" s="31">
         <f>Sheet1!O3</f>
-        <v/>
-      </c>
-      <c r="P2" s="31" t="str">
+        <v>1</v>
+      </c>
+      <c r="P2" s="31">
         <f>Sheet1!P3</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="Q2" s="31" t="str">
         <f>Sheet1!Q3</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R2" s="31">
         <f>Sheet1!R3</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="31" t="str">
+        <v>25</v>
+      </c>
+      <c r="S2" s="31">
         <f>Sheet1!S3</f>
-        <v/>
-      </c>
-      <c r="T2" s="31" t="str">
+        <v>2</v>
+      </c>
+      <c r="T2" s="31">
         <f>Sheet1!T3</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="U2" s="31" t="str">
         <f>Sheet1!U3</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V2" s="31">
         <f>Sheet1!V3</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="W2" s="31" t="str">
         <f>Sheet1!W3</f>
@@ -3736,37 +3880,37 @@
         <f>Sheet1!N4</f>
         <v>1</v>
       </c>
-      <c r="O3" s="31" t="str">
+      <c r="O3" s="31">
         <f>Sheet1!O4</f>
-        <v/>
-      </c>
-      <c r="P3" s="31" t="str">
+        <v>22</v>
+      </c>
+      <c r="P3" s="31">
         <f>Sheet1!P4</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="Q3" s="31" t="str">
         <f>Sheet1!Q4</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R3" s="31">
         <f>Sheet1!R4</f>
         <v>0</v>
       </c>
-      <c r="S3" s="31" t="str">
+      <c r="S3" s="31">
         <f>Sheet1!S4</f>
-        <v/>
-      </c>
-      <c r="T3" s="31" t="str">
+        <v>18</v>
+      </c>
+      <c r="T3" s="31">
         <f>Sheet1!T4</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="U3" s="31" t="str">
         <f>Sheet1!U4</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V3" s="31">
         <f>Sheet1!V4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="31" t="str">
         <f>Sheet1!W4</f>
@@ -3989,37 +4133,37 @@
         <f>Sheet1!N5</f>
         <v>12</v>
       </c>
-      <c r="O4" s="31" t="str">
+      <c r="O4" s="31">
         <f>Sheet1!O5</f>
-        <v/>
-      </c>
-      <c r="P4" s="31" t="str">
+        <v>5</v>
+      </c>
+      <c r="P4" s="31">
         <f>Sheet1!P5</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="Q4" s="31" t="str">
         <f>Sheet1!Q5</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R4" s="31">
         <f>Sheet1!R5</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="31" t="str">
+        <v>10</v>
+      </c>
+      <c r="S4" s="31">
         <f>Sheet1!S5</f>
-        <v/>
-      </c>
-      <c r="T4" s="31" t="str">
+        <v>6</v>
+      </c>
+      <c r="T4" s="31">
         <f>Sheet1!T5</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="U4" s="31" t="str">
         <f>Sheet1!U5</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="V4" s="31">
         <f>Sheet1!V5</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W4" s="31" t="str">
         <f>Sheet1!W5</f>
@@ -4242,37 +4386,37 @@
         <f>Sheet1!N6</f>
         <v>10</v>
       </c>
-      <c r="O5" s="31" t="str">
+      <c r="O5" s="31">
         <f>Sheet1!O6</f>
-        <v/>
-      </c>
-      <c r="P5" s="31" t="str">
+        <v>4</v>
+      </c>
+      <c r="P5" s="31">
         <f>Sheet1!P6</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="Q5" s="31" t="str">
         <f>Sheet1!Q6</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R5" s="31">
         <f>Sheet1!R6</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="31" t="str">
+        <v>12</v>
+      </c>
+      <c r="S5" s="31">
         <f>Sheet1!S6</f>
-        <v/>
-      </c>
-      <c r="T5" s="31" t="str">
+        <v>4</v>
+      </c>
+      <c r="T5" s="31">
         <f>Sheet1!T6</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="U5" s="31" t="str">
         <f>Sheet1!U6</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V5" s="31">
         <f>Sheet1!V6</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W5" s="31" t="str">
         <f>Sheet1!W6</f>
@@ -4495,37 +4639,37 @@
         <f>Sheet1!N7</f>
         <v>15</v>
       </c>
-      <c r="O6" s="31" t="str">
+      <c r="O6" s="31">
         <f>Sheet1!O7</f>
-        <v/>
-      </c>
-      <c r="P6" s="31" t="str">
+        <v>6</v>
+      </c>
+      <c r="P6" s="31">
         <f>Sheet1!P7</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="Q6" s="31" t="str">
         <f>Sheet1!Q7</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R6" s="31">
         <f>Sheet1!R7</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="31" t="str">
+        <v>8</v>
+      </c>
+      <c r="S6" s="31">
         <f>Sheet1!S7</f>
-        <v/>
-      </c>
-      <c r="T6" s="31" t="str">
+        <v>3</v>
+      </c>
+      <c r="T6" s="31">
         <f>Sheet1!T7</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="U6" s="31" t="str">
         <f>Sheet1!U7</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V6" s="31">
         <f>Sheet1!V7</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W6" s="31" t="str">
         <f>Sheet1!W7</f>
@@ -4748,33 +4892,33 @@
         <f>Sheet1!N8</f>
         <v>1</v>
       </c>
-      <c r="O7" s="31" t="str">
+      <c r="O7" s="31">
         <f>Sheet1!O8</f>
-        <v/>
-      </c>
-      <c r="P7" s="31" t="str">
+        <v>22</v>
+      </c>
+      <c r="P7" s="31">
         <f>Sheet1!P8</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="Q7" s="31" t="str">
         <f>Sheet1!Q8</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R7" s="31">
         <f>Sheet1!R8</f>
         <v>0</v>
       </c>
-      <c r="S7" s="31" t="str">
+      <c r="S7" s="31">
         <f>Sheet1!S8</f>
-        <v/>
-      </c>
-      <c r="T7" s="31" t="str">
+        <v>22</v>
+      </c>
+      <c r="T7" s="31">
         <f>Sheet1!T8</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="U7" s="31" t="str">
         <f>Sheet1!U8</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V7" s="31">
         <f>Sheet1!V8</f>
@@ -5001,37 +5145,37 @@
         <f>Sheet1!N9</f>
         <v>1</v>
       </c>
-      <c r="O8" s="31" t="str">
+      <c r="O8" s="31">
         <f>Sheet1!O9</f>
-        <v/>
-      </c>
-      <c r="P8" s="31" t="str">
+        <v>7</v>
+      </c>
+      <c r="P8" s="31">
         <f>Sheet1!P9</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="Q8" s="31" t="str">
         <f>Sheet1!Q9</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R8" s="31">
         <f>Sheet1!R9</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="31" t="str">
+        <v>6</v>
+      </c>
+      <c r="S8" s="31">
         <f>Sheet1!S9</f>
-        <v/>
-      </c>
-      <c r="T8" s="31" t="str">
+        <v>19</v>
+      </c>
+      <c r="T8" s="31">
         <f>Sheet1!T9</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="U8" s="31" t="str">
         <f>Sheet1!U9</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V8" s="31">
         <f>Sheet1!V9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="31" t="str">
         <f>Sheet1!W9</f>
@@ -5254,37 +5398,37 @@
         <f>Sheet1!N10</f>
         <v>19</v>
       </c>
-      <c r="O9" s="31" t="str">
+      <c r="O9" s="31">
         <f>Sheet1!O10</f>
-        <v/>
-      </c>
-      <c r="P9" s="31" t="str">
+        <v>2</v>
+      </c>
+      <c r="P9" s="31">
         <f>Sheet1!P10</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="Q9" s="31" t="str">
         <f>Sheet1!Q10</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="R9" s="31">
         <f>Sheet1!R10</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="31" t="str">
+        <v>19</v>
+      </c>
+      <c r="S9" s="31">
         <f>Sheet1!S10</f>
-        <v/>
-      </c>
-      <c r="T9" s="31" t="str">
+        <v>1</v>
+      </c>
+      <c r="T9" s="31">
         <f>Sheet1!T10</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="U9" s="31" t="str">
         <f>Sheet1!U10</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V9" s="31">
         <f>Sheet1!V10</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W9" s="31" t="str">
         <f>Sheet1!W10</f>
@@ -5507,37 +5651,37 @@
         <f>Sheet1!N11</f>
         <v>0</v>
       </c>
-      <c r="O10" s="31" t="str">
+      <c r="O10" s="31">
         <f>Sheet1!O11</f>
-        <v/>
-      </c>
-      <c r="P10" s="31" t="str">
+        <v>18</v>
+      </c>
+      <c r="P10" s="31">
         <f>Sheet1!P11</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="Q10" s="31" t="str">
         <f>Sheet1!Q11</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R10" s="31">
         <f>Sheet1!R11</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="31" t="str">
+        <v>1</v>
+      </c>
+      <c r="S10" s="31">
         <f>Sheet1!S11</f>
-        <v/>
-      </c>
-      <c r="T10" s="31" t="str">
+        <v>5</v>
+      </c>
+      <c r="T10" s="31">
         <f>Sheet1!T11</f>
-        <v/>
+        <v>14</v>
       </c>
       <c r="U10" s="31" t="str">
         <f>Sheet1!U11</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V10" s="31">
         <f>Sheet1!V11</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W10" s="31" t="str">
         <f>Sheet1!W11</f>
@@ -5760,33 +5904,33 @@
         <f>Sheet1!N12</f>
         <v>0</v>
       </c>
-      <c r="O11" s="31" t="str">
+      <c r="O11" s="31">
         <f>Sheet1!O12</f>
-        <v/>
-      </c>
-      <c r="P11" s="31" t="str">
+        <v>15</v>
+      </c>
+      <c r="P11" s="31">
         <f>Sheet1!P12</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="Q11" s="31" t="str">
         <f>Sheet1!Q12</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R11" s="31">
         <f>Sheet1!R12</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="31" t="str">
+        <v>1</v>
+      </c>
+      <c r="S11" s="31">
         <f>Sheet1!S12</f>
-        <v/>
-      </c>
-      <c r="T11" s="31" t="str">
+        <v>22</v>
+      </c>
+      <c r="T11" s="31">
         <f>Sheet1!T12</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="U11" s="31" t="str">
         <f>Sheet1!U12</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V11" s="31">
         <f>Sheet1!V12</f>
@@ -6013,33 +6157,33 @@
         <f>Sheet1!N13</f>
         <v>0</v>
       </c>
-      <c r="O12" s="31" t="str">
+      <c r="O12" s="31">
         <f>Sheet1!O13</f>
-        <v/>
-      </c>
-      <c r="P12" s="31" t="str">
+        <v>22</v>
+      </c>
+      <c r="P12" s="31">
         <f>Sheet1!P13</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="Q12" s="31" t="str">
         <f>Sheet1!Q13</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R12" s="31">
         <f>Sheet1!R13</f>
         <v>0</v>
       </c>
-      <c r="S12" s="31" t="str">
+      <c r="S12" s="31">
         <f>Sheet1!S13</f>
-        <v/>
-      </c>
-      <c r="T12" s="31" t="str">
-        <f>Sheet1!T13</f>
-        <v/>
+        <v>22</v>
+      </c>
+      <c r="T12" s="31">
+        <f>Sheet1!T14</f>
+        <v>4</v>
       </c>
       <c r="U12" s="31" t="str">
         <f>Sheet1!U13</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V12" s="31">
         <f>Sheet1!V13</f>
@@ -6266,37 +6410,37 @@
         <f>Sheet1!N14</f>
         <v>1</v>
       </c>
-      <c r="O13" s="31" t="str">
+      <c r="O13" s="31">
         <f>Sheet1!O14</f>
-        <v/>
-      </c>
-      <c r="P13" s="31" t="str">
+        <v>3</v>
+      </c>
+      <c r="P13" s="31">
         <f>Sheet1!P14</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="Q13" s="31" t="str">
         <f>Sheet1!Q14</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R13" s="31">
         <f>Sheet1!R14</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="31" t="str">
+        <v>15</v>
+      </c>
+      <c r="S13" s="31">
         <f>Sheet1!S14</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="T13" s="31" t="str">
-        <f>Sheet1!T14</f>
-        <v/>
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="U13" s="31" t="str">
         <f>Sheet1!U14</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V13" s="31">
         <f>Sheet1!V14</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W13" s="31" t="str">
         <f>Sheet1!W14</f>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -273,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border/>
     <border>
       <left style="thick">
@@ -423,6 +423,11 @@
       </bottom>
     </border>
     <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
@@ -476,6 +481,11 @@
       </bottom>
     </border>
     <border>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -490,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -545,11 +555,17 @@
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -2612,7 +2628,7 @@
       <c r="S13" s="14">
         <v>22.0</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="21">
         <v>22.0</v>
       </c>
       <c r="U13" s="16" t="s">
@@ -2700,138 +2716,138 @@
       <c r="B14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="22">
         <v>3.0</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="23">
         <v>18.0</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="25">
         <f>IFERROR((VLOOKUP(C14,Sheet2!$A:$B,2,0))+IF(E14="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="22">
         <v>22.0</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="23">
         <v>22.0</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="25">
         <f>IFERROR((VLOOKUP(G14,Sheet2!$A:$B,2,0))+IF(I14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="22">
         <v>11.0</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="23">
         <v>3.0</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="25">
         <f>IFERROR((VLOOKUP(K14,Sheet2!$A:$B,2,0))+IF(M14="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="22">
         <v>3.0</v>
       </c>
-      <c r="P14" s="22">
+      <c r="P14" s="23">
         <v>7.0</v>
       </c>
-      <c r="Q14" s="23" t="s">
+      <c r="Q14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="R14" s="24">
+      <c r="R14" s="25">
         <f>IFERROR((VLOOKUP(O14,Sheet2!$A:$B,2,0))+IF(Q14="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="22">
         <v>8.0</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="26">
         <v>4.0</v>
       </c>
-      <c r="U14" s="23" t="s">
+      <c r="U14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="V14" s="24">
+      <c r="V14" s="25">
         <f>IFERROR((VLOOKUP(S14,Sheet2!$A:$B,2,0))+IF(U14="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="W14" s="21"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="24">
+      <c r="W14" s="22"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="25">
         <f>IFERROR((VLOOKUP(W14,Sheet2!$D:$E,2,0))+IF(Y14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="24">
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="25">
         <f>IFERROR((VLOOKUP(AA14,Sheet2!$A:$B,2,0))+IF(AC14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="24">
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="25">
         <f>IFERROR((VLOOKUP(AE14,Sheet2!$A:$B,2,0))+IF(AG14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="27"/>
-      <c r="AL14" s="24">
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="25">
         <f>IFERROR((VLOOKUP(AI14,Sheet2!$A:$B,2,0))+IF(AK14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="26"/>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="24">
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="28"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="25">
         <f>IFERROR((VLOOKUP(AM14,Sheet2!$A:$B,2,0))+IF(AO14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ14" s="25"/>
-      <c r="AR14" s="26"/>
-      <c r="AS14" s="27"/>
-      <c r="AT14" s="24">
+      <c r="AQ14" s="27"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="25">
         <f>IFERROR((VLOOKUP(AQ14,Sheet2!$A:$B,2,0))+IF(AS14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AU14" s="25"/>
-      <c r="AV14" s="26"/>
-      <c r="AW14" s="27"/>
-      <c r="AX14" s="24">
+      <c r="AU14" s="27"/>
+      <c r="AV14" s="28"/>
+      <c r="AW14" s="29"/>
+      <c r="AX14" s="25">
         <f>IFERROR((VLOOKUP(AU14,Sheet2!$D:$E,2,0))+IF(AW14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="25"/>
-      <c r="AZ14" s="26"/>
-      <c r="BA14" s="27"/>
-      <c r="BB14" s="24">
+      <c r="AY14" s="27"/>
+      <c r="AZ14" s="28"/>
+      <c r="BA14" s="29"/>
+      <c r="BB14" s="25">
         <f>IFERROR((VLOOKUP(AY14,Sheet2!$A:$B,2,0))+IF(BA14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC14" s="25"/>
-      <c r="BD14" s="26"/>
-      <c r="BE14" s="27"/>
-      <c r="BF14" s="24">
+      <c r="BC14" s="27"/>
+      <c r="BD14" s="28"/>
+      <c r="BE14" s="29"/>
+      <c r="BF14" s="25">
         <f>IFERROR((VLOOKUP(BC14,Sheet2!$D:$E,2,0))+IF(BE14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BG14" s="25"/>
-      <c r="BH14" s="26"/>
-      <c r="BI14" s="27"/>
-      <c r="BJ14" s="24">
+      <c r="BG14" s="27"/>
+      <c r="BH14" s="28"/>
+      <c r="BI14" s="29"/>
+      <c r="BJ14" s="25">
         <f>IFERROR((VLOOKUP(BG14,Sheet2!$A:$B,2,0))+IF(BI14="y",1,0),0)</f>
         <v>0</v>
       </c>
@@ -2905,36 +2921,36 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="31"/>
       <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="30">
+      <c r="A3" s="32">
         <v>1.0</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="32">
         <v>25.0</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="32">
         <v>1.0</v>
       </c>
       <c r="E3" s="16">
@@ -2942,13 +2958,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="30">
+      <c r="A4" s="32">
         <v>2.0</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="32">
         <v>18.0</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="32">
         <v>2.0</v>
       </c>
       <c r="E4" s="16">
@@ -2956,13 +2972,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="30">
+      <c r="A5" s="32">
         <v>3.0</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="32">
         <v>15.0</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="32">
         <v>3.0</v>
       </c>
       <c r="E5" s="16">
@@ -2970,13 +2986,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="30">
+      <c r="A6" s="32">
         <v>4.0</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="32">
         <v>12.0</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="32">
         <v>4.0</v>
       </c>
       <c r="E6" s="16">
@@ -2984,13 +3000,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="30">
+      <c r="A7" s="32">
         <v>5.0</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="32">
         <v>10.0</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="32">
         <v>5.0</v>
       </c>
       <c r="E7" s="16">
@@ -2998,13 +3014,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="30">
+      <c r="A8" s="32">
         <v>6.0</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="32">
         <v>8.0</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="32">
         <v>6.0</v>
       </c>
       <c r="E8" s="16">
@@ -3012,13 +3028,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="30">
+      <c r="A9" s="32">
         <v>7.0</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="32">
         <v>6.0</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="32">
         <v>7.0</v>
       </c>
       <c r="E9" s="16">
@@ -3026,13 +3042,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="30">
+      <c r="A10" s="32">
         <v>8.0</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="32">
         <v>4.0</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="32">
         <v>8.0</v>
       </c>
       <c r="E10" s="16">
@@ -3040,13 +3056,13 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="30">
+      <c r="A11" s="32">
         <v>9.0</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="32">
         <v>3.0</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="32">
         <v>9.0</v>
       </c>
       <c r="E11" s="16">
@@ -3054,13 +3070,13 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="30">
+      <c r="A12" s="32">
         <v>10.0</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="32">
         <v>2.0</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="32">
         <v>10.0</v>
       </c>
       <c r="E12" s="16">
@@ -3068,13 +3084,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="30">
+      <c r="A13" s="32">
         <v>11.0</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="32">
         <v>1.0</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="32">
         <v>11.0</v>
       </c>
       <c r="E13" s="16">
@@ -3082,13 +3098,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="30">
+      <c r="A14" s="32">
         <v>12.0</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="32">
         <v>1.0</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="32">
         <v>12.0</v>
       </c>
       <c r="E14" s="16">
@@ -3096,13 +3112,13 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="30">
+      <c r="A15" s="32">
         <v>13.0</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="32">
         <v>1.0</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="32">
         <v>13.0</v>
       </c>
       <c r="E15" s="16">
@@ -3110,13 +3126,13 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="30">
+      <c r="A16" s="32">
         <v>14.0</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="32">
         <v>1.0</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="32">
         <v>14.0</v>
       </c>
       <c r="E16" s="16">
@@ -3124,13 +3140,13 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="30">
+      <c r="A17" s="32">
         <v>15.0</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="32">
         <v>1.0</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="32">
         <v>15.0</v>
       </c>
       <c r="E17" s="16">
@@ -3138,13 +3154,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="30">
+      <c r="A18" s="32">
         <v>16.0</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="32">
         <v>1.0</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="32">
         <v>16.0</v>
       </c>
       <c r="E18" s="16">
@@ -3152,13 +3168,13 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="30">
+      <c r="A19" s="32">
         <v>17.0</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="32">
         <v>1.0</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="32">
         <v>17.0</v>
       </c>
       <c r="E19" s="16">
@@ -3166,13 +3182,13 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="30">
+      <c r="A20" s="32">
         <v>18.0</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="32">
         <v>1.0</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="32">
         <v>18.0</v>
       </c>
       <c r="E20" s="16">
@@ -3180,13 +3196,13 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="30">
+      <c r="A21" s="32">
         <v>19.0</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="32">
         <v>1.0</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="32">
         <v>19.0</v>
       </c>
       <c r="E21" s="16">
@@ -3194,13 +3210,13 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="30">
+      <c r="A22" s="32">
         <v>20.0</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="32">
         <v>1.0</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="32">
         <v>20.0</v>
       </c>
       <c r="E22" s="16">
@@ -3208,16 +3224,16 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="30">
+      <c r="A23" s="32">
         <v>21.0</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="32">
         <v>0.0</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="32">
         <v>21.0</v>
       </c>
       <c r="E23" s="16">
@@ -3228,16 +3244,16 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="30">
+      <c r="A24" s="32">
         <v>22.0</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="32">
         <v>0.0</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="32">
         <v>22.0</v>
       </c>
       <c r="E24" s="16">
@@ -3248,13 +3264,13 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="30">
+      <c r="A25" s="32">
         <v>23.0</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="32">
         <v>0.0</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="32">
         <v>23.0</v>
       </c>
       <c r="E25" s="16">
@@ -3262,13 +3278,13 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="30">
+      <c r="A26" s="32">
         <v>24.0</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="32">
         <v>0.0</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="32">
         <v>24.0</v>
       </c>
       <c r="E26" s="16">
@@ -3276,21 +3292,21 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32">
         <v>0.0</v>
       </c>
-      <c r="D27" s="30"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="16">
         <v>0.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32">
         <v>0.0</v>
       </c>
-      <c r="D28" s="30"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="16">
         <v>0.0</v>
       </c>
@@ -3318,251 +3334,251 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="str">
+      <c r="A1" s="33" t="str">
         <f>Sheet1!A2</f>
         <v>Team</v>
       </c>
-      <c r="B1" s="31" t="str">
+      <c r="B1" s="33" t="str">
         <f>Sheet1!B2</f>
         <v>Driver</v>
       </c>
-      <c r="C1" s="31" t="str">
+      <c r="C1" s="33" t="str">
         <f>CONCAT(Sheet1!$C$1,Sheet1!C2)</f>
         <v>SuzukaPlace</v>
       </c>
-      <c r="D1" s="31" t="str">
+      <c r="D1" s="33" t="str">
         <f>CONCAT(Sheet1!$C$1,Sheet1!D2)</f>
         <v>SuzukaQualifying</v>
       </c>
-      <c r="E1" s="31" t="str">
+      <c r="E1" s="33" t="str">
         <f>CONCAT(Sheet1!$C$1,Sheet1!E2)</f>
         <v>SuzukaFastestLap</v>
       </c>
-      <c r="F1" s="31" t="str">
+      <c r="F1" s="33" t="str">
         <f>CONCAT(Sheet1!$C$1,Sheet1!F2)</f>
         <v>SuzukaPoints</v>
       </c>
-      <c r="G1" s="31" t="str">
+      <c r="G1" s="33" t="str">
         <f>CONCAT(Sheet1!$G$1,Sheet1!G2)</f>
         <v>SilverstonePlace</v>
       </c>
-      <c r="H1" s="31" t="str">
+      <c r="H1" s="33" t="str">
         <f>CONCAT(Sheet1!$G$1,Sheet1!H2)</f>
         <v>SilverstoneQualifying</v>
       </c>
-      <c r="I1" s="31" t="str">
+      <c r="I1" s="33" t="str">
         <f>CONCAT(Sheet1!$G$1,Sheet1!I2)</f>
         <v>SilverstoneFastestLap</v>
       </c>
-      <c r="J1" s="31" t="str">
+      <c r="J1" s="33" t="str">
         <f>CONCAT(Sheet1!$G$1,Sheet1!J2)</f>
         <v>SilverstonePoints</v>
       </c>
-      <c r="K1" s="31" t="str">
+      <c r="K1" s="33" t="str">
         <f>CONCAT(Sheet1!$K$1,Sheet1!K2)</f>
         <v>AustraliaPlace</v>
       </c>
-      <c r="L1" s="31" t="str">
+      <c r="L1" s="33" t="str">
         <f>CONCAT(Sheet1!$K$1,Sheet1!L2)</f>
         <v>AustraliaQualifying</v>
       </c>
-      <c r="M1" s="31" t="str">
+      <c r="M1" s="33" t="str">
         <f>CONCAT(Sheet1!$K$1,Sheet1!M2)</f>
         <v>AustraliaFastestLap</v>
       </c>
-      <c r="N1" s="31" t="str">
+      <c r="N1" s="33" t="str">
         <f>CONCAT(Sheet1!$K$1,Sheet1!N2)</f>
         <v>AustraliaPoints</v>
       </c>
-      <c r="O1" s="31" t="str">
+      <c r="O1" s="33" t="str">
         <f>CONCAT(Sheet1!$O$1,Sheet1!O2)</f>
         <v>SpaPlace</v>
       </c>
-      <c r="P1" s="31" t="str">
+      <c r="P1" s="33" t="str">
         <f>CONCAT(Sheet1!$O$1,Sheet1!P2)</f>
         <v>SpaQualifying</v>
       </c>
-      <c r="Q1" s="31" t="str">
+      <c r="Q1" s="33" t="str">
         <f>CONCAT(Sheet1!$O$1,Sheet1!Q2)</f>
         <v>SpaFastestLap</v>
       </c>
-      <c r="R1" s="31" t="str">
+      <c r="R1" s="33" t="str">
         <f>CONCAT(Sheet1!$O$1,Sheet1!R2)</f>
         <v>SpaPoints</v>
       </c>
-      <c r="S1" s="31" t="str">
+      <c r="S1" s="33" t="str">
         <f>CONCAT(Sheet1!$S$1,Sheet1!S2)</f>
         <v>SpainPlace</v>
       </c>
-      <c r="T1" s="31" t="str">
+      <c r="T1" s="33" t="str">
         <f>CONCAT(Sheet1!$S$1,Sheet1!T2)</f>
         <v>SpainQualifying</v>
       </c>
-      <c r="U1" s="31" t="str">
+      <c r="U1" s="33" t="str">
         <f>CONCAT(Sheet1!$S$1,Sheet1!U2)</f>
         <v>SpainFastestLap</v>
       </c>
-      <c r="V1" s="31" t="str">
+      <c r="V1" s="33" t="str">
         <f>CONCAT(Sheet1!$S$1,Sheet1!V2)</f>
         <v>SpainPoints</v>
       </c>
-      <c r="W1" s="31" t="str">
+      <c r="W1" s="33" t="str">
         <f>CONCAT(Sheet1!$W$1,Sheet1!W2)</f>
         <v>ChinaSprintPlace</v>
       </c>
-      <c r="X1" s="31" t="str">
+      <c r="X1" s="33" t="str">
         <f>CONCAT(Sheet1!$W$1,Sheet1!X2)</f>
         <v>ChinaSprintQualifying</v>
       </c>
-      <c r="Y1" s="31" t="str">
+      <c r="Y1" s="33" t="str">
         <f>CONCAT(Sheet1!$W$1,Sheet1!Y2)</f>
         <v>ChinaSprintFastestLap</v>
       </c>
-      <c r="Z1" s="31" t="str">
+      <c r="Z1" s="33" t="str">
         <f>CONCAT(Sheet1!$W$1,Sheet1!Z2)</f>
         <v>ChinaSprintPoints</v>
       </c>
-      <c r="AA1" s="31" t="str">
+      <c r="AA1" s="33" t="str">
         <f>CONCAT(Sheet1!$AA$1,Sheet1!AA2)</f>
         <v>ChinaPlace</v>
       </c>
-      <c r="AB1" s="31" t="str">
+      <c r="AB1" s="33" t="str">
         <f>CONCAT(Sheet1!$AA$1,Sheet1!AB2)</f>
         <v>ChinaQualifying</v>
       </c>
-      <c r="AC1" s="31" t="str">
+      <c r="AC1" s="33" t="str">
         <f>CONCAT(Sheet1!$AA$1,Sheet1!AC2)</f>
         <v>ChinaFastestLap</v>
       </c>
-      <c r="AD1" s="31" t="str">
+      <c r="AD1" s="33" t="str">
         <f>CONCAT(Sheet1!$AA$1,Sheet1!AD2)</f>
         <v>ChinaPoints</v>
       </c>
-      <c r="AE1" s="31" t="str">
+      <c r="AE1" s="33" t="str">
         <f>CONCAT(Sheet1!$AE$1,Sheet1!AE2)</f>
         <v>BakuPlace</v>
       </c>
-      <c r="AF1" s="31" t="str">
+      <c r="AF1" s="33" t="str">
         <f>CONCAT(Sheet1!$AE$1,Sheet1!AF2)</f>
         <v>BakuQualifying</v>
       </c>
-      <c r="AG1" s="31" t="str">
+      <c r="AG1" s="33" t="str">
         <f>CONCAT(Sheet1!$AE$1,Sheet1!AG2)</f>
         <v>BakuFastestLap</v>
       </c>
-      <c r="AH1" s="31" t="str">
+      <c r="AH1" s="33" t="str">
         <f>CONCAT(Sheet1!$AE$1,Sheet1!AH2)</f>
         <v>BakuPoints</v>
       </c>
-      <c r="AI1" s="31" t="str">
+      <c r="AI1" s="33" t="str">
         <f>CONCAT(Sheet1!$AI$1,Sheet1!AI2)</f>
         <v>CanadaPlace</v>
       </c>
-      <c r="AJ1" s="31" t="str">
+      <c r="AJ1" s="33" t="str">
         <f>CONCAT(Sheet1!$AI$1,Sheet1!AJ2)</f>
         <v>CanadaQualifying</v>
       </c>
-      <c r="AK1" s="31" t="str">
+      <c r="AK1" s="33" t="str">
         <f>CONCAT(Sheet1!$AI$1,Sheet1!AK2)</f>
         <v>CanadaFastestLap</v>
       </c>
-      <c r="AL1" s="31" t="str">
+      <c r="AL1" s="33" t="str">
         <f>CONCAT(Sheet1!$AI$1,Sheet1!AL2)</f>
         <v>CanadaPoints</v>
       </c>
-      <c r="AM1" s="31" t="str">
+      <c r="AM1" s="33" t="str">
         <f>CONCAT(Sheet1!$AM$1,Sheet1!AM2)</f>
         <v>MonzaPlace</v>
       </c>
-      <c r="AN1" s="31" t="str">
+      <c r="AN1" s="33" t="str">
         <f>CONCAT(Sheet1!$AM$1,Sheet1!AN2)</f>
         <v>MonzaQualifying</v>
       </c>
-      <c r="AO1" s="31" t="str">
+      <c r="AO1" s="33" t="str">
         <f>CONCAT(Sheet1!$AM$1,Sheet1!AO2)</f>
         <v>MonzaFastestLap</v>
       </c>
-      <c r="AP1" s="31" t="str">
+      <c r="AP1" s="33" t="str">
         <f>CONCAT(Sheet1!$AM$1,Sheet1!AP2)</f>
         <v>MonzaPoints</v>
       </c>
-      <c r="AQ1" s="31" t="str">
+      <c r="AQ1" s="33" t="str">
         <f>CONCAT(Sheet1!$AQ$1,Sheet1!AQ2)</f>
         <v>Abu DhabiPlace</v>
       </c>
-      <c r="AR1" s="31" t="str">
+      <c r="AR1" s="33" t="str">
         <f>CONCAT(Sheet1!$AQ$1,Sheet1!AR2)</f>
         <v>Abu DhabiQualifying</v>
       </c>
-      <c r="AS1" s="31" t="str">
+      <c r="AS1" s="33" t="str">
         <f>CONCAT(Sheet1!$AQ$1,Sheet1!AS2)</f>
         <v>Abu DhabiFastestLap</v>
       </c>
-      <c r="AT1" s="31" t="str">
+      <c r="AT1" s="33" t="str">
         <f>CONCAT(Sheet1!$AQ$1,Sheet1!AT2)</f>
         <v>Abu DhabiPoints</v>
       </c>
-      <c r="AU1" s="31" t="str">
+      <c r="AU1" s="33" t="str">
         <f>CONCAT(Sheet1!$AU$1,Sheet1!AU2)</f>
         <v>AustriaSprintPlace</v>
       </c>
-      <c r="AV1" s="31" t="str">
+      <c r="AV1" s="33" t="str">
         <f>CONCAT(Sheet1!$AU$1,Sheet1!AV2)</f>
         <v>AustriaSprintQualifying</v>
       </c>
-      <c r="AW1" s="31" t="str">
+      <c r="AW1" s="33" t="str">
         <f>CONCAT(Sheet1!$AU$1,Sheet1!AW2)</f>
         <v>AustriaSprintFastestLap</v>
       </c>
-      <c r="AX1" s="31" t="str">
+      <c r="AX1" s="33" t="str">
         <f>CONCAT(Sheet1!$AU$1,Sheet1!AX2)</f>
         <v>AustriaSprintPoints</v>
       </c>
-      <c r="AY1" s="31" t="str">
+      <c r="AY1" s="33" t="str">
         <f>CONCAT(Sheet1!$AY$1,Sheet1!AY2)</f>
         <v>AustriaPlace</v>
       </c>
-      <c r="AZ1" s="31" t="str">
+      <c r="AZ1" s="33" t="str">
         <f>CONCAT(Sheet1!$AY$1,Sheet1!AZ2)</f>
         <v>AustriaQualifying</v>
       </c>
-      <c r="BA1" s="31" t="str">
+      <c r="BA1" s="33" t="str">
         <f>CONCAT(Sheet1!$AY$1,Sheet1!BA2)</f>
         <v>AustriaFastestLap</v>
       </c>
-      <c r="BB1" s="31" t="str">
+      <c r="BB1" s="33" t="str">
         <f>CONCAT(Sheet1!$AY$1,Sheet1!BB2)</f>
         <v>AustriaPoints</v>
       </c>
-      <c r="BC1" s="31" t="str">
+      <c r="BC1" s="33" t="str">
         <f>CONCAT(Sheet1!$BC$1,Sheet1!BC2)</f>
         <v>COTASprintPlace</v>
       </c>
-      <c r="BD1" s="31" t="str">
+      <c r="BD1" s="33" t="str">
         <f>CONCAT(Sheet1!$BC$1,Sheet1!BD2)</f>
         <v>COTASprintQualifying</v>
       </c>
-      <c r="BE1" s="31" t="str">
+      <c r="BE1" s="33" t="str">
         <f>CONCAT(Sheet1!$BC$1,Sheet1!BE2)</f>
         <v>COTASprintFastestLap</v>
       </c>
-      <c r="BF1" s="31" t="str">
+      <c r="BF1" s="33" t="str">
         <f>CONCAT(Sheet1!$BC$1,Sheet1!BF2)</f>
         <v>COTASprintPoints</v>
       </c>
-      <c r="BG1" s="31" t="str">
+      <c r="BG1" s="33" t="str">
         <f>CONCAT(Sheet1!$BG$1,Sheet1!BG2)</f>
         <v>COTAPlace</v>
       </c>
-      <c r="BH1" s="31" t="str">
+      <c r="BH1" s="33" t="str">
         <f>CONCAT(Sheet1!$BG$1,Sheet1!BH2)</f>
         <v>COTAQualifying</v>
       </c>
-      <c r="BI1" s="31" t="str">
+      <c r="BI1" s="33" t="str">
         <f>CONCAT(Sheet1!$BG$1,Sheet1!BI2)</f>
         <v>COTAFastestLap</v>
       </c>
-      <c r="BJ1" s="31" t="str">
+      <c r="BJ1" s="33" t="str">
         <f>CONCAT(Sheet1!$BG$1,Sheet1!BJ2)</f>
         <v>COTAPoints</v>
       </c>
@@ -3571,251 +3587,251 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="str">
+      <c r="A2" s="33" t="str">
         <f>Sheet1!A3</f>
         <v>McLaren</v>
       </c>
-      <c r="B2" s="31" t="str">
+      <c r="B2" s="33" t="str">
         <f>Sheet1!B3</f>
         <v>Nick</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="33">
         <f>Sheet1!C3</f>
         <v>2</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="33">
         <f>Sheet1!D3</f>
         <v>2</v>
       </c>
-      <c r="E2" s="31" t="str">
+      <c r="E2" s="33" t="str">
         <f>Sheet1!E3</f>
         <v>N</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="33">
         <f>Sheet1!F3</f>
         <v>18</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="33">
         <f>Sheet1!G3</f>
         <v>2</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="33">
         <f>Sheet1!H3</f>
         <v>1</v>
       </c>
-      <c r="I2" s="31" t="str">
+      <c r="I2" s="33" t="str">
         <f>Sheet1!I3</f>
         <v>N</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="33">
         <f>Sheet1!J3</f>
         <v>18</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="33">
         <f>Sheet1!K3</f>
         <v>1</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="33">
         <f>Sheet1!L3</f>
         <v>2</v>
       </c>
-      <c r="M2" s="31" t="str">
+      <c r="M2" s="33" t="str">
         <f>Sheet1!M3</f>
         <v>N</v>
       </c>
-      <c r="N2" s="31">
+      <c r="N2" s="33">
         <f>Sheet1!N3</f>
         <v>25</v>
       </c>
-      <c r="O2" s="31">
+      <c r="O2" s="33">
         <f>Sheet1!O3</f>
         <v>1</v>
       </c>
-      <c r="P2" s="31">
+      <c r="P2" s="33">
         <f>Sheet1!P3</f>
         <v>4</v>
       </c>
-      <c r="Q2" s="31" t="str">
+      <c r="Q2" s="33" t="str">
         <f>Sheet1!Q3</f>
         <v>N</v>
       </c>
-      <c r="R2" s="31">
+      <c r="R2" s="33">
         <f>Sheet1!R3</f>
         <v>25</v>
       </c>
-      <c r="S2" s="31">
+      <c r="S2" s="33">
         <f>Sheet1!S3</f>
         <v>2</v>
       </c>
-      <c r="T2" s="31">
+      <c r="T2" s="33">
         <f>Sheet1!T3</f>
         <v>1</v>
       </c>
-      <c r="U2" s="31" t="str">
+      <c r="U2" s="33" t="str">
         <f>Sheet1!U3</f>
         <v>N</v>
       </c>
-      <c r="V2" s="31">
+      <c r="V2" s="33">
         <f>Sheet1!V3</f>
         <v>18</v>
       </c>
-      <c r="W2" s="31" t="str">
+      <c r="W2" s="33" t="str">
         <f>Sheet1!W3</f>
         <v/>
       </c>
-      <c r="X2" s="31" t="str">
+      <c r="X2" s="33" t="str">
         <f>Sheet1!X3</f>
         <v/>
       </c>
-      <c r="Y2" s="31" t="str">
+      <c r="Y2" s="33" t="str">
         <f>Sheet1!Y3</f>
         <v/>
       </c>
-      <c r="Z2" s="31">
+      <c r="Z2" s="33">
         <f>Sheet1!Z3</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="31" t="str">
+      <c r="AA2" s="33" t="str">
         <f>Sheet1!AA3</f>
         <v/>
       </c>
-      <c r="AB2" s="31" t="str">
+      <c r="AB2" s="33" t="str">
         <f>Sheet1!AB3</f>
         <v/>
       </c>
-      <c r="AC2" s="31" t="str">
+      <c r="AC2" s="33" t="str">
         <f>Sheet1!AC3</f>
         <v/>
       </c>
-      <c r="AD2" s="31">
+      <c r="AD2" s="33">
         <f>Sheet1!AD3</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="31" t="str">
+      <c r="AE2" s="33" t="str">
         <f>Sheet1!AE3</f>
         <v/>
       </c>
-      <c r="AF2" s="31" t="str">
+      <c r="AF2" s="33" t="str">
         <f>Sheet1!AF3</f>
         <v/>
       </c>
-      <c r="AG2" s="31" t="str">
+      <c r="AG2" s="33" t="str">
         <f>Sheet1!AG3</f>
         <v/>
       </c>
-      <c r="AH2" s="31">
+      <c r="AH2" s="33">
         <f>Sheet1!AH3</f>
         <v>0</v>
       </c>
-      <c r="AI2" s="31" t="str">
+      <c r="AI2" s="33" t="str">
         <f>Sheet1!AI3</f>
         <v/>
       </c>
-      <c r="AJ2" s="31" t="str">
+      <c r="AJ2" s="33" t="str">
         <f>Sheet1!AJ3</f>
         <v/>
       </c>
-      <c r="AK2" s="31" t="str">
+      <c r="AK2" s="33" t="str">
         <f>Sheet1!AK3</f>
         <v/>
       </c>
-      <c r="AL2" s="31">
+      <c r="AL2" s="33">
         <f>Sheet1!AL3</f>
         <v>0</v>
       </c>
-      <c r="AM2" s="31" t="str">
+      <c r="AM2" s="33" t="str">
         <f>Sheet1!AM3</f>
         <v/>
       </c>
-      <c r="AN2" s="31" t="str">
+      <c r="AN2" s="33" t="str">
         <f>Sheet1!AN3</f>
         <v/>
       </c>
-      <c r="AO2" s="31" t="str">
+      <c r="AO2" s="33" t="str">
         <f>Sheet1!AO3</f>
         <v/>
       </c>
-      <c r="AP2" s="31">
+      <c r="AP2" s="33">
         <f>Sheet1!AP3</f>
         <v>0</v>
       </c>
-      <c r="AQ2" s="31" t="str">
+      <c r="AQ2" s="33" t="str">
         <f>Sheet1!AQ3</f>
         <v/>
       </c>
-      <c r="AR2" s="31" t="str">
+      <c r="AR2" s="33" t="str">
         <f>Sheet1!AR3</f>
         <v/>
       </c>
-      <c r="AS2" s="31" t="str">
+      <c r="AS2" s="33" t="str">
         <f>Sheet1!AS3</f>
         <v/>
       </c>
-      <c r="AT2" s="31">
+      <c r="AT2" s="33">
         <f>Sheet1!AT3</f>
         <v>0</v>
       </c>
-      <c r="AU2" s="31" t="str">
+      <c r="AU2" s="33" t="str">
         <f>Sheet1!AU3</f>
         <v/>
       </c>
-      <c r="AV2" s="31" t="str">
+      <c r="AV2" s="33" t="str">
         <f>Sheet1!AV3</f>
         <v/>
       </c>
-      <c r="AW2" s="31" t="str">
+      <c r="AW2" s="33" t="str">
         <f>Sheet1!AW3</f>
         <v/>
       </c>
-      <c r="AX2" s="31">
+      <c r="AX2" s="33">
         <f>Sheet1!AX3</f>
         <v>0</v>
       </c>
-      <c r="AY2" s="31" t="str">
+      <c r="AY2" s="33" t="str">
         <f>Sheet1!AY3</f>
         <v/>
       </c>
-      <c r="AZ2" s="31" t="str">
+      <c r="AZ2" s="33" t="str">
         <f>Sheet1!AZ3</f>
         <v/>
       </c>
-      <c r="BA2" s="31" t="str">
+      <c r="BA2" s="33" t="str">
         <f>Sheet1!BA3</f>
         <v/>
       </c>
-      <c r="BB2" s="31">
+      <c r="BB2" s="33">
         <f>Sheet1!BB3</f>
         <v>0</v>
       </c>
-      <c r="BC2" s="31" t="str">
+      <c r="BC2" s="33" t="str">
         <f>Sheet1!BC3</f>
         <v/>
       </c>
-      <c r="BD2" s="31" t="str">
+      <c r="BD2" s="33" t="str">
         <f>Sheet1!BD3</f>
         <v/>
       </c>
-      <c r="BE2" s="31" t="str">
+      <c r="BE2" s="33" t="str">
         <f>Sheet1!BE3</f>
         <v/>
       </c>
-      <c r="BF2" s="31">
+      <c r="BF2" s="33">
         <f>Sheet1!BF3</f>
         <v>0</v>
       </c>
-      <c r="BG2" s="31" t="str">
+      <c r="BG2" s="33" t="str">
         <f>Sheet1!BG3</f>
         <v/>
       </c>
-      <c r="BH2" s="31" t="str">
+      <c r="BH2" s="33" t="str">
         <f>Sheet1!BH3</f>
         <v/>
       </c>
-      <c r="BI2" s="31" t="str">
+      <c r="BI2" s="33" t="str">
         <f>Sheet1!BI3</f>
         <v/>
       </c>
-      <c r="BJ2" s="31">
+      <c r="BJ2" s="33">
         <f>Sheet1!BJ3</f>
         <v>0</v>
       </c>
@@ -3824,251 +3840,251 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="31" t="str">
+      <c r="A3" s="33" t="str">
         <f>Sheet1!A4</f>
         <v>McLaren</v>
       </c>
-      <c r="B3" s="31" t="str">
+      <c r="B3" s="33" t="str">
         <f>Sheet1!B4</f>
         <v>Travis</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="33">
         <f>Sheet1!C4</f>
         <v>16</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="33">
         <f>Sheet1!D4</f>
         <v>10</v>
       </c>
-      <c r="E3" s="31" t="str">
+      <c r="E3" s="33" t="str">
         <f>Sheet1!E4</f>
         <v>N</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="33">
         <f>Sheet1!F4</f>
         <v>1</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="33">
         <f>Sheet1!G4</f>
         <v>9</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="33">
         <f>Sheet1!H4</f>
         <v>10</v>
       </c>
-      <c r="I3" s="31" t="str">
+      <c r="I3" s="33" t="str">
         <f>Sheet1!I4</f>
         <v>N</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="33">
         <f>Sheet1!J4</f>
         <v>3</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="33">
         <f>Sheet1!K4</f>
         <v>12</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="33">
         <f>Sheet1!L4</f>
         <v>7</v>
       </c>
-      <c r="M3" s="31" t="str">
+      <c r="M3" s="33" t="str">
         <f>Sheet1!M4</f>
         <v>N</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="33">
         <f>Sheet1!N4</f>
         <v>1</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="33">
         <f>Sheet1!O4</f>
         <v>22</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="33">
         <f>Sheet1!P4</f>
         <v>22</v>
       </c>
-      <c r="Q3" s="31" t="str">
+      <c r="Q3" s="33" t="str">
         <f>Sheet1!Q4</f>
         <v>N</v>
       </c>
-      <c r="R3" s="31">
+      <c r="R3" s="33">
         <f>Sheet1!R4</f>
         <v>0</v>
       </c>
-      <c r="S3" s="31">
+      <c r="S3" s="33">
         <f>Sheet1!S4</f>
         <v>18</v>
       </c>
-      <c r="T3" s="31">
+      <c r="T3" s="33">
         <f>Sheet1!T4</f>
         <v>8</v>
       </c>
-      <c r="U3" s="31" t="str">
+      <c r="U3" s="33" t="str">
         <f>Sheet1!U4</f>
         <v>N</v>
       </c>
-      <c r="V3" s="31">
+      <c r="V3" s="33">
         <f>Sheet1!V4</f>
         <v>1</v>
       </c>
-      <c r="W3" s="31" t="str">
+      <c r="W3" s="33" t="str">
         <f>Sheet1!W4</f>
         <v/>
       </c>
-      <c r="X3" s="31" t="str">
+      <c r="X3" s="33" t="str">
         <f>Sheet1!X4</f>
         <v/>
       </c>
-      <c r="Y3" s="31" t="str">
+      <c r="Y3" s="33" t="str">
         <f>Sheet1!Y4</f>
         <v/>
       </c>
-      <c r="Z3" s="31">
+      <c r="Z3" s="33">
         <f>Sheet1!Z4</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="31" t="str">
+      <c r="AA3" s="33" t="str">
         <f>Sheet1!AA4</f>
         <v/>
       </c>
-      <c r="AB3" s="31" t="str">
+      <c r="AB3" s="33" t="str">
         <f>Sheet1!AB4</f>
         <v/>
       </c>
-      <c r="AC3" s="31" t="str">
+      <c r="AC3" s="33" t="str">
         <f>Sheet1!AC4</f>
         <v/>
       </c>
-      <c r="AD3" s="31">
+      <c r="AD3" s="33">
         <f>Sheet1!AD4</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="31" t="str">
+      <c r="AE3" s="33" t="str">
         <f>Sheet1!AE4</f>
         <v/>
       </c>
-      <c r="AF3" s="31" t="str">
+      <c r="AF3" s="33" t="str">
         <f>Sheet1!AF4</f>
         <v/>
       </c>
-      <c r="AG3" s="31" t="str">
+      <c r="AG3" s="33" t="str">
         <f>Sheet1!AG4</f>
         <v/>
       </c>
-      <c r="AH3" s="31">
+      <c r="AH3" s="33">
         <f>Sheet1!AH4</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="31" t="str">
+      <c r="AI3" s="33" t="str">
         <f>Sheet1!AI4</f>
         <v/>
       </c>
-      <c r="AJ3" s="31" t="str">
+      <c r="AJ3" s="33" t="str">
         <f>Sheet1!AJ4</f>
         <v/>
       </c>
-      <c r="AK3" s="31" t="str">
+      <c r="AK3" s="33" t="str">
         <f>Sheet1!AK4</f>
         <v/>
       </c>
-      <c r="AL3" s="31">
+      <c r="AL3" s="33">
         <f>Sheet1!AL4</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="31" t="str">
+      <c r="AM3" s="33" t="str">
         <f>Sheet1!AM4</f>
         <v/>
       </c>
-      <c r="AN3" s="31" t="str">
+      <c r="AN3" s="33" t="str">
         <f>Sheet1!AN4</f>
         <v/>
       </c>
-      <c r="AO3" s="31" t="str">
+      <c r="AO3" s="33" t="str">
         <f>Sheet1!AO4</f>
         <v/>
       </c>
-      <c r="AP3" s="31">
+      <c r="AP3" s="33">
         <f>Sheet1!AP4</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="31" t="str">
+      <c r="AQ3" s="33" t="str">
         <f>Sheet1!AQ4</f>
         <v/>
       </c>
-      <c r="AR3" s="31" t="str">
+      <c r="AR3" s="33" t="str">
         <f>Sheet1!AR4</f>
         <v/>
       </c>
-      <c r="AS3" s="31" t="str">
+      <c r="AS3" s="33" t="str">
         <f>Sheet1!AS4</f>
         <v/>
       </c>
-      <c r="AT3" s="31">
+      <c r="AT3" s="33">
         <f>Sheet1!AT4</f>
         <v>0</v>
       </c>
-      <c r="AU3" s="31" t="str">
+      <c r="AU3" s="33" t="str">
         <f>Sheet1!AU4</f>
         <v/>
       </c>
-      <c r="AV3" s="31" t="str">
+      <c r="AV3" s="33" t="str">
         <f>Sheet1!AV4</f>
         <v/>
       </c>
-      <c r="AW3" s="31" t="str">
+      <c r="AW3" s="33" t="str">
         <f>Sheet1!AW4</f>
         <v/>
       </c>
-      <c r="AX3" s="31">
+      <c r="AX3" s="33">
         <f>Sheet1!AX4</f>
         <v>0</v>
       </c>
-      <c r="AY3" s="31" t="str">
+      <c r="AY3" s="33" t="str">
         <f>Sheet1!AY4</f>
         <v/>
       </c>
-      <c r="AZ3" s="31" t="str">
+      <c r="AZ3" s="33" t="str">
         <f>Sheet1!AZ4</f>
         <v/>
       </c>
-      <c r="BA3" s="31" t="str">
+      <c r="BA3" s="33" t="str">
         <f>Sheet1!BA4</f>
         <v/>
       </c>
-      <c r="BB3" s="31">
+      <c r="BB3" s="33">
         <f>Sheet1!BB4</f>
         <v>0</v>
       </c>
-      <c r="BC3" s="31" t="str">
+      <c r="BC3" s="33" t="str">
         <f>Sheet1!BC4</f>
         <v/>
       </c>
-      <c r="BD3" s="31" t="str">
+      <c r="BD3" s="33" t="str">
         <f>Sheet1!BD4</f>
         <v/>
       </c>
-      <c r="BE3" s="31" t="str">
+      <c r="BE3" s="33" t="str">
         <f>Sheet1!BE4</f>
         <v/>
       </c>
-      <c r="BF3" s="31">
+      <c r="BF3" s="33">
         <f>Sheet1!BF4</f>
         <v>0</v>
       </c>
-      <c r="BG3" s="31" t="str">
+      <c r="BG3" s="33" t="str">
         <f>Sheet1!BG4</f>
         <v/>
       </c>
-      <c r="BH3" s="31" t="str">
+      <c r="BH3" s="33" t="str">
         <f>Sheet1!BH4</f>
         <v/>
       </c>
-      <c r="BI3" s="31" t="str">
+      <c r="BI3" s="33" t="str">
         <f>Sheet1!BI4</f>
         <v/>
       </c>
-      <c r="BJ3" s="31">
+      <c r="BJ3" s="33">
         <f>Sheet1!BJ4</f>
         <v>0</v>
       </c>
@@ -4077,251 +4093,251 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="31" t="str">
+      <c r="A4" s="33" t="str">
         <f>Sheet1!A5</f>
         <v>VCARB</v>
       </c>
-      <c r="B4" s="31" t="str">
+      <c r="B4" s="33" t="str">
         <f>Sheet1!B5</f>
         <v>Patrick</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="33">
         <f>Sheet1!C5</f>
         <v>11</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="33">
         <f>Sheet1!D5</f>
         <v>4</v>
       </c>
-      <c r="E4" s="31" t="str">
+      <c r="E4" s="33" t="str">
         <f>Sheet1!E5</f>
         <v>N</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="33">
         <f>Sheet1!F5</f>
         <v>1</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="33">
         <f>Sheet1!G5</f>
         <v>4</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="33">
         <f>Sheet1!H5</f>
         <v>8</v>
       </c>
-      <c r="I4" s="31" t="str">
+      <c r="I4" s="33" t="str">
         <f>Sheet1!I5</f>
         <v>N</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="33">
         <f>Sheet1!J5</f>
         <v>12</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="33">
         <f>Sheet1!K5</f>
         <v>4</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="33">
         <f>Sheet1!L5</f>
         <v>4</v>
       </c>
-      <c r="M4" s="31" t="str">
+      <c r="M4" s="33" t="str">
         <f>Sheet1!M5</f>
         <v>N</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="33">
         <f>Sheet1!N5</f>
         <v>12</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="33">
         <f>Sheet1!O5</f>
         <v>5</v>
       </c>
-      <c r="P4" s="31">
+      <c r="P4" s="33">
         <f>Sheet1!P5</f>
         <v>5</v>
       </c>
-      <c r="Q4" s="31" t="str">
+      <c r="Q4" s="33" t="str">
         <f>Sheet1!Q5</f>
         <v>N</v>
       </c>
-      <c r="R4" s="31">
+      <c r="R4" s="33">
         <f>Sheet1!R5</f>
         <v>10</v>
       </c>
-      <c r="S4" s="31">
+      <c r="S4" s="33">
         <f>Sheet1!S5</f>
         <v>6</v>
       </c>
-      <c r="T4" s="31">
+      <c r="T4" s="33">
         <f>Sheet1!T5</f>
         <v>6</v>
       </c>
-      <c r="U4" s="31" t="str">
+      <c r="U4" s="33" t="str">
         <f>Sheet1!U5</f>
         <v>Y</v>
       </c>
-      <c r="V4" s="31">
+      <c r="V4" s="33">
         <f>Sheet1!V5</f>
         <v>9</v>
       </c>
-      <c r="W4" s="31" t="str">
+      <c r="W4" s="33" t="str">
         <f>Sheet1!W5</f>
         <v/>
       </c>
-      <c r="X4" s="31" t="str">
+      <c r="X4" s="33" t="str">
         <f>Sheet1!X5</f>
         <v/>
       </c>
-      <c r="Y4" s="31" t="str">
+      <c r="Y4" s="33" t="str">
         <f>Sheet1!Y5</f>
         <v/>
       </c>
-      <c r="Z4" s="31">
+      <c r="Z4" s="33">
         <f>Sheet1!Z5</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="31" t="str">
+      <c r="AA4" s="33" t="str">
         <f>Sheet1!AA5</f>
         <v/>
       </c>
-      <c r="AB4" s="31" t="str">
+      <c r="AB4" s="33" t="str">
         <f>Sheet1!AB5</f>
         <v/>
       </c>
-      <c r="AC4" s="31" t="str">
+      <c r="AC4" s="33" t="str">
         <f>Sheet1!AC5</f>
         <v/>
       </c>
-      <c r="AD4" s="31">
+      <c r="AD4" s="33">
         <f>Sheet1!AD5</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="31" t="str">
+      <c r="AE4" s="33" t="str">
         <f>Sheet1!AE5</f>
         <v/>
       </c>
-      <c r="AF4" s="31" t="str">
+      <c r="AF4" s="33" t="str">
         <f>Sheet1!AF5</f>
         <v/>
       </c>
-      <c r="AG4" s="31" t="str">
+      <c r="AG4" s="33" t="str">
         <f>Sheet1!AG5</f>
         <v/>
       </c>
-      <c r="AH4" s="31">
+      <c r="AH4" s="33">
         <f>Sheet1!AH5</f>
         <v>0</v>
       </c>
-      <c r="AI4" s="31" t="str">
+      <c r="AI4" s="33" t="str">
         <f>Sheet1!AI5</f>
         <v/>
       </c>
-      <c r="AJ4" s="31" t="str">
+      <c r="AJ4" s="33" t="str">
         <f>Sheet1!AJ5</f>
         <v/>
       </c>
-      <c r="AK4" s="31" t="str">
+      <c r="AK4" s="33" t="str">
         <f>Sheet1!AK5</f>
         <v/>
       </c>
-      <c r="AL4" s="31">
+      <c r="AL4" s="33">
         <f>Sheet1!AL5</f>
         <v>0</v>
       </c>
-      <c r="AM4" s="31" t="str">
+      <c r="AM4" s="33" t="str">
         <f>Sheet1!AM5</f>
         <v/>
       </c>
-      <c r="AN4" s="31" t="str">
+      <c r="AN4" s="33" t="str">
         <f>Sheet1!AN5</f>
         <v/>
       </c>
-      <c r="AO4" s="31" t="str">
+      <c r="AO4" s="33" t="str">
         <f>Sheet1!AO5</f>
         <v/>
       </c>
-      <c r="AP4" s="31">
+      <c r="AP4" s="33">
         <f>Sheet1!AP5</f>
         <v>0</v>
       </c>
-      <c r="AQ4" s="31" t="str">
+      <c r="AQ4" s="33" t="str">
         <f>Sheet1!AQ5</f>
         <v/>
       </c>
-      <c r="AR4" s="31" t="str">
+      <c r="AR4" s="33" t="str">
         <f>Sheet1!AR5</f>
         <v/>
       </c>
-      <c r="AS4" s="31" t="str">
+      <c r="AS4" s="33" t="str">
         <f>Sheet1!AS5</f>
         <v/>
       </c>
-      <c r="AT4" s="31">
+      <c r="AT4" s="33">
         <f>Sheet1!AT5</f>
         <v>0</v>
       </c>
-      <c r="AU4" s="31" t="str">
+      <c r="AU4" s="33" t="str">
         <f>Sheet1!AU5</f>
         <v/>
       </c>
-      <c r="AV4" s="31" t="str">
+      <c r="AV4" s="33" t="str">
         <f>Sheet1!AV5</f>
         <v/>
       </c>
-      <c r="AW4" s="31" t="str">
+      <c r="AW4" s="33" t="str">
         <f>Sheet1!AW5</f>
         <v/>
       </c>
-      <c r="AX4" s="31">
+      <c r="AX4" s="33">
         <f>Sheet1!AX5</f>
         <v>0</v>
       </c>
-      <c r="AY4" s="31" t="str">
+      <c r="AY4" s="33" t="str">
         <f>Sheet1!AY5</f>
         <v/>
       </c>
-      <c r="AZ4" s="31" t="str">
+      <c r="AZ4" s="33" t="str">
         <f>Sheet1!AZ5</f>
         <v/>
       </c>
-      <c r="BA4" s="31" t="str">
+      <c r="BA4" s="33" t="str">
         <f>Sheet1!BA5</f>
         <v/>
       </c>
-      <c r="BB4" s="31">
+      <c r="BB4" s="33">
         <f>Sheet1!BB5</f>
         <v>0</v>
       </c>
-      <c r="BC4" s="31" t="str">
+      <c r="BC4" s="33" t="str">
         <f>Sheet1!BC5</f>
         <v/>
       </c>
-      <c r="BD4" s="31" t="str">
+      <c r="BD4" s="33" t="str">
         <f>Sheet1!BD5</f>
         <v/>
       </c>
-      <c r="BE4" s="31" t="str">
+      <c r="BE4" s="33" t="str">
         <f>Sheet1!BE5</f>
         <v/>
       </c>
-      <c r="BF4" s="31">
+      <c r="BF4" s="33">
         <f>Sheet1!BF5</f>
         <v>0</v>
       </c>
-      <c r="BG4" s="31" t="str">
+      <c r="BG4" s="33" t="str">
         <f>Sheet1!BG5</f>
         <v/>
       </c>
-      <c r="BH4" s="31" t="str">
+      <c r="BH4" s="33" t="str">
         <f>Sheet1!BH5</f>
         <v/>
       </c>
-      <c r="BI4" s="31" t="str">
+      <c r="BI4" s="33" t="str">
         <f>Sheet1!BI5</f>
         <v/>
       </c>
-      <c r="BJ4" s="31">
+      <c r="BJ4" s="33">
         <f>Sheet1!BJ5</f>
         <v>0</v>
       </c>
@@ -4330,251 +4346,251 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="31" t="str">
+      <c r="A5" s="33" t="str">
         <f>Sheet1!A6</f>
         <v>VCARB</v>
       </c>
-      <c r="B5" s="31" t="str">
+      <c r="B5" s="33" t="str">
         <f>Sheet1!B6</f>
         <v>Brently</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="33">
         <f>Sheet1!C6</f>
         <v>5</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="33">
         <f>Sheet1!D6</f>
         <v>16</v>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="33" t="str">
         <f>Sheet1!E6</f>
         <v>N</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="33">
         <f>Sheet1!F6</f>
         <v>10</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="33">
         <f>Sheet1!G6</f>
         <v>8</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="33">
         <f>Sheet1!H6</f>
         <v>6</v>
       </c>
-      <c r="I5" s="31" t="str">
+      <c r="I5" s="33" t="str">
         <f>Sheet1!I6</f>
         <v>N</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="33">
         <f>Sheet1!J6</f>
         <v>4</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="33">
         <f>Sheet1!K6</f>
         <v>5</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="33">
         <f>Sheet1!L6</f>
         <v>8</v>
       </c>
-      <c r="M5" s="31" t="str">
+      <c r="M5" s="33" t="str">
         <f>Sheet1!M6</f>
         <v>N</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="33">
         <f>Sheet1!N6</f>
         <v>10</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="33">
         <f>Sheet1!O6</f>
         <v>4</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="33">
         <f>Sheet1!P6</f>
         <v>9</v>
       </c>
-      <c r="Q5" s="31" t="str">
+      <c r="Q5" s="33" t="str">
         <f>Sheet1!Q6</f>
         <v>N</v>
       </c>
-      <c r="R5" s="31">
+      <c r="R5" s="33">
         <f>Sheet1!R6</f>
         <v>12</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="33">
         <f>Sheet1!S6</f>
         <v>4</v>
       </c>
-      <c r="T5" s="31">
+      <c r="T5" s="33">
         <f>Sheet1!T6</f>
         <v>7</v>
       </c>
-      <c r="U5" s="31" t="str">
+      <c r="U5" s="33" t="str">
         <f>Sheet1!U6</f>
         <v>N</v>
       </c>
-      <c r="V5" s="31">
+      <c r="V5" s="33">
         <f>Sheet1!V6</f>
         <v>12</v>
       </c>
-      <c r="W5" s="31" t="str">
+      <c r="W5" s="33" t="str">
         <f>Sheet1!W6</f>
         <v/>
       </c>
-      <c r="X5" s="31" t="str">
+      <c r="X5" s="33" t="str">
         <f>Sheet1!X6</f>
         <v/>
       </c>
-      <c r="Y5" s="31" t="str">
+      <c r="Y5" s="33" t="str">
         <f>Sheet1!Y6</f>
         <v/>
       </c>
-      <c r="Z5" s="31">
+      <c r="Z5" s="33">
         <f>Sheet1!Z6</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="31" t="str">
+      <c r="AA5" s="33" t="str">
         <f>Sheet1!AA6</f>
         <v/>
       </c>
-      <c r="AB5" s="31" t="str">
+      <c r="AB5" s="33" t="str">
         <f>Sheet1!AB6</f>
         <v/>
       </c>
-      <c r="AC5" s="31" t="str">
+      <c r="AC5" s="33" t="str">
         <f>Sheet1!AC6</f>
         <v/>
       </c>
-      <c r="AD5" s="31">
+      <c r="AD5" s="33">
         <f>Sheet1!AD6</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="31" t="str">
+      <c r="AE5" s="33" t="str">
         <f>Sheet1!AE6</f>
         <v/>
       </c>
-      <c r="AF5" s="31" t="str">
+      <c r="AF5" s="33" t="str">
         <f>Sheet1!AF6</f>
         <v/>
       </c>
-      <c r="AG5" s="31" t="str">
+      <c r="AG5" s="33" t="str">
         <f>Sheet1!AG6</f>
         <v/>
       </c>
-      <c r="AH5" s="31">
+      <c r="AH5" s="33">
         <f>Sheet1!AH6</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="31" t="str">
+      <c r="AI5" s="33" t="str">
         <f>Sheet1!AI6</f>
         <v/>
       </c>
-      <c r="AJ5" s="31" t="str">
+      <c r="AJ5" s="33" t="str">
         <f>Sheet1!AJ6</f>
         <v/>
       </c>
-      <c r="AK5" s="31" t="str">
+      <c r="AK5" s="33" t="str">
         <f>Sheet1!AK6</f>
         <v/>
       </c>
-      <c r="AL5" s="31">
+      <c r="AL5" s="33">
         <f>Sheet1!AL6</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="31" t="str">
+      <c r="AM5" s="33" t="str">
         <f>Sheet1!AM6</f>
         <v/>
       </c>
-      <c r="AN5" s="31" t="str">
+      <c r="AN5" s="33" t="str">
         <f>Sheet1!AN6</f>
         <v/>
       </c>
-      <c r="AO5" s="31" t="str">
+      <c r="AO5" s="33" t="str">
         <f>Sheet1!AO6</f>
         <v/>
       </c>
-      <c r="AP5" s="31">
+      <c r="AP5" s="33">
         <f>Sheet1!AP6</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="31" t="str">
+      <c r="AQ5" s="33" t="str">
         <f>Sheet1!AQ6</f>
         <v/>
       </c>
-      <c r="AR5" s="31" t="str">
+      <c r="AR5" s="33" t="str">
         <f>Sheet1!AR6</f>
         <v/>
       </c>
-      <c r="AS5" s="31" t="str">
+      <c r="AS5" s="33" t="str">
         <f>Sheet1!AS6</f>
         <v/>
       </c>
-      <c r="AT5" s="31">
+      <c r="AT5" s="33">
         <f>Sheet1!AT6</f>
         <v>0</v>
       </c>
-      <c r="AU5" s="31" t="str">
+      <c r="AU5" s="33" t="str">
         <f>Sheet1!AU6</f>
         <v/>
       </c>
-      <c r="AV5" s="31" t="str">
+      <c r="AV5" s="33" t="str">
         <f>Sheet1!AV6</f>
         <v/>
       </c>
-      <c r="AW5" s="31" t="str">
+      <c r="AW5" s="33" t="str">
         <f>Sheet1!AW6</f>
         <v/>
       </c>
-      <c r="AX5" s="31">
+      <c r="AX5" s="33">
         <f>Sheet1!AX6</f>
         <v>0</v>
       </c>
-      <c r="AY5" s="31" t="str">
+      <c r="AY5" s="33" t="str">
         <f>Sheet1!AY6</f>
         <v/>
       </c>
-      <c r="AZ5" s="31" t="str">
+      <c r="AZ5" s="33" t="str">
         <f>Sheet1!AZ6</f>
         <v/>
       </c>
-      <c r="BA5" s="31" t="str">
+      <c r="BA5" s="33" t="str">
         <f>Sheet1!BA6</f>
         <v/>
       </c>
-      <c r="BB5" s="31">
+      <c r="BB5" s="33">
         <f>Sheet1!BB6</f>
         <v>0</v>
       </c>
-      <c r="BC5" s="31" t="str">
+      <c r="BC5" s="33" t="str">
         <f>Sheet1!BC6</f>
         <v/>
       </c>
-      <c r="BD5" s="31" t="str">
+      <c r="BD5" s="33" t="str">
         <f>Sheet1!BD6</f>
         <v/>
       </c>
-      <c r="BE5" s="31" t="str">
+      <c r="BE5" s="33" t="str">
         <f>Sheet1!BE6</f>
         <v/>
       </c>
-      <c r="BF5" s="31">
+      <c r="BF5" s="33">
         <f>Sheet1!BF6</f>
         <v>0</v>
       </c>
-      <c r="BG5" s="31" t="str">
+      <c r="BG5" s="33" t="str">
         <f>Sheet1!BG6</f>
         <v/>
       </c>
-      <c r="BH5" s="31" t="str">
+      <c r="BH5" s="33" t="str">
         <f>Sheet1!BH6</f>
         <v/>
       </c>
-      <c r="BI5" s="31" t="str">
+      <c r="BI5" s="33" t="str">
         <f>Sheet1!BI6</f>
         <v/>
       </c>
-      <c r="BJ5" s="31">
+      <c r="BJ5" s="33">
         <f>Sheet1!BJ6</f>
         <v>0</v>
       </c>
@@ -4583,251 +4599,251 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="31" t="str">
+      <c r="A6" s="33" t="str">
         <f>Sheet1!A7</f>
         <v>Ferrari</v>
       </c>
-      <c r="B6" s="31" t="str">
+      <c r="B6" s="33" t="str">
         <f>Sheet1!B7</f>
         <v>Erick</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="33">
         <f>Sheet1!C7</f>
         <v>7</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="33">
         <f>Sheet1!D7</f>
         <v>7</v>
       </c>
-      <c r="E6" s="31" t="str">
+      <c r="E6" s="33" t="str">
         <f>Sheet1!E7</f>
         <v>N</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="33">
         <f>Sheet1!F7</f>
         <v>6</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="33">
         <f>Sheet1!G7</f>
         <v>3</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="33">
         <f>Sheet1!H7</f>
         <v>4</v>
       </c>
-      <c r="I6" s="31" t="str">
+      <c r="I6" s="33" t="str">
         <f>Sheet1!I7</f>
         <v>N</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="33">
         <f>Sheet1!J7</f>
         <v>15</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="33">
         <f>Sheet1!K7</f>
         <v>3</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="33">
         <f>Sheet1!L7</f>
         <v>5</v>
       </c>
-      <c r="M6" s="31" t="str">
+      <c r="M6" s="33" t="str">
         <f>Sheet1!M7</f>
         <v>N</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="33">
         <f>Sheet1!N7</f>
         <v>15</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="33">
         <f>Sheet1!O7</f>
         <v>6</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="33">
         <f>Sheet1!P7</f>
         <v>8</v>
       </c>
-      <c r="Q6" s="31" t="str">
+      <c r="Q6" s="33" t="str">
         <f>Sheet1!Q7</f>
         <v>N</v>
       </c>
-      <c r="R6" s="31">
+      <c r="R6" s="33">
         <f>Sheet1!R7</f>
         <v>8</v>
       </c>
-      <c r="S6" s="31">
+      <c r="S6" s="33">
         <f>Sheet1!S7</f>
         <v>3</v>
       </c>
-      <c r="T6" s="31">
+      <c r="T6" s="33">
         <f>Sheet1!T7</f>
         <v>2</v>
       </c>
-      <c r="U6" s="31" t="str">
+      <c r="U6" s="33" t="str">
         <f>Sheet1!U7</f>
         <v>N</v>
       </c>
-      <c r="V6" s="31">
+      <c r="V6" s="33">
         <f>Sheet1!V7</f>
         <v>15</v>
       </c>
-      <c r="W6" s="31" t="str">
+      <c r="W6" s="33" t="str">
         <f>Sheet1!W7</f>
         <v/>
       </c>
-      <c r="X6" s="31" t="str">
+      <c r="X6" s="33" t="str">
         <f>Sheet1!X7</f>
         <v/>
       </c>
-      <c r="Y6" s="31" t="str">
+      <c r="Y6" s="33" t="str">
         <f>Sheet1!Y7</f>
         <v/>
       </c>
-      <c r="Z6" s="31">
+      <c r="Z6" s="33">
         <f>Sheet1!Z7</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="31" t="str">
+      <c r="AA6" s="33" t="str">
         <f>Sheet1!AA7</f>
         <v/>
       </c>
-      <c r="AB6" s="31" t="str">
+      <c r="AB6" s="33" t="str">
         <f>Sheet1!AB7</f>
         <v/>
       </c>
-      <c r="AC6" s="31" t="str">
+      <c r="AC6" s="33" t="str">
         <f>Sheet1!AC7</f>
         <v/>
       </c>
-      <c r="AD6" s="31">
+      <c r="AD6" s="33">
         <f>Sheet1!AD7</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="31" t="str">
+      <c r="AE6" s="33" t="str">
         <f>Sheet1!AE7</f>
         <v/>
       </c>
-      <c r="AF6" s="31" t="str">
+      <c r="AF6" s="33" t="str">
         <f>Sheet1!AF7</f>
         <v/>
       </c>
-      <c r="AG6" s="31" t="str">
+      <c r="AG6" s="33" t="str">
         <f>Sheet1!AG7</f>
         <v/>
       </c>
-      <c r="AH6" s="31">
+      <c r="AH6" s="33">
         <f>Sheet1!AH7</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="31" t="str">
+      <c r="AI6" s="33" t="str">
         <f>Sheet1!AI7</f>
         <v/>
       </c>
-      <c r="AJ6" s="31" t="str">
+      <c r="AJ6" s="33" t="str">
         <f>Sheet1!AJ7</f>
         <v/>
       </c>
-      <c r="AK6" s="31" t="str">
+      <c r="AK6" s="33" t="str">
         <f>Sheet1!AK7</f>
         <v/>
       </c>
-      <c r="AL6" s="31">
+      <c r="AL6" s="33">
         <f>Sheet1!AL7</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="31" t="str">
+      <c r="AM6" s="33" t="str">
         <f>Sheet1!AM7</f>
         <v/>
       </c>
-      <c r="AN6" s="31" t="str">
+      <c r="AN6" s="33" t="str">
         <f>Sheet1!AN7</f>
         <v/>
       </c>
-      <c r="AO6" s="31" t="str">
+      <c r="AO6" s="33" t="str">
         <f>Sheet1!AO7</f>
         <v/>
       </c>
-      <c r="AP6" s="31">
+      <c r="AP6" s="33">
         <f>Sheet1!AP7</f>
         <v>0</v>
       </c>
-      <c r="AQ6" s="31" t="str">
+      <c r="AQ6" s="33" t="str">
         <f>Sheet1!AQ7</f>
         <v/>
       </c>
-      <c r="AR6" s="31" t="str">
+      <c r="AR6" s="33" t="str">
         <f>Sheet1!AR7</f>
         <v/>
       </c>
-      <c r="AS6" s="31" t="str">
+      <c r="AS6" s="33" t="str">
         <f>Sheet1!AS7</f>
         <v/>
       </c>
-      <c r="AT6" s="31">
+      <c r="AT6" s="33">
         <f>Sheet1!AT7</f>
         <v>0</v>
       </c>
-      <c r="AU6" s="31" t="str">
+      <c r="AU6" s="33" t="str">
         <f>Sheet1!AU7</f>
         <v/>
       </c>
-      <c r="AV6" s="31" t="str">
+      <c r="AV6" s="33" t="str">
         <f>Sheet1!AV7</f>
         <v/>
       </c>
-      <c r="AW6" s="31" t="str">
+      <c r="AW6" s="33" t="str">
         <f>Sheet1!AW7</f>
         <v/>
       </c>
-      <c r="AX6" s="31">
+      <c r="AX6" s="33">
         <f>Sheet1!AX7</f>
         <v>0</v>
       </c>
-      <c r="AY6" s="31" t="str">
+      <c r="AY6" s="33" t="str">
         <f>Sheet1!AY7</f>
         <v/>
       </c>
-      <c r="AZ6" s="31" t="str">
+      <c r="AZ6" s="33" t="str">
         <f>Sheet1!AZ7</f>
         <v/>
       </c>
-      <c r="BA6" s="31" t="str">
+      <c r="BA6" s="33" t="str">
         <f>Sheet1!BA7</f>
         <v/>
       </c>
-      <c r="BB6" s="31">
+      <c r="BB6" s="33">
         <f>Sheet1!BB7</f>
         <v>0</v>
       </c>
-      <c r="BC6" s="31" t="str">
+      <c r="BC6" s="33" t="str">
         <f>Sheet1!BC7</f>
         <v/>
       </c>
-      <c r="BD6" s="31" t="str">
+      <c r="BD6" s="33" t="str">
         <f>Sheet1!BD7</f>
         <v/>
       </c>
-      <c r="BE6" s="31" t="str">
+      <c r="BE6" s="33" t="str">
         <f>Sheet1!BE7</f>
         <v/>
       </c>
-      <c r="BF6" s="31">
+      <c r="BF6" s="33">
         <f>Sheet1!BF7</f>
         <v>0</v>
       </c>
-      <c r="BG6" s="31" t="str">
+      <c r="BG6" s="33" t="str">
         <f>Sheet1!BG7</f>
         <v/>
       </c>
-      <c r="BH6" s="31" t="str">
+      <c r="BH6" s="33" t="str">
         <f>Sheet1!BH7</f>
         <v/>
       </c>
-      <c r="BI6" s="31" t="str">
+      <c r="BI6" s="33" t="str">
         <f>Sheet1!BI7</f>
         <v/>
       </c>
-      <c r="BJ6" s="31">
+      <c r="BJ6" s="33">
         <f>Sheet1!BJ7</f>
         <v>0</v>
       </c>
@@ -4836,251 +4852,251 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="31" t="str">
+      <c r="A7" s="33" t="str">
         <f>Sheet1!A8</f>
         <v>Ferrari</v>
       </c>
-      <c r="B7" s="31" t="str">
+      <c r="B7" s="33" t="str">
         <f>Sheet1!B8</f>
         <v>Zane</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="33">
         <f>Sheet1!C8</f>
         <v>4</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="33">
         <f>Sheet1!D8</f>
         <v>3</v>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="33" t="str">
         <f>Sheet1!E8</f>
         <v>N</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="33">
         <f>Sheet1!F8</f>
         <v>12</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="33">
         <f>Sheet1!G8</f>
         <v>5</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="33">
         <f>Sheet1!H8</f>
         <v>3</v>
       </c>
-      <c r="I7" s="31" t="str">
+      <c r="I7" s="33" t="str">
         <f>Sheet1!I8</f>
         <v>N</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="33">
         <f>Sheet1!J8</f>
         <v>10</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="33">
         <f>Sheet1!K8</f>
         <v>15</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="33">
         <f>Sheet1!L8</f>
         <v>6</v>
       </c>
-      <c r="M7" s="31" t="str">
+      <c r="M7" s="33" t="str">
         <f>Sheet1!M8</f>
         <v>N</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="33">
         <f>Sheet1!N8</f>
         <v>1</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="33">
         <f>Sheet1!O8</f>
         <v>22</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="33">
         <f>Sheet1!P8</f>
         <v>22</v>
       </c>
-      <c r="Q7" s="31" t="str">
+      <c r="Q7" s="33" t="str">
         <f>Sheet1!Q8</f>
         <v>N</v>
       </c>
-      <c r="R7" s="31">
+      <c r="R7" s="33">
         <f>Sheet1!R8</f>
         <v>0</v>
       </c>
-      <c r="S7" s="31">
+      <c r="S7" s="33">
         <f>Sheet1!S8</f>
         <v>22</v>
       </c>
-      <c r="T7" s="31">
+      <c r="T7" s="33">
         <f>Sheet1!T8</f>
         <v>22</v>
       </c>
-      <c r="U7" s="31" t="str">
+      <c r="U7" s="33" t="str">
         <f>Sheet1!U8</f>
         <v>N</v>
       </c>
-      <c r="V7" s="31">
+      <c r="V7" s="33">
         <f>Sheet1!V8</f>
         <v>0</v>
       </c>
-      <c r="W7" s="31" t="str">
+      <c r="W7" s="33" t="str">
         <f>Sheet1!W8</f>
         <v/>
       </c>
-      <c r="X7" s="31" t="str">
+      <c r="X7" s="33" t="str">
         <f>Sheet1!X8</f>
         <v/>
       </c>
-      <c r="Y7" s="31" t="str">
+      <c r="Y7" s="33" t="str">
         <f>Sheet1!Y8</f>
         <v/>
       </c>
-      <c r="Z7" s="31">
+      <c r="Z7" s="33">
         <f>Sheet1!Z8</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="31" t="str">
+      <c r="AA7" s="33" t="str">
         <f>Sheet1!AA8</f>
         <v/>
       </c>
-      <c r="AB7" s="31" t="str">
+      <c r="AB7" s="33" t="str">
         <f>Sheet1!AB8</f>
         <v/>
       </c>
-      <c r="AC7" s="31" t="str">
+      <c r="AC7" s="33" t="str">
         <f>Sheet1!AC8</f>
         <v/>
       </c>
-      <c r="AD7" s="31">
+      <c r="AD7" s="33">
         <f>Sheet1!AD8</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="31" t="str">
+      <c r="AE7" s="33" t="str">
         <f>Sheet1!AE8</f>
         <v/>
       </c>
-      <c r="AF7" s="31" t="str">
+      <c r="AF7" s="33" t="str">
         <f>Sheet1!AF8</f>
         <v/>
       </c>
-      <c r="AG7" s="31" t="str">
+      <c r="AG7" s="33" t="str">
         <f>Sheet1!AG8</f>
         <v/>
       </c>
-      <c r="AH7" s="31">
+      <c r="AH7" s="33">
         <f>Sheet1!AH8</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="31" t="str">
+      <c r="AI7" s="33" t="str">
         <f>Sheet1!AI8</f>
         <v/>
       </c>
-      <c r="AJ7" s="31" t="str">
+      <c r="AJ7" s="33" t="str">
         <f>Sheet1!AJ8</f>
         <v/>
       </c>
-      <c r="AK7" s="31" t="str">
+      <c r="AK7" s="33" t="str">
         <f>Sheet1!AK8</f>
         <v/>
       </c>
-      <c r="AL7" s="31">
+      <c r="AL7" s="33">
         <f>Sheet1!AL8</f>
         <v>0</v>
       </c>
-      <c r="AM7" s="31" t="str">
+      <c r="AM7" s="33" t="str">
         <f>Sheet1!AM8</f>
         <v/>
       </c>
-      <c r="AN7" s="31" t="str">
+      <c r="AN7" s="33" t="str">
         <f>Sheet1!AN8</f>
         <v/>
       </c>
-      <c r="AO7" s="31" t="str">
+      <c r="AO7" s="33" t="str">
         <f>Sheet1!AO8</f>
         <v/>
       </c>
-      <c r="AP7" s="31">
+      <c r="AP7" s="33">
         <f>Sheet1!AP8</f>
         <v>0</v>
       </c>
-      <c r="AQ7" s="31" t="str">
+      <c r="AQ7" s="33" t="str">
         <f>Sheet1!AQ8</f>
         <v/>
       </c>
-      <c r="AR7" s="31" t="str">
+      <c r="AR7" s="33" t="str">
         <f>Sheet1!AR8</f>
         <v/>
       </c>
-      <c r="AS7" s="31" t="str">
+      <c r="AS7" s="33" t="str">
         <f>Sheet1!AS8</f>
         <v/>
       </c>
-      <c r="AT7" s="31">
+      <c r="AT7" s="33">
         <f>Sheet1!AT8</f>
         <v>0</v>
       </c>
-      <c r="AU7" s="31" t="str">
+      <c r="AU7" s="33" t="str">
         <f>Sheet1!AU8</f>
         <v/>
       </c>
-      <c r="AV7" s="31" t="str">
+      <c r="AV7" s="33" t="str">
         <f>Sheet1!AV8</f>
         <v/>
       </c>
-      <c r="AW7" s="31" t="str">
+      <c r="AW7" s="33" t="str">
         <f>Sheet1!AW8</f>
         <v/>
       </c>
-      <c r="AX7" s="31">
+      <c r="AX7" s="33">
         <f>Sheet1!AX8</f>
         <v>0</v>
       </c>
-      <c r="AY7" s="31" t="str">
+      <c r="AY7" s="33" t="str">
         <f>Sheet1!AY8</f>
         <v/>
       </c>
-      <c r="AZ7" s="31" t="str">
+      <c r="AZ7" s="33" t="str">
         <f>Sheet1!AZ8</f>
         <v/>
       </c>
-      <c r="BA7" s="31" t="str">
+      <c r="BA7" s="33" t="str">
         <f>Sheet1!BA8</f>
         <v/>
       </c>
-      <c r="BB7" s="31">
+      <c r="BB7" s="33">
         <f>Sheet1!BB8</f>
         <v>0</v>
       </c>
-      <c r="BC7" s="31" t="str">
+      <c r="BC7" s="33" t="str">
         <f>Sheet1!BC8</f>
         <v/>
       </c>
-      <c r="BD7" s="31" t="str">
+      <c r="BD7" s="33" t="str">
         <f>Sheet1!BD8</f>
         <v/>
       </c>
-      <c r="BE7" s="31" t="str">
+      <c r="BE7" s="33" t="str">
         <f>Sheet1!BE8</f>
         <v/>
       </c>
-      <c r="BF7" s="31">
+      <c r="BF7" s="33">
         <f>Sheet1!BF8</f>
         <v>0</v>
       </c>
-      <c r="BG7" s="31" t="str">
+      <c r="BG7" s="33" t="str">
         <f>Sheet1!BG8</f>
         <v/>
       </c>
-      <c r="BH7" s="31" t="str">
+      <c r="BH7" s="33" t="str">
         <f>Sheet1!BH8</f>
         <v/>
       </c>
-      <c r="BI7" s="31" t="str">
+      <c r="BI7" s="33" t="str">
         <f>Sheet1!BI8</f>
         <v/>
       </c>
-      <c r="BJ7" s="31">
+      <c r="BJ7" s="33">
         <f>Sheet1!BJ8</f>
         <v>0</v>
       </c>
@@ -5089,251 +5105,251 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="31" t="str">
+      <c r="A8" s="33" t="str">
         <f>Sheet1!A9</f>
         <v>Alpine</v>
       </c>
-      <c r="B8" s="31" t="str">
+      <c r="B8" s="33" t="str">
         <f>Sheet1!B9</f>
         <v>Eddie</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="33">
         <f>Sheet1!C9</f>
         <v>8</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="33">
         <f>Sheet1!D9</f>
         <v>13</v>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="33" t="str">
         <f>Sheet1!E9</f>
         <v>N</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="33">
         <f>Sheet1!F9</f>
         <v>4</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="33">
         <f>Sheet1!G9</f>
         <v>7</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="33">
         <f>Sheet1!H9</f>
         <v>9</v>
       </c>
-      <c r="I8" s="31" t="str">
+      <c r="I8" s="33" t="str">
         <f>Sheet1!I9</f>
         <v>N</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="33">
         <f>Sheet1!J9</f>
         <v>6</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="33">
         <f>Sheet1!K9</f>
         <v>13</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="33">
         <f>Sheet1!L9</f>
         <v>15</v>
       </c>
-      <c r="M8" s="31" t="str">
+      <c r="M8" s="33" t="str">
         <f>Sheet1!M9</f>
         <v>N</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="33">
         <f>Sheet1!N9</f>
         <v>1</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="33">
         <f>Sheet1!O9</f>
         <v>7</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="33">
         <f>Sheet1!P9</f>
         <v>6</v>
       </c>
-      <c r="Q8" s="31" t="str">
+      <c r="Q8" s="33" t="str">
         <f>Sheet1!Q9</f>
         <v>N</v>
       </c>
-      <c r="R8" s="31">
+      <c r="R8" s="33">
         <f>Sheet1!R9</f>
         <v>6</v>
       </c>
-      <c r="S8" s="31">
+      <c r="S8" s="33">
         <f>Sheet1!S9</f>
         <v>19</v>
       </c>
-      <c r="T8" s="31">
+      <c r="T8" s="33">
         <f>Sheet1!T9</f>
         <v>5</v>
       </c>
-      <c r="U8" s="31" t="str">
+      <c r="U8" s="33" t="str">
         <f>Sheet1!U9</f>
         <v>N</v>
       </c>
-      <c r="V8" s="31">
+      <c r="V8" s="33">
         <f>Sheet1!V9</f>
         <v>1</v>
       </c>
-      <c r="W8" s="31" t="str">
+      <c r="W8" s="33" t="str">
         <f>Sheet1!W9</f>
         <v/>
       </c>
-      <c r="X8" s="31" t="str">
+      <c r="X8" s="33" t="str">
         <f>Sheet1!X9</f>
         <v/>
       </c>
-      <c r="Y8" s="31" t="str">
+      <c r="Y8" s="33" t="str">
         <f>Sheet1!Y9</f>
         <v/>
       </c>
-      <c r="Z8" s="31">
+      <c r="Z8" s="33">
         <f>Sheet1!Z9</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="31" t="str">
+      <c r="AA8" s="33" t="str">
         <f>Sheet1!AA9</f>
         <v/>
       </c>
-      <c r="AB8" s="31" t="str">
+      <c r="AB8" s="33" t="str">
         <f>Sheet1!AB9</f>
         <v/>
       </c>
-      <c r="AC8" s="31" t="str">
+      <c r="AC8" s="33" t="str">
         <f>Sheet1!AC9</f>
         <v/>
       </c>
-      <c r="AD8" s="31">
+      <c r="AD8" s="33">
         <f>Sheet1!AD9</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="31" t="str">
+      <c r="AE8" s="33" t="str">
         <f>Sheet1!AE9</f>
         <v/>
       </c>
-      <c r="AF8" s="31" t="str">
+      <c r="AF8" s="33" t="str">
         <f>Sheet1!AF9</f>
         <v/>
       </c>
-      <c r="AG8" s="31" t="str">
+      <c r="AG8" s="33" t="str">
         <f>Sheet1!AG9</f>
         <v/>
       </c>
-      <c r="AH8" s="31">
+      <c r="AH8" s="33">
         <f>Sheet1!AH9</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="31" t="str">
+      <c r="AI8" s="33" t="str">
         <f>Sheet1!AI9</f>
         <v/>
       </c>
-      <c r="AJ8" s="31" t="str">
+      <c r="AJ8" s="33" t="str">
         <f>Sheet1!AJ9</f>
         <v/>
       </c>
-      <c r="AK8" s="31" t="str">
+      <c r="AK8" s="33" t="str">
         <f>Sheet1!AK9</f>
         <v/>
       </c>
-      <c r="AL8" s="31">
+      <c r="AL8" s="33">
         <f>Sheet1!AL9</f>
         <v>0</v>
       </c>
-      <c r="AM8" s="31" t="str">
+      <c r="AM8" s="33" t="str">
         <f>Sheet1!AM9</f>
         <v/>
       </c>
-      <c r="AN8" s="31" t="str">
+      <c r="AN8" s="33" t="str">
         <f>Sheet1!AN9</f>
         <v/>
       </c>
-      <c r="AO8" s="31" t="str">
+      <c r="AO8" s="33" t="str">
         <f>Sheet1!AO9</f>
         <v/>
       </c>
-      <c r="AP8" s="31">
+      <c r="AP8" s="33">
         <f>Sheet1!AP9</f>
         <v>0</v>
       </c>
-      <c r="AQ8" s="31" t="str">
+      <c r="AQ8" s="33" t="str">
         <f>Sheet1!AQ9</f>
         <v/>
       </c>
-      <c r="AR8" s="31" t="str">
+      <c r="AR8" s="33" t="str">
         <f>Sheet1!AR9</f>
         <v/>
       </c>
-      <c r="AS8" s="31" t="str">
+      <c r="AS8" s="33" t="str">
         <f>Sheet1!AS9</f>
         <v/>
       </c>
-      <c r="AT8" s="31">
+      <c r="AT8" s="33">
         <f>Sheet1!AT9</f>
         <v>0</v>
       </c>
-      <c r="AU8" s="31" t="str">
+      <c r="AU8" s="33" t="str">
         <f>Sheet1!AU9</f>
         <v/>
       </c>
-      <c r="AV8" s="31" t="str">
+      <c r="AV8" s="33" t="str">
         <f>Sheet1!AV9</f>
         <v/>
       </c>
-      <c r="AW8" s="31" t="str">
+      <c r="AW8" s="33" t="str">
         <f>Sheet1!AW9</f>
         <v/>
       </c>
-      <c r="AX8" s="31">
+      <c r="AX8" s="33">
         <f>Sheet1!AX9</f>
         <v>0</v>
       </c>
-      <c r="AY8" s="31" t="str">
+      <c r="AY8" s="33" t="str">
         <f>Sheet1!AY9</f>
         <v/>
       </c>
-      <c r="AZ8" s="31" t="str">
+      <c r="AZ8" s="33" t="str">
         <f>Sheet1!AZ9</f>
         <v/>
       </c>
-      <c r="BA8" s="31" t="str">
+      <c r="BA8" s="33" t="str">
         <f>Sheet1!BA9</f>
         <v/>
       </c>
-      <c r="BB8" s="31">
+      <c r="BB8" s="33">
         <f>Sheet1!BB9</f>
         <v>0</v>
       </c>
-      <c r="BC8" s="31" t="str">
+      <c r="BC8" s="33" t="str">
         <f>Sheet1!BC9</f>
         <v/>
       </c>
-      <c r="BD8" s="31" t="str">
+      <c r="BD8" s="33" t="str">
         <f>Sheet1!BD9</f>
         <v/>
       </c>
-      <c r="BE8" s="31" t="str">
+      <c r="BE8" s="33" t="str">
         <f>Sheet1!BE9</f>
         <v/>
       </c>
-      <c r="BF8" s="31">
+      <c r="BF8" s="33">
         <f>Sheet1!BF9</f>
         <v>0</v>
       </c>
-      <c r="BG8" s="31" t="str">
+      <c r="BG8" s="33" t="str">
         <f>Sheet1!BG9</f>
         <v/>
       </c>
-      <c r="BH8" s="31" t="str">
+      <c r="BH8" s="33" t="str">
         <f>Sheet1!BH9</f>
         <v/>
       </c>
-      <c r="BI8" s="31" t="str">
+      <c r="BI8" s="33" t="str">
         <f>Sheet1!BI9</f>
         <v/>
       </c>
-      <c r="BJ8" s="31">
+      <c r="BJ8" s="33">
         <f>Sheet1!BJ9</f>
         <v>0</v>
       </c>
@@ -5342,251 +5358,251 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="31" t="str">
+      <c r="A9" s="33" t="str">
         <f>Sheet1!A10</f>
         <v>Alpine</v>
       </c>
-      <c r="B9" s="31" t="str">
+      <c r="B9" s="33" t="str">
         <f>Sheet1!B10</f>
         <v>Joshua</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="33">
         <f>Sheet1!C10</f>
         <v>1</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="33">
         <f>Sheet1!D10</f>
         <v>1</v>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="33" t="str">
         <f>Sheet1!E10</f>
         <v>Y</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="33">
         <f>Sheet1!F10</f>
         <v>26</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="33">
         <f>Sheet1!G10</f>
         <v>1</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="33">
         <f>Sheet1!H10</f>
         <v>2</v>
       </c>
-      <c r="I9" s="31" t="str">
+      <c r="I9" s="33" t="str">
         <f>Sheet1!I10</f>
         <v>Y</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="33">
         <f>Sheet1!J10</f>
         <v>26</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="33">
         <f>Sheet1!K10</f>
         <v>2</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="33">
         <f>Sheet1!L10</f>
         <v>1</v>
       </c>
-      <c r="M9" s="31" t="str">
+      <c r="M9" s="33" t="str">
         <f>Sheet1!M10</f>
         <v>Y</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="33">
         <f>Sheet1!N10</f>
         <v>19</v>
       </c>
-      <c r="O9" s="31">
+      <c r="O9" s="33">
         <f>Sheet1!O10</f>
         <v>2</v>
       </c>
-      <c r="P9" s="31">
+      <c r="P9" s="33">
         <f>Sheet1!P10</f>
         <v>3</v>
       </c>
-      <c r="Q9" s="31" t="str">
+      <c r="Q9" s="33" t="str">
         <f>Sheet1!Q10</f>
         <v>Y</v>
       </c>
-      <c r="R9" s="31">
+      <c r="R9" s="33">
         <f>Sheet1!R10</f>
         <v>19</v>
       </c>
-      <c r="S9" s="31">
+      <c r="S9" s="33">
         <f>Sheet1!S10</f>
         <v>1</v>
       </c>
-      <c r="T9" s="31">
+      <c r="T9" s="33">
         <f>Sheet1!T10</f>
         <v>3</v>
       </c>
-      <c r="U9" s="31" t="str">
+      <c r="U9" s="33" t="str">
         <f>Sheet1!U10</f>
         <v>N</v>
       </c>
-      <c r="V9" s="31">
+      <c r="V9" s="33">
         <f>Sheet1!V10</f>
         <v>25</v>
       </c>
-      <c r="W9" s="31" t="str">
+      <c r="W9" s="33" t="str">
         <f>Sheet1!W10</f>
         <v/>
       </c>
-      <c r="X9" s="31" t="str">
+      <c r="X9" s="33" t="str">
         <f>Sheet1!X10</f>
         <v/>
       </c>
-      <c r="Y9" s="31" t="str">
+      <c r="Y9" s="33" t="str">
         <f>Sheet1!Y10</f>
         <v/>
       </c>
-      <c r="Z9" s="31">
+      <c r="Z9" s="33">
         <f>Sheet1!Z10</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="31" t="str">
+      <c r="AA9" s="33" t="str">
         <f>Sheet1!AA10</f>
         <v/>
       </c>
-      <c r="AB9" s="31" t="str">
+      <c r="AB9" s="33" t="str">
         <f>Sheet1!AB10</f>
         <v/>
       </c>
-      <c r="AC9" s="31" t="str">
+      <c r="AC9" s="33" t="str">
         <f>Sheet1!AC10</f>
         <v/>
       </c>
-      <c r="AD9" s="31">
+      <c r="AD9" s="33">
         <f>Sheet1!AD10</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="31" t="str">
+      <c r="AE9" s="33" t="str">
         <f>Sheet1!AE10</f>
         <v/>
       </c>
-      <c r="AF9" s="31" t="str">
+      <c r="AF9" s="33" t="str">
         <f>Sheet1!AF10</f>
         <v/>
       </c>
-      <c r="AG9" s="31" t="str">
+      <c r="AG9" s="33" t="str">
         <f>Sheet1!AG10</f>
         <v/>
       </c>
-      <c r="AH9" s="31">
+      <c r="AH9" s="33">
         <f>Sheet1!AH10</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="31" t="str">
+      <c r="AI9" s="33" t="str">
         <f>Sheet1!AI10</f>
         <v/>
       </c>
-      <c r="AJ9" s="31" t="str">
+      <c r="AJ9" s="33" t="str">
         <f>Sheet1!AJ10</f>
         <v/>
       </c>
-      <c r="AK9" s="31" t="str">
+      <c r="AK9" s="33" t="str">
         <f>Sheet1!AK10</f>
         <v/>
       </c>
-      <c r="AL9" s="31">
+      <c r="AL9" s="33">
         <f>Sheet1!AL10</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="31" t="str">
+      <c r="AM9" s="33" t="str">
         <f>Sheet1!AM10</f>
         <v/>
       </c>
-      <c r="AN9" s="31" t="str">
+      <c r="AN9" s="33" t="str">
         <f>Sheet1!AN10</f>
         <v/>
       </c>
-      <c r="AO9" s="31" t="str">
+      <c r="AO9" s="33" t="str">
         <f>Sheet1!AO10</f>
         <v/>
       </c>
-      <c r="AP9" s="31">
+      <c r="AP9" s="33">
         <f>Sheet1!AP10</f>
         <v>0</v>
       </c>
-      <c r="AQ9" s="31" t="str">
+      <c r="AQ9" s="33" t="str">
         <f>Sheet1!AQ10</f>
         <v/>
       </c>
-      <c r="AR9" s="31" t="str">
+      <c r="AR9" s="33" t="str">
         <f>Sheet1!AR10</f>
         <v/>
       </c>
-      <c r="AS9" s="31" t="str">
+      <c r="AS9" s="33" t="str">
         <f>Sheet1!AS10</f>
         <v/>
       </c>
-      <c r="AT9" s="31">
+      <c r="AT9" s="33">
         <f>Sheet1!AT10</f>
         <v>0</v>
       </c>
-      <c r="AU9" s="31" t="str">
+      <c r="AU9" s="33" t="str">
         <f>Sheet1!AU10</f>
         <v/>
       </c>
-      <c r="AV9" s="31" t="str">
+      <c r="AV9" s="33" t="str">
         <f>Sheet1!AV10</f>
         <v/>
       </c>
-      <c r="AW9" s="31" t="str">
+      <c r="AW9" s="33" t="str">
         <f>Sheet1!AW10</f>
         <v/>
       </c>
-      <c r="AX9" s="31">
+      <c r="AX9" s="33">
         <f>Sheet1!AX10</f>
         <v>0</v>
       </c>
-      <c r="AY9" s="31" t="str">
+      <c r="AY9" s="33" t="str">
         <f>Sheet1!AY10</f>
         <v/>
       </c>
-      <c r="AZ9" s="31" t="str">
+      <c r="AZ9" s="33" t="str">
         <f>Sheet1!AZ10</f>
         <v/>
       </c>
-      <c r="BA9" s="31" t="str">
+      <c r="BA9" s="33" t="str">
         <f>Sheet1!BA10</f>
         <v/>
       </c>
-      <c r="BB9" s="31">
+      <c r="BB9" s="33">
         <f>Sheet1!BB10</f>
         <v>0</v>
       </c>
-      <c r="BC9" s="31" t="str">
+      <c r="BC9" s="33" t="str">
         <f>Sheet1!BC10</f>
         <v/>
       </c>
-      <c r="BD9" s="31" t="str">
+      <c r="BD9" s="33" t="str">
         <f>Sheet1!BD10</f>
         <v/>
       </c>
-      <c r="BE9" s="31" t="str">
+      <c r="BE9" s="33" t="str">
         <f>Sheet1!BE10</f>
         <v/>
       </c>
-      <c r="BF9" s="31">
+      <c r="BF9" s="33">
         <f>Sheet1!BF10</f>
         <v>0</v>
       </c>
-      <c r="BG9" s="31" t="str">
+      <c r="BG9" s="33" t="str">
         <f>Sheet1!BG10</f>
         <v/>
       </c>
-      <c r="BH9" s="31" t="str">
+      <c r="BH9" s="33" t="str">
         <f>Sheet1!BH10</f>
         <v/>
       </c>
-      <c r="BI9" s="31" t="str">
+      <c r="BI9" s="33" t="str">
         <f>Sheet1!BI10</f>
         <v/>
       </c>
-      <c r="BJ9" s="31">
+      <c r="BJ9" s="33">
         <f>Sheet1!BJ10</f>
         <v>0</v>
       </c>
@@ -5595,251 +5611,251 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="31" t="str">
+      <c r="A10" s="33" t="str">
         <f>Sheet1!A11</f>
         <v>Red Bull</v>
       </c>
-      <c r="B10" s="31" t="str">
+      <c r="B10" s="33" t="str">
         <f>Sheet1!B11</f>
         <v>Yeti</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="33">
         <f>Sheet1!C11</f>
         <v>14</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="33">
         <f>Sheet1!D11</f>
         <v>19</v>
       </c>
-      <c r="E10" s="31" t="str">
+      <c r="E10" s="33" t="str">
         <f>Sheet1!E11</f>
         <v>N</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="33">
         <f>Sheet1!F11</f>
         <v>1</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="33">
         <f>Sheet1!G11</f>
         <v>6</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="33">
         <f>Sheet1!H11</f>
         <v>5</v>
       </c>
-      <c r="I10" s="31" t="str">
+      <c r="I10" s="33" t="str">
         <f>Sheet1!I11</f>
         <v>N</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="33">
         <f>Sheet1!J11</f>
         <v>8</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="33">
         <f>Sheet1!K11</f>
         <v>21</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="33">
         <f>Sheet1!L11</f>
         <v>20</v>
       </c>
-      <c r="M10" s="31" t="str">
+      <c r="M10" s="33" t="str">
         <f>Sheet1!M11</f>
         <v>N</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="33">
         <f>Sheet1!N11</f>
         <v>0</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="33">
         <f>Sheet1!O11</f>
         <v>18</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P10" s="33">
         <f>Sheet1!P11</f>
         <v>10</v>
       </c>
-      <c r="Q10" s="31" t="str">
+      <c r="Q10" s="33" t="str">
         <f>Sheet1!Q11</f>
         <v>N</v>
       </c>
-      <c r="R10" s="31">
+      <c r="R10" s="33">
         <f>Sheet1!R11</f>
         <v>1</v>
       </c>
-      <c r="S10" s="31">
+      <c r="S10" s="33">
         <f>Sheet1!S11</f>
         <v>5</v>
       </c>
-      <c r="T10" s="31">
+      <c r="T10" s="33">
         <f>Sheet1!T11</f>
         <v>14</v>
       </c>
-      <c r="U10" s="31" t="str">
+      <c r="U10" s="33" t="str">
         <f>Sheet1!U11</f>
         <v>N</v>
       </c>
-      <c r="V10" s="31">
+      <c r="V10" s="33">
         <f>Sheet1!V11</f>
         <v>10</v>
       </c>
-      <c r="W10" s="31" t="str">
+      <c r="W10" s="33" t="str">
         <f>Sheet1!W11</f>
         <v/>
       </c>
-      <c r="X10" s="31" t="str">
+      <c r="X10" s="33" t="str">
         <f>Sheet1!X11</f>
         <v/>
       </c>
-      <c r="Y10" s="31" t="str">
+      <c r="Y10" s="33" t="str">
         <f>Sheet1!Y11</f>
         <v/>
       </c>
-      <c r="Z10" s="31">
+      <c r="Z10" s="33">
         <f>Sheet1!Z11</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="31" t="str">
+      <c r="AA10" s="33" t="str">
         <f>Sheet1!AA11</f>
         <v/>
       </c>
-      <c r="AB10" s="31" t="str">
+      <c r="AB10" s="33" t="str">
         <f>Sheet1!AB11</f>
         <v/>
       </c>
-      <c r="AC10" s="31" t="str">
+      <c r="AC10" s="33" t="str">
         <f>Sheet1!AC11</f>
         <v/>
       </c>
-      <c r="AD10" s="31">
+      <c r="AD10" s="33">
         <f>Sheet1!AD11</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="31" t="str">
+      <c r="AE10" s="33" t="str">
         <f>Sheet1!AE11</f>
         <v/>
       </c>
-      <c r="AF10" s="31" t="str">
+      <c r="AF10" s="33" t="str">
         <f>Sheet1!AF11</f>
         <v/>
       </c>
-      <c r="AG10" s="31" t="str">
+      <c r="AG10" s="33" t="str">
         <f>Sheet1!AG11</f>
         <v/>
       </c>
-      <c r="AH10" s="31">
+      <c r="AH10" s="33">
         <f>Sheet1!AH11</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="31" t="str">
+      <c r="AI10" s="33" t="str">
         <f>Sheet1!AI11</f>
         <v/>
       </c>
-      <c r="AJ10" s="31" t="str">
+      <c r="AJ10" s="33" t="str">
         <f>Sheet1!AJ11</f>
         <v/>
       </c>
-      <c r="AK10" s="31" t="str">
+      <c r="AK10" s="33" t="str">
         <f>Sheet1!AK11</f>
         <v/>
       </c>
-      <c r="AL10" s="31">
+      <c r="AL10" s="33">
         <f>Sheet1!AL11</f>
         <v>0</v>
       </c>
-      <c r="AM10" s="31" t="str">
+      <c r="AM10" s="33" t="str">
         <f>Sheet1!AM11</f>
         <v/>
       </c>
-      <c r="AN10" s="31" t="str">
+      <c r="AN10" s="33" t="str">
         <f>Sheet1!AN11</f>
         <v/>
       </c>
-      <c r="AO10" s="31" t="str">
+      <c r="AO10" s="33" t="str">
         <f>Sheet1!AO11</f>
         <v/>
       </c>
-      <c r="AP10" s="31">
+      <c r="AP10" s="33">
         <f>Sheet1!AP11</f>
         <v>0</v>
       </c>
-      <c r="AQ10" s="31" t="str">
+      <c r="AQ10" s="33" t="str">
         <f>Sheet1!AQ11</f>
         <v/>
       </c>
-      <c r="AR10" s="31" t="str">
+      <c r="AR10" s="33" t="str">
         <f>Sheet1!AR11</f>
         <v/>
       </c>
-      <c r="AS10" s="31" t="str">
+      <c r="AS10" s="33" t="str">
         <f>Sheet1!AS11</f>
         <v/>
       </c>
-      <c r="AT10" s="31">
+      <c r="AT10" s="33">
         <f>Sheet1!AT11</f>
         <v>0</v>
       </c>
-      <c r="AU10" s="31" t="str">
+      <c r="AU10" s="33" t="str">
         <f>Sheet1!AU11</f>
         <v/>
       </c>
-      <c r="AV10" s="31" t="str">
+      <c r="AV10" s="33" t="str">
         <f>Sheet1!AV11</f>
         <v/>
       </c>
-      <c r="AW10" s="31" t="str">
+      <c r="AW10" s="33" t="str">
         <f>Sheet1!AW11</f>
         <v/>
       </c>
-      <c r="AX10" s="31">
+      <c r="AX10" s="33">
         <f>Sheet1!AX11</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="31" t="str">
+      <c r="AY10" s="33" t="str">
         <f>Sheet1!AY11</f>
         <v/>
       </c>
-      <c r="AZ10" s="31" t="str">
+      <c r="AZ10" s="33" t="str">
         <f>Sheet1!AZ11</f>
         <v/>
       </c>
-      <c r="BA10" s="31" t="str">
+      <c r="BA10" s="33" t="str">
         <f>Sheet1!BA11</f>
         <v/>
       </c>
-      <c r="BB10" s="31">
+      <c r="BB10" s="33">
         <f>Sheet1!BB11</f>
         <v>0</v>
       </c>
-      <c r="BC10" s="31" t="str">
+      <c r="BC10" s="33" t="str">
         <f>Sheet1!BC11</f>
         <v/>
       </c>
-      <c r="BD10" s="31" t="str">
+      <c r="BD10" s="33" t="str">
         <f>Sheet1!BD11</f>
         <v/>
       </c>
-      <c r="BE10" s="31" t="str">
+      <c r="BE10" s="33" t="str">
         <f>Sheet1!BE11</f>
         <v/>
       </c>
-      <c r="BF10" s="31">
+      <c r="BF10" s="33">
         <f>Sheet1!BF11</f>
         <v>0</v>
       </c>
-      <c r="BG10" s="31" t="str">
+      <c r="BG10" s="33" t="str">
         <f>Sheet1!BG11</f>
         <v/>
       </c>
-      <c r="BH10" s="31" t="str">
+      <c r="BH10" s="33" t="str">
         <f>Sheet1!BH11</f>
         <v/>
       </c>
-      <c r="BI10" s="31" t="str">
+      <c r="BI10" s="33" t="str">
         <f>Sheet1!BI11</f>
         <v/>
       </c>
-      <c r="BJ10" s="31">
+      <c r="BJ10" s="33">
         <f>Sheet1!BJ11</f>
         <v>0</v>
       </c>
@@ -5848,251 +5864,251 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="31" t="str">
+      <c r="A11" s="33" t="str">
         <f>Sheet1!A12</f>
         <v>Red Bull</v>
       </c>
-      <c r="B11" s="31" t="str">
+      <c r="B11" s="33" t="str">
         <f>Sheet1!B12</f>
         <v>Boz</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="33">
         <f>Sheet1!C12</f>
         <v>17</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="33">
         <f>Sheet1!D12</f>
         <v>8</v>
       </c>
-      <c r="E11" s="31" t="str">
+      <c r="E11" s="33" t="str">
         <f>Sheet1!E12</f>
         <v>N</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="33">
         <f>Sheet1!F12</f>
         <v>1</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="33">
         <f>Sheet1!G12</f>
         <v>11</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="33">
         <f>Sheet1!H12</f>
         <v>7</v>
       </c>
-      <c r="I11" s="31" t="str">
+      <c r="I11" s="33" t="str">
         <f>Sheet1!I12</f>
         <v>N</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="33">
         <f>Sheet1!J12</f>
         <v>1</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="33">
         <f>Sheet1!K12</f>
         <v>21</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="33">
         <f>Sheet1!L12</f>
         <v>19</v>
       </c>
-      <c r="M11" s="31" t="str">
+      <c r="M11" s="33" t="str">
         <f>Sheet1!M12</f>
         <v>N</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="33">
         <f>Sheet1!N12</f>
         <v>0</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="33">
         <f>Sheet1!O12</f>
         <v>15</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="33">
         <f>Sheet1!P12</f>
         <v>11</v>
       </c>
-      <c r="Q11" s="31" t="str">
+      <c r="Q11" s="33" t="str">
         <f>Sheet1!Q12</f>
         <v>N</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="33">
         <f>Sheet1!R12</f>
         <v>1</v>
       </c>
-      <c r="S11" s="31">
+      <c r="S11" s="33">
         <f>Sheet1!S12</f>
         <v>22</v>
       </c>
-      <c r="T11" s="31">
+      <c r="T11" s="33">
         <f>Sheet1!T12</f>
         <v>22</v>
       </c>
-      <c r="U11" s="31" t="str">
+      <c r="U11" s="33" t="str">
         <f>Sheet1!U12</f>
         <v>N</v>
       </c>
-      <c r="V11" s="31">
+      <c r="V11" s="33">
         <f>Sheet1!V12</f>
         <v>0</v>
       </c>
-      <c r="W11" s="31" t="str">
+      <c r="W11" s="33" t="str">
         <f>Sheet1!W12</f>
         <v/>
       </c>
-      <c r="X11" s="31" t="str">
+      <c r="X11" s="33" t="str">
         <f>Sheet1!X12</f>
         <v/>
       </c>
-      <c r="Y11" s="31" t="str">
+      <c r="Y11" s="33" t="str">
         <f>Sheet1!Y12</f>
         <v/>
       </c>
-      <c r="Z11" s="31">
+      <c r="Z11" s="33">
         <f>Sheet1!Z12</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="31" t="str">
+      <c r="AA11" s="33" t="str">
         <f>Sheet1!AA12</f>
         <v/>
       </c>
-      <c r="AB11" s="31" t="str">
+      <c r="AB11" s="33" t="str">
         <f>Sheet1!AB12</f>
         <v/>
       </c>
-      <c r="AC11" s="31" t="str">
+      <c r="AC11" s="33" t="str">
         <f>Sheet1!AC12</f>
         <v/>
       </c>
-      <c r="AD11" s="31">
+      <c r="AD11" s="33">
         <f>Sheet1!AD12</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="31" t="str">
+      <c r="AE11" s="33" t="str">
         <f>Sheet1!AE12</f>
         <v/>
       </c>
-      <c r="AF11" s="31" t="str">
+      <c r="AF11" s="33" t="str">
         <f>Sheet1!AF12</f>
         <v/>
       </c>
-      <c r="AG11" s="31" t="str">
+      <c r="AG11" s="33" t="str">
         <f>Sheet1!AG12</f>
         <v/>
       </c>
-      <c r="AH11" s="31">
+      <c r="AH11" s="33">
         <f>Sheet1!AH12</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="31" t="str">
+      <c r="AI11" s="33" t="str">
         <f>Sheet1!AI12</f>
         <v/>
       </c>
-      <c r="AJ11" s="31" t="str">
+      <c r="AJ11" s="33" t="str">
         <f>Sheet1!AJ12</f>
         <v/>
       </c>
-      <c r="AK11" s="31" t="str">
+      <c r="AK11" s="33" t="str">
         <f>Sheet1!AK12</f>
         <v/>
       </c>
-      <c r="AL11" s="31">
+      <c r="AL11" s="33">
         <f>Sheet1!AL12</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="31" t="str">
+      <c r="AM11" s="33" t="str">
         <f>Sheet1!AM12</f>
         <v/>
       </c>
-      <c r="AN11" s="31" t="str">
+      <c r="AN11" s="33" t="str">
         <f>Sheet1!AN12</f>
         <v/>
       </c>
-      <c r="AO11" s="31" t="str">
+      <c r="AO11" s="33" t="str">
         <f>Sheet1!AO12</f>
         <v/>
       </c>
-      <c r="AP11" s="31">
+      <c r="AP11" s="33">
         <f>Sheet1!AP12</f>
         <v>0</v>
       </c>
-      <c r="AQ11" s="31" t="str">
+      <c r="AQ11" s="33" t="str">
         <f>Sheet1!AQ12</f>
         <v/>
       </c>
-      <c r="AR11" s="31" t="str">
+      <c r="AR11" s="33" t="str">
         <f>Sheet1!AR12</f>
         <v/>
       </c>
-      <c r="AS11" s="31" t="str">
+      <c r="AS11" s="33" t="str">
         <f>Sheet1!AS12</f>
         <v/>
       </c>
-      <c r="AT11" s="31">
+      <c r="AT11" s="33">
         <f>Sheet1!AT12</f>
         <v>0</v>
       </c>
-      <c r="AU11" s="31" t="str">
+      <c r="AU11" s="33" t="str">
         <f>Sheet1!AU12</f>
         <v/>
       </c>
-      <c r="AV11" s="31" t="str">
+      <c r="AV11" s="33" t="str">
         <f>Sheet1!AV12</f>
         <v/>
       </c>
-      <c r="AW11" s="31" t="str">
+      <c r="AW11" s="33" t="str">
         <f>Sheet1!AW12</f>
         <v/>
       </c>
-      <c r="AX11" s="31">
+      <c r="AX11" s="33">
         <f>Sheet1!AX12</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="31" t="str">
+      <c r="AY11" s="33" t="str">
         <f>Sheet1!AY12</f>
         <v/>
       </c>
-      <c r="AZ11" s="31" t="str">
+      <c r="AZ11" s="33" t="str">
         <f>Sheet1!AZ12</f>
         <v/>
       </c>
-      <c r="BA11" s="31" t="str">
+      <c r="BA11" s="33" t="str">
         <f>Sheet1!BA12</f>
         <v/>
       </c>
-      <c r="BB11" s="31">
+      <c r="BB11" s="33">
         <f>Sheet1!BB12</f>
         <v>0</v>
       </c>
-      <c r="BC11" s="31" t="str">
+      <c r="BC11" s="33" t="str">
         <f>Sheet1!BC12</f>
         <v/>
       </c>
-      <c r="BD11" s="31" t="str">
+      <c r="BD11" s="33" t="str">
         <f>Sheet1!BD12</f>
         <v/>
       </c>
-      <c r="BE11" s="31" t="str">
+      <c r="BE11" s="33" t="str">
         <f>Sheet1!BE12</f>
         <v/>
       </c>
-      <c r="BF11" s="31">
+      <c r="BF11" s="33">
         <f>Sheet1!BF12</f>
         <v>0</v>
       </c>
-      <c r="BG11" s="31" t="str">
+      <c r="BG11" s="33" t="str">
         <f>Sheet1!BG12</f>
         <v/>
       </c>
-      <c r="BH11" s="31" t="str">
+      <c r="BH11" s="33" t="str">
         <f>Sheet1!BH12</f>
         <v/>
       </c>
-      <c r="BI11" s="31" t="str">
+      <c r="BI11" s="33" t="str">
         <f>Sheet1!BI12</f>
         <v/>
       </c>
-      <c r="BJ11" s="31">
+      <c r="BJ11" s="33">
         <f>Sheet1!BJ12</f>
         <v>0</v>
       </c>
@@ -6101,504 +6117,504 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="31" t="str">
+      <c r="A12" s="33" t="str">
         <f>Sheet1!A13</f>
         <v>Aston Martin</v>
       </c>
-      <c r="B12" s="31" t="str">
+      <c r="B12" s="33" t="str">
         <f>Sheet1!B13</f>
         <v>Gary</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="33">
         <f>Sheet1!C13</f>
         <v>18</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="33">
         <f>Sheet1!D13</f>
         <v>20</v>
       </c>
-      <c r="E12" s="31" t="str">
+      <c r="E12" s="33" t="str">
         <f>Sheet1!E13</f>
         <v>N</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="33">
         <f>Sheet1!F13</f>
         <v>1</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="33">
         <f>Sheet1!G13</f>
         <v>19</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="33">
         <f>Sheet1!H13</f>
         <v>19</v>
       </c>
-      <c r="I12" s="31" t="str">
+      <c r="I12" s="33" t="str">
         <f>Sheet1!I13</f>
         <v>N</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="33">
         <f>Sheet1!J13</f>
         <v>1</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="33">
         <f>Sheet1!K13</f>
         <v>22</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="33">
         <f>Sheet1!L13</f>
         <v>22</v>
       </c>
-      <c r="M12" s="31" t="str">
+      <c r="M12" s="33" t="str">
         <f>Sheet1!M13</f>
         <v>N</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="33">
         <f>Sheet1!N13</f>
         <v>0</v>
       </c>
-      <c r="O12" s="31">
+      <c r="O12" s="33">
         <f>Sheet1!O13</f>
         <v>22</v>
       </c>
-      <c r="P12" s="31">
+      <c r="P12" s="33">
         <f>Sheet1!P13</f>
         <v>22</v>
       </c>
-      <c r="Q12" s="31" t="str">
+      <c r="Q12" s="33" t="str">
         <f>Sheet1!Q13</f>
         <v>N</v>
       </c>
-      <c r="R12" s="31">
+      <c r="R12" s="33">
         <f>Sheet1!R13</f>
         <v>0</v>
       </c>
-      <c r="S12" s="31">
+      <c r="S12" s="33">
         <f>Sheet1!S13</f>
         <v>22</v>
       </c>
-      <c r="T12" s="31">
+      <c r="T12" s="33">
+        <f>Sheet1!T13</f>
+        <v>22</v>
+      </c>
+      <c r="U12" s="33" t="str">
+        <f>Sheet1!U13</f>
+        <v>N</v>
+      </c>
+      <c r="V12" s="33">
+        <f>Sheet1!V13</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="33" t="str">
+        <f>Sheet1!W13</f>
+        <v/>
+      </c>
+      <c r="X12" s="33" t="str">
+        <f>Sheet1!X13</f>
+        <v/>
+      </c>
+      <c r="Y12" s="33" t="str">
+        <f>Sheet1!Y13</f>
+        <v/>
+      </c>
+      <c r="Z12" s="33">
+        <f>Sheet1!Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="33" t="str">
+        <f>Sheet1!AA13</f>
+        <v/>
+      </c>
+      <c r="AB12" s="33" t="str">
+        <f>Sheet1!AB13</f>
+        <v/>
+      </c>
+      <c r="AC12" s="33" t="str">
+        <f>Sheet1!AC13</f>
+        <v/>
+      </c>
+      <c r="AD12" s="33">
+        <f>Sheet1!AD13</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="33" t="str">
+        <f>Sheet1!AE13</f>
+        <v/>
+      </c>
+      <c r="AF12" s="33" t="str">
+        <f>Sheet1!AF13</f>
+        <v/>
+      </c>
+      <c r="AG12" s="33" t="str">
+        <f>Sheet1!AG13</f>
+        <v/>
+      </c>
+      <c r="AH12" s="33">
+        <f>Sheet1!AH13</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="33" t="str">
+        <f>Sheet1!AI13</f>
+        <v/>
+      </c>
+      <c r="AJ12" s="33" t="str">
+        <f>Sheet1!AJ13</f>
+        <v/>
+      </c>
+      <c r="AK12" s="33" t="str">
+        <f>Sheet1!AK13</f>
+        <v/>
+      </c>
+      <c r="AL12" s="33">
+        <f>Sheet1!AL13</f>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="33" t="str">
+        <f>Sheet1!AM13</f>
+        <v/>
+      </c>
+      <c r="AN12" s="33" t="str">
+        <f>Sheet1!AN13</f>
+        <v/>
+      </c>
+      <c r="AO12" s="33" t="str">
+        <f>Sheet1!AO13</f>
+        <v/>
+      </c>
+      <c r="AP12" s="33">
+        <f>Sheet1!AP13</f>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="33" t="str">
+        <f>Sheet1!AQ13</f>
+        <v/>
+      </c>
+      <c r="AR12" s="33" t="str">
+        <f>Sheet1!AR13</f>
+        <v/>
+      </c>
+      <c r="AS12" s="33" t="str">
+        <f>Sheet1!AS13</f>
+        <v/>
+      </c>
+      <c r="AT12" s="33">
+        <f>Sheet1!AT13</f>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="33" t="str">
+        <f>Sheet1!AU13</f>
+        <v/>
+      </c>
+      <c r="AV12" s="33" t="str">
+        <f>Sheet1!AV13</f>
+        <v/>
+      </c>
+      <c r="AW12" s="33" t="str">
+        <f>Sheet1!AW13</f>
+        <v/>
+      </c>
+      <c r="AX12" s="33">
+        <f>Sheet1!AX13</f>
+        <v>0</v>
+      </c>
+      <c r="AY12" s="33" t="str">
+        <f>Sheet1!AY13</f>
+        <v/>
+      </c>
+      <c r="AZ12" s="33" t="str">
+        <f>Sheet1!AZ13</f>
+        <v/>
+      </c>
+      <c r="BA12" s="33" t="str">
+        <f>Sheet1!BA13</f>
+        <v/>
+      </c>
+      <c r="BB12" s="33">
+        <f>Sheet1!BB13</f>
+        <v>0</v>
+      </c>
+      <c r="BC12" s="33" t="str">
+        <f>Sheet1!BC13</f>
+        <v/>
+      </c>
+      <c r="BD12" s="33" t="str">
+        <f>Sheet1!BD13</f>
+        <v/>
+      </c>
+      <c r="BE12" s="33" t="str">
+        <f>Sheet1!BE13</f>
+        <v/>
+      </c>
+      <c r="BF12" s="33">
+        <f>Sheet1!BF13</f>
+        <v>0</v>
+      </c>
+      <c r="BG12" s="33" t="str">
+        <f>Sheet1!BG13</f>
+        <v/>
+      </c>
+      <c r="BH12" s="33" t="str">
+        <f>Sheet1!BH13</f>
+        <v/>
+      </c>
+      <c r="BI12" s="33" t="str">
+        <f>Sheet1!BI13</f>
+        <v/>
+      </c>
+      <c r="BJ12" s="33">
+        <f>Sheet1!BJ13</f>
+        <v>0</v>
+      </c>
+      <c r="BK12" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="33" t="str">
+        <f>Sheet1!A14</f>
+        <v>Aston Martin</v>
+      </c>
+      <c r="B13" s="33" t="str">
+        <f>Sheet1!B14</f>
+        <v>Del</v>
+      </c>
+      <c r="C13" s="33">
+        <f>Sheet1!C14</f>
+        <v>3</v>
+      </c>
+      <c r="D13" s="33">
+        <f>Sheet1!D14</f>
+        <v>18</v>
+      </c>
+      <c r="E13" s="33" t="str">
+        <f>Sheet1!E14</f>
+        <v>N</v>
+      </c>
+      <c r="F13" s="33">
+        <f>Sheet1!F14</f>
+        <v>15</v>
+      </c>
+      <c r="G13" s="33">
+        <f>Sheet1!G14</f>
+        <v>22</v>
+      </c>
+      <c r="H13" s="33">
+        <f>Sheet1!H14</f>
+        <v>22</v>
+      </c>
+      <c r="I13" s="33" t="str">
+        <f>Sheet1!I14</f>
+        <v>N</v>
+      </c>
+      <c r="J13" s="33">
+        <f>Sheet1!J14</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="33">
+        <f>Sheet1!K14</f>
+        <v>11</v>
+      </c>
+      <c r="L13" s="33">
+        <f>Sheet1!L14</f>
+        <v>3</v>
+      </c>
+      <c r="M13" s="33" t="str">
+        <f>Sheet1!M14</f>
+        <v>N</v>
+      </c>
+      <c r="N13" s="33">
+        <f>Sheet1!N14</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="33">
+        <f>Sheet1!O14</f>
+        <v>3</v>
+      </c>
+      <c r="P13" s="33">
+        <f>Sheet1!P14</f>
+        <v>7</v>
+      </c>
+      <c r="Q13" s="33" t="str">
+        <f>Sheet1!Q14</f>
+        <v>N</v>
+      </c>
+      <c r="R13" s="33">
+        <f>Sheet1!R14</f>
+        <v>15</v>
+      </c>
+      <c r="S13" s="33">
+        <f>Sheet1!S14</f>
+        <v>8</v>
+      </c>
+      <c r="T13" s="33">
         <f>Sheet1!T14</f>
         <v>4</v>
       </c>
-      <c r="U12" s="31" t="str">
-        <f>Sheet1!U13</f>
-        <v>N</v>
-      </c>
-      <c r="V12" s="31">
-        <f>Sheet1!V13</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="31" t="str">
-        <f>Sheet1!W13</f>
-        <v/>
-      </c>
-      <c r="X12" s="31" t="str">
-        <f>Sheet1!X13</f>
-        <v/>
-      </c>
-      <c r="Y12" s="31" t="str">
-        <f>Sheet1!Y13</f>
-        <v/>
-      </c>
-      <c r="Z12" s="31">
-        <f>Sheet1!Z13</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="31" t="str">
-        <f>Sheet1!AA13</f>
-        <v/>
-      </c>
-      <c r="AB12" s="31" t="str">
-        <f>Sheet1!AB13</f>
-        <v/>
-      </c>
-      <c r="AC12" s="31" t="str">
-        <f>Sheet1!AC13</f>
-        <v/>
-      </c>
-      <c r="AD12" s="31">
-        <f>Sheet1!AD13</f>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="31" t="str">
-        <f>Sheet1!AE13</f>
-        <v/>
-      </c>
-      <c r="AF12" s="31" t="str">
-        <f>Sheet1!AF13</f>
-        <v/>
-      </c>
-      <c r="AG12" s="31" t="str">
-        <f>Sheet1!AG13</f>
-        <v/>
-      </c>
-      <c r="AH12" s="31">
-        <f>Sheet1!AH13</f>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="31" t="str">
-        <f>Sheet1!AI13</f>
-        <v/>
-      </c>
-      <c r="AJ12" s="31" t="str">
-        <f>Sheet1!AJ13</f>
-        <v/>
-      </c>
-      <c r="AK12" s="31" t="str">
-        <f>Sheet1!AK13</f>
-        <v/>
-      </c>
-      <c r="AL12" s="31">
-        <f>Sheet1!AL13</f>
-        <v>0</v>
-      </c>
-      <c r="AM12" s="31" t="str">
-        <f>Sheet1!AM13</f>
-        <v/>
-      </c>
-      <c r="AN12" s="31" t="str">
-        <f>Sheet1!AN13</f>
-        <v/>
-      </c>
-      <c r="AO12" s="31" t="str">
-        <f>Sheet1!AO13</f>
-        <v/>
-      </c>
-      <c r="AP12" s="31">
-        <f>Sheet1!AP13</f>
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="31" t="str">
-        <f>Sheet1!AQ13</f>
-        <v/>
-      </c>
-      <c r="AR12" s="31" t="str">
-        <f>Sheet1!AR13</f>
-        <v/>
-      </c>
-      <c r="AS12" s="31" t="str">
-        <f>Sheet1!AS13</f>
-        <v/>
-      </c>
-      <c r="AT12" s="31">
-        <f>Sheet1!AT13</f>
-        <v>0</v>
-      </c>
-      <c r="AU12" s="31" t="str">
-        <f>Sheet1!AU13</f>
-        <v/>
-      </c>
-      <c r="AV12" s="31" t="str">
-        <f>Sheet1!AV13</f>
-        <v/>
-      </c>
-      <c r="AW12" s="31" t="str">
-        <f>Sheet1!AW13</f>
-        <v/>
-      </c>
-      <c r="AX12" s="31">
-        <f>Sheet1!AX13</f>
-        <v>0</v>
-      </c>
-      <c r="AY12" s="31" t="str">
-        <f>Sheet1!AY13</f>
-        <v/>
-      </c>
-      <c r="AZ12" s="31" t="str">
-        <f>Sheet1!AZ13</f>
-        <v/>
-      </c>
-      <c r="BA12" s="31" t="str">
-        <f>Sheet1!BA13</f>
-        <v/>
-      </c>
-      <c r="BB12" s="31">
-        <f>Sheet1!BB13</f>
-        <v>0</v>
-      </c>
-      <c r="BC12" s="31" t="str">
-        <f>Sheet1!BC13</f>
-        <v/>
-      </c>
-      <c r="BD12" s="31" t="str">
-        <f>Sheet1!BD13</f>
-        <v/>
-      </c>
-      <c r="BE12" s="31" t="str">
-        <f>Sheet1!BE13</f>
-        <v/>
-      </c>
-      <c r="BF12" s="31">
-        <f>Sheet1!BF13</f>
-        <v>0</v>
-      </c>
-      <c r="BG12" s="31" t="str">
-        <f>Sheet1!BG13</f>
-        <v/>
-      </c>
-      <c r="BH12" s="31" t="str">
-        <f>Sheet1!BH13</f>
-        <v/>
-      </c>
-      <c r="BI12" s="31" t="str">
-        <f>Sheet1!BI13</f>
-        <v/>
-      </c>
-      <c r="BJ12" s="31">
-        <f>Sheet1!BJ13</f>
-        <v>0</v>
-      </c>
-      <c r="BK12" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="31" t="str">
-        <f>Sheet1!A14</f>
-        <v>Aston Martin</v>
-      </c>
-      <c r="B13" s="31" t="str">
-        <f>Sheet1!B14</f>
-        <v>Del</v>
-      </c>
-      <c r="C13" s="31">
-        <f>Sheet1!C14</f>
-        <v>3</v>
-      </c>
-      <c r="D13" s="31">
-        <f>Sheet1!D14</f>
-        <v>18</v>
-      </c>
-      <c r="E13" s="31" t="str">
-        <f>Sheet1!E14</f>
-        <v>N</v>
-      </c>
-      <c r="F13" s="31">
-        <f>Sheet1!F14</f>
-        <v>15</v>
-      </c>
-      <c r="G13" s="31">
-        <f>Sheet1!G14</f>
-        <v>22</v>
-      </c>
-      <c r="H13" s="31">
-        <f>Sheet1!H14</f>
-        <v>22</v>
-      </c>
-      <c r="I13" s="31" t="str">
-        <f>Sheet1!I14</f>
-        <v>N</v>
-      </c>
-      <c r="J13" s="31">
-        <f>Sheet1!J14</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="31">
-        <f>Sheet1!K14</f>
-        <v>11</v>
-      </c>
-      <c r="L13" s="31">
-        <f>Sheet1!L14</f>
-        <v>3</v>
-      </c>
-      <c r="M13" s="31" t="str">
-        <f>Sheet1!M14</f>
-        <v>N</v>
-      </c>
-      <c r="N13" s="31">
-        <f>Sheet1!N14</f>
-        <v>1</v>
-      </c>
-      <c r="O13" s="31">
-        <f>Sheet1!O14</f>
-        <v>3</v>
-      </c>
-      <c r="P13" s="31">
-        <f>Sheet1!P14</f>
-        <v>7</v>
-      </c>
-      <c r="Q13" s="31" t="str">
-        <f>Sheet1!Q14</f>
-        <v>N</v>
-      </c>
-      <c r="R13" s="31">
-        <f>Sheet1!R14</f>
-        <v>15</v>
-      </c>
-      <c r="S13" s="31">
-        <f>Sheet1!S14</f>
-        <v>8</v>
-      </c>
-      <c r="T13" s="31" t="str">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U13" s="31" t="str">
+      <c r="U13" s="33" t="str">
         <f>Sheet1!U14</f>
         <v>N</v>
       </c>
-      <c r="V13" s="31">
+      <c r="V13" s="33">
         <f>Sheet1!V14</f>
         <v>4</v>
       </c>
-      <c r="W13" s="31" t="str">
+      <c r="W13" s="33" t="str">
         <f>Sheet1!W14</f>
         <v/>
       </c>
-      <c r="X13" s="31" t="str">
+      <c r="X13" s="33" t="str">
         <f>Sheet1!X14</f>
         <v/>
       </c>
-      <c r="Y13" s="31" t="str">
+      <c r="Y13" s="33" t="str">
         <f>Sheet1!Y14</f>
         <v/>
       </c>
-      <c r="Z13" s="31">
+      <c r="Z13" s="33">
         <f>Sheet1!Z14</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="31" t="str">
+      <c r="AA13" s="33" t="str">
         <f>Sheet1!AA14</f>
         <v/>
       </c>
-      <c r="AB13" s="31" t="str">
+      <c r="AB13" s="33" t="str">
         <f>Sheet1!AB14</f>
         <v/>
       </c>
-      <c r="AC13" s="31" t="str">
+      <c r="AC13" s="33" t="str">
         <f>Sheet1!AC14</f>
         <v/>
       </c>
-      <c r="AD13" s="31">
+      <c r="AD13" s="33">
         <f>Sheet1!AD14</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="31" t="str">
+      <c r="AE13" s="33" t="str">
         <f>Sheet1!AE14</f>
         <v/>
       </c>
-      <c r="AF13" s="31" t="str">
+      <c r="AF13" s="33" t="str">
         <f>Sheet1!AF14</f>
         <v/>
       </c>
-      <c r="AG13" s="31" t="str">
+      <c r="AG13" s="33" t="str">
         <f>Sheet1!AG14</f>
         <v/>
       </c>
-      <c r="AH13" s="31">
+      <c r="AH13" s="33">
         <f>Sheet1!AH14</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="31" t="str">
+      <c r="AI13" s="33" t="str">
         <f>Sheet1!AI14</f>
         <v/>
       </c>
-      <c r="AJ13" s="31" t="str">
+      <c r="AJ13" s="33" t="str">
         <f>Sheet1!AJ14</f>
         <v/>
       </c>
-      <c r="AK13" s="31" t="str">
+      <c r="AK13" s="33" t="str">
         <f>Sheet1!AK14</f>
         <v/>
       </c>
-      <c r="AL13" s="31">
+      <c r="AL13" s="33">
         <f>Sheet1!AL14</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="31" t="str">
+      <c r="AM13" s="33" t="str">
         <f>Sheet1!AM14</f>
         <v/>
       </c>
-      <c r="AN13" s="31" t="str">
+      <c r="AN13" s="33" t="str">
         <f>Sheet1!AN14</f>
         <v/>
       </c>
-      <c r="AO13" s="31" t="str">
+      <c r="AO13" s="33" t="str">
         <f>Sheet1!AO14</f>
         <v/>
       </c>
-      <c r="AP13" s="31">
+      <c r="AP13" s="33">
         <f>Sheet1!AP14</f>
         <v>0</v>
       </c>
-      <c r="AQ13" s="31" t="str">
+      <c r="AQ13" s="33" t="str">
         <f>Sheet1!AQ14</f>
         <v/>
       </c>
-      <c r="AR13" s="31" t="str">
+      <c r="AR13" s="33" t="str">
         <f>Sheet1!AR14</f>
         <v/>
       </c>
-      <c r="AS13" s="31" t="str">
+      <c r="AS13" s="33" t="str">
         <f>Sheet1!AS14</f>
         <v/>
       </c>
-      <c r="AT13" s="31">
+      <c r="AT13" s="33">
         <f>Sheet1!AT14</f>
         <v>0</v>
       </c>
-      <c r="AU13" s="31" t="str">
+      <c r="AU13" s="33" t="str">
         <f>Sheet1!AU14</f>
         <v/>
       </c>
-      <c r="AV13" s="31" t="str">
+      <c r="AV13" s="33" t="str">
         <f>Sheet1!AV14</f>
         <v/>
       </c>
-      <c r="AW13" s="31" t="str">
+      <c r="AW13" s="33" t="str">
         <f>Sheet1!AW14</f>
         <v/>
       </c>
-      <c r="AX13" s="31">
+      <c r="AX13" s="33">
         <f>Sheet1!AX14</f>
         <v>0</v>
       </c>
-      <c r="AY13" s="31" t="str">
+      <c r="AY13" s="33" t="str">
         <f>Sheet1!AY14</f>
         <v/>
       </c>
-      <c r="AZ13" s="31" t="str">
+      <c r="AZ13" s="33" t="str">
         <f>Sheet1!AZ14</f>
         <v/>
       </c>
-      <c r="BA13" s="31" t="str">
+      <c r="BA13" s="33" t="str">
         <f>Sheet1!BA14</f>
         <v/>
       </c>
-      <c r="BB13" s="31">
+      <c r="BB13" s="33">
         <f>Sheet1!BB14</f>
         <v>0</v>
       </c>
-      <c r="BC13" s="31" t="str">
+      <c r="BC13" s="33" t="str">
         <f>Sheet1!BC14</f>
         <v/>
       </c>
-      <c r="BD13" s="31" t="str">
+      <c r="BD13" s="33" t="str">
         <f>Sheet1!BD14</f>
         <v/>
       </c>
-      <c r="BE13" s="31" t="str">
+      <c r="BE13" s="33" t="str">
         <f>Sheet1!BE14</f>
         <v/>
       </c>
-      <c r="BF13" s="31">
+      <c r="BF13" s="33">
         <f>Sheet1!BF14</f>
         <v>0</v>
       </c>
-      <c r="BG13" s="31" t="str">
+      <c r="BG13" s="33" t="str">
         <f>Sheet1!BG14</f>
         <v/>
       </c>
-      <c r="BH13" s="31" t="str">
+      <c r="BH13" s="33" t="str">
         <f>Sheet1!BH14</f>
         <v/>
       </c>
-      <c r="BI13" s="31" t="str">
+      <c r="BI13" s="33" t="str">
         <f>Sheet1!BI14</f>
         <v/>
       </c>
-      <c r="BJ13" s="31">
+      <c r="BJ13" s="33">
         <f>Sheet1!BJ14</f>
         <v>0</v>
       </c>
@@ -6607,531 +6623,531 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="31" t="str">
+      <c r="A14" s="33" t="str">
         <f>Sheet1!A15</f>
         <v/>
       </c>
-      <c r="B14" s="31" t="str">
+      <c r="B14" s="33" t="str">
         <f>Sheet1!B15</f>
         <v/>
       </c>
-      <c r="C14" s="31" t="str">
+      <c r="C14" s="33" t="str">
         <f>Sheet1!C15</f>
         <v/>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="33" t="str">
         <f>Sheet1!E15</f>
         <v/>
       </c>
-      <c r="F14" s="31" t="str">
+      <c r="F14" s="33" t="str">
         <f>Sheet1!F15</f>
         <v/>
       </c>
-      <c r="G14" s="31" t="str">
+      <c r="G14" s="33" t="str">
         <f>Sheet1!G15</f>
         <v/>
       </c>
-      <c r="I14" s="31" t="str">
+      <c r="I14" s="33" t="str">
         <f>Sheet1!I15</f>
         <v/>
       </c>
-      <c r="J14" s="31" t="str">
+      <c r="J14" s="33" t="str">
         <f>Sheet1!J15</f>
         <v/>
       </c>
-      <c r="K14" s="31" t="str">
+      <c r="K14" s="33" t="str">
         <f>Sheet1!K15</f>
         <v/>
       </c>
-      <c r="M14" s="31" t="str">
+      <c r="M14" s="33" t="str">
         <f>Sheet1!M15</f>
         <v/>
       </c>
-      <c r="N14" s="31" t="str">
+      <c r="N14" s="33" t="str">
         <f>Sheet1!N15</f>
         <v/>
       </c>
-      <c r="O14" s="31" t="str">
+      <c r="O14" s="33" t="str">
         <f>Sheet1!O15</f>
         <v/>
       </c>
-      <c r="Q14" s="31" t="str">
+      <c r="Q14" s="33" t="str">
         <f>Sheet1!Q15</f>
         <v/>
       </c>
-      <c r="R14" s="31" t="str">
+      <c r="R14" s="33" t="str">
         <f>Sheet1!R15</f>
         <v/>
       </c>
-      <c r="S14" s="31" t="str">
+      <c r="S14" s="33" t="str">
         <f>Sheet1!S15</f>
         <v/>
       </c>
-      <c r="U14" s="31" t="str">
+      <c r="U14" s="33" t="str">
         <f>Sheet1!U15</f>
         <v/>
       </c>
-      <c r="V14" s="31" t="str">
+      <c r="V14" s="33" t="str">
         <f>Sheet1!V15</f>
         <v/>
       </c>
-      <c r="W14" s="31" t="str">
+      <c r="W14" s="33" t="str">
         <f>Sheet1!AA15</f>
         <v/>
       </c>
-      <c r="Y14" s="31" t="str">
+      <c r="Y14" s="33" t="str">
         <f>Sheet1!AC15</f>
         <v/>
       </c>
-      <c r="Z14" s="31" t="str">
+      <c r="Z14" s="33" t="str">
         <f>Sheet1!AD15</f>
         <v/>
       </c>
-      <c r="AA14" s="31" t="str">
+      <c r="AA14" s="33" t="str">
         <f>Sheet1!AE15</f>
         <v/>
       </c>
-      <c r="AC14" s="31" t="str">
+      <c r="AC14" s="33" t="str">
         <f>Sheet1!AG15</f>
         <v/>
       </c>
-      <c r="AD14" s="31" t="str">
+      <c r="AD14" s="33" t="str">
         <f>Sheet1!AH15</f>
         <v/>
       </c>
-      <c r="AE14" s="31" t="str">
+      <c r="AE14" s="33" t="str">
         <f>Sheet1!AI15</f>
         <v/>
       </c>
-      <c r="AG14" s="31" t="str">
+      <c r="AG14" s="33" t="str">
         <f>Sheet1!AK15</f>
         <v/>
       </c>
-      <c r="AH14" s="31" t="str">
+      <c r="AH14" s="33" t="str">
         <f>Sheet1!AL15</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="31" t="str">
+      <c r="A15" s="33" t="str">
         <f>Sheet1!A16</f>
         <v/>
       </c>
-      <c r="B15" s="31" t="str">
+      <c r="B15" s="33" t="str">
         <f>Sheet1!B16</f>
         <v/>
       </c>
-      <c r="C15" s="31" t="str">
+      <c r="C15" s="33" t="str">
         <f>Sheet1!C16</f>
         <v/>
       </c>
-      <c r="E15" s="31" t="str">
+      <c r="E15" s="33" t="str">
         <f>Sheet1!E16</f>
         <v/>
       </c>
-      <c r="F15" s="31" t="str">
+      <c r="F15" s="33" t="str">
         <f>Sheet1!F16</f>
         <v/>
       </c>
-      <c r="G15" s="31" t="str">
+      <c r="G15" s="33" t="str">
         <f>Sheet1!G16</f>
         <v/>
       </c>
-      <c r="I15" s="31" t="str">
+      <c r="I15" s="33" t="str">
         <f>Sheet1!I16</f>
         <v/>
       </c>
-      <c r="J15" s="31" t="str">
+      <c r="J15" s="33" t="str">
         <f>Sheet1!J16</f>
         <v/>
       </c>
-      <c r="K15" s="31" t="str">
+      <c r="K15" s="33" t="str">
         <f>Sheet1!K16</f>
         <v/>
       </c>
-      <c r="M15" s="31" t="str">
+      <c r="M15" s="33" t="str">
         <f>Sheet1!M16</f>
         <v/>
       </c>
-      <c r="N15" s="31" t="str">
+      <c r="N15" s="33" t="str">
         <f>Sheet1!N16</f>
         <v/>
       </c>
-      <c r="O15" s="31" t="str">
+      <c r="O15" s="33" t="str">
         <f>Sheet1!O16</f>
         <v/>
       </c>
-      <c r="Q15" s="31" t="str">
+      <c r="Q15" s="33" t="str">
         <f>Sheet1!Q16</f>
         <v/>
       </c>
-      <c r="R15" s="31" t="str">
+      <c r="R15" s="33" t="str">
         <f>Sheet1!R16</f>
         <v/>
       </c>
-      <c r="S15" s="31" t="str">
+      <c r="S15" s="33" t="str">
         <f>Sheet1!S16</f>
         <v/>
       </c>
-      <c r="U15" s="31" t="str">
+      <c r="U15" s="33" t="str">
         <f>Sheet1!U16</f>
         <v/>
       </c>
-      <c r="V15" s="31" t="str">
+      <c r="V15" s="33" t="str">
         <f>Sheet1!V16</f>
         <v/>
       </c>
-      <c r="W15" s="31" t="str">
+      <c r="W15" s="33" t="str">
         <f>Sheet1!AA16</f>
         <v/>
       </c>
-      <c r="Y15" s="31" t="str">
+      <c r="Y15" s="33" t="str">
         <f>Sheet1!AC16</f>
         <v/>
       </c>
-      <c r="Z15" s="31" t="str">
+      <c r="Z15" s="33" t="str">
         <f>Sheet1!AD16</f>
         <v/>
       </c>
-      <c r="AA15" s="31" t="str">
+      <c r="AA15" s="33" t="str">
         <f>Sheet1!AE16</f>
         <v/>
       </c>
-      <c r="AC15" s="31" t="str">
+      <c r="AC15" s="33" t="str">
         <f>Sheet1!AG16</f>
         <v/>
       </c>
-      <c r="AD15" s="31" t="str">
+      <c r="AD15" s="33" t="str">
         <f>Sheet1!AH16</f>
         <v/>
       </c>
-      <c r="AE15" s="31" t="str">
+      <c r="AE15" s="33" t="str">
         <f>Sheet1!AI16</f>
         <v/>
       </c>
-      <c r="AG15" s="31" t="str">
+      <c r="AG15" s="33" t="str">
         <f>Sheet1!AK16</f>
         <v/>
       </c>
-      <c r="AH15" s="31" t="str">
+      <c r="AH15" s="33" t="str">
         <f>Sheet1!AL16</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="31" t="str">
+      <c r="A16" s="33" t="str">
         <f>Sheet1!A17</f>
         <v/>
       </c>
-      <c r="B16" s="31" t="str">
+      <c r="B16" s="33" t="str">
         <f>Sheet1!B17</f>
         <v/>
       </c>
-      <c r="C16" s="31" t="str">
+      <c r="C16" s="33" t="str">
         <f>Sheet1!C17</f>
         <v/>
       </c>
-      <c r="E16" s="31" t="str">
+      <c r="E16" s="33" t="str">
         <f>Sheet1!E17</f>
         <v/>
       </c>
-      <c r="F16" s="31" t="str">
+      <c r="F16" s="33" t="str">
         <f>Sheet1!F17</f>
         <v/>
       </c>
-      <c r="G16" s="31" t="str">
+      <c r="G16" s="33" t="str">
         <f>Sheet1!G17</f>
         <v/>
       </c>
-      <c r="I16" s="31" t="str">
+      <c r="I16" s="33" t="str">
         <f>Sheet1!I17</f>
         <v/>
       </c>
-      <c r="J16" s="31" t="str">
+      <c r="J16" s="33" t="str">
         <f>Sheet1!J17</f>
         <v/>
       </c>
-      <c r="K16" s="31" t="str">
+      <c r="K16" s="33" t="str">
         <f>Sheet1!K17</f>
         <v/>
       </c>
-      <c r="M16" s="31" t="str">
+      <c r="M16" s="33" t="str">
         <f>Sheet1!M17</f>
         <v/>
       </c>
-      <c r="N16" s="31" t="str">
+      <c r="N16" s="33" t="str">
         <f>Sheet1!N17</f>
         <v/>
       </c>
-      <c r="O16" s="31" t="str">
+      <c r="O16" s="33" t="str">
         <f>Sheet1!O17</f>
         <v/>
       </c>
-      <c r="Q16" s="31" t="str">
+      <c r="Q16" s="33" t="str">
         <f>Sheet1!Q17</f>
         <v/>
       </c>
-      <c r="R16" s="31" t="str">
+      <c r="R16" s="33" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="S16" s="31" t="str">
+      <c r="S16" s="33" t="str">
         <f>Sheet1!S17</f>
         <v/>
       </c>
-      <c r="U16" s="31" t="str">
+      <c r="U16" s="33" t="str">
         <f>Sheet1!U17</f>
         <v/>
       </c>
-      <c r="V16" s="31" t="str">
+      <c r="V16" s="33" t="str">
         <f>Sheet1!V17</f>
         <v/>
       </c>
-      <c r="W16" s="31" t="str">
+      <c r="W16" s="33" t="str">
         <f>Sheet1!AA17</f>
         <v/>
       </c>
-      <c r="Y16" s="31" t="str">
+      <c r="Y16" s="33" t="str">
         <f>Sheet1!AC17</f>
         <v/>
       </c>
-      <c r="Z16" s="31" t="str">
+      <c r="Z16" s="33" t="str">
         <f>Sheet1!AD17</f>
         <v/>
       </c>
-      <c r="AA16" s="31" t="str">
+      <c r="AA16" s="33" t="str">
         <f>Sheet1!AE17</f>
         <v/>
       </c>
-      <c r="AC16" s="31" t="str">
+      <c r="AC16" s="33" t="str">
         <f>Sheet1!AG17</f>
         <v/>
       </c>
-      <c r="AD16" s="31" t="str">
+      <c r="AD16" s="33" t="str">
         <f>Sheet1!AH17</f>
         <v/>
       </c>
-      <c r="AE16" s="31" t="str">
+      <c r="AE16" s="33" t="str">
         <f>Sheet1!AI17</f>
         <v/>
       </c>
-      <c r="AG16" s="31" t="str">
+      <c r="AG16" s="33" t="str">
         <f>Sheet1!AK17</f>
         <v/>
       </c>
-      <c r="AH16" s="31" t="str">
+      <c r="AH16" s="33" t="str">
         <f>Sheet1!AL17</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="31" t="str">
+      <c r="A17" s="33" t="str">
         <f>Sheet1!A18</f>
         <v/>
       </c>
-      <c r="B17" s="31" t="str">
+      <c r="B17" s="33" t="str">
         <f>Sheet1!B18</f>
         <v/>
       </c>
-      <c r="C17" s="31" t="str">
+      <c r="C17" s="33" t="str">
         <f>Sheet1!C18</f>
         <v/>
       </c>
-      <c r="E17" s="31" t="str">
+      <c r="E17" s="33" t="str">
         <f>Sheet1!E18</f>
         <v/>
       </c>
-      <c r="F17" s="31" t="str">
+      <c r="F17" s="33" t="str">
         <f>Sheet1!F18</f>
         <v/>
       </c>
-      <c r="G17" s="31" t="str">
+      <c r="G17" s="33" t="str">
         <f>Sheet1!G18</f>
         <v/>
       </c>
-      <c r="I17" s="31" t="str">
+      <c r="I17" s="33" t="str">
         <f>Sheet1!I18</f>
         <v/>
       </c>
-      <c r="J17" s="31" t="str">
+      <c r="J17" s="33" t="str">
         <f>Sheet1!J18</f>
         <v/>
       </c>
-      <c r="K17" s="31" t="str">
+      <c r="K17" s="33" t="str">
         <f>Sheet1!K18</f>
         <v/>
       </c>
-      <c r="M17" s="31" t="str">
+      <c r="M17" s="33" t="str">
         <f>Sheet1!M18</f>
         <v/>
       </c>
-      <c r="N17" s="31" t="str">
+      <c r="N17" s="33" t="str">
         <f>Sheet1!N18</f>
         <v/>
       </c>
-      <c r="O17" s="31" t="str">
+      <c r="O17" s="33" t="str">
         <f>Sheet1!O18</f>
         <v/>
       </c>
-      <c r="Q17" s="31" t="str">
+      <c r="Q17" s="33" t="str">
         <f>Sheet1!Q18</f>
         <v/>
       </c>
-      <c r="R17" s="31" t="str">
+      <c r="R17" s="33" t="str">
         <f>Sheet1!R18</f>
         <v/>
       </c>
-      <c r="S17" s="31" t="str">
+      <c r="S17" s="33" t="str">
         <f>Sheet1!S18</f>
         <v/>
       </c>
-      <c r="U17" s="31" t="str">
+      <c r="U17" s="33" t="str">
         <f>Sheet1!U18</f>
         <v/>
       </c>
-      <c r="V17" s="31" t="str">
+      <c r="V17" s="33" t="str">
         <f>Sheet1!V18</f>
         <v/>
       </c>
-      <c r="W17" s="31" t="str">
+      <c r="W17" s="33" t="str">
         <f>Sheet1!AA18</f>
         <v/>
       </c>
-      <c r="Y17" s="31" t="str">
+      <c r="Y17" s="33" t="str">
         <f>Sheet1!AC18</f>
         <v/>
       </c>
-      <c r="Z17" s="31" t="str">
+      <c r="Z17" s="33" t="str">
         <f>Sheet1!AD18</f>
         <v/>
       </c>
-      <c r="AA17" s="31" t="str">
+      <c r="AA17" s="33" t="str">
         <f>Sheet1!AE18</f>
         <v/>
       </c>
-      <c r="AC17" s="31" t="str">
+      <c r="AC17" s="33" t="str">
         <f>Sheet1!AG18</f>
         <v/>
       </c>
-      <c r="AD17" s="31" t="str">
+      <c r="AD17" s="33" t="str">
         <f>Sheet1!AH18</f>
         <v/>
       </c>
-      <c r="AE17" s="31" t="str">
+      <c r="AE17" s="33" t="str">
         <f>Sheet1!AI18</f>
         <v/>
       </c>
-      <c r="AG17" s="31" t="str">
+      <c r="AG17" s="33" t="str">
         <f>Sheet1!AK18</f>
         <v/>
       </c>
-      <c r="AH17" s="31" t="str">
+      <c r="AH17" s="33" t="str">
         <f>Sheet1!AL18</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="31" t="str">
+      <c r="A18" s="33" t="str">
         <f>Sheet1!A19</f>
         <v/>
       </c>
-      <c r="B18" s="31" t="str">
+      <c r="B18" s="33" t="str">
         <f>Sheet1!B19</f>
         <v/>
       </c>
-      <c r="C18" s="31" t="str">
+      <c r="C18" s="33" t="str">
         <f>Sheet1!C19</f>
         <v/>
       </c>
-      <c r="E18" s="31" t="str">
+      <c r="E18" s="33" t="str">
         <f>Sheet1!E19</f>
         <v/>
       </c>
-      <c r="F18" s="31" t="str">
+      <c r="F18" s="33" t="str">
         <f>Sheet1!F19</f>
         <v/>
       </c>
-      <c r="G18" s="31" t="str">
+      <c r="G18" s="33" t="str">
         <f>Sheet1!G19</f>
         <v/>
       </c>
-      <c r="I18" s="31" t="str">
+      <c r="I18" s="33" t="str">
         <f>Sheet1!I19</f>
         <v/>
       </c>
-      <c r="J18" s="31" t="str">
+      <c r="J18" s="33" t="str">
         <f>Sheet1!J19</f>
         <v/>
       </c>
-      <c r="K18" s="31" t="str">
+      <c r="K18" s="33" t="str">
         <f>Sheet1!K19</f>
         <v/>
       </c>
-      <c r="M18" s="31" t="str">
+      <c r="M18" s="33" t="str">
         <f>Sheet1!M19</f>
         <v/>
       </c>
-      <c r="N18" s="31" t="str">
+      <c r="N18" s="33" t="str">
         <f>Sheet1!N19</f>
         <v/>
       </c>
-      <c r="O18" s="31" t="str">
+      <c r="O18" s="33" t="str">
         <f>Sheet1!O19</f>
         <v/>
       </c>
-      <c r="Q18" s="31" t="str">
+      <c r="Q18" s="33" t="str">
         <f>Sheet1!Q19</f>
         <v/>
       </c>
-      <c r="R18" s="31" t="str">
+      <c r="R18" s="33" t="str">
         <f>Sheet1!R19</f>
         <v/>
       </c>
-      <c r="S18" s="31" t="str">
+      <c r="S18" s="33" t="str">
         <f>Sheet1!S19</f>
         <v/>
       </c>
-      <c r="U18" s="31" t="str">
+      <c r="U18" s="33" t="str">
         <f>Sheet1!U19</f>
         <v/>
       </c>
-      <c r="V18" s="31" t="str">
+      <c r="V18" s="33" t="str">
         <f>Sheet1!V19</f>
         <v/>
       </c>
-      <c r="W18" s="31" t="str">
+      <c r="W18" s="33" t="str">
         <f>Sheet1!AA19</f>
         <v/>
       </c>
-      <c r="Y18" s="31" t="str">
+      <c r="Y18" s="33" t="str">
         <f>Sheet1!AC19</f>
         <v/>
       </c>
-      <c r="Z18" s="31" t="str">
+      <c r="Z18" s="33" t="str">
         <f>Sheet1!AD19</f>
         <v/>
       </c>
-      <c r="AA18" s="31" t="str">
+      <c r="AA18" s="33" t="str">
         <f>Sheet1!AE19</f>
         <v/>
       </c>
-      <c r="AC18" s="31" t="str">
+      <c r="AC18" s="33" t="str">
         <f>Sheet1!AG19</f>
         <v/>
       </c>
-      <c r="AD18" s="31" t="str">
+      <c r="AD18" s="33" t="str">
         <f>Sheet1!AH19</f>
         <v/>
       </c>
-      <c r="AE18" s="31" t="str">
+      <c r="AE18" s="33" t="str">
         <f>Sheet1!AI19</f>
         <v/>
       </c>
-      <c r="AG18" s="31" t="str">
+      <c r="AG18" s="33" t="str">
         <f>Sheet1!AK19</f>
         <v/>
       </c>
-      <c r="AH18" s="31" t="str">
+      <c r="AH18" s="33" t="str">
         <f>Sheet1!AL19</f>
         <v/>
       </c>
@@ -7167,145 +7183,145 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="34" t="s">
         <v>59</v>
       </c>
     </row>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="68">
   <si>
     <t>Suzuka</t>
   </si>
@@ -1208,19 +1208,31 @@
         <f>IFERROR((VLOOKUP(S3,Sheet2!$A:$B,2,0))+IF(U3="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="W3" s="8"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="10"/>
+      <c r="W3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="X3" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="Z3" s="11">
         <f>IFERROR((VLOOKUP(W3,Sheet2!$D:$E,2,0))+IF(Y3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="AD3" s="11">
         <f>IFERROR((VLOOKUP(AA3,Sheet2!$A:$B,2,0))+IF(AC3="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE3" s="12"/>
       <c r="AF3" s="13"/>
@@ -1351,16 +1363,28 @@
         <f>IFERROR((VLOOKUP(S4,Sheet2!$A:$B,2,0))+IF(U4="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="W4" s="14"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="16"/>
+      <c r="W4" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="X4" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="Z4" s="17">
         <f>IFERROR((VLOOKUP(W4,Sheet2!$D:$E,2,0))+IF(Y4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="20"/>
+      <c r="AA4" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AC4" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AD4" s="17">
         <f>IFERROR((VLOOKUP(AA4,Sheet2!$A:$B,2,0))+IF(AC4="y",1,0),0)</f>
         <v>0</v>
@@ -1494,19 +1518,31 @@
         <f>IFERROR((VLOOKUP(S5,Sheet2!$A:$B,2,0))+IF(U5="y",1,0),0)</f>
         <v>9</v>
       </c>
-      <c r="W5" s="14"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="16"/>
+      <c r="W5" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="X5" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="Y5" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="Z5" s="17">
         <f>IFERROR((VLOOKUP(W5,Sheet2!$D:$E,2,0))+IF(Y5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="AB5" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="AC5" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AD5" s="17">
         <f>IFERROR((VLOOKUP(AA5,Sheet2!$A:$B,2,0))+IF(AC5="y",1,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE5" s="18"/>
       <c r="AF5" s="19"/>
@@ -1637,19 +1673,31 @@
         <f>IFERROR((VLOOKUP(S6,Sheet2!$A:$B,2,0))+IF(U6="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="W6" s="14"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="16"/>
+      <c r="W6" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="X6" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="Z6" s="17">
         <f>IFERROR((VLOOKUP(W6,Sheet2!$D:$E,2,0))+IF(Y6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>7.0</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>18.0</v>
+      </c>
+      <c r="AC6" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AD6" s="17">
         <f>IFERROR((VLOOKUP(AA6,Sheet2!$A:$B,2,0))+IF(AC6="y",1,0),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE6" s="18"/>
       <c r="AF6" s="19"/>
@@ -1780,19 +1828,31 @@
         <f>IFERROR((VLOOKUP(S7,Sheet2!$A:$B,2,0))+IF(U7="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="W7" s="14"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="16"/>
+      <c r="W7" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="X7" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="Y7" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="Z7" s="17">
         <f>IFERROR((VLOOKUP(W7,Sheet2!$D:$E,2,0))+IF(Y7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>19.0</v>
+      </c>
+      <c r="AC7" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AD7" s="17">
         <f>IFERROR((VLOOKUP(AA7,Sheet2!$A:$B,2,0))+IF(AC7="y",1,0),0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE7" s="18"/>
       <c r="AF7" s="19"/>
@@ -1923,16 +1983,28 @@
         <f>IFERROR((VLOOKUP(S8,Sheet2!$A:$B,2,0))+IF(U8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W8" s="14"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="16"/>
+      <c r="W8" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="X8" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="Y8" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="Z8" s="17">
         <f>IFERROR((VLOOKUP(W8,Sheet2!$D:$E,2,0))+IF(Y8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="20"/>
+      <c r="AA8" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AB8" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AC8" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AD8" s="17">
         <f>IFERROR((VLOOKUP(AA8,Sheet2!$A:$B,2,0))+IF(AC8="y",1,0),0)</f>
         <v>0</v>
@@ -2066,19 +2138,31 @@
         <f>IFERROR((VLOOKUP(S9,Sheet2!$A:$B,2,0))+IF(U9="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="W9" s="14"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="16"/>
+      <c r="W9" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="X9" s="15">
+        <v>14.0</v>
+      </c>
+      <c r="Y9" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="Z9" s="17">
         <f>IFERROR((VLOOKUP(W9,Sheet2!$D:$E,2,0))+IF(Y9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>17.0</v>
+      </c>
+      <c r="AC9" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AD9" s="17">
         <f>IFERROR((VLOOKUP(AA9,Sheet2!$A:$B,2,0))+IF(AC9="y",1,0),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE9" s="18"/>
       <c r="AF9" s="19"/>
@@ -2209,19 +2293,31 @@
         <f>IFERROR((VLOOKUP(S10,Sheet2!$A:$B,2,0))+IF(U10="y",1,0),0)</f>
         <v>25</v>
       </c>
-      <c r="W10" s="14"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="16"/>
+      <c r="W10" s="14">
+        <v>21.0</v>
+      </c>
+      <c r="X10" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="Y10" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="Z10" s="17">
         <f>IFERROR((VLOOKUP(W10,Sheet2!$D:$E,2,0))+IF(Y10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="20"/>
+      <c r="AA10" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="AC10" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="AD10" s="17">
         <f>IFERROR((VLOOKUP(AA10,Sheet2!$A:$B,2,0))+IF(AC10="y",1,0),0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE10" s="18"/>
       <c r="AF10" s="19"/>
@@ -2352,16 +2448,28 @@
         <f>IFERROR((VLOOKUP(S11,Sheet2!$A:$B,2,0))+IF(U11="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="W11" s="14"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="16"/>
+      <c r="W11" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="X11" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="Y11" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="Z11" s="17">
         <f>IFERROR((VLOOKUP(W11,Sheet2!$D:$E,2,0))+IF(Y11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="20"/>
+      <c r="AA11" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AC11" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AD11" s="17">
         <f>IFERROR((VLOOKUP(AA11,Sheet2!$A:$B,2,0))+IF(AC11="y",1,0),0)</f>
         <v>0</v>
@@ -2495,19 +2603,31 @@
         <f>IFERROR((VLOOKUP(S12,Sheet2!$A:$B,2,0))+IF(U12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W12" s="14"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="16"/>
+      <c r="W12" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="X12" s="15">
+        <v>15.0</v>
+      </c>
+      <c r="Y12" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="Z12" s="17">
         <f>IFERROR((VLOOKUP(W12,Sheet2!$D:$E,2,0))+IF(Y12="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>6.0</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>16.0</v>
+      </c>
+      <c r="AC12" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AD12" s="17">
         <f>IFERROR((VLOOKUP(AA12,Sheet2!$A:$B,2,0))+IF(AC12="y",1,0),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE12" s="18"/>
       <c r="AF12" s="19"/>
@@ -2638,16 +2758,28 @@
         <f>IFERROR((VLOOKUP(S13,Sheet2!$A:$B,2,0))+IF(U13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="14"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="16"/>
+      <c r="W13" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="X13" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="Y13" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="Z13" s="17">
         <f>IFERROR((VLOOKUP(W13,Sheet2!$D:$E,2,0))+IF(Y13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="20"/>
+      <c r="AA13" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AC13" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AD13" s="17">
         <f>IFERROR((VLOOKUP(AA13,Sheet2!$A:$B,2,0))+IF(AC13="y",1,0),0)</f>
         <v>0</v>
@@ -2781,16 +2913,28 @@
         <f>IFERROR((VLOOKUP(S14,Sheet2!$A:$B,2,0))+IF(U14="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="W14" s="22"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="24"/>
+      <c r="W14" s="22">
+        <v>22.0</v>
+      </c>
+      <c r="X14" s="23">
+        <v>22.0</v>
+      </c>
+      <c r="Y14" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="Z14" s="25">
         <f>IFERROR((VLOOKUP(W14,Sheet2!$D:$E,2,0))+IF(Y14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="29"/>
+      <c r="AA14" s="22">
+        <v>22.0</v>
+      </c>
+      <c r="AB14" s="23">
+        <v>22.0</v>
+      </c>
+      <c r="AC14" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="AD14" s="25">
         <f>IFERROR((VLOOKUP(AA14,Sheet2!$A:$B,2,0))+IF(AC14="y",1,0),0)</f>
         <v>0</v>
@@ -3675,37 +3819,37 @@
         <f>Sheet1!V3</f>
         <v>18</v>
       </c>
-      <c r="W2" s="33" t="str">
+      <c r="W2" s="33">
         <f>Sheet1!W3</f>
-        <v/>
-      </c>
-      <c r="X2" s="33" t="str">
+        <v>1</v>
+      </c>
+      <c r="X2" s="33">
         <f>Sheet1!X3</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="Y2" s="33" t="str">
         <f>Sheet1!Y3</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Z2" s="33">
         <f>Sheet1!Z3</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="33" t="str">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="33">
         <f>Sheet1!AA3</f>
-        <v/>
-      </c>
-      <c r="AB2" s="33" t="str">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="33">
         <f>Sheet1!AB3</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="AC2" s="33" t="str">
         <f>Sheet1!AC3</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AD2" s="33">
         <f>Sheet1!AD3</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE2" s="33" t="str">
         <f>Sheet1!AE3</f>
@@ -3928,33 +4072,33 @@
         <f>Sheet1!V4</f>
         <v>1</v>
       </c>
-      <c r="W3" s="33" t="str">
+      <c r="W3" s="33">
         <f>Sheet1!W4</f>
-        <v/>
-      </c>
-      <c r="X3" s="33" t="str">
+        <v>22</v>
+      </c>
+      <c r="X3" s="33">
         <f>Sheet1!X4</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="Y3" s="33" t="str">
         <f>Sheet1!Y4</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Z3" s="33">
         <f>Sheet1!Z4</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="33" t="str">
+      <c r="AA3" s="33">
         <f>Sheet1!AA4</f>
-        <v/>
-      </c>
-      <c r="AB3" s="33" t="str">
+        <v>22</v>
+      </c>
+      <c r="AB3" s="33">
         <f>Sheet1!AB4</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AC3" s="33" t="str">
         <f>Sheet1!AC4</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AD3" s="33">
         <f>Sheet1!AD4</f>
@@ -4181,37 +4325,37 @@
         <f>Sheet1!V5</f>
         <v>9</v>
       </c>
-      <c r="W4" s="33" t="str">
+      <c r="W4" s="33">
         <f>Sheet1!W5</f>
-        <v/>
-      </c>
-      <c r="X4" s="33" t="str">
+        <v>18</v>
+      </c>
+      <c r="X4" s="33">
         <f>Sheet1!X5</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Y4" s="33" t="str">
         <f>Sheet1!Y5</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Z4" s="33">
         <f>Sheet1!Z5</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="33" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="AA4" s="33">
         <f>Sheet1!AA5</f>
-        <v/>
-      </c>
-      <c r="AB4" s="33" t="str">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="33">
         <f>Sheet1!AB5</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AC4" s="33" t="str">
         <f>Sheet1!AC5</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AD4" s="33">
         <f>Sheet1!AD5</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE4" s="33" t="str">
         <f>Sheet1!AE5</f>
@@ -4434,37 +4578,37 @@
         <f>Sheet1!V6</f>
         <v>12</v>
       </c>
-      <c r="W5" s="33" t="str">
+      <c r="W5" s="33">
         <f>Sheet1!W6</f>
-        <v/>
-      </c>
-      <c r="X5" s="33" t="str">
+        <v>3</v>
+      </c>
+      <c r="X5" s="33">
         <f>Sheet1!X6</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="Y5" s="33" t="str">
         <f>Sheet1!Y6</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Z5" s="33">
         <f>Sheet1!Z6</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="33" t="str">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="33">
         <f>Sheet1!AA6</f>
-        <v/>
-      </c>
-      <c r="AB5" s="33" t="str">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="33">
         <f>Sheet1!AB6</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="AC5" s="33" t="str">
         <f>Sheet1!AC6</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AD5" s="33">
         <f>Sheet1!AD6</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE5" s="33" t="str">
         <f>Sheet1!AE6</f>
@@ -4687,37 +4831,37 @@
         <f>Sheet1!V7</f>
         <v>15</v>
       </c>
-      <c r="W6" s="33" t="str">
+      <c r="W6" s="33">
         <f>Sheet1!W7</f>
-        <v/>
-      </c>
-      <c r="X6" s="33" t="str">
+        <v>2</v>
+      </c>
+      <c r="X6" s="33">
         <f>Sheet1!X7</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="Y6" s="33" t="str">
         <f>Sheet1!Y7</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Z6" s="33">
         <f>Sheet1!Z7</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="33" t="str">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="33">
         <f>Sheet1!AA7</f>
-        <v/>
-      </c>
-      <c r="AB6" s="33" t="str">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="33">
         <f>Sheet1!AB7</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="AC6" s="33" t="str">
         <f>Sheet1!AC7</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AD6" s="33">
         <f>Sheet1!AD7</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE6" s="33" t="str">
         <f>Sheet1!AE7</f>
@@ -4940,33 +5084,33 @@
         <f>Sheet1!V8</f>
         <v>0</v>
       </c>
-      <c r="W7" s="33" t="str">
+      <c r="W7" s="33">
         <f>Sheet1!W8</f>
-        <v/>
-      </c>
-      <c r="X7" s="33" t="str">
+        <v>22</v>
+      </c>
+      <c r="X7" s="33">
         <f>Sheet1!X8</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="Y7" s="33" t="str">
         <f>Sheet1!Y8</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Z7" s="33">
         <f>Sheet1!Z8</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="33" t="str">
+      <c r="AA7" s="33">
         <f>Sheet1!AA8</f>
-        <v/>
-      </c>
-      <c r="AB7" s="33" t="str">
+        <v>22</v>
+      </c>
+      <c r="AB7" s="33">
         <f>Sheet1!AB8</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AC7" s="33" t="str">
         <f>Sheet1!AC8</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AD7" s="33">
         <f>Sheet1!AD8</f>
@@ -5193,37 +5337,37 @@
         <f>Sheet1!V9</f>
         <v>1</v>
       </c>
-      <c r="W8" s="33" t="str">
+      <c r="W8" s="33">
         <f>Sheet1!W9</f>
-        <v/>
-      </c>
-      <c r="X8" s="33" t="str">
+        <v>4</v>
+      </c>
+      <c r="X8" s="33">
         <f>Sheet1!X9</f>
-        <v/>
+        <v>14</v>
       </c>
       <c r="Y8" s="33" t="str">
         <f>Sheet1!Y9</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Z8" s="33">
         <f>Sheet1!Z9</f>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="33" t="str">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="33">
         <f>Sheet1!AA9</f>
-        <v/>
-      </c>
-      <c r="AB8" s="33" t="str">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="33">
         <f>Sheet1!AB9</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="AC8" s="33" t="str">
         <f>Sheet1!AC9</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AD8" s="33">
         <f>Sheet1!AD9</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE8" s="33" t="str">
         <f>Sheet1!AE9</f>
@@ -5446,37 +5590,37 @@
         <f>Sheet1!V10</f>
         <v>25</v>
       </c>
-      <c r="W9" s="33" t="str">
+      <c r="W9" s="33">
         <f>Sheet1!W10</f>
-        <v/>
-      </c>
-      <c r="X9" s="33" t="str">
+        <v>21</v>
+      </c>
+      <c r="X9" s="33">
         <f>Sheet1!X10</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="Y9" s="33" t="str">
         <f>Sheet1!Y10</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Z9" s="33">
         <f>Sheet1!Z10</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="33" t="str">
+      <c r="AA9" s="33">
         <f>Sheet1!AA10</f>
-        <v/>
-      </c>
-      <c r="AB9" s="33" t="str">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="33">
         <f>Sheet1!AB10</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AC9" s="33" t="str">
         <f>Sheet1!AC10</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="AD9" s="33">
         <f>Sheet1!AD10</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE9" s="33" t="str">
         <f>Sheet1!AE10</f>
@@ -5699,33 +5843,33 @@
         <f>Sheet1!V11</f>
         <v>10</v>
       </c>
-      <c r="W10" s="33" t="str">
+      <c r="W10" s="33">
         <f>Sheet1!W11</f>
-        <v/>
-      </c>
-      <c r="X10" s="33" t="str">
+        <v>22</v>
+      </c>
+      <c r="X10" s="33">
         <f>Sheet1!X11</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="Y10" s="33" t="str">
         <f>Sheet1!Y11</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Z10" s="33">
         <f>Sheet1!Z11</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="33" t="str">
+      <c r="AA10" s="33">
         <f>Sheet1!AA11</f>
-        <v/>
-      </c>
-      <c r="AB10" s="33" t="str">
+        <v>22</v>
+      </c>
+      <c r="AB10" s="33">
         <f>Sheet1!AB11</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AC10" s="33" t="str">
         <f>Sheet1!AC11</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AD10" s="33">
         <f>Sheet1!AD11</f>
@@ -5952,37 +6096,37 @@
         <f>Sheet1!V12</f>
         <v>0</v>
       </c>
-      <c r="W11" s="33" t="str">
+      <c r="W11" s="33">
         <f>Sheet1!W12</f>
-        <v/>
-      </c>
-      <c r="X11" s="33" t="str">
+        <v>5</v>
+      </c>
+      <c r="X11" s="33">
         <f>Sheet1!X12</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="Y11" s="33" t="str">
         <f>Sheet1!Y12</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Z11" s="33">
         <f>Sheet1!Z12</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="33" t="str">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="33">
         <f>Sheet1!AA12</f>
-        <v/>
-      </c>
-      <c r="AB11" s="33" t="str">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="33">
         <f>Sheet1!AB12</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="AC11" s="33" t="str">
         <f>Sheet1!AC12</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AD11" s="33">
         <f>Sheet1!AD12</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE11" s="33" t="str">
         <f>Sheet1!AE12</f>
@@ -6205,33 +6349,33 @@
         <f>Sheet1!V13</f>
         <v>0</v>
       </c>
-      <c r="W12" s="33" t="str">
+      <c r="W12" s="33">
         <f>Sheet1!W13</f>
-        <v/>
-      </c>
-      <c r="X12" s="33" t="str">
+        <v>22</v>
+      </c>
+      <c r="X12" s="33">
         <f>Sheet1!X13</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="Y12" s="33" t="str">
         <f>Sheet1!Y13</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Z12" s="33">
         <f>Sheet1!Z13</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="33" t="str">
+      <c r="AA12" s="33">
         <f>Sheet1!AA13</f>
-        <v/>
-      </c>
-      <c r="AB12" s="33" t="str">
+        <v>22</v>
+      </c>
+      <c r="AB12" s="33">
         <f>Sheet1!AB13</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AC12" s="33" t="str">
         <f>Sheet1!AC13</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AD12" s="33">
         <f>Sheet1!AD13</f>
@@ -6458,33 +6602,33 @@
         <f>Sheet1!V14</f>
         <v>4</v>
       </c>
-      <c r="W13" s="33" t="str">
+      <c r="W13" s="33">
         <f>Sheet1!W14</f>
-        <v/>
-      </c>
-      <c r="X13" s="33" t="str">
+        <v>22</v>
+      </c>
+      <c r="X13" s="33">
         <f>Sheet1!X14</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="Y13" s="33" t="str">
         <f>Sheet1!Y14</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Z13" s="33">
         <f>Sheet1!Z14</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="33" t="str">
+      <c r="AA13" s="33">
         <f>Sheet1!AA14</f>
-        <v/>
-      </c>
-      <c r="AB13" s="33" t="str">
+        <v>22</v>
+      </c>
+      <c r="AB13" s="33">
         <f>Sheet1!AB14</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AC13" s="33" t="str">
         <f>Sheet1!AC14</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AD13" s="33">
         <f>Sheet1!AD14</f>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -190,16 +190,16 @@
     <t>1/8/2025</t>
   </si>
   <si>
+    <t>1/15/2025</t>
+  </si>
+  <si>
     <t>Upcoming</t>
   </si>
   <si>
-    <t>1/15/2025</t>
+    <t>1/22/2025</t>
   </si>
   <si>
     <t>Tentative</t>
-  </si>
-  <si>
-    <t>1/22/2025</t>
   </si>
   <si>
     <t>1/23/2025</t>
@@ -7400,7 +7400,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -7408,10 +7408,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -7419,10 +7419,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>61</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -7433,7 +7433,7 @@
         <v>62</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
@@ -7444,7 +7444,7 @@
         <v>63</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -7455,7 +7455,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -7466,7 +7466,7 @@
         <v>67</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -803,7 +803,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2.0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="D2" sqref="D2" pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -1222,7 +1225,7 @@
         <v>8</v>
       </c>
       <c r="AA3" s="8">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB3" s="9">
         <v>20.0</v>
@@ -1232,7 +1235,7 @@
       </c>
       <c r="AD3" s="11">
         <f>IFERROR((VLOOKUP(AA3,Sheet2!$A:$B,2,0))+IF(AC3="y",1,0),0)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE3" s="12"/>
       <c r="AF3" s="13"/>
@@ -1532,7 +1535,7 @@
         <v>0.5</v>
       </c>
       <c r="AA5" s="14">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB5" s="15">
         <v>3.0</v>
@@ -1542,7 +1545,7 @@
       </c>
       <c r="AD5" s="17">
         <f>IFERROR((VLOOKUP(AA5,Sheet2!$A:$B,2,0))+IF(AC5="y",1,0),0)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE5" s="18"/>
       <c r="AF5" s="19"/>
@@ -1842,7 +1845,7 @@
         <v>7</v>
       </c>
       <c r="AA7" s="14">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB7" s="15">
         <v>19.0</v>
@@ -1852,7 +1855,7 @@
       </c>
       <c r="AD7" s="17">
         <f>IFERROR((VLOOKUP(AA7,Sheet2!$A:$B,2,0))+IF(AC7="y",1,0),0)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE7" s="18"/>
       <c r="AF7" s="19"/>
@@ -2152,7 +2155,7 @@
         <v>5</v>
       </c>
       <c r="AA9" s="14">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB9" s="15">
         <v>17.0</v>
@@ -2162,7 +2165,7 @@
       </c>
       <c r="AD9" s="17">
         <f>IFERROR((VLOOKUP(AA9,Sheet2!$A:$B,2,0))+IF(AC9="y",1,0),0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE9" s="18"/>
       <c r="AF9" s="19"/>
@@ -2307,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="14">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB10" s="15">
         <v>2.0</v>
@@ -2317,7 +2320,7 @@
       </c>
       <c r="AD10" s="17">
         <f>IFERROR((VLOOKUP(AA10,Sheet2!$A:$B,2,0))+IF(AC10="y",1,0),0)</f>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AE10" s="18"/>
       <c r="AF10" s="19"/>
@@ -2617,7 +2620,7 @@
         <v>4</v>
       </c>
       <c r="AA12" s="14">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB12" s="15">
         <v>16.0</v>
@@ -2627,7 +2630,7 @@
       </c>
       <c r="AD12" s="17">
         <f>IFERROR((VLOOKUP(AA12,Sheet2!$A:$B,2,0))+IF(AC12="y",1,0),0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE12" s="18"/>
       <c r="AF12" s="19"/>
@@ -3837,7 +3840,7 @@
       </c>
       <c r="AA2" s="33">
         <f>Sheet1!AA3</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB2" s="33">
         <f>Sheet1!AB3</f>
@@ -3849,7 +3852,7 @@
       </c>
       <c r="AD2" s="33">
         <f>Sheet1!AD3</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE2" s="33" t="str">
         <f>Sheet1!AE3</f>
@@ -4343,7 +4346,7 @@
       </c>
       <c r="AA4" s="33">
         <f>Sheet1!AA5</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="33">
         <f>Sheet1!AB5</f>
@@ -4355,7 +4358,7 @@
       </c>
       <c r="AD4" s="33">
         <f>Sheet1!AD5</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE4" s="33" t="str">
         <f>Sheet1!AE5</f>
@@ -4849,7 +4852,7 @@
       </c>
       <c r="AA6" s="33">
         <f>Sheet1!AA7</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="33">
         <f>Sheet1!AB7</f>
@@ -4861,7 +4864,7 @@
       </c>
       <c r="AD6" s="33">
         <f>Sheet1!AD7</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE6" s="33" t="str">
         <f>Sheet1!AE7</f>
@@ -5355,7 +5358,7 @@
       </c>
       <c r="AA8" s="33">
         <f>Sheet1!AA9</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB8" s="33">
         <f>Sheet1!AB9</f>
@@ -5367,7 +5370,7 @@
       </c>
       <c r="AD8" s="33">
         <f>Sheet1!AD9</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE8" s="33" t="str">
         <f>Sheet1!AE9</f>
@@ -5608,7 +5611,7 @@
       </c>
       <c r="AA9" s="33">
         <f>Sheet1!AA10</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB9" s="33">
         <f>Sheet1!AB10</f>
@@ -5620,7 +5623,7 @@
       </c>
       <c r="AD9" s="33">
         <f>Sheet1!AD10</f>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AE9" s="33" t="str">
         <f>Sheet1!AE10</f>
@@ -6114,7 +6117,7 @@
       </c>
       <c r="AA11" s="33">
         <f>Sheet1!AA12</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB11" s="33">
         <f>Sheet1!AB12</f>
@@ -6126,7 +6129,7 @@
       </c>
       <c r="AD11" s="33">
         <f>Sheet1!AD12</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE11" s="33" t="str">
         <f>Sheet1!AE12</f>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="68">
   <si>
     <t>Suzuka</t>
   </si>
@@ -88,6 +88,9 @@
     <t>N</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>Travis</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Patrick</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Brently</t>
@@ -1237,12 +1237,18 @@
         <f>IFERROR((VLOOKUP(AA3,Sheet2!$A:$B,2,0))+IF(AC3="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="10"/>
+      <c r="AE3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="AH3" s="11">
         <f>IFERROR((VLOOKUP(AE3,Sheet2!$A:$B,2,0))+IF(AG3="y",1,0),0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="13"/>
@@ -1299,7 +1305,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="14">
         <v>16.0</v>
@@ -1392,12 +1398,18 @@
         <f>IFERROR((VLOOKUP(AA4,Sheet2!$A:$B,2,0))+IF(AC4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="20"/>
+      <c r="AE4" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="AF4" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="AG4" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AH4" s="17">
         <f>IFERROR((VLOOKUP(AE4,Sheet2!$A:$B,2,0))+IF(AG4="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="18"/>
       <c r="AJ4" s="19"/>
@@ -1451,10 +1463,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="14">
         <v>11.0</v>
@@ -1515,7 +1527,7 @@
         <v>6.0</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V5" s="17">
         <f>IFERROR((VLOOKUP(S5,Sheet2!$A:$B,2,0))+IF(U5="y",1,0),0)</f>
@@ -1547,12 +1559,18 @@
         <f>IFERROR((VLOOKUP(AA5,Sheet2!$A:$B,2,0))+IF(AC5="y",1,0),0)</f>
         <v>25</v>
       </c>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="20"/>
+      <c r="AE5" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="AF5" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="AG5" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AH5" s="17">
         <f>IFERROR((VLOOKUP(AE5,Sheet2!$A:$B,2,0))+IF(AG5="y",1,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI5" s="18"/>
       <c r="AJ5" s="19"/>
@@ -1606,7 +1624,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>28</v>
@@ -1702,12 +1720,18 @@
         <f>IFERROR((VLOOKUP(AA6,Sheet2!$A:$B,2,0))+IF(AC6="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="20"/>
+      <c r="AE6" s="14">
+        <v>11.0</v>
+      </c>
+      <c r="AF6" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="AG6" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AH6" s="17">
         <f>IFERROR((VLOOKUP(AE6,Sheet2!$A:$B,2,0))+IF(AG6="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="18"/>
       <c r="AJ6" s="19"/>
@@ -1857,9 +1881,15 @@
         <f>IFERROR((VLOOKUP(AA7,Sheet2!$A:$B,2,0))+IF(AC7="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="20"/>
+      <c r="AE7" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AF7" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AG7" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AH7" s="17">
         <f>IFERROR((VLOOKUP(AE7,Sheet2!$A:$B,2,0))+IF(AG7="y",1,0),0)</f>
         <v>0</v>
@@ -2012,9 +2042,15 @@
         <f>IFERROR((VLOOKUP(AA8,Sheet2!$A:$B,2,0))+IF(AC8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="20"/>
+      <c r="AE8" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AF8" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AG8" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AH8" s="17">
         <f>IFERROR((VLOOKUP(AE8,Sheet2!$A:$B,2,0))+IF(AG8="y",1,0),0)</f>
         <v>0</v>
@@ -2167,12 +2203,18 @@
         <f>IFERROR((VLOOKUP(AA9,Sheet2!$A:$B,2,0))+IF(AC9="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="20"/>
+      <c r="AE9" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="AF9" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="AG9" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AH9" s="17">
         <f>IFERROR((VLOOKUP(AE9,Sheet2!$A:$B,2,0))+IF(AG9="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="18"/>
       <c r="AJ9" s="19"/>
@@ -2238,7 +2280,7 @@
         <v>1.0</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" s="17">
         <f>IFERROR((VLOOKUP(C10,Sheet2!$A:$B,2,0))+IF(E10="y",1,0),0)</f>
@@ -2251,7 +2293,7 @@
         <v>2.0</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J10" s="17">
         <f>IFERROR((VLOOKUP(G10,Sheet2!$A:$B,2,0))+IF(I10="y",1,0),0)</f>
@@ -2264,7 +2306,7 @@
         <v>1.0</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N10" s="17">
         <f>IFERROR((VLOOKUP(K10,Sheet2!$A:$B,2,0))+IF(M10="y",1,0),0)</f>
@@ -2277,7 +2319,7 @@
         <v>3.0</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="R10" s="17">
         <f>IFERROR((VLOOKUP(O10,Sheet2!$A:$B,2,0))+IF(Q10="y",1,0),0)</f>
@@ -2316,15 +2358,21 @@
         <v>2.0</v>
       </c>
       <c r="AC10" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AD10" s="17">
         <f>IFERROR((VLOOKUP(AA10,Sheet2!$A:$B,2,0))+IF(AC10="y",1,0),0)</f>
         <v>9</v>
       </c>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="20"/>
+      <c r="AE10" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AF10" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AG10" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AH10" s="17">
         <f>IFERROR((VLOOKUP(AE10,Sheet2!$A:$B,2,0))+IF(AG10="y",1,0),0)</f>
         <v>0</v>
@@ -2477,9 +2525,15 @@
         <f>IFERROR((VLOOKUP(AA11,Sheet2!$A:$B,2,0))+IF(AC11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="20"/>
+      <c r="AE11" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AF11" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AG11" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AH11" s="17">
         <f>IFERROR((VLOOKUP(AE11,Sheet2!$A:$B,2,0))+IF(AG11="y",1,0),0)</f>
         <v>0</v>
@@ -2632,12 +2686,18 @@
         <f>IFERROR((VLOOKUP(AA12,Sheet2!$A:$B,2,0))+IF(AC12="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="20"/>
+      <c r="AE12" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="AF12" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="AG12" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AH12" s="17">
         <f>IFERROR((VLOOKUP(AE12,Sheet2!$A:$B,2,0))+IF(AG12="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" s="18"/>
       <c r="AJ12" s="19"/>
@@ -2787,9 +2847,15 @@
         <f>IFERROR((VLOOKUP(AA13,Sheet2!$A:$B,2,0))+IF(AC13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="20"/>
+      <c r="AE13" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AF13" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AG13" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AH13" s="17">
         <f>IFERROR((VLOOKUP(AE13,Sheet2!$A:$B,2,0))+IF(AG13="y",1,0),0)</f>
         <v>0</v>
@@ -2942,9 +3008,15 @@
         <f>IFERROR((VLOOKUP(AA14,Sheet2!$A:$B,2,0))+IF(AC14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="29"/>
+      <c r="AE14" s="22">
+        <v>21.0</v>
+      </c>
+      <c r="AF14" s="23">
+        <v>22.0</v>
+      </c>
+      <c r="AG14" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="AH14" s="25">
         <f>IFERROR((VLOOKUP(AE14,Sheet2!$A:$B,2,0))+IF(AG14="y",1,0),0)</f>
         <v>0</v>
@@ -3854,21 +3926,21 @@
         <f>Sheet1!AD3</f>
         <v>15</v>
       </c>
-      <c r="AE2" s="33" t="str">
+      <c r="AE2" s="33">
         <f>Sheet1!AE3</f>
-        <v/>
-      </c>
-      <c r="AF2" s="33" t="str">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="33">
         <f>Sheet1!AF3</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AG2" s="33" t="str">
         <f>Sheet1!AG3</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="AH2" s="33">
         <f>Sheet1!AH3</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI2" s="33" t="str">
         <f>Sheet1!AI3</f>
@@ -4107,21 +4179,21 @@
         <f>Sheet1!AD4</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="33" t="str">
+      <c r="AE3" s="33">
         <f>Sheet1!AE4</f>
-        <v/>
-      </c>
-      <c r="AF3" s="33" t="str">
+        <v>15</v>
+      </c>
+      <c r="AF3" s="33">
         <f>Sheet1!AF4</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="AG3" s="33" t="str">
         <f>Sheet1!AG4</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AH3" s="33">
         <f>Sheet1!AH4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" s="33" t="str">
         <f>Sheet1!AI4</f>
@@ -4360,21 +4432,21 @@
         <f>Sheet1!AD5</f>
         <v>25</v>
       </c>
-      <c r="AE4" s="33" t="str">
+      <c r="AE4" s="33">
         <f>Sheet1!AE5</f>
-        <v/>
-      </c>
-      <c r="AF4" s="33" t="str">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="33">
         <f>Sheet1!AF5</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AG4" s="33" t="str">
         <f>Sheet1!AG5</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AH4" s="33">
         <f>Sheet1!AH5</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI4" s="33" t="str">
         <f>Sheet1!AI5</f>
@@ -4613,21 +4685,21 @@
         <f>Sheet1!AD6</f>
         <v>6</v>
       </c>
-      <c r="AE5" s="33" t="str">
+      <c r="AE5" s="33">
         <f>Sheet1!AE6</f>
-        <v/>
-      </c>
-      <c r="AF5" s="33" t="str">
+        <v>11</v>
+      </c>
+      <c r="AF5" s="33">
         <f>Sheet1!AF6</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AG5" s="33" t="str">
         <f>Sheet1!AG6</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AH5" s="33">
         <f>Sheet1!AH6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="33" t="str">
         <f>Sheet1!AI6</f>
@@ -4866,17 +4938,17 @@
         <f>Sheet1!AD7</f>
         <v>18</v>
       </c>
-      <c r="AE6" s="33" t="str">
+      <c r="AE6" s="33">
         <f>Sheet1!AE7</f>
-        <v/>
-      </c>
-      <c r="AF6" s="33" t="str">
+        <v>22</v>
+      </c>
+      <c r="AF6" s="33">
         <f>Sheet1!AF7</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AG6" s="33" t="str">
         <f>Sheet1!AG7</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AH6" s="33">
         <f>Sheet1!AH7</f>
@@ -5119,17 +5191,17 @@
         <f>Sheet1!AD8</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="33" t="str">
+      <c r="AE7" s="33">
         <f>Sheet1!AE8</f>
-        <v/>
-      </c>
-      <c r="AF7" s="33" t="str">
+        <v>22</v>
+      </c>
+      <c r="AF7" s="33">
         <f>Sheet1!AF8</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AG7" s="33" t="str">
         <f>Sheet1!AG8</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AH7" s="33">
         <f>Sheet1!AH8</f>
@@ -5372,21 +5444,21 @@
         <f>Sheet1!AD9</f>
         <v>12</v>
       </c>
-      <c r="AE8" s="33" t="str">
+      <c r="AE8" s="33">
         <f>Sheet1!AE9</f>
-        <v/>
-      </c>
-      <c r="AF8" s="33" t="str">
+        <v>18</v>
+      </c>
+      <c r="AF8" s="33">
         <f>Sheet1!AF9</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="AG8" s="33" t="str">
         <f>Sheet1!AG9</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AH8" s="33">
         <f>Sheet1!AH9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="33" t="str">
         <f>Sheet1!AI9</f>
@@ -5625,17 +5697,17 @@
         <f>Sheet1!AD10</f>
         <v>9</v>
       </c>
-      <c r="AE9" s="33" t="str">
+      <c r="AE9" s="33">
         <f>Sheet1!AE10</f>
-        <v/>
-      </c>
-      <c r="AF9" s="33" t="str">
+        <v>22</v>
+      </c>
+      <c r="AF9" s="33">
         <f>Sheet1!AF10</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AG9" s="33" t="str">
         <f>Sheet1!AG10</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AH9" s="33">
         <f>Sheet1!AH10</f>
@@ -5878,17 +5950,17 @@
         <f>Sheet1!AD11</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="33" t="str">
+      <c r="AE10" s="33">
         <f>Sheet1!AE11</f>
-        <v/>
-      </c>
-      <c r="AF10" s="33" t="str">
+        <v>22</v>
+      </c>
+      <c r="AF10" s="33">
         <f>Sheet1!AF11</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AG10" s="33" t="str">
         <f>Sheet1!AG11</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AH10" s="33">
         <f>Sheet1!AH11</f>
@@ -6131,21 +6203,21 @@
         <f>Sheet1!AD12</f>
         <v>10</v>
       </c>
-      <c r="AE11" s="33" t="str">
+      <c r="AE11" s="33">
         <f>Sheet1!AE12</f>
-        <v/>
-      </c>
-      <c r="AF11" s="33" t="str">
+        <v>16</v>
+      </c>
+      <c r="AF11" s="33">
         <f>Sheet1!AF12</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="AG11" s="33" t="str">
         <f>Sheet1!AG12</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AH11" s="33">
         <f>Sheet1!AH12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" s="33" t="str">
         <f>Sheet1!AI12</f>
@@ -6384,17 +6456,17 @@
         <f>Sheet1!AD13</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="33" t="str">
+      <c r="AE12" s="33">
         <f>Sheet1!AE13</f>
-        <v/>
-      </c>
-      <c r="AF12" s="33" t="str">
+        <v>22</v>
+      </c>
+      <c r="AF12" s="33">
         <f>Sheet1!AF13</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AG12" s="33" t="str">
         <f>Sheet1!AG13</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AH12" s="33">
         <f>Sheet1!AH13</f>
@@ -6637,17 +6709,17 @@
         <f>Sheet1!AD14</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="33" t="str">
+      <c r="AE13" s="33">
         <f>Sheet1!AE14</f>
-        <v/>
-      </c>
-      <c r="AF13" s="33" t="str">
+        <v>21</v>
+      </c>
+      <c r="AF13" s="33">
         <f>Sheet1!AF14</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AG13" s="33" t="str">
         <f>Sheet1!AG14</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AH13" s="33">
         <f>Sheet1!AH14</f>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -247,7 +247,7 @@
       <name val="&quot;Source Sans Pro&quot;"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +270,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -500,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -546,6 +552,9 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2190,8 +2199,8 @@
         <f>IFERROR((VLOOKUP(W9,Sheet2!$D:$E,2,0))+IF(Y9="y",1,0),0)</f>
         <v>5</v>
       </c>
-      <c r="AA9" s="14">
-        <v>4.0</v>
+      <c r="AA9" s="21">
+        <v>5.0</v>
       </c>
       <c r="AB9" s="15">
         <v>17.0</v>
@@ -2201,7 +2210,7 @@
       </c>
       <c r="AD9" s="17">
         <f>IFERROR((VLOOKUP(AA9,Sheet2!$A:$B,2,0))+IF(AC9="y",1,0),0)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE9" s="14">
         <v>18.0</v>
@@ -2351,8 +2360,8 @@
         <f>IFERROR((VLOOKUP(W10,Sheet2!$D:$E,2,0))+IF(Y10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="14">
-        <v>6.0</v>
+      <c r="AA10" s="21">
+        <v>4.0</v>
       </c>
       <c r="AB10" s="15">
         <v>2.0</v>
@@ -2362,7 +2371,7 @@
       </c>
       <c r="AD10" s="17">
         <f>IFERROR((VLOOKUP(AA10,Sheet2!$A:$B,2,0))+IF(AC10="y",1,0),0)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE10" s="14">
         <v>22.0</v>
@@ -2673,8 +2682,8 @@
         <f>IFERROR((VLOOKUP(W12,Sheet2!$D:$E,2,0))+IF(Y12="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="AA12" s="14">
-        <v>5.0</v>
+      <c r="AA12" s="21">
+        <v>6.0</v>
       </c>
       <c r="AB12" s="15">
         <v>16.0</v>
@@ -2684,7 +2693,7 @@
       </c>
       <c r="AD12" s="17">
         <f>IFERROR((VLOOKUP(AA12,Sheet2!$A:$B,2,0))+IF(AC12="y",1,0),0)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE12" s="14">
         <v>16.0</v>
@@ -2811,7 +2820,7 @@
       <c r="S13" s="14">
         <v>22.0</v>
       </c>
-      <c r="T13" s="21">
+      <c r="T13" s="22">
         <v>22.0</v>
       </c>
       <c r="U13" s="16" t="s">
@@ -2917,156 +2926,156 @@
       <c r="B14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="23">
         <v>3.0</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="24">
         <v>18.0</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="25">
+      <c r="E14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="26">
         <f>IFERROR((VLOOKUP(C14,Sheet2!$A:$B,2,0))+IF(E14="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="23">
         <v>22.0</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="24">
         <v>22.0</v>
       </c>
-      <c r="I14" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="25">
+      <c r="I14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="26">
         <f>IFERROR((VLOOKUP(G14,Sheet2!$A:$B,2,0))+IF(I14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="23">
         <v>11.0</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="24">
         <v>3.0</v>
       </c>
-      <c r="M14" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="25">
+      <c r="M14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="26">
         <f>IFERROR((VLOOKUP(K14,Sheet2!$A:$B,2,0))+IF(M14="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="O14" s="22">
+      <c r="O14" s="23">
         <v>3.0</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="24">
         <v>7.0</v>
       </c>
-      <c r="Q14" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="25">
+      <c r="Q14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" s="26">
         <f>IFERROR((VLOOKUP(O14,Sheet2!$A:$B,2,0))+IF(Q14="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="23">
         <v>8.0</v>
       </c>
-      <c r="T14" s="26">
+      <c r="T14" s="27">
         <v>4.0</v>
       </c>
-      <c r="U14" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="V14" s="25">
+      <c r="U14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="V14" s="26">
         <f>IFERROR((VLOOKUP(S14,Sheet2!$A:$B,2,0))+IF(U14="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="W14" s="22">
+      <c r="W14" s="23">
         <v>22.0</v>
       </c>
-      <c r="X14" s="23">
+      <c r="X14" s="24">
         <v>22.0</v>
       </c>
-      <c r="Y14" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z14" s="25">
+      <c r="Y14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z14" s="26">
         <f>IFERROR((VLOOKUP(W14,Sheet2!$D:$E,2,0))+IF(Y14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="22">
+      <c r="AA14" s="23">
         <v>22.0</v>
       </c>
-      <c r="AB14" s="23">
+      <c r="AB14" s="24">
         <v>22.0</v>
       </c>
-      <c r="AC14" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD14" s="25">
+      <c r="AC14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD14" s="26">
         <f>IFERROR((VLOOKUP(AA14,Sheet2!$A:$B,2,0))+IF(AC14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="22">
+      <c r="AE14" s="23">
         <v>21.0</v>
       </c>
-      <c r="AF14" s="23">
+      <c r="AF14" s="24">
         <v>22.0</v>
       </c>
-      <c r="AG14" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH14" s="25">
+      <c r="AG14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH14" s="26">
         <f>IFERROR((VLOOKUP(AE14,Sheet2!$A:$B,2,0))+IF(AG14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="29"/>
-      <c r="AL14" s="25">
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="26">
         <f>IFERROR((VLOOKUP(AI14,Sheet2!$A:$B,2,0))+IF(AK14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="29"/>
-      <c r="AP14" s="25">
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="26">
         <f>IFERROR((VLOOKUP(AM14,Sheet2!$A:$B,2,0))+IF(AO14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ14" s="27"/>
-      <c r="AR14" s="28"/>
-      <c r="AS14" s="29"/>
-      <c r="AT14" s="25">
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="30"/>
+      <c r="AT14" s="26">
         <f>IFERROR((VLOOKUP(AQ14,Sheet2!$A:$B,2,0))+IF(AS14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AU14" s="27"/>
-      <c r="AV14" s="28"/>
-      <c r="AW14" s="29"/>
-      <c r="AX14" s="25">
+      <c r="AU14" s="28"/>
+      <c r="AV14" s="29"/>
+      <c r="AW14" s="30"/>
+      <c r="AX14" s="26">
         <f>IFERROR((VLOOKUP(AU14,Sheet2!$D:$E,2,0))+IF(AW14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="27"/>
-      <c r="AZ14" s="28"/>
-      <c r="BA14" s="29"/>
-      <c r="BB14" s="25">
+      <c r="AY14" s="28"/>
+      <c r="AZ14" s="29"/>
+      <c r="BA14" s="30"/>
+      <c r="BB14" s="26">
         <f>IFERROR((VLOOKUP(AY14,Sheet2!$A:$B,2,0))+IF(BA14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC14" s="27"/>
-      <c r="BD14" s="28"/>
-      <c r="BE14" s="29"/>
-      <c r="BF14" s="25">
+      <c r="BC14" s="28"/>
+      <c r="BD14" s="29"/>
+      <c r="BE14" s="30"/>
+      <c r="BF14" s="26">
         <f>IFERROR((VLOOKUP(BC14,Sheet2!$D:$E,2,0))+IF(BE14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BG14" s="27"/>
-      <c r="BH14" s="28"/>
-      <c r="BI14" s="29"/>
-      <c r="BJ14" s="25">
+      <c r="BG14" s="28"/>
+      <c r="BH14" s="29"/>
+      <c r="BI14" s="30"/>
+      <c r="BJ14" s="26">
         <f>IFERROR((VLOOKUP(BG14,Sheet2!$A:$B,2,0))+IF(BI14="y",1,0),0)</f>
         <v>0</v>
       </c>
@@ -3140,36 +3149,36 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="32"/>
       <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="32">
+      <c r="A3" s="33">
         <v>1.0</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="33">
         <v>25.0</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="33">
         <v>1.0</v>
       </c>
       <c r="E3" s="16">
@@ -3177,13 +3186,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="32">
+      <c r="A4" s="33">
         <v>2.0</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="33">
         <v>18.0</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="33">
         <v>2.0</v>
       </c>
       <c r="E4" s="16">
@@ -3191,13 +3200,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="32">
+      <c r="A5" s="33">
         <v>3.0</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="33">
         <v>15.0</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="33">
         <v>3.0</v>
       </c>
       <c r="E5" s="16">
@@ -3205,13 +3214,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="32">
+      <c r="A6" s="33">
         <v>4.0</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="33">
         <v>12.0</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="33">
         <v>4.0</v>
       </c>
       <c r="E6" s="16">
@@ -3219,13 +3228,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="32">
+      <c r="A7" s="33">
         <v>5.0</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="33">
         <v>10.0</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="33">
         <v>5.0</v>
       </c>
       <c r="E7" s="16">
@@ -3233,13 +3242,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="32">
+      <c r="A8" s="33">
         <v>6.0</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="33">
         <v>8.0</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="33">
         <v>6.0</v>
       </c>
       <c r="E8" s="16">
@@ -3247,13 +3256,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="32">
+      <c r="A9" s="33">
         <v>7.0</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="33">
         <v>6.0</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="33">
         <v>7.0</v>
       </c>
       <c r="E9" s="16">
@@ -3261,13 +3270,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="32">
+      <c r="A10" s="33">
         <v>8.0</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="33">
         <v>4.0</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="33">
         <v>8.0</v>
       </c>
       <c r="E10" s="16">
@@ -3275,13 +3284,13 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="32">
+      <c r="A11" s="33">
         <v>9.0</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="33">
         <v>3.0</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="33">
         <v>9.0</v>
       </c>
       <c r="E11" s="16">
@@ -3289,13 +3298,13 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="32">
+      <c r="A12" s="33">
         <v>10.0</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="33">
         <v>2.0</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="33">
         <v>10.0</v>
       </c>
       <c r="E12" s="16">
@@ -3303,13 +3312,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="32">
+      <c r="A13" s="33">
         <v>11.0</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="33">
         <v>1.0</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="33">
         <v>11.0</v>
       </c>
       <c r="E13" s="16">
@@ -3317,13 +3326,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="32">
+      <c r="A14" s="33">
         <v>12.0</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="33">
         <v>1.0</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="33">
         <v>12.0</v>
       </c>
       <c r="E14" s="16">
@@ -3331,13 +3340,13 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="32">
+      <c r="A15" s="33">
         <v>13.0</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="33">
         <v>1.0</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="33">
         <v>13.0</v>
       </c>
       <c r="E15" s="16">
@@ -3345,13 +3354,13 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="32">
+      <c r="A16" s="33">
         <v>14.0</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="33">
         <v>1.0</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="33">
         <v>14.0</v>
       </c>
       <c r="E16" s="16">
@@ -3359,13 +3368,13 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="32">
+      <c r="A17" s="33">
         <v>15.0</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="33">
         <v>1.0</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="33">
         <v>15.0</v>
       </c>
       <c r="E17" s="16">
@@ -3373,13 +3382,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="32">
+      <c r="A18" s="33">
         <v>16.0</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="33">
         <v>1.0</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="33">
         <v>16.0</v>
       </c>
       <c r="E18" s="16">
@@ -3387,13 +3396,13 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="32">
+      <c r="A19" s="33">
         <v>17.0</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="33">
         <v>1.0</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="33">
         <v>17.0</v>
       </c>
       <c r="E19" s="16">
@@ -3401,13 +3410,13 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="32">
+      <c r="A20" s="33">
         <v>18.0</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="33">
         <v>1.0</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="33">
         <v>18.0</v>
       </c>
       <c r="E20" s="16">
@@ -3415,13 +3424,13 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="32">
+      <c r="A21" s="33">
         <v>19.0</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="33">
         <v>1.0</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="33">
         <v>19.0</v>
       </c>
       <c r="E21" s="16">
@@ -3429,13 +3438,13 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="32">
+      <c r="A22" s="33">
         <v>20.0</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="33">
         <v>1.0</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="33">
         <v>20.0</v>
       </c>
       <c r="E22" s="16">
@@ -3443,16 +3452,16 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="32">
+      <c r="A23" s="33">
         <v>21.0</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="33">
         <v>0.0</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="33">
         <v>21.0</v>
       </c>
       <c r="E23" s="16">
@@ -3463,16 +3472,16 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="32">
+      <c r="A24" s="33">
         <v>22.0</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="33">
         <v>0.0</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="33">
         <v>22.0</v>
       </c>
       <c r="E24" s="16">
@@ -3483,13 +3492,13 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="32">
+      <c r="A25" s="33">
         <v>23.0</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="33">
         <v>0.0</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="33">
         <v>23.0</v>
       </c>
       <c r="E25" s="16">
@@ -3497,13 +3506,13 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="32">
+      <c r="A26" s="33">
         <v>24.0</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="33">
         <v>0.0</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="33">
         <v>24.0</v>
       </c>
       <c r="E26" s="16">
@@ -3511,21 +3520,21 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33">
         <v>0.0</v>
       </c>
-      <c r="D27" s="32"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="16">
         <v>0.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33">
         <v>0.0</v>
       </c>
-      <c r="D28" s="32"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="16">
         <v>0.0</v>
       </c>
@@ -3553,251 +3562,251 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="34" t="str">
         <f>Sheet1!A2</f>
         <v>Team</v>
       </c>
-      <c r="B1" s="33" t="str">
+      <c r="B1" s="34" t="str">
         <f>Sheet1!B2</f>
         <v>Driver</v>
       </c>
-      <c r="C1" s="33" t="str">
+      <c r="C1" s="34" t="str">
         <f>CONCAT(Sheet1!$C$1,Sheet1!C2)</f>
         <v>SuzukaPlace</v>
       </c>
-      <c r="D1" s="33" t="str">
+      <c r="D1" s="34" t="str">
         <f>CONCAT(Sheet1!$C$1,Sheet1!D2)</f>
         <v>SuzukaQualifying</v>
       </c>
-      <c r="E1" s="33" t="str">
+      <c r="E1" s="34" t="str">
         <f>CONCAT(Sheet1!$C$1,Sheet1!E2)</f>
         <v>SuzukaFastestLap</v>
       </c>
-      <c r="F1" s="33" t="str">
+      <c r="F1" s="34" t="str">
         <f>CONCAT(Sheet1!$C$1,Sheet1!F2)</f>
         <v>SuzukaPoints</v>
       </c>
-      <c r="G1" s="33" t="str">
+      <c r="G1" s="34" t="str">
         <f>CONCAT(Sheet1!$G$1,Sheet1!G2)</f>
         <v>SilverstonePlace</v>
       </c>
-      <c r="H1" s="33" t="str">
+      <c r="H1" s="34" t="str">
         <f>CONCAT(Sheet1!$G$1,Sheet1!H2)</f>
         <v>SilverstoneQualifying</v>
       </c>
-      <c r="I1" s="33" t="str">
+      <c r="I1" s="34" t="str">
         <f>CONCAT(Sheet1!$G$1,Sheet1!I2)</f>
         <v>SilverstoneFastestLap</v>
       </c>
-      <c r="J1" s="33" t="str">
+      <c r="J1" s="34" t="str">
         <f>CONCAT(Sheet1!$G$1,Sheet1!J2)</f>
         <v>SilverstonePoints</v>
       </c>
-      <c r="K1" s="33" t="str">
+      <c r="K1" s="34" t="str">
         <f>CONCAT(Sheet1!$K$1,Sheet1!K2)</f>
         <v>AustraliaPlace</v>
       </c>
-      <c r="L1" s="33" t="str">
+      <c r="L1" s="34" t="str">
         <f>CONCAT(Sheet1!$K$1,Sheet1!L2)</f>
         <v>AustraliaQualifying</v>
       </c>
-      <c r="M1" s="33" t="str">
+      <c r="M1" s="34" t="str">
         <f>CONCAT(Sheet1!$K$1,Sheet1!M2)</f>
         <v>AustraliaFastestLap</v>
       </c>
-      <c r="N1" s="33" t="str">
+      <c r="N1" s="34" t="str">
         <f>CONCAT(Sheet1!$K$1,Sheet1!N2)</f>
         <v>AustraliaPoints</v>
       </c>
-      <c r="O1" s="33" t="str">
+      <c r="O1" s="34" t="str">
         <f>CONCAT(Sheet1!$O$1,Sheet1!O2)</f>
         <v>SpaPlace</v>
       </c>
-      <c r="P1" s="33" t="str">
+      <c r="P1" s="34" t="str">
         <f>CONCAT(Sheet1!$O$1,Sheet1!P2)</f>
         <v>SpaQualifying</v>
       </c>
-      <c r="Q1" s="33" t="str">
+      <c r="Q1" s="34" t="str">
         <f>CONCAT(Sheet1!$O$1,Sheet1!Q2)</f>
         <v>SpaFastestLap</v>
       </c>
-      <c r="R1" s="33" t="str">
+      <c r="R1" s="34" t="str">
         <f>CONCAT(Sheet1!$O$1,Sheet1!R2)</f>
         <v>SpaPoints</v>
       </c>
-      <c r="S1" s="33" t="str">
+      <c r="S1" s="34" t="str">
         <f>CONCAT(Sheet1!$S$1,Sheet1!S2)</f>
         <v>SpainPlace</v>
       </c>
-      <c r="T1" s="33" t="str">
+      <c r="T1" s="34" t="str">
         <f>CONCAT(Sheet1!$S$1,Sheet1!T2)</f>
         <v>SpainQualifying</v>
       </c>
-      <c r="U1" s="33" t="str">
+      <c r="U1" s="34" t="str">
         <f>CONCAT(Sheet1!$S$1,Sheet1!U2)</f>
         <v>SpainFastestLap</v>
       </c>
-      <c r="V1" s="33" t="str">
+      <c r="V1" s="34" t="str">
         <f>CONCAT(Sheet1!$S$1,Sheet1!V2)</f>
         <v>SpainPoints</v>
       </c>
-      <c r="W1" s="33" t="str">
+      <c r="W1" s="34" t="str">
         <f>CONCAT(Sheet1!$W$1,Sheet1!W2)</f>
         <v>ChinaSprintPlace</v>
       </c>
-      <c r="X1" s="33" t="str">
+      <c r="X1" s="34" t="str">
         <f>CONCAT(Sheet1!$W$1,Sheet1!X2)</f>
         <v>ChinaSprintQualifying</v>
       </c>
-      <c r="Y1" s="33" t="str">
+      <c r="Y1" s="34" t="str">
         <f>CONCAT(Sheet1!$W$1,Sheet1!Y2)</f>
         <v>ChinaSprintFastestLap</v>
       </c>
-      <c r="Z1" s="33" t="str">
+      <c r="Z1" s="34" t="str">
         <f>CONCAT(Sheet1!$W$1,Sheet1!Z2)</f>
         <v>ChinaSprintPoints</v>
       </c>
-      <c r="AA1" s="33" t="str">
+      <c r="AA1" s="34" t="str">
         <f>CONCAT(Sheet1!$AA$1,Sheet1!AA2)</f>
         <v>ChinaPlace</v>
       </c>
-      <c r="AB1" s="33" t="str">
+      <c r="AB1" s="34" t="str">
         <f>CONCAT(Sheet1!$AA$1,Sheet1!AB2)</f>
         <v>ChinaQualifying</v>
       </c>
-      <c r="AC1" s="33" t="str">
+      <c r="AC1" s="34" t="str">
         <f>CONCAT(Sheet1!$AA$1,Sheet1!AC2)</f>
         <v>ChinaFastestLap</v>
       </c>
-      <c r="AD1" s="33" t="str">
+      <c r="AD1" s="34" t="str">
         <f>CONCAT(Sheet1!$AA$1,Sheet1!AD2)</f>
         <v>ChinaPoints</v>
       </c>
-      <c r="AE1" s="33" t="str">
+      <c r="AE1" s="34" t="str">
         <f>CONCAT(Sheet1!$AE$1,Sheet1!AE2)</f>
         <v>BakuPlace</v>
       </c>
-      <c r="AF1" s="33" t="str">
+      <c r="AF1" s="34" t="str">
         <f>CONCAT(Sheet1!$AE$1,Sheet1!AF2)</f>
         <v>BakuQualifying</v>
       </c>
-      <c r="AG1" s="33" t="str">
+      <c r="AG1" s="34" t="str">
         <f>CONCAT(Sheet1!$AE$1,Sheet1!AG2)</f>
         <v>BakuFastestLap</v>
       </c>
-      <c r="AH1" s="33" t="str">
+      <c r="AH1" s="34" t="str">
         <f>CONCAT(Sheet1!$AE$1,Sheet1!AH2)</f>
         <v>BakuPoints</v>
       </c>
-      <c r="AI1" s="33" t="str">
+      <c r="AI1" s="34" t="str">
         <f>CONCAT(Sheet1!$AI$1,Sheet1!AI2)</f>
         <v>CanadaPlace</v>
       </c>
-      <c r="AJ1" s="33" t="str">
+      <c r="AJ1" s="34" t="str">
         <f>CONCAT(Sheet1!$AI$1,Sheet1!AJ2)</f>
         <v>CanadaQualifying</v>
       </c>
-      <c r="AK1" s="33" t="str">
+      <c r="AK1" s="34" t="str">
         <f>CONCAT(Sheet1!$AI$1,Sheet1!AK2)</f>
         <v>CanadaFastestLap</v>
       </c>
-      <c r="AL1" s="33" t="str">
+      <c r="AL1" s="34" t="str">
         <f>CONCAT(Sheet1!$AI$1,Sheet1!AL2)</f>
         <v>CanadaPoints</v>
       </c>
-      <c r="AM1" s="33" t="str">
+      <c r="AM1" s="34" t="str">
         <f>CONCAT(Sheet1!$AM$1,Sheet1!AM2)</f>
         <v>MonzaPlace</v>
       </c>
-      <c r="AN1" s="33" t="str">
+      <c r="AN1" s="34" t="str">
         <f>CONCAT(Sheet1!$AM$1,Sheet1!AN2)</f>
         <v>MonzaQualifying</v>
       </c>
-      <c r="AO1" s="33" t="str">
+      <c r="AO1" s="34" t="str">
         <f>CONCAT(Sheet1!$AM$1,Sheet1!AO2)</f>
         <v>MonzaFastestLap</v>
       </c>
-      <c r="AP1" s="33" t="str">
+      <c r="AP1" s="34" t="str">
         <f>CONCAT(Sheet1!$AM$1,Sheet1!AP2)</f>
         <v>MonzaPoints</v>
       </c>
-      <c r="AQ1" s="33" t="str">
+      <c r="AQ1" s="34" t="str">
         <f>CONCAT(Sheet1!$AQ$1,Sheet1!AQ2)</f>
         <v>Abu DhabiPlace</v>
       </c>
-      <c r="AR1" s="33" t="str">
+      <c r="AR1" s="34" t="str">
         <f>CONCAT(Sheet1!$AQ$1,Sheet1!AR2)</f>
         <v>Abu DhabiQualifying</v>
       </c>
-      <c r="AS1" s="33" t="str">
+      <c r="AS1" s="34" t="str">
         <f>CONCAT(Sheet1!$AQ$1,Sheet1!AS2)</f>
         <v>Abu DhabiFastestLap</v>
       </c>
-      <c r="AT1" s="33" t="str">
+      <c r="AT1" s="34" t="str">
         <f>CONCAT(Sheet1!$AQ$1,Sheet1!AT2)</f>
         <v>Abu DhabiPoints</v>
       </c>
-      <c r="AU1" s="33" t="str">
+      <c r="AU1" s="34" t="str">
         <f>CONCAT(Sheet1!$AU$1,Sheet1!AU2)</f>
         <v>AustriaSprintPlace</v>
       </c>
-      <c r="AV1" s="33" t="str">
+      <c r="AV1" s="34" t="str">
         <f>CONCAT(Sheet1!$AU$1,Sheet1!AV2)</f>
         <v>AustriaSprintQualifying</v>
       </c>
-      <c r="AW1" s="33" t="str">
+      <c r="AW1" s="34" t="str">
         <f>CONCAT(Sheet1!$AU$1,Sheet1!AW2)</f>
         <v>AustriaSprintFastestLap</v>
       </c>
-      <c r="AX1" s="33" t="str">
+      <c r="AX1" s="34" t="str">
         <f>CONCAT(Sheet1!$AU$1,Sheet1!AX2)</f>
         <v>AustriaSprintPoints</v>
       </c>
-      <c r="AY1" s="33" t="str">
+      <c r="AY1" s="34" t="str">
         <f>CONCAT(Sheet1!$AY$1,Sheet1!AY2)</f>
         <v>AustriaPlace</v>
       </c>
-      <c r="AZ1" s="33" t="str">
+      <c r="AZ1" s="34" t="str">
         <f>CONCAT(Sheet1!$AY$1,Sheet1!AZ2)</f>
         <v>AustriaQualifying</v>
       </c>
-      <c r="BA1" s="33" t="str">
+      <c r="BA1" s="34" t="str">
         <f>CONCAT(Sheet1!$AY$1,Sheet1!BA2)</f>
         <v>AustriaFastestLap</v>
       </c>
-      <c r="BB1" s="33" t="str">
+      <c r="BB1" s="34" t="str">
         <f>CONCAT(Sheet1!$AY$1,Sheet1!BB2)</f>
         <v>AustriaPoints</v>
       </c>
-      <c r="BC1" s="33" t="str">
+      <c r="BC1" s="34" t="str">
         <f>CONCAT(Sheet1!$BC$1,Sheet1!BC2)</f>
         <v>COTASprintPlace</v>
       </c>
-      <c r="BD1" s="33" t="str">
+      <c r="BD1" s="34" t="str">
         <f>CONCAT(Sheet1!$BC$1,Sheet1!BD2)</f>
         <v>COTASprintQualifying</v>
       </c>
-      <c r="BE1" s="33" t="str">
+      <c r="BE1" s="34" t="str">
         <f>CONCAT(Sheet1!$BC$1,Sheet1!BE2)</f>
         <v>COTASprintFastestLap</v>
       </c>
-      <c r="BF1" s="33" t="str">
+      <c r="BF1" s="34" t="str">
         <f>CONCAT(Sheet1!$BC$1,Sheet1!BF2)</f>
         <v>COTASprintPoints</v>
       </c>
-      <c r="BG1" s="33" t="str">
+      <c r="BG1" s="34" t="str">
         <f>CONCAT(Sheet1!$BG$1,Sheet1!BG2)</f>
         <v>COTAPlace</v>
       </c>
-      <c r="BH1" s="33" t="str">
+      <c r="BH1" s="34" t="str">
         <f>CONCAT(Sheet1!$BG$1,Sheet1!BH2)</f>
         <v>COTAQualifying</v>
       </c>
-      <c r="BI1" s="33" t="str">
+      <c r="BI1" s="34" t="str">
         <f>CONCAT(Sheet1!$BG$1,Sheet1!BI2)</f>
         <v>COTAFastestLap</v>
       </c>
-      <c r="BJ1" s="33" t="str">
+      <c r="BJ1" s="34" t="str">
         <f>CONCAT(Sheet1!$BG$1,Sheet1!BJ2)</f>
         <v>COTAPoints</v>
       </c>
@@ -3806,251 +3815,251 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="33" t="str">
+      <c r="A2" s="34" t="str">
         <f>Sheet1!A3</f>
         <v>McLaren</v>
       </c>
-      <c r="B2" s="33" t="str">
+      <c r="B2" s="34" t="str">
         <f>Sheet1!B3</f>
         <v>Nick</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="34">
         <f>Sheet1!C3</f>
         <v>2</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="34">
         <f>Sheet1!D3</f>
         <v>2</v>
       </c>
-      <c r="E2" s="33" t="str">
+      <c r="E2" s="34" t="str">
         <f>Sheet1!E3</f>
         <v>N</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="34">
         <f>Sheet1!F3</f>
         <v>18</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="34">
         <f>Sheet1!G3</f>
         <v>2</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="34">
         <f>Sheet1!H3</f>
         <v>1</v>
       </c>
-      <c r="I2" s="33" t="str">
+      <c r="I2" s="34" t="str">
         <f>Sheet1!I3</f>
         <v>N</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="34">
         <f>Sheet1!J3</f>
         <v>18</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="34">
         <f>Sheet1!K3</f>
         <v>1</v>
       </c>
-      <c r="L2" s="33">
+      <c r="L2" s="34">
         <f>Sheet1!L3</f>
         <v>2</v>
       </c>
-      <c r="M2" s="33" t="str">
+      <c r="M2" s="34" t="str">
         <f>Sheet1!M3</f>
         <v>N</v>
       </c>
-      <c r="N2" s="33">
+      <c r="N2" s="34">
         <f>Sheet1!N3</f>
         <v>25</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="34">
         <f>Sheet1!O3</f>
         <v>1</v>
       </c>
-      <c r="P2" s="33">
+      <c r="P2" s="34">
         <f>Sheet1!P3</f>
         <v>4</v>
       </c>
-      <c r="Q2" s="33" t="str">
+      <c r="Q2" s="34" t="str">
         <f>Sheet1!Q3</f>
         <v>N</v>
       </c>
-      <c r="R2" s="33">
+      <c r="R2" s="34">
         <f>Sheet1!R3</f>
         <v>25</v>
       </c>
-      <c r="S2" s="33">
+      <c r="S2" s="34">
         <f>Sheet1!S3</f>
         <v>2</v>
       </c>
-      <c r="T2" s="33">
+      <c r="T2" s="34">
         <f>Sheet1!T3</f>
         <v>1</v>
       </c>
-      <c r="U2" s="33" t="str">
+      <c r="U2" s="34" t="str">
         <f>Sheet1!U3</f>
         <v>N</v>
       </c>
-      <c r="V2" s="33">
+      <c r="V2" s="34">
         <f>Sheet1!V3</f>
         <v>18</v>
       </c>
-      <c r="W2" s="33">
+      <c r="W2" s="34">
         <f>Sheet1!W3</f>
         <v>1</v>
       </c>
-      <c r="X2" s="33">
+      <c r="X2" s="34">
         <f>Sheet1!X3</f>
         <v>2</v>
       </c>
-      <c r="Y2" s="33" t="str">
+      <c r="Y2" s="34" t="str">
         <f>Sheet1!Y3</f>
         <v>N</v>
       </c>
-      <c r="Z2" s="33">
+      <c r="Z2" s="34">
         <f>Sheet1!Z3</f>
         <v>8</v>
       </c>
-      <c r="AA2" s="33">
+      <c r="AA2" s="34">
         <f>Sheet1!AA3</f>
         <v>3</v>
       </c>
-      <c r="AB2" s="33">
+      <c r="AB2" s="34">
         <f>Sheet1!AB3</f>
         <v>20</v>
       </c>
-      <c r="AC2" s="33" t="str">
+      <c r="AC2" s="34" t="str">
         <f>Sheet1!AC3</f>
         <v>N</v>
       </c>
-      <c r="AD2" s="33">
+      <c r="AD2" s="34">
         <f>Sheet1!AD3</f>
         <v>15</v>
       </c>
-      <c r="AE2" s="33">
+      <c r="AE2" s="34">
         <f>Sheet1!AE3</f>
         <v>1</v>
       </c>
-      <c r="AF2" s="33">
+      <c r="AF2" s="34">
         <f>Sheet1!AF3</f>
         <v>1</v>
       </c>
-      <c r="AG2" s="33" t="str">
+      <c r="AG2" s="34" t="str">
         <f>Sheet1!AG3</f>
         <v>Y</v>
       </c>
-      <c r="AH2" s="33">
+      <c r="AH2" s="34">
         <f>Sheet1!AH3</f>
         <v>26</v>
       </c>
-      <c r="AI2" s="33" t="str">
+      <c r="AI2" s="34" t="str">
         <f>Sheet1!AI3</f>
         <v/>
       </c>
-      <c r="AJ2" s="33" t="str">
+      <c r="AJ2" s="34" t="str">
         <f>Sheet1!AJ3</f>
         <v/>
       </c>
-      <c r="AK2" s="33" t="str">
+      <c r="AK2" s="34" t="str">
         <f>Sheet1!AK3</f>
         <v/>
       </c>
-      <c r="AL2" s="33">
+      <c r="AL2" s="34">
         <f>Sheet1!AL3</f>
         <v>0</v>
       </c>
-      <c r="AM2" s="33" t="str">
+      <c r="AM2" s="34" t="str">
         <f>Sheet1!AM3</f>
         <v/>
       </c>
-      <c r="AN2" s="33" t="str">
+      <c r="AN2" s="34" t="str">
         <f>Sheet1!AN3</f>
         <v/>
       </c>
-      <c r="AO2" s="33" t="str">
+      <c r="AO2" s="34" t="str">
         <f>Sheet1!AO3</f>
         <v/>
       </c>
-      <c r="AP2" s="33">
+      <c r="AP2" s="34">
         <f>Sheet1!AP3</f>
         <v>0</v>
       </c>
-      <c r="AQ2" s="33" t="str">
+      <c r="AQ2" s="34" t="str">
         <f>Sheet1!AQ3</f>
         <v/>
       </c>
-      <c r="AR2" s="33" t="str">
+      <c r="AR2" s="34" t="str">
         <f>Sheet1!AR3</f>
         <v/>
       </c>
-      <c r="AS2" s="33" t="str">
+      <c r="AS2" s="34" t="str">
         <f>Sheet1!AS3</f>
         <v/>
       </c>
-      <c r="AT2" s="33">
+      <c r="AT2" s="34">
         <f>Sheet1!AT3</f>
         <v>0</v>
       </c>
-      <c r="AU2" s="33" t="str">
+      <c r="AU2" s="34" t="str">
         <f>Sheet1!AU3</f>
         <v/>
       </c>
-      <c r="AV2" s="33" t="str">
+      <c r="AV2" s="34" t="str">
         <f>Sheet1!AV3</f>
         <v/>
       </c>
-      <c r="AW2" s="33" t="str">
+      <c r="AW2" s="34" t="str">
         <f>Sheet1!AW3</f>
         <v/>
       </c>
-      <c r="AX2" s="33">
+      <c r="AX2" s="34">
         <f>Sheet1!AX3</f>
         <v>0</v>
       </c>
-      <c r="AY2" s="33" t="str">
+      <c r="AY2" s="34" t="str">
         <f>Sheet1!AY3</f>
         <v/>
       </c>
-      <c r="AZ2" s="33" t="str">
+      <c r="AZ2" s="34" t="str">
         <f>Sheet1!AZ3</f>
         <v/>
       </c>
-      <c r="BA2" s="33" t="str">
+      <c r="BA2" s="34" t="str">
         <f>Sheet1!BA3</f>
         <v/>
       </c>
-      <c r="BB2" s="33">
+      <c r="BB2" s="34">
         <f>Sheet1!BB3</f>
         <v>0</v>
       </c>
-      <c r="BC2" s="33" t="str">
+      <c r="BC2" s="34" t="str">
         <f>Sheet1!BC3</f>
         <v/>
       </c>
-      <c r="BD2" s="33" t="str">
+      <c r="BD2" s="34" t="str">
         <f>Sheet1!BD3</f>
         <v/>
       </c>
-      <c r="BE2" s="33" t="str">
+      <c r="BE2" s="34" t="str">
         <f>Sheet1!BE3</f>
         <v/>
       </c>
-      <c r="BF2" s="33">
+      <c r="BF2" s="34">
         <f>Sheet1!BF3</f>
         <v>0</v>
       </c>
-      <c r="BG2" s="33" t="str">
+      <c r="BG2" s="34" t="str">
         <f>Sheet1!BG3</f>
         <v/>
       </c>
-      <c r="BH2" s="33" t="str">
+      <c r="BH2" s="34" t="str">
         <f>Sheet1!BH3</f>
         <v/>
       </c>
-      <c r="BI2" s="33" t="str">
+      <c r="BI2" s="34" t="str">
         <f>Sheet1!BI3</f>
         <v/>
       </c>
-      <c r="BJ2" s="33">
+      <c r="BJ2" s="34">
         <f>Sheet1!BJ3</f>
         <v>0</v>
       </c>
@@ -4059,251 +4068,251 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="33" t="str">
+      <c r="A3" s="34" t="str">
         <f>Sheet1!A4</f>
         <v>McLaren</v>
       </c>
-      <c r="B3" s="33" t="str">
+      <c r="B3" s="34" t="str">
         <f>Sheet1!B4</f>
         <v>Travis</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="34">
         <f>Sheet1!C4</f>
         <v>16</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="34">
         <f>Sheet1!D4</f>
         <v>10</v>
       </c>
-      <c r="E3" s="33" t="str">
+      <c r="E3" s="34" t="str">
         <f>Sheet1!E4</f>
         <v>N</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="34">
         <f>Sheet1!F4</f>
         <v>1</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="34">
         <f>Sheet1!G4</f>
         <v>9</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="34">
         <f>Sheet1!H4</f>
         <v>10</v>
       </c>
-      <c r="I3" s="33" t="str">
+      <c r="I3" s="34" t="str">
         <f>Sheet1!I4</f>
         <v>N</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="34">
         <f>Sheet1!J4</f>
         <v>3</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="34">
         <f>Sheet1!K4</f>
         <v>12</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="34">
         <f>Sheet1!L4</f>
         <v>7</v>
       </c>
-      <c r="M3" s="33" t="str">
+      <c r="M3" s="34" t="str">
         <f>Sheet1!M4</f>
         <v>N</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="34">
         <f>Sheet1!N4</f>
         <v>1</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3" s="34">
         <f>Sheet1!O4</f>
         <v>22</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="34">
         <f>Sheet1!P4</f>
         <v>22</v>
       </c>
-      <c r="Q3" s="33" t="str">
+      <c r="Q3" s="34" t="str">
         <f>Sheet1!Q4</f>
         <v>N</v>
       </c>
-      <c r="R3" s="33">
+      <c r="R3" s="34">
         <f>Sheet1!R4</f>
         <v>0</v>
       </c>
-      <c r="S3" s="33">
+      <c r="S3" s="34">
         <f>Sheet1!S4</f>
         <v>18</v>
       </c>
-      <c r="T3" s="33">
+      <c r="T3" s="34">
         <f>Sheet1!T4</f>
         <v>8</v>
       </c>
-      <c r="U3" s="33" t="str">
+      <c r="U3" s="34" t="str">
         <f>Sheet1!U4</f>
         <v>N</v>
       </c>
-      <c r="V3" s="33">
+      <c r="V3" s="34">
         <f>Sheet1!V4</f>
         <v>1</v>
       </c>
-      <c r="W3" s="33">
+      <c r="W3" s="34">
         <f>Sheet1!W4</f>
         <v>22</v>
       </c>
-      <c r="X3" s="33">
+      <c r="X3" s="34">
         <f>Sheet1!X4</f>
         <v>22</v>
       </c>
-      <c r="Y3" s="33" t="str">
+      <c r="Y3" s="34" t="str">
         <f>Sheet1!Y4</f>
         <v>N</v>
       </c>
-      <c r="Z3" s="33">
+      <c r="Z3" s="34">
         <f>Sheet1!Z4</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="33">
+      <c r="AA3" s="34">
         <f>Sheet1!AA4</f>
         <v>22</v>
       </c>
-      <c r="AB3" s="33">
+      <c r="AB3" s="34">
         <f>Sheet1!AB4</f>
         <v>22</v>
       </c>
-      <c r="AC3" s="33" t="str">
+      <c r="AC3" s="34" t="str">
         <f>Sheet1!AC4</f>
         <v>N</v>
       </c>
-      <c r="AD3" s="33">
+      <c r="AD3" s="34">
         <f>Sheet1!AD4</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="33">
+      <c r="AE3" s="34">
         <f>Sheet1!AE4</f>
         <v>15</v>
       </c>
-      <c r="AF3" s="33">
+      <c r="AF3" s="34">
         <f>Sheet1!AF4</f>
         <v>6</v>
       </c>
-      <c r="AG3" s="33" t="str">
+      <c r="AG3" s="34" t="str">
         <f>Sheet1!AG4</f>
         <v>N</v>
       </c>
-      <c r="AH3" s="33">
+      <c r="AH3" s="34">
         <f>Sheet1!AH4</f>
         <v>1</v>
       </c>
-      <c r="AI3" s="33" t="str">
+      <c r="AI3" s="34" t="str">
         <f>Sheet1!AI4</f>
         <v/>
       </c>
-      <c r="AJ3" s="33" t="str">
+      <c r="AJ3" s="34" t="str">
         <f>Sheet1!AJ4</f>
         <v/>
       </c>
-      <c r="AK3" s="33" t="str">
+      <c r="AK3" s="34" t="str">
         <f>Sheet1!AK4</f>
         <v/>
       </c>
-      <c r="AL3" s="33">
+      <c r="AL3" s="34">
         <f>Sheet1!AL4</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="33" t="str">
+      <c r="AM3" s="34" t="str">
         <f>Sheet1!AM4</f>
         <v/>
       </c>
-      <c r="AN3" s="33" t="str">
+      <c r="AN3" s="34" t="str">
         <f>Sheet1!AN4</f>
         <v/>
       </c>
-      <c r="AO3" s="33" t="str">
+      <c r="AO3" s="34" t="str">
         <f>Sheet1!AO4</f>
         <v/>
       </c>
-      <c r="AP3" s="33">
+      <c r="AP3" s="34">
         <f>Sheet1!AP4</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="33" t="str">
+      <c r="AQ3" s="34" t="str">
         <f>Sheet1!AQ4</f>
         <v/>
       </c>
-      <c r="AR3" s="33" t="str">
+      <c r="AR3" s="34" t="str">
         <f>Sheet1!AR4</f>
         <v/>
       </c>
-      <c r="AS3" s="33" t="str">
+      <c r="AS3" s="34" t="str">
         <f>Sheet1!AS4</f>
         <v/>
       </c>
-      <c r="AT3" s="33">
+      <c r="AT3" s="34">
         <f>Sheet1!AT4</f>
         <v>0</v>
       </c>
-      <c r="AU3" s="33" t="str">
+      <c r="AU3" s="34" t="str">
         <f>Sheet1!AU4</f>
         <v/>
       </c>
-      <c r="AV3" s="33" t="str">
+      <c r="AV3" s="34" t="str">
         <f>Sheet1!AV4</f>
         <v/>
       </c>
-      <c r="AW3" s="33" t="str">
+      <c r="AW3" s="34" t="str">
         <f>Sheet1!AW4</f>
         <v/>
       </c>
-      <c r="AX3" s="33">
+      <c r="AX3" s="34">
         <f>Sheet1!AX4</f>
         <v>0</v>
       </c>
-      <c r="AY3" s="33" t="str">
+      <c r="AY3" s="34" t="str">
         <f>Sheet1!AY4</f>
         <v/>
       </c>
-      <c r="AZ3" s="33" t="str">
+      <c r="AZ3" s="34" t="str">
         <f>Sheet1!AZ4</f>
         <v/>
       </c>
-      <c r="BA3" s="33" t="str">
+      <c r="BA3" s="34" t="str">
         <f>Sheet1!BA4</f>
         <v/>
       </c>
-      <c r="BB3" s="33">
+      <c r="BB3" s="34">
         <f>Sheet1!BB4</f>
         <v>0</v>
       </c>
-      <c r="BC3" s="33" t="str">
+      <c r="BC3" s="34" t="str">
         <f>Sheet1!BC4</f>
         <v/>
       </c>
-      <c r="BD3" s="33" t="str">
+      <c r="BD3" s="34" t="str">
         <f>Sheet1!BD4</f>
         <v/>
       </c>
-      <c r="BE3" s="33" t="str">
+      <c r="BE3" s="34" t="str">
         <f>Sheet1!BE4</f>
         <v/>
       </c>
-      <c r="BF3" s="33">
+      <c r="BF3" s="34">
         <f>Sheet1!BF4</f>
         <v>0</v>
       </c>
-      <c r="BG3" s="33" t="str">
+      <c r="BG3" s="34" t="str">
         <f>Sheet1!BG4</f>
         <v/>
       </c>
-      <c r="BH3" s="33" t="str">
+      <c r="BH3" s="34" t="str">
         <f>Sheet1!BH4</f>
         <v/>
       </c>
-      <c r="BI3" s="33" t="str">
+      <c r="BI3" s="34" t="str">
         <f>Sheet1!BI4</f>
         <v/>
       </c>
-      <c r="BJ3" s="33">
+      <c r="BJ3" s="34">
         <f>Sheet1!BJ4</f>
         <v>0</v>
       </c>
@@ -4312,251 +4321,251 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="33" t="str">
+      <c r="A4" s="34" t="str">
         <f>Sheet1!A5</f>
         <v>VCARB</v>
       </c>
-      <c r="B4" s="33" t="str">
+      <c r="B4" s="34" t="str">
         <f>Sheet1!B5</f>
         <v>Patrick</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="34">
         <f>Sheet1!C5</f>
         <v>11</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="34">
         <f>Sheet1!D5</f>
         <v>4</v>
       </c>
-      <c r="E4" s="33" t="str">
+      <c r="E4" s="34" t="str">
         <f>Sheet1!E5</f>
         <v>N</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="34">
         <f>Sheet1!F5</f>
         <v>1</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="34">
         <f>Sheet1!G5</f>
         <v>4</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="34">
         <f>Sheet1!H5</f>
         <v>8</v>
       </c>
-      <c r="I4" s="33" t="str">
+      <c r="I4" s="34" t="str">
         <f>Sheet1!I5</f>
         <v>N</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="34">
         <f>Sheet1!J5</f>
         <v>12</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="34">
         <f>Sheet1!K5</f>
         <v>4</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="34">
         <f>Sheet1!L5</f>
         <v>4</v>
       </c>
-      <c r="M4" s="33" t="str">
+      <c r="M4" s="34" t="str">
         <f>Sheet1!M5</f>
         <v>N</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="34">
         <f>Sheet1!N5</f>
         <v>12</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="34">
         <f>Sheet1!O5</f>
         <v>5</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="34">
         <f>Sheet1!P5</f>
         <v>5</v>
       </c>
-      <c r="Q4" s="33" t="str">
+      <c r="Q4" s="34" t="str">
         <f>Sheet1!Q5</f>
         <v>N</v>
       </c>
-      <c r="R4" s="33">
+      <c r="R4" s="34">
         <f>Sheet1!R5</f>
         <v>10</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S4" s="34">
         <f>Sheet1!S5</f>
         <v>6</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T4" s="34">
         <f>Sheet1!T5</f>
         <v>6</v>
       </c>
-      <c r="U4" s="33" t="str">
+      <c r="U4" s="34" t="str">
         <f>Sheet1!U5</f>
         <v>Y</v>
       </c>
-      <c r="V4" s="33">
+      <c r="V4" s="34">
         <f>Sheet1!V5</f>
         <v>9</v>
       </c>
-      <c r="W4" s="33">
+      <c r="W4" s="34">
         <f>Sheet1!W5</f>
         <v>18</v>
       </c>
-      <c r="X4" s="33">
+      <c r="X4" s="34">
         <f>Sheet1!X5</f>
         <v>1</v>
       </c>
-      <c r="Y4" s="33" t="str">
+      <c r="Y4" s="34" t="str">
         <f>Sheet1!Y5</f>
         <v>N</v>
       </c>
-      <c r="Z4" s="33">
+      <c r="Z4" s="34">
         <f>Sheet1!Z5</f>
         <v>0.5</v>
       </c>
-      <c r="AA4" s="33">
+      <c r="AA4" s="34">
         <f>Sheet1!AA5</f>
         <v>1</v>
       </c>
-      <c r="AB4" s="33">
+      <c r="AB4" s="34">
         <f>Sheet1!AB5</f>
         <v>3</v>
       </c>
-      <c r="AC4" s="33" t="str">
+      <c r="AC4" s="34" t="str">
         <f>Sheet1!AC5</f>
         <v>N</v>
       </c>
-      <c r="AD4" s="33">
+      <c r="AD4" s="34">
         <f>Sheet1!AD5</f>
         <v>25</v>
       </c>
-      <c r="AE4" s="33">
+      <c r="AE4" s="34">
         <f>Sheet1!AE5</f>
         <v>2</v>
       </c>
-      <c r="AF4" s="33">
+      <c r="AF4" s="34">
         <f>Sheet1!AF5</f>
         <v>2</v>
       </c>
-      <c r="AG4" s="33" t="str">
+      <c r="AG4" s="34" t="str">
         <f>Sheet1!AG5</f>
         <v>N</v>
       </c>
-      <c r="AH4" s="33">
+      <c r="AH4" s="34">
         <f>Sheet1!AH5</f>
         <v>18</v>
       </c>
-      <c r="AI4" s="33" t="str">
+      <c r="AI4" s="34" t="str">
         <f>Sheet1!AI5</f>
         <v/>
       </c>
-      <c r="AJ4" s="33" t="str">
+      <c r="AJ4" s="34" t="str">
         <f>Sheet1!AJ5</f>
         <v/>
       </c>
-      <c r="AK4" s="33" t="str">
+      <c r="AK4" s="34" t="str">
         <f>Sheet1!AK5</f>
         <v/>
       </c>
-      <c r="AL4" s="33">
+      <c r="AL4" s="34">
         <f>Sheet1!AL5</f>
         <v>0</v>
       </c>
-      <c r="AM4" s="33" t="str">
+      <c r="AM4" s="34" t="str">
         <f>Sheet1!AM5</f>
         <v/>
       </c>
-      <c r="AN4" s="33" t="str">
+      <c r="AN4" s="34" t="str">
         <f>Sheet1!AN5</f>
         <v/>
       </c>
-      <c r="AO4" s="33" t="str">
+      <c r="AO4" s="34" t="str">
         <f>Sheet1!AO5</f>
         <v/>
       </c>
-      <c r="AP4" s="33">
+      <c r="AP4" s="34">
         <f>Sheet1!AP5</f>
         <v>0</v>
       </c>
-      <c r="AQ4" s="33" t="str">
+      <c r="AQ4" s="34" t="str">
         <f>Sheet1!AQ5</f>
         <v/>
       </c>
-      <c r="AR4" s="33" t="str">
+      <c r="AR4" s="34" t="str">
         <f>Sheet1!AR5</f>
         <v/>
       </c>
-      <c r="AS4" s="33" t="str">
+      <c r="AS4" s="34" t="str">
         <f>Sheet1!AS5</f>
         <v/>
       </c>
-      <c r="AT4" s="33">
+      <c r="AT4" s="34">
         <f>Sheet1!AT5</f>
         <v>0</v>
       </c>
-      <c r="AU4" s="33" t="str">
+      <c r="AU4" s="34" t="str">
         <f>Sheet1!AU5</f>
         <v/>
       </c>
-      <c r="AV4" s="33" t="str">
+      <c r="AV4" s="34" t="str">
         <f>Sheet1!AV5</f>
         <v/>
       </c>
-      <c r="AW4" s="33" t="str">
+      <c r="AW4" s="34" t="str">
         <f>Sheet1!AW5</f>
         <v/>
       </c>
-      <c r="AX4" s="33">
+      <c r="AX4" s="34">
         <f>Sheet1!AX5</f>
         <v>0</v>
       </c>
-      <c r="AY4" s="33" t="str">
+      <c r="AY4" s="34" t="str">
         <f>Sheet1!AY5</f>
         <v/>
       </c>
-      <c r="AZ4" s="33" t="str">
+      <c r="AZ4" s="34" t="str">
         <f>Sheet1!AZ5</f>
         <v/>
       </c>
-      <c r="BA4" s="33" t="str">
+      <c r="BA4" s="34" t="str">
         <f>Sheet1!BA5</f>
         <v/>
       </c>
-      <c r="BB4" s="33">
+      <c r="BB4" s="34">
         <f>Sheet1!BB5</f>
         <v>0</v>
       </c>
-      <c r="BC4" s="33" t="str">
+      <c r="BC4" s="34" t="str">
         <f>Sheet1!BC5</f>
         <v/>
       </c>
-      <c r="BD4" s="33" t="str">
+      <c r="BD4" s="34" t="str">
         <f>Sheet1!BD5</f>
         <v/>
       </c>
-      <c r="BE4" s="33" t="str">
+      <c r="BE4" s="34" t="str">
         <f>Sheet1!BE5</f>
         <v/>
       </c>
-      <c r="BF4" s="33">
+      <c r="BF4" s="34">
         <f>Sheet1!BF5</f>
         <v>0</v>
       </c>
-      <c r="BG4" s="33" t="str">
+      <c r="BG4" s="34" t="str">
         <f>Sheet1!BG5</f>
         <v/>
       </c>
-      <c r="BH4" s="33" t="str">
+      <c r="BH4" s="34" t="str">
         <f>Sheet1!BH5</f>
         <v/>
       </c>
-      <c r="BI4" s="33" t="str">
+      <c r="BI4" s="34" t="str">
         <f>Sheet1!BI5</f>
         <v/>
       </c>
-      <c r="BJ4" s="33">
+      <c r="BJ4" s="34">
         <f>Sheet1!BJ5</f>
         <v>0</v>
       </c>
@@ -4565,251 +4574,251 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="33" t="str">
+      <c r="A5" s="34" t="str">
         <f>Sheet1!A6</f>
         <v>VCARB</v>
       </c>
-      <c r="B5" s="33" t="str">
+      <c r="B5" s="34" t="str">
         <f>Sheet1!B6</f>
         <v>Brently</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="34">
         <f>Sheet1!C6</f>
         <v>5</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="34">
         <f>Sheet1!D6</f>
         <v>16</v>
       </c>
-      <c r="E5" s="33" t="str">
+      <c r="E5" s="34" t="str">
         <f>Sheet1!E6</f>
         <v>N</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="34">
         <f>Sheet1!F6</f>
         <v>10</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="34">
         <f>Sheet1!G6</f>
         <v>8</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="34">
         <f>Sheet1!H6</f>
         <v>6</v>
       </c>
-      <c r="I5" s="33" t="str">
+      <c r="I5" s="34" t="str">
         <f>Sheet1!I6</f>
         <v>N</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="34">
         <f>Sheet1!J6</f>
         <v>4</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="34">
         <f>Sheet1!K6</f>
         <v>5</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="34">
         <f>Sheet1!L6</f>
         <v>8</v>
       </c>
-      <c r="M5" s="33" t="str">
+      <c r="M5" s="34" t="str">
         <f>Sheet1!M6</f>
         <v>N</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="34">
         <f>Sheet1!N6</f>
         <v>10</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="34">
         <f>Sheet1!O6</f>
         <v>4</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="34">
         <f>Sheet1!P6</f>
         <v>9</v>
       </c>
-      <c r="Q5" s="33" t="str">
+      <c r="Q5" s="34" t="str">
         <f>Sheet1!Q6</f>
         <v>N</v>
       </c>
-      <c r="R5" s="33">
+      <c r="R5" s="34">
         <f>Sheet1!R6</f>
         <v>12</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="34">
         <f>Sheet1!S6</f>
         <v>4</v>
       </c>
-      <c r="T5" s="33">
+      <c r="T5" s="34">
         <f>Sheet1!T6</f>
         <v>7</v>
       </c>
-      <c r="U5" s="33" t="str">
+      <c r="U5" s="34" t="str">
         <f>Sheet1!U6</f>
         <v>N</v>
       </c>
-      <c r="V5" s="33">
+      <c r="V5" s="34">
         <f>Sheet1!V6</f>
         <v>12</v>
       </c>
-      <c r="W5" s="33">
+      <c r="W5" s="34">
         <f>Sheet1!W6</f>
         <v>3</v>
       </c>
-      <c r="X5" s="33">
+      <c r="X5" s="34">
         <f>Sheet1!X6</f>
         <v>3</v>
       </c>
-      <c r="Y5" s="33" t="str">
+      <c r="Y5" s="34" t="str">
         <f>Sheet1!Y6</f>
         <v>N</v>
       </c>
-      <c r="Z5" s="33">
+      <c r="Z5" s="34">
         <f>Sheet1!Z6</f>
         <v>6</v>
       </c>
-      <c r="AA5" s="33">
+      <c r="AA5" s="34">
         <f>Sheet1!AA6</f>
         <v>7</v>
       </c>
-      <c r="AB5" s="33">
+      <c r="AB5" s="34">
         <f>Sheet1!AB6</f>
         <v>18</v>
       </c>
-      <c r="AC5" s="33" t="str">
+      <c r="AC5" s="34" t="str">
         <f>Sheet1!AC6</f>
         <v>N</v>
       </c>
-      <c r="AD5" s="33">
+      <c r="AD5" s="34">
         <f>Sheet1!AD6</f>
         <v>6</v>
       </c>
-      <c r="AE5" s="33">
+      <c r="AE5" s="34">
         <f>Sheet1!AE6</f>
         <v>11</v>
       </c>
-      <c r="AF5" s="33">
+      <c r="AF5" s="34">
         <f>Sheet1!AF6</f>
         <v>3</v>
       </c>
-      <c r="AG5" s="33" t="str">
+      <c r="AG5" s="34" t="str">
         <f>Sheet1!AG6</f>
         <v>N</v>
       </c>
-      <c r="AH5" s="33">
+      <c r="AH5" s="34">
         <f>Sheet1!AH6</f>
         <v>1</v>
       </c>
-      <c r="AI5" s="33" t="str">
+      <c r="AI5" s="34" t="str">
         <f>Sheet1!AI6</f>
         <v/>
       </c>
-      <c r="AJ5" s="33" t="str">
+      <c r="AJ5" s="34" t="str">
         <f>Sheet1!AJ6</f>
         <v/>
       </c>
-      <c r="AK5" s="33" t="str">
+      <c r="AK5" s="34" t="str">
         <f>Sheet1!AK6</f>
         <v/>
       </c>
-      <c r="AL5" s="33">
+      <c r="AL5" s="34">
         <f>Sheet1!AL6</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="33" t="str">
+      <c r="AM5" s="34" t="str">
         <f>Sheet1!AM6</f>
         <v/>
       </c>
-      <c r="AN5" s="33" t="str">
+      <c r="AN5" s="34" t="str">
         <f>Sheet1!AN6</f>
         <v/>
       </c>
-      <c r="AO5" s="33" t="str">
+      <c r="AO5" s="34" t="str">
         <f>Sheet1!AO6</f>
         <v/>
       </c>
-      <c r="AP5" s="33">
+      <c r="AP5" s="34">
         <f>Sheet1!AP6</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="33" t="str">
+      <c r="AQ5" s="34" t="str">
         <f>Sheet1!AQ6</f>
         <v/>
       </c>
-      <c r="AR5" s="33" t="str">
+      <c r="AR5" s="34" t="str">
         <f>Sheet1!AR6</f>
         <v/>
       </c>
-      <c r="AS5" s="33" t="str">
+      <c r="AS5" s="34" t="str">
         <f>Sheet1!AS6</f>
         <v/>
       </c>
-      <c r="AT5" s="33">
+      <c r="AT5" s="34">
         <f>Sheet1!AT6</f>
         <v>0</v>
       </c>
-      <c r="AU5" s="33" t="str">
+      <c r="AU5" s="34" t="str">
         <f>Sheet1!AU6</f>
         <v/>
       </c>
-      <c r="AV5" s="33" t="str">
+      <c r="AV5" s="34" t="str">
         <f>Sheet1!AV6</f>
         <v/>
       </c>
-      <c r="AW5" s="33" t="str">
+      <c r="AW5" s="34" t="str">
         <f>Sheet1!AW6</f>
         <v/>
       </c>
-      <c r="AX5" s="33">
+      <c r="AX5" s="34">
         <f>Sheet1!AX6</f>
         <v>0</v>
       </c>
-      <c r="AY5" s="33" t="str">
+      <c r="AY5" s="34" t="str">
         <f>Sheet1!AY6</f>
         <v/>
       </c>
-      <c r="AZ5" s="33" t="str">
+      <c r="AZ5" s="34" t="str">
         <f>Sheet1!AZ6</f>
         <v/>
       </c>
-      <c r="BA5" s="33" t="str">
+      <c r="BA5" s="34" t="str">
         <f>Sheet1!BA6</f>
         <v/>
       </c>
-      <c r="BB5" s="33">
+      <c r="BB5" s="34">
         <f>Sheet1!BB6</f>
         <v>0</v>
       </c>
-      <c r="BC5" s="33" t="str">
+      <c r="BC5" s="34" t="str">
         <f>Sheet1!BC6</f>
         <v/>
       </c>
-      <c r="BD5" s="33" t="str">
+      <c r="BD5" s="34" t="str">
         <f>Sheet1!BD6</f>
         <v/>
       </c>
-      <c r="BE5" s="33" t="str">
+      <c r="BE5" s="34" t="str">
         <f>Sheet1!BE6</f>
         <v/>
       </c>
-      <c r="BF5" s="33">
+      <c r="BF5" s="34">
         <f>Sheet1!BF6</f>
         <v>0</v>
       </c>
-      <c r="BG5" s="33" t="str">
+      <c r="BG5" s="34" t="str">
         <f>Sheet1!BG6</f>
         <v/>
       </c>
-      <c r="BH5" s="33" t="str">
+      <c r="BH5" s="34" t="str">
         <f>Sheet1!BH6</f>
         <v/>
       </c>
-      <c r="BI5" s="33" t="str">
+      <c r="BI5" s="34" t="str">
         <f>Sheet1!BI6</f>
         <v/>
       </c>
-      <c r="BJ5" s="33">
+      <c r="BJ5" s="34">
         <f>Sheet1!BJ6</f>
         <v>0</v>
       </c>
@@ -4818,251 +4827,251 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="33" t="str">
+      <c r="A6" s="34" t="str">
         <f>Sheet1!A7</f>
         <v>Ferrari</v>
       </c>
-      <c r="B6" s="33" t="str">
+      <c r="B6" s="34" t="str">
         <f>Sheet1!B7</f>
         <v>Erick</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="34">
         <f>Sheet1!C7</f>
         <v>7</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="34">
         <f>Sheet1!D7</f>
         <v>7</v>
       </c>
-      <c r="E6" s="33" t="str">
+      <c r="E6" s="34" t="str">
         <f>Sheet1!E7</f>
         <v>N</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="34">
         <f>Sheet1!F7</f>
         <v>6</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="34">
         <f>Sheet1!G7</f>
         <v>3</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="34">
         <f>Sheet1!H7</f>
         <v>4</v>
       </c>
-      <c r="I6" s="33" t="str">
+      <c r="I6" s="34" t="str">
         <f>Sheet1!I7</f>
         <v>N</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="34">
         <f>Sheet1!J7</f>
         <v>15</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="34">
         <f>Sheet1!K7</f>
         <v>3</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="34">
         <f>Sheet1!L7</f>
         <v>5</v>
       </c>
-      <c r="M6" s="33" t="str">
+      <c r="M6" s="34" t="str">
         <f>Sheet1!M7</f>
         <v>N</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="34">
         <f>Sheet1!N7</f>
         <v>15</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="34">
         <f>Sheet1!O7</f>
         <v>6</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="34">
         <f>Sheet1!P7</f>
         <v>8</v>
       </c>
-      <c r="Q6" s="33" t="str">
+      <c r="Q6" s="34" t="str">
         <f>Sheet1!Q7</f>
         <v>N</v>
       </c>
-      <c r="R6" s="33">
+      <c r="R6" s="34">
         <f>Sheet1!R7</f>
         <v>8</v>
       </c>
-      <c r="S6" s="33">
+      <c r="S6" s="34">
         <f>Sheet1!S7</f>
         <v>3</v>
       </c>
-      <c r="T6" s="33">
+      <c r="T6" s="34">
         <f>Sheet1!T7</f>
         <v>2</v>
       </c>
-      <c r="U6" s="33" t="str">
+      <c r="U6" s="34" t="str">
         <f>Sheet1!U7</f>
         <v>N</v>
       </c>
-      <c r="V6" s="33">
+      <c r="V6" s="34">
         <f>Sheet1!V7</f>
         <v>15</v>
       </c>
-      <c r="W6" s="33">
+      <c r="W6" s="34">
         <f>Sheet1!W7</f>
         <v>2</v>
       </c>
-      <c r="X6" s="33">
+      <c r="X6" s="34">
         <f>Sheet1!X7</f>
         <v>4</v>
       </c>
-      <c r="Y6" s="33" t="str">
+      <c r="Y6" s="34" t="str">
         <f>Sheet1!Y7</f>
         <v>N</v>
       </c>
-      <c r="Z6" s="33">
+      <c r="Z6" s="34">
         <f>Sheet1!Z7</f>
         <v>7</v>
       </c>
-      <c r="AA6" s="33">
+      <c r="AA6" s="34">
         <f>Sheet1!AA7</f>
         <v>2</v>
       </c>
-      <c r="AB6" s="33">
+      <c r="AB6" s="34">
         <f>Sheet1!AB7</f>
         <v>19</v>
       </c>
-      <c r="AC6" s="33" t="str">
+      <c r="AC6" s="34" t="str">
         <f>Sheet1!AC7</f>
         <v>N</v>
       </c>
-      <c r="AD6" s="33">
+      <c r="AD6" s="34">
         <f>Sheet1!AD7</f>
         <v>18</v>
       </c>
-      <c r="AE6" s="33">
+      <c r="AE6" s="34">
         <f>Sheet1!AE7</f>
         <v>22</v>
       </c>
-      <c r="AF6" s="33">
+      <c r="AF6" s="34">
         <f>Sheet1!AF7</f>
         <v>22</v>
       </c>
-      <c r="AG6" s="33" t="str">
+      <c r="AG6" s="34" t="str">
         <f>Sheet1!AG7</f>
         <v>N</v>
       </c>
-      <c r="AH6" s="33">
+      <c r="AH6" s="34">
         <f>Sheet1!AH7</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="33" t="str">
+      <c r="AI6" s="34" t="str">
         <f>Sheet1!AI7</f>
         <v/>
       </c>
-      <c r="AJ6" s="33" t="str">
+      <c r="AJ6" s="34" t="str">
         <f>Sheet1!AJ7</f>
         <v/>
       </c>
-      <c r="AK6" s="33" t="str">
+      <c r="AK6" s="34" t="str">
         <f>Sheet1!AK7</f>
         <v/>
       </c>
-      <c r="AL6" s="33">
+      <c r="AL6" s="34">
         <f>Sheet1!AL7</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="33" t="str">
+      <c r="AM6" s="34" t="str">
         <f>Sheet1!AM7</f>
         <v/>
       </c>
-      <c r="AN6" s="33" t="str">
+      <c r="AN6" s="34" t="str">
         <f>Sheet1!AN7</f>
         <v/>
       </c>
-      <c r="AO6" s="33" t="str">
+      <c r="AO6" s="34" t="str">
         <f>Sheet1!AO7</f>
         <v/>
       </c>
-      <c r="AP6" s="33">
+      <c r="AP6" s="34">
         <f>Sheet1!AP7</f>
         <v>0</v>
       </c>
-      <c r="AQ6" s="33" t="str">
+      <c r="AQ6" s="34" t="str">
         <f>Sheet1!AQ7</f>
         <v/>
       </c>
-      <c r="AR6" s="33" t="str">
+      <c r="AR6" s="34" t="str">
         <f>Sheet1!AR7</f>
         <v/>
       </c>
-      <c r="AS6" s="33" t="str">
+      <c r="AS6" s="34" t="str">
         <f>Sheet1!AS7</f>
         <v/>
       </c>
-      <c r="AT6" s="33">
+      <c r="AT6" s="34">
         <f>Sheet1!AT7</f>
         <v>0</v>
       </c>
-      <c r="AU6" s="33" t="str">
+      <c r="AU6" s="34" t="str">
         <f>Sheet1!AU7</f>
         <v/>
       </c>
-      <c r="AV6" s="33" t="str">
+      <c r="AV6" s="34" t="str">
         <f>Sheet1!AV7</f>
         <v/>
       </c>
-      <c r="AW6" s="33" t="str">
+      <c r="AW6" s="34" t="str">
         <f>Sheet1!AW7</f>
         <v/>
       </c>
-      <c r="AX6" s="33">
+      <c r="AX6" s="34">
         <f>Sheet1!AX7</f>
         <v>0</v>
       </c>
-      <c r="AY6" s="33" t="str">
+      <c r="AY6" s="34" t="str">
         <f>Sheet1!AY7</f>
         <v/>
       </c>
-      <c r="AZ6" s="33" t="str">
+      <c r="AZ6" s="34" t="str">
         <f>Sheet1!AZ7</f>
         <v/>
       </c>
-      <c r="BA6" s="33" t="str">
+      <c r="BA6" s="34" t="str">
         <f>Sheet1!BA7</f>
         <v/>
       </c>
-      <c r="BB6" s="33">
+      <c r="BB6" s="34">
         <f>Sheet1!BB7</f>
         <v>0</v>
       </c>
-      <c r="BC6" s="33" t="str">
+      <c r="BC6" s="34" t="str">
         <f>Sheet1!BC7</f>
         <v/>
       </c>
-      <c r="BD6" s="33" t="str">
+      <c r="BD6" s="34" t="str">
         <f>Sheet1!BD7</f>
         <v/>
       </c>
-      <c r="BE6" s="33" t="str">
+      <c r="BE6" s="34" t="str">
         <f>Sheet1!BE7</f>
         <v/>
       </c>
-      <c r="BF6" s="33">
+      <c r="BF6" s="34">
         <f>Sheet1!BF7</f>
         <v>0</v>
       </c>
-      <c r="BG6" s="33" t="str">
+      <c r="BG6" s="34" t="str">
         <f>Sheet1!BG7</f>
         <v/>
       </c>
-      <c r="BH6" s="33" t="str">
+      <c r="BH6" s="34" t="str">
         <f>Sheet1!BH7</f>
         <v/>
       </c>
-      <c r="BI6" s="33" t="str">
+      <c r="BI6" s="34" t="str">
         <f>Sheet1!BI7</f>
         <v/>
       </c>
-      <c r="BJ6" s="33">
+      <c r="BJ6" s="34">
         <f>Sheet1!BJ7</f>
         <v>0</v>
       </c>
@@ -5071,251 +5080,251 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="33" t="str">
+      <c r="A7" s="34" t="str">
         <f>Sheet1!A8</f>
         <v>Ferrari</v>
       </c>
-      <c r="B7" s="33" t="str">
+      <c r="B7" s="34" t="str">
         <f>Sheet1!B8</f>
         <v>Zane</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="34">
         <f>Sheet1!C8</f>
         <v>4</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="34">
         <f>Sheet1!D8</f>
         <v>3</v>
       </c>
-      <c r="E7" s="33" t="str">
+      <c r="E7" s="34" t="str">
         <f>Sheet1!E8</f>
         <v>N</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="34">
         <f>Sheet1!F8</f>
         <v>12</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="34">
         <f>Sheet1!G8</f>
         <v>5</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="34">
         <f>Sheet1!H8</f>
         <v>3</v>
       </c>
-      <c r="I7" s="33" t="str">
+      <c r="I7" s="34" t="str">
         <f>Sheet1!I8</f>
         <v>N</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="34">
         <f>Sheet1!J8</f>
         <v>10</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="34">
         <f>Sheet1!K8</f>
         <v>15</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="34">
         <f>Sheet1!L8</f>
         <v>6</v>
       </c>
-      <c r="M7" s="33" t="str">
+      <c r="M7" s="34" t="str">
         <f>Sheet1!M8</f>
         <v>N</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="34">
         <f>Sheet1!N8</f>
         <v>1</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="34">
         <f>Sheet1!O8</f>
         <v>22</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="34">
         <f>Sheet1!P8</f>
         <v>22</v>
       </c>
-      <c r="Q7" s="33" t="str">
+      <c r="Q7" s="34" t="str">
         <f>Sheet1!Q8</f>
         <v>N</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="34">
         <f>Sheet1!R8</f>
         <v>0</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="34">
         <f>Sheet1!S8</f>
         <v>22</v>
       </c>
-      <c r="T7" s="33">
+      <c r="T7" s="34">
         <f>Sheet1!T8</f>
         <v>22</v>
       </c>
-      <c r="U7" s="33" t="str">
+      <c r="U7" s="34" t="str">
         <f>Sheet1!U8</f>
         <v>N</v>
       </c>
-      <c r="V7" s="33">
+      <c r="V7" s="34">
         <f>Sheet1!V8</f>
         <v>0</v>
       </c>
-      <c r="W7" s="33">
+      <c r="W7" s="34">
         <f>Sheet1!W8</f>
         <v>22</v>
       </c>
-      <c r="X7" s="33">
+      <c r="X7" s="34">
         <f>Sheet1!X8</f>
         <v>22</v>
       </c>
-      <c r="Y7" s="33" t="str">
+      <c r="Y7" s="34" t="str">
         <f>Sheet1!Y8</f>
         <v>N</v>
       </c>
-      <c r="Z7" s="33">
+      <c r="Z7" s="34">
         <f>Sheet1!Z8</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="33">
+      <c r="AA7" s="34">
         <f>Sheet1!AA8</f>
         <v>22</v>
       </c>
-      <c r="AB7" s="33">
+      <c r="AB7" s="34">
         <f>Sheet1!AB8</f>
         <v>22</v>
       </c>
-      <c r="AC7" s="33" t="str">
+      <c r="AC7" s="34" t="str">
         <f>Sheet1!AC8</f>
         <v>N</v>
       </c>
-      <c r="AD7" s="33">
+      <c r="AD7" s="34">
         <f>Sheet1!AD8</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="33">
+      <c r="AE7" s="34">
         <f>Sheet1!AE8</f>
         <v>22</v>
       </c>
-      <c r="AF7" s="33">
+      <c r="AF7" s="34">
         <f>Sheet1!AF8</f>
         <v>22</v>
       </c>
-      <c r="AG7" s="33" t="str">
+      <c r="AG7" s="34" t="str">
         <f>Sheet1!AG8</f>
         <v>N</v>
       </c>
-      <c r="AH7" s="33">
+      <c r="AH7" s="34">
         <f>Sheet1!AH8</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="33" t="str">
+      <c r="AI7" s="34" t="str">
         <f>Sheet1!AI8</f>
         <v/>
       </c>
-      <c r="AJ7" s="33" t="str">
+      <c r="AJ7" s="34" t="str">
         <f>Sheet1!AJ8</f>
         <v/>
       </c>
-      <c r="AK7" s="33" t="str">
+      <c r="AK7" s="34" t="str">
         <f>Sheet1!AK8</f>
         <v/>
       </c>
-      <c r="AL7" s="33">
+      <c r="AL7" s="34">
         <f>Sheet1!AL8</f>
         <v>0</v>
       </c>
-      <c r="AM7" s="33" t="str">
+      <c r="AM7" s="34" t="str">
         <f>Sheet1!AM8</f>
         <v/>
       </c>
-      <c r="AN7" s="33" t="str">
+      <c r="AN7" s="34" t="str">
         <f>Sheet1!AN8</f>
         <v/>
       </c>
-      <c r="AO7" s="33" t="str">
+      <c r="AO7" s="34" t="str">
         <f>Sheet1!AO8</f>
         <v/>
       </c>
-      <c r="AP7" s="33">
+      <c r="AP7" s="34">
         <f>Sheet1!AP8</f>
         <v>0</v>
       </c>
-      <c r="AQ7" s="33" t="str">
+      <c r="AQ7" s="34" t="str">
         <f>Sheet1!AQ8</f>
         <v/>
       </c>
-      <c r="AR7" s="33" t="str">
+      <c r="AR7" s="34" t="str">
         <f>Sheet1!AR8</f>
         <v/>
       </c>
-      <c r="AS7" s="33" t="str">
+      <c r="AS7" s="34" t="str">
         <f>Sheet1!AS8</f>
         <v/>
       </c>
-      <c r="AT7" s="33">
+      <c r="AT7" s="34">
         <f>Sheet1!AT8</f>
         <v>0</v>
       </c>
-      <c r="AU7" s="33" t="str">
+      <c r="AU7" s="34" t="str">
         <f>Sheet1!AU8</f>
         <v/>
       </c>
-      <c r="AV7" s="33" t="str">
+      <c r="AV7" s="34" t="str">
         <f>Sheet1!AV8</f>
         <v/>
       </c>
-      <c r="AW7" s="33" t="str">
+      <c r="AW7" s="34" t="str">
         <f>Sheet1!AW8</f>
         <v/>
       </c>
-      <c r="AX7" s="33">
+      <c r="AX7" s="34">
         <f>Sheet1!AX8</f>
         <v>0</v>
       </c>
-      <c r="AY7" s="33" t="str">
+      <c r="AY7" s="34" t="str">
         <f>Sheet1!AY8</f>
         <v/>
       </c>
-      <c r="AZ7" s="33" t="str">
+      <c r="AZ7" s="34" t="str">
         <f>Sheet1!AZ8</f>
         <v/>
       </c>
-      <c r="BA7" s="33" t="str">
+      <c r="BA7" s="34" t="str">
         <f>Sheet1!BA8</f>
         <v/>
       </c>
-      <c r="BB7" s="33">
+      <c r="BB7" s="34">
         <f>Sheet1!BB8</f>
         <v>0</v>
       </c>
-      <c r="BC7" s="33" t="str">
+      <c r="BC7" s="34" t="str">
         <f>Sheet1!BC8</f>
         <v/>
       </c>
-      <c r="BD7" s="33" t="str">
+      <c r="BD7" s="34" t="str">
         <f>Sheet1!BD8</f>
         <v/>
       </c>
-      <c r="BE7" s="33" t="str">
+      <c r="BE7" s="34" t="str">
         <f>Sheet1!BE8</f>
         <v/>
       </c>
-      <c r="BF7" s="33">
+      <c r="BF7" s="34">
         <f>Sheet1!BF8</f>
         <v>0</v>
       </c>
-      <c r="BG7" s="33" t="str">
+      <c r="BG7" s="34" t="str">
         <f>Sheet1!BG8</f>
         <v/>
       </c>
-      <c r="BH7" s="33" t="str">
+      <c r="BH7" s="34" t="str">
         <f>Sheet1!BH8</f>
         <v/>
       </c>
-      <c r="BI7" s="33" t="str">
+      <c r="BI7" s="34" t="str">
         <f>Sheet1!BI8</f>
         <v/>
       </c>
-      <c r="BJ7" s="33">
+      <c r="BJ7" s="34">
         <f>Sheet1!BJ8</f>
         <v>0</v>
       </c>
@@ -5324,251 +5333,251 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="33" t="str">
+      <c r="A8" s="34" t="str">
         <f>Sheet1!A9</f>
         <v>Alpine</v>
       </c>
-      <c r="B8" s="33" t="str">
+      <c r="B8" s="34" t="str">
         <f>Sheet1!B9</f>
         <v>Eddie</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="34">
         <f>Sheet1!C9</f>
         <v>8</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="34">
         <f>Sheet1!D9</f>
         <v>13</v>
       </c>
-      <c r="E8" s="33" t="str">
+      <c r="E8" s="34" t="str">
         <f>Sheet1!E9</f>
         <v>N</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="34">
         <f>Sheet1!F9</f>
         <v>4</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="34">
         <f>Sheet1!G9</f>
         <v>7</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="34">
         <f>Sheet1!H9</f>
         <v>9</v>
       </c>
-      <c r="I8" s="33" t="str">
+      <c r="I8" s="34" t="str">
         <f>Sheet1!I9</f>
         <v>N</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="34">
         <f>Sheet1!J9</f>
         <v>6</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="34">
         <f>Sheet1!K9</f>
         <v>13</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="34">
         <f>Sheet1!L9</f>
         <v>15</v>
       </c>
-      <c r="M8" s="33" t="str">
+      <c r="M8" s="34" t="str">
         <f>Sheet1!M9</f>
         <v>N</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="34">
         <f>Sheet1!N9</f>
         <v>1</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="34">
         <f>Sheet1!O9</f>
         <v>7</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="34">
         <f>Sheet1!P9</f>
         <v>6</v>
       </c>
-      <c r="Q8" s="33" t="str">
+      <c r="Q8" s="34" t="str">
         <f>Sheet1!Q9</f>
         <v>N</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="34">
         <f>Sheet1!R9</f>
         <v>6</v>
       </c>
-      <c r="S8" s="33">
+      <c r="S8" s="34">
         <f>Sheet1!S9</f>
         <v>19</v>
       </c>
-      <c r="T8" s="33">
+      <c r="T8" s="34">
         <f>Sheet1!T9</f>
         <v>5</v>
       </c>
-      <c r="U8" s="33" t="str">
+      <c r="U8" s="34" t="str">
         <f>Sheet1!U9</f>
         <v>N</v>
       </c>
-      <c r="V8" s="33">
+      <c r="V8" s="34">
         <f>Sheet1!V9</f>
         <v>1</v>
       </c>
-      <c r="W8" s="33">
+      <c r="W8" s="34">
         <f>Sheet1!W9</f>
         <v>4</v>
       </c>
-      <c r="X8" s="33">
+      <c r="X8" s="34">
         <f>Sheet1!X9</f>
         <v>14</v>
       </c>
-      <c r="Y8" s="33" t="str">
+      <c r="Y8" s="34" t="str">
         <f>Sheet1!Y9</f>
         <v>N</v>
       </c>
-      <c r="Z8" s="33">
+      <c r="Z8" s="34">
         <f>Sheet1!Z9</f>
         <v>5</v>
       </c>
-      <c r="AA8" s="33">
+      <c r="AA8" s="34">
         <f>Sheet1!AA9</f>
-        <v>4</v>
-      </c>
-      <c r="AB8" s="33">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="34">
         <f>Sheet1!AB9</f>
         <v>17</v>
       </c>
-      <c r="AC8" s="33" t="str">
+      <c r="AC8" s="34" t="str">
         <f>Sheet1!AC9</f>
         <v>N</v>
       </c>
-      <c r="AD8" s="33">
+      <c r="AD8" s="34">
         <f>Sheet1!AD9</f>
-        <v>12</v>
-      </c>
-      <c r="AE8" s="33">
+        <v>10</v>
+      </c>
+      <c r="AE8" s="34">
         <f>Sheet1!AE9</f>
         <v>18</v>
       </c>
-      <c r="AF8" s="33">
+      <c r="AF8" s="34">
         <f>Sheet1!AF9</f>
         <v>4</v>
       </c>
-      <c r="AG8" s="33" t="str">
+      <c r="AG8" s="34" t="str">
         <f>Sheet1!AG9</f>
         <v>N</v>
       </c>
-      <c r="AH8" s="33">
+      <c r="AH8" s="34">
         <f>Sheet1!AH9</f>
         <v>1</v>
       </c>
-      <c r="AI8" s="33" t="str">
+      <c r="AI8" s="34" t="str">
         <f>Sheet1!AI9</f>
         <v/>
       </c>
-      <c r="AJ8" s="33" t="str">
+      <c r="AJ8" s="34" t="str">
         <f>Sheet1!AJ9</f>
         <v/>
       </c>
-      <c r="AK8" s="33" t="str">
+      <c r="AK8" s="34" t="str">
         <f>Sheet1!AK9</f>
         <v/>
       </c>
-      <c r="AL8" s="33">
+      <c r="AL8" s="34">
         <f>Sheet1!AL9</f>
         <v>0</v>
       </c>
-      <c r="AM8" s="33" t="str">
+      <c r="AM8" s="34" t="str">
         <f>Sheet1!AM9</f>
         <v/>
       </c>
-      <c r="AN8" s="33" t="str">
+      <c r="AN8" s="34" t="str">
         <f>Sheet1!AN9</f>
         <v/>
       </c>
-      <c r="AO8" s="33" t="str">
+      <c r="AO8" s="34" t="str">
         <f>Sheet1!AO9</f>
         <v/>
       </c>
-      <c r="AP8" s="33">
+      <c r="AP8" s="34">
         <f>Sheet1!AP9</f>
         <v>0</v>
       </c>
-      <c r="AQ8" s="33" t="str">
+      <c r="AQ8" s="34" t="str">
         <f>Sheet1!AQ9</f>
         <v/>
       </c>
-      <c r="AR8" s="33" t="str">
+      <c r="AR8" s="34" t="str">
         <f>Sheet1!AR9</f>
         <v/>
       </c>
-      <c r="AS8" s="33" t="str">
+      <c r="AS8" s="34" t="str">
         <f>Sheet1!AS9</f>
         <v/>
       </c>
-      <c r="AT8" s="33">
+      <c r="AT8" s="34">
         <f>Sheet1!AT9</f>
         <v>0</v>
       </c>
-      <c r="AU8" s="33" t="str">
+      <c r="AU8" s="34" t="str">
         <f>Sheet1!AU9</f>
         <v/>
       </c>
-      <c r="AV8" s="33" t="str">
+      <c r="AV8" s="34" t="str">
         <f>Sheet1!AV9</f>
         <v/>
       </c>
-      <c r="AW8" s="33" t="str">
+      <c r="AW8" s="34" t="str">
         <f>Sheet1!AW9</f>
         <v/>
       </c>
-      <c r="AX8" s="33">
+      <c r="AX8" s="34">
         <f>Sheet1!AX9</f>
         <v>0</v>
       </c>
-      <c r="AY8" s="33" t="str">
+      <c r="AY8" s="34" t="str">
         <f>Sheet1!AY9</f>
         <v/>
       </c>
-      <c r="AZ8" s="33" t="str">
+      <c r="AZ8" s="34" t="str">
         <f>Sheet1!AZ9</f>
         <v/>
       </c>
-      <c r="BA8" s="33" t="str">
+      <c r="BA8" s="34" t="str">
         <f>Sheet1!BA9</f>
         <v/>
       </c>
-      <c r="BB8" s="33">
+      <c r="BB8" s="34">
         <f>Sheet1!BB9</f>
         <v>0</v>
       </c>
-      <c r="BC8" s="33" t="str">
+      <c r="BC8" s="34" t="str">
         <f>Sheet1!BC9</f>
         <v/>
       </c>
-      <c r="BD8" s="33" t="str">
+      <c r="BD8" s="34" t="str">
         <f>Sheet1!BD9</f>
         <v/>
       </c>
-      <c r="BE8" s="33" t="str">
+      <c r="BE8" s="34" t="str">
         <f>Sheet1!BE9</f>
         <v/>
       </c>
-      <c r="BF8" s="33">
+      <c r="BF8" s="34">
         <f>Sheet1!BF9</f>
         <v>0</v>
       </c>
-      <c r="BG8" s="33" t="str">
+      <c r="BG8" s="34" t="str">
         <f>Sheet1!BG9</f>
         <v/>
       </c>
-      <c r="BH8" s="33" t="str">
+      <c r="BH8" s="34" t="str">
         <f>Sheet1!BH9</f>
         <v/>
       </c>
-      <c r="BI8" s="33" t="str">
+      <c r="BI8" s="34" t="str">
         <f>Sheet1!BI9</f>
         <v/>
       </c>
-      <c r="BJ8" s="33">
+      <c r="BJ8" s="34">
         <f>Sheet1!BJ9</f>
         <v>0</v>
       </c>
@@ -5577,251 +5586,251 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="33" t="str">
+      <c r="A9" s="34" t="str">
         <f>Sheet1!A10</f>
         <v>Alpine</v>
       </c>
-      <c r="B9" s="33" t="str">
+      <c r="B9" s="34" t="str">
         <f>Sheet1!B10</f>
         <v>Joshua</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="34">
         <f>Sheet1!C10</f>
         <v>1</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="34">
         <f>Sheet1!D10</f>
         <v>1</v>
       </c>
-      <c r="E9" s="33" t="str">
+      <c r="E9" s="34" t="str">
         <f>Sheet1!E10</f>
         <v>Y</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="34">
         <f>Sheet1!F10</f>
         <v>26</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="34">
         <f>Sheet1!G10</f>
         <v>1</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="34">
         <f>Sheet1!H10</f>
         <v>2</v>
       </c>
-      <c r="I9" s="33" t="str">
+      <c r="I9" s="34" t="str">
         <f>Sheet1!I10</f>
         <v>Y</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="34">
         <f>Sheet1!J10</f>
         <v>26</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="34">
         <f>Sheet1!K10</f>
         <v>2</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="34">
         <f>Sheet1!L10</f>
         <v>1</v>
       </c>
-      <c r="M9" s="33" t="str">
+      <c r="M9" s="34" t="str">
         <f>Sheet1!M10</f>
         <v>Y</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="34">
         <f>Sheet1!N10</f>
         <v>19</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="34">
         <f>Sheet1!O10</f>
         <v>2</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="34">
         <f>Sheet1!P10</f>
         <v>3</v>
       </c>
-      <c r="Q9" s="33" t="str">
+      <c r="Q9" s="34" t="str">
         <f>Sheet1!Q10</f>
         <v>Y</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="34">
         <f>Sheet1!R10</f>
         <v>19</v>
       </c>
-      <c r="S9" s="33">
+      <c r="S9" s="34">
         <f>Sheet1!S10</f>
         <v>1</v>
       </c>
-      <c r="T9" s="33">
+      <c r="T9" s="34">
         <f>Sheet1!T10</f>
         <v>3</v>
       </c>
-      <c r="U9" s="33" t="str">
+      <c r="U9" s="34" t="str">
         <f>Sheet1!U10</f>
         <v>N</v>
       </c>
-      <c r="V9" s="33">
+      <c r="V9" s="34">
         <f>Sheet1!V10</f>
         <v>25</v>
       </c>
-      <c r="W9" s="33">
+      <c r="W9" s="34">
         <f>Sheet1!W10</f>
         <v>21</v>
       </c>
-      <c r="X9" s="33">
+      <c r="X9" s="34">
         <f>Sheet1!X10</f>
         <v>6</v>
       </c>
-      <c r="Y9" s="33" t="str">
+      <c r="Y9" s="34" t="str">
         <f>Sheet1!Y10</f>
         <v>N</v>
       </c>
-      <c r="Z9" s="33">
+      <c r="Z9" s="34">
         <f>Sheet1!Z10</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="33">
+      <c r="AA9" s="34">
         <f>Sheet1!AA10</f>
-        <v>6</v>
-      </c>
-      <c r="AB9" s="33">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="34">
         <f>Sheet1!AB10</f>
         <v>2</v>
       </c>
-      <c r="AC9" s="33" t="str">
+      <c r="AC9" s="34" t="str">
         <f>Sheet1!AC10</f>
         <v>Y</v>
       </c>
-      <c r="AD9" s="33">
+      <c r="AD9" s="34">
         <f>Sheet1!AD10</f>
-        <v>9</v>
-      </c>
-      <c r="AE9" s="33">
+        <v>13</v>
+      </c>
+      <c r="AE9" s="34">
         <f>Sheet1!AE10</f>
         <v>22</v>
       </c>
-      <c r="AF9" s="33">
+      <c r="AF9" s="34">
         <f>Sheet1!AF10</f>
         <v>22</v>
       </c>
-      <c r="AG9" s="33" t="str">
+      <c r="AG9" s="34" t="str">
         <f>Sheet1!AG10</f>
         <v>N</v>
       </c>
-      <c r="AH9" s="33">
+      <c r="AH9" s="34">
         <f>Sheet1!AH10</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="33" t="str">
+      <c r="AI9" s="34" t="str">
         <f>Sheet1!AI10</f>
         <v/>
       </c>
-      <c r="AJ9" s="33" t="str">
+      <c r="AJ9" s="34" t="str">
         <f>Sheet1!AJ10</f>
         <v/>
       </c>
-      <c r="AK9" s="33" t="str">
+      <c r="AK9" s="34" t="str">
         <f>Sheet1!AK10</f>
         <v/>
       </c>
-      <c r="AL9" s="33">
+      <c r="AL9" s="34">
         <f>Sheet1!AL10</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="33" t="str">
+      <c r="AM9" s="34" t="str">
         <f>Sheet1!AM10</f>
         <v/>
       </c>
-      <c r="AN9" s="33" t="str">
+      <c r="AN9" s="34" t="str">
         <f>Sheet1!AN10</f>
         <v/>
       </c>
-      <c r="AO9" s="33" t="str">
+      <c r="AO9" s="34" t="str">
         <f>Sheet1!AO10</f>
         <v/>
       </c>
-      <c r="AP9" s="33">
+      <c r="AP9" s="34">
         <f>Sheet1!AP10</f>
         <v>0</v>
       </c>
-      <c r="AQ9" s="33" t="str">
+      <c r="AQ9" s="34" t="str">
         <f>Sheet1!AQ10</f>
         <v/>
       </c>
-      <c r="AR9" s="33" t="str">
+      <c r="AR9" s="34" t="str">
         <f>Sheet1!AR10</f>
         <v/>
       </c>
-      <c r="AS9" s="33" t="str">
+      <c r="AS9" s="34" t="str">
         <f>Sheet1!AS10</f>
         <v/>
       </c>
-      <c r="AT9" s="33">
+      <c r="AT9" s="34">
         <f>Sheet1!AT10</f>
         <v>0</v>
       </c>
-      <c r="AU9" s="33" t="str">
+      <c r="AU9" s="34" t="str">
         <f>Sheet1!AU10</f>
         <v/>
       </c>
-      <c r="AV9" s="33" t="str">
+      <c r="AV9" s="34" t="str">
         <f>Sheet1!AV10</f>
         <v/>
       </c>
-      <c r="AW9" s="33" t="str">
+      <c r="AW9" s="34" t="str">
         <f>Sheet1!AW10</f>
         <v/>
       </c>
-      <c r="AX9" s="33">
+      <c r="AX9" s="34">
         <f>Sheet1!AX10</f>
         <v>0</v>
       </c>
-      <c r="AY9" s="33" t="str">
+      <c r="AY9" s="34" t="str">
         <f>Sheet1!AY10</f>
         <v/>
       </c>
-      <c r="AZ9" s="33" t="str">
+      <c r="AZ9" s="34" t="str">
         <f>Sheet1!AZ10</f>
         <v/>
       </c>
-      <c r="BA9" s="33" t="str">
+      <c r="BA9" s="34" t="str">
         <f>Sheet1!BA10</f>
         <v/>
       </c>
-      <c r="BB9" s="33">
+      <c r="BB9" s="34">
         <f>Sheet1!BB10</f>
         <v>0</v>
       </c>
-      <c r="BC9" s="33" t="str">
+      <c r="BC9" s="34" t="str">
         <f>Sheet1!BC10</f>
         <v/>
       </c>
-      <c r="BD9" s="33" t="str">
+      <c r="BD9" s="34" t="str">
         <f>Sheet1!BD10</f>
         <v/>
       </c>
-      <c r="BE9" s="33" t="str">
+      <c r="BE9" s="34" t="str">
         <f>Sheet1!BE10</f>
         <v/>
       </c>
-      <c r="BF9" s="33">
+      <c r="BF9" s="34">
         <f>Sheet1!BF10</f>
         <v>0</v>
       </c>
-      <c r="BG9" s="33" t="str">
+      <c r="BG9" s="34" t="str">
         <f>Sheet1!BG10</f>
         <v/>
       </c>
-      <c r="BH9" s="33" t="str">
+      <c r="BH9" s="34" t="str">
         <f>Sheet1!BH10</f>
         <v/>
       </c>
-      <c r="BI9" s="33" t="str">
+      <c r="BI9" s="34" t="str">
         <f>Sheet1!BI10</f>
         <v/>
       </c>
-      <c r="BJ9" s="33">
+      <c r="BJ9" s="34">
         <f>Sheet1!BJ10</f>
         <v>0</v>
       </c>
@@ -5830,251 +5839,251 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="33" t="str">
+      <c r="A10" s="34" t="str">
         <f>Sheet1!A11</f>
         <v>Red Bull</v>
       </c>
-      <c r="B10" s="33" t="str">
+      <c r="B10" s="34" t="str">
         <f>Sheet1!B11</f>
         <v>Yeti</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="34">
         <f>Sheet1!C11</f>
         <v>14</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="34">
         <f>Sheet1!D11</f>
         <v>19</v>
       </c>
-      <c r="E10" s="33" t="str">
+      <c r="E10" s="34" t="str">
         <f>Sheet1!E11</f>
         <v>N</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="34">
         <f>Sheet1!F11</f>
         <v>1</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="34">
         <f>Sheet1!G11</f>
         <v>6</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="34">
         <f>Sheet1!H11</f>
         <v>5</v>
       </c>
-      <c r="I10" s="33" t="str">
+      <c r="I10" s="34" t="str">
         <f>Sheet1!I11</f>
         <v>N</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="34">
         <f>Sheet1!J11</f>
         <v>8</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="34">
         <f>Sheet1!K11</f>
         <v>21</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="34">
         <f>Sheet1!L11</f>
         <v>20</v>
       </c>
-      <c r="M10" s="33" t="str">
+      <c r="M10" s="34" t="str">
         <f>Sheet1!M11</f>
         <v>N</v>
       </c>
-      <c r="N10" s="33">
+      <c r="N10" s="34">
         <f>Sheet1!N11</f>
         <v>0</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="34">
         <f>Sheet1!O11</f>
         <v>18</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="34">
         <f>Sheet1!P11</f>
         <v>10</v>
       </c>
-      <c r="Q10" s="33" t="str">
+      <c r="Q10" s="34" t="str">
         <f>Sheet1!Q11</f>
         <v>N</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="34">
         <f>Sheet1!R11</f>
         <v>1</v>
       </c>
-      <c r="S10" s="33">
+      <c r="S10" s="34">
         <f>Sheet1!S11</f>
         <v>5</v>
       </c>
-      <c r="T10" s="33">
+      <c r="T10" s="34">
         <f>Sheet1!T11</f>
         <v>14</v>
       </c>
-      <c r="U10" s="33" t="str">
+      <c r="U10" s="34" t="str">
         <f>Sheet1!U11</f>
         <v>N</v>
       </c>
-      <c r="V10" s="33">
+      <c r="V10" s="34">
         <f>Sheet1!V11</f>
         <v>10</v>
       </c>
-      <c r="W10" s="33">
+      <c r="W10" s="34">
         <f>Sheet1!W11</f>
         <v>22</v>
       </c>
-      <c r="X10" s="33">
+      <c r="X10" s="34">
         <f>Sheet1!X11</f>
         <v>22</v>
       </c>
-      <c r="Y10" s="33" t="str">
+      <c r="Y10" s="34" t="str">
         <f>Sheet1!Y11</f>
         <v>N</v>
       </c>
-      <c r="Z10" s="33">
+      <c r="Z10" s="34">
         <f>Sheet1!Z11</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="33">
+      <c r="AA10" s="34">
         <f>Sheet1!AA11</f>
         <v>22</v>
       </c>
-      <c r="AB10" s="33">
+      <c r="AB10" s="34">
         <f>Sheet1!AB11</f>
         <v>22</v>
       </c>
-      <c r="AC10" s="33" t="str">
+      <c r="AC10" s="34" t="str">
         <f>Sheet1!AC11</f>
         <v>N</v>
       </c>
-      <c r="AD10" s="33">
+      <c r="AD10" s="34">
         <f>Sheet1!AD11</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="33">
+      <c r="AE10" s="34">
         <f>Sheet1!AE11</f>
         <v>22</v>
       </c>
-      <c r="AF10" s="33">
+      <c r="AF10" s="34">
         <f>Sheet1!AF11</f>
         <v>22</v>
       </c>
-      <c r="AG10" s="33" t="str">
+      <c r="AG10" s="34" t="str">
         <f>Sheet1!AG11</f>
         <v>N</v>
       </c>
-      <c r="AH10" s="33">
+      <c r="AH10" s="34">
         <f>Sheet1!AH11</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="33" t="str">
+      <c r="AI10" s="34" t="str">
         <f>Sheet1!AI11</f>
         <v/>
       </c>
-      <c r="AJ10" s="33" t="str">
+      <c r="AJ10" s="34" t="str">
         <f>Sheet1!AJ11</f>
         <v/>
       </c>
-      <c r="AK10" s="33" t="str">
+      <c r="AK10" s="34" t="str">
         <f>Sheet1!AK11</f>
         <v/>
       </c>
-      <c r="AL10" s="33">
+      <c r="AL10" s="34">
         <f>Sheet1!AL11</f>
         <v>0</v>
       </c>
-      <c r="AM10" s="33" t="str">
+      <c r="AM10" s="34" t="str">
         <f>Sheet1!AM11</f>
         <v/>
       </c>
-      <c r="AN10" s="33" t="str">
+      <c r="AN10" s="34" t="str">
         <f>Sheet1!AN11</f>
         <v/>
       </c>
-      <c r="AO10" s="33" t="str">
+      <c r="AO10" s="34" t="str">
         <f>Sheet1!AO11</f>
         <v/>
       </c>
-      <c r="AP10" s="33">
+      <c r="AP10" s="34">
         <f>Sheet1!AP11</f>
         <v>0</v>
       </c>
-      <c r="AQ10" s="33" t="str">
+      <c r="AQ10" s="34" t="str">
         <f>Sheet1!AQ11</f>
         <v/>
       </c>
-      <c r="AR10" s="33" t="str">
+      <c r="AR10" s="34" t="str">
         <f>Sheet1!AR11</f>
         <v/>
       </c>
-      <c r="AS10" s="33" t="str">
+      <c r="AS10" s="34" t="str">
         <f>Sheet1!AS11</f>
         <v/>
       </c>
-      <c r="AT10" s="33">
+      <c r="AT10" s="34">
         <f>Sheet1!AT11</f>
         <v>0</v>
       </c>
-      <c r="AU10" s="33" t="str">
+      <c r="AU10" s="34" t="str">
         <f>Sheet1!AU11</f>
         <v/>
       </c>
-      <c r="AV10" s="33" t="str">
+      <c r="AV10" s="34" t="str">
         <f>Sheet1!AV11</f>
         <v/>
       </c>
-      <c r="AW10" s="33" t="str">
+      <c r="AW10" s="34" t="str">
         <f>Sheet1!AW11</f>
         <v/>
       </c>
-      <c r="AX10" s="33">
+      <c r="AX10" s="34">
         <f>Sheet1!AX11</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="33" t="str">
+      <c r="AY10" s="34" t="str">
         <f>Sheet1!AY11</f>
         <v/>
       </c>
-      <c r="AZ10" s="33" t="str">
+      <c r="AZ10" s="34" t="str">
         <f>Sheet1!AZ11</f>
         <v/>
       </c>
-      <c r="BA10" s="33" t="str">
+      <c r="BA10" s="34" t="str">
         <f>Sheet1!BA11</f>
         <v/>
       </c>
-      <c r="BB10" s="33">
+      <c r="BB10" s="34">
         <f>Sheet1!BB11</f>
         <v>0</v>
       </c>
-      <c r="BC10" s="33" t="str">
+      <c r="BC10" s="34" t="str">
         <f>Sheet1!BC11</f>
         <v/>
       </c>
-      <c r="BD10" s="33" t="str">
+      <c r="BD10" s="34" t="str">
         <f>Sheet1!BD11</f>
         <v/>
       </c>
-      <c r="BE10" s="33" t="str">
+      <c r="BE10" s="34" t="str">
         <f>Sheet1!BE11</f>
         <v/>
       </c>
-      <c r="BF10" s="33">
+      <c r="BF10" s="34">
         <f>Sheet1!BF11</f>
         <v>0</v>
       </c>
-      <c r="BG10" s="33" t="str">
+      <c r="BG10" s="34" t="str">
         <f>Sheet1!BG11</f>
         <v/>
       </c>
-      <c r="BH10" s="33" t="str">
+      <c r="BH10" s="34" t="str">
         <f>Sheet1!BH11</f>
         <v/>
       </c>
-      <c r="BI10" s="33" t="str">
+      <c r="BI10" s="34" t="str">
         <f>Sheet1!BI11</f>
         <v/>
       </c>
-      <c r="BJ10" s="33">
+      <c r="BJ10" s="34">
         <f>Sheet1!BJ11</f>
         <v>0</v>
       </c>
@@ -6083,251 +6092,251 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="33" t="str">
+      <c r="A11" s="34" t="str">
         <f>Sheet1!A12</f>
         <v>Red Bull</v>
       </c>
-      <c r="B11" s="33" t="str">
+      <c r="B11" s="34" t="str">
         <f>Sheet1!B12</f>
         <v>Boz</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="34">
         <f>Sheet1!C12</f>
         <v>17</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="34">
         <f>Sheet1!D12</f>
         <v>8</v>
       </c>
-      <c r="E11" s="33" t="str">
+      <c r="E11" s="34" t="str">
         <f>Sheet1!E12</f>
         <v>N</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="34">
         <f>Sheet1!F12</f>
         <v>1</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="34">
         <f>Sheet1!G12</f>
         <v>11</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="34">
         <f>Sheet1!H12</f>
         <v>7</v>
       </c>
-      <c r="I11" s="33" t="str">
+      <c r="I11" s="34" t="str">
         <f>Sheet1!I12</f>
         <v>N</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="34">
         <f>Sheet1!J12</f>
         <v>1</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="34">
         <f>Sheet1!K12</f>
         <v>21</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="34">
         <f>Sheet1!L12</f>
         <v>19</v>
       </c>
-      <c r="M11" s="33" t="str">
+      <c r="M11" s="34" t="str">
         <f>Sheet1!M12</f>
         <v>N</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="34">
         <f>Sheet1!N12</f>
         <v>0</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="34">
         <f>Sheet1!O12</f>
         <v>15</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="34">
         <f>Sheet1!P12</f>
         <v>11</v>
       </c>
-      <c r="Q11" s="33" t="str">
+      <c r="Q11" s="34" t="str">
         <f>Sheet1!Q12</f>
         <v>N</v>
       </c>
-      <c r="R11" s="33">
+      <c r="R11" s="34">
         <f>Sheet1!R12</f>
         <v>1</v>
       </c>
-      <c r="S11" s="33">
+      <c r="S11" s="34">
         <f>Sheet1!S12</f>
         <v>22</v>
       </c>
-      <c r="T11" s="33">
+      <c r="T11" s="34">
         <f>Sheet1!T12</f>
         <v>22</v>
       </c>
-      <c r="U11" s="33" t="str">
+      <c r="U11" s="34" t="str">
         <f>Sheet1!U12</f>
         <v>N</v>
       </c>
-      <c r="V11" s="33">
+      <c r="V11" s="34">
         <f>Sheet1!V12</f>
         <v>0</v>
       </c>
-      <c r="W11" s="33">
+      <c r="W11" s="34">
         <f>Sheet1!W12</f>
         <v>5</v>
       </c>
-      <c r="X11" s="33">
+      <c r="X11" s="34">
         <f>Sheet1!X12</f>
         <v>15</v>
       </c>
-      <c r="Y11" s="33" t="str">
+      <c r="Y11" s="34" t="str">
         <f>Sheet1!Y12</f>
         <v>N</v>
       </c>
-      <c r="Z11" s="33">
+      <c r="Z11" s="34">
         <f>Sheet1!Z12</f>
         <v>4</v>
       </c>
-      <c r="AA11" s="33">
+      <c r="AA11" s="34">
         <f>Sheet1!AA12</f>
-        <v>5</v>
-      </c>
-      <c r="AB11" s="33">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="34">
         <f>Sheet1!AB12</f>
         <v>16</v>
       </c>
-      <c r="AC11" s="33" t="str">
+      <c r="AC11" s="34" t="str">
         <f>Sheet1!AC12</f>
         <v>N</v>
       </c>
-      <c r="AD11" s="33">
+      <c r="AD11" s="34">
         <f>Sheet1!AD12</f>
-        <v>10</v>
-      </c>
-      <c r="AE11" s="33">
+        <v>8</v>
+      </c>
+      <c r="AE11" s="34">
         <f>Sheet1!AE12</f>
         <v>16</v>
       </c>
-      <c r="AF11" s="33">
+      <c r="AF11" s="34">
         <f>Sheet1!AF12</f>
         <v>5</v>
       </c>
-      <c r="AG11" s="33" t="str">
+      <c r="AG11" s="34" t="str">
         <f>Sheet1!AG12</f>
         <v>N</v>
       </c>
-      <c r="AH11" s="33">
+      <c r="AH11" s="34">
         <f>Sheet1!AH12</f>
         <v>1</v>
       </c>
-      <c r="AI11" s="33" t="str">
+      <c r="AI11" s="34" t="str">
         <f>Sheet1!AI12</f>
         <v/>
       </c>
-      <c r="AJ11" s="33" t="str">
+      <c r="AJ11" s="34" t="str">
         <f>Sheet1!AJ12</f>
         <v/>
       </c>
-      <c r="AK11" s="33" t="str">
+      <c r="AK11" s="34" t="str">
         <f>Sheet1!AK12</f>
         <v/>
       </c>
-      <c r="AL11" s="33">
+      <c r="AL11" s="34">
         <f>Sheet1!AL12</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="33" t="str">
+      <c r="AM11" s="34" t="str">
         <f>Sheet1!AM12</f>
         <v/>
       </c>
-      <c r="AN11" s="33" t="str">
+      <c r="AN11" s="34" t="str">
         <f>Sheet1!AN12</f>
         <v/>
       </c>
-      <c r="AO11" s="33" t="str">
+      <c r="AO11" s="34" t="str">
         <f>Sheet1!AO12</f>
         <v/>
       </c>
-      <c r="AP11" s="33">
+      <c r="AP11" s="34">
         <f>Sheet1!AP12</f>
         <v>0</v>
       </c>
-      <c r="AQ11" s="33" t="str">
+      <c r="AQ11" s="34" t="str">
         <f>Sheet1!AQ12</f>
         <v/>
       </c>
-      <c r="AR11" s="33" t="str">
+      <c r="AR11" s="34" t="str">
         <f>Sheet1!AR12</f>
         <v/>
       </c>
-      <c r="AS11" s="33" t="str">
+      <c r="AS11" s="34" t="str">
         <f>Sheet1!AS12</f>
         <v/>
       </c>
-      <c r="AT11" s="33">
+      <c r="AT11" s="34">
         <f>Sheet1!AT12</f>
         <v>0</v>
       </c>
-      <c r="AU11" s="33" t="str">
+      <c r="AU11" s="34" t="str">
         <f>Sheet1!AU12</f>
         <v/>
       </c>
-      <c r="AV11" s="33" t="str">
+      <c r="AV11" s="34" t="str">
         <f>Sheet1!AV12</f>
         <v/>
       </c>
-      <c r="AW11" s="33" t="str">
+      <c r="AW11" s="34" t="str">
         <f>Sheet1!AW12</f>
         <v/>
       </c>
-      <c r="AX11" s="33">
+      <c r="AX11" s="34">
         <f>Sheet1!AX12</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="33" t="str">
+      <c r="AY11" s="34" t="str">
         <f>Sheet1!AY12</f>
         <v/>
       </c>
-      <c r="AZ11" s="33" t="str">
+      <c r="AZ11" s="34" t="str">
         <f>Sheet1!AZ12</f>
         <v/>
       </c>
-      <c r="BA11" s="33" t="str">
+      <c r="BA11" s="34" t="str">
         <f>Sheet1!BA12</f>
         <v/>
       </c>
-      <c r="BB11" s="33">
+      <c r="BB11" s="34">
         <f>Sheet1!BB12</f>
         <v>0</v>
       </c>
-      <c r="BC11" s="33" t="str">
+      <c r="BC11" s="34" t="str">
         <f>Sheet1!BC12</f>
         <v/>
       </c>
-      <c r="BD11" s="33" t="str">
+      <c r="BD11" s="34" t="str">
         <f>Sheet1!BD12</f>
         <v/>
       </c>
-      <c r="BE11" s="33" t="str">
+      <c r="BE11" s="34" t="str">
         <f>Sheet1!BE12</f>
         <v/>
       </c>
-      <c r="BF11" s="33">
+      <c r="BF11" s="34">
         <f>Sheet1!BF12</f>
         <v>0</v>
       </c>
-      <c r="BG11" s="33" t="str">
+      <c r="BG11" s="34" t="str">
         <f>Sheet1!BG12</f>
         <v/>
       </c>
-      <c r="BH11" s="33" t="str">
+      <c r="BH11" s="34" t="str">
         <f>Sheet1!BH12</f>
         <v/>
       </c>
-      <c r="BI11" s="33" t="str">
+      <c r="BI11" s="34" t="str">
         <f>Sheet1!BI12</f>
         <v/>
       </c>
-      <c r="BJ11" s="33">
+      <c r="BJ11" s="34">
         <f>Sheet1!BJ12</f>
         <v>0</v>
       </c>
@@ -6336,251 +6345,251 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="33" t="str">
+      <c r="A12" s="34" t="str">
         <f>Sheet1!A13</f>
         <v>Aston Martin</v>
       </c>
-      <c r="B12" s="33" t="str">
+      <c r="B12" s="34" t="str">
         <f>Sheet1!B13</f>
         <v>Gary</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="34">
         <f>Sheet1!C13</f>
         <v>18</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="34">
         <f>Sheet1!D13</f>
         <v>20</v>
       </c>
-      <c r="E12" s="33" t="str">
+      <c r="E12" s="34" t="str">
         <f>Sheet1!E13</f>
         <v>N</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="34">
         <f>Sheet1!F13</f>
         <v>1</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="34">
         <f>Sheet1!G13</f>
         <v>19</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="34">
         <f>Sheet1!H13</f>
         <v>19</v>
       </c>
-      <c r="I12" s="33" t="str">
+      <c r="I12" s="34" t="str">
         <f>Sheet1!I13</f>
         <v>N</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="34">
         <f>Sheet1!J13</f>
         <v>1</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="34">
         <f>Sheet1!K13</f>
         <v>22</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="34">
         <f>Sheet1!L13</f>
         <v>22</v>
       </c>
-      <c r="M12" s="33" t="str">
+      <c r="M12" s="34" t="str">
         <f>Sheet1!M13</f>
         <v>N</v>
       </c>
-      <c r="N12" s="33">
+      <c r="N12" s="34">
         <f>Sheet1!N13</f>
         <v>0</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="34">
         <f>Sheet1!O13</f>
         <v>22</v>
       </c>
-      <c r="P12" s="33">
+      <c r="P12" s="34">
         <f>Sheet1!P13</f>
         <v>22</v>
       </c>
-      <c r="Q12" s="33" t="str">
+      <c r="Q12" s="34" t="str">
         <f>Sheet1!Q13</f>
         <v>N</v>
       </c>
-      <c r="R12" s="33">
+      <c r="R12" s="34">
         <f>Sheet1!R13</f>
         <v>0</v>
       </c>
-      <c r="S12" s="33">
+      <c r="S12" s="34">
         <f>Sheet1!S13</f>
         <v>22</v>
       </c>
-      <c r="T12" s="33">
+      <c r="T12" s="34">
         <f>Sheet1!T13</f>
         <v>22</v>
       </c>
-      <c r="U12" s="33" t="str">
+      <c r="U12" s="34" t="str">
         <f>Sheet1!U13</f>
         <v>N</v>
       </c>
-      <c r="V12" s="33">
+      <c r="V12" s="34">
         <f>Sheet1!V13</f>
         <v>0</v>
       </c>
-      <c r="W12" s="33">
+      <c r="W12" s="34">
         <f>Sheet1!W13</f>
         <v>22</v>
       </c>
-      <c r="X12" s="33">
+      <c r="X12" s="34">
         <f>Sheet1!X13</f>
         <v>22</v>
       </c>
-      <c r="Y12" s="33" t="str">
+      <c r="Y12" s="34" t="str">
         <f>Sheet1!Y13</f>
         <v>N</v>
       </c>
-      <c r="Z12" s="33">
+      <c r="Z12" s="34">
         <f>Sheet1!Z13</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="33">
+      <c r="AA12" s="34">
         <f>Sheet1!AA13</f>
         <v>22</v>
       </c>
-      <c r="AB12" s="33">
+      <c r="AB12" s="34">
         <f>Sheet1!AB13</f>
         <v>22</v>
       </c>
-      <c r="AC12" s="33" t="str">
+      <c r="AC12" s="34" t="str">
         <f>Sheet1!AC13</f>
         <v>N</v>
       </c>
-      <c r="AD12" s="33">
+      <c r="AD12" s="34">
         <f>Sheet1!AD13</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="33">
+      <c r="AE12" s="34">
         <f>Sheet1!AE13</f>
         <v>22</v>
       </c>
-      <c r="AF12" s="33">
+      <c r="AF12" s="34">
         <f>Sheet1!AF13</f>
         <v>22</v>
       </c>
-      <c r="AG12" s="33" t="str">
+      <c r="AG12" s="34" t="str">
         <f>Sheet1!AG13</f>
         <v>N</v>
       </c>
-      <c r="AH12" s="33">
+      <c r="AH12" s="34">
         <f>Sheet1!AH13</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="33" t="str">
+      <c r="AI12" s="34" t="str">
         <f>Sheet1!AI13</f>
         <v/>
       </c>
-      <c r="AJ12" s="33" t="str">
+      <c r="AJ12" s="34" t="str">
         <f>Sheet1!AJ13</f>
         <v/>
       </c>
-      <c r="AK12" s="33" t="str">
+      <c r="AK12" s="34" t="str">
         <f>Sheet1!AK13</f>
         <v/>
       </c>
-      <c r="AL12" s="33">
+      <c r="AL12" s="34">
         <f>Sheet1!AL13</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="33" t="str">
+      <c r="AM12" s="34" t="str">
         <f>Sheet1!AM13</f>
         <v/>
       </c>
-      <c r="AN12" s="33" t="str">
+      <c r="AN12" s="34" t="str">
         <f>Sheet1!AN13</f>
         <v/>
       </c>
-      <c r="AO12" s="33" t="str">
+      <c r="AO12" s="34" t="str">
         <f>Sheet1!AO13</f>
         <v/>
       </c>
-      <c r="AP12" s="33">
+      <c r="AP12" s="34">
         <f>Sheet1!AP13</f>
         <v>0</v>
       </c>
-      <c r="AQ12" s="33" t="str">
+      <c r="AQ12" s="34" t="str">
         <f>Sheet1!AQ13</f>
         <v/>
       </c>
-      <c r="AR12" s="33" t="str">
+      <c r="AR12" s="34" t="str">
         <f>Sheet1!AR13</f>
         <v/>
       </c>
-      <c r="AS12" s="33" t="str">
+      <c r="AS12" s="34" t="str">
         <f>Sheet1!AS13</f>
         <v/>
       </c>
-      <c r="AT12" s="33">
+      <c r="AT12" s="34">
         <f>Sheet1!AT13</f>
         <v>0</v>
       </c>
-      <c r="AU12" s="33" t="str">
+      <c r="AU12" s="34" t="str">
         <f>Sheet1!AU13</f>
         <v/>
       </c>
-      <c r="AV12" s="33" t="str">
+      <c r="AV12" s="34" t="str">
         <f>Sheet1!AV13</f>
         <v/>
       </c>
-      <c r="AW12" s="33" t="str">
+      <c r="AW12" s="34" t="str">
         <f>Sheet1!AW13</f>
         <v/>
       </c>
-      <c r="AX12" s="33">
+      <c r="AX12" s="34">
         <f>Sheet1!AX13</f>
         <v>0</v>
       </c>
-      <c r="AY12" s="33" t="str">
+      <c r="AY12" s="34" t="str">
         <f>Sheet1!AY13</f>
         <v/>
       </c>
-      <c r="AZ12" s="33" t="str">
+      <c r="AZ12" s="34" t="str">
         <f>Sheet1!AZ13</f>
         <v/>
       </c>
-      <c r="BA12" s="33" t="str">
+      <c r="BA12" s="34" t="str">
         <f>Sheet1!BA13</f>
         <v/>
       </c>
-      <c r="BB12" s="33">
+      <c r="BB12" s="34">
         <f>Sheet1!BB13</f>
         <v>0</v>
       </c>
-      <c r="BC12" s="33" t="str">
+      <c r="BC12" s="34" t="str">
         <f>Sheet1!BC13</f>
         <v/>
       </c>
-      <c r="BD12" s="33" t="str">
+      <c r="BD12" s="34" t="str">
         <f>Sheet1!BD13</f>
         <v/>
       </c>
-      <c r="BE12" s="33" t="str">
+      <c r="BE12" s="34" t="str">
         <f>Sheet1!BE13</f>
         <v/>
       </c>
-      <c r="BF12" s="33">
+      <c r="BF12" s="34">
         <f>Sheet1!BF13</f>
         <v>0</v>
       </c>
-      <c r="BG12" s="33" t="str">
+      <c r="BG12" s="34" t="str">
         <f>Sheet1!BG13</f>
         <v/>
       </c>
-      <c r="BH12" s="33" t="str">
+      <c r="BH12" s="34" t="str">
         <f>Sheet1!BH13</f>
         <v/>
       </c>
-      <c r="BI12" s="33" t="str">
+      <c r="BI12" s="34" t="str">
         <f>Sheet1!BI13</f>
         <v/>
       </c>
-      <c r="BJ12" s="33">
+      <c r="BJ12" s="34">
         <f>Sheet1!BJ13</f>
         <v>0</v>
       </c>
@@ -6589,251 +6598,251 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="33" t="str">
+      <c r="A13" s="34" t="str">
         <f>Sheet1!A14</f>
         <v>Aston Martin</v>
       </c>
-      <c r="B13" s="33" t="str">
+      <c r="B13" s="34" t="str">
         <f>Sheet1!B14</f>
         <v>Del</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="34">
         <f>Sheet1!C14</f>
         <v>3</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="34">
         <f>Sheet1!D14</f>
         <v>18</v>
       </c>
-      <c r="E13" s="33" t="str">
+      <c r="E13" s="34" t="str">
         <f>Sheet1!E14</f>
         <v>N</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="34">
         <f>Sheet1!F14</f>
         <v>15</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="34">
         <f>Sheet1!G14</f>
         <v>22</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="34">
         <f>Sheet1!H14</f>
         <v>22</v>
       </c>
-      <c r="I13" s="33" t="str">
+      <c r="I13" s="34" t="str">
         <f>Sheet1!I14</f>
         <v>N</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="34">
         <f>Sheet1!J14</f>
         <v>0</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="34">
         <f>Sheet1!K14</f>
         <v>11</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="34">
         <f>Sheet1!L14</f>
         <v>3</v>
       </c>
-      <c r="M13" s="33" t="str">
+      <c r="M13" s="34" t="str">
         <f>Sheet1!M14</f>
         <v>N</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="34">
         <f>Sheet1!N14</f>
         <v>1</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="34">
         <f>Sheet1!O14</f>
         <v>3</v>
       </c>
-      <c r="P13" s="33">
+      <c r="P13" s="34">
         <f>Sheet1!P14</f>
         <v>7</v>
       </c>
-      <c r="Q13" s="33" t="str">
+      <c r="Q13" s="34" t="str">
         <f>Sheet1!Q14</f>
         <v>N</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="34">
         <f>Sheet1!R14</f>
         <v>15</v>
       </c>
-      <c r="S13" s="33">
+      <c r="S13" s="34">
         <f>Sheet1!S14</f>
         <v>8</v>
       </c>
-      <c r="T13" s="33">
+      <c r="T13" s="34">
         <f>Sheet1!T14</f>
         <v>4</v>
       </c>
-      <c r="U13" s="33" t="str">
+      <c r="U13" s="34" t="str">
         <f>Sheet1!U14</f>
         <v>N</v>
       </c>
-      <c r="V13" s="33">
+      <c r="V13" s="34">
         <f>Sheet1!V14</f>
         <v>4</v>
       </c>
-      <c r="W13" s="33">
+      <c r="W13" s="34">
         <f>Sheet1!W14</f>
         <v>22</v>
       </c>
-      <c r="X13" s="33">
+      <c r="X13" s="34">
         <f>Sheet1!X14</f>
         <v>22</v>
       </c>
-      <c r="Y13" s="33" t="str">
+      <c r="Y13" s="34" t="str">
         <f>Sheet1!Y14</f>
         <v>N</v>
       </c>
-      <c r="Z13" s="33">
+      <c r="Z13" s="34">
         <f>Sheet1!Z14</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="33">
+      <c r="AA13" s="34">
         <f>Sheet1!AA14</f>
         <v>22</v>
       </c>
-      <c r="AB13" s="33">
+      <c r="AB13" s="34">
         <f>Sheet1!AB14</f>
         <v>22</v>
       </c>
-      <c r="AC13" s="33" t="str">
+      <c r="AC13" s="34" t="str">
         <f>Sheet1!AC14</f>
         <v>N</v>
       </c>
-      <c r="AD13" s="33">
+      <c r="AD13" s="34">
         <f>Sheet1!AD14</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="33">
+      <c r="AE13" s="34">
         <f>Sheet1!AE14</f>
         <v>21</v>
       </c>
-      <c r="AF13" s="33">
+      <c r="AF13" s="34">
         <f>Sheet1!AF14</f>
         <v>22</v>
       </c>
-      <c r="AG13" s="33" t="str">
+      <c r="AG13" s="34" t="str">
         <f>Sheet1!AG14</f>
         <v>N</v>
       </c>
-      <c r="AH13" s="33">
+      <c r="AH13" s="34">
         <f>Sheet1!AH14</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="33" t="str">
+      <c r="AI13" s="34" t="str">
         <f>Sheet1!AI14</f>
         <v/>
       </c>
-      <c r="AJ13" s="33" t="str">
+      <c r="AJ13" s="34" t="str">
         <f>Sheet1!AJ14</f>
         <v/>
       </c>
-      <c r="AK13" s="33" t="str">
+      <c r="AK13" s="34" t="str">
         <f>Sheet1!AK14</f>
         <v/>
       </c>
-      <c r="AL13" s="33">
+      <c r="AL13" s="34">
         <f>Sheet1!AL14</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="33" t="str">
+      <c r="AM13" s="34" t="str">
         <f>Sheet1!AM14</f>
         <v/>
       </c>
-      <c r="AN13" s="33" t="str">
+      <c r="AN13" s="34" t="str">
         <f>Sheet1!AN14</f>
         <v/>
       </c>
-      <c r="AO13" s="33" t="str">
+      <c r="AO13" s="34" t="str">
         <f>Sheet1!AO14</f>
         <v/>
       </c>
-      <c r="AP13" s="33">
+      <c r="AP13" s="34">
         <f>Sheet1!AP14</f>
         <v>0</v>
       </c>
-      <c r="AQ13" s="33" t="str">
+      <c r="AQ13" s="34" t="str">
         <f>Sheet1!AQ14</f>
         <v/>
       </c>
-      <c r="AR13" s="33" t="str">
+      <c r="AR13" s="34" t="str">
         <f>Sheet1!AR14</f>
         <v/>
       </c>
-      <c r="AS13" s="33" t="str">
+      <c r="AS13" s="34" t="str">
         <f>Sheet1!AS14</f>
         <v/>
       </c>
-      <c r="AT13" s="33">
+      <c r="AT13" s="34">
         <f>Sheet1!AT14</f>
         <v>0</v>
       </c>
-      <c r="AU13" s="33" t="str">
+      <c r="AU13" s="34" t="str">
         <f>Sheet1!AU14</f>
         <v/>
       </c>
-      <c r="AV13" s="33" t="str">
+      <c r="AV13" s="34" t="str">
         <f>Sheet1!AV14</f>
         <v/>
       </c>
-      <c r="AW13" s="33" t="str">
+      <c r="AW13" s="34" t="str">
         <f>Sheet1!AW14</f>
         <v/>
       </c>
-      <c r="AX13" s="33">
+      <c r="AX13" s="34">
         <f>Sheet1!AX14</f>
         <v>0</v>
       </c>
-      <c r="AY13" s="33" t="str">
+      <c r="AY13" s="34" t="str">
         <f>Sheet1!AY14</f>
         <v/>
       </c>
-      <c r="AZ13" s="33" t="str">
+      <c r="AZ13" s="34" t="str">
         <f>Sheet1!AZ14</f>
         <v/>
       </c>
-      <c r="BA13" s="33" t="str">
+      <c r="BA13" s="34" t="str">
         <f>Sheet1!BA14</f>
         <v/>
       </c>
-      <c r="BB13" s="33">
+      <c r="BB13" s="34">
         <f>Sheet1!BB14</f>
         <v>0</v>
       </c>
-      <c r="BC13" s="33" t="str">
+      <c r="BC13" s="34" t="str">
         <f>Sheet1!BC14</f>
         <v/>
       </c>
-      <c r="BD13" s="33" t="str">
+      <c r="BD13" s="34" t="str">
         <f>Sheet1!BD14</f>
         <v/>
       </c>
-      <c r="BE13" s="33" t="str">
+      <c r="BE13" s="34" t="str">
         <f>Sheet1!BE14</f>
         <v/>
       </c>
-      <c r="BF13" s="33">
+      <c r="BF13" s="34">
         <f>Sheet1!BF14</f>
         <v>0</v>
       </c>
-      <c r="BG13" s="33" t="str">
+      <c r="BG13" s="34" t="str">
         <f>Sheet1!BG14</f>
         <v/>
       </c>
-      <c r="BH13" s="33" t="str">
+      <c r="BH13" s="34" t="str">
         <f>Sheet1!BH14</f>
         <v/>
       </c>
-      <c r="BI13" s="33" t="str">
+      <c r="BI13" s="34" t="str">
         <f>Sheet1!BI14</f>
         <v/>
       </c>
-      <c r="BJ13" s="33">
+      <c r="BJ13" s="34">
         <f>Sheet1!BJ14</f>
         <v>0</v>
       </c>
@@ -6842,531 +6851,531 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="33" t="str">
+      <c r="A14" s="34" t="str">
         <f>Sheet1!A15</f>
         <v/>
       </c>
-      <c r="B14" s="33" t="str">
+      <c r="B14" s="34" t="str">
         <f>Sheet1!B15</f>
         <v/>
       </c>
-      <c r="C14" s="33" t="str">
+      <c r="C14" s="34" t="str">
         <f>Sheet1!C15</f>
         <v/>
       </c>
-      <c r="E14" s="33" t="str">
+      <c r="E14" s="34" t="str">
         <f>Sheet1!E15</f>
         <v/>
       </c>
-      <c r="F14" s="33" t="str">
+      <c r="F14" s="34" t="str">
         <f>Sheet1!F15</f>
         <v/>
       </c>
-      <c r="G14" s="33" t="str">
+      <c r="G14" s="34" t="str">
         <f>Sheet1!G15</f>
         <v/>
       </c>
-      <c r="I14" s="33" t="str">
+      <c r="I14" s="34" t="str">
         <f>Sheet1!I15</f>
         <v/>
       </c>
-      <c r="J14" s="33" t="str">
+      <c r="J14" s="34" t="str">
         <f>Sheet1!J15</f>
         <v/>
       </c>
-      <c r="K14" s="33" t="str">
+      <c r="K14" s="34" t="str">
         <f>Sheet1!K15</f>
         <v/>
       </c>
-      <c r="M14" s="33" t="str">
+      <c r="M14" s="34" t="str">
         <f>Sheet1!M15</f>
         <v/>
       </c>
-      <c r="N14" s="33" t="str">
+      <c r="N14" s="34" t="str">
         <f>Sheet1!N15</f>
         <v/>
       </c>
-      <c r="O14" s="33" t="str">
+      <c r="O14" s="34" t="str">
         <f>Sheet1!O15</f>
         <v/>
       </c>
-      <c r="Q14" s="33" t="str">
+      <c r="Q14" s="34" t="str">
         <f>Sheet1!Q15</f>
         <v/>
       </c>
-      <c r="R14" s="33" t="str">
+      <c r="R14" s="34" t="str">
         <f>Sheet1!R15</f>
         <v/>
       </c>
-      <c r="S14" s="33" t="str">
+      <c r="S14" s="34" t="str">
         <f>Sheet1!S15</f>
         <v/>
       </c>
-      <c r="U14" s="33" t="str">
+      <c r="U14" s="34" t="str">
         <f>Sheet1!U15</f>
         <v/>
       </c>
-      <c r="V14" s="33" t="str">
+      <c r="V14" s="34" t="str">
         <f>Sheet1!V15</f>
         <v/>
       </c>
-      <c r="W14" s="33" t="str">
+      <c r="W14" s="34" t="str">
         <f>Sheet1!AA15</f>
         <v/>
       </c>
-      <c r="Y14" s="33" t="str">
+      <c r="Y14" s="34" t="str">
         <f>Sheet1!AC15</f>
         <v/>
       </c>
-      <c r="Z14" s="33" t="str">
+      <c r="Z14" s="34" t="str">
         <f>Sheet1!AD15</f>
         <v/>
       </c>
-      <c r="AA14" s="33" t="str">
+      <c r="AA14" s="34" t="str">
         <f>Sheet1!AE15</f>
         <v/>
       </c>
-      <c r="AC14" s="33" t="str">
+      <c r="AC14" s="34" t="str">
         <f>Sheet1!AG15</f>
         <v/>
       </c>
-      <c r="AD14" s="33" t="str">
+      <c r="AD14" s="34" t="str">
         <f>Sheet1!AH15</f>
         <v/>
       </c>
-      <c r="AE14" s="33" t="str">
+      <c r="AE14" s="34" t="str">
         <f>Sheet1!AI15</f>
         <v/>
       </c>
-      <c r="AG14" s="33" t="str">
+      <c r="AG14" s="34" t="str">
         <f>Sheet1!AK15</f>
         <v/>
       </c>
-      <c r="AH14" s="33" t="str">
+      <c r="AH14" s="34" t="str">
         <f>Sheet1!AL15</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="33" t="str">
+      <c r="A15" s="34" t="str">
         <f>Sheet1!A16</f>
         <v/>
       </c>
-      <c r="B15" s="33" t="str">
+      <c r="B15" s="34" t="str">
         <f>Sheet1!B16</f>
         <v/>
       </c>
-      <c r="C15" s="33" t="str">
+      <c r="C15" s="34" t="str">
         <f>Sheet1!C16</f>
         <v/>
       </c>
-      <c r="E15" s="33" t="str">
+      <c r="E15" s="34" t="str">
         <f>Sheet1!E16</f>
         <v/>
       </c>
-      <c r="F15" s="33" t="str">
+      <c r="F15" s="34" t="str">
         <f>Sheet1!F16</f>
         <v/>
       </c>
-      <c r="G15" s="33" t="str">
+      <c r="G15" s="34" t="str">
         <f>Sheet1!G16</f>
         <v/>
       </c>
-      <c r="I15" s="33" t="str">
+      <c r="I15" s="34" t="str">
         <f>Sheet1!I16</f>
         <v/>
       </c>
-      <c r="J15" s="33" t="str">
+      <c r="J15" s="34" t="str">
         <f>Sheet1!J16</f>
         <v/>
       </c>
-      <c r="K15" s="33" t="str">
+      <c r="K15" s="34" t="str">
         <f>Sheet1!K16</f>
         <v/>
       </c>
-      <c r="M15" s="33" t="str">
+      <c r="M15" s="34" t="str">
         <f>Sheet1!M16</f>
         <v/>
       </c>
-      <c r="N15" s="33" t="str">
+      <c r="N15" s="34" t="str">
         <f>Sheet1!N16</f>
         <v/>
       </c>
-      <c r="O15" s="33" t="str">
+      <c r="O15" s="34" t="str">
         <f>Sheet1!O16</f>
         <v/>
       </c>
-      <c r="Q15" s="33" t="str">
+      <c r="Q15" s="34" t="str">
         <f>Sheet1!Q16</f>
         <v/>
       </c>
-      <c r="R15" s="33" t="str">
+      <c r="R15" s="34" t="str">
         <f>Sheet1!R16</f>
         <v/>
       </c>
-      <c r="S15" s="33" t="str">
+      <c r="S15" s="34" t="str">
         <f>Sheet1!S16</f>
         <v/>
       </c>
-      <c r="U15" s="33" t="str">
+      <c r="U15" s="34" t="str">
         <f>Sheet1!U16</f>
         <v/>
       </c>
-      <c r="V15" s="33" t="str">
+      <c r="V15" s="34" t="str">
         <f>Sheet1!V16</f>
         <v/>
       </c>
-      <c r="W15" s="33" t="str">
+      <c r="W15" s="34" t="str">
         <f>Sheet1!AA16</f>
         <v/>
       </c>
-      <c r="Y15" s="33" t="str">
+      <c r="Y15" s="34" t="str">
         <f>Sheet1!AC16</f>
         <v/>
       </c>
-      <c r="Z15" s="33" t="str">
+      <c r="Z15" s="34" t="str">
         <f>Sheet1!AD16</f>
         <v/>
       </c>
-      <c r="AA15" s="33" t="str">
+      <c r="AA15" s="34" t="str">
         <f>Sheet1!AE16</f>
         <v/>
       </c>
-      <c r="AC15" s="33" t="str">
+      <c r="AC15" s="34" t="str">
         <f>Sheet1!AG16</f>
         <v/>
       </c>
-      <c r="AD15" s="33" t="str">
+      <c r="AD15" s="34" t="str">
         <f>Sheet1!AH16</f>
         <v/>
       </c>
-      <c r="AE15" s="33" t="str">
+      <c r="AE15" s="34" t="str">
         <f>Sheet1!AI16</f>
         <v/>
       </c>
-      <c r="AG15" s="33" t="str">
+      <c r="AG15" s="34" t="str">
         <f>Sheet1!AK16</f>
         <v/>
       </c>
-      <c r="AH15" s="33" t="str">
+      <c r="AH15" s="34" t="str">
         <f>Sheet1!AL16</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="33" t="str">
+      <c r="A16" s="34" t="str">
         <f>Sheet1!A17</f>
         <v/>
       </c>
-      <c r="B16" s="33" t="str">
+      <c r="B16" s="34" t="str">
         <f>Sheet1!B17</f>
         <v/>
       </c>
-      <c r="C16" s="33" t="str">
+      <c r="C16" s="34" t="str">
         <f>Sheet1!C17</f>
         <v/>
       </c>
-      <c r="E16" s="33" t="str">
+      <c r="E16" s="34" t="str">
         <f>Sheet1!E17</f>
         <v/>
       </c>
-      <c r="F16" s="33" t="str">
+      <c r="F16" s="34" t="str">
         <f>Sheet1!F17</f>
         <v/>
       </c>
-      <c r="G16" s="33" t="str">
+      <c r="G16" s="34" t="str">
         <f>Sheet1!G17</f>
         <v/>
       </c>
-      <c r="I16" s="33" t="str">
+      <c r="I16" s="34" t="str">
         <f>Sheet1!I17</f>
         <v/>
       </c>
-      <c r="J16" s="33" t="str">
+      <c r="J16" s="34" t="str">
         <f>Sheet1!J17</f>
         <v/>
       </c>
-      <c r="K16" s="33" t="str">
+      <c r="K16" s="34" t="str">
         <f>Sheet1!K17</f>
         <v/>
       </c>
-      <c r="M16" s="33" t="str">
+      <c r="M16" s="34" t="str">
         <f>Sheet1!M17</f>
         <v/>
       </c>
-      <c r="N16" s="33" t="str">
+      <c r="N16" s="34" t="str">
         <f>Sheet1!N17</f>
         <v/>
       </c>
-      <c r="O16" s="33" t="str">
+      <c r="O16" s="34" t="str">
         <f>Sheet1!O17</f>
         <v/>
       </c>
-      <c r="Q16" s="33" t="str">
+      <c r="Q16" s="34" t="str">
         <f>Sheet1!Q17</f>
         <v/>
       </c>
-      <c r="R16" s="33" t="str">
+      <c r="R16" s="34" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="S16" s="33" t="str">
+      <c r="S16" s="34" t="str">
         <f>Sheet1!S17</f>
         <v/>
       </c>
-      <c r="U16" s="33" t="str">
+      <c r="U16" s="34" t="str">
         <f>Sheet1!U17</f>
         <v/>
       </c>
-      <c r="V16" s="33" t="str">
+      <c r="V16" s="34" t="str">
         <f>Sheet1!V17</f>
         <v/>
       </c>
-      <c r="W16" s="33" t="str">
+      <c r="W16" s="34" t="str">
         <f>Sheet1!AA17</f>
         <v/>
       </c>
-      <c r="Y16" s="33" t="str">
+      <c r="Y16" s="34" t="str">
         <f>Sheet1!AC17</f>
         <v/>
       </c>
-      <c r="Z16" s="33" t="str">
+      <c r="Z16" s="34" t="str">
         <f>Sheet1!AD17</f>
         <v/>
       </c>
-      <c r="AA16" s="33" t="str">
+      <c r="AA16" s="34" t="str">
         <f>Sheet1!AE17</f>
         <v/>
       </c>
-      <c r="AC16" s="33" t="str">
+      <c r="AC16" s="34" t="str">
         <f>Sheet1!AG17</f>
         <v/>
       </c>
-      <c r="AD16" s="33" t="str">
+      <c r="AD16" s="34" t="str">
         <f>Sheet1!AH17</f>
         <v/>
       </c>
-      <c r="AE16" s="33" t="str">
+      <c r="AE16" s="34" t="str">
         <f>Sheet1!AI17</f>
         <v/>
       </c>
-      <c r="AG16" s="33" t="str">
+      <c r="AG16" s="34" t="str">
         <f>Sheet1!AK17</f>
         <v/>
       </c>
-      <c r="AH16" s="33" t="str">
+      <c r="AH16" s="34" t="str">
         <f>Sheet1!AL17</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="33" t="str">
+      <c r="A17" s="34" t="str">
         <f>Sheet1!A18</f>
         <v/>
       </c>
-      <c r="B17" s="33" t="str">
+      <c r="B17" s="34" t="str">
         <f>Sheet1!B18</f>
         <v/>
       </c>
-      <c r="C17" s="33" t="str">
+      <c r="C17" s="34" t="str">
         <f>Sheet1!C18</f>
         <v/>
       </c>
-      <c r="E17" s="33" t="str">
+      <c r="E17" s="34" t="str">
         <f>Sheet1!E18</f>
         <v/>
       </c>
-      <c r="F17" s="33" t="str">
+      <c r="F17" s="34" t="str">
         <f>Sheet1!F18</f>
         <v/>
       </c>
-      <c r="G17" s="33" t="str">
+      <c r="G17" s="34" t="str">
         <f>Sheet1!G18</f>
         <v/>
       </c>
-      <c r="I17" s="33" t="str">
+      <c r="I17" s="34" t="str">
         <f>Sheet1!I18</f>
         <v/>
       </c>
-      <c r="J17" s="33" t="str">
+      <c r="J17" s="34" t="str">
         <f>Sheet1!J18</f>
         <v/>
       </c>
-      <c r="K17" s="33" t="str">
+      <c r="K17" s="34" t="str">
         <f>Sheet1!K18</f>
         <v/>
       </c>
-      <c r="M17" s="33" t="str">
+      <c r="M17" s="34" t="str">
         <f>Sheet1!M18</f>
         <v/>
       </c>
-      <c r="N17" s="33" t="str">
+      <c r="N17" s="34" t="str">
         <f>Sheet1!N18</f>
         <v/>
       </c>
-      <c r="O17" s="33" t="str">
+      <c r="O17" s="34" t="str">
         <f>Sheet1!O18</f>
         <v/>
       </c>
-      <c r="Q17" s="33" t="str">
+      <c r="Q17" s="34" t="str">
         <f>Sheet1!Q18</f>
         <v/>
       </c>
-      <c r="R17" s="33" t="str">
+      <c r="R17" s="34" t="str">
         <f>Sheet1!R18</f>
         <v/>
       </c>
-      <c r="S17" s="33" t="str">
+      <c r="S17" s="34" t="str">
         <f>Sheet1!S18</f>
         <v/>
       </c>
-      <c r="U17" s="33" t="str">
+      <c r="U17" s="34" t="str">
         <f>Sheet1!U18</f>
         <v/>
       </c>
-      <c r="V17" s="33" t="str">
+      <c r="V17" s="34" t="str">
         <f>Sheet1!V18</f>
         <v/>
       </c>
-      <c r="W17" s="33" t="str">
+      <c r="W17" s="34" t="str">
         <f>Sheet1!AA18</f>
         <v/>
       </c>
-      <c r="Y17" s="33" t="str">
+      <c r="Y17" s="34" t="str">
         <f>Sheet1!AC18</f>
         <v/>
       </c>
-      <c r="Z17" s="33" t="str">
+      <c r="Z17" s="34" t="str">
         <f>Sheet1!AD18</f>
         <v/>
       </c>
-      <c r="AA17" s="33" t="str">
+      <c r="AA17" s="34" t="str">
         <f>Sheet1!AE18</f>
         <v/>
       </c>
-      <c r="AC17" s="33" t="str">
+      <c r="AC17" s="34" t="str">
         <f>Sheet1!AG18</f>
         <v/>
       </c>
-      <c r="AD17" s="33" t="str">
+      <c r="AD17" s="34" t="str">
         <f>Sheet1!AH18</f>
         <v/>
       </c>
-      <c r="AE17" s="33" t="str">
+      <c r="AE17" s="34" t="str">
         <f>Sheet1!AI18</f>
         <v/>
       </c>
-      <c r="AG17" s="33" t="str">
+      <c r="AG17" s="34" t="str">
         <f>Sheet1!AK18</f>
         <v/>
       </c>
-      <c r="AH17" s="33" t="str">
+      <c r="AH17" s="34" t="str">
         <f>Sheet1!AL18</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="33" t="str">
+      <c r="A18" s="34" t="str">
         <f>Sheet1!A19</f>
         <v/>
       </c>
-      <c r="B18" s="33" t="str">
+      <c r="B18" s="34" t="str">
         <f>Sheet1!B19</f>
         <v/>
       </c>
-      <c r="C18" s="33" t="str">
+      <c r="C18" s="34" t="str">
         <f>Sheet1!C19</f>
         <v/>
       </c>
-      <c r="E18" s="33" t="str">
+      <c r="E18" s="34" t="str">
         <f>Sheet1!E19</f>
         <v/>
       </c>
-      <c r="F18" s="33" t="str">
+      <c r="F18" s="34" t="str">
         <f>Sheet1!F19</f>
         <v/>
       </c>
-      <c r="G18" s="33" t="str">
+      <c r="G18" s="34" t="str">
         <f>Sheet1!G19</f>
         <v/>
       </c>
-      <c r="I18" s="33" t="str">
+      <c r="I18" s="34" t="str">
         <f>Sheet1!I19</f>
         <v/>
       </c>
-      <c r="J18" s="33" t="str">
+      <c r="J18" s="34" t="str">
         <f>Sheet1!J19</f>
         <v/>
       </c>
-      <c r="K18" s="33" t="str">
+      <c r="K18" s="34" t="str">
         <f>Sheet1!K19</f>
         <v/>
       </c>
-      <c r="M18" s="33" t="str">
+      <c r="M18" s="34" t="str">
         <f>Sheet1!M19</f>
         <v/>
       </c>
-      <c r="N18" s="33" t="str">
+      <c r="N18" s="34" t="str">
         <f>Sheet1!N19</f>
         <v/>
       </c>
-      <c r="O18" s="33" t="str">
+      <c r="O18" s="34" t="str">
         <f>Sheet1!O19</f>
         <v/>
       </c>
-      <c r="Q18" s="33" t="str">
+      <c r="Q18" s="34" t="str">
         <f>Sheet1!Q19</f>
         <v/>
       </c>
-      <c r="R18" s="33" t="str">
+      <c r="R18" s="34" t="str">
         <f>Sheet1!R19</f>
         <v/>
       </c>
-      <c r="S18" s="33" t="str">
+      <c r="S18" s="34" t="str">
         <f>Sheet1!S19</f>
         <v/>
       </c>
-      <c r="U18" s="33" t="str">
+      <c r="U18" s="34" t="str">
         <f>Sheet1!U19</f>
         <v/>
       </c>
-      <c r="V18" s="33" t="str">
+      <c r="V18" s="34" t="str">
         <f>Sheet1!V19</f>
         <v/>
       </c>
-      <c r="W18" s="33" t="str">
+      <c r="W18" s="34" t="str">
         <f>Sheet1!AA19</f>
         <v/>
       </c>
-      <c r="Y18" s="33" t="str">
+      <c r="Y18" s="34" t="str">
         <f>Sheet1!AC19</f>
         <v/>
       </c>
-      <c r="Z18" s="33" t="str">
+      <c r="Z18" s="34" t="str">
         <f>Sheet1!AD19</f>
         <v/>
       </c>
-      <c r="AA18" s="33" t="str">
+      <c r="AA18" s="34" t="str">
         <f>Sheet1!AE19</f>
         <v/>
       </c>
-      <c r="AC18" s="33" t="str">
+      <c r="AC18" s="34" t="str">
         <f>Sheet1!AG19</f>
         <v/>
       </c>
-      <c r="AD18" s="33" t="str">
+      <c r="AD18" s="34" t="str">
         <f>Sheet1!AH19</f>
         <v/>
       </c>
-      <c r="AE18" s="33" t="str">
+      <c r="AE18" s="34" t="str">
         <f>Sheet1!AI19</f>
         <v/>
       </c>
-      <c r="AG18" s="33" t="str">
+      <c r="AG18" s="34" t="str">
         <f>Sheet1!AK19</f>
         <v/>
       </c>
-      <c r="AH18" s="33" t="str">
+      <c r="AH18" s="34" t="str">
         <f>Sheet1!AL19</f>
         <v/>
       </c>
@@ -7402,145 +7411,145 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>61</v>
       </c>
     </row>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -7,6 +7,7 @@
     <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="PythonReadyData" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Schedule" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="TentativeSchedule" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="78">
   <si>
     <t>Suzuka</t>
   </si>
@@ -193,25 +194,22 @@
     <t>1/15/2025</t>
   </si>
   <si>
-    <t>Upcoming</t>
-  </si>
-  <si>
     <t>1/22/2025</t>
-  </si>
-  <si>
-    <t>Tentative</t>
-  </si>
-  <si>
-    <t>1/23/2025</t>
   </si>
   <si>
     <t>1/29/2025</t>
   </si>
   <si>
+    <t>Upcoming</t>
+  </si>
+  <si>
+    <t>2/5/2025</t>
+  </si>
+  <si>
     <t>Austria &amp; Sprint</t>
   </si>
   <si>
-    <t>2/5/2025</t>
+    <t>2/7/2025</t>
   </si>
   <si>
     <t>COTA &amp; Sprint</t>
@@ -219,12 +217,48 @@
   <si>
     <t>2/12/2025</t>
   </si>
+  <si>
+    <t>The Double</t>
+  </si>
+  <si>
+    <t>The Two Day Affair</t>
+  </si>
+  <si>
+    <t>The Weekend Wildcard</t>
+  </si>
+  <si>
+    <t>Wednesday - 1/22/2025 7:00PM</t>
+  </si>
+  <si>
+    <t>Wednesday - 1/22/2025</t>
+  </si>
+  <si>
+    <t>Wednesday - 1/22/2025 8:30PM</t>
+  </si>
+  <si>
+    <t>Thursday - 1/23/2025</t>
+  </si>
+  <si>
+    <t>Wednesday - 1/29/2025</t>
+  </si>
+  <si>
+    <t>Wednesday - 2/5/2025</t>
+  </si>
+  <si>
+    <t>Saturday - 2/8/2025</t>
+  </si>
+  <si>
+    <t>Wednesday - 2/12/2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -242,6 +276,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FF31333F"/>
+      <name val="&quot;Source Sans Pro&quot;"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12.0"/>
       <color rgb="FF31333F"/>
       <name val="&quot;Source Sans Pro&quot;"/>
@@ -279,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="30">
     <border/>
     <border>
       <left style="thick">
@@ -499,6 +539,128 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -506,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -588,6 +750,67 @@
     <xf borderId="0" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="23" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="24" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="28" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="29" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="17" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -609,6 +832,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1259,12 +1486,18 @@
         <f>IFERROR((VLOOKUP(AE3,Sheet2!$A:$B,2,0))+IF(AG3="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="10"/>
+      <c r="AI3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="AJ3" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="AL3" s="11">
         <f>IFERROR((VLOOKUP(AI3,Sheet2!$A:$B,2,0))+IF(AK3="y",1,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AM3" s="12"/>
       <c r="AN3" s="13"/>
@@ -1420,12 +1653,18 @@
         <f>IFERROR((VLOOKUP(AE4,Sheet2!$A:$B,2,0))+IF(AG4="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="20"/>
+      <c r="AI4" s="14">
+        <v>6.0</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="AK4" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AL4" s="17">
         <f>IFERROR((VLOOKUP(AI4,Sheet2!$A:$B,2,0))+IF(AK4="y",1,0),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM4" s="18"/>
       <c r="AN4" s="19"/>
@@ -1581,12 +1820,18 @@
         <f>IFERROR((VLOOKUP(AE5,Sheet2!$A:$B,2,0))+IF(AG5="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="20"/>
+      <c r="AI5" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="AK5" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AL5" s="17">
         <f>IFERROR((VLOOKUP(AI5,Sheet2!$A:$B,2,0))+IF(AK5="y",1,0),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM5" s="18"/>
       <c r="AN5" s="19"/>
@@ -1742,12 +1987,18 @@
         <f>IFERROR((VLOOKUP(AE6,Sheet2!$A:$B,2,0))+IF(AG6="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="20"/>
+      <c r="AI6" s="14">
+        <v>8.0</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="AK6" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AL6" s="17">
         <f>IFERROR((VLOOKUP(AI6,Sheet2!$A:$B,2,0))+IF(AK6="y",1,0),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM6" s="18"/>
       <c r="AN6" s="19"/>
@@ -1903,12 +2154,18 @@
         <f>IFERROR((VLOOKUP(AE7,Sheet2!$A:$B,2,0))+IF(AG7="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="20"/>
+      <c r="AI7" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="AK7" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AL7" s="17">
         <f>IFERROR((VLOOKUP(AI7,Sheet2!$A:$B,2,0))+IF(AK7="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM7" s="18"/>
       <c r="AN7" s="19"/>
@@ -2064,9 +2321,15 @@
         <f>IFERROR((VLOOKUP(AE8,Sheet2!$A:$B,2,0))+IF(AG8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="20"/>
+      <c r="AI8" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AJ8" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AK8" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AL8" s="17">
         <f>IFERROR((VLOOKUP(AI8,Sheet2!$A:$B,2,0))+IF(AK8="y",1,0),0)</f>
         <v>0</v>
@@ -2225,12 +2488,18 @@
         <f>IFERROR((VLOOKUP(AE9,Sheet2!$A:$B,2,0))+IF(AG9="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="20"/>
+      <c r="AI9" s="14">
+        <v>7.0</v>
+      </c>
+      <c r="AJ9" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="AK9" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AL9" s="17">
         <f>IFERROR((VLOOKUP(AI9,Sheet2!$A:$B,2,0))+IF(AK9="y",1,0),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM9" s="18"/>
       <c r="AN9" s="19"/>
@@ -2386,12 +2655,18 @@
         <f>IFERROR((VLOOKUP(AE10,Sheet2!$A:$B,2,0))+IF(AG10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="20"/>
+      <c r="AI10" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="AJ10" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="AK10" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="AL10" s="17">
         <f>IFERROR((VLOOKUP(AI10,Sheet2!$A:$B,2,0))+IF(AK10="y",1,0),0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AM10" s="18"/>
       <c r="AN10" s="19"/>
@@ -2547,9 +2822,15 @@
         <f>IFERROR((VLOOKUP(AE11,Sheet2!$A:$B,2,0))+IF(AG11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="20"/>
+      <c r="AI11" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AJ11" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AK11" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AL11" s="17">
         <f>IFERROR((VLOOKUP(AI11,Sheet2!$A:$B,2,0))+IF(AK11="y",1,0),0)</f>
         <v>0</v>
@@ -2708,12 +2989,18 @@
         <f>IFERROR((VLOOKUP(AE12,Sheet2!$A:$B,2,0))+IF(AG12="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="20"/>
+      <c r="AI12" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="AJ12" s="15">
+        <v>20.0</v>
+      </c>
+      <c r="AK12" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AL12" s="17">
         <f>IFERROR((VLOOKUP(AI12,Sheet2!$A:$B,2,0))+IF(AK12="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12" s="18"/>
       <c r="AN12" s="19"/>
@@ -2869,9 +3156,15 @@
         <f>IFERROR((VLOOKUP(AE13,Sheet2!$A:$B,2,0))+IF(AG13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="18"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="20"/>
+      <c r="AI13" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AJ13" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AK13" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AL13" s="17">
         <f>IFERROR((VLOOKUP(AI13,Sheet2!$A:$B,2,0))+IF(AK13="y",1,0),0)</f>
         <v>0</v>
@@ -3030,12 +3323,18 @@
         <f>IFERROR((VLOOKUP(AE14,Sheet2!$A:$B,2,0))+IF(AG14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="30"/>
+      <c r="AI14" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="AJ14" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="AK14" s="25" t="s">
+        <v>23</v>
+      </c>
       <c r="AL14" s="26">
         <f>IFERROR((VLOOKUP(AI14,Sheet2!$A:$B,2,0))+IF(AK14="y",1,0),0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AM14" s="28"/>
       <c r="AN14" s="29"/>
@@ -3951,21 +4250,21 @@
         <f>Sheet1!AH3</f>
         <v>26</v>
       </c>
-      <c r="AI2" s="34" t="str">
+      <c r="AI2" s="34">
         <f>Sheet1!AI3</f>
-        <v/>
-      </c>
-      <c r="AJ2" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="34">
         <f>Sheet1!AJ3</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AK2" s="34" t="str">
         <f>Sheet1!AK3</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AL2" s="34">
         <f>Sheet1!AL3</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AM2" s="34" t="str">
         <f>Sheet1!AM3</f>
@@ -4204,21 +4503,21 @@
         <f>Sheet1!AH4</f>
         <v>1</v>
       </c>
-      <c r="AI3" s="34" t="str">
+      <c r="AI3" s="34">
         <f>Sheet1!AI4</f>
-        <v/>
-      </c>
-      <c r="AJ3" s="34" t="str">
+        <v>6</v>
+      </c>
+      <c r="AJ3" s="34">
         <f>Sheet1!AJ4</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="AK3" s="34" t="str">
         <f>Sheet1!AK4</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AL3" s="34">
         <f>Sheet1!AL4</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM3" s="34" t="str">
         <f>Sheet1!AM4</f>
@@ -4457,21 +4756,21 @@
         <f>Sheet1!AH5</f>
         <v>18</v>
       </c>
-      <c r="AI4" s="34" t="str">
+      <c r="AI4" s="34">
         <f>Sheet1!AI5</f>
-        <v/>
-      </c>
-      <c r="AJ4" s="34" t="str">
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="34">
         <f>Sheet1!AJ5</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="AK4" s="34" t="str">
         <f>Sheet1!AK5</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AL4" s="34">
         <f>Sheet1!AL5</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM4" s="34" t="str">
         <f>Sheet1!AM5</f>
@@ -4710,21 +5009,21 @@
         <f>Sheet1!AH6</f>
         <v>1</v>
       </c>
-      <c r="AI5" s="34" t="str">
+      <c r="AI5" s="34">
         <f>Sheet1!AI6</f>
-        <v/>
-      </c>
-      <c r="AJ5" s="34" t="str">
+        <v>8</v>
+      </c>
+      <c r="AJ5" s="34">
         <f>Sheet1!AJ6</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="AK5" s="34" t="str">
         <f>Sheet1!AK6</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AL5" s="34">
         <f>Sheet1!AL6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM5" s="34" t="str">
         <f>Sheet1!AM6</f>
@@ -4963,21 +5262,21 @@
         <f>Sheet1!AH7</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="34" t="str">
+      <c r="AI6" s="34">
         <f>Sheet1!AI7</f>
-        <v/>
-      </c>
-      <c r="AJ6" s="34" t="str">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="34">
         <f>Sheet1!AJ7</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="AK6" s="34" t="str">
         <f>Sheet1!AK7</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AL6" s="34">
         <f>Sheet1!AL7</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM6" s="34" t="str">
         <f>Sheet1!AM7</f>
@@ -5216,17 +5515,17 @@
         <f>Sheet1!AH8</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="34" t="str">
+      <c r="AI7" s="34">
         <f>Sheet1!AI8</f>
-        <v/>
-      </c>
-      <c r="AJ7" s="34" t="str">
+        <v>22</v>
+      </c>
+      <c r="AJ7" s="34">
         <f>Sheet1!AJ8</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AK7" s="34" t="str">
         <f>Sheet1!AK8</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AL7" s="34">
         <f>Sheet1!AL8</f>
@@ -5469,21 +5768,21 @@
         <f>Sheet1!AH9</f>
         <v>1</v>
       </c>
-      <c r="AI8" s="34" t="str">
+      <c r="AI8" s="34">
         <f>Sheet1!AI9</f>
-        <v/>
-      </c>
-      <c r="AJ8" s="34" t="str">
+        <v>7</v>
+      </c>
+      <c r="AJ8" s="34">
         <f>Sheet1!AJ9</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="AK8" s="34" t="str">
         <f>Sheet1!AK9</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AL8" s="34">
         <f>Sheet1!AL9</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM8" s="34" t="str">
         <f>Sheet1!AM9</f>
@@ -5722,21 +6021,21 @@
         <f>Sheet1!AH10</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="34" t="str">
+      <c r="AI9" s="34">
         <f>Sheet1!AI10</f>
-        <v/>
-      </c>
-      <c r="AJ9" s="34" t="str">
+        <v>3</v>
+      </c>
+      <c r="AJ9" s="34">
         <f>Sheet1!AJ10</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AK9" s="34" t="str">
         <f>Sheet1!AK10</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="AL9" s="34">
         <f>Sheet1!AL10</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AM9" s="34" t="str">
         <f>Sheet1!AM10</f>
@@ -5975,17 +6274,17 @@
         <f>Sheet1!AH11</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="34" t="str">
+      <c r="AI10" s="34">
         <f>Sheet1!AI11</f>
-        <v/>
-      </c>
-      <c r="AJ10" s="34" t="str">
+        <v>22</v>
+      </c>
+      <c r="AJ10" s="34">
         <f>Sheet1!AJ11</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AK10" s="34" t="str">
         <f>Sheet1!AK11</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AL10" s="34">
         <f>Sheet1!AL11</f>
@@ -6228,21 +6527,21 @@
         <f>Sheet1!AH12</f>
         <v>1</v>
       </c>
-      <c r="AI11" s="34" t="str">
+      <c r="AI11" s="34">
         <f>Sheet1!AI12</f>
-        <v/>
-      </c>
-      <c r="AJ11" s="34" t="str">
+        <v>18</v>
+      </c>
+      <c r="AJ11" s="34">
         <f>Sheet1!AJ12</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="AK11" s="34" t="str">
         <f>Sheet1!AK12</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AL11" s="34">
         <f>Sheet1!AL12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11" s="34" t="str">
         <f>Sheet1!AM12</f>
@@ -6481,17 +6780,17 @@
         <f>Sheet1!AH13</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="34" t="str">
+      <c r="AI12" s="34">
         <f>Sheet1!AI13</f>
-        <v/>
-      </c>
-      <c r="AJ12" s="34" t="str">
+        <v>22</v>
+      </c>
+      <c r="AJ12" s="34">
         <f>Sheet1!AJ13</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AK12" s="34" t="str">
         <f>Sheet1!AK13</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AL12" s="34">
         <f>Sheet1!AL13</f>
@@ -6734,21 +7033,21 @@
         <f>Sheet1!AH14</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="34" t="str">
+      <c r="AI13" s="34">
         <f>Sheet1!AI14</f>
-        <v/>
-      </c>
-      <c r="AJ13" s="34" t="str">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="34">
         <f>Sheet1!AJ14</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AK13" s="34" t="str">
         <f>Sheet1!AK14</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AL13" s="34">
         <f>Sheet1!AL14</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AM13" s="34" t="str">
         <f>Sheet1!AM14</f>
@@ -7495,7 +7794,7 @@
         <v>58</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -7503,10 +7802,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -7514,43 +7813,158 @@
         <v>9</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>61</v>
       </c>
+      <c r="D11" s="37"/>
     </row>
     <row r="12">
       <c r="A12" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>61</v>
       </c>
+      <c r="D12" s="37"/>
     </row>
     <row r="13">
       <c r="A13" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>64</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>65</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>61</v>
       </c>
+      <c r="D13" s="37"/>
     </row>
     <row r="14">
       <c r="A14" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="36" t="s">
         <v>66</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>67</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>61</v>
+      </c>
+      <c r="D14" s="37"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="15.0"/>
+    <col customWidth="1" min="3" max="5" width="26.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="38"/>
+      <c r="B3" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="38"/>
+      <c r="B4" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="38"/>
+      <c r="B5" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="38"/>
+      <c r="B6" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="38"/>
+      <c r="B7" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -209,7 +209,7 @@
     <t>Austria &amp; Sprint</t>
   </si>
   <si>
-    <t>2/7/2025</t>
+    <t>2/8/2025</t>
   </si>
   <si>
     <t>COTA &amp; Sprint</t>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="78">
   <si>
     <t>Suzuka</t>
   </si>
@@ -734,8 +734,8 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -1500,7 +1500,9 @@
         <v>18</v>
       </c>
       <c r="AM3" s="12"/>
-      <c r="AN3" s="13"/>
+      <c r="AN3" s="9">
+        <v>2.0</v>
+      </c>
       <c r="AO3" s="10"/>
       <c r="AP3" s="11">
         <f>IFERROR((VLOOKUP(AM3,Sheet2!$A:$B,2,0))+IF(AO3="y",1,0),0)</f>
@@ -1666,9 +1668,15 @@
         <f>IFERROR((VLOOKUP(AI4,Sheet2!$A:$B,2,0))+IF(AK4="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="20"/>
+      <c r="AM4" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AN4" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AO4" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AP4" s="17">
         <f>IFERROR((VLOOKUP(AM4,Sheet2!$A:$B,2,0))+IF(AO4="y",1,0),0)</f>
         <v>0</v>
@@ -1833,9 +1841,15 @@
         <f>IFERROR((VLOOKUP(AI5,Sheet2!$A:$B,2,0))+IF(AK5="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="20"/>
+      <c r="AM5" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AN5" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AO5" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AP5" s="17">
         <f>IFERROR((VLOOKUP(AM5,Sheet2!$A:$B,2,0))+IF(AO5="y",1,0),0)</f>
         <v>0</v>
@@ -2001,7 +2015,9 @@
         <v>4</v>
       </c>
       <c r="AM6" s="18"/>
-      <c r="AN6" s="19"/>
+      <c r="AN6" s="15">
+        <v>3.0</v>
+      </c>
       <c r="AO6" s="20"/>
       <c r="AP6" s="17">
         <f>IFERROR((VLOOKUP(AM6,Sheet2!$A:$B,2,0))+IF(AO6="y",1,0),0)</f>
@@ -2168,7 +2184,9 @@
         <v>12</v>
       </c>
       <c r="AM7" s="18"/>
-      <c r="AN7" s="19"/>
+      <c r="AN7" s="15">
+        <v>5.0</v>
+      </c>
       <c r="AO7" s="20"/>
       <c r="AP7" s="17">
         <f>IFERROR((VLOOKUP(AM7,Sheet2!$A:$B,2,0))+IF(AO7="y",1,0),0)</f>
@@ -2334,9 +2352,15 @@
         <f>IFERROR((VLOOKUP(AI8,Sheet2!$A:$B,2,0))+IF(AK8="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="20"/>
+      <c r="AM8" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AN8" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AO8" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AP8" s="17">
         <f>IFERROR((VLOOKUP(AM8,Sheet2!$A:$B,2,0))+IF(AO8="y",1,0),0)</f>
         <v>0</v>
@@ -2502,7 +2526,9 @@
         <v>6</v>
       </c>
       <c r="AM9" s="18"/>
-      <c r="AN9" s="19"/>
+      <c r="AN9" s="15">
+        <v>4.0</v>
+      </c>
       <c r="AO9" s="20"/>
       <c r="AP9" s="17">
         <f>IFERROR((VLOOKUP(AM9,Sheet2!$A:$B,2,0))+IF(AO9="y",1,0),0)</f>
@@ -2668,9 +2694,15 @@
         <f>IFERROR((VLOOKUP(AI10,Sheet2!$A:$B,2,0))+IF(AK10="y",1,0),0)</f>
         <v>16</v>
       </c>
-      <c r="AM10" s="18"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="20"/>
+      <c r="AM10" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AN10" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AO10" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AP10" s="17">
         <f>IFERROR((VLOOKUP(AM10,Sheet2!$A:$B,2,0))+IF(AO10="y",1,0),0)</f>
         <v>0</v>
@@ -2835,9 +2867,15 @@
         <f>IFERROR((VLOOKUP(AI11,Sheet2!$A:$B,2,0))+IF(AK11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="18"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="20"/>
+      <c r="AM11" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AN11" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AO11" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AP11" s="17">
         <f>IFERROR((VLOOKUP(AM11,Sheet2!$A:$B,2,0))+IF(AO11="y",1,0),0)</f>
         <v>0</v>
@@ -3002,9 +3040,15 @@
         <f>IFERROR((VLOOKUP(AI12,Sheet2!$A:$B,2,0))+IF(AK12="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="AM12" s="18"/>
-      <c r="AN12" s="19"/>
-      <c r="AO12" s="20"/>
+      <c r="AM12" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AN12" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AO12" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AP12" s="17">
         <f>IFERROR((VLOOKUP(AM12,Sheet2!$A:$B,2,0))+IF(AO12="y",1,0),0)</f>
         <v>0</v>
@@ -3169,9 +3213,15 @@
         <f>IFERROR((VLOOKUP(AI13,Sheet2!$A:$B,2,0))+IF(AK13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="18"/>
-      <c r="AN13" s="19"/>
-      <c r="AO13" s="20"/>
+      <c r="AM13" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="AN13" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="AO13" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AP13" s="17">
         <f>IFERROR((VLOOKUP(AM13,Sheet2!$A:$B,2,0))+IF(AO13="y",1,0),0)</f>
         <v>0</v>
@@ -3337,43 +3387,45 @@
         <v>25</v>
       </c>
       <c r="AM14" s="28"/>
-      <c r="AN14" s="29"/>
-      <c r="AO14" s="30"/>
+      <c r="AN14" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="AO14" s="29"/>
       <c r="AP14" s="26">
         <f>IFERROR((VLOOKUP(AM14,Sheet2!$A:$B,2,0))+IF(AO14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AQ14" s="28"/>
-      <c r="AR14" s="29"/>
-      <c r="AS14" s="30"/>
+      <c r="AR14" s="30"/>
+      <c r="AS14" s="29"/>
       <c r="AT14" s="26">
         <f>IFERROR((VLOOKUP(AQ14,Sheet2!$A:$B,2,0))+IF(AS14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AU14" s="28"/>
-      <c r="AV14" s="29"/>
-      <c r="AW14" s="30"/>
+      <c r="AV14" s="30"/>
+      <c r="AW14" s="29"/>
       <c r="AX14" s="26">
         <f>IFERROR((VLOOKUP(AU14,Sheet2!$D:$E,2,0))+IF(AW14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AY14" s="28"/>
-      <c r="AZ14" s="29"/>
-      <c r="BA14" s="30"/>
+      <c r="AZ14" s="30"/>
+      <c r="BA14" s="29"/>
       <c r="BB14" s="26">
         <f>IFERROR((VLOOKUP(AY14,Sheet2!$A:$B,2,0))+IF(BA14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BC14" s="28"/>
-      <c r="BD14" s="29"/>
-      <c r="BE14" s="30"/>
+      <c r="BD14" s="30"/>
+      <c r="BE14" s="29"/>
       <c r="BF14" s="26">
         <f>IFERROR((VLOOKUP(BC14,Sheet2!$D:$E,2,0))+IF(BE14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BG14" s="28"/>
-      <c r="BH14" s="29"/>
-      <c r="BI14" s="30"/>
+      <c r="BH14" s="30"/>
+      <c r="BI14" s="29"/>
       <c r="BJ14" s="26">
         <f>IFERROR((VLOOKUP(BG14,Sheet2!$A:$B,2,0))+IF(BI14="y",1,0),0)</f>
         <v>0</v>
@@ -4270,9 +4322,9 @@
         <f>Sheet1!AM3</f>
         <v/>
       </c>
-      <c r="AN2" s="34" t="str">
+      <c r="AN2" s="34">
         <f>Sheet1!AN3</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AO2" s="34" t="str">
         <f>Sheet1!AO3</f>
@@ -4519,17 +4571,17 @@
         <f>Sheet1!AL4</f>
         <v>8</v>
       </c>
-      <c r="AM3" s="34" t="str">
+      <c r="AM3" s="34">
         <f>Sheet1!AM4</f>
-        <v/>
-      </c>
-      <c r="AN3" s="34" t="str">
+        <v>22</v>
+      </c>
+      <c r="AN3" s="34">
         <f>Sheet1!AN4</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AO3" s="34" t="str">
         <f>Sheet1!AO4</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AP3" s="34">
         <f>Sheet1!AP4</f>
@@ -4772,17 +4824,17 @@
         <f>Sheet1!AL5</f>
         <v>10</v>
       </c>
-      <c r="AM4" s="34" t="str">
+      <c r="AM4" s="34">
         <f>Sheet1!AM5</f>
-        <v/>
-      </c>
-      <c r="AN4" s="34" t="str">
+        <v>22</v>
+      </c>
+      <c r="AN4" s="34">
         <f>Sheet1!AN5</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AO4" s="34" t="str">
         <f>Sheet1!AO5</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AP4" s="34">
         <f>Sheet1!AP5</f>
@@ -5029,9 +5081,9 @@
         <f>Sheet1!AM6</f>
         <v/>
       </c>
-      <c r="AN5" s="34" t="str">
+      <c r="AN5" s="34">
         <f>Sheet1!AN6</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AO5" s="34" t="str">
         <f>Sheet1!AO6</f>
@@ -5282,9 +5334,9 @@
         <f>Sheet1!AM7</f>
         <v/>
       </c>
-      <c r="AN6" s="34" t="str">
+      <c r="AN6" s="34">
         <f>Sheet1!AN7</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="AO6" s="34" t="str">
         <f>Sheet1!AO7</f>
@@ -5531,17 +5583,17 @@
         <f>Sheet1!AL8</f>
         <v>0</v>
       </c>
-      <c r="AM7" s="34" t="str">
+      <c r="AM7" s="34">
         <f>Sheet1!AM8</f>
-        <v/>
-      </c>
-      <c r="AN7" s="34" t="str">
+        <v>22</v>
+      </c>
+      <c r="AN7" s="34">
         <f>Sheet1!AN8</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AO7" s="34" t="str">
         <f>Sheet1!AO8</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AP7" s="34">
         <f>Sheet1!AP8</f>
@@ -5788,9 +5840,9 @@
         <f>Sheet1!AM9</f>
         <v/>
       </c>
-      <c r="AN8" s="34" t="str">
+      <c r="AN8" s="34">
         <f>Sheet1!AN9</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="AO8" s="34" t="str">
         <f>Sheet1!AO9</f>
@@ -6037,17 +6089,17 @@
         <f>Sheet1!AL10</f>
         <v>16</v>
       </c>
-      <c r="AM9" s="34" t="str">
+      <c r="AM9" s="34">
         <f>Sheet1!AM10</f>
-        <v/>
-      </c>
-      <c r="AN9" s="34" t="str">
+        <v>22</v>
+      </c>
+      <c r="AN9" s="34">
         <f>Sheet1!AN10</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AO9" s="34" t="str">
         <f>Sheet1!AO10</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AP9" s="34">
         <f>Sheet1!AP10</f>
@@ -6290,17 +6342,17 @@
         <f>Sheet1!AL11</f>
         <v>0</v>
       </c>
-      <c r="AM10" s="34" t="str">
+      <c r="AM10" s="34">
         <f>Sheet1!AM11</f>
-        <v/>
-      </c>
-      <c r="AN10" s="34" t="str">
+        <v>22</v>
+      </c>
+      <c r="AN10" s="34">
         <f>Sheet1!AN11</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AO10" s="34" t="str">
         <f>Sheet1!AO11</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AP10" s="34">
         <f>Sheet1!AP11</f>
@@ -6543,17 +6595,17 @@
         <f>Sheet1!AL12</f>
         <v>1</v>
       </c>
-      <c r="AM11" s="34" t="str">
+      <c r="AM11" s="34">
         <f>Sheet1!AM12</f>
-        <v/>
-      </c>
-      <c r="AN11" s="34" t="str">
+        <v>22</v>
+      </c>
+      <c r="AN11" s="34">
         <f>Sheet1!AN12</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AO11" s="34" t="str">
         <f>Sheet1!AO12</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AP11" s="34">
         <f>Sheet1!AP12</f>
@@ -6796,17 +6848,17 @@
         <f>Sheet1!AL13</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="34" t="str">
+      <c r="AM12" s="34">
         <f>Sheet1!AM13</f>
-        <v/>
-      </c>
-      <c r="AN12" s="34" t="str">
+        <v>22</v>
+      </c>
+      <c r="AN12" s="34">
         <f>Sheet1!AN13</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AO12" s="34" t="str">
         <f>Sheet1!AO13</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AP12" s="34">
         <f>Sheet1!AP13</f>
@@ -7053,9 +7105,9 @@
         <f>Sheet1!AM14</f>
         <v/>
       </c>
-      <c r="AN13" s="34" t="str">
+      <c r="AN13" s="34">
         <f>Sheet1!AN14</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AO13" s="34" t="str">
         <f>Sheet1!AO14</f>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="78">
   <si>
     <t>Suzuka</t>
   </si>
@@ -734,8 +734,8 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -1499,14 +1499,18 @@
         <f>IFERROR((VLOOKUP(AI3,Sheet2!$A:$B,2,0))+IF(AK3="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="AM3" s="12"/>
+      <c r="AM3" s="8">
+        <v>1.0</v>
+      </c>
       <c r="AN3" s="9">
         <v>2.0</v>
       </c>
-      <c r="AO3" s="10"/>
+      <c r="AO3" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="AP3" s="11">
         <f>IFERROR((VLOOKUP(AM3,Sheet2!$A:$B,2,0))+IF(AO3="y",1,0),0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AQ3" s="12"/>
       <c r="AR3" s="13"/>
@@ -2014,14 +2018,18 @@
         <f>IFERROR((VLOOKUP(AI6,Sheet2!$A:$B,2,0))+IF(AK6="y",1,0),0)</f>
         <v>4</v>
       </c>
-      <c r="AM6" s="18"/>
+      <c r="AM6" s="14">
+        <v>3.0</v>
+      </c>
       <c r="AN6" s="15">
         <v>3.0</v>
       </c>
-      <c r="AO6" s="20"/>
+      <c r="AO6" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AP6" s="17">
         <f>IFERROR((VLOOKUP(AM6,Sheet2!$A:$B,2,0))+IF(AO6="y",1,0),0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AQ6" s="18"/>
       <c r="AR6" s="19"/>
@@ -2183,14 +2191,18 @@
         <f>IFERROR((VLOOKUP(AI7,Sheet2!$A:$B,2,0))+IF(AK7="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="AM7" s="18"/>
+      <c r="AM7" s="14">
+        <v>5.0</v>
+      </c>
       <c r="AN7" s="15">
         <v>5.0</v>
       </c>
-      <c r="AO7" s="20"/>
+      <c r="AO7" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AP7" s="17">
         <f>IFERROR((VLOOKUP(AM7,Sheet2!$A:$B,2,0))+IF(AO7="y",1,0),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ7" s="18"/>
       <c r="AR7" s="19"/>
@@ -2525,14 +2537,18 @@
         <f>IFERROR((VLOOKUP(AI9,Sheet2!$A:$B,2,0))+IF(AK9="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="AM9" s="18"/>
+      <c r="AM9" s="14">
+        <v>4.0</v>
+      </c>
       <c r="AN9" s="15">
         <v>4.0</v>
       </c>
-      <c r="AO9" s="20"/>
+      <c r="AO9" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="AP9" s="17">
         <f>IFERROR((VLOOKUP(AM9,Sheet2!$A:$B,2,0))+IF(AO9="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AQ9" s="18"/>
       <c r="AR9" s="19"/>
@@ -3386,46 +3402,50 @@
         <f>IFERROR((VLOOKUP(AI14,Sheet2!$A:$B,2,0))+IF(AK14="y",1,0),0)</f>
         <v>25</v>
       </c>
-      <c r="AM14" s="28"/>
+      <c r="AM14" s="23">
+        <v>2.0</v>
+      </c>
       <c r="AN14" s="24">
         <v>1.0</v>
       </c>
-      <c r="AO14" s="29"/>
+      <c r="AO14" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="AP14" s="26">
         <f>IFERROR((VLOOKUP(AM14,Sheet2!$A:$B,2,0))+IF(AO14="y",1,0),0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AQ14" s="28"/>
-      <c r="AR14" s="30"/>
-      <c r="AS14" s="29"/>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="30"/>
       <c r="AT14" s="26">
         <f>IFERROR((VLOOKUP(AQ14,Sheet2!$A:$B,2,0))+IF(AS14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AU14" s="28"/>
-      <c r="AV14" s="30"/>
-      <c r="AW14" s="29"/>
+      <c r="AV14" s="29"/>
+      <c r="AW14" s="30"/>
       <c r="AX14" s="26">
         <f>IFERROR((VLOOKUP(AU14,Sheet2!$D:$E,2,0))+IF(AW14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AY14" s="28"/>
-      <c r="AZ14" s="30"/>
-      <c r="BA14" s="29"/>
+      <c r="AZ14" s="29"/>
+      <c r="BA14" s="30"/>
       <c r="BB14" s="26">
         <f>IFERROR((VLOOKUP(AY14,Sheet2!$A:$B,2,0))+IF(BA14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BC14" s="28"/>
-      <c r="BD14" s="30"/>
-      <c r="BE14" s="29"/>
+      <c r="BD14" s="29"/>
+      <c r="BE14" s="30"/>
       <c r="BF14" s="26">
         <f>IFERROR((VLOOKUP(BC14,Sheet2!$D:$E,2,0))+IF(BE14="y",1,0),0)</f>
         <v>0</v>
       </c>
       <c r="BG14" s="28"/>
-      <c r="BH14" s="30"/>
-      <c r="BI14" s="29"/>
+      <c r="BH14" s="29"/>
+      <c r="BI14" s="30"/>
       <c r="BJ14" s="26">
         <f>IFERROR((VLOOKUP(BG14,Sheet2!$A:$B,2,0))+IF(BI14="y",1,0),0)</f>
         <v>0</v>
@@ -4318,9 +4338,9 @@
         <f>Sheet1!AL3</f>
         <v>18</v>
       </c>
-      <c r="AM2" s="34" t="str">
+      <c r="AM2" s="34">
         <f>Sheet1!AM3</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AN2" s="34">
         <f>Sheet1!AN3</f>
@@ -4328,11 +4348,11 @@
       </c>
       <c r="AO2" s="34" t="str">
         <f>Sheet1!AO3</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AP2" s="34">
         <f>Sheet1!AP3</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AQ2" s="34" t="str">
         <f>Sheet1!AQ3</f>
@@ -5077,9 +5097,9 @@
         <f>Sheet1!AL6</f>
         <v>4</v>
       </c>
-      <c r="AM5" s="34" t="str">
+      <c r="AM5" s="34">
         <f>Sheet1!AM6</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AN5" s="34">
         <f>Sheet1!AN6</f>
@@ -5087,11 +5107,11 @@
       </c>
       <c r="AO5" s="34" t="str">
         <f>Sheet1!AO6</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AP5" s="34">
         <f>Sheet1!AP6</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AQ5" s="34" t="str">
         <f>Sheet1!AQ6</f>
@@ -5330,9 +5350,9 @@
         <f>Sheet1!AL7</f>
         <v>12</v>
       </c>
-      <c r="AM6" s="34" t="str">
+      <c r="AM6" s="34">
         <f>Sheet1!AM7</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="AN6" s="34">
         <f>Sheet1!AN7</f>
@@ -5340,11 +5360,11 @@
       </c>
       <c r="AO6" s="34" t="str">
         <f>Sheet1!AO7</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AP6" s="34">
         <f>Sheet1!AP7</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ6" s="34" t="str">
         <f>Sheet1!AQ7</f>
@@ -5836,9 +5856,9 @@
         <f>Sheet1!AL9</f>
         <v>6</v>
       </c>
-      <c r="AM8" s="34" t="str">
+      <c r="AM8" s="34">
         <f>Sheet1!AM9</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="AN8" s="34">
         <f>Sheet1!AN9</f>
@@ -5846,11 +5866,11 @@
       </c>
       <c r="AO8" s="34" t="str">
         <f>Sheet1!AO9</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AP8" s="34">
         <f>Sheet1!AP9</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AQ8" s="34" t="str">
         <f>Sheet1!AQ9</f>
@@ -7101,9 +7121,9 @@
         <f>Sheet1!AL14</f>
         <v>25</v>
       </c>
-      <c r="AM13" s="34" t="str">
+      <c r="AM13" s="34">
         <f>Sheet1!AM14</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AN13" s="34">
         <f>Sheet1!AN14</f>
@@ -7111,11 +7131,11 @@
       </c>
       <c r="AO13" s="34" t="str">
         <f>Sheet1!AO14</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="AP13" s="34">
         <f>Sheet1!AP14</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AQ13" s="34" t="str">
         <f>Sheet1!AQ14</f>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -200,10 +200,10 @@
     <t>1/29/2025</t>
   </si>
   <si>
-    <t>Upcoming</t>
+    <t>2/5/2025</t>
   </si>
   <si>
-    <t>2/5/2025</t>
+    <t>Upcoming</t>
   </si>
   <si>
     <t>Austria &amp; Sprint</t>
@@ -7888,7 +7888,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D11" s="37"/>
     </row>
@@ -7897,10 +7897,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>62</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>61</v>
       </c>
       <c r="D12" s="37"/>
     </row>
@@ -7912,7 +7912,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="37"/>
     </row>
@@ -7924,7 +7924,7 @@
         <v>66</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="37"/>
     </row>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="78">
   <si>
     <t>Suzuka</t>
   </si>
@@ -1584,12 +1584,18 @@
         <f>IFERROR((VLOOKUP(AM3,Sheet2!$A:$B,2,0))+IF(AO3="y",1,0),0)</f>
         <v>25</v>
       </c>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="10"/>
+      <c r="AQ3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AR3" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="AS3" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="AT3" s="11">
         <f>IFERROR((VLOOKUP(AQ3,Sheet2!$A:$B,2,0))+IF(AS3="y",1,0),0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AU3" s="8"/>
       <c r="AV3" s="9"/>
@@ -1757,12 +1763,18 @@
         <f>IFERROR((VLOOKUP(AM4,Sheet2!$A:$B,2,0))+IF(AO4="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="14"/>
+      <c r="AQ4" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="AS4" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AT4" s="15">
         <f>IFERROR((VLOOKUP(AQ4,Sheet2!$A:$B,2,0))+IF(AS4="y",1,0),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AU4" s="12"/>
       <c r="AV4" s="13"/>
@@ -1930,12 +1942,18 @@
         <f>IFERROR((VLOOKUP(AM5,Sheet2!$A:$B,2,0))+IF(AO5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="14"/>
+      <c r="AQ5" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="AR5" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="AS5" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="AT5" s="15">
         <f>IFERROR((VLOOKUP(AQ5,Sheet2!$A:$B,2,0))+IF(AS5="y",1,0),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU5" s="12"/>
       <c r="AV5" s="13"/>
@@ -2103,12 +2121,18 @@
         <f>IFERROR((VLOOKUP(AM6,Sheet2!$A:$B,2,0))+IF(AO6="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="14"/>
+      <c r="AQ6" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="AR6" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="AS6" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AT6" s="15">
         <f>IFERROR((VLOOKUP(AQ6,Sheet2!$A:$B,2,0))+IF(AS6="y",1,0),0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AU6" s="12"/>
       <c r="AV6" s="13"/>
@@ -2276,12 +2300,18 @@
         <f>IFERROR((VLOOKUP(AM7,Sheet2!$A:$B,2,0))+IF(AO7="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="14"/>
+      <c r="AQ7" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="AR7" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="AS7" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AT7" s="15">
         <f>IFERROR((VLOOKUP(AQ7,Sheet2!$A:$B,2,0))+IF(AS7="y",1,0),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AU7" s="12"/>
       <c r="AV7" s="13"/>
@@ -2562,12 +2592,18 @@
         <f>IFERROR((VLOOKUP(AM9,Sheet2!$A:$B,2,0))+IF(AO9="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="14"/>
+      <c r="AQ9" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="AR9" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AS9" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AT9" s="15">
         <f>IFERROR((VLOOKUP(AQ9,Sheet2!$A:$B,2,0))+IF(AS9="y",1,0),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU9" s="12"/>
       <c r="AV9" s="13"/>
@@ -2735,12 +2771,18 @@
         <f>IFERROR((VLOOKUP(AM10,Sheet2!$A:$B,2,0))+IF(AO10="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="14"/>
+      <c r="AQ10" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="AR10" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="AS10" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AT10" s="15">
         <f>IFERROR((VLOOKUP(AQ10,Sheet2!$A:$B,2,0))+IF(AS10="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AU10" s="12"/>
       <c r="AV10" s="13"/>
@@ -2908,12 +2950,18 @@
         <f>IFERROR((VLOOKUP(AM11,Sheet2!$A:$B,2,0))+IF(AO11="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="14"/>
+      <c r="AQ11" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="AR11" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="AS11" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AT11" s="15">
         <f>IFERROR((VLOOKUP(AQ11,Sheet2!$A:$B,2,0))+IF(AS11="y",1,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AU11" s="12"/>
       <c r="AV11" s="13"/>
@@ -3081,9 +3129,15 @@
         <f>IFERROR((VLOOKUP(AM12,Sheet2!$A:$B,2,0))+IF(AO12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="14"/>
+      <c r="AQ12" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="AS12" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AT12" s="15">
         <f>IFERROR((VLOOKUP(AQ12,Sheet2!$A:$B,2,0))+IF(AS12="y",1,0),0)</f>
         <v>0</v>
@@ -3254,12 +3308,18 @@
         <f>IFERROR((VLOOKUP(AM13,Sheet2!$A:$B,2,0))+IF(AO13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="14"/>
+      <c r="AQ13" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="AR13" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="AS13" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AT13" s="15">
         <f>IFERROR((VLOOKUP(AQ13,Sheet2!$A:$B,2,0))+IF(AS13="y",1,0),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU13" s="12"/>
       <c r="AV13" s="13"/>
@@ -3427,9 +3487,15 @@
         <f>IFERROR((VLOOKUP(AM14,Sheet2!$A:$B,2,0))+IF(AO14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="14"/>
+      <c r="AQ14" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="AS14" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AT14" s="15">
         <f>IFERROR((VLOOKUP(AQ14,Sheet2!$A:$B,2,0))+IF(AS14="y",1,0),0)</f>
         <v>0</v>
@@ -3540,9 +3606,15 @@
         <f>IFERROR((VLOOKUP(AM15,Sheet2!$A:$B,2,0))+IF(AO15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AQ15" s="26"/>
-      <c r="AR15" s="27"/>
-      <c r="AS15" s="28"/>
+      <c r="AQ15" s="26">
+        <v>22.0</v>
+      </c>
+      <c r="AR15" s="27">
+        <v>22.0</v>
+      </c>
+      <c r="AS15" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="AT15" s="15">
         <f>IFERROR((VLOOKUP(AQ15,Sheet2!$A:$B,2,0))+IF(AS15="y",1,0),0)</f>
         <v>0</v>
@@ -4655,21 +4727,21 @@
         <f>Sheet1!AP3</f>
         <v>25</v>
       </c>
-      <c r="AQ2" s="41" t="str">
+      <c r="AQ2" s="41">
         <f>Sheet1!AQ3</f>
-        <v/>
-      </c>
-      <c r="AR2" s="41" t="str">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="41">
         <f>Sheet1!AR3</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AS2" s="41" t="str">
         <f>Sheet1!AS3</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AT2" s="41">
         <f>Sheet1!AT3</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AU2" s="41" t="str">
         <f>Sheet1!AU3</f>
@@ -4908,21 +4980,21 @@
         <f>Sheet1!AP4</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="41" t="str">
+      <c r="AQ3" s="41">
         <f>Sheet1!AQ4</f>
-        <v/>
-      </c>
-      <c r="AR3" s="41" t="str">
+        <v>6</v>
+      </c>
+      <c r="AR3" s="41">
         <f>Sheet1!AR4</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="AS3" s="41" t="str">
         <f>Sheet1!AS4</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AT3" s="41">
         <f>Sheet1!AT4</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AU3" s="41" t="str">
         <f>Sheet1!AU4</f>
@@ -5161,21 +5233,21 @@
         <f>Sheet1!AP5</f>
         <v>0</v>
       </c>
-      <c r="AQ4" s="41" t="str">
+      <c r="AQ4" s="41">
         <f>Sheet1!AQ5</f>
-        <v/>
-      </c>
-      <c r="AR4" s="41" t="str">
+        <v>20</v>
+      </c>
+      <c r="AR4" s="41">
         <f>Sheet1!AR5</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AS4" s="41" t="str">
         <f>Sheet1!AS5</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="AT4" s="41">
         <f>Sheet1!AT5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU4" s="41" t="str">
         <f>Sheet1!AU5</f>
@@ -5414,21 +5486,21 @@
         <f>Sheet1!AP6</f>
         <v>15</v>
       </c>
-      <c r="AQ5" s="41" t="str">
+      <c r="AQ5" s="41">
         <f>Sheet1!AQ6</f>
-        <v/>
-      </c>
-      <c r="AR5" s="41" t="str">
+        <v>3</v>
+      </c>
+      <c r="AR5" s="41">
         <f>Sheet1!AR6</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AS5" s="41" t="str">
         <f>Sheet1!AS6</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AT5" s="41">
         <f>Sheet1!AT6</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AU5" s="41" t="str">
         <f>Sheet1!AU6</f>
@@ -5667,21 +5739,21 @@
         <f>Sheet1!AP7</f>
         <v>10</v>
       </c>
-      <c r="AQ6" s="41" t="str">
+      <c r="AQ6" s="41">
         <f>Sheet1!AQ7</f>
-        <v/>
-      </c>
-      <c r="AR6" s="41" t="str">
+        <v>7</v>
+      </c>
+      <c r="AR6" s="41">
         <f>Sheet1!AR7</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="AS6" s="41" t="str">
         <f>Sheet1!AS7</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AT6" s="41">
         <f>Sheet1!AT7</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AU6" s="41" t="str">
         <f>Sheet1!AU7</f>
@@ -6173,21 +6245,21 @@
         <f>Sheet1!AP9</f>
         <v>0</v>
       </c>
-      <c r="AQ8" s="41" t="str">
+      <c r="AQ8" s="41">
         <f>Sheet1!AQ9</f>
-        <v/>
-      </c>
-      <c r="AR8" s="41" t="str">
+        <v>5</v>
+      </c>
+      <c r="AR8" s="41">
         <f>Sheet1!AR9</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="AS8" s="41" t="str">
         <f>Sheet1!AS9</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AT8" s="41">
         <f>Sheet1!AT9</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU8" s="41" t="str">
         <f>Sheet1!AU9</f>
@@ -6426,21 +6498,21 @@
         <f>Sheet1!AP10</f>
         <v>12</v>
       </c>
-      <c r="AQ9" s="41" t="str">
+      <c r="AQ9" s="41">
         <f>Sheet1!AQ10</f>
-        <v/>
-      </c>
-      <c r="AR9" s="41" t="str">
+        <v>4</v>
+      </c>
+      <c r="AR9" s="41">
         <f>Sheet1!AR10</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="AS9" s="41" t="str">
         <f>Sheet1!AS10</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AT9" s="41">
         <f>Sheet1!AT10</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AU9" s="41" t="str">
         <f>Sheet1!AU10</f>
@@ -6679,21 +6751,21 @@
         <f>Sheet1!AP11</f>
         <v>0</v>
       </c>
-      <c r="AQ10" s="41" t="str">
+      <c r="AQ10" s="41">
         <f>Sheet1!AQ11</f>
-        <v/>
-      </c>
-      <c r="AR10" s="41" t="str">
+        <v>2</v>
+      </c>
+      <c r="AR10" s="41">
         <f>Sheet1!AR11</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="AS10" s="41" t="str">
         <f>Sheet1!AS11</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AT10" s="41">
         <f>Sheet1!AT11</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AU10" s="41" t="str">
         <f>Sheet1!AU11</f>
@@ -6932,17 +7004,17 @@
         <f>Sheet1!AP12</f>
         <v>0</v>
       </c>
-      <c r="AQ11" s="41" t="str">
+      <c r="AQ11" s="41">
         <f>Sheet1!AQ12</f>
-        <v/>
-      </c>
-      <c r="AR11" s="41" t="str">
+        <v>22</v>
+      </c>
+      <c r="AR11" s="41">
         <f>Sheet1!AR12</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AS11" s="41" t="str">
         <f>Sheet1!AS12</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AT11" s="41">
         <f>Sheet1!AT12</f>
@@ -7185,21 +7257,21 @@
         <f>Sheet1!AP13</f>
         <v>0</v>
       </c>
-      <c r="AQ12" s="41" t="str">
+      <c r="AQ12" s="41">
         <f>Sheet1!AQ13</f>
-        <v/>
-      </c>
-      <c r="AR12" s="41" t="str">
+        <v>10</v>
+      </c>
+      <c r="AR12" s="41">
         <f>Sheet1!AR13</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="AS12" s="41" t="str">
         <f>Sheet1!AS13</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AT12" s="41">
         <f>Sheet1!AT13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU12" s="41" t="str">
         <f>Sheet1!AU13</f>
@@ -7438,17 +7510,17 @@
         <f>Sheet1!AP14</f>
         <v>0</v>
       </c>
-      <c r="AQ13" s="41" t="str">
+      <c r="AQ13" s="41">
         <f>Sheet1!AQ14</f>
-        <v/>
-      </c>
-      <c r="AR13" s="41" t="str">
+        <v>22</v>
+      </c>
+      <c r="AR13" s="41">
         <f>Sheet1!AR14</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AS13" s="41" t="str">
         <f>Sheet1!AS14</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AT13" s="41">
         <f>Sheet1!AT14</f>
@@ -7691,17 +7763,17 @@
         <f>Sheet1!AP15</f>
         <v>0</v>
       </c>
-      <c r="AQ14" s="41" t="str">
+      <c r="AQ14" s="41">
         <f>Sheet1!AQ15</f>
-        <v/>
-      </c>
-      <c r="AR14" s="41" t="str">
+        <v>22</v>
+      </c>
+      <c r="AR14" s="41">
         <f>Sheet1!AR15</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AS14" s="41" t="str">
         <f>Sheet1!AS15</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AT14" s="41">
         <f>Sheet1!AT15</f>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -203,13 +203,13 @@
     <t>2/5/2025</t>
   </si>
   <si>
-    <t>Upcoming</t>
-  </si>
-  <si>
     <t>Austria &amp; Sprint</t>
   </si>
   <si>
     <t>2/8/2025</t>
+  </si>
+  <si>
+    <t>Upcoming</t>
   </si>
   <si>
     <t>COTA &amp; Sprint</t>
@@ -8567,19 +8567,19 @@
         <v>61</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D12" s="44"/>
     </row>
     <row r="13">
       <c r="A13" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="C13" s="42" t="s">
         <v>64</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>62</v>
       </c>
       <c r="D13" s="44"/>
     </row>
@@ -8591,7 +8591,7 @@
         <v>66</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D14" s="44"/>
     </row>
@@ -8679,7 +8679,7 @@
     <row r="6">
       <c r="A6" s="45"/>
       <c r="B6" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="58" t="s">
         <v>75</v>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="78">
   <si>
     <t>Suzuka</t>
   </si>
@@ -1597,19 +1597,31 @@
         <f>IFERROR((VLOOKUP(AQ3,Sheet2!$A:$B,2,0))+IF(AS3="y",1,0),0)</f>
         <v>25</v>
       </c>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="10"/>
+      <c r="AU3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="AW3" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="AX3" s="11">
         <f>IFERROR((VLOOKUP(AU3,Sheet2!$D:$E,2,0))+IF(AW3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="9"/>
-      <c r="BA3" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="AY3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="AZ3" s="9">
+        <v>19.0</v>
+      </c>
+      <c r="BA3" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="BB3" s="11">
         <f>IFERROR((VLOOKUP(AY3,Sheet2!$A:$B,2,0))+IF(BA3="y",1,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BC3" s="8"/>
       <c r="BD3" s="9"/>
@@ -1776,19 +1788,31 @@
         <f>IFERROR((VLOOKUP(AQ4,Sheet2!$A:$B,2,0))+IF(AS4="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="14"/>
+      <c r="AU4" s="12">
+        <v>14.0</v>
+      </c>
+      <c r="AV4" s="13">
+        <v>16.0</v>
+      </c>
+      <c r="AW4" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AX4" s="15">
         <f>IFERROR((VLOOKUP(AU4,Sheet2!$D:$E,2,0))+IF(AW4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AY4" s="12"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="AY4" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="AZ4" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="BA4" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BB4" s="15">
         <f>IFERROR((VLOOKUP(AY4,Sheet2!$A:$B,2,0))+IF(BA4="y",1,0),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BC4" s="12"/>
       <c r="BD4" s="13"/>
@@ -1955,16 +1979,28 @@
         <f>IFERROR((VLOOKUP(AQ5,Sheet2!$A:$B,2,0))+IF(AS5="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="14"/>
+      <c r="AU5" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="AV5" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="AW5" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AX5" s="15">
         <f>IFERROR((VLOOKUP(AU5,Sheet2!$D:$E,2,0))+IF(AW5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AY5" s="12"/>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="14"/>
+        <v>3</v>
+      </c>
+      <c r="AY5" s="12">
+        <v>21.0</v>
+      </c>
+      <c r="AZ5" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="BA5" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BB5" s="15">
         <f>IFERROR((VLOOKUP(AY5,Sheet2!$A:$B,2,0))+IF(BA5="y",1,0),0)</f>
         <v>0</v>
@@ -2134,19 +2170,31 @@
         <f>IFERROR((VLOOKUP(AQ6,Sheet2!$A:$B,2,0))+IF(AS6="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="14"/>
+      <c r="AU6" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="AV6" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="AW6" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AX6" s="15">
         <f>IFERROR((VLOOKUP(AU6,Sheet2!$D:$E,2,0))+IF(AW6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="AY6" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="AZ6" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="BA6" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BB6" s="15">
         <f>IFERROR((VLOOKUP(AY6,Sheet2!$A:$B,2,0))+IF(BA6="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BC6" s="12"/>
       <c r="BD6" s="13"/>
@@ -2313,19 +2361,31 @@
         <f>IFERROR((VLOOKUP(AQ7,Sheet2!$A:$B,2,0))+IF(AS7="y",1,0),0)</f>
         <v>6</v>
       </c>
-      <c r="AU7" s="12"/>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="14"/>
+      <c r="AU7" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="AV7" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AW7" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AX7" s="15">
         <f>IFERROR((VLOOKUP(AU7,Sheet2!$D:$E,2,0))+IF(AW7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AY7" s="12"/>
-      <c r="AZ7" s="13"/>
-      <c r="BA7" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="AY7" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="AZ7" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="BA7" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BB7" s="15">
         <f>IFERROR((VLOOKUP(AY7,Sheet2!$A:$B,2,0))+IF(BA7="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="12"/>
       <c r="BD7" s="13"/>
@@ -2605,19 +2665,31 @@
         <f>IFERROR((VLOOKUP(AQ9,Sheet2!$A:$B,2,0))+IF(AS9="y",1,0),0)</f>
         <v>10</v>
       </c>
-      <c r="AU9" s="12"/>
-      <c r="AV9" s="13"/>
-      <c r="AW9" s="14"/>
+      <c r="AU9" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="AV9" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="AW9" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AX9" s="15">
         <f>IFERROR((VLOOKUP(AU9,Sheet2!$D:$E,2,0))+IF(AW9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AY9" s="12"/>
-      <c r="AZ9" s="13"/>
-      <c r="BA9" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="AY9" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="AZ9" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="BA9" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BB9" s="15">
         <f>IFERROR((VLOOKUP(AY9,Sheet2!$A:$B,2,0))+IF(BA9="y",1,0),0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BC9" s="12"/>
       <c r="BD9" s="13"/>
@@ -2784,16 +2856,28 @@
         <f>IFERROR((VLOOKUP(AQ10,Sheet2!$A:$B,2,0))+IF(AS10="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="AU10" s="12"/>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="14"/>
+      <c r="AU10" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="AV10" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="AW10" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AX10" s="15">
         <f>IFERROR((VLOOKUP(AU10,Sheet2!$D:$E,2,0))+IF(AW10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AY10" s="12"/>
-      <c r="AZ10" s="13"/>
-      <c r="BA10" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="AY10" s="12">
+        <v>21.0</v>
+      </c>
+      <c r="AZ10" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="BA10" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BB10" s="15">
         <f>IFERROR((VLOOKUP(AY10,Sheet2!$A:$B,2,0))+IF(BA10="y",1,0),0)</f>
         <v>0</v>
@@ -2963,19 +3047,31 @@
         <f>IFERROR((VLOOKUP(AQ11,Sheet2!$A:$B,2,0))+IF(AS11="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="AU11" s="12"/>
-      <c r="AV11" s="13"/>
-      <c r="AW11" s="14"/>
+      <c r="AU11" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="AV11" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="AW11" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="AX11" s="15">
         <f>IFERROR((VLOOKUP(AU11,Sheet2!$D:$E,2,0))+IF(AW11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AY11" s="12"/>
-      <c r="AZ11" s="13"/>
-      <c r="BA11" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="AY11" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="AZ11" s="13">
+        <v>16.0</v>
+      </c>
+      <c r="BA11" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="BB11" s="15">
         <f>IFERROR((VLOOKUP(AY11,Sheet2!$A:$B,2,0))+IF(BA11="y",1,0),0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BC11" s="12"/>
       <c r="BD11" s="13"/>
@@ -3142,16 +3238,28 @@
         <f>IFERROR((VLOOKUP(AQ12,Sheet2!$A:$B,2,0))+IF(AS12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AU12" s="12"/>
-      <c r="AV12" s="13"/>
-      <c r="AW12" s="14"/>
+      <c r="AU12" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="AW12" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AX12" s="15">
         <f>IFERROR((VLOOKUP(AU12,Sheet2!$D:$E,2,0))+IF(AW12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AY12" s="12"/>
-      <c r="AZ12" s="13"/>
-      <c r="BA12" s="14"/>
+      <c r="AY12" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="AZ12" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="BA12" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BB12" s="15">
         <f>IFERROR((VLOOKUP(AY12,Sheet2!$A:$B,2,0))+IF(BA12="y",1,0),0)</f>
         <v>0</v>
@@ -3321,16 +3429,28 @@
         <f>IFERROR((VLOOKUP(AQ13,Sheet2!$A:$B,2,0))+IF(AS13="y",1,0),0)</f>
         <v>2</v>
       </c>
-      <c r="AU13" s="12"/>
-      <c r="AV13" s="13"/>
-      <c r="AW13" s="14"/>
+      <c r="AU13" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="AV13" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="AW13" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AX13" s="15">
         <f>IFERROR((VLOOKUP(AU13,Sheet2!$D:$E,2,0))+IF(AW13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AY13" s="12"/>
-      <c r="AZ13" s="13"/>
-      <c r="BA13" s="14"/>
+      <c r="AY13" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="AZ13" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="BA13" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BB13" s="15">
         <f>IFERROR((VLOOKUP(AY13,Sheet2!$A:$B,2,0))+IF(BA13="y",1,0),0)</f>
         <v>0</v>
@@ -3500,16 +3620,28 @@
         <f>IFERROR((VLOOKUP(AQ14,Sheet2!$A:$B,2,0))+IF(AS14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AU14" s="12"/>
-      <c r="AV14" s="13"/>
-      <c r="AW14" s="14"/>
+      <c r="AU14" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="AW14" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="AX14" s="15">
         <f>IFERROR((VLOOKUP(AU14,Sheet2!$D:$E,2,0))+IF(AW14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="12"/>
-      <c r="AZ14" s="13"/>
-      <c r="BA14" s="14"/>
+      <c r="AY14" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="AZ14" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="BA14" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BB14" s="15">
         <f>IFERROR((VLOOKUP(AY14,Sheet2!$A:$B,2,0))+IF(BA14="y",1,0),0)</f>
         <v>0</v>
@@ -3619,16 +3751,28 @@
         <f>IFERROR((VLOOKUP(AQ15,Sheet2!$A:$B,2,0))+IF(AS15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AU15" s="26"/>
-      <c r="AV15" s="27"/>
-      <c r="AW15" s="28"/>
+      <c r="AU15" s="26">
+        <v>22.0</v>
+      </c>
+      <c r="AV15" s="27">
+        <v>22.0</v>
+      </c>
+      <c r="AW15" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="AX15" s="15">
         <f>IFERROR((VLOOKUP(AU15,Sheet2!$D:$E,2,0))+IF(AW15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AY15" s="12"/>
-      <c r="AZ15" s="13"/>
-      <c r="BA15" s="14"/>
+      <c r="AY15" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="AZ15" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="BA15" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BB15" s="15">
         <f>IFERROR((VLOOKUP(AY15,Sheet2!$A:$B,2,0))+IF(BA15="y",1,0),0)</f>
         <v>0</v>
@@ -4743,37 +4887,37 @@
         <f>Sheet1!AT3</f>
         <v>25</v>
       </c>
-      <c r="AU2" s="41" t="str">
+      <c r="AU2" s="41">
         <f>Sheet1!AU3</f>
-        <v/>
-      </c>
-      <c r="AV2" s="41" t="str">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="41">
         <f>Sheet1!AV3</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AW2" s="41" t="str">
         <f>Sheet1!AW3</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AX2" s="41">
         <f>Sheet1!AX3</f>
-        <v>0</v>
-      </c>
-      <c r="AY2" s="41" t="str">
+        <v>7</v>
+      </c>
+      <c r="AY2" s="41">
         <f>Sheet1!AY3</f>
-        <v/>
-      </c>
-      <c r="AZ2" s="41" t="str">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="41">
         <f>Sheet1!AZ3</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="BA2" s="41" t="str">
         <f>Sheet1!BA3</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BB2" s="41">
         <f>Sheet1!BB3</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BC2" s="41" t="str">
         <f>Sheet1!BC3</f>
@@ -4996,37 +5140,37 @@
         <f>Sheet1!AT4</f>
         <v>8</v>
       </c>
-      <c r="AU3" s="41" t="str">
+      <c r="AU3" s="41">
         <f>Sheet1!AU4</f>
-        <v/>
-      </c>
-      <c r="AV3" s="41" t="str">
+        <v>14</v>
+      </c>
+      <c r="AV3" s="41">
         <f>Sheet1!AV4</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="AW3" s="41" t="str">
         <f>Sheet1!AW4</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AX3" s="41">
         <f>Sheet1!AX4</f>
-        <v>0</v>
-      </c>
-      <c r="AY3" s="41" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="AY3" s="41">
         <f>Sheet1!AY4</f>
-        <v/>
-      </c>
-      <c r="AZ3" s="41" t="str">
+        <v>6</v>
+      </c>
+      <c r="AZ3" s="41">
         <f>Sheet1!AZ4</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="BA3" s="41" t="str">
         <f>Sheet1!BA4</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BB3" s="41">
         <f>Sheet1!BB4</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BC3" s="41" t="str">
         <f>Sheet1!BC4</f>
@@ -5249,33 +5393,33 @@
         <f>Sheet1!AT5</f>
         <v>2</v>
       </c>
-      <c r="AU4" s="41" t="str">
+      <c r="AU4" s="41">
         <f>Sheet1!AU5</f>
-        <v/>
-      </c>
-      <c r="AV4" s="41" t="str">
+        <v>6</v>
+      </c>
+      <c r="AV4" s="41">
         <f>Sheet1!AV5</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="AW4" s="41" t="str">
         <f>Sheet1!AW5</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AX4" s="41">
         <f>Sheet1!AX5</f>
-        <v>0</v>
-      </c>
-      <c r="AY4" s="41" t="str">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="41">
         <f>Sheet1!AY5</f>
-        <v/>
-      </c>
-      <c r="AZ4" s="41" t="str">
+        <v>21</v>
+      </c>
+      <c r="AZ4" s="41">
         <f>Sheet1!AZ5</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="BA4" s="41" t="str">
         <f>Sheet1!BA5</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BB4" s="41">
         <f>Sheet1!BB5</f>
@@ -5502,37 +5646,37 @@
         <f>Sheet1!AT6</f>
         <v>15</v>
       </c>
-      <c r="AU5" s="41" t="str">
+      <c r="AU5" s="41">
         <f>Sheet1!AU6</f>
-        <v/>
-      </c>
-      <c r="AV5" s="41" t="str">
+        <v>7</v>
+      </c>
+      <c r="AV5" s="41">
         <f>Sheet1!AV6</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="AW5" s="41" t="str">
         <f>Sheet1!AW6</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AX5" s="41">
         <f>Sheet1!AX6</f>
-        <v>0</v>
-      </c>
-      <c r="AY5" s="41" t="str">
+        <v>2</v>
+      </c>
+      <c r="AY5" s="41">
         <f>Sheet1!AY6</f>
-        <v/>
-      </c>
-      <c r="AZ5" s="41" t="str">
+        <v>4</v>
+      </c>
+      <c r="AZ5" s="41">
         <f>Sheet1!AZ6</f>
-        <v/>
+        <v>14</v>
       </c>
       <c r="BA5" s="41" t="str">
         <f>Sheet1!BA6</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BB5" s="41">
         <f>Sheet1!BB6</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BC5" s="41" t="str">
         <f>Sheet1!BC6</f>
@@ -5755,37 +5899,37 @@
         <f>Sheet1!AT7</f>
         <v>6</v>
       </c>
-      <c r="AU6" s="41" t="str">
+      <c r="AU6" s="41">
         <f>Sheet1!AU7</f>
-        <v/>
-      </c>
-      <c r="AV6" s="41" t="str">
+        <v>3</v>
+      </c>
+      <c r="AV6" s="41">
         <f>Sheet1!AV7</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="AW6" s="41" t="str">
         <f>Sheet1!AW7</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AX6" s="41">
         <f>Sheet1!AX7</f>
-        <v>0</v>
-      </c>
-      <c r="AY6" s="41" t="str">
+        <v>6</v>
+      </c>
+      <c r="AY6" s="41">
         <f>Sheet1!AY7</f>
-        <v/>
-      </c>
-      <c r="AZ6" s="41" t="str">
+        <v>16</v>
+      </c>
+      <c r="AZ6" s="41">
         <f>Sheet1!AZ7</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="BA6" s="41" t="str">
         <f>Sheet1!BA7</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BB6" s="41">
         <f>Sheet1!BB7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="41" t="str">
         <f>Sheet1!BC7</f>
@@ -6261,37 +6405,37 @@
         <f>Sheet1!AT9</f>
         <v>10</v>
       </c>
-      <c r="AU8" s="41" t="str">
+      <c r="AU8" s="41">
         <f>Sheet1!AU9</f>
-        <v/>
-      </c>
-      <c r="AV8" s="41" t="str">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="41">
         <f>Sheet1!AV9</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AW8" s="41" t="str">
         <f>Sheet1!AW9</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AX8" s="41">
         <f>Sheet1!AX9</f>
-        <v>0</v>
-      </c>
-      <c r="AY8" s="41" t="str">
+        <v>8</v>
+      </c>
+      <c r="AY8" s="41">
         <f>Sheet1!AY9</f>
-        <v/>
-      </c>
-      <c r="AZ8" s="41" t="str">
+        <v>3</v>
+      </c>
+      <c r="AZ8" s="41">
         <f>Sheet1!AZ9</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="BA8" s="41" t="str">
         <f>Sheet1!BA9</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BB8" s="41">
         <f>Sheet1!BB9</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BC8" s="41" t="str">
         <f>Sheet1!BC9</f>
@@ -6514,33 +6658,33 @@
         <f>Sheet1!AT10</f>
         <v>12</v>
       </c>
-      <c r="AU9" s="41" t="str">
+      <c r="AU9" s="41">
         <f>Sheet1!AU10</f>
-        <v/>
-      </c>
-      <c r="AV9" s="41" t="str">
+        <v>4</v>
+      </c>
+      <c r="AV9" s="41">
         <f>Sheet1!AV10</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AW9" s="41" t="str">
         <f>Sheet1!AW10</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AX9" s="41">
         <f>Sheet1!AX10</f>
-        <v>0</v>
-      </c>
-      <c r="AY9" s="41" t="str">
+        <v>5</v>
+      </c>
+      <c r="AY9" s="41">
         <f>Sheet1!AY10</f>
-        <v/>
-      </c>
-      <c r="AZ9" s="41" t="str">
+        <v>21</v>
+      </c>
+      <c r="AZ9" s="41">
         <f>Sheet1!AZ10</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="BA9" s="41" t="str">
         <f>Sheet1!BA10</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BB9" s="41">
         <f>Sheet1!BB10</f>
@@ -6767,37 +6911,37 @@
         <f>Sheet1!AT11</f>
         <v>18</v>
       </c>
-      <c r="AU10" s="41" t="str">
+      <c r="AU10" s="41">
         <f>Sheet1!AU11</f>
-        <v/>
-      </c>
-      <c r="AV10" s="41" t="str">
+        <v>5</v>
+      </c>
+      <c r="AV10" s="41">
         <f>Sheet1!AV11</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="AW10" s="41" t="str">
         <f>Sheet1!AW11</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="AX10" s="41">
         <f>Sheet1!AX11</f>
-        <v>0</v>
-      </c>
-      <c r="AY10" s="41" t="str">
+        <v>5</v>
+      </c>
+      <c r="AY10" s="41">
         <f>Sheet1!AY11</f>
-        <v/>
-      </c>
-      <c r="AZ10" s="41" t="str">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="41">
         <f>Sheet1!AZ11</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="BA10" s="41" t="str">
         <f>Sheet1!BA11</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="BB10" s="41">
         <f>Sheet1!BB11</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BC10" s="41" t="str">
         <f>Sheet1!BC11</f>
@@ -7020,33 +7164,33 @@
         <f>Sheet1!AT12</f>
         <v>0</v>
       </c>
-      <c r="AU11" s="41" t="str">
+      <c r="AU11" s="41">
         <f>Sheet1!AU12</f>
-        <v/>
-      </c>
-      <c r="AV11" s="41" t="str">
+        <v>22</v>
+      </c>
+      <c r="AV11" s="41">
         <f>Sheet1!AV12</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AW11" s="41" t="str">
         <f>Sheet1!AW12</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AX11" s="41">
         <f>Sheet1!AX12</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="41" t="str">
+      <c r="AY11" s="41">
         <f>Sheet1!AY12</f>
-        <v/>
-      </c>
-      <c r="AZ11" s="41" t="str">
+        <v>22</v>
+      </c>
+      <c r="AZ11" s="41">
         <f>Sheet1!AZ12</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="BA11" s="41" t="str">
         <f>Sheet1!BA12</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BB11" s="41">
         <f>Sheet1!BB12</f>
@@ -7273,33 +7417,33 @@
         <f>Sheet1!AT13</f>
         <v>2</v>
       </c>
-      <c r="AU12" s="41" t="str">
+      <c r="AU12" s="41">
         <f>Sheet1!AU13</f>
-        <v/>
-      </c>
-      <c r="AV12" s="41" t="str">
+        <v>22</v>
+      </c>
+      <c r="AV12" s="41">
         <f>Sheet1!AV13</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AW12" s="41" t="str">
         <f>Sheet1!AW13</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AX12" s="41">
         <f>Sheet1!AX13</f>
         <v>0</v>
       </c>
-      <c r="AY12" s="41" t="str">
+      <c r="AY12" s="41">
         <f>Sheet1!AY13</f>
-        <v/>
-      </c>
-      <c r="AZ12" s="41" t="str">
+        <v>22</v>
+      </c>
+      <c r="AZ12" s="41">
         <f>Sheet1!AZ13</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="BA12" s="41" t="str">
         <f>Sheet1!BA13</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BB12" s="41">
         <f>Sheet1!BB13</f>
@@ -7526,33 +7670,33 @@
         <f>Sheet1!AT14</f>
         <v>0</v>
       </c>
-      <c r="AU13" s="41" t="str">
+      <c r="AU13" s="41">
         <f>Sheet1!AU14</f>
-        <v/>
-      </c>
-      <c r="AV13" s="41" t="str">
+        <v>22</v>
+      </c>
+      <c r="AV13" s="41">
         <f>Sheet1!AV14</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AW13" s="41" t="str">
         <f>Sheet1!AW14</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AX13" s="41">
         <f>Sheet1!AX14</f>
         <v>0</v>
       </c>
-      <c r="AY13" s="41" t="str">
+      <c r="AY13" s="41">
         <f>Sheet1!AY14</f>
-        <v/>
-      </c>
-      <c r="AZ13" s="41" t="str">
+        <v>22</v>
+      </c>
+      <c r="AZ13" s="41">
         <f>Sheet1!AZ14</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="BA13" s="41" t="str">
         <f>Sheet1!BA14</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BB13" s="41">
         <f>Sheet1!BB14</f>
@@ -7779,33 +7923,33 @@
         <f>Sheet1!AT15</f>
         <v>0</v>
       </c>
-      <c r="AU14" s="41" t="str">
+      <c r="AU14" s="41">
         <f>Sheet1!AU15</f>
-        <v/>
-      </c>
-      <c r="AV14" s="41" t="str">
+        <v>22</v>
+      </c>
+      <c r="AV14" s="41">
         <f>Sheet1!AV15</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AW14" s="41" t="str">
         <f>Sheet1!AW15</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="AX14" s="41">
         <f>Sheet1!AX15</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="41" t="str">
+      <c r="AY14" s="41">
         <f>Sheet1!AY15</f>
-        <v/>
-      </c>
-      <c r="AZ14" s="41" t="str">
+        <v>22</v>
+      </c>
+      <c r="AZ14" s="41">
         <f>Sheet1!AZ15</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="BA14" s="41" t="str">
         <f>Sheet1!BA15</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BB14" s="41">
         <f>Sheet1!BB15</f>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -209,13 +209,13 @@
     <t>2/8/2025</t>
   </si>
   <si>
-    <t>Upcoming</t>
-  </si>
-  <si>
     <t>COTA &amp; Sprint</t>
   </si>
   <si>
     <t>2/12/2025</t>
+  </si>
+  <si>
+    <t>Upcoming</t>
   </si>
   <si>
     <t>The Double</t>
@@ -8723,19 +8723,19 @@
         <v>63</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D13" s="44"/>
     </row>
     <row r="14">
       <c r="A14" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="C14" s="42" t="s">
         <v>66</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>64</v>
       </c>
       <c r="D14" s="44"/>
     </row>
@@ -8838,7 +8838,7 @@
     <row r="7">
       <c r="A7" s="45"/>
       <c r="B7" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="62" t="s">
         <v>77</v>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="77">
   <si>
     <t>Suzuka</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>2/12/2025</t>
-  </si>
-  <si>
-    <t>Upcoming</t>
   </si>
   <si>
     <t>The Double</t>
@@ -1623,19 +1620,34 @@
         <f>IFERROR((VLOOKUP(AY3,Sheet2!$A:$B,2,0))+IF(BA3="y",1,0),0)</f>
         <v>18</v>
       </c>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="9"/>
-      <c r="BE3" s="10"/>
+      <c r="BC3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="BD3" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="BE3" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="BF3" s="11">
         <f>IFERROR((VLOOKUP(BC3,Sheet2!$D:$E,2,0))+IF(BE3="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="9"/>
-      <c r="BI3" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="BG3" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="BH3" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="BI3" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="BJ3" s="11">
         <f>IFERROR((VLOOKUP(BG3,Sheet2!$A:$B,2,0))+IF(BI3="y",1,0),0)</f>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="BK3" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1814,19 +1826,31 @@
         <f>IFERROR((VLOOKUP(AY4,Sheet2!$A:$B,2,0))+IF(BA4="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="BC4" s="12"/>
-      <c r="BD4" s="13"/>
-      <c r="BE4" s="14"/>
+      <c r="BC4" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="BD4" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="BE4" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BF4" s="15">
         <f>IFERROR((VLOOKUP(BC4,Sheet2!$D:$E,2,0))+IF(BE4="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BG4" s="12"/>
-      <c r="BH4" s="13"/>
-      <c r="BI4" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="BG4" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="BH4" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="BI4" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BJ4" s="15">
         <f>IFERROR((VLOOKUP(BG4,Sheet2!$A:$B,2,0))+IF(BI4="y",1,0),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2005,19 +2029,34 @@
         <f>IFERROR((VLOOKUP(AY5,Sheet2!$A:$B,2,0))+IF(BA5="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="13"/>
-      <c r="BE5" s="14"/>
+      <c r="BC5" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="BD5" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="BE5" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BF5" s="15">
         <f>IFERROR((VLOOKUP(BC5,Sheet2!$D:$E,2,0))+IF(BE5="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BG5" s="12"/>
-      <c r="BH5" s="13"/>
-      <c r="BI5" s="14"/>
+        <v>3</v>
+      </c>
+      <c r="BG5" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="BH5" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="BI5" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BJ5" s="15">
         <f>IFERROR((VLOOKUP(BG5,Sheet2!$A:$B,2,0))+IF(BI5="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="BK5" s="4">
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -2196,16 +2235,28 @@
         <f>IFERROR((VLOOKUP(AY6,Sheet2!$A:$B,2,0))+IF(BA6="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="BC6" s="12"/>
-      <c r="BD6" s="13"/>
-      <c r="BE6" s="14"/>
+      <c r="BC6" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="BD6" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="BE6" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BF6" s="15">
         <f>IFERROR((VLOOKUP(BC6,Sheet2!$D:$E,2,0))+IF(BE6="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BG6" s="12"/>
-      <c r="BH6" s="13"/>
-      <c r="BI6" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="BG6" s="12">
+        <v>21.0</v>
+      </c>
+      <c r="BH6" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="BI6" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BJ6" s="15">
         <f>IFERROR((VLOOKUP(BG6,Sheet2!$A:$B,2,0))+IF(BI6="y",1,0),0)</f>
         <v>0</v>
@@ -2387,19 +2438,34 @@
         <f>IFERROR((VLOOKUP(AY7,Sheet2!$A:$B,2,0))+IF(BA7="y",1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="BC7" s="12"/>
-      <c r="BD7" s="13"/>
-      <c r="BE7" s="14"/>
+      <c r="BC7" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="BD7" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="BE7" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BF7" s="15">
         <f>IFERROR((VLOOKUP(BC7,Sheet2!$D:$E,2,0))+IF(BE7="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BG7" s="12"/>
-      <c r="BH7" s="13"/>
-      <c r="BI7" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="BG7" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="BH7" s="13">
+        <v>16.0</v>
+      </c>
+      <c r="BI7" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BJ7" s="15">
         <f>IFERROR((VLOOKUP(BG7,Sheet2!$A:$B,2,0))+IF(BI7="y",1,0),0)</f>
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="BK7" s="4">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -2691,19 +2757,34 @@
         <f>IFERROR((VLOOKUP(AY9,Sheet2!$A:$B,2,0))+IF(BA9="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="BC9" s="12"/>
-      <c r="BD9" s="13"/>
-      <c r="BE9" s="14"/>
+      <c r="BC9" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="BD9" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="BE9" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BF9" s="15">
         <f>IFERROR((VLOOKUP(BC9,Sheet2!$D:$E,2,0))+IF(BE9="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BG9" s="12"/>
-      <c r="BH9" s="13"/>
-      <c r="BI9" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="BG9" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="BH9" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="BI9" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BJ9" s="15">
         <f>IFERROR((VLOOKUP(BG9,Sheet2!$A:$B,2,0))+IF(BI9="y",1,0),0)</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="BK9" s="4">
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -2882,19 +2963,34 @@
         <f>IFERROR((VLOOKUP(AY10,Sheet2!$A:$B,2,0))+IF(BA10="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC10" s="12"/>
-      <c r="BD10" s="13"/>
-      <c r="BE10" s="14"/>
+      <c r="BC10" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="BD10" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="BE10" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BF10" s="15">
         <f>IFERROR((VLOOKUP(BC10,Sheet2!$D:$E,2,0))+IF(BE10="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BG10" s="12"/>
-      <c r="BH10" s="13"/>
-      <c r="BI10" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="BG10" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="BH10" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="BI10" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BJ10" s="15">
         <f>IFERROR((VLOOKUP(BG10,Sheet2!$A:$B,2,0))+IF(BI10="y",1,0),0)</f>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="BK10" s="4">
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
@@ -3073,19 +3169,31 @@
         <f>IFERROR((VLOOKUP(AY11,Sheet2!$A:$B,2,0))+IF(BA11="y",1,0),0)</f>
         <v>26</v>
       </c>
-      <c r="BC11" s="12"/>
-      <c r="BD11" s="13"/>
-      <c r="BE11" s="14"/>
+      <c r="BC11" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="BD11" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="BE11" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="BF11" s="15">
         <f>IFERROR((VLOOKUP(BC11,Sheet2!$D:$E,2,0))+IF(BE11="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BG11" s="12"/>
-      <c r="BH11" s="13"/>
-      <c r="BI11" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="BG11" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="BH11" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="BI11" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="BJ11" s="15">
         <f>IFERROR((VLOOKUP(BG11,Sheet2!$A:$B,2,0))+IF(BI11="y",1,0),0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -3264,16 +3372,28 @@
         <f>IFERROR((VLOOKUP(AY12,Sheet2!$A:$B,2,0))+IF(BA12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC12" s="12"/>
-      <c r="BD12" s="13"/>
-      <c r="BE12" s="14"/>
+      <c r="BC12" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="BD12" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="BE12" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BF12" s="15">
         <f>IFERROR((VLOOKUP(BC12,Sheet2!$D:$E,2,0))+IF(BE12="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BG12" s="12"/>
-      <c r="BH12" s="13"/>
-      <c r="BI12" s="14"/>
+      <c r="BG12" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="BH12" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="BI12" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BJ12" s="15">
         <f>IFERROR((VLOOKUP(BG12,Sheet2!$A:$B,2,0))+IF(BI12="y",1,0),0)</f>
         <v>0</v>
@@ -3455,19 +3575,31 @@
         <f>IFERROR((VLOOKUP(AY13,Sheet2!$A:$B,2,0))+IF(BA13="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC13" s="12"/>
-      <c r="BD13" s="13"/>
-      <c r="BE13" s="14"/>
+      <c r="BC13" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="BD13" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="BE13" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BF13" s="15">
         <f>IFERROR((VLOOKUP(BC13,Sheet2!$D:$E,2,0))+IF(BE13="y",1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BG13" s="12"/>
-      <c r="BH13" s="13"/>
-      <c r="BI13" s="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="BG13" s="12">
+        <v>18.0</v>
+      </c>
+      <c r="BH13" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="BI13" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BJ13" s="15">
         <f>IFERROR((VLOOKUP(BG13,Sheet2!$A:$B,2,0))+IF(BI13="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -3646,16 +3778,28 @@
         <f>IFERROR((VLOOKUP(AY14,Sheet2!$A:$B,2,0))+IF(BA14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC14" s="12"/>
-      <c r="BD14" s="13"/>
-      <c r="BE14" s="14"/>
+      <c r="BC14" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="BD14" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="BE14" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BF14" s="15">
         <f>IFERROR((VLOOKUP(BC14,Sheet2!$D:$E,2,0))+IF(BE14="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BG14" s="12"/>
-      <c r="BH14" s="13"/>
-      <c r="BI14" s="14"/>
+      <c r="BG14" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="BH14" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="BI14" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BJ14" s="15">
         <f>IFERROR((VLOOKUP(BG14,Sheet2!$A:$B,2,0))+IF(BI14="y",1,0),0)</f>
         <v>0</v>
@@ -3777,16 +3921,28 @@
         <f>IFERROR((VLOOKUP(AY15,Sheet2!$A:$B,2,0))+IF(BA15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BC15" s="12"/>
-      <c r="BD15" s="13"/>
-      <c r="BE15" s="14"/>
+      <c r="BC15" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="BD15" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="BE15" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BF15" s="15">
         <f>IFERROR((VLOOKUP(BC15,Sheet2!$D:$E,2,0))+IF(BE15="y",1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="BG15" s="12"/>
-      <c r="BH15" s="13"/>
-      <c r="BI15" s="14"/>
+      <c r="BG15" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="BH15" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="BI15" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="BJ15" s="15">
         <f>IFERROR((VLOOKUP(BG15,Sheet2!$A:$B,2,0))+IF(BI15="y",1,0),0)</f>
         <v>0</v>
@@ -4919,37 +5075,37 @@
         <f>Sheet1!BB3</f>
         <v>18</v>
       </c>
-      <c r="BC2" s="41" t="str">
+      <c r="BC2" s="41">
         <f>Sheet1!BC3</f>
-        <v/>
-      </c>
-      <c r="BD2" s="41" t="str">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="41">
         <f>Sheet1!BD3</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="BE2" s="41" t="str">
         <f>Sheet1!BE3</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BF2" s="41">
         <f>Sheet1!BF3</f>
-        <v>0</v>
-      </c>
-      <c r="BG2" s="41" t="str">
+        <v>8</v>
+      </c>
+      <c r="BG2" s="41">
         <f>Sheet1!BG3</f>
-        <v/>
-      </c>
-      <c r="BH2" s="41" t="str">
+        <v>6</v>
+      </c>
+      <c r="BH2" s="41">
         <f>Sheet1!BH3</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="BI2" s="41" t="str">
         <f>Sheet1!BI3</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BJ2" s="41">
         <f>Sheet1!BJ3</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BK2" s="4">
         <v>0.0</v>
@@ -5172,37 +5328,37 @@
         <f>Sheet1!BB4</f>
         <v>8</v>
       </c>
-      <c r="BC3" s="41" t="str">
+      <c r="BC3" s="41">
         <f>Sheet1!BC4</f>
-        <v/>
-      </c>
-      <c r="BD3" s="41" t="str">
+        <v>7</v>
+      </c>
+      <c r="BD3" s="41">
         <f>Sheet1!BD4</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="BE3" s="41" t="str">
         <f>Sheet1!BE4</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BF3" s="41">
         <f>Sheet1!BF4</f>
-        <v>0</v>
-      </c>
-      <c r="BG3" s="41" t="str">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="41">
         <f>Sheet1!BG4</f>
-        <v/>
-      </c>
-      <c r="BH3" s="41" t="str">
+        <v>7</v>
+      </c>
+      <c r="BH3" s="41">
         <f>Sheet1!BH4</f>
-        <v/>
+        <v>14</v>
       </c>
       <c r="BI3" s="41" t="str">
         <f>Sheet1!BI4</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BJ3" s="41">
         <f>Sheet1!BJ4</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BK3" s="4">
         <v>0.0</v>
@@ -5425,37 +5581,37 @@
         <f>Sheet1!BB5</f>
         <v>0</v>
       </c>
-      <c r="BC4" s="41" t="str">
+      <c r="BC4" s="41">
         <f>Sheet1!BC5</f>
-        <v/>
-      </c>
-      <c r="BD4" s="41" t="str">
+        <v>6</v>
+      </c>
+      <c r="BD4" s="41">
         <f>Sheet1!BD5</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="BE4" s="41" t="str">
         <f>Sheet1!BE5</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BF4" s="41">
         <f>Sheet1!BF5</f>
-        <v>0</v>
-      </c>
-      <c r="BG4" s="41" t="str">
+        <v>3</v>
+      </c>
+      <c r="BG4" s="41">
         <f>Sheet1!BG5</f>
-        <v/>
-      </c>
-      <c r="BH4" s="41" t="str">
+        <v>4</v>
+      </c>
+      <c r="BH4" s="41">
         <f>Sheet1!BH5</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="BI4" s="41" t="str">
         <f>Sheet1!BI5</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BJ4" s="41">
         <f>Sheet1!BJ5</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BK4" s="4">
         <v>0.0</v>
@@ -5678,33 +5834,33 @@
         <f>Sheet1!BB6</f>
         <v>12</v>
       </c>
-      <c r="BC5" s="41" t="str">
+      <c r="BC5" s="41">
         <f>Sheet1!BC6</f>
-        <v/>
-      </c>
-      <c r="BD5" s="41" t="str">
+        <v>8</v>
+      </c>
+      <c r="BD5" s="41">
         <f>Sheet1!BD6</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="BE5" s="41" t="str">
         <f>Sheet1!BE6</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BF5" s="41">
         <f>Sheet1!BF6</f>
-        <v>0</v>
-      </c>
-      <c r="BG5" s="41" t="str">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="41">
         <f>Sheet1!BG6</f>
-        <v/>
-      </c>
-      <c r="BH5" s="41" t="str">
+        <v>21</v>
+      </c>
+      <c r="BH5" s="41">
         <f>Sheet1!BH6</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="BI5" s="41" t="str">
         <f>Sheet1!BI6</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BJ5" s="41">
         <f>Sheet1!BJ6</f>
@@ -5931,37 +6087,37 @@
         <f>Sheet1!BB7</f>
         <v>1</v>
       </c>
-      <c r="BC6" s="41" t="str">
+      <c r="BC6" s="41">
         <f>Sheet1!BC7</f>
-        <v/>
-      </c>
-      <c r="BD6" s="41" t="str">
+        <v>5</v>
+      </c>
+      <c r="BD6" s="41">
         <f>Sheet1!BD7</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="BE6" s="41" t="str">
         <f>Sheet1!BE7</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BF6" s="41">
         <f>Sheet1!BF7</f>
-        <v>0</v>
-      </c>
-      <c r="BG6" s="41" t="str">
+        <v>4</v>
+      </c>
+      <c r="BG6" s="41">
         <f>Sheet1!BG7</f>
-        <v/>
-      </c>
-      <c r="BH6" s="41" t="str">
+        <v>2</v>
+      </c>
+      <c r="BH6" s="41">
         <f>Sheet1!BH7</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="BI6" s="41" t="str">
         <f>Sheet1!BI7</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BJ6" s="41">
         <f>Sheet1!BJ7</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BK6" s="4">
         <v>0.0</v>
@@ -6437,37 +6593,37 @@
         <f>Sheet1!BB9</f>
         <v>15</v>
       </c>
-      <c r="BC8" s="41" t="str">
+      <c r="BC8" s="41">
         <f>Sheet1!BC9</f>
-        <v/>
-      </c>
-      <c r="BD8" s="41" t="str">
+        <v>4</v>
+      </c>
+      <c r="BD8" s="41">
         <f>Sheet1!BD9</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="BE8" s="41" t="str">
         <f>Sheet1!BE9</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BF8" s="41">
         <f>Sheet1!BF9</f>
-        <v>0</v>
-      </c>
-      <c r="BG8" s="41" t="str">
+        <v>5</v>
+      </c>
+      <c r="BG8" s="41">
         <f>Sheet1!BG9</f>
-        <v/>
-      </c>
-      <c r="BH8" s="41" t="str">
+        <v>3</v>
+      </c>
+      <c r="BH8" s="41">
         <f>Sheet1!BH9</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="BI8" s="41" t="str">
         <f>Sheet1!BI9</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BJ8" s="41">
         <f>Sheet1!BJ9</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BK8" s="4">
         <v>0.0</v>
@@ -6690,37 +6846,37 @@
         <f>Sheet1!BB10</f>
         <v>0</v>
       </c>
-      <c r="BC9" s="41" t="str">
+      <c r="BC9" s="41">
         <f>Sheet1!BC10</f>
-        <v/>
-      </c>
-      <c r="BD9" s="41" t="str">
+        <v>3</v>
+      </c>
+      <c r="BD9" s="41">
         <f>Sheet1!BD10</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="BE9" s="41" t="str">
         <f>Sheet1!BE10</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BF9" s="41">
         <f>Sheet1!BF10</f>
-        <v>0</v>
-      </c>
-      <c r="BG9" s="41" t="str">
+        <v>6</v>
+      </c>
+      <c r="BG9" s="41">
         <f>Sheet1!BG10</f>
-        <v/>
-      </c>
-      <c r="BH9" s="41" t="str">
+        <v>4</v>
+      </c>
+      <c r="BH9" s="41">
         <f>Sheet1!BH10</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="BI9" s="41" t="str">
         <f>Sheet1!BI10</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BJ9" s="41">
         <f>Sheet1!BJ10</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BK9" s="4">
         <v>0.0</v>
@@ -6943,37 +7099,37 @@
         <f>Sheet1!BB11</f>
         <v>26</v>
       </c>
-      <c r="BC10" s="41" t="str">
+      <c r="BC10" s="41">
         <f>Sheet1!BC11</f>
-        <v/>
-      </c>
-      <c r="BD10" s="41" t="str">
+        <v>2</v>
+      </c>
+      <c r="BD10" s="41">
         <f>Sheet1!BD11</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="BE10" s="41" t="str">
         <f>Sheet1!BE11</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="BF10" s="41">
         <f>Sheet1!BF11</f>
-        <v>0</v>
-      </c>
-      <c r="BG10" s="41" t="str">
+        <v>8</v>
+      </c>
+      <c r="BG10" s="41">
         <f>Sheet1!BG11</f>
-        <v/>
-      </c>
-      <c r="BH10" s="41" t="str">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="41">
         <f>Sheet1!BH11</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="BI10" s="41" t="str">
         <f>Sheet1!BI11</f>
-        <v/>
+        <v>Y</v>
       </c>
       <c r="BJ10" s="41">
         <f>Sheet1!BJ11</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BK10" s="4">
         <v>0.0</v>
@@ -7196,33 +7352,33 @@
         <f>Sheet1!BB12</f>
         <v>0</v>
       </c>
-      <c r="BC11" s="41" t="str">
+      <c r="BC11" s="41">
         <f>Sheet1!BC12</f>
-        <v/>
-      </c>
-      <c r="BD11" s="41" t="str">
+        <v>22</v>
+      </c>
+      <c r="BD11" s="41">
         <f>Sheet1!BD12</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="BE11" s="41" t="str">
         <f>Sheet1!BE12</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BF11" s="41">
         <f>Sheet1!BF12</f>
         <v>0</v>
       </c>
-      <c r="BG11" s="41" t="str">
+      <c r="BG11" s="41">
         <f>Sheet1!BG12</f>
-        <v/>
-      </c>
-      <c r="BH11" s="41" t="str">
+        <v>22</v>
+      </c>
+      <c r="BH11" s="41">
         <f>Sheet1!BH12</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="BI11" s="41" t="str">
         <f>Sheet1!BI12</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BJ11" s="41">
         <f>Sheet1!BJ12</f>
@@ -7449,37 +7605,37 @@
         <f>Sheet1!BB13</f>
         <v>0</v>
       </c>
-      <c r="BC12" s="41" t="str">
+      <c r="BC12" s="41">
         <f>Sheet1!BC13</f>
-        <v/>
-      </c>
-      <c r="BD12" s="41" t="str">
+        <v>13</v>
+      </c>
+      <c r="BD12" s="41">
         <f>Sheet1!BD13</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="BE12" s="41" t="str">
         <f>Sheet1!BE13</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BF12" s="41">
         <f>Sheet1!BF13</f>
-        <v>0</v>
-      </c>
-      <c r="BG12" s="41" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="BG12" s="41">
         <f>Sheet1!BG13</f>
-        <v/>
-      </c>
-      <c r="BH12" s="41" t="str">
+        <v>18</v>
+      </c>
+      <c r="BH12" s="41">
         <f>Sheet1!BH13</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="BI12" s="41" t="str">
         <f>Sheet1!BI13</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BJ12" s="41">
         <f>Sheet1!BJ13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK12" s="4">
         <v>0.0</v>
@@ -7702,33 +7858,33 @@
         <f>Sheet1!BB14</f>
         <v>0</v>
       </c>
-      <c r="BC13" s="41" t="str">
+      <c r="BC13" s="41">
         <f>Sheet1!BC14</f>
-        <v/>
-      </c>
-      <c r="BD13" s="41" t="str">
+        <v>22</v>
+      </c>
+      <c r="BD13" s="41">
         <f>Sheet1!BD14</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="BE13" s="41" t="str">
         <f>Sheet1!BE14</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BF13" s="41">
         <f>Sheet1!BF14</f>
         <v>0</v>
       </c>
-      <c r="BG13" s="41" t="str">
+      <c r="BG13" s="41">
         <f>Sheet1!BG14</f>
-        <v/>
-      </c>
-      <c r="BH13" s="41" t="str">
+        <v>22</v>
+      </c>
+      <c r="BH13" s="41">
         <f>Sheet1!BH14</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="BI13" s="41" t="str">
         <f>Sheet1!BI14</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BJ13" s="41">
         <f>Sheet1!BJ14</f>
@@ -7955,33 +8111,33 @@
         <f>Sheet1!BB15</f>
         <v>0</v>
       </c>
-      <c r="BC14" s="41" t="str">
+      <c r="BC14" s="41">
         <f>Sheet1!BC15</f>
-        <v/>
-      </c>
-      <c r="BD14" s="41" t="str">
+        <v>22</v>
+      </c>
+      <c r="BD14" s="41">
         <f>Sheet1!BD15</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="BE14" s="41" t="str">
         <f>Sheet1!BE15</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BF14" s="41">
         <f>Sheet1!BF15</f>
         <v>0</v>
       </c>
-      <c r="BG14" s="41" t="str">
+      <c r="BG14" s="41">
         <f>Sheet1!BG15</f>
-        <v/>
-      </c>
-      <c r="BH14" s="41" t="str">
+        <v>22</v>
+      </c>
+      <c r="BH14" s="41">
         <f>Sheet1!BH15</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="BI14" s="41" t="str">
         <f>Sheet1!BI15</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="BJ14" s="41">
         <f>Sheet1!BJ15</f>
@@ -8735,7 +8891,7 @@
         <v>65</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D14" s="44"/>
     </row>
@@ -8766,13 +8922,13 @@
     <row r="2">
       <c r="B2" s="46"/>
       <c r="C2" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="E2" s="49" t="s">
         <v>68</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -8781,13 +8937,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>71</v>
-      </c>
       <c r="E3" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -8796,13 +8952,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="E4" s="57" t="s">
         <v>73</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -8811,13 +8967,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="57" t="s">
         <v>74</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -8826,13 +8982,13 @@
         <v>62</v>
       </c>
       <c r="C6" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="60" t="s">
         <v>75</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -8841,13 +8997,13 @@
         <v>64</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -4,10 +4,11 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="PythonReadyData" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Schedule" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="TentativeSchedule" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Sheet6" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet2" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="PythonReadyData" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Schedule" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="TentativeSchedule" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="77">
   <si>
     <t>Suzuka</t>
   </si>
@@ -908,6 +909,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -1646,9 +1651,6 @@
         <f>IFERROR((VLOOKUP(BG3,Sheet2!$A:$B,2,0))+IF(BI3="y",1,0),0)</f>
         <v>8</v>
       </c>
-      <c r="BK3" s="4">
-        <v>2.0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
@@ -2055,9 +2057,6 @@
         <f>IFERROR((VLOOKUP(BG5,Sheet2!$A:$B,2,0))+IF(BI5="y",1,0),0)</f>
         <v>12</v>
       </c>
-      <c r="BK5" s="4">
-        <v>5.0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -2249,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="BG6" s="12">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="BH6" s="13">
         <v>13.0</v>
@@ -2259,7 +2258,7 @@
       </c>
       <c r="BJ6" s="15">
         <f>IFERROR((VLOOKUP(BG6,Sheet2!$A:$B,2,0))+IF(BI6="y",1,0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2463,9 +2462,6 @@
       <c r="BJ7" s="15">
         <f>IFERROR((VLOOKUP(BG7,Sheet2!$A:$B,2,0))+IF(BI7="y",1,0),0)</f>
         <v>18</v>
-      </c>
-      <c r="BK7" s="4">
-        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -2783,9 +2779,6 @@
         <f>IFERROR((VLOOKUP(BG9,Sheet2!$A:$B,2,0))+IF(BI9="y",1,0),0)</f>
         <v>15</v>
       </c>
-      <c r="BK9" s="4">
-        <v>4.0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
@@ -2988,9 +2981,6 @@
       <c r="BJ10" s="15">
         <f>IFERROR((VLOOKUP(BG10,Sheet2!$A:$B,2,0))+IF(BI10="y",1,0),0)</f>
         <v>12</v>
-      </c>
-      <c r="BK10" s="4">
-        <v>5.0</v>
       </c>
     </row>
     <row r="11">
@@ -4190,6 +4180,637 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="11">
+        <f>IFERROR((VLOOKUP(A3,Sheet2!$A:$B,2,0))+IF(C3="y",1,0),0)</f>
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="11">
+        <f>IFERROR((VLOOKUP(G3,Sheet2!$A:$B,2,0))+IF(I3="y",1,0),0)</f>
+        <v>18</v>
+      </c>
+      <c r="M3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="11">
+        <f>IFERROR((VLOOKUP(M3,Sheet2!$A:$B,2,0))+IF(O3="y",1,0),0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="B4" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="15">
+        <f>IFERROR((VLOOKUP(A4,Sheet2!$A:$B,2,0))+IF(C4="y",1,0),0)</f>
+        <v>6</v>
+      </c>
+      <c r="G4" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="15">
+        <f>IFERROR((VLOOKUP(G4,Sheet2!$A:$B,2,0))+IF(I4="y",1,0),0)</f>
+        <v>6</v>
+      </c>
+      <c r="M4" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="N4" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="15">
+        <f>IFERROR((VLOOKUP(M4,Sheet2!$A:$B,2,0))+IF(O4="y",1,0),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="15">
+        <f>IFERROR((VLOOKUP(A5,Sheet2!$A:$B,2,0))+IF(C5="y",1,0),0)</f>
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="15">
+        <f>IFERROR((VLOOKUP(G5,Sheet2!$A:$B,2,0))+IF(I5="y",1,0),0)</f>
+        <v>10</v>
+      </c>
+      <c r="M5" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="N5" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="15">
+        <f>IFERROR((VLOOKUP(M5,Sheet2!$A:$B,2,0))+IF(O5="y",1,0),0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="B6" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="15">
+        <f>IFERROR((VLOOKUP(A6,Sheet2!$A:$B,2,0))+IF(C6="y",1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="15">
+        <f>IFERROR((VLOOKUP(G6,Sheet2!$A:$B,2,0))+IF(I6="y",1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="15">
+        <f>IFERROR((VLOOKUP(M6,Sheet2!$A:$B,2,0))+IF(O6="y",1,0),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="B7" s="13">
+        <v>16.0</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="15">
+        <f>IFERROR((VLOOKUP(A7,Sheet2!$A:$B,2,0))+IF(C7="y",1,0),0)</f>
+        <v>18</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>16.0</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="15">
+        <f>IFERROR((VLOOKUP(G7,Sheet2!$A:$B,2,0))+IF(I7="y",1,0),0)</f>
+        <v>15</v>
+      </c>
+      <c r="M7" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="N7" s="13">
+        <v>16.0</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="15">
+        <f>IFERROR((VLOOKUP(M7,Sheet2!$A:$B,2,0))+IF(O7="y",1,0),0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19">
+        <f>IFERROR((VLOOKUP(A8,Sheet2!$A:$B,2,0))+IF(C8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19">
+        <f>IFERROR((VLOOKUP(G8,Sheet2!$A:$B,2,0))+IF(I8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="19">
+        <f>IFERROR((VLOOKUP(M8,Sheet2!$A:$B,2,0))+IF(O8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="B9" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="15">
+        <f>IFERROR((VLOOKUP(A9,Sheet2!$A:$B,2,0))+IF(C9="y",1,0),0)</f>
+        <v>15</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="15">
+        <f>IFERROR((VLOOKUP(G9,Sheet2!$A:$B,2,0))+IF(I9="y",1,0),0)</f>
+        <v>12</v>
+      </c>
+      <c r="M9" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="N9" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="15">
+        <f>IFERROR((VLOOKUP(M9,Sheet2!$A:$B,2,0))+IF(O9="y",1,0),0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="B10" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="15">
+        <f>IFERROR((VLOOKUP(A10,Sheet2!$A:$B,2,0))+IF(C10="y",1,0),0)</f>
+        <v>12</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="15">
+        <f>IFERROR((VLOOKUP(G10,Sheet2!$A:$B,2,0))+IF(I10="y",1,0),0)</f>
+        <v>8</v>
+      </c>
+      <c r="M10" s="12">
+        <v>21.0</v>
+      </c>
+      <c r="N10" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="15">
+        <f>IFERROR((VLOOKUP(M10,Sheet2!$A:$B,2,0))+IF(O10="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="B11" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="15">
+        <f>IFERROR((VLOOKUP(A11,Sheet2!$A:$B,2,0))+IF(C11="y",1,0),0)</f>
+        <v>26</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="15">
+        <f>IFERROR((VLOOKUP(G11,Sheet2!$A:$B,2,0))+IF(I11="y",1,0),0)</f>
+        <v>26</v>
+      </c>
+      <c r="M11" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="15">
+        <f>IFERROR((VLOOKUP(M11,Sheet2!$A:$B,2,0))+IF(O11="y",1,0),0)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="B12" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="15">
+        <f>IFERROR((VLOOKUP(A12,Sheet2!$A:$B,2,0))+IF(C12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="15">
+        <f>IFERROR((VLOOKUP(G12,Sheet2!$A:$B,2,0))+IF(I12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="15">
+        <f>IFERROR((VLOOKUP(M12,Sheet2!$A:$B,2,0))+IF(O12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="12">
+        <v>18.0</v>
+      </c>
+      <c r="B13" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="15">
+        <f>IFERROR((VLOOKUP(A13,Sheet2!$A:$B,2,0))+IF(C13="y",1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>18.0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="15">
+        <f>IFERROR((VLOOKUP(G13,Sheet2!$A:$B,2,0))+IF(I13="y",1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="12">
+        <v>17.0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="15">
+        <f>IFERROR((VLOOKUP(M13,Sheet2!$A:$B,2,0))+IF(O13="y",1,0),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="B14" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="15">
+        <f>IFERROR((VLOOKUP(A14,Sheet2!$A:$B,2,0))+IF(C14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="15">
+        <f>IFERROR((VLOOKUP(G14,Sheet2!$A:$B,2,0))+IF(I14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="15">
+        <f>IFERROR((VLOOKUP(M14,Sheet2!$A:$B,2,0))+IF(O14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="B15" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="15">
+        <f>IFERROR((VLOOKUP(A15,Sheet2!$A:$B,2,0))+IF(C15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="15">
+        <f>IFERROR((VLOOKUP(G15,Sheet2!$A:$B,2,0))+IF(I15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="15">
+        <f>IFERROR((VLOOKUP(M15,Sheet2!$A:$B,2,0))+IF(O15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37">
+        <f>IFERROR((VLOOKUP(A16,Sheet2!$A:$B,2,0))+IF(C16="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37">
+        <f>IFERROR((VLOOKUP(G16,Sheet2!$A:$B,2,0))+IF(I16="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="34"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="37">
+        <f>IFERROR((VLOOKUP(M16,Sheet2!$A:$B,2,0))+IF(O16="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="M1:P1"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="38" t="s">
         <v>41</v>
       </c>
@@ -4589,7 +5210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5852,7 +6473,7 @@
       </c>
       <c r="BG5" s="41">
         <f>Sheet1!BG6</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BH5" s="41">
         <f>Sheet1!BH6</f>
@@ -5864,7 +6485,7 @@
       </c>
       <c r="BJ5" s="41">
         <f>Sheet1!BJ6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5" s="4">
         <v>0.0</v>
@@ -8723,7 +9344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8900,7 +9521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -2970,7 +2970,7 @@
         <v>6</v>
       </c>
       <c r="BG10" s="12">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="BH10" s="13">
         <v>18.0</v>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="BJ10" s="15">
         <f>IFERROR((VLOOKUP(BG10,Sheet2!$A:$B,2,0))+IF(BI10="y",1,0),0)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -4520,7 +4520,7 @@
     </row>
     <row r="10">
       <c r="A10" s="12">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B10" s="13">
         <v>18.0</v>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="D10" s="15">
         <f>IFERROR((VLOOKUP(A10,Sheet2!$A:$B,2,0))+IF(C10="y",1,0),0)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4">
         <v>5.0</v>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="BG9" s="41">
         <f>Sheet1!BG10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH9" s="41">
         <f>Sheet1!BH10</f>
@@ -7497,7 +7497,7 @@
       </c>
       <c r="BJ9" s="41">
         <f>Sheet1!BJ10</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BK9" s="4">
         <v>0.0</v>

--- a/F124_season.xlsx
+++ b/F124_season.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="83">
   <si>
     <t>Suzuka</t>
   </si>
@@ -141,6 +141,18 @@
     <t>Gary</t>
   </si>
   <si>
+    <t>As it lies</t>
+  </si>
+  <si>
+    <t>DQ and Nick</t>
+  </si>
+  <si>
+    <t>just DQ</t>
+  </si>
+  <si>
+    <t>5 place penalty</t>
+  </si>
+  <si>
     <t>Grand Prix Points</t>
   </si>
   <si>
@@ -214,6 +226,12 @@
   </si>
   <si>
     <t>2/12/2025</t>
+  </si>
+  <si>
+    <t>Postseason: Monaco</t>
+  </si>
+  <si>
+    <t>2/19/2026</t>
   </si>
   <si>
     <t>The Double</t>
@@ -4198,6 +4216,18 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="3"/>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="3"/>
+      <c r="Y1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
@@ -4236,6 +4266,36 @@
       <c r="P2" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="R2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="8">
@@ -4280,6 +4340,38 @@
         <f>IFERROR((VLOOKUP(M3,Sheet2!$A:$B,2,0))+IF(O3="y",1,0),0)</f>
         <v>18</v>
       </c>
+      <c r="R3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="T3" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="11">
+        <f>IFERROR((VLOOKUP(S3,Sheet2!$A:$B,2,0))+IF(U3="y",1,0),0)</f>
+        <v>10</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="11">
+        <f>IFERROR((VLOOKUP(Y3,Sheet2!$A:$B,2,0))+IF(AA3="y",1,0),0)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="12">
@@ -4321,6 +4413,38 @@
         <f>IFERROR((VLOOKUP(M4,Sheet2!$A:$B,2,0))+IF(O4="y",1,0),0)</f>
         <v>8</v>
       </c>
+      <c r="R4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="T4" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" s="15">
+        <f>IFERROR((VLOOKUP(S4,Sheet2!$A:$B,2,0))+IF(U4="y",1,0),0)</f>
+        <v>8</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB4" s="15">
+        <f>IFERROR((VLOOKUP(Y4,Sheet2!$A:$B,2,0))+IF(AA4="y",1,0),0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="12">
@@ -4365,6 +4489,38 @@
         <f>IFERROR((VLOOKUP(M5,Sheet2!$A:$B,2,0))+IF(O5="y",1,0),0)</f>
         <v>10</v>
       </c>
+      <c r="R5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="T5" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="15">
+        <f>IFERROR((VLOOKUP(S5,Sheet2!$A:$B,2,0))+IF(U5="y",1,0),0)</f>
+        <v>12</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB5" s="15">
+        <f>IFERROR((VLOOKUP(Y5,Sheet2!$A:$B,2,0))+IF(AA5="y",1,0),0)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="12">
@@ -4406,6 +4562,38 @@
         <f>IFERROR((VLOOKUP(M6,Sheet2!$A:$B,2,0))+IF(O6="y",1,0),0)</f>
         <v>1</v>
       </c>
+      <c r="R6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="T6" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="15">
+        <f>IFERROR((VLOOKUP(S6,Sheet2!$A:$B,2,0))+IF(U6="y",1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB6" s="15">
+        <f>IFERROR((VLOOKUP(Y6,Sheet2!$A:$B,2,0))+IF(AA6="y",1,0),0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="12">
@@ -4449,6 +4637,38 @@
       <c r="P7" s="15">
         <f>IFERROR((VLOOKUP(M7,Sheet2!$A:$B,2,0))+IF(O7="y",1,0),0)</f>
         <v>15</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="T7" s="13">
+        <v>16.0</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="V7" s="15">
+        <f>IFERROR((VLOOKUP(S7,Sheet2!$A:$B,2,0))+IF(U7="y",1,0),0)</f>
+        <v>18</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>16.0</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB7" s="15">
+        <f>IFERROR((VLOOKUP(Y7,Sheet2!$A:$B,2,0))+IF(AA7="y",1,0),0)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -4473,6 +4693,26 @@
         <f>IFERROR((VLOOKUP(M8,Sheet2!$A:$B,2,0))+IF(O8="y",1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="R8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="16"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="19">
+        <f>IFERROR((VLOOKUP(S8,Sheet2!$A:$B,2,0))+IF(U8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="19">
+        <f>IFERROR((VLOOKUP(Y8,Sheet2!$A:$B,2,0))+IF(AA8="y",1,0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="12">
@@ -4517,6 +4757,38 @@
         <f>IFERROR((VLOOKUP(M9,Sheet2!$A:$B,2,0))+IF(O9="y",1,0),0)</f>
         <v>12</v>
       </c>
+      <c r="R9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="T9" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="V9" s="15">
+        <f>IFERROR((VLOOKUP(S9,Sheet2!$A:$B,2,0))+IF(U9="y",1,0),0)</f>
+        <v>15</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB9" s="15">
+        <f>IFERROR((VLOOKUP(Y9,Sheet2!$A:$B,2,0))+IF(AA9="y",1,0),0)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="12">
@@ -4533,7 +4805,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="4">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G10" s="12">
         <v>6.0</v>
@@ -4561,6 +4833,38 @@
         <f>IFERROR((VLOOKUP(M10,Sheet2!$A:$B,2,0))+IF(O10="y",1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="R10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="12">
+        <v>21.0</v>
+      </c>
+      <c r="T10" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="V10" s="15">
+        <f>IFERROR((VLOOKUP(S10,Sheet2!$A:$B,2,0))+IF(U10="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB10" s="15">
+        <f>IFERROR((VLOOKUP(Y10,Sheet2!$A:$B,2,0))+IF(AA10="y",1,0),0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="12">
@@ -4602,6 +4906,38 @@
         <f>IFERROR((VLOOKUP(M11,Sheet2!$A:$B,2,0))+IF(O11="y",1,0),0)</f>
         <v>26</v>
       </c>
+      <c r="R11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="T11" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="V11" s="15">
+        <f>IFERROR((VLOOKUP(S11,Sheet2!$A:$B,2,0))+IF(U11="y",1,0),0)</f>
+        <v>26</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="AA11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB11" s="15">
+        <f>IFERROR((VLOOKUP(Y11,Sheet2!$A:$B,2,0))+IF(AA11="y",1,0),0)</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="12">
@@ -4641,6 +4977,38 @@
       </c>
       <c r="P12" s="15">
         <f>IFERROR((VLOOKUP(M12,Sheet2!$A:$B,2,0))+IF(O12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="T12" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="V12" s="15">
+        <f>IFERROR((VLOOKUP(S12,Sheet2!$A:$B,2,0))+IF(U12="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="AA12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB12" s="15">
+        <f>IFERROR((VLOOKUP(Y12,Sheet2!$A:$B,2,0))+IF(AA12="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4684,6 +5052,38 @@
         <f>IFERROR((VLOOKUP(M13,Sheet2!$A:$B,2,0))+IF(O13="y",1,0),0)</f>
         <v>1</v>
       </c>
+      <c r="R13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="12">
+        <v>17.0</v>
+      </c>
+      <c r="T13" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="V13" s="15">
+        <f>IFERROR((VLOOKUP(S13,Sheet2!$A:$B,2,0))+IF(U13="y",1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>18.0</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="AA13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB13" s="15">
+        <f>IFERROR((VLOOKUP(Y13,Sheet2!$A:$B,2,0))+IF(AA13="y",1,0),0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="12">
@@ -4725,6 +5125,38 @@
         <f>IFERROR((VLOOKUP(M14,Sheet2!$A:$B,2,0))+IF(O14="y",1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="R14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="T14" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="U14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="V14" s="15">
+        <f>IFERROR((VLOOKUP(S14,Sheet2!$A:$B,2,0))+IF(U14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="AA14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB14" s="15">
+        <f>IFERROR((VLOOKUP(Y14,Sheet2!$A:$B,2,0))+IF(AA14="y",1,0),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="12">
@@ -4764,6 +5196,38 @@
       </c>
       <c r="P15" s="15">
         <f>IFERROR((VLOOKUP(M15,Sheet2!$A:$B,2,0))+IF(O15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="V15" s="15">
+        <f>IFERROR((VLOOKUP(S15,Sheet2!$A:$B,2,0))+IF(U15="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="AA15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB15" s="15">
+        <f>IFERROR((VLOOKUP(Y15,Sheet2!$A:$B,2,0))+IF(AA15="y",1,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4789,12 +5253,51 @@
         <f>IFERROR((VLOOKUP(M16,Sheet2!$A:$B,2,0))+IF(O16="y",1,0),0)</f>
         <v>0</v>
       </c>
+      <c r="R16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="34"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="37">
+        <f>IFERROR((VLOOKUP(S16,Sheet2!$A:$B,2,0))+IF(U16="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="37">
+        <f>IFERROR((VLOOKUP(Y16,Sheet2!$A:$B,2,0))+IF(AA16="y",1,0),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="M1:P1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="Y1:AB1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4812,11 +5315,11 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="38" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B1" s="39"/>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5121,7 +5624,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D23" s="40">
         <v>21.0</v>
@@ -5130,7 +5633,7 @@
         <v>0.0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
@@ -5141,7 +5644,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D24" s="40">
         <v>22.0</v>
@@ -5150,7 +5653,7 @@
         <v>0.0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -5476,7 +5979,7 @@
         <v>COTAPoints</v>
       </c>
       <c r="BK1" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -9354,30 +9857,30 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.5"/>
+    <col customWidth="1" min="1" max="1" width="18.0"/>
     <col customWidth="1" min="2" max="2" width="25.38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="42" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -9385,10 +9888,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -9396,10 +9899,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -9407,10 +9910,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -9418,10 +9921,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -9429,21 +9932,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>55</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -9451,10 +9954,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -9462,10 +9965,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -9473,10 +9976,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D11" s="44"/>
     </row>
@@ -9485,36 +9988,47 @@
         <v>10</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D12" s="44"/>
     </row>
     <row r="13">
       <c r="A13" s="42" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D13" s="44"/>
     </row>
     <row r="14">
       <c r="A14" s="42" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D14" s="44"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9543,13 +10057,13 @@
     <row r="2">
       <c r="B2" s="46"/>
       <c r="C2" s="47" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -9558,13 +10072,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -9573,13 +10087,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -9588,43 +10102,43 @@
         <v>10</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="45"/>
       <c r="B6" s="54" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="45"/>
       <c r="B7" s="61" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
